--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A5F2C-FB22-4542-9C52-98444AD6ACE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E1DCA-95C5-4B37-BEA0-6033317F8BDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="-23148" yWindow="0" windowWidth="23256" windowHeight="12576" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,6 +170,1877 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$25:$E$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.4110540454517E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1938388220454957E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0219978638120604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.2920729768569356E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$B$25:$E$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.4110540454517E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1938388220454957E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0219978638120604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.2920729768569356E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$23:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3173268963984188E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5132119631182801E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7535106283079838E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0273961825241173E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6ED8-45B5-AE65-A211A979E3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="351104152"/>
+        <c:axId val="351102840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="351104152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351102840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="351102840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351104152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kMCT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$29:$F$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.2057455739979463E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7309495294150879E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.39928208436858398</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.13741088889033834</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$29:$F$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.2057455739979463E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7309495294150879E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.39928208436858398</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.13741088889033834</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$27:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.2535545750464687E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3541415185008206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75444268232926348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16916415025152015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-688F-44C5-BD22-384F6A6EE5D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="657455432"/>
+        <c:axId val="657455104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="657455432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657455104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="657455104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657455432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89B8D49-F3D8-418C-92D8-2239E8728EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539A2C9C-56E6-4AFF-AD08-CA9D41EB9B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C412B43B-2314-4052-A08E-119606CE711A}">
   <dimension ref="A1:AK93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE44" sqref="AE44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4203,5 +6074,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E1DCA-95C5-4B37-BEA0-6033317F8BDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB6E59-7C8D-4193-9B25-4339B2248DEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="0" windowWidth="23256" windowHeight="12576" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="46">
   <si>
     <t>HK-2</t>
   </si>
@@ -104,6 +106,72 @@
   <si>
     <t>R1Lex</t>
   </si>
+  <si>
+    <t>R1Lin</t>
+  </si>
+  <si>
+    <t>0.02 ± 0</t>
+  </si>
+  <si>
+    <t>0 ± 0</t>
+  </si>
+  <si>
+    <t>0.01 ± 0</t>
+  </si>
+  <si>
+    <t>0.03 ± 0.01</t>
+  </si>
+  <si>
+    <t>0.43 ± 0.22</t>
+  </si>
+  <si>
+    <t>0.2 ± 0.2</t>
+  </si>
+  <si>
+    <t>0.42 ± 0.1</t>
+  </si>
+  <si>
+    <t>0.35 ± 0.2</t>
+  </si>
+  <si>
+    <t>0.07 ± 0.02</t>
+  </si>
+  <si>
+    <t>0.05 ± 0.02</t>
+  </si>
+  <si>
+    <t>0.06 ± 0.01</t>
+  </si>
+  <si>
+    <t>0.08 ± 0.01</t>
+  </si>
+  <si>
+    <t>0.09 ± 0.01</t>
+  </si>
+  <si>
+    <t>0.35 ± 0.06</t>
+  </si>
+  <si>
+    <t>0.75 ± 0.4</t>
+  </si>
+  <si>
+    <t>0.17 ± 0.14</t>
+  </si>
+  <si>
+    <t>0.03 ± 0</t>
+  </si>
+  <si>
+    <t>0.04 ± 0.02</t>
+  </si>
+  <si>
+    <t>0.2 ± 0.05</t>
+  </si>
+  <si>
+    <t>1.67 ± 1.13</t>
+  </si>
+  <si>
+    <t>0.74 ± 0.73</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,12 +202,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,6 +964,360 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R1L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$33:$G$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.3803754511435734E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3947765296666392E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0466686942143609E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4625933793160245E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$D$33:$G$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.3803754511435734E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3947765296666392E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0466686942143609E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4625933793160245E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$31:$G$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.384890314233869E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0263555960985945E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3109847044927683E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0357873156810505E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE45-4AD7-964C-B65B3D267C53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="608844992"/>
+        <c:axId val="608845320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="608844992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608845320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608845320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608844992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -960,6 +1398,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1966,20 +2444,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2006,16 +2987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2035,6 +3016,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC1E7B5-23F1-4952-A150-86FEC589077E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2342,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C412B43B-2314-4052-A08E-119606CE711A}">
   <dimension ref="A1:AK93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6064,16 +7081,1332 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N23:W44">
-    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="Ok">
+    <cfRule type="notContainsText" dxfId="1" priority="5" operator="notContains" text="Ok">
       <formula>ISERROR(SEARCH("Ok",N23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23:AE44">
-    <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="Ok">
+    <cfRule type="notContainsText" dxfId="0" priority="4" operator="notContains" text="Ok">
       <formula>ISERROR(SEARCH("Ok",AD23))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619B633D-6CFB-483C-9FB4-8F6342530738}">
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:X10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.3173268963984188E-3</v>
+      </c>
+      <c r="C2">
+        <v>9.2535545750464687E-2</v>
+      </c>
+      <c r="D2">
+        <v>7.384890314233869E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.43030529517923882</v>
+      </c>
+      <c r="F2">
+        <v>3.6340015217690251E-2</v>
+      </c>
+      <c r="G2">
+        <v>3.3334323368655015E-3</v>
+      </c>
+      <c r="H2">
+        <v>3.2650559954686166E-3</v>
+      </c>
+      <c r="I2">
+        <v>2.0365681512952261E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.6578997644427605E-2</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.5132119631182801E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.3541415185008206</v>
+      </c>
+      <c r="D3">
+        <v>5.0263555960985945E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.19506446675691699</v>
+      </c>
+      <c r="F3">
+        <v>0.20403788869996353</v>
+      </c>
+      <c r="G3">
+        <v>3.547600000994643E-4</v>
+      </c>
+      <c r="H3">
+        <v>6.7002828792823597E-3</v>
+      </c>
+      <c r="I3">
+        <v>1.9902792231451975E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.6835872828472173E-2</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.7535106283079838E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.75444268232926348</v>
+      </c>
+      <c r="D4">
+        <v>6.3109847044927683E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.41603336191621143</v>
+      </c>
+      <c r="F4">
+        <v>1.6742312906554444</v>
+      </c>
+      <c r="G4">
+        <v>2.3075847901287152E-3</v>
+      </c>
+      <c r="H4">
+        <v>2.3435920833815606E-3</v>
+      </c>
+      <c r="I4">
+        <v>2.0561912508965351E-2</v>
+      </c>
+      <c r="J4">
+        <v>2.6886662268571313E-2</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.0273961825241173E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.16916415025152015</v>
+      </c>
+      <c r="D5">
+        <v>8.0357873156810505E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.34656142030851494</v>
+      </c>
+      <c r="F5">
+        <v>0.7445921275636318</v>
+      </c>
+      <c r="G5">
+        <v>2.5302835043647456E-3</v>
+      </c>
+      <c r="H5">
+        <v>5.0000426325554747E-3</v>
+      </c>
+      <c r="I5">
+        <v>2.0431830067845134E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.6657237171290454E-2</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.0781372792696553E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.10861417866800493</v>
+      </c>
+      <c r="D6">
+        <v>9.9999997840221358E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.65534649688981772</v>
+      </c>
+      <c r="F6">
+        <v>0.12058263481323089</v>
+      </c>
+      <c r="G6">
+        <v>1.9405421539302499E-7</v>
+      </c>
+      <c r="H6">
+        <v>9.9999838680933338E-3</v>
+      </c>
+      <c r="I6">
+        <v>2.0724037579474039E-2</v>
+      </c>
+      <c r="J6">
+        <v>2.659566477285033E-2</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.218428100833273E-3</v>
+      </c>
+      <c r="C7">
+        <v>0.2047343855353021</v>
+      </c>
+      <c r="D7">
+        <v>9.9999300808557345E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.58216172922031317</v>
+      </c>
+      <c r="F7">
+        <v>0.16373508288464522</v>
+      </c>
+      <c r="G7">
+        <v>3.9440761052938893E-7</v>
+      </c>
+      <c r="H7">
+        <v>5.0002088107608767E-3</v>
+      </c>
+      <c r="I7">
+        <v>2.0754795921728013E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.6777762541119757E-2</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2.0365681512952261E-2</v>
+      </c>
+      <c r="C9">
+        <v>2.3173268963984188E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.43030529517923882</v>
+      </c>
+      <c r="E9">
+        <v>7.384890314233869E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.2650559954686166E-3</v>
+      </c>
+      <c r="G9">
+        <v>9.2535545750464687E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.6578997644427605E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.6340015217690251E-2</v>
+      </c>
+      <c r="J9">
+        <v>3.3334323368655015E-3</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1.9902792231451975E-2</v>
+      </c>
+      <c r="C10">
+        <v>6.5132119631182801E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.19506446675691699</v>
+      </c>
+      <c r="E10">
+        <v>5.0263555960985945E-2</v>
+      </c>
+      <c r="F10">
+        <v>6.7002828792823597E-3</v>
+      </c>
+      <c r="G10">
+        <v>0.3541415185008206</v>
+      </c>
+      <c r="H10">
+        <v>2.6835872828472173E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.20403788869996353</v>
+      </c>
+      <c r="J10">
+        <v>3.547600000994643E-4</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2.0561912508965351E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.7535106283079838E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.41603336191621143</v>
+      </c>
+      <c r="E11">
+        <v>6.3109847044927683E-2</v>
+      </c>
+      <c r="F11">
+        <v>2.3435920833815606E-3</v>
+      </c>
+      <c r="G11">
+        <v>0.75444268232926348</v>
+      </c>
+      <c r="H11">
+        <v>2.6886662268571313E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.6742312906554444</v>
+      </c>
+      <c r="J11">
+        <v>2.3075847901287152E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2.0431830067845134E-2</v>
+      </c>
+      <c r="C12">
+        <v>5.0273961825241173E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.34656142030851494</v>
+      </c>
+      <c r="E12">
+        <v>8.0357873156810505E-2</v>
+      </c>
+      <c r="F12">
+        <v>5.0000426325554747E-3</v>
+      </c>
+      <c r="G12">
+        <v>0.16916415025152015</v>
+      </c>
+      <c r="H12">
+        <v>2.6657237171290454E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.7445921275636318</v>
+      </c>
+      <c r="J12">
+        <v>2.5302835043647456E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2.0724037579474039E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.0781372792696553E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.65534649688981772</v>
+      </c>
+      <c r="E13">
+        <v>9.9999997840221358E-2</v>
+      </c>
+      <c r="F13">
+        <v>9.9999838680933338E-3</v>
+      </c>
+      <c r="G13">
+        <v>0.10861417866800493</v>
+      </c>
+      <c r="H13">
+        <v>2.659566477285033E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.12058263481323089</v>
+      </c>
+      <c r="J13">
+        <v>1.9405421539302499E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>2.0754795921728013E-2</v>
+      </c>
+      <c r="C14">
+        <v>7.218428100833273E-3</v>
+      </c>
+      <c r="D14">
+        <v>0.58216172922031317</v>
+      </c>
+      <c r="E14">
+        <v>9.9999300808557345E-2</v>
+      </c>
+      <c r="F14">
+        <v>5.0002088107608767E-3</v>
+      </c>
+      <c r="G14">
+        <v>0.2047343855353021</v>
+      </c>
+      <c r="H14">
+        <v>2.6777762541119757E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.16373508288464522</v>
+      </c>
+      <c r="J14">
+        <v>3.9440761052938893E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1.4110540454517E-4</v>
+      </c>
+      <c r="C16">
+        <v>1.2057455739979463E-2</v>
+      </c>
+      <c r="D16">
+        <v>2.3803754511435734E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.21660481975386786</v>
+      </c>
+      <c r="F16">
+        <v>1.6672231507992838E-2</v>
+      </c>
+      <c r="G16">
+        <v>3.3332838326588514E-3</v>
+      </c>
+      <c r="H16">
+        <v>3.2650525106723968E-3</v>
+      </c>
+      <c r="I16">
+        <v>3.8194997275177109E-4</v>
+      </c>
+      <c r="J16">
+        <v>2.1625069528551808E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1.1938388220454957E-3</v>
+      </c>
+      <c r="C17">
+        <v>5.7309495294150879E-2</v>
+      </c>
+      <c r="D17">
+        <v>2.3947765296666392E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.19506444923262076</v>
+      </c>
+      <c r="F17">
+        <v>4.6989865419873371E-2</v>
+      </c>
+      <c r="G17">
+        <v>3.5468109480131071E-4</v>
+      </c>
+      <c r="H17">
+        <v>3.299717120689041E-3</v>
+      </c>
+      <c r="I17">
+        <v>2.9494907968756836E-4</v>
+      </c>
+      <c r="J17">
+        <v>4.8710360305349656E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1.0219978638120604E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.39928208436858398</v>
+      </c>
+      <c r="D18">
+        <v>1.0466686942143609E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.10216020479600753</v>
+      </c>
+      <c r="F18">
+        <v>1.1308765015832429</v>
+      </c>
+      <c r="G18">
+        <v>1.1718468534149583E-3</v>
+      </c>
+      <c r="H18">
+        <v>1.4092513298116012E-3</v>
+      </c>
+      <c r="I18">
+        <v>2.310682053692697E-4</v>
+      </c>
+      <c r="J18">
+        <v>1.614486351023254E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>4.2920729768569356E-4</v>
+      </c>
+      <c r="C19">
+        <v>0.13741088889033834</v>
+      </c>
+      <c r="D19">
+        <v>1.4625933793160245E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.20068232101892192</v>
+      </c>
+      <c r="F19">
+        <v>0.7333214675380374</v>
+      </c>
+      <c r="G19">
+        <v>2.4900647751280795E-3</v>
+      </c>
+      <c r="H19">
+        <v>2.8867255386663773E-3</v>
+      </c>
+      <c r="I19">
+        <v>4.7544596282562859E-4</v>
+      </c>
+      <c r="J19">
+        <v>1.279616788292203E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4.7600411383151179E-4</v>
+      </c>
+      <c r="C21">
+        <v>1.8308667441519141E-2</v>
+      </c>
+      <c r="D21">
+        <v>6.9919142025448567E-7</v>
+      </c>
+      <c r="E21">
+        <v>3.8283269949590908E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.8938160200325939E-2</v>
+      </c>
+      <c r="G21">
+        <v>3.9440757832449011E-7</v>
+      </c>
+      <c r="H21">
+        <v>4.9997905818977978E-3</v>
+      </c>
+      <c r="I21">
+        <v>1.7933404971992757E-4</v>
+      </c>
+      <c r="J21">
+        <v>2.9679016567189798E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>3.8194997275177109E-4</v>
+      </c>
+      <c r="C23">
+        <v>1.4110540454517E-4</v>
+      </c>
+      <c r="D23">
+        <v>0.21660481975386786</v>
+      </c>
+      <c r="E23">
+        <v>2.3803754511435734E-2</v>
+      </c>
+      <c r="F23">
+        <v>3.2650525106723968E-3</v>
+      </c>
+      <c r="G23">
+        <v>1.2057455739979463E-2</v>
+      </c>
+      <c r="H23">
+        <v>2.1625069528551808E-5</v>
+      </c>
+      <c r="I23">
+        <v>1.6672231507992838E-2</v>
+      </c>
+      <c r="J23">
+        <v>3.3332838326588514E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2.9494907968756836E-4</v>
+      </c>
+      <c r="C24">
+        <v>1.1938388220454957E-3</v>
+      </c>
+      <c r="D24">
+        <v>0.19506444923262076</v>
+      </c>
+      <c r="E24">
+        <v>2.3947765296666392E-2</v>
+      </c>
+      <c r="F24">
+        <v>3.299717120689041E-3</v>
+      </c>
+      <c r="G24">
+        <v>5.7309495294150879E-2</v>
+      </c>
+      <c r="H24">
+        <v>4.8710360305349656E-5</v>
+      </c>
+      <c r="I24">
+        <v>4.6989865419873371E-2</v>
+      </c>
+      <c r="J24">
+        <v>3.5468109480131071E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>2.310682053692697E-4</v>
+      </c>
+      <c r="C25">
+        <v>1.0219978638120604E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.10216020479600753</v>
+      </c>
+      <c r="E25">
+        <v>1.0466686942143609E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.4092513298116012E-3</v>
+      </c>
+      <c r="G25">
+        <v>0.39928208436858398</v>
+      </c>
+      <c r="H25">
+        <v>1.614486351023254E-4</v>
+      </c>
+      <c r="I25">
+        <v>1.1308765015832429</v>
+      </c>
+      <c r="J25">
+        <v>1.1718468534149583E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>4.7544596282562859E-4</v>
+      </c>
+      <c r="C26">
+        <v>4.2920729768569356E-4</v>
+      </c>
+      <c r="D26">
+        <v>0.20068232101892192</v>
+      </c>
+      <c r="E26">
+        <v>1.4625933793160245E-2</v>
+      </c>
+      <c r="F26">
+        <v>2.8867255386663773E-3</v>
+      </c>
+      <c r="G26">
+        <v>0.13741088889033834</v>
+      </c>
+      <c r="H26">
+        <v>1.279616788292203E-4</v>
+      </c>
+      <c r="I26">
+        <v>0.7333214675380374</v>
+      </c>
+      <c r="J26">
+        <v>2.4900647751280795E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1.7933404971992757E-4</v>
+      </c>
+      <c r="C28">
+        <v>4.7600411383151179E-4</v>
+      </c>
+      <c r="D28">
+        <v>3.8283269949590908E-2</v>
+      </c>
+      <c r="E28">
+        <v>6.9919142025448567E-7</v>
+      </c>
+      <c r="F28">
+        <v>4.9997905818977978E-3</v>
+      </c>
+      <c r="G28">
+        <v>1.8308667441519141E-2</v>
+      </c>
+      <c r="H28">
+        <v>2.9679016567189798E-5</v>
+      </c>
+      <c r="I28">
+        <v>1.8938160200325939E-2</v>
+      </c>
+      <c r="J28">
+        <v>3.9440757832449011E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="str">
+        <f>IF(NOT(ISNUMBER(FIND("E",B9))),_xlfn.CONCAT(ROUND(B9,2), " ± ", ROUND(B23,2)),_xlfn.CONCAT(LEFT(B9,4),RIGHT(B9,4), " ± ",LEFT(B23,4),RIGHT(B23,4)))</f>
+        <v>0.02 ± 0</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ref="C30:J30" si="0">IF(NOT(ISNUMBER(FIND("E",C9))),_xlfn.CONCAT(ROUND(C9,2), " ± ", ROUND(C23,2)),_xlfn.CONCAT(LEFT(C9,4),RIGHT(C9,4), " ± ",LEFT(C23,4),RIGHT(C23,4)))</f>
+        <v>0 ± 0</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>0.43 ± 0.22</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>0.07 ± 0.02</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>0 ± 0</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>0.09 ± 0.01</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03 ± 0</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>0.04 ± 0.02</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>0 ± 0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" ref="B31:J35" si="1">IF(NOT(ISNUMBER(FIND("E",B10))),_xlfn.CONCAT(ROUND(B10,2), " ± ", ROUND(B24,2)),_xlfn.CONCAT(LEFT(B10,4),RIGHT(B10,4), " ± ",LEFT(B24,4),RIGHT(B24,4)))</f>
+        <v>0.02 ± 0</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>0.01 ± 0</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>0.2 ± 0.2</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>0.05 ± 0.02</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>0.01 ± 0</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>0.35 ± 0.06</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>0.03 ± 0</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>0.2 ± 0.05</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="1"/>
+        <v>0 ± 0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>0.02 ± 0</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>0.03 ± 0.01</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>0.42 ± 0.1</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>0.06 ± 0.01</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>0 ± 0</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>0.75 ± 0.4</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>0.03 ± 0</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>1.67 ± 1.13</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v>0 ± 0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>0.02 ± 0</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>0.01 ± 0</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>0.35 ± 0.2</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>0.08 ± 0.01</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>0.01 ± 0</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>0.17 ± 0.14</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>0.03 ± 0</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>0.74 ± 0.73</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v>0 ± 0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>0.02 ± 0</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>0.01 ± 0</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>0.66 ± 0</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>0.1 ± 0</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>0.01 ± 0</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>0.11 ± 0</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>0.03 ± 0</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>0.12 ± 0</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">1.94E-07 ± </v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>0.02 ± 0</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>0.01 ± 0</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>0.58 ± 0.04</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>0.1 ± 0</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>0.01 ± 0</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>0.2 ± 0.02</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>0.03 ± 0</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>0.16 ± 0.02</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v>3.94E-07 ± 3.94E-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C81D8B5-6680-4FFB-85DD-B8A9C238D7F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB6E59-7C8D-4193-9B25-4339B2248DEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7DC97-C550-4DFF-A6E3-76518C04F07A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3360,7 +3360,7 @@
   <dimension ref="A1:AK93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection sqref="A1:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4515,58 +4515,58 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1.0781372792696553E-2</v>
+        <v>1.0760566128758033E-2</v>
       </c>
       <c r="B20">
-        <v>0.10861417866800493</v>
+        <v>0.10810136923207164</v>
       </c>
       <c r="C20">
-        <v>9.9999997840221358E-2</v>
+        <v>9.9999999990512817E-2</v>
       </c>
       <c r="D20">
-        <v>1468022107.008791</v>
+        <v>1442195496.1246281</v>
       </c>
       <c r="E20">
-        <v>21.589313123220027</v>
+        <v>21.071901191010653</v>
       </c>
       <c r="F20">
-        <v>65.423728825281188</v>
+        <v>66.224947910183658</v>
       </c>
       <c r="G20">
-        <v>0.65534649688981772</v>
+        <v>0.64179913127875132</v>
       </c>
       <c r="H20">
-        <v>0.12058263481323089</v>
+        <v>0.1195542193137312</v>
       </c>
       <c r="I20">
-        <v>1.9405421539302499E-7</v>
+        <v>1.001442476453742E-9</v>
       </c>
       <c r="J20">
-        <v>9.9999838680933338E-3</v>
+        <v>9.9992167257435018E-3</v>
       </c>
       <c r="K20">
-        <v>0.99270724372167818</v>
+        <v>0.99428979846547727</v>
       </c>
       <c r="L20">
-        <v>0.99046357235045068</v>
+        <v>0.99141974525984633</v>
       </c>
       <c r="M20">
-        <v>0.98822713682417929</v>
+        <v>0.99018690753118732</v>
       </c>
       <c r="N20">
-        <v>8.4973824031966835E-2</v>
+        <v>7.5187096759866429E-2</v>
       </c>
       <c r="O20">
-        <v>9.716999317593486E-2</v>
+        <v>9.2165352452817859E-2</v>
       </c>
       <c r="P20">
-        <v>0.10796434677281179</v>
+        <v>9.8564504483736548E-2</v>
       </c>
       <c r="Q20">
-        <v>2.0724037579474039E-2</v>
+        <v>2.0784713283118691E-2</v>
       </c>
       <c r="R20">
-        <v>2.659566477285033E-2</v>
+        <v>2.6593421852223683E-2</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="F24">
         <f>A$20</f>
-        <v>1.0781372792696553E-2</v>
+        <v>1.0760566128758033E-2</v>
       </c>
       <c r="G24">
         <f>AVERAGE(A$21:A$22)</f>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="G28">
         <f>B$20</f>
-        <v>0.10861417866800493</v>
+        <v>0.10810136923207164</v>
       </c>
       <c r="H28">
         <f>AVERAGE(B$21:B$22)</f>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="H32">
         <f>C$20</f>
-        <v>9.9999997840221358E-2</v>
+        <v>9.9999999990512817E-2</v>
       </c>
       <c r="I32">
         <f>AVERAGE(C$21:C$22)</f>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="I36">
         <f>D$20</f>
-        <v>1468022107.008791</v>
+        <v>1442195496.1246281</v>
       </c>
       <c r="J36">
         <f>AVERAGE(D$21:D$22)</f>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="J40">
         <f>E$20</f>
-        <v>21.589313123220027</v>
+        <v>21.071901191010653</v>
       </c>
       <c r="K40">
         <f>AVERAGE(E$21:E$22)</f>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="K44">
         <f>F$20</f>
-        <v>65.423728825281188</v>
+        <v>66.224947910183658</v>
       </c>
       <c r="L44">
         <f>AVERAGE(F$21:F$22)</f>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="L48">
         <f>G$20</f>
-        <v>0.65534649688981772</v>
+        <v>0.64179913127875132</v>
       </c>
       <c r="M48">
         <f>AVERAGE(G$21:G$22)</f>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="M52">
         <f>H$20</f>
-        <v>0.12058263481323089</v>
+        <v>0.1195542193137312</v>
       </c>
       <c r="N52">
         <f>AVERAGE(H$21:H$22)</f>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="N56">
         <f>I$20</f>
-        <v>1.9405421539302499E-7</v>
+        <v>1.001442476453742E-9</v>
       </c>
       <c r="O56">
         <f>AVERAGE(I$21:I$22)</f>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="O60">
         <f>J$20</f>
-        <v>9.9999838680933338E-3</v>
+        <v>9.9992167257435018E-3</v>
       </c>
       <c r="P60">
         <f>AVERAGE(J$21:J$22)</f>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="P64">
         <f>K$20</f>
-        <v>0.99270724372167818</v>
+        <v>0.99428979846547727</v>
       </c>
       <c r="Q64">
         <f>AVERAGE(K$21:K$22)</f>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="Q68">
         <f>L$20</f>
-        <v>0.99046357235045068</v>
+        <v>0.99141974525984633</v>
       </c>
       <c r="R68">
         <f>AVERAGE(L$21:L$22)</f>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="R72">
         <f>M$20</f>
-        <v>0.98822713682417929</v>
+        <v>0.99018690753118732</v>
       </c>
       <c r="S72">
         <f>AVERAGE(M$21:M$22)</f>
@@ -6766,7 +6766,7 @@
       </c>
       <c r="S76">
         <f>N$20</f>
-        <v>8.4973824031966835E-2</v>
+        <v>7.5187096759866429E-2</v>
       </c>
       <c r="T76">
         <f>AVERAGE(N$21:N$22)</f>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="T80">
         <f>O$20</f>
-        <v>9.716999317593486E-2</v>
+        <v>9.2165352452817859E-2</v>
       </c>
       <c r="U80">
         <f>AVERAGE(O$21:O$22)</f>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="U84">
         <f>P$20</f>
-        <v>0.10796434677281179</v>
+        <v>9.8564504483736548E-2</v>
       </c>
       <c r="V84">
         <f>AVERAGE(P$21:P$22)</f>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="V88">
         <f>Q$20</f>
-        <v>2.0724037579474039E-2</v>
+        <v>2.0784713283118691E-2</v>
       </c>
       <c r="W88">
         <f>AVERAGE(Q$21:Q$22)</f>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="W92">
         <f>R$20</f>
-        <v>2.659566477285033E-2</v>
+        <v>2.6593421852223683E-2</v>
       </c>
       <c r="X92">
         <f>AVERAGE(R$21:R$22)</f>

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7DC97-C550-4DFF-A6E3-76518C04F07A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B23A158-D2D1-46FD-99F5-B27302684A25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B23A158-D2D1-46FD-99F5-B27302684A25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DDD94-C812-4891-8094-118019DEB6B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="208">
   <si>
     <t>HK-2</t>
   </si>
@@ -171,6 +171,492 @@
   </si>
   <si>
     <t>0.74 ± 0.73</t>
+  </si>
+  <si>
+    <t>2.04E-02</t>
+  </si>
+  <si>
+    <t>2.32E-03</t>
+  </si>
+  <si>
+    <t>4.30E-01</t>
+  </si>
+  <si>
+    <t>7.38E-02</t>
+  </si>
+  <si>
+    <t>3.27E-03</t>
+  </si>
+  <si>
+    <t>9.25E-02</t>
+  </si>
+  <si>
+    <t>2.66E-02</t>
+  </si>
+  <si>
+    <t>3.63E-02</t>
+  </si>
+  <si>
+    <t>3.33E-03</t>
+  </si>
+  <si>
+    <t>1.99E-02</t>
+  </si>
+  <si>
+    <t>6.51E-03</t>
+  </si>
+  <si>
+    <t>1.95E-01</t>
+  </si>
+  <si>
+    <t>5.03E-02</t>
+  </si>
+  <si>
+    <t>6.70E-03</t>
+  </si>
+  <si>
+    <t>3.54E-01</t>
+  </si>
+  <si>
+    <t>2.68E-02</t>
+  </si>
+  <si>
+    <t>2.04E-01</t>
+  </si>
+  <si>
+    <t>3.55E-04</t>
+  </si>
+  <si>
+    <t>2.06E-02</t>
+  </si>
+  <si>
+    <t>2.75E-02</t>
+  </si>
+  <si>
+    <t>4.16E-01</t>
+  </si>
+  <si>
+    <t>6.31E-02</t>
+  </si>
+  <si>
+    <t>2.34E-03</t>
+  </si>
+  <si>
+    <t>7.54E-01</t>
+  </si>
+  <si>
+    <t>2.69E-02</t>
+  </si>
+  <si>
+    <t>1.67E+00</t>
+  </si>
+  <si>
+    <t>2.31E-03</t>
+  </si>
+  <si>
+    <t>5.03E-03</t>
+  </si>
+  <si>
+    <t>3.47E-01</t>
+  </si>
+  <si>
+    <t>8.04E-02</t>
+  </si>
+  <si>
+    <t>5.00E-03</t>
+  </si>
+  <si>
+    <t>1.69E-01</t>
+  </si>
+  <si>
+    <t>2.67E-02</t>
+  </si>
+  <si>
+    <t>7.45E-01</t>
+  </si>
+  <si>
+    <t>2.53E-03</t>
+  </si>
+  <si>
+    <t>2.07E-02</t>
+  </si>
+  <si>
+    <t>1.08E-02</t>
+  </si>
+  <si>
+    <t>6.55E-01</t>
+  </si>
+  <si>
+    <t>1.00E-01</t>
+  </si>
+  <si>
+    <t>1.00E-02</t>
+  </si>
+  <si>
+    <t>1.09E-01</t>
+  </si>
+  <si>
+    <t>1.21E-01</t>
+  </si>
+  <si>
+    <t>1.94E-07</t>
+  </si>
+  <si>
+    <t>2.08E-02</t>
+  </si>
+  <si>
+    <t>7.22E-03</t>
+  </si>
+  <si>
+    <t>5.82E-01</t>
+  </si>
+  <si>
+    <t>2.05E-01</t>
+  </si>
+  <si>
+    <t>1.64E-01</t>
+  </si>
+  <si>
+    <t>3.94E-07</t>
+  </si>
+  <si>
+    <t>3.82E-04</t>
+  </si>
+  <si>
+    <t>1.41E-04</t>
+  </si>
+  <si>
+    <t>2.17E-01</t>
+  </si>
+  <si>
+    <t>2.38E-02</t>
+  </si>
+  <si>
+    <t>1.21E-02</t>
+  </si>
+  <si>
+    <t>2.16E-05</t>
+  </si>
+  <si>
+    <t>1.67E-02</t>
+  </si>
+  <si>
+    <t>2.95E-04</t>
+  </si>
+  <si>
+    <t>1.19E-03</t>
+  </si>
+  <si>
+    <t>2.39E-02</t>
+  </si>
+  <si>
+    <t>3.30E-03</t>
+  </si>
+  <si>
+    <t>5.73E-02</t>
+  </si>
+  <si>
+    <t>4.87E-05</t>
+  </si>
+  <si>
+    <t>4.70E-02</t>
+  </si>
+  <si>
+    <t>2.31E-04</t>
+  </si>
+  <si>
+    <t>1.02E-02</t>
+  </si>
+  <si>
+    <t>1.02E-01</t>
+  </si>
+  <si>
+    <t>1.05E-02</t>
+  </si>
+  <si>
+    <t>1.41E-03</t>
+  </si>
+  <si>
+    <t>3.99E-01</t>
+  </si>
+  <si>
+    <t>1.61E-04</t>
+  </si>
+  <si>
+    <t>1.13E+00</t>
+  </si>
+  <si>
+    <t>1.17E-03</t>
+  </si>
+  <si>
+    <t>4.75E-04</t>
+  </si>
+  <si>
+    <t>4.29E-04</t>
+  </si>
+  <si>
+    <t>2.01E-01</t>
+  </si>
+  <si>
+    <t>1.46E-02</t>
+  </si>
+  <si>
+    <t>2.89E-03</t>
+  </si>
+  <si>
+    <t>1.37E-01</t>
+  </si>
+  <si>
+    <t>1.28E-04</t>
+  </si>
+  <si>
+    <t>7.33E-01</t>
+  </si>
+  <si>
+    <t>2.49E-03</t>
+  </si>
+  <si>
+    <t>1.79E-04</t>
+  </si>
+  <si>
+    <t>4.76E-04</t>
+  </si>
+  <si>
+    <t>3.83E-02</t>
+  </si>
+  <si>
+    <t>6.99E-07</t>
+  </si>
+  <si>
+    <t>1.83E-02</t>
+  </si>
+  <si>
+    <t>2.97E-05</t>
+  </si>
+  <si>
+    <t>1.89E-02</t>
+  </si>
+  <si>
+    <t>2.04E-02 ± 3.82E-04</t>
+  </si>
+  <si>
+    <t>2.32E-03 ± 1.41E-04</t>
+  </si>
+  <si>
+    <t>4.30E-01 ± 2.17E-01</t>
+  </si>
+  <si>
+    <t>7.38E-02 ± 2.38E-02</t>
+  </si>
+  <si>
+    <t>3.27E-03 ± 3.27E-03</t>
+  </si>
+  <si>
+    <t>9.25E-02 ± 1.21E-02</t>
+  </si>
+  <si>
+    <t>2.66E-02 ± 2.16E-05</t>
+  </si>
+  <si>
+    <t>3.63E-02 ± 1.67E-02</t>
+  </si>
+  <si>
+    <t>3.33E-03 ± 3.33E-03</t>
+  </si>
+  <si>
+    <t>1.99E-02 ± 2.95E-04</t>
+  </si>
+  <si>
+    <t>6.51E-03 ± 1.19E-03</t>
+  </si>
+  <si>
+    <t>1.95E-01 ± 1.95E-01</t>
+  </si>
+  <si>
+    <t>5.03E-02 ± 2.39E-02</t>
+  </si>
+  <si>
+    <t>6.70E-03 ± 3.30E-03</t>
+  </si>
+  <si>
+    <t>3.54E-01 ± 5.73E-02</t>
+  </si>
+  <si>
+    <t>2.68E-02 ± 4.87E-05</t>
+  </si>
+  <si>
+    <t>2.04E-01 ± 4.70E-02</t>
+  </si>
+  <si>
+    <t>3.55E-04 ± 3.55E-04</t>
+  </si>
+  <si>
+    <t>2.06E-02 ± 2.31E-04</t>
+  </si>
+  <si>
+    <t>2.75E-02 ± 1.02E-02</t>
+  </si>
+  <si>
+    <t>4.16E-01 ± 1.02E-01</t>
+  </si>
+  <si>
+    <t>6.31E-02 ± 1.05E-02</t>
+  </si>
+  <si>
+    <t>2.34E-03 ± 1.41E-03</t>
+  </si>
+  <si>
+    <t>7.54E-01 ± 3.99E-01</t>
+  </si>
+  <si>
+    <t>2.69E-02 ± 1.61E-04</t>
+  </si>
+  <si>
+    <t>1.67E+00 ± 1.13E+00</t>
+  </si>
+  <si>
+    <t>2.31E-03 ± 1.17E-03</t>
+  </si>
+  <si>
+    <t>2.04E-02 ± 4.75E-04</t>
+  </si>
+  <si>
+    <t>5.03E-03 ± 4.29E-04</t>
+  </si>
+  <si>
+    <t>3.47E-01 ± 2.01E-01</t>
+  </si>
+  <si>
+    <t>8.04E-02 ± 1.46E-02</t>
+  </si>
+  <si>
+    <t>5.00E-03 ± 2.89E-03</t>
+  </si>
+  <si>
+    <t>1.69E-01 ± 1.37E-01</t>
+  </si>
+  <si>
+    <t>2.67E-02 ± 1.28E-04</t>
+  </si>
+  <si>
+    <t>7.45E-01 ± 7.33E-01</t>
+  </si>
+  <si>
+    <t>2.53E-03 ± 2.49E-03</t>
+  </si>
+  <si>
+    <t>2.08E-02 ± 1.79E-04</t>
+  </si>
+  <si>
+    <t>7.22E-03 ± 4.76E-04</t>
+  </si>
+  <si>
+    <t>5.82E-01 ± 3.83E-02</t>
+  </si>
+  <si>
+    <t>1.00E-01 ± 6.99E-07</t>
+  </si>
+  <si>
+    <t>5.00E-03 ± 5.00E-03</t>
+  </si>
+  <si>
+    <t>2.05E-01 ± 1.83E-02</t>
+  </si>
+  <si>
+    <t>2.68E-02 ± 2.97E-05</t>
+  </si>
+  <si>
+    <t>1.64E-01 ± 1.89E-02</t>
+  </si>
+  <si>
+    <t>3.94E-07 ± 3.94E-07</t>
+  </si>
+  <si>
+    <t>1.65E-03</t>
+  </si>
+  <si>
+    <t>5.99E-04</t>
+  </si>
+  <si>
+    <t>3.55E-03</t>
+  </si>
+  <si>
+    <t>1.16E-03</t>
+  </si>
+  <si>
+    <t>1.10E-03</t>
+  </si>
+  <si>
+    <t>1.11E-03</t>
+  </si>
+  <si>
+    <t>1.49E-02</t>
+  </si>
+  <si>
+    <t>9.00E-03</t>
+  </si>
+  <si>
+    <t>6.99E-03</t>
+  </si>
+  <si>
+    <t>2.11E-02</t>
+  </si>
+  <si>
+    <t>8.28E-03</t>
+  </si>
+  <si>
+    <t>1.64E-02</t>
+  </si>
+  <si>
+    <t>6.39E-03</t>
+  </si>
+  <si>
+    <t>1.96E-02</t>
+  </si>
+  <si>
+    <t>5.28E-03</t>
+  </si>
+  <si>
+    <t>1.09E-02</t>
+  </si>
+  <si>
+    <t>4.07E-03</t>
+  </si>
+  <si>
+    <t>1.54E-02</t>
+  </si>
+  <si>
+    <t>9.99E-03</t>
+  </si>
+  <si>
+    <t>5.61E-03</t>
+  </si>
+  <si>
+    <t>4.22E-03</t>
+  </si>
+  <si>
+    <t>3.98E-02</t>
+  </si>
+  <si>
+    <t>2.61E-02</t>
+  </si>
+  <si>
+    <t>5.41E-02</t>
+  </si>
+  <si>
+    <t>3.25E-02</t>
+  </si>
+  <si>
+    <t>4.52E-02</t>
+  </si>
+  <si>
+    <t>1.98E-02</t>
+  </si>
+  <si>
+    <t>5.06E-02</t>
+  </si>
+  <si>
+    <t>2.34E-02</t>
   </si>
 </sst>
 </file>
@@ -221,9 +707,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +904,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$24:$E$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.3173268963984188E-3</c:v>
@@ -523,7 +1012,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -769,7 +1258,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$28:$F$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>9.2535545750464687E-2</c:v>
@@ -877,7 +1366,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1024,7 +1513,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R1L</c:v>
+                  <c:v>R1Lin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1045,10 +1534,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$33:$G$33</c:f>
+                <c:f>Sheet1!$D$33:$I$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
                     <c:v>2.3803754511435734E-2</c:v>
                   </c:pt>
@@ -1061,15 +1550,18 @@
                   <c:pt idx="3">
                     <c:v>1.4625933793160245E-2</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.9919142025448567E-7</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$D$33:$G$33</c:f>
+                <c:f>Sheet1!$D$33:$I$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
                     <c:v>2.3803754511435734E-2</c:v>
                   </c:pt>
@@ -1081,6 +1573,9 @@
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1.4625933793160245E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.9919142025448567E-7</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1101,9 +1596,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$31:$G$31</c:f>
+              <c:f>Sheet1!$D$31:$I$31</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>HK-2</c:v>
                 </c:pt>
@@ -1116,15 +1611,21 @@
                 <c:pt idx="3">
                   <c:v>UOK + DIDS</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>siRNA_c</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>siRNA</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$32:$G$32</c:f>
+              <c:f>Sheet1!$D$32:$I$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>7.384890314233869E-2</c:v>
                 </c:pt>
@@ -1136,6 +1637,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.0357873156810505E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9999999990512817E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9999300808557345E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,7 +1738,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1263,6 +1770,1494 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="608844992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R1P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$R$89:$W$89</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>3.8194997275177109E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9494907968756836E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.310682053692697E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7544596282562859E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.7933404971992757E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$R$89:$W$89</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>3.8194997275177109E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9494907968756836E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.310682053692697E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7544596282562859E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.7933404971992757E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$87:$W$87</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>siRNA_c</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>siRNA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$88:$W$88</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0365681512952261E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9902792231451975E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0561912508965351E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0431830067845134E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0784713283118691E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0754795921728013E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95E6-477D-AF5F-AA89389C40DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="455458704"/>
+        <c:axId val="455463624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="455458704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455463624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="455463624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455458704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R1Lex</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$S$93:$X$93</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.1625069528551808E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8710360305349656E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.614486351023254E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.279616788292203E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.9679016567189798E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$S$93:$X$93</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.1625069528551808E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8710360305349656E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.614486351023254E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.279616788292203E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.9679016567189798E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$91:$X$91</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>siRNA_c</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>siRNA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$92:$X$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.6578997644427605E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6835872828472173E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6886662268571313E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6657237171290454E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6593421852223683E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6777762541119757E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-295A-4F3E-BC37-3B280C1447A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="454306944"/>
+        <c:axId val="410533824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="454306944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410533824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410533824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454306944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$25:$G$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.4110540454517E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1938388220454957E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0219978638120604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.2920729768569356E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.7600411383151179E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$B$25:$G$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.4110540454517E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1938388220454957E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0219978638120604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.2920729768569356E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.7600411383151179E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$23:$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>siRNA_c</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>siRNA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.3173268963984188E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5132119631182801E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7535106283079838E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0273961825241173E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0760566128758033E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.218428100833273E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7248-4929-959E-C4A5FED7DD35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="532763480"/>
+        <c:axId val="532759216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="532763480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532759216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="532759216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532763480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kMCT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$29:$H$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.2057455739979463E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7309495294150879E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.39928208436858398</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.13741088889033834</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.8308667441519141E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$29:$H$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.2057455739979463E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7309495294150879E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.39928208436858398</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.13741088889033834</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.8308667441519141E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$27:$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>siRNA_c</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>siRNA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.2535545750464687E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3541415185008206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75444268232926348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16916415025152015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10810136923207164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2047343855353021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99D9-4795-AC42-02E4157D0710}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="464000488"/>
+        <c:axId val="528926480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="464000488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528926480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528926480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464000488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1438,6 +3433,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2445,6 +4600,2018 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3023,16 +7190,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3052,6 +7219,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093833D7-7F30-4276-82B9-6AEA1E0C27D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>196215</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5806F0D-6C73-4B21-B4BB-3E7EBDA0E34F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A586C5-5883-407E-A504-09925476B2EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>676548</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167096</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C8BBD6-0868-493D-AA94-826E60138948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3357,291 +7668,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C412B43B-2314-4052-A08E-119606CE711A}">
-  <dimension ref="A1:AK93"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AK99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="2">
         <v>2.0440913622746353E-3</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>0.10465567845805716</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>2.6315789473742499E-2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>818926518.32173777</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>23.82609736019262</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>61.845367692256538</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>0.68884824364616704</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>6.8689081548227338E-2</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>9.9999999999777905E-3</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>3.2257708635855453E-14</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>0.99150334140232921</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>0.98468620622725533</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>0.96903400881054969</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="2">
         <v>9.1715276871926474E-2</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="2">
         <v>0.12312861501299061</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="2">
         <v>0.17508949505197574</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="2">
         <v>2.0833159094342264E-2</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="2">
         <v>2.6617079497839362E-2</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>2.3927976051121252E-3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.10453021573169838</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>9.5311438438472257E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>36088455.454467326</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>18.681938922510028</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>58.195976647332117</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>2.9227470395530482E-6</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>2.7168577155675049E-2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>5.4853470340308853E-14</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>9.7951610168121699E-3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>0.99654313831679786</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>0.98089961043097618</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>0.99419710437208608</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>5.8500368087475212E-2</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>0.13751140197573994</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>7.5794898717755591E-2</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>1.9608725866423513E-2</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <v>2.6577712286619641E-2</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2.5150917218084955E-3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>6.8420743061638548E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>9.9919481514801317E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1041012019.8025222</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>19.19905848943559</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>68.746258055837359</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.60206471914450987</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>1.3162386949168365E-2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>2.9701056386062662E-7</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>6.9695614230316312E-9</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>0.99165914719180515</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0.98342962178459059</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>0.99356881462323687</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>9.0870480796092098E-2</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>0.12808073404402126</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>7.9792690912110151E-2</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>2.0655159578091005E-2</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>2.6542201148823823E-2</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>5.3762528274266495E-3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.28353888576952746</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>2.6315791785633313E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>86596842.841015711</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>30.913689726992203</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>58.032491918073021</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>1.0000054897723946E-8</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>0.19489217419388372</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>1.5781641433140845E-7</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>9.9999999999661453E-3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>0.99355664494107587</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>0.93629390894292164</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>0.93686960382096918</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>7.9868150775730701E-2</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>0.25113548165583355</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>0.24999818442788838</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>1.9607843137278452E-2</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>2.6896859532853503E-2</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>5.2633828822758588E-3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.46763865279280215</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>9.8159086554318709E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1103368290.1447656</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>12.198015708622073</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>70.613225370925008</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>0.58519336522215837</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>0.28961327237140227</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>1.0641221838503477E-3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>1.0084863790427543E-4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>0.99461538917933912</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>0.97097659833260552</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>0.98146415872607196</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>7.3012086071104015E-2</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>0.16950860642079654</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>0.1354639541028857</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>2.0492690390827111E-2</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>2.6871171299631819E-2</v>
       </c>
       <c r="T5">
@@ -3674,10 +7991,12 @@
         <v>1E-8</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <f>0.00000000000001</f>
+        <v>1E-14</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <f>0.00000000000001</f>
+        <v>1E-14</v>
       </c>
       <c r="AJ5">
         <f>1/51</f>
@@ -3689,58 +8008,58 @@
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>8.9000001796523294E-3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.31124701694013229</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>2.631578954300581E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>98184377.42764622</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>23.117265872845241</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>54.503896415532829</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>2.5048537685972825E-8</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>0.12760821953460458</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>3.3713746761796656E-14</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>9.999999999976656E-3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>0.995632606519402</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>0.98684403444459123</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>0.98980638844998814</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>6.5754996356109957E-2</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>0.11412451927545925</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <v>0.1004573314124549</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>1.9607843166250361E-2</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="2">
         <v>2.673958765293119E-2</v>
       </c>
       <c r="T6">
@@ -3771,10 +8090,10 @@
         <v>10</v>
       </c>
       <c r="AB6">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="AC6">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AJ6">
         <f>1/48</f>
@@ -3786,898 +8105,898 @@
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>7.8104063053251026E-3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>5.8711767021941051E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>3.543964728375152E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>869498093.87442935</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>39.085223327586924</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>54.559074477882291</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>0.80289228249175082</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>4.7854248498612514E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>9.9999986481246975E-3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>2.4603233390046519E-10</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>0.99705613162044915</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>0.99612595656099368</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>0.9962224675360567</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>5.3985458187879524E-2</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>6.1929823224487417E-2</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>6.1153553774935428E-2</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>2.1219783761821043E-2</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <v>2.6547519541939579E-2</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>1.0293977888170207E-2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>6.2547230470345092E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>9.9999997394403309E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>1105943837.1576962</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>34.224737105350428</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>62.585373087947318</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.66678525636758301</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>7.9059354392826436E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>5.0899272976990542E-7</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>2.0085230956227377E-8</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>0.99748717120289465</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>0.99501466113717596</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>0.99238547744077443</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>4.9879347470318032E-2</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>7.0256523341985691E-2</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>8.6828170813152195E-2</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <v>2.0609537938434234E-2</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <v>2.6714034551213846E-2</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>2.5521490650557456E-2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>3.417715349211504</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>5.2458562678055182E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>489736763.11978352</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>29.439042175107609</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>66.768414906688562</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>5.7674886716178216E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>9.9656548726176819</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>4.6822527483963297E-3</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>9.6097395522457985E-3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>0.99576792146742721</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>0.93833622632773017</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>0.97355014251882899</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>6.4728338054109727E-2</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>0.24707718618995786</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <v>0.1618189077529549</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>1.9839079069671032E-2</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <v>2.7391887592862471E-2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>3.146457105211109E-3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.30767357664672129</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>7.9583445150516172E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>61731100.736689009</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>37.500782638502137</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>39.883935665374395</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>2.9511046557444614E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>0.27047908843108182</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>4.8746249878534728E-3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>1.395798534112733E-3</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>0.99451203358238027</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>0.98442477385521798</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>0.99115715378663338</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>7.3709475330133459E-2</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <v>0.12417517418282223</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="2">
         <v>9.356504556314281E-2</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="2">
         <v>1.9711737929038364E-2</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="2">
         <v>2.6756523344968534E-2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>8.6133116110997613E-3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>7.5490511028491469E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>4.1286898867914264E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>110376839.87821494</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>18.842232094206679</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>71.952100802675602</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>0.61663893787010804</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>9.8010561447073249E-2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>1.3985244766235262E-4</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>3.4615726410125156E-9</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>0.98377972734109542</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.98268498828409034</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>0.98190495840619718</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>0.12672044007308195</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>0.13092693228954302</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <v>0.13384353244690153</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <v>2.1265776496996937E-2</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <v>2.6659677306561914E-2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>7.9998621646789378E-2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2.1312262426398703</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>3.3565295393196776E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>1451043698.7152901</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>12.000000000081066</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>77.207645232726918</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>0.44746338058923973</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>4.2189544038400131</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>1.0445275917702612E-3</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>4.2707190817022586E-14</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>0.96577834202883539</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>0.93034953850650604</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>0.9871713206559789</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>0.1840636884109762</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>0.26259085452193304</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="2">
         <v>0.11269601834395418</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="2">
         <v>2.0460765142843514E-2</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="2">
         <v>2.798323054501933E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>5.3785052731830461E-3</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>2.6738923838399504E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>9.9999999999977537E-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>216470048.14877984</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>28.433727230396499</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>54.906064887553164</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>3.2756574456477034E-4</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>1.9699840230101226E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>3.2218515143462973E-14</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>9.9999999999769631E-3</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>0.99860127036337543</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>0.99478661481358055</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>0.98959205188990085</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>3.7212126252853521E-2</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>7.184184946502474E-2</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <v>0.1015079732286986</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="2">
         <v>1.9609087170804188E-2</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="2">
         <v>2.6532400155956409E-2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>3.7811522215408897E-3</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>2.3975951449874546E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>3.7648713267753244E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>2505929597.0853271</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>33.023920788383059</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>59.464307434542782</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>0.73367388393967248</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>7.8385779505851828E-3</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>9.9999866391353946E-3</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>4.7372018157425733E-12</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>0.99716413840400764</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>0.99336359824611264</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>0.99192791876802611</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>5.2985875287971357E-2</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>8.1055769297123478E-2</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <v>8.9394409331088304E-2</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="2">
         <v>2.1234380756629898E-2</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <v>2.652705700243119E-2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>5.733412868772542E-3</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>4.4777155572905403E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>8.5142842438287111E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>218002613.50193721</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>17.966340175817113</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>65.908559158253198</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>1.0000042249550875E-8</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>6.2919062710599565E-3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>3.4289203051887389E-11</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>9.9999958653245423E-3</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>0.99870449586169496</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>0.98769404147713824</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>0.99309265476941699</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>3.5812694633635289E-2</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <v>0.11037617015295072</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <v>8.2693843654029875E-2</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="2">
         <v>1.9607843137297149E-2</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <v>2.6528384440147008E-2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>5.2165143665999902E-3</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0.58116457014490119</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>9.8639936921224136E-2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>1520028310.508136</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>42.233909335383906</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>67.258477067235617</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>0.65224422154978035</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>2.9445381858027808</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>1.2114734400216535E-4</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>1.7466018319122646E-7</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>0.99372489864384794</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>0.96467753514876009</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>0.91329113989406796</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <v>7.8818464477497449E-2</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="2">
         <v>0.18700064225217924</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="2">
         <v>0.29298766442441349</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="2">
         <v>2.1276009206649304E-2</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="2">
         <v>2.7041107086627207E-2</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>8.6066060331552955E-3</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>0.16008235012557337</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>9.9339087276265128E-2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>57131236.229517505</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>32.736381824141198</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>55.183442677006219</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>9.3204360810517093E-8</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>4.6292385710475975E-2</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>5.5963149063981782E-13</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <v>9.9042611482077596E-3</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>0.99616058103576866</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>0.98170981704693761</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <v>0.9951918161648281</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="2">
         <v>6.1652451488882459E-2</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="2">
         <v>0.13456329783240231</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="2">
         <v>6.8993492423707725E-2</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="2">
         <v>1.9607851016459839E-2</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="2">
         <v>2.6583396901367802E-2</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>2.3825085307432405E-2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>0.4868769103206117</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>9.9999899886540525E-2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>1719077230.4604545</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>13.702998564284247</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>72.555247982805568</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>0.51501016025399993</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>0.31446067020291762</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>2.6497694029687907E-5</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>1.8250572295691101E-4</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>0.99526522827522435</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>0.96728956190212578</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>0.99004082044259878</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="2">
         <v>6.8464764715347251E-2</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="2">
         <v>0.17995369881415477</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="2">
         <v>9.9295456904267068E-2</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="2">
         <v>2.1120254939138508E-2</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="2">
         <v>2.677546499569956E-2</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>7.9999999999977797E-2</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>8.9660203498313579E-2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>2.6315789473706417E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>50540648.358700573</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>25.91398305976729</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>62.398234066853576</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>0.60832421319523755</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>2.7316030758319766E-2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>3.2229931290132734E-14</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>3.220511957324058E-14</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>0.98245588834946462</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>0.93131688102757759</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>0.93501999229245869</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="2">
         <v>0.13179025204479272</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="2">
         <v>0.26076097825920619</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="2">
         <v>0.25363400330094915</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="2">
         <v>2.1222426286284703E-2</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="2">
         <v>2.6568225637508797E-2</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>1.0760566128758033E-2</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0.10810136923207164</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>9.9999999990512817E-2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>1442195496.1246281</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>21.071901191010653</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>66.224947910183658</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>0.64179913127875132</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>0.1195542193137312</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>1.001442476453742E-9</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>9.9992167257435018E-3</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>0.99428979846547727</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>0.99141974525984633</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <v>0.99018690753118732</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="2">
         <v>7.5187096759866429E-2</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <v>9.2165352452817859E-2</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="2">
         <v>9.8564504483736548E-2</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="2">
         <v>2.0784713283118691E-2</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="2">
         <v>2.6593421852223683E-2</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>7.6944322146647853E-3</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>0.18642571809378297</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>9.9999999999977593E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>2066749147.1669409</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>15.152081001230075</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>69.229555840732246</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>0.62044499916990414</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>0.1447969226843194</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>3.2204898710353411E-14</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>9.9999993926586754E-3</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="2">
         <v>0.9894380131515057</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>0.98056065158178418</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="2">
         <v>0.98156151094688882</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="2">
         <v>0.10225637867639044</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="2">
         <v>0.13872618690800109</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="2">
         <v>0.1351077501943542</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="2">
         <v>2.0934129971447942E-2</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="2">
         <v>2.6807441557686947E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>6.7424239870017616E-3</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0.22304305297682125</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>9.9998601617137084E-2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>1070399379.5138259</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>15.623216818777985</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>75.124014324750945</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>0.54387845927072231</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>0.18267324308497107</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>7.888151888538791E-7</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>4.182288630781361E-7</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>0.99162805449586033</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>0.93842985926322897</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <v>0.99211803884111582</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="2">
         <v>9.1039694908859492E-2</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="2">
         <v>0.24688952859407243</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="2">
         <v>8.8335392382076133E-2</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="2">
         <v>2.0575461872008087E-2</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="2">
         <v>2.6748083524552567E-2</v>
       </c>
     </row>
@@ -4734,7 +9053,7 @@
       </c>
       <c r="V23" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="0"/>
@@ -4753,27 +9072,27 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <f>AVERAGE(A$1:A$3)</f>
         <v>2.3173268963984188E-3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <f>AVERAGE(A$4:A$6)</f>
         <v>6.5132119631182801E-3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <f>AVERAGE(A$7:A$12,A$17:A$19)</f>
         <v>2.7535106283079838E-2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <f>AVERAGE(A$13:A$16)</f>
         <v>5.0273961825241173E-3</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <f>A$20</f>
         <v>1.0760566128758033E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <f>AVERAGE(A$21:A$22)</f>
         <v>7.218428100833273E-3</v>
       </c>
@@ -4827,23 +9146,24 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="B25" s="2">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
         <v>1.4110540454517E-4</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
         <v>1.1938388220454957E-3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <f>STDEV(A$7:A$12,A$17:A$19)/SQRT(COUNT(A$7:A$12,A$17:A$19))</f>
         <v>1.0219978638120604E-2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
         <v>4.2920729768569356E-4</v>
       </c>
-      <c r="G25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
         <f>STDEV(A$21:A$22)/SQRT(COUNT(A$21:A$22))</f>
         <v>4.7600411383151179E-4</v>
       </c>
@@ -4935,7 +9255,7 @@
       </c>
       <c r="W26" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD26" t="str">
         <f t="shared" si="1"/>
@@ -5018,27 +9338,27 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <f>AVERAGE(B$1:B$3)</f>
         <v>9.2535545750464687E-2</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <f>AVERAGE(B$4:B$6)</f>
         <v>0.3541415185008206</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <f>AVERAGE(B$7:B$12,B$17:B$19)</f>
         <v>0.75444268232926348</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <f>AVERAGE(B$13:B$16)</f>
         <v>0.16916415025152015</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <f>B$20</f>
         <v>0.10810136923207164</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <f>AVERAGE(B$21:B$22)</f>
         <v>0.2047343855353021</v>
       </c>
@@ -5080,7 +9400,7 @@
       </c>
       <c r="W28" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD28" t="str">
         <f t="shared" si="1"/>
@@ -5092,23 +9412,24 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C29">
+      <c r="C29" s="2">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
         <v>1.2057455739979463E-2</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
         <v>5.7309495294150879E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <f>STDEV(B$7:B$12,B$17:B$19)/SQRT(COUNT(B$7:B$12,B$17:B$19))</f>
         <v>0.39928208436858398</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
         <v>0.13741088889033834</v>
       </c>
-      <c r="H29">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
         <f>STDEV(B$21:B$22)/SQRT(COUNT(B$21:B$22))</f>
         <v>1.8308667441519141E-2</v>
       </c>
@@ -5146,7 +9467,7 @@
       </c>
       <c r="V29" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="0"/>
@@ -5281,29 +9602,29 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2">
         <f>AVERAGE(C$1:C$3)</f>
         <v>7.384890314233869E-2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <f>AVERAGE(C$4:C$6)</f>
         <v>5.0263555960985945E-2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <f>AVERAGE(C$7:C$12,C$17:C$19)</f>
         <v>6.3109847044927683E-2</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <f>AVERAGE(C$13:C$16)</f>
         <v>8.0357873156810505E-2</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <f>C$20</f>
         <v>9.9999999990512817E-2</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <f>AVERAGE(C$21:C$22)</f>
         <v>9.9999300808557345E-2</v>
       </c>
@@ -5357,23 +9678,24 @@
       </c>
     </row>
     <row r="33" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D33">
+      <c r="D33" s="2">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
         <v>2.3803754511435734E-2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
         <v>2.3947765296666392E-2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <f>STDEV(C$7:C$12,C$17:C$19)/SQRT(COUNT(C$7:C$12,C$17:C$19))</f>
         <v>1.0466686942143609E-2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
         <v>1.4625933793160245E-2</v>
       </c>
-      <c r="I33">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2">
         <f>STDEV(C$21:C$22)/SQRT(COUNT(C$21:C$22))</f>
         <v>6.9919142025448567E-7</v>
       </c>
@@ -5533,7 +9855,7 @@
       </c>
       <c r="W35" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD35" t="str">
         <f t="shared" si="1"/>
@@ -5548,27 +9870,27 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <f>AVERAGE(D$1:D$3)</f>
         <v>632008997.85957575</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <f>AVERAGE(D$4:D$6)</f>
         <v>429383170.13780922</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <f>AVERAGE(D$7:D$12,D$17:D$19)</f>
         <v>657231049.83675289</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <f>AVERAGE(D$13:D$16)</f>
         <v>1115107642.3110452</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <f>D$20</f>
         <v>1442195496.1246281</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <f>AVERAGE(D$21:D$22)</f>
         <v>1568574263.3403835</v>
       </c>
@@ -5606,7 +9928,7 @@
       </c>
       <c r="V36" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="0"/>
@@ -5622,23 +9944,24 @@
       </c>
     </row>
     <row r="37" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="E37">
+      <c r="E37" s="2">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
         <v>304779407.73467177</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
         <v>337009161.21699256</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <f>STDEV(D$7:D$12,D$17:D$19)/SQRT(COUNT(D$7:D$12,D$17:D$19))</f>
         <v>217752834.47134462</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
         <v>556079536.85988617</v>
       </c>
-      <c r="J37">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2">
         <f>STDEV(D$21:D$22)/SQRT(COUNT(D$21:D$22))</f>
         <v>498174883.8265568</v>
       </c>
@@ -5680,7 +10003,7 @@
       </c>
       <c r="W37" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD37" t="str">
         <f t="shared" si="1"/>
@@ -5798,7 +10121,7 @@
       </c>
       <c r="W39" t="str">
         <f t="shared" ref="W39:W44" si="11">_xlfn.IFS(ABS(J17-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J17-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD39" t="str">
         <f t="shared" si="1"/>
@@ -5813,27 +10136,27 @@
       <c r="E40" t="s">
         <v>10</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <f>AVERAGE(E$1:E$3)</f>
         <v>20.569031590712743</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <f>AVERAGE(E$4:E$6)</f>
         <v>22.076323769486507</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <f>AVERAGE(E$7:E$12,E$17:E$19)</f>
         <v>27.049486754336399</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <f>AVERAGE(E$13:E$16)</f>
         <v>30.414474382495143</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <f>E$20</f>
         <v>21.071901191010653</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="2">
         <f>AVERAGE(E$21:E$22)</f>
         <v>15.38764891000403</v>
       </c>
@@ -5887,23 +10210,24 @@
       </c>
     </row>
     <row r="41" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="F41">
+      <c r="F41" s="2">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
         <v>1.6353604324085522</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
         <v>5.4277614734308957</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <f>STDEV(E$7:E$12,E$17:E$19)/SQRT(COUNT(E$7:E$12,E$17:E$19))</f>
         <v>3.3683323128668317</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
         <v>5.0446973617418731</v>
       </c>
-      <c r="K41">
+      <c r="J41" s="2"/>
+      <c r="K41" s="2">
         <f>STDEV(E$21:E$22)/SQRT(COUNT(E$21:E$22))</f>
         <v>0.23556790877395525</v>
       </c>
@@ -5995,7 +10319,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" si="11"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD42" t="str">
         <f t="shared" si="1"/>
@@ -6063,7 +10387,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" si="11"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD43" t="str">
         <f t="shared" si="1"/>
@@ -6078,27 +10402,27 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <f>AVERAGE(F$1:F$3)</f>
         <v>62.929200798475335</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <f>AVERAGE(F$4:F$6)</f>
         <v>61.049871234843614</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <f>AVERAGE(F$7:F$12,F$17:F$19)</f>
         <v>62.565940988884485</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <f>AVERAGE(F$13:F$16)</f>
         <v>61.88435213689619</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <f>F$20</f>
         <v>66.224947910183658</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="2">
         <f>AVERAGE(F$21:F$22)</f>
         <v>72.176785082741588</v>
       </c>
@@ -6152,23 +10476,24 @@
       </c>
     </row>
     <row r="45" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="G45">
+      <c r="G45" s="2">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
         <v>3.0934409159415974</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
         <v>4.888968988250177</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <f>STDEV(F$7:F$12,F$17:F$19)/SQRT(COUNT(F$7:F$12,F$17:F$19))</f>
         <v>3.824336547084958</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
         <v>2.8813852312930881</v>
       </c>
-      <c r="L45">
+      <c r="K45" s="2"/>
+      <c r="L45" s="2">
         <f>STDEV(F$21:F$22)/SQRT(COUNT(F$21:F$22))</f>
         <v>2.9472292420093491</v>
       </c>
@@ -6251,54 +10576,55 @@
       <c r="G48" t="s">
         <v>12</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <f>AVERAGE(G$1:G$3)</f>
         <v>0.43030529517923882</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <f>AVERAGE(G$4:G$6)</f>
         <v>0.19506446675691699</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <f>AVERAGE(G$7:G$12,G$17:G$19)</f>
         <v>0.41603336191621143</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="2">
         <f>AVERAGE(G$13:G$16)</f>
         <v>0.34656142030851494</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="2">
         <f>G$20</f>
         <v>0.64179913127875132</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="2">
         <f>AVERAGE(G$21:G$22)</f>
         <v>0.58216172922031317</v>
       </c>
     </row>
-    <row r="49" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H49">
+    <row r="49" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H49" s="2">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
         <v>0.21660481975386786</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
         <v>0.19506444923262076</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <f>STDEV(G$7:G$12,G$17:G$19)/SQRT(COUNT(G$7:G$12,G$17:G$19))</f>
         <v>0.10216020479600753</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="2">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
         <v>0.20068232101892192</v>
       </c>
-      <c r="M49">
+      <c r="L49" s="2"/>
+      <c r="M49" s="2">
         <f>STDEV(G$21:G$22)/SQRT(COUNT(G$21:G$22))</f>
         <v>3.8283269949590908E-2</v>
       </c>
     </row>
-    <row r="51" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
         <v>0</v>
       </c>
@@ -6318,58 +10644,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>13</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <f>AVERAGE(H$1:H$3)</f>
         <v>3.6340015217690251E-2</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="2">
         <f>AVERAGE(H$4:H$6)</f>
         <v>0.20403788869996353</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="2">
         <f>AVERAGE(H$7:H$12,H$17:H$19)</f>
         <v>1.6742312906554444</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="2">
         <f>AVERAGE(H$13:H$16)</f>
         <v>0.7445921275636318</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="2">
         <f>H$20</f>
         <v>0.1195542193137312</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="2">
         <f>AVERAGE(H$21:H$22)</f>
         <v>0.16373508288464522</v>
       </c>
     </row>
-    <row r="53" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="I53">
+    <row r="53" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="I53" s="2">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
         <v>1.6672231507992838E-2</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="2">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
         <v>4.6989865419873371E-2</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="2">
         <f>STDEV(H$7:H$12,H$17:H$19)/SQRT(COUNT(H$7:H$12,H$17:H$19))</f>
         <v>1.1308765015832429</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="2">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
         <v>0.7333214675380374</v>
       </c>
-      <c r="N53">
+      <c r="M53" s="2"/>
+      <c r="N53" s="2">
         <f>STDEV(H$21:H$22)/SQRT(COUNT(H$21:H$22))</f>
         <v>1.8938160200325939E-2</v>
       </c>
     </row>
-    <row r="55" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:26" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
         <v>0</v>
       </c>
@@ -6389,58 +10716,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
         <v>14</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="2">
         <f>AVERAGE(I$1:I$3)</f>
         <v>3.3334323368655015E-3</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="2">
         <f>AVERAGE(I$4:I$6)</f>
         <v>3.547600000994643E-4</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="2">
         <f>AVERAGE(I$7:I$12,I$17:I$19)</f>
         <v>2.3075847901287152E-3</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="2">
         <f>AVERAGE(I$13:I$16)</f>
         <v>2.5302835043647456E-3</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="2">
         <f>I$20</f>
         <v>1.001442476453742E-9</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="2">
         <f>AVERAGE(I$21:I$22)</f>
         <v>3.9440761052938893E-7</v>
       </c>
     </row>
-    <row r="57" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="J57">
+    <row r="57" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="J57" s="2">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
         <v>3.3332838326588514E-3</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="2">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
         <v>3.5468109480131071E-4</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="2">
         <f>STDEV(I$7:I$12,I$17:I$19)/SQRT(COUNT(I$7:I$12,I$17:I$19))</f>
         <v>1.1718468534149583E-3</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="2">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
         <v>2.4900647751280795E-3</v>
       </c>
-      <c r="O57">
+      <c r="N57" s="2"/>
+      <c r="O57" s="2">
         <f>STDEV(I$21:I$22)/SQRT(COUNT(I$21:I$22))</f>
         <v>3.9440757832449011E-7</v>
       </c>
     </row>
-    <row r="59" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:26" x14ac:dyDescent="0.25">
       <c r="K59" t="s">
         <v>0</v>
       </c>
@@ -6460,58 +10788,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:26" x14ac:dyDescent="0.25">
       <c r="J60" t="s">
         <v>15</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="2">
         <f>AVERAGE(J$1:J$3)</f>
         <v>3.2650559954686166E-3</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="2">
         <f>AVERAGE(J$4:J$6)</f>
         <v>6.7002828792823597E-3</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="2">
         <f>AVERAGE(J$7:J$12,J$17:J$19)</f>
         <v>2.3435920833815606E-3</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="2">
         <f>AVERAGE(J$13:J$16)</f>
         <v>5.0000426325554747E-3</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="2">
         <f>J$20</f>
         <v>9.9992167257435018E-3</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="2">
         <f>AVERAGE(J$21:J$22)</f>
         <v>5.0002088107608767E-3</v>
       </c>
     </row>
-    <row r="61" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="K61">
+    <row r="61" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="K61" s="2">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
         <v>3.2650525106723968E-3</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="2">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
         <v>3.299717120689041E-3</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="2">
         <f>STDEV(J$7:J$12,J$17:J$19)/SQRT(COUNT(J$7:J$12,J$17:J$19))</f>
         <v>1.4092513298116012E-3</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="2">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
         <v>2.8867255386663773E-3</v>
       </c>
-      <c r="P61">
+      <c r="O61" s="2"/>
+      <c r="P61" s="2">
         <f>STDEV(J$21:J$22)/SQRT(COUNT(J$21:J$22))</f>
         <v>4.9997905818977978E-3</v>
       </c>
     </row>
-    <row r="63" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
         <v>0</v>
       </c>
@@ -6531,58 +10860,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:26" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
         <v>16</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="3">
         <f>AVERAGE(K$1:K$3)</f>
         <v>0.9932352089703107</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="3">
         <f>AVERAGE(K$4:K$6)</f>
         <v>0.99460154687993896</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="3">
         <f>AVERAGE(K$7:K$12,K$17:K$19)</f>
         <v>0.98980700276706002</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="3">
         <f>AVERAGE(K$13:K$16)</f>
         <v>0.99704870081823149</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="3">
         <f>K$20</f>
         <v>0.99428979846547727</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="3">
         <f>AVERAGE(K$21:K$22)</f>
         <v>0.99053303382368307</v>
       </c>
+      <c r="U64" t="str">
+        <f>_xlfn.CONCAT(ROUND(L64,2), " ± ", L65)</f>
+        <v>0.99 ± 1.65E-03</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" ref="V64:Z64" si="12">_xlfn.CONCAT(ROUND(M64,2), " ± ", M65)</f>
+        <v>0.99 ± 5.99E-04</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="12"/>
+        <v>0.99 ± 3.55E-03</v>
+      </c>
+      <c r="X64" t="str">
+        <f t="shared" si="12"/>
+        <v>1 ± 1.16E-03</v>
+      </c>
+      <c r="Y64" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">0.99 ± </v>
+      </c>
+      <c r="Z64" t="str">
+        <f t="shared" si="12"/>
+        <v>0.99 ± 1.10E-03</v>
+      </c>
     </row>
-    <row r="65" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L65">
-        <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
-        <v>1.6545761070459102E-3</v>
-      </c>
-      <c r="M65">
-        <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
-        <v>5.9931845335933754E-4</v>
-      </c>
-      <c r="N65">
-        <f>STDEV(K$7:K$12,K$17:K$19)/SQRT(COUNT(K$7:K$12,K$17:K$19))</f>
-        <v>3.5494686118128726E-3</v>
-      </c>
-      <c r="O65">
-        <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
-        <v>1.1623652663539574E-3</v>
-      </c>
-      <c r="Q65">
-        <f>STDEV(K$21:K$22)/SQRT(COUNT(K$21:K$22))</f>
-        <v>1.0950206721773159E-3</v>
+    <row r="65" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L65" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="67" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:30" x14ac:dyDescent="0.25">
       <c r="M67" t="s">
         <v>0</v>
       </c>
@@ -6602,11 +10951,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L68" t="s">
         <v>17</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="3">
         <f>AVERAGE(L$1:L$3)</f>
         <v>0.98300514614760737</v>
       </c>
@@ -6630,30 +10979,50 @@
         <f>AVERAGE(L$21:L$22)</f>
         <v>0.95949525542250658</v>
       </c>
+      <c r="V68" t="str">
+        <f>_xlfn.CONCAT(ROUND(M68,2), " ± ", M69)</f>
+        <v>0.98 ± 1.11E-03</v>
+      </c>
+      <c r="W68" t="str">
+        <f t="shared" ref="W68" si="13">_xlfn.CONCAT(ROUND(N68,2), " ± ", N69)</f>
+        <v>0.96 ± 1.49E-02</v>
+      </c>
+      <c r="X68" t="str">
+        <f t="shared" ref="X68" si="14">_xlfn.CONCAT(ROUND(O68,2), " ± ", O69)</f>
+        <v>0.97 ± 9.00E-03</v>
+      </c>
+      <c r="Y68" t="str">
+        <f t="shared" ref="Y68" si="15">_xlfn.CONCAT(ROUND(P68,2), " ± ", P69)</f>
+        <v>0.99 ± 6.99E-03</v>
+      </c>
+      <c r="Z68" t="str">
+        <f t="shared" ref="Z68" si="16">_xlfn.CONCAT(ROUND(Q68,2), " ± ", Q69)</f>
+        <v xml:space="preserve">0.99 ± </v>
+      </c>
+      <c r="AA68" t="str">
+        <f t="shared" ref="AA68" si="17">_xlfn.CONCAT(ROUND(R68,2), " ± ", R69)</f>
+        <v>0.96 ± 2.11E-02</v>
+      </c>
     </row>
-    <row r="69" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="M69">
-        <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
-        <v>1.1135097074706298E-3</v>
-      </c>
-      <c r="N69">
-        <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
-        <v>1.4925704264611933E-2</v>
-      </c>
-      <c r="O69">
-        <f>STDEV(L$7:L$12,L$17:L$19)/SQRT(COUNT(L$7:L$12,L$17:L$19))</f>
-        <v>9.002615948162809E-3</v>
-      </c>
-      <c r="P69">
-        <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
-        <v>6.9876079366928689E-3</v>
-      </c>
-      <c r="R69">
-        <f>STDEV(L$21:L$22)/SQRT(COUNT(L$21:L$22))</f>
-        <v>2.1065396159277605E-2</v>
+    <row r="69" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="M69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="71" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:30" x14ac:dyDescent="0.25">
       <c r="N71" t="s">
         <v>0</v>
       </c>
@@ -6673,7 +11042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:30" x14ac:dyDescent="0.25">
       <c r="M72" t="s">
         <v>18</v>
       </c>
@@ -6701,30 +11070,50 @@
         <f>AVERAGE(M$21:M$22)</f>
         <v>0.98683977489400232</v>
       </c>
+      <c r="W72" t="str">
+        <f>_xlfn.CONCAT(ROUND(N72,2), " ± ", N73)</f>
+        <v>0.99 ± 8.28E-03</v>
+      </c>
+      <c r="X72" t="str">
+        <f t="shared" ref="X72" si="18">_xlfn.CONCAT(ROUND(O72,2), " ± ", O73)</f>
+        <v>0.97 ± 1.64E-02</v>
+      </c>
+      <c r="Y72" t="str">
+        <f t="shared" ref="Y72" si="19">_xlfn.CONCAT(ROUND(P72,2), " ± ", P73)</f>
+        <v>0.98 ± 6.39E-03</v>
+      </c>
+      <c r="Z72" t="str">
+        <f t="shared" ref="Z72" si="20">_xlfn.CONCAT(ROUND(Q72,2), " ± ", Q73)</f>
+        <v>0.97 ± 1.96E-02</v>
+      </c>
+      <c r="AA72" t="str">
+        <f t="shared" ref="AA72" si="21">_xlfn.CONCAT(ROUND(R72,2), " ± ", R73)</f>
+        <v xml:space="preserve">0.99 ± </v>
+      </c>
+      <c r="AB72" t="str">
+        <f t="shared" ref="AB72" si="22">_xlfn.CONCAT(ROUND(S72,2), " ± ", S73)</f>
+        <v>0.99 ± 5.28E-03</v>
+      </c>
     </row>
-    <row r="73" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="N73">
-        <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
-        <v>8.2849690622160601E-3</v>
-      </c>
-      <c r="O73">
-        <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>1.6432640774470039E-2</v>
-      </c>
-      <c r="P73">
-        <f>STDEV(M$7:M$12,M$17:M$19)/SQRT(COUNT(M$7:M$12,M$17:M$19))</f>
-        <v>6.3852535677238918E-3</v>
-      </c>
-      <c r="Q73">
-        <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>1.9575133590441086E-2</v>
-      </c>
-      <c r="S73">
-        <f>STDEV(M$21:M$22)/SQRT(COUNT(M$21:M$22))</f>
-        <v>5.278263947113504E-3</v>
+    <row r="73" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="N73" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R73" s="3"/>
+      <c r="S73" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="75" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O75" t="s">
         <v>0</v>
       </c>
@@ -6744,7 +11133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:30" x14ac:dyDescent="0.25">
       <c r="N76" t="s">
         <v>19</v>
       </c>
@@ -6772,30 +11161,50 @@
         <f>AVERAGE(N$21:N$22)</f>
         <v>9.6648036792624958E-2</v>
       </c>
+      <c r="X76" t="str">
+        <f>_xlfn.CONCAT(ROUND(O76,2), " ± ", O77)</f>
+        <v>0.08 ± 1.09E-02</v>
+      </c>
+      <c r="Y76" t="str">
+        <f t="shared" ref="Y76" si="23">_xlfn.CONCAT(ROUND(P76,2), " ± ", P77)</f>
+        <v>0.07 ± 4.07E-03</v>
+      </c>
+      <c r="Z76" t="str">
+        <f t="shared" ref="Z76" si="24">_xlfn.CONCAT(ROUND(Q76,2), " ± ", Q77)</f>
+        <v>0.09 ± 1.54E-02</v>
+      </c>
+      <c r="AA76" t="str">
+        <f t="shared" ref="AA76" si="25">_xlfn.CONCAT(ROUND(R76,2), " ± ", R77)</f>
+        <v>0.05 ± 9.99E-03</v>
+      </c>
+      <c r="AB76" t="str">
+        <f t="shared" ref="AB76" si="26">_xlfn.CONCAT(ROUND(S76,2), " ± ", S77)</f>
+        <v xml:space="preserve">0.08 ± </v>
+      </c>
+      <c r="AC76" t="str">
+        <f t="shared" ref="AC76" si="27">_xlfn.CONCAT(ROUND(T76,2), " ± ", T77)</f>
+        <v>0.1 ± 5.61E-03</v>
+      </c>
     </row>
-    <row r="77" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="O77">
-        <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
-        <v>1.0933557016862603E-2</v>
-      </c>
-      <c r="P77">
-        <f>STDEV(N$4:N$6)/SQRT(COUNT(N$4:N$6))</f>
-        <v>4.0746649626248136E-3</v>
-      </c>
-      <c r="Q77">
-        <f>STDEV(N$7:N$12,N$17:N$19)/SQRT(COUNT(N$7:N$12,N$17:N$19))</f>
-        <v>1.5374096155119097E-2</v>
-      </c>
-      <c r="R77">
-        <f>STDEV(N$13:N$16)/SQRT(COUNT(N$13:N$16))</f>
-        <v>9.9933248406829725E-3</v>
-      </c>
-      <c r="T77">
-        <f>STDEV(N$21:N$22)/SQRT(COUNT(N$21:N$22))</f>
-        <v>5.6083418837654725E-3</v>
+    <row r="77" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="O77" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="S77" s="3"/>
+      <c r="T77" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="79" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:30" x14ac:dyDescent="0.25">
       <c r="P79" t="s">
         <v>0</v>
       </c>
@@ -6815,7 +11224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O80" t="s">
         <v>20</v>
       </c>
@@ -6843,30 +11252,50 @@
         <f>AVERAGE(O$21:O$22)</f>
         <v>0.19280785775103676</v>
       </c>
+      <c r="Y80" t="str">
+        <f>_xlfn.CONCAT(ROUND(P80,2), " ± ", P81)</f>
+        <v>0.13 ± 4.22E-03</v>
+      </c>
+      <c r="Z80" t="str">
+        <f t="shared" ref="Z80" si="28">_xlfn.CONCAT(ROUND(Q80,2), " ± ", Q81)</f>
+        <v>0.18 ± 3.98E-02</v>
+      </c>
+      <c r="AA80" t="str">
+        <f t="shared" ref="AA80" si="29">_xlfn.CONCAT(ROUND(R80,2), " ± ", R81)</f>
+        <v>0.16 ± 2.61E-02</v>
+      </c>
+      <c r="AB80" t="str">
+        <f t="shared" ref="AB80" si="30">_xlfn.CONCAT(ROUND(S80,2), " ± ", S81)</f>
+        <v>0.11 ± 2.61E-02</v>
+      </c>
+      <c r="AC80" t="str">
+        <f t="shared" ref="AC80" si="31">_xlfn.CONCAT(ROUND(T80,2), " ± ", T81)</f>
+        <v xml:space="preserve">0.09 ± </v>
+      </c>
+      <c r="AD80" t="str">
+        <f t="shared" ref="AD80" si="32">_xlfn.CONCAT(ROUND(U80,2), " ± ", U81)</f>
+        <v>0.19 ± 5.41E-02</v>
+      </c>
     </row>
-    <row r="81" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P81">
-        <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
-        <v>4.2185143603437458E-3</v>
-      </c>
-      <c r="Q81">
-        <f>STDEV(O$4:O$6)/SQRT(COUNT(O$4:O$6))</f>
-        <v>3.9792760146898629E-2</v>
-      </c>
-      <c r="R81">
-        <f>STDEV(O$7:O$12,O$17:O$19)/SQRT(COUNT(O$7:O$12,O$17:O$19))</f>
-        <v>2.6084832706403823E-2</v>
-      </c>
-      <c r="S81">
-        <f>STDEV(O$13:O$16)/SQRT(COUNT(O$13:O$16))</f>
-        <v>2.6135324707042343E-2</v>
-      </c>
-      <c r="U81">
-        <f>STDEV(O$21:O$22)/SQRT(COUNT(O$21:O$22))</f>
-        <v>5.4081670843035695E-2</v>
+    <row r="81" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P81" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="T81" s="3"/>
+      <c r="U81" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="83" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Q83" t="s">
         <v>0</v>
       </c>
@@ -6886,7 +11315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="16:31" x14ac:dyDescent="0.25">
       <c r="P84" t="s">
         <v>21</v>
       </c>
@@ -6914,30 +11343,50 @@
         <f>AVERAGE(P$21:P$22)</f>
         <v>0.11172157128821517</v>
       </c>
+      <c r="Z84" t="str">
+        <f>_xlfn.CONCAT(ROUND(Q84,2), " ± ", Q85)</f>
+        <v>0.11 ± 3.25E-02</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" ref="AA84" si="33">_xlfn.CONCAT(ROUND(R84,2), " ± ", R85)</f>
+        <v>0.16 ± 4.52E-02</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" ref="AB84" si="34">_xlfn.CONCAT(ROUND(S84,2), " ± ", S85)</f>
+        <v>0.12 ± 1.98E-02</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" ref="AC84" si="35">_xlfn.CONCAT(ROUND(T84,2), " ± ", T85)</f>
+        <v>0.14 ± 5.06E-02</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" ref="AD84" si="36">_xlfn.CONCAT(ROUND(U84,2), " ± ", U85)</f>
+        <v xml:space="preserve">0.1 ± </v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" ref="AE84" si="37">_xlfn.CONCAT(ROUND(V84,2), " ± ", V85)</f>
+        <v>0.11 ± 2.34E-02</v>
+      </c>
     </row>
-    <row r="85" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="Q85">
-        <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
-        <v>3.2452426790677315E-2</v>
-      </c>
-      <c r="R85">
-        <f>STDEV(P$4:P$6)/SQRT(COUNT(P$4:P$6))</f>
-        <v>4.5157760664951335E-2</v>
-      </c>
-      <c r="S85">
-        <f>STDEV(P$7:P$12,P$17:P$19)/SQRT(COUNT(P$7:P$12,P$17:P$19))</f>
-        <v>1.9768403098527287E-2</v>
-      </c>
-      <c r="T85">
-        <f>STDEV(P$13:P$16)/SQRT(COUNT(P$13:P$16))</f>
-        <v>5.0597221637419386E-2</v>
-      </c>
-      <c r="V85">
-        <f>STDEV(P$21:P$22)/SQRT(COUNT(P$21:P$22))</f>
-        <v>2.3386178906139012E-2</v>
+    <row r="85" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="Q85" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="T85" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="U85" s="3"/>
+      <c r="V85" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="87" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="16:31" x14ac:dyDescent="0.25">
       <c r="R87" t="s">
         <v>0</v>
       </c>
@@ -6957,58 +11406,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Q88" t="s">
         <v>22</v>
       </c>
-      <c r="R88">
+      <c r="R88" s="2">
         <f>AVERAGE(Q$1:Q$3)</f>
         <v>2.0365681512952261E-2</v>
       </c>
-      <c r="S88">
+      <c r="S88" s="2">
         <f>AVERAGE(Q$4:Q$6)</f>
         <v>1.9902792231451975E-2</v>
       </c>
-      <c r="T88">
+      <c r="T88" s="2">
         <f>AVERAGE(Q$7:Q$12,Q$17:Q$19)</f>
         <v>2.0561912508965351E-2</v>
       </c>
-      <c r="U88">
+      <c r="U88" s="2">
         <f>AVERAGE(Q$13:Q$16)</f>
         <v>2.0431830067845134E-2</v>
       </c>
-      <c r="V88">
+      <c r="V88" s="2">
         <f>Q$20</f>
         <v>2.0784713283118691E-2</v>
       </c>
-      <c r="W88">
+      <c r="W88" s="2">
         <f>AVERAGE(Q$21:Q$22)</f>
         <v>2.0754795921728013E-2</v>
       </c>
     </row>
-    <row r="89" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="R89">
+    <row r="89" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="R89" s="2">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
         <v>3.8194997275177109E-4</v>
       </c>
-      <c r="S89">
+      <c r="S89" s="2">
         <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
         <v>2.9494907968756836E-4</v>
       </c>
-      <c r="T89">
+      <c r="T89" s="2">
         <f>STDEV(Q$7:Q$12,Q$17:Q$19)/SQRT(COUNT(Q$7:Q$12,Q$17:Q$19))</f>
         <v>2.310682053692697E-4</v>
       </c>
-      <c r="U89">
+      <c r="U89" s="2">
         <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
         <v>4.7544596282562859E-4</v>
       </c>
-      <c r="W89">
+      <c r="V89" s="2"/>
+      <c r="W89" s="2">
         <f>STDEV(Q$21:Q$22)/SQRT(COUNT(Q$21:Q$22))</f>
         <v>1.7933404971992757E-4</v>
       </c>
     </row>
-    <row r="91" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="16:31" x14ac:dyDescent="0.25">
       <c r="S91" t="s">
         <v>0</v>
       </c>
@@ -7028,55 +11478,82 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="16:31" x14ac:dyDescent="0.25">
       <c r="R92" t="s">
         <v>23</v>
       </c>
-      <c r="S92">
+      <c r="S92" s="2">
         <f>AVERAGE(R$1:R$3)</f>
         <v>2.6578997644427605E-2</v>
       </c>
-      <c r="T92">
+      <c r="T92" s="2">
         <f>AVERAGE(R$4:R$6)</f>
         <v>2.6835872828472173E-2</v>
       </c>
-      <c r="U92">
+      <c r="U92" s="2">
         <f>AVERAGE(R$7:R$12,R$17:R$19)</f>
         <v>2.6886662268571313E-2</v>
       </c>
-      <c r="V92">
+      <c r="V92" s="2">
         <f>AVERAGE(R$13:R$16)</f>
         <v>2.6657237171290454E-2</v>
       </c>
-      <c r="W92">
+      <c r="W92" s="2">
         <f>R$20</f>
         <v>2.6593421852223683E-2</v>
       </c>
-      <c r="X92">
+      <c r="X92" s="2">
         <f>AVERAGE(R$21:R$22)</f>
         <v>2.6777762541119757E-2</v>
       </c>
     </row>
-    <row r="93" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="S93">
+    <row r="93" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="S93" s="2">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
         <v>2.1625069528551808E-5</v>
       </c>
-      <c r="T93">
+      <c r="T93" s="2">
         <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
         <v>4.8710360305349656E-5</v>
       </c>
-      <c r="U93">
+      <c r="U93" s="2">
         <f>STDEV(R$7:R$12,R$17:R$19)/SQRT(COUNT(R$7:R$12,R$17:R$19))</f>
         <v>1.614486351023254E-4</v>
       </c>
-      <c r="V93">
+      <c r="V93" s="2">
         <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
         <v>1.279616788292203E-4</v>
       </c>
-      <c r="X93">
+      <c r="W93" s="2"/>
+      <c r="X93" s="2">
         <f>STDEV(R$21:R$22)/SQRT(COUNT(R$21:R$22))</f>
         <v>2.9679016567189798E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S99" s="3">
+        <f>1/S92</f>
+        <v>37.623691208297089</v>
+      </c>
+      <c r="T99" s="3">
+        <f t="shared" ref="T99:X99" si="38">1/T92</f>
+        <v>37.263554138586677</v>
+      </c>
+      <c r="U99" s="3">
+        <f t="shared" si="38"/>
+        <v>37.193162543233647</v>
+      </c>
+      <c r="V99" s="3">
+        <f t="shared" si="38"/>
+        <v>37.513264918428561</v>
+      </c>
+      <c r="W99" s="3">
+        <f t="shared" si="38"/>
+        <v>37.603284209037668</v>
+      </c>
+      <c r="X99" s="3">
+        <f t="shared" si="38"/>
+        <v>37.344419589366609</v>
       </c>
     </row>
   </sheetData>
@@ -7127,21 +11604,28 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619B633D-6CFB-483C-9FB4-8F6342530738}">
-  <dimension ref="A1:X35"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:X10"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -7183,7 +11667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7230,7 +11714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7277,7 +11761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7324,7 +11808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7371,7 +11855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7418,7 +11902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7465,7 +11949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -7509,36 +11993,36 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
-        <v>2.0365681512952261E-2</v>
-      </c>
-      <c r="C9">
-        <v>2.3173268963984188E-3</v>
-      </c>
-      <c r="D9">
-        <v>0.43030529517923882</v>
-      </c>
-      <c r="E9">
-        <v>7.384890314233869E-2</v>
-      </c>
-      <c r="F9">
-        <v>3.2650559954686166E-3</v>
-      </c>
-      <c r="G9">
-        <v>9.2535545750464687E-2</v>
-      </c>
-      <c r="H9">
-        <v>2.6578997644427605E-2</v>
-      </c>
-      <c r="I9">
-        <v>3.6340015217690251E-2</v>
-      </c>
-      <c r="J9">
-        <v>3.3334323368655015E-3</v>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>13</v>
@@ -7556,36 +12040,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>1.9902792231451975E-2</v>
-      </c>
-      <c r="C10">
-        <v>6.5132119631182801E-3</v>
-      </c>
-      <c r="D10">
-        <v>0.19506446675691699</v>
-      </c>
-      <c r="E10">
-        <v>5.0263555960985945E-2</v>
-      </c>
-      <c r="F10">
-        <v>6.7002828792823597E-3</v>
-      </c>
-      <c r="G10">
-        <v>0.3541415185008206</v>
-      </c>
-      <c r="H10">
-        <v>2.6835872828472173E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.20403788869996353</v>
-      </c>
-      <c r="J10">
-        <v>3.547600000994643E-4</v>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>14</v>
@@ -7603,135 +12087,153 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>2.0561912508965351E-2</v>
-      </c>
-      <c r="C11">
-        <v>2.7535106283079838E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.41603336191621143</v>
-      </c>
-      <c r="E11">
-        <v>6.3109847044927683E-2</v>
-      </c>
-      <c r="F11">
-        <v>2.3435920833815606E-3</v>
-      </c>
-      <c r="G11">
-        <v>0.75444268232926348</v>
-      </c>
-      <c r="H11">
-        <v>2.6886662268571313E-2</v>
-      </c>
-      <c r="I11">
-        <v>1.6742312906554444</v>
-      </c>
-      <c r="J11">
-        <v>2.3075847901287152E-3</v>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
-        <v>2.0431830067845134E-2</v>
-      </c>
-      <c r="C12">
-        <v>5.0273961825241173E-3</v>
-      </c>
-      <c r="D12">
-        <v>0.34656142030851494</v>
-      </c>
-      <c r="E12">
-        <v>8.0357873156810505E-2</v>
-      </c>
-      <c r="F12">
-        <v>5.0000426325554747E-3</v>
-      </c>
-      <c r="G12">
-        <v>0.16916415025152015</v>
-      </c>
-      <c r="H12">
-        <v>2.6657237171290454E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.7445921275636318</v>
-      </c>
-      <c r="J12">
-        <v>2.5302835043647456E-3</v>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>2.0724037579474039E-2</v>
-      </c>
-      <c r="C13">
-        <v>1.0781372792696553E-2</v>
-      </c>
-      <c r="D13">
-        <v>0.65534649688981772</v>
-      </c>
-      <c r="E13">
-        <v>9.9999997840221358E-2</v>
-      </c>
-      <c r="F13">
-        <v>9.9999838680933338E-3</v>
-      </c>
-      <c r="G13">
-        <v>0.10861417866800493</v>
-      </c>
-      <c r="H13">
-        <v>2.659566477285033E-2</v>
-      </c>
-      <c r="I13">
-        <v>0.12058263481323089</v>
-      </c>
-      <c r="J13">
-        <v>1.9405421539302499E-7</v>
+      <c r="B13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
-        <v>2.0754795921728013E-2</v>
-      </c>
-      <c r="C14">
-        <v>7.218428100833273E-3</v>
-      </c>
-      <c r="D14">
-        <v>0.58216172922031317</v>
-      </c>
-      <c r="E14">
-        <v>9.9999300808557345E-2</v>
-      </c>
-      <c r="F14">
-        <v>5.0002088107608767E-3</v>
-      </c>
-      <c r="G14">
-        <v>0.2047343855353021</v>
-      </c>
-      <c r="H14">
-        <v>2.6777762541119757E-2</v>
-      </c>
-      <c r="I14">
-        <v>0.16373508288464522</v>
-      </c>
-      <c r="J14">
-        <v>3.9440761052938893E-7</v>
+      <c r="B14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -7759,8 +12261,29 @@
       <c r="J15" t="s">
         <v>23</v>
       </c>
+      <c r="T15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" t="s">
+        <v>134</v>
+      </c>
+      <c r="V15" t="s">
+        <v>143</v>
+      </c>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -7791,8 +12314,29 @@
       <c r="J16">
         <v>2.1625069528551808E-5</v>
       </c>
+      <c r="T16" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" t="s">
+        <v>135</v>
+      </c>
+      <c r="V16" t="s">
+        <v>144</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -7823,8 +12367,29 @@
       <c r="J17">
         <v>4.8710360305349656E-5</v>
       </c>
+      <c r="T17" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" t="s">
+        <v>136</v>
+      </c>
+      <c r="V17" t="s">
+        <v>145</v>
+      </c>
+      <c r="W17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -7855,8 +12420,29 @@
       <c r="J18">
         <v>1.614486351023254E-4</v>
       </c>
+      <c r="T18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" t="s">
+        <v>137</v>
+      </c>
+      <c r="V18" t="s">
+        <v>146</v>
+      </c>
+      <c r="W18" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -7887,13 +12473,55 @@
       <c r="J19">
         <v>1.279616788292203E-4</v>
       </c>
+      <c r="T19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19" t="s">
+        <v>138</v>
+      </c>
+      <c r="V19" t="s">
+        <v>147</v>
+      </c>
+      <c r="W19" t="s">
+        <v>156</v>
+      </c>
+      <c r="X19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
+      <c r="T20" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" t="s">
+        <v>139</v>
+      </c>
+      <c r="V20" t="s">
+        <v>148</v>
+      </c>
+      <c r="W20" t="s">
+        <v>157</v>
+      </c>
+      <c r="X20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -7924,8 +12552,29 @@
       <c r="J21">
         <v>2.9679016567189798E-5</v>
       </c>
+      <c r="T21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" t="s">
+        <v>140</v>
+      </c>
+      <c r="V21" t="s">
+        <v>149</v>
+      </c>
+      <c r="W21" t="s">
+        <v>158</v>
+      </c>
+      <c r="X21" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -7953,173 +12602,224 @@
       <c r="J22" t="s">
         <v>14</v>
       </c>
+      <c r="T22" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" t="s">
+        <v>141</v>
+      </c>
+      <c r="V22" t="s">
+        <v>150</v>
+      </c>
+      <c r="W22" t="s">
+        <v>159</v>
+      </c>
+      <c r="X22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B23">
-        <v>3.8194997275177109E-4</v>
-      </c>
-      <c r="C23">
-        <v>1.4110540454517E-4</v>
-      </c>
-      <c r="D23">
-        <v>0.21660481975386786</v>
-      </c>
-      <c r="E23">
-        <v>2.3803754511435734E-2</v>
-      </c>
-      <c r="F23">
-        <v>3.2650525106723968E-3</v>
-      </c>
-      <c r="G23">
-        <v>1.2057455739979463E-2</v>
-      </c>
-      <c r="H23">
-        <v>2.1625069528551808E-5</v>
-      </c>
-      <c r="I23">
-        <v>1.6672231507992838E-2</v>
-      </c>
-      <c r="J23">
-        <v>3.3332838326588514E-3</v>
+      <c r="B23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" t="s">
+        <v>14</v>
+      </c>
+      <c r="U23" t="s">
+        <v>142</v>
+      </c>
+      <c r="V23" t="s">
+        <v>151</v>
+      </c>
+      <c r="W23" t="s">
+        <v>160</v>
+      </c>
+      <c r="X23" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B24">
-        <v>2.9494907968756836E-4</v>
-      </c>
-      <c r="C24">
-        <v>1.1938388220454957E-3</v>
-      </c>
-      <c r="D24">
-        <v>0.19506444923262076</v>
-      </c>
-      <c r="E24">
-        <v>2.3947765296666392E-2</v>
-      </c>
-      <c r="F24">
-        <v>3.299717120689041E-3</v>
-      </c>
-      <c r="G24">
-        <v>5.7309495294150879E-2</v>
-      </c>
-      <c r="H24">
-        <v>4.8710360305349656E-5</v>
-      </c>
-      <c r="I24">
-        <v>4.6989865419873371E-2</v>
-      </c>
-      <c r="J24">
-        <v>3.5468109480131071E-4</v>
+      <c r="B24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
-        <v>2.310682053692697E-4</v>
-      </c>
-      <c r="C25">
-        <v>1.0219978638120604E-2</v>
-      </c>
-      <c r="D25">
-        <v>0.10216020479600753</v>
-      </c>
-      <c r="E25">
-        <v>1.0466686942143609E-2</v>
-      </c>
-      <c r="F25">
-        <v>1.4092513298116012E-3</v>
-      </c>
-      <c r="G25">
-        <v>0.39928208436858398</v>
-      </c>
-      <c r="H25">
-        <v>1.614486351023254E-4</v>
-      </c>
-      <c r="I25">
-        <v>1.1308765015832429</v>
-      </c>
-      <c r="J25">
-        <v>1.1718468534149583E-3</v>
+      <c r="B25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B26">
-        <v>4.7544596282562859E-4</v>
-      </c>
-      <c r="C26">
-        <v>4.2920729768569356E-4</v>
-      </c>
-      <c r="D26">
-        <v>0.20068232101892192</v>
-      </c>
-      <c r="E26">
-        <v>1.4625933793160245E-2</v>
-      </c>
-      <c r="F26">
-        <v>2.8867255386663773E-3</v>
-      </c>
-      <c r="G26">
-        <v>0.13741088889033834</v>
-      </c>
-      <c r="H26">
-        <v>1.279616788292203E-4</v>
-      </c>
-      <c r="I26">
-        <v>0.7333214675380374</v>
-      </c>
-      <c r="J26">
-        <v>2.4900647751280795E-3</v>
+      <c r="B26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28">
-        <v>1.7933404971992757E-4</v>
-      </c>
-      <c r="C28">
-        <v>4.7600411383151179E-4</v>
-      </c>
-      <c r="D28">
-        <v>3.8283269949590908E-2</v>
-      </c>
-      <c r="E28">
-        <v>6.9919142025448567E-7</v>
-      </c>
-      <c r="F28">
-        <v>4.9997905818977978E-3</v>
-      </c>
-      <c r="G28">
-        <v>1.8308667441519141E-2</v>
-      </c>
-      <c r="H28">
-        <v>2.9679016567189798E-5</v>
-      </c>
-      <c r="I28">
-        <v>1.8938160200325939E-2</v>
-      </c>
-      <c r="J28">
-        <v>3.9440757832449011E-7</v>
+      <c r="B28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -8148,127 +12848,127 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="str">
         <f>IF(NOT(ISNUMBER(FIND("E",B9))),_xlfn.CONCAT(ROUND(B9,2), " ± ", ROUND(B23,2)),_xlfn.CONCAT(LEFT(B9,4),RIGHT(B9,4), " ± ",LEFT(B23,4),RIGHT(B23,4)))</f>
-        <v>0.02 ± 0</v>
+        <v>2.04E-02 ± 3.82E-04</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ref="C30:J30" si="0">IF(NOT(ISNUMBER(FIND("E",C9))),_xlfn.CONCAT(ROUND(C9,2), " ± ", ROUND(C23,2)),_xlfn.CONCAT(LEFT(C9,4),RIGHT(C9,4), " ± ",LEFT(C23,4),RIGHT(C23,4)))</f>
-        <v>0 ± 0</v>
+        <v>2.32E-03 ± 1.41E-04</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>0.43 ± 0.22</v>
+        <v>4.30E-01 ± 2.17E-01</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>0.07 ± 0.02</v>
+        <v>7.38E-02 ± 2.38E-02</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>0 ± 0</v>
+        <v>3.27E-03 ± 3.27E-03</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>0.09 ± 0.01</v>
+        <v>9.25E-02 ± 1.21E-02</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>0.03 ± 0</v>
+        <v>2.66E-02 ± 2.16E-05</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>0.04 ± 0.02</v>
+        <v>3.63E-02 ± 1.67E-02</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>0 ± 0</v>
+        <v>3.33E-03 ± 3.33E-03</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ref="B31:J35" si="1">IF(NOT(ISNUMBER(FIND("E",B10))),_xlfn.CONCAT(ROUND(B10,2), " ± ", ROUND(B24,2)),_xlfn.CONCAT(LEFT(B10,4),RIGHT(B10,4), " ± ",LEFT(B24,4),RIGHT(B24,4)))</f>
-        <v>0.02 ± 0</v>
+        <v>1.99E-02 ± 2.95E-04</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>0.01 ± 0</v>
+        <v>6.51E-03 ± 1.19E-03</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
-        <v>0.2 ± 0.2</v>
+        <v>1.95E-01 ± 1.95E-01</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
-        <v>0.05 ± 0.02</v>
+        <v>5.03E-02 ± 2.39E-02</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>0.01 ± 0</v>
+        <v>6.70E-03 ± 3.30E-03</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>0.35 ± 0.06</v>
+        <v>3.54E-01 ± 5.73E-02</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>0.03 ± 0</v>
+        <v>2.68E-02 ± 4.87E-05</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
-        <v>0.2 ± 0.05</v>
+        <v>2.04E-01 ± 4.70E-02</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
-        <v>0 ± 0</v>
+        <v>3.55E-04 ± 3.55E-04</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
-        <v>0.02 ± 0</v>
+        <v>2.06E-02 ± 2.31E-04</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v>0.03 ± 0.01</v>
+        <v>2.75E-02 ± 1.02E-02</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
-        <v>0.42 ± 0.1</v>
+        <v>4.16E-01 ± 1.02E-01</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
-        <v>0.06 ± 0.01</v>
+        <v>6.31E-02 ± 1.05E-02</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>0 ± 0</v>
+        <v>2.34E-03 ± 1.41E-03</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>0.75 ± 0.4</v>
+        <v>7.54E-01 ± 3.99E-01</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>0.03 ± 0</v>
+        <v>2.69E-02 ± 1.61E-04</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
-        <v>1.67 ± 1.13</v>
+        <v>1.67E+00 ± 1.13E+00</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
-        <v>0 ± 0</v>
+        <v>2.31E-03 ± 1.17E-03</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -8277,80 +12977,80 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
-        <v>0.02 ± 0</v>
+        <v>2.04E-02 ± 4.75E-04</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v>0.01 ± 0</v>
+        <v>5.03E-03 ± 4.29E-04</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
-        <v>0.35 ± 0.2</v>
+        <v>3.47E-01 ± 2.01E-01</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="1"/>
-        <v>0.08 ± 0.01</v>
+        <v>8.04E-02 ± 1.46E-02</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>0.01 ± 0</v>
+        <v>5.00E-03 ± 2.89E-03</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>0.17 ± 0.14</v>
+        <v>1.69E-01 ± 1.37E-01</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>0.03 ± 0</v>
+        <v>2.67E-02 ± 1.28E-04</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
-        <v>0.74 ± 0.73</v>
+        <v>7.45E-01 ± 7.33E-01</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="1"/>
-        <v>0 ± 0</v>
+        <v>2.53E-03 ± 2.49E-03</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B34" t="str">
-        <f t="shared" si="1"/>
-        <v>0.02 ± 0</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v>0.01 ± 0</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>0.66 ± 0</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v>0.1 ± 0</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="1"/>
-        <v>0.01 ± 0</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>0.11 ± 0</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="1"/>
-        <v>0.03 ± 0</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="1"/>
-        <v>0.12 ± 0</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">1.94E-07 ± </v>
+      <c r="B34" s="4" t="str">
+        <f>B13</f>
+        <v>2.07E-02</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f t="shared" ref="C34:J34" si="2">C13</f>
+        <v>1.08E-02</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>6.55E-01</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1.00E-01</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1.00E-02</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1.09E-01</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>2.66E-02</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1.21E-01</v>
+      </c>
+      <c r="J34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1.94E-07</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -8359,35 +13059,35 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
-        <v>0.02 ± 0</v>
+        <v>2.08E-02 ± 1.79E-04</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>0.01 ± 0</v>
+        <v>7.22E-03 ± 4.76E-04</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
-        <v>0.58 ± 0.04</v>
+        <v>5.82E-01 ± 3.83E-02</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="1"/>
-        <v>0.1 ± 0</v>
+        <v>1.00E-01 ± 6.99E-07</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>0.01 ± 0</v>
+        <v>5.00E-03 ± 5.00E-03</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>0.2 ± 0.02</v>
+        <v>2.05E-01 ± 1.83E-02</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>0.03 ± 0</v>
+        <v>2.68E-02 ± 2.97E-05</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
-        <v>0.16 ± 0.02</v>
+        <v>1.64E-01 ± 1.89E-02</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="1"/>
@@ -8396,11 +13096,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C81D8B5-6680-4FFB-85DD-B8A9C238D7F1}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DDD94-C812-4891-8094-118019DEB6B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37428456-F6B8-42BE-A894-A47490364A9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,16 +831,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.4110540454517E-4</c:v>
+                    <c:v>1.4394371902156326E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1938388220454957E-3</c:v>
+                    <c:v>1.1454985630101012E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0219978638120604E-2</c:v>
+                    <c:v>1.0252324897493665E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2920729768569356E-4</c:v>
+                    <c:v>4.2710599724978308E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -852,16 +852,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.4110540454517E-4</c:v>
+                    <c:v>1.4394371902156326E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1938388220454957E-3</c:v>
+                    <c:v>1.1454985630101012E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0219978638120604E-2</c:v>
+                    <c:v>1.0252324897493665E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2920729768569356E-4</c:v>
+                    <c:v>4.2710599724978308E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -907,16 +907,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3173268963984188E-3</c:v>
+                  <c:v>2.3164158690311869E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5132119631182801E-3</c:v>
+                  <c:v>6.3841099779699843E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7535106283079838E-2</c:v>
+                  <c:v>2.7259684965693379E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0273961825241173E-3</c:v>
+                  <c:v>4.9438179583043522E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,16 +1185,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.2057455739979463E-2</c:v>
+                    <c:v>1.0119091447892565E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7309495294150879E-2</c:v>
+                    <c:v>5.4093217675224937E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39928208436858398</c:v>
+                    <c:v>0.39819613118576136</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.13741088889033834</c:v>
+                    <c:v>0.14503347676822781</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1206,16 +1206,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.2057455739979463E-2</c:v>
+                    <c:v>1.0119091447892565E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7309495294150879E-2</c:v>
+                    <c:v>5.4093217675224937E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39928208436858398</c:v>
+                    <c:v>0.39819613118576136</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.13741088889033834</c:v>
+                    <c:v>0.14503347676822781</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1261,16 +1261,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.2535545750464687E-2</c:v>
+                  <c:v>9.1562026481064915E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3541415185008206</c:v>
+                  <c:v>0.35224348703388203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75444268232926348</c:v>
+                  <c:v>0.74774420072208381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16916415025152015</c:v>
+                  <c:v>0.17801503044574071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,19 +1539,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.3803754511435734E-2</c:v>
+                    <c:v>2.4510193064883369E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.3947765296666392E-2</c:v>
+                    <c:v>2.4560951831086825E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0466686942143609E-2</c:v>
+                    <c:v>1.117040559412727E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4625933793160245E-2</c:v>
+                    <c:v>1.5218377435181186E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.9919142025448567E-7</c:v>
+                    <c:v>3.2305776623275939E-8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1563,19 +1563,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.3803754511435734E-2</c:v>
+                    <c:v>2.4510193064883369E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.3947765296666392E-2</c:v>
+                    <c:v>2.4560951831086825E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0466686942143609E-2</c:v>
+                    <c:v>1.117040559412727E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4625933793160245E-2</c:v>
+                    <c:v>1.5218377435181186E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.9919142025448567E-7</c:v>
+                    <c:v>3.2305776623275939E-8</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1627,22 +1627,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.384890314233869E-2</c:v>
+                  <c:v>7.5338792243522842E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0263555960985945E-2</c:v>
+                  <c:v>5.0878096231398669E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3109847044927683E-2</c:v>
+                  <c:v>5.9605294490649968E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0357873156810505E-2</c:v>
+                  <c:v>7.5438489871608422E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9999999990512817E-2</c:v>
+                  <c:v>9.9996154785638877E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999300808557345E-2</c:v>
+                  <c:v>9.9999611247921769E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,19 +1911,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>3.8194997275177109E-4</c:v>
+                    <c:v>3.8905919800278743E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9494907968756836E-4</c:v>
+                    <c:v>3.0506651067963139E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.310682053692697E-4</c:v>
+                    <c:v>2.1590559082891949E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7544596282562859E-4</c:v>
+                    <c:v>4.6278990617203001E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.7933404971992757E-4</c:v>
+                    <c:v>9.8987882803977523E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1935,19 +1935,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>3.8194997275177109E-4</c:v>
+                    <c:v>3.8905919800278743E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9494907968756836E-4</c:v>
+                    <c:v>3.0506651067963139E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.310682053692697E-4</c:v>
+                    <c:v>2.1590559082891949E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7544596282562859E-4</c:v>
+                    <c:v>4.6278990617203001E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.7933404971992757E-4</c:v>
+                    <c:v>9.8987882803977523E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1999,22 +1999,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0365681512952261E-2</c:v>
+                  <c:v>2.037862058825092E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9902792231451975E-2</c:v>
+                  <c:v>1.9912909647962457E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0561912508965351E-2</c:v>
+                  <c:v>2.0515103427541762E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0431830067845134E-2</c:v>
+                  <c:v>2.0409427432635803E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0784713283118691E-2</c:v>
+                  <c:v>2.0902529677286813E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0754795921728013E-2</c:v>
+                  <c:v>2.068643633958234E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,19 +2283,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.1625069528551808E-5</c:v>
+                    <c:v>6.790444705159948E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.8710360305349656E-5</c:v>
+                    <c:v>7.4724977136014664E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.614486351023254E-4</c:v>
+                    <c:v>1.6268316449898223E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.279616788292203E-4</c:v>
+                    <c:v>1.9335632166111503E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.9679016567189798E-5</c:v>
+                    <c:v>2.7860731561090558E-6</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2307,19 +2307,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.1625069528551808E-5</c:v>
+                    <c:v>6.790444705159948E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.8710360305349656E-5</c:v>
+                    <c:v>7.4724977136014664E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.614486351023254E-4</c:v>
+                    <c:v>1.6268316449898223E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.279616788292203E-4</c:v>
+                    <c:v>1.9335632166111503E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.9679016567189798E-5</c:v>
+                    <c:v>2.7860731561090558E-6</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2371,22 +2371,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.6578997644427605E-2</c:v>
+                  <c:v>2.6626665084659509E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6835872828472173E-2</c:v>
+                  <c:v>2.678220265577928E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6886662268571313E-2</c:v>
+                  <c:v>2.6913361518582011E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6657237171290454E-2</c:v>
+                  <c:v>2.6763462286901768E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6593421852223683E-2</c:v>
+                  <c:v>2.6623766806585347E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6777762541119757E-2</c:v>
+                  <c:v>2.6746041579962625E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,19 +2655,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.4110540454517E-4</c:v>
+                    <c:v>1.4394371902156326E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1938388220454957E-3</c:v>
+                    <c:v>1.1454985630101012E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0219978638120604E-2</c:v>
+                    <c:v>1.0252324897493665E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2920729768569356E-4</c:v>
+                    <c:v>4.2710599724978308E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.7600411383151179E-4</c:v>
+                    <c:v>4.1447888678808326E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2679,19 +2679,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.4110540454517E-4</c:v>
+                    <c:v>1.4394371902156326E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1938388220454957E-3</c:v>
+                    <c:v>1.1454985630101012E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0219978638120604E-2</c:v>
+                    <c:v>1.0252324897493665E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2920729768569356E-4</c:v>
+                    <c:v>4.2710599724978308E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.7600411383151179E-4</c:v>
+                    <c:v>4.1447888678808326E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2743,22 +2743,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.3173268963984188E-3</c:v>
+                  <c:v>2.3164158690311869E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5132119631182801E-3</c:v>
+                  <c:v>6.3841099779699843E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7535106283079838E-2</c:v>
+                  <c:v>2.7259684965693379E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0273961825241173E-3</c:v>
+                  <c:v>4.9438179583043522E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0760566128758033E-2</c:v>
+                  <c:v>1.0575516431258088E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.218428100833273E-3</c:v>
+                  <c:v>7.1513467267411528E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,19 +3027,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.2057455739979463E-2</c:v>
+                    <c:v>1.0119091447892565E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7309495294150879E-2</c:v>
+                    <c:v>5.4093217675224937E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39928208436858398</c:v>
+                    <c:v>0.39819613118576136</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.13741088889033834</c:v>
+                    <c:v>0.14503347676822781</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8308667441519141E-2</c:v>
+                    <c:v>1.6027079767790373E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3051,19 +3051,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.2057455739979463E-2</c:v>
+                    <c:v>1.0119091447892565E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7309495294150879E-2</c:v>
+                    <c:v>5.4093217675224937E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39928208436858398</c:v>
+                    <c:v>0.39819613118576136</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.13741088889033834</c:v>
+                    <c:v>0.14503347676822781</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8308667441519141E-2</c:v>
+                    <c:v>1.6027079767790373E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3115,22 +3115,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.2535545750464687E-2</c:v>
+                  <c:v>9.1562026481064915E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3541415185008206</c:v>
+                  <c:v>0.35224348703388203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75444268232926348</c:v>
+                  <c:v>0.74774420072208381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16916415025152015</c:v>
+                  <c:v>0.17801503044574071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10810136923207164</c:v>
+                  <c:v>0.11351920357952909</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2047343855353021</c:v>
+                  <c:v>0.20672336535200575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3258,6 +3258,301 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="464000488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$51:$N$51</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>siRNA_c</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>siRNA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$52:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8181824203370934E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20297707272718515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6671523445758363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79229808016207393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12935499209510501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16609778493771393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E020-4B75-A36C-FAD94D1D1009}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="586836440"/>
+        <c:axId val="586839720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="586836440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586839720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="586839720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586836440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3593,6 +3888,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6612,6 +6947,509 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7363,6 +8201,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043A2BEE-3832-43AC-8DB4-516492F6A41F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7671,8 +8545,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7684,282 +8558,282 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>2.0440913622746353E-3</v>
+        <v>2.0557108197518685E-3</v>
       </c>
       <c r="B1" s="2">
-        <v>0.10465567845805716</v>
+        <v>9.9115865834907793E-2</v>
       </c>
       <c r="C1" s="2">
-        <v>2.6315789473742499E-2</v>
+        <v>2.6318593651669588E-2</v>
       </c>
       <c r="D1" s="2">
-        <v>818926518.32173777</v>
+        <v>818926475.2901206</v>
       </c>
       <c r="E1" s="2">
-        <v>23.82609736019262</v>
+        <v>23.825886019786932</v>
       </c>
       <c r="F1" s="2">
-        <v>61.845367692256538</v>
+        <v>61.845609767826666</v>
       </c>
       <c r="G1" s="2">
-        <v>0.68884824364616704</v>
+        <v>0.68881158557416244</v>
       </c>
       <c r="H1" s="2">
-        <v>6.8689081548227338E-2</v>
+        <v>7.047740592792108E-2</v>
       </c>
       <c r="I1" s="2">
-        <v>9.9999999999777905E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J1" s="2">
-        <v>3.2257708635855453E-14</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K1" s="2">
-        <v>0.99150334140232921</v>
+        <v>0.99150334142583507</v>
       </c>
       <c r="L1" s="2">
-        <v>0.98468620622725533</v>
+        <v>0.98386808311956486</v>
       </c>
       <c r="M1" s="2">
-        <v>0.96903400881054969</v>
+        <v>0.9684973582343599</v>
       </c>
       <c r="N1" s="2">
-        <v>9.1715276871926474E-2</v>
+        <v>9.171527674506165E-2</v>
       </c>
       <c r="O1" s="2">
-        <v>0.12312861501299061</v>
+        <v>0.12637483021405344</v>
       </c>
       <c r="P1" s="2">
-        <v>0.17508949505197574</v>
+        <v>0.17660015670430126</v>
       </c>
       <c r="Q1" s="2">
-        <v>2.0833159094342264E-2</v>
+        <v>2.0856355236519776E-2</v>
       </c>
       <c r="R1" s="2">
-        <v>2.6617079497839362E-2</v>
+        <v>2.6761929438158409E-2</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2.3927976051121252E-3</v>
+        <v>2.3410137687248072E-3</v>
       </c>
       <c r="B2" s="2">
-        <v>0.10453021573169838</v>
+        <v>0.10404526265993677</v>
       </c>
       <c r="C2" s="2">
-        <v>9.5311438438472257E-2</v>
+        <v>9.9731461794397874E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>36088455.454467326</v>
+        <v>36106164.569166452</v>
       </c>
       <c r="E2" s="2">
-        <v>18.681938922510028</v>
+        <v>18.681233832701423</v>
       </c>
       <c r="F2" s="2">
-        <v>58.195976647332117</v>
+        <v>58.210819368549934</v>
       </c>
       <c r="G2" s="2">
-        <v>2.9227470395530482E-6</v>
+        <v>1.0000022204460493E-8</v>
       </c>
       <c r="H2" s="2">
-        <v>2.7168577155675049E-2</v>
+        <v>2.6538587856825991E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>5.4853470340308853E-14</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>9.7951610168121699E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K2" s="2">
-        <v>0.99654313831679786</v>
+        <v>0.99654307584778179</v>
       </c>
       <c r="L2" s="2">
-        <v>0.98089961043097618</v>
+        <v>0.98053574802914201</v>
       </c>
       <c r="M2" s="2">
-        <v>0.99419710437208608</v>
+        <v>0.99425352788773635</v>
       </c>
       <c r="N2" s="2">
-        <v>5.8500368087475212E-2</v>
+        <v>5.8500896665744137E-2</v>
       </c>
       <c r="O2" s="2">
-        <v>0.13751140197573994</v>
+        <v>0.13881501882415118</v>
       </c>
       <c r="P2" s="2">
-        <v>7.5794898717755591E-2</v>
+        <v>7.5425508888843515E-2</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.9608725866423513E-2</v>
+        <v>1.9607843137277106E-2</v>
       </c>
       <c r="R2" s="2">
-        <v>2.6577712286619641E-2</v>
+        <v>2.6569554684972144E-2</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.5150917218084955E-3</v>
+        <v>2.5525230186168851E-3</v>
       </c>
       <c r="B3" s="2">
-        <v>6.8420743061638548E-2</v>
+        <v>7.1524950948350138E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>9.9919481514801317E-2</v>
+        <v>9.9966321284501045E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>1041012019.8025222</v>
+        <v>1041003656.6408843</v>
       </c>
       <c r="E3" s="2">
-        <v>19.19905848943559</v>
+        <v>19.199045618070105</v>
       </c>
       <c r="F3" s="2">
-        <v>68.746258055837359</v>
+        <v>68.746358124488609</v>
       </c>
       <c r="G3" s="2">
-        <v>0.60206471914450987</v>
+        <v>0.60200460717787152</v>
       </c>
       <c r="H3" s="2">
-        <v>1.3162386949168365E-2</v>
+        <v>1.7529478825365742E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>2.9701056386062662E-7</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>6.9695614230316312E-9</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K3" s="2">
-        <v>0.99165914719180515</v>
+        <v>0.99165914575692848</v>
       </c>
       <c r="L3" s="2">
-        <v>0.98342962178459059</v>
+        <v>0.98348704836666767</v>
       </c>
       <c r="M3" s="2">
-        <v>0.99356881462323687</v>
+        <v>0.99316820740064393</v>
       </c>
       <c r="N3" s="2">
-        <v>9.0870480796092098E-2</v>
+        <v>9.0870488612314851E-2</v>
       </c>
       <c r="O3" s="2">
-        <v>0.12808073404402126</v>
+        <v>0.12785860204538047</v>
       </c>
       <c r="P3" s="2">
-        <v>7.9792690912110151E-2</v>
+        <v>8.2240346991987581E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>2.0655159578091005E-2</v>
+        <v>2.0671663390955875E-2</v>
       </c>
       <c r="R3" s="2">
-        <v>2.6542201148823823E-2</v>
+        <v>2.6548511130847979E-2</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>5.3762528274266495E-3</v>
+        <v>5.2573198946346388E-3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.28353888576952746</v>
+        <v>0.2859338949845297</v>
       </c>
       <c r="C4" s="2">
-        <v>2.6315791785633313E-2</v>
+        <v>2.6318492905989185E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>86596842.841015711</v>
+        <v>86629034.117601648</v>
       </c>
       <c r="E4" s="2">
-        <v>30.913689726992203</v>
+        <v>30.913402420885536</v>
       </c>
       <c r="F4" s="2">
-        <v>58.032491918073021</v>
+        <v>58.043429814323368</v>
       </c>
       <c r="G4" s="2">
-        <v>1.0000054897723946E-8</v>
+        <v>1.0000033601550099E-8</v>
       </c>
       <c r="H4" s="2">
-        <v>0.19489217419388372</v>
+        <v>0.19701764756584852</v>
       </c>
       <c r="I4" s="2">
-        <v>1.5781641433140845E-7</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>9.9999999999661453E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K4" s="2">
-        <v>0.99355664494107587</v>
+        <v>0.99355644913506469</v>
       </c>
       <c r="L4" s="2">
-        <v>0.93629390894292164</v>
+        <v>0.93529759124292899</v>
       </c>
       <c r="M4" s="2">
-        <v>0.93686960382096918</v>
+        <v>0.9363863404679561</v>
       </c>
       <c r="N4" s="2">
-        <v>7.9868150775730701E-2</v>
+        <v>7.9869364316275268E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>0.25113548165583355</v>
+        <v>0.25309165270609046</v>
       </c>
       <c r="P4" s="2">
-        <v>0.24999818442788838</v>
+        <v>0.25095322858398028</v>
       </c>
       <c r="Q4" s="2">
-        <v>1.9607843137278452E-2</v>
+        <v>1.9607843137288503E-2</v>
       </c>
       <c r="R4" s="2">
-        <v>2.6896859532853503E-2</v>
+        <v>2.6749809655083442E-2</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>5.2633828822758588E-3</v>
+        <v>5.2200042368165719E-3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.46763865279280215</v>
+        <v>0.45942873015341307</v>
       </c>
       <c r="C5" s="2">
-        <v>9.8159086554318709E-2</v>
+        <v>9.9999999868893116E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>1103368290.1447656</v>
+        <v>1103374597.4011326</v>
       </c>
       <c r="E5" s="2">
-        <v>12.198015708622073</v>
+        <v>12.198208080747904</v>
       </c>
       <c r="F5" s="2">
-        <v>70.613225370925008</v>
+        <v>70.612985794234618</v>
       </c>
       <c r="G5" s="2">
-        <v>0.58519336522215837</v>
+        <v>0.58520909191220483</v>
       </c>
       <c r="H5" s="2">
-        <v>0.28961327237140227</v>
+        <v>0.28420115416857</v>
       </c>
       <c r="I5" s="2">
-        <v>1.0641221838503477E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>1.0084863790427543E-4</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K5" s="2">
-        <v>0.99461538917933912</v>
+        <v>0.99461539023777035</v>
       </c>
       <c r="L5" s="2">
-        <v>0.97097659833260552</v>
+        <v>0.97094393467439111</v>
       </c>
       <c r="M5" s="2">
-        <v>0.98146415872607196</v>
+        <v>0.98152731522893832</v>
       </c>
       <c r="N5" s="2">
-        <v>7.3012086071104015E-2</v>
+        <v>7.3012078895258084E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>0.16950860642079654</v>
+        <v>0.16960396419999402</v>
       </c>
       <c r="P5" s="2">
-        <v>0.1354639541028857</v>
+        <v>0.13523297646414142</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.0492690390827111E-2</v>
+        <v>2.0523042669321721E-2</v>
       </c>
       <c r="R5" s="2">
-        <v>2.6871171299631819E-2</v>
+        <v>2.6924749806119089E-2</v>
       </c>
       <c r="T5">
         <f>0.0001</f>
@@ -8009,58 +8883,58 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>8.9000001796523294E-3</v>
+        <v>8.6750058024587431E-3</v>
       </c>
       <c r="B6" s="2">
-        <v>0.31124701694013229</v>
+        <v>0.31136783596370343</v>
       </c>
       <c r="C6" s="2">
-        <v>2.631578954300581E-2</v>
+        <v>2.6315795919313722E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>98184377.42764622</v>
+        <v>98184079.682801247</v>
       </c>
       <c r="E6" s="2">
-        <v>23.117265872845241</v>
+        <v>23.116385117845365</v>
       </c>
       <c r="F6" s="2">
-        <v>54.503896415532829</v>
+        <v>54.511981949431565</v>
       </c>
       <c r="G6" s="2">
-        <v>2.5048537685972825E-8</v>
+        <v>1.0000022247938887E-8</v>
       </c>
       <c r="H6" s="2">
-        <v>0.12760821953460458</v>
+        <v>0.12771241644713691</v>
       </c>
       <c r="I6" s="2">
-        <v>3.3713746761796656E-14</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>9.999999999976656E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K6" s="2">
-        <v>0.995632606519402</v>
+        <v>0.99563273473730507</v>
       </c>
       <c r="L6" s="2">
-        <v>0.98684403444459123</v>
+        <v>0.98648971431173471</v>
       </c>
       <c r="M6" s="2">
-        <v>0.98980638844998814</v>
+        <v>0.98965810503377805</v>
       </c>
       <c r="N6" s="2">
-        <v>6.5754996356109957E-2</v>
+        <v>6.5754031131695631E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>0.11412451927545925</v>
+        <v>0.11565112550849928</v>
       </c>
       <c r="P6" s="2">
-        <v>0.1004573314124549</v>
+        <v>0.10118535475334206</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.9607843166250361E-2</v>
+        <v>1.9607843137277151E-2</v>
       </c>
       <c r="R6" s="2">
-        <v>2.673958765293119E-2</v>
+        <v>2.6672048506135308E-2</v>
       </c>
       <c r="T6">
         <v>0.08</v>
@@ -8106,674 +8980,674 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>7.8104063053251026E-3</v>
+        <v>7.5914217578140148E-3</v>
       </c>
       <c r="B7" s="2">
-        <v>5.8711767021941051E-2</v>
+        <v>5.927771422376648E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>3.543964728375152E-2</v>
+        <v>2.6751329841161617E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>869498093.87442935</v>
+        <v>869265109.56504738</v>
       </c>
       <c r="E7" s="2">
-        <v>39.085223327586924</v>
+        <v>39.084775814154654</v>
       </c>
       <c r="F7" s="2">
-        <v>54.559074477882291</v>
+        <v>54.55953109716026</v>
       </c>
       <c r="G7" s="2">
-        <v>0.80289228249175082</v>
+        <v>0.80286497743261798</v>
       </c>
       <c r="H7" s="2">
-        <v>4.7854248498612514E-2</v>
+        <v>5.9185138442204535E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>9.9999986481246975E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>2.4603233390046519E-10</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K7" s="2">
-        <v>0.99705613162044915</v>
+        <v>0.99705611110648651</v>
       </c>
       <c r="L7" s="2">
-        <v>0.99612595656099368</v>
+        <v>0.99608504897129768</v>
       </c>
       <c r="M7" s="2">
-        <v>0.9962224675360567</v>
+        <v>0.99607006071385595</v>
       </c>
       <c r="N7" s="2">
-        <v>5.3985458187879524E-2</v>
+        <v>5.3985646282863058E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>6.1929823224487417E-2</v>
+        <v>6.2255935607902234E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>6.1153553774935428E-2</v>
+        <v>6.2374994134529668E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>2.1219783761821043E-2</v>
+        <v>2.1232063794185255E-2</v>
       </c>
       <c r="R7" s="2">
-        <v>2.6547519541939579E-2</v>
+        <v>2.6553018643162851E-2</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1.0293977888170207E-2</v>
+        <v>1.0292223770819856E-2</v>
       </c>
       <c r="B8" s="2">
-        <v>6.2547230470345092E-2</v>
+        <v>6.2536956357797657E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>9.9999997394403309E-2</v>
+        <v>9.9999470913624322E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>1105943837.1576962</v>
+        <v>1105943154.5792081</v>
       </c>
       <c r="E8" s="2">
-        <v>34.224737105350428</v>
+        <v>34.224739942760991</v>
       </c>
       <c r="F8" s="2">
-        <v>62.585373087947318</v>
+        <v>62.585366069851858</v>
       </c>
       <c r="G8" s="2">
-        <v>0.66678525636758301</v>
+        <v>0.66656970850361874</v>
       </c>
       <c r="H8" s="2">
-        <v>7.9059354392826436E-2</v>
+        <v>7.9010518088754811E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>5.0899272976990542E-7</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J8" s="2">
-        <v>2.0085230956227377E-8</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K8" s="2">
-        <v>0.99748717120289465</v>
+        <v>0.9974871711289971</v>
       </c>
       <c r="L8" s="2">
-        <v>0.99501466113717596</v>
+        <v>0.99501433922147275</v>
       </c>
       <c r="M8" s="2">
-        <v>0.99238547744077443</v>
+        <v>0.99238741847950507</v>
       </c>
       <c r="N8" s="2">
-        <v>4.9879347470318032E-2</v>
+        <v>4.9879348203746052E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>7.0256523341985691E-2</v>
+        <v>7.0258791624407971E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>8.6828170813152195E-2</v>
+        <v>8.6817103304778445E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>2.0609537938434234E-2</v>
+        <v>2.0827320197030003E-2</v>
       </c>
       <c r="R8" s="2">
-        <v>2.6714034551213846E-2</v>
+        <v>2.6734421910361135E-2</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2.5521490650557456E-2</v>
+        <v>2.5438395272100494E-2</v>
       </c>
       <c r="B9" s="2">
-        <v>3.417715349211504</v>
+        <v>3.4276101219153241</v>
       </c>
       <c r="C9" s="2">
-        <v>5.2458562678055182E-2</v>
+        <v>4.0395763664708331E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>489736763.11978352</v>
+        <v>488710735.85129702</v>
       </c>
       <c r="E9" s="2">
-        <v>29.439042175107609</v>
+        <v>29.4323485220031</v>
       </c>
       <c r="F9" s="2">
-        <v>66.768414906688562</v>
+        <v>66.759922800315707</v>
       </c>
       <c r="G9" s="2">
-        <v>5.7674886716178216E-2</v>
+        <v>5.7356304864502765E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>9.9656548726176819</v>
+        <v>9.993133311341456</v>
       </c>
       <c r="I9" s="2">
-        <v>4.6822527483963297E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>9.6097395522457985E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K9" s="2">
-        <v>0.99576792146742721</v>
+        <v>0.99576792369621603</v>
       </c>
       <c r="L9" s="2">
-        <v>0.93833622632773017</v>
+        <v>0.938327355439035</v>
       </c>
       <c r="M9" s="2">
-        <v>0.97355014251882899</v>
+        <v>0.97354796686243017</v>
       </c>
       <c r="N9" s="2">
-        <v>6.4728338054109727E-2</v>
+        <v>6.4728321009787509E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>0.24707718618995786</v>
+        <v>0.2470949576890539</v>
       </c>
       <c r="P9" s="2">
-        <v>0.1618189077529549</v>
+        <v>0.16182556289472361</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.9839079069671032E-2</v>
+        <v>1.9857743757391303E-2</v>
       </c>
       <c r="R9" s="2">
-        <v>2.7391887592862471E-2</v>
+        <v>2.7489220908451125E-2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>3.146457105211109E-3</v>
+        <v>2.8744849719548491E-3</v>
       </c>
       <c r="B10" s="2">
-        <v>0.30767357664672129</v>
+        <v>0.32143880300750538</v>
       </c>
       <c r="C10" s="2">
-        <v>7.9583445150516172E-2</v>
+        <v>2.6714907621898286E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>61731100.736689009</v>
+        <v>61788946.500900015</v>
       </c>
       <c r="E10" s="2">
-        <v>37.500782638502137</v>
+        <v>37.504357344146641</v>
       </c>
       <c r="F10" s="2">
-        <v>39.883935665374395</v>
+        <v>39.890323955715708</v>
       </c>
       <c r="G10" s="2">
-        <v>2.9511046557444614E-2</v>
+        <v>2.9917140721475569E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>0.27047908843108182</v>
+        <v>0.29137609880857473</v>
       </c>
       <c r="I10" s="2">
-        <v>4.8746249878534728E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>1.395798534112733E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K10" s="2">
-        <v>0.99451203358238027</v>
+        <v>0.99451207342539116</v>
       </c>
       <c r="L10" s="2">
-        <v>0.98442477385521798</v>
+        <v>0.98275643506478261</v>
       </c>
       <c r="M10" s="2">
-        <v>0.99115715378663338</v>
+        <v>0.99120152697749986</v>
       </c>
       <c r="N10" s="2">
-        <v>7.3709475330133459E-2</v>
+        <v>7.3709207761735743E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>0.12417517418282223</v>
+        <v>0.13065653173823807</v>
       </c>
       <c r="P10" s="2">
-        <v>9.356504556314281E-2</v>
+        <v>9.3329996744214799E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.9711737929038364E-2</v>
+        <v>1.9665017824744974E-2</v>
       </c>
       <c r="R10" s="2">
-        <v>2.6756523344968534E-2</v>
+        <v>2.6792616772375315E-2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8.6133116110997613E-3</v>
+        <v>8.5968463448288825E-3</v>
       </c>
       <c r="B11" s="2">
-        <v>7.5490511028491469E-2</v>
+        <v>7.5564336395165743E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>4.1286898867914264E-2</v>
+        <v>4.0847045394112963E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>110376839.87821494</v>
+        <v>110488423.18341053</v>
       </c>
       <c r="E11" s="2">
-        <v>18.842232094206679</v>
+        <v>18.841009981111771</v>
       </c>
       <c r="F11" s="2">
-        <v>71.952100802675602</v>
+        <v>71.952728345955066</v>
       </c>
       <c r="G11" s="2">
-        <v>0.61663893787010804</v>
+        <v>0.61733761249913699</v>
       </c>
       <c r="H11" s="2">
-        <v>9.8010561447073249E-2</v>
+        <v>9.8352057278380256E-2</v>
       </c>
       <c r="I11" s="2">
-        <v>1.3985244766235262E-4</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>3.4615726410125156E-9</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K11" s="2">
-        <v>0.98377972734109542</v>
+        <v>0.98377987501298503</v>
       </c>
       <c r="L11" s="2">
-        <v>0.98268498828409034</v>
+        <v>0.98268451190627826</v>
       </c>
       <c r="M11" s="2">
-        <v>0.98190495840619718</v>
+        <v>0.98190575803062075</v>
       </c>
       <c r="N11" s="2">
-        <v>0.12672044007308195</v>
+        <v>0.12671986323045345</v>
       </c>
       <c r="O11" s="2">
-        <v>0.13092693228954302</v>
+        <v>0.13092873333529403</v>
       </c>
       <c r="P11" s="2">
-        <v>0.13384353244690153</v>
+        <v>0.13384057512460656</v>
       </c>
       <c r="Q11" s="2">
-        <v>2.1265776496996937E-2</v>
+        <v>2.126960492623493E-2</v>
       </c>
       <c r="R11" s="2">
-        <v>2.6659677306561914E-2</v>
+        <v>2.6709984779518327E-2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>7.9998621646789378E-2</v>
+        <v>7.9997766628592509E-2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.1312262426398703</v>
+        <v>2.0858082647647862</v>
       </c>
       <c r="C12" s="2">
-        <v>3.3565295393196776E-2</v>
+        <v>7.9039145039425426E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>1451043698.7152901</v>
+        <v>1451043694.4494283</v>
       </c>
       <c r="E12" s="2">
-        <v>12.000000000081066</v>
+        <v>12.000000000916236</v>
       </c>
       <c r="F12" s="2">
-        <v>77.207645232726918</v>
+        <v>77.207633189122404</v>
       </c>
       <c r="G12" s="2">
-        <v>0.44746338058923973</v>
+        <v>0.44739495069051716</v>
       </c>
       <c r="H12" s="2">
-        <v>4.2189544038400131</v>
+        <v>4.1276322979465823</v>
       </c>
       <c r="I12" s="2">
-        <v>1.0445275917702612E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J12" s="2">
-        <v>4.2707190817022586E-14</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K12" s="2">
-        <v>0.96577834202883539</v>
+        <v>0.96577834188396927</v>
       </c>
       <c r="L12" s="2">
-        <v>0.93034953850650604</v>
+        <v>0.93034998531482005</v>
       </c>
       <c r="M12" s="2">
-        <v>0.9871713206559789</v>
+        <v>0.9871643461549835</v>
       </c>
       <c r="N12" s="2">
-        <v>0.1840636884109762</v>
+        <v>0.1840636888005627</v>
       </c>
       <c r="O12" s="2">
-        <v>0.26259085452193304</v>
+        <v>0.2625900122592788</v>
       </c>
       <c r="P12" s="2">
-        <v>0.11269601834395418</v>
+        <v>0.11272664860877547</v>
       </c>
       <c r="Q12" s="2">
-        <v>2.0460765142843514E-2</v>
+        <v>2.0525713862632945E-2</v>
       </c>
       <c r="R12" s="2">
-        <v>2.798323054501933E-2</v>
+        <v>2.7966562536942543E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>5.3785052731830461E-3</v>
+        <v>5.1519304202631965E-3</v>
       </c>
       <c r="B13" s="2">
-        <v>2.6738923838399504E-2</v>
+        <v>2.8855251976566281E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>9.9999999999977537E-2</v>
+        <v>9.9999947211530743E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>216470048.14877984</v>
+        <v>216401436.90357524</v>
       </c>
       <c r="E13" s="2">
-        <v>28.433727230396499</v>
+        <v>28.426368858582276</v>
       </c>
       <c r="F13" s="2">
-        <v>54.906064887553164</v>
+        <v>54.929167693269896</v>
       </c>
       <c r="G13" s="2">
-        <v>3.2756574456477034E-4</v>
+        <v>2.4016579977139205E-4</v>
       </c>
       <c r="H13" s="2">
-        <v>1.9699840230101226E-2</v>
+        <v>2.7256318248896662E-2</v>
       </c>
       <c r="I13" s="2">
-        <v>3.2218515143462973E-14</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J13" s="2">
-        <v>9.9999999999769631E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K13" s="2">
-        <v>0.99860127036337543</v>
+        <v>0.99860148353106892</v>
       </c>
       <c r="L13" s="2">
-        <v>0.99478661481358055</v>
+        <v>0.99424611287246834</v>
       </c>
       <c r="M13" s="2">
-        <v>0.98959205188990085</v>
+        <v>0.98838609410607781</v>
       </c>
       <c r="N13" s="2">
-        <v>3.7212126252853521E-2</v>
+        <v>3.7209290563537098E-2</v>
       </c>
       <c r="O13" s="2">
-        <v>7.184184946502474E-2</v>
+        <v>7.5474156214272448E-2</v>
       </c>
       <c r="P13" s="2">
-        <v>0.1015079732286986</v>
+        <v>0.10722764025652617</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.9609087170804188E-2</v>
+        <v>1.9609167295389317E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>2.6532400155956409E-2</v>
+        <v>2.6622320963507355E-2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>3.7811522215408897E-3</v>
+        <v>3.696359030175931E-3</v>
       </c>
       <c r="B14" s="2">
-        <v>2.3975951449874546E-2</v>
+        <v>2.5118050812207509E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>3.7648713267753244E-2</v>
+        <v>3.1655629434963514E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>2505929597.0853271</v>
+        <v>2495250970.1058059</v>
       </c>
       <c r="E14" s="2">
-        <v>33.023920788383059</v>
+        <v>33.02064487764649</v>
       </c>
       <c r="F14" s="2">
-        <v>59.464307434542782</v>
+        <v>59.464149160759526</v>
       </c>
       <c r="G14" s="2">
-        <v>0.73367388393967248</v>
+        <v>0.73046171235060575</v>
       </c>
       <c r="H14" s="2">
-        <v>7.8385779505851828E-3</v>
+        <v>2.2592137752089961E-2</v>
       </c>
       <c r="I14" s="2">
-        <v>9.9999866391353946E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>4.7372018157425733E-12</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K14" s="2">
-        <v>0.99716413840400764</v>
+        <v>0.99716396915544014</v>
       </c>
       <c r="L14" s="2">
-        <v>0.99336359824611264</v>
+        <v>0.99306798344342373</v>
       </c>
       <c r="M14" s="2">
-        <v>0.99192791876802611</v>
+        <v>0.99214948395361646</v>
       </c>
       <c r="N14" s="2">
-        <v>5.2985875287971357E-2</v>
+        <v>5.298745640351344E-2</v>
       </c>
       <c r="O14" s="2">
-        <v>8.1055769297123478E-2</v>
+        <v>8.2841392980867429E-2</v>
       </c>
       <c r="P14" s="2">
-        <v>8.9394409331088304E-2</v>
+        <v>8.8159009102415059E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>2.1234380756629898E-2</v>
+        <v>2.1164592113205351E-2</v>
       </c>
       <c r="R14" s="2">
-        <v>2.652705700243119E-2</v>
+        <v>2.6562311963215065E-2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>5.733412868772542E-3</v>
+        <v>5.6207319018958448E-3</v>
       </c>
       <c r="B15" s="2">
-        <v>4.4777155572905403E-2</v>
+        <v>4.5167341335324525E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>8.5142842438287111E-2</v>
+        <v>9.1142339946662779E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>218002613.50193721</v>
+        <v>218581353.42297032</v>
       </c>
       <c r="E15" s="2">
-        <v>17.966340175817113</v>
+        <v>17.965343306105765</v>
       </c>
       <c r="F15" s="2">
-        <v>65.908559158253198</v>
+        <v>65.96941977258993</v>
       </c>
       <c r="G15" s="2">
-        <v>1.0000042249550875E-8</v>
+        <v>1.0000040928157862E-8</v>
       </c>
       <c r="H15" s="2">
-        <v>6.2919062710599565E-3</v>
+        <v>6.979874171140172E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>3.4289203051887389E-11</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J15" s="2">
-        <v>9.9999958653245423E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K15" s="2">
-        <v>0.99870449586169496</v>
+        <v>0.99870352220968939</v>
       </c>
       <c r="L15" s="2">
-        <v>0.98769404147713824</v>
+        <v>0.98710494737937005</v>
       </c>
       <c r="M15" s="2">
-        <v>0.99309265476941699</v>
+        <v>0.99315159156446964</v>
       </c>
       <c r="N15" s="2">
-        <v>3.5812694633635289E-2</v>
+        <v>3.5826149840688437E-2</v>
       </c>
       <c r="O15" s="2">
-        <v>0.11037617015295072</v>
+        <v>0.11298717668135487</v>
       </c>
       <c r="P15" s="2">
-        <v>8.2693843654029875E-2</v>
+        <v>8.2340296035264757E-2</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.9607843137297149E-2</v>
+        <v>1.9607843137295827E-2</v>
       </c>
       <c r="R15" s="2">
-        <v>2.6528384440147008E-2</v>
+        <v>2.6528605712791618E-2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>5.2165143665999902E-3</v>
+        <v>5.3062504808824356E-3</v>
       </c>
       <c r="B16" s="2">
-        <v>0.58116457014490119</v>
+        <v>0.61291947765886456</v>
       </c>
       <c r="C16" s="2">
-        <v>9.8639936921224136E-2</v>
+        <v>7.8956042893276665E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>1520028310.508136</v>
+        <v>1519949810.6435816</v>
       </c>
       <c r="E16" s="2">
-        <v>42.233909335383906</v>
+        <v>42.233803493362387</v>
       </c>
       <c r="F16" s="2">
-        <v>67.258477067235617</v>
+        <v>67.258572902964147</v>
       </c>
       <c r="G16" s="2">
-        <v>0.65224422154978035</v>
+        <v>0.6521357459980327</v>
       </c>
       <c r="H16" s="2">
-        <v>2.9445381858027808</v>
+        <v>3.1123639904761689</v>
       </c>
       <c r="I16" s="2">
-        <v>1.2114734400216535E-4</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J16" s="2">
-        <v>1.7466018319122646E-7</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K16" s="2">
-        <v>0.99372489864384794</v>
+        <v>0.99372489452667079</v>
       </c>
       <c r="L16" s="2">
-        <v>0.96467753514876009</v>
+        <v>0.96469026575064731</v>
       </c>
       <c r="M16" s="2">
-        <v>0.91329113989406796</v>
+        <v>0.9127663741997234</v>
       </c>
       <c r="N16" s="2">
-        <v>7.8818464477497449E-2</v>
+        <v>7.8818490334413085E-2</v>
       </c>
       <c r="O16" s="2">
-        <v>0.18700064225217924</v>
+        <v>0.18696694067898509</v>
       </c>
       <c r="P16" s="2">
-        <v>0.29298766442441349</v>
+        <v>0.29387291393096082</v>
       </c>
       <c r="Q16" s="2">
-        <v>2.1276009206649304E-2</v>
+        <v>2.1256107184652727E-2</v>
       </c>
       <c r="R16" s="2">
-        <v>2.7041107086627207E-2</v>
+        <v>2.7340610508093041E-2</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>8.6066060331552955E-3</v>
+        <v>8.3183993151910388E-3</v>
       </c>
       <c r="B17" s="2">
-        <v>0.16008235012557337</v>
+        <v>0.16228696157400924</v>
       </c>
       <c r="C17" s="2">
-        <v>9.9339087276265128E-2</v>
+        <v>9.6384269631279745E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>57131236.229517505</v>
+        <v>57116386.347033344</v>
       </c>
       <c r="E17" s="2">
-        <v>32.736381824141198</v>
+        <v>32.73420902555101</v>
       </c>
       <c r="F17" s="2">
-        <v>55.183442677006219</v>
+        <v>55.193140966553017</v>
       </c>
       <c r="G17" s="2">
-        <v>9.3204360810517093E-8</v>
+        <v>1.0000042766914775E-8</v>
       </c>
       <c r="H17" s="2">
-        <v>4.6292385710475975E-2</v>
+        <v>4.8023719675805085E-2</v>
       </c>
       <c r="I17" s="2">
-        <v>5.5963149063981782E-13</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J17" s="2">
-        <v>9.9042611482077596E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K17" s="2">
-        <v>0.99616058103576866</v>
+        <v>0.996161052117575</v>
       </c>
       <c r="L17" s="2">
-        <v>0.98170981704693761</v>
+        <v>0.98099156214913619</v>
       </c>
       <c r="M17" s="2">
-        <v>0.9951918161648281</v>
+        <v>0.99514615842985477</v>
       </c>
       <c r="N17" s="2">
-        <v>6.1652451488882459E-2</v>
+        <v>6.164866911459483E-2</v>
       </c>
       <c r="O17" s="2">
-        <v>0.13456329783240231</v>
+        <v>0.13718000390856966</v>
       </c>
       <c r="P17" s="2">
-        <v>6.8993492423707725E-2</v>
+        <v>6.9320293958146165E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.9607851016459839E-2</v>
+        <v>1.960784313729767E-2</v>
       </c>
       <c r="R17" s="2">
-        <v>2.6583396901367802E-2</v>
+        <v>2.6573144969216398E-2</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2.3825085307432405E-2</v>
+        <v>2.2227626629960973E-2</v>
       </c>
       <c r="B18" s="2">
-        <v>0.4868769103206117</v>
+        <v>0.4455143893608759</v>
       </c>
       <c r="C18" s="2">
-        <v>9.9999899886540525E-2</v>
+        <v>9.9999928835932686E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>1719077230.4604545</v>
+        <v>1831654156.4629984</v>
       </c>
       <c r="E18" s="2">
-        <v>13.702998564284247</v>
+        <v>13.76238139991213</v>
       </c>
       <c r="F18" s="2">
-        <v>72.555247982805568</v>
+        <v>72.559335178158378</v>
       </c>
       <c r="G18" s="2">
-        <v>0.51501016025399993</v>
+        <v>0.55600349362331136</v>
       </c>
       <c r="H18" s="2">
-        <v>0.31446067020291762</v>
+        <v>0.28033173702274161</v>
       </c>
       <c r="I18" s="2">
-        <v>2.6497694029687907E-5</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J18" s="2">
-        <v>1.8250572295691101E-4</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K18" s="2">
-        <v>0.99526522827522435</v>
+        <v>0.99527508878899518</v>
       </c>
       <c r="L18" s="2">
-        <v>0.96728956190212578</v>
+        <v>0.96683225774264592</v>
       </c>
       <c r="M18" s="2">
-        <v>0.99004082044259878</v>
+        <v>0.99058286386747396</v>
       </c>
       <c r="N18" s="2">
-        <v>6.8464764715347251E-2</v>
+        <v>6.8393436080480721E-2</v>
       </c>
       <c r="O18" s="2">
-        <v>0.17995369881415477</v>
+        <v>0.18120724277682862</v>
       </c>
       <c r="P18" s="2">
-        <v>9.9295456904267068E-2</v>
+        <v>9.6555500988813395E-2</v>
       </c>
       <c r="Q18" s="2">
-        <v>2.1120254939138508E-2</v>
+        <v>2.0775048602772368E-2</v>
       </c>
       <c r="R18" s="2">
-        <v>2.677546499569956E-2</v>
+        <v>2.6843185302714068E-2</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -8781,223 +9655,223 @@
         <v>7.9999999999977797E-2</v>
       </c>
       <c r="B19" s="2">
-        <v>8.9660203498313579E-2</v>
+        <v>8.9660258899521852E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>2.6315789473706417E-2</v>
+        <v>2.6315789473706427E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>50540648.358700573</v>
+        <v>50540598.95140136</v>
       </c>
       <c r="E19" s="2">
-        <v>25.91398305976729</v>
+        <v>25.913986129981062</v>
       </c>
       <c r="F19" s="2">
-        <v>62.398234066853576</v>
+        <v>62.398220587373139</v>
       </c>
       <c r="G19" s="2">
-        <v>0.60832421319523755</v>
+        <v>0.60867035151505011</v>
       </c>
       <c r="H19" s="2">
-        <v>2.7316030758319766E-2</v>
+        <v>2.7326222578025389E-2</v>
       </c>
       <c r="I19" s="2">
-        <v>3.2229931290132734E-14</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J19" s="2">
-        <v>3.220511957324058E-14</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K19" s="2">
-        <v>0.98245588834946462</v>
+        <v>0.98245584466323166</v>
       </c>
       <c r="L19" s="2">
-        <v>0.93131688102757759</v>
+        <v>0.9313169311113072</v>
       </c>
       <c r="M19" s="2">
-        <v>0.93501999229245869</v>
+        <v>0.93502010667144464</v>
       </c>
       <c r="N19" s="2">
-        <v>0.13179025204479272</v>
+        <v>0.13179041612879369</v>
       </c>
       <c r="O19" s="2">
-        <v>0.26076097825920619</v>
+        <v>0.26076088318573759</v>
       </c>
       <c r="P19" s="2">
-        <v>0.25363400330094915</v>
+        <v>0.25363378007526877</v>
       </c>
       <c r="Q19" s="2">
-        <v>2.1222426286284703E-2</v>
+        <v>2.0875574745586396E-2</v>
       </c>
       <c r="R19" s="2">
-        <v>2.6568225637508797E-2</v>
+        <v>2.6558097844496347E-2</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1.0760566128758033E-2</v>
+        <v>1.0575516431258088E-2</v>
       </c>
       <c r="B20" s="2">
-        <v>0.10810136923207164</v>
+        <v>0.11351920357952909</v>
       </c>
       <c r="C20" s="2">
-        <v>9.9999999990512817E-2</v>
+        <v>9.9996154785638877E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>1442195496.1246281</v>
+        <v>1442195150.8003712</v>
       </c>
       <c r="E20" s="2">
-        <v>21.071901191010653</v>
+        <v>21.073200082662254</v>
       </c>
       <c r="F20" s="2">
-        <v>66.224947910183658</v>
+        <v>66.226022643653195</v>
       </c>
       <c r="G20" s="2">
-        <v>0.64179913127875132</v>
+        <v>0.64145927673503045</v>
       </c>
       <c r="H20" s="2">
-        <v>0.1195542193137312</v>
+        <v>0.12935499209510501</v>
       </c>
       <c r="I20" s="2">
-        <v>1.001442476453742E-9</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J20" s="2">
-        <v>9.9992167257435018E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K20" s="2">
-        <v>0.99428979846547727</v>
+        <v>0.99429033921516119</v>
       </c>
       <c r="L20" s="2">
-        <v>0.99141974525984633</v>
+        <v>0.99110919057621594</v>
       </c>
       <c r="M20" s="2">
-        <v>0.99018690753118732</v>
+        <v>0.98947858595712912</v>
       </c>
       <c r="N20" s="2">
-        <v>7.5187096759866429E-2</v>
+        <v>7.5183536608691551E-2</v>
       </c>
       <c r="O20" s="2">
-        <v>9.2165352452817859E-2</v>
+        <v>9.3818448769665122E-2</v>
       </c>
       <c r="P20" s="2">
-        <v>9.8564504483736548E-2</v>
+        <v>0.10205978592198878</v>
       </c>
       <c r="Q20" s="2">
-        <v>2.0784713283118691E-2</v>
+        <v>2.0902529677286813E-2</v>
       </c>
       <c r="R20" s="2">
-        <v>2.6593421852223683E-2</v>
+        <v>2.6623766806585347E-2</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>7.6944322146647853E-3</v>
+        <v>7.5658256135292361E-3</v>
       </c>
       <c r="B21" s="2">
-        <v>0.18642571809378297</v>
+        <v>0.19069628558421536</v>
       </c>
       <c r="C21" s="2">
-        <v>9.9999999999977593E-2</v>
+        <v>9.9999643553698392E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>2066749147.1669409</v>
+        <v>2066751785.564697</v>
       </c>
       <c r="E21" s="2">
-        <v>15.152081001230075</v>
+        <v>15.152701909467437</v>
       </c>
       <c r="F21" s="2">
-        <v>69.229555840732246</v>
+        <v>69.229945500553924</v>
       </c>
       <c r="G21" s="2">
-        <v>0.62044499916990414</v>
+        <v>0.62049862141063672</v>
       </c>
       <c r="H21" s="2">
-        <v>0.1447969226843194</v>
+        <v>0.14987985901719575</v>
       </c>
       <c r="I21" s="2">
-        <v>3.2204898710353411E-14</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J21" s="2">
-        <v>9.9999993926586754E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K21" s="2">
-        <v>0.9894380131515057</v>
+        <v>0.98943808559420809</v>
       </c>
       <c r="L21" s="2">
-        <v>0.98056065158178418</v>
+        <v>0.98032463795454661</v>
       </c>
       <c r="M21" s="2">
-        <v>0.98156151094688882</v>
+        <v>0.98149682656043036</v>
       </c>
       <c r="N21" s="2">
-        <v>0.10225637867639044</v>
+        <v>0.10225602799705244</v>
       </c>
       <c r="O21" s="2">
-        <v>0.13872618690800109</v>
+        <v>0.13956578529495983</v>
       </c>
       <c r="P21" s="2">
-        <v>0.1351077501943542</v>
+        <v>0.13534452964628443</v>
       </c>
       <c r="Q21" s="2">
-        <v>2.0934129971447942E-2</v>
+        <v>2.0785424222386318E-2</v>
       </c>
       <c r="R21" s="2">
-        <v>2.6807441557686947E-2</v>
+        <v>2.6748827653118732E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>6.7424239870017616E-3</v>
+        <v>6.7368678399530695E-3</v>
       </c>
       <c r="B22" s="2">
-        <v>0.22304305297682125</v>
+        <v>0.22275044511979611</v>
       </c>
       <c r="C22" s="2">
-        <v>9.9998601617137084E-2</v>
+        <v>9.9999578942145145E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>1070399379.5138259</v>
+        <v>1070399356.6897655</v>
       </c>
       <c r="E22" s="2">
-        <v>15.623216818777985</v>
+        <v>15.623724171703495</v>
       </c>
       <c r="F22" s="2">
-        <v>75.124014324750945</v>
+        <v>75.123508421097199</v>
       </c>
       <c r="G22" s="2">
-        <v>0.54387845927072231</v>
+        <v>0.54387352989611515</v>
       </c>
       <c r="H22" s="2">
-        <v>0.18267324308497107</v>
+        <v>0.18231571085823212</v>
       </c>
       <c r="I22" s="2">
-        <v>7.888151888538791E-7</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="J22" s="2">
-        <v>4.182288630781361E-7</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K22" s="2">
-        <v>0.99162805449586033</v>
+        <v>0.99162805397818088</v>
       </c>
       <c r="L22" s="2">
-        <v>0.93842985926322897</v>
+        <v>0.93841327370491479</v>
       </c>
       <c r="M22" s="2">
-        <v>0.99211803884111582</v>
+        <v>0.99214611935874997</v>
       </c>
       <c r="N22" s="2">
-        <v>9.1039694908859492E-2</v>
+        <v>9.1039697723580698E-2</v>
       </c>
       <c r="O22" s="2">
-        <v>0.24688952859407243</v>
+        <v>0.24692277949216099</v>
       </c>
       <c r="P22" s="2">
-        <v>8.8335392382076133E-2</v>
+        <v>8.8177898788968478E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>2.0575461872008087E-2</v>
+        <v>2.0587448456778363E-2</v>
       </c>
       <c r="R22" s="2">
-        <v>2.6748083524552567E-2</v>
+        <v>2.6743255506806514E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -9053,7 +9927,7 @@
       </c>
       <c r="V23" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="0"/>
@@ -9074,27 +9948,27 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>2.3173268963984188E-3</v>
+        <v>2.3164158690311869E-3</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>6.5132119631182801E-3</v>
+        <v>6.3841099779699843E-3</v>
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(A$7:A$12,A$17:A$19)</f>
-        <v>2.7535106283079838E-2</v>
+        <v>2.7259684965693379E-2</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>5.0273961825241173E-3</v>
+        <v>4.9438179583043522E-3</v>
       </c>
       <c r="F24" s="2">
         <f>A$20</f>
-        <v>1.0760566128758033E-2</v>
+        <v>1.0575516431258088E-2</v>
       </c>
       <c r="G24" s="2">
         <f>AVERAGE(A$21:A$22)</f>
-        <v>7.218428100833273E-3</v>
+        <v>7.1513467267411528E-3</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" ref="N24:N44" si="2">_xlfn.IFS(ABS(A2-T$5)&lt;=0.01*T$5,"Lower",ABS(A2-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
@@ -9106,7 +9980,7 @@
       </c>
       <c r="P24" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="0"/>
@@ -9122,7 +9996,7 @@
       </c>
       <c r="T24" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="0"/>
@@ -9148,24 +10022,24 @@
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>1.4110540454517E-4</v>
+        <v>1.4394371902156326E-4</v>
       </c>
       <c r="C25" s="2">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>1.1938388220454957E-3</v>
+        <v>1.1454985630101012E-3</v>
       </c>
       <c r="D25" s="2">
         <f>STDEV(A$7:A$12,A$17:A$19)/SQRT(COUNT(A$7:A$12,A$17:A$19))</f>
-        <v>1.0219978638120604E-2</v>
+        <v>1.0252324897493665E-2</v>
       </c>
       <c r="E25" s="2">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>4.2920729768569356E-4</v>
+        <v>4.2710599724978308E-4</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f>STDEV(A$21:A$22)/SQRT(COUNT(A$21:A$22))</f>
-        <v>4.7600411383151179E-4</v>
+        <v>4.1447888678808326E-4</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
@@ -9255,7 +10129,7 @@
       </c>
       <c r="W26" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AD26" t="str">
         <f t="shared" si="1"/>
@@ -9263,7 +10137,7 @@
       </c>
       <c r="AE26" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -9295,7 +10169,7 @@
       </c>
       <c r="P27" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="0"/>
@@ -9340,27 +10214,27 @@
       </c>
       <c r="C28" s="2">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>9.2535545750464687E-2</v>
+        <v>9.1562026481064915E-2</v>
       </c>
       <c r="D28" s="2">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>0.3541415185008206</v>
+        <v>0.35224348703388203</v>
       </c>
       <c r="E28" s="2">
         <f>AVERAGE(B$7:B$12,B$17:B$19)</f>
-        <v>0.75444268232926348</v>
+        <v>0.74774420072208381</v>
       </c>
       <c r="F28" s="2">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>0.16916415025152015</v>
+        <v>0.17801503044574071</v>
       </c>
       <c r="G28" s="2">
         <f>B$20</f>
-        <v>0.10810136923207164</v>
+        <v>0.11351920357952909</v>
       </c>
       <c r="H28" s="2">
         <f>AVERAGE(B$21:B$22)</f>
-        <v>0.2047343855353021</v>
+        <v>0.20672336535200575</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
@@ -9388,7 +10262,7 @@
       </c>
       <c r="T28" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="0"/>
@@ -9400,7 +10274,7 @@
       </c>
       <c r="W28" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AD28" t="str">
         <f t="shared" si="1"/>
@@ -9414,24 +10288,24 @@
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>1.2057455739979463E-2</v>
+        <v>1.0119091447892565E-2</v>
       </c>
       <c r="D29" s="2">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>5.7309495294150879E-2</v>
+        <v>5.4093217675224937E-2</v>
       </c>
       <c r="E29" s="2">
         <f>STDEV(B$7:B$12,B$17:B$19)/SQRT(COUNT(B$7:B$12,B$17:B$19))</f>
-        <v>0.39928208436858398</v>
+        <v>0.39819613118576136</v>
       </c>
       <c r="F29" s="2">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>0.13741088889033834</v>
+        <v>0.14503347676822781</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
         <f>STDEV(B$21:B$22)/SQRT(COUNT(B$21:B$22))</f>
-        <v>1.8308667441519141E-2</v>
+        <v>1.6027079767790373E-2</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
@@ -9467,7 +10341,7 @@
       </c>
       <c r="V29" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="0"/>
@@ -9525,7 +10399,7 @@
       </c>
       <c r="AD30" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AE30" t="str">
         <f t="shared" si="1"/>
@@ -9606,27 +10480,27 @@
       </c>
       <c r="D32" s="2">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>7.384890314233869E-2</v>
+        <v>7.5338792243522842E-2</v>
       </c>
       <c r="E32" s="2">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>5.0263555960985945E-2</v>
+        <v>5.0878096231398669E-2</v>
       </c>
       <c r="F32" s="2">
         <f>AVERAGE(C$7:C$12,C$17:C$19)</f>
-        <v>6.3109847044927683E-2</v>
+        <v>5.9605294490649968E-2</v>
       </c>
       <c r="G32" s="2">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>8.0357873156810505E-2</v>
+        <v>7.5438489871608422E-2</v>
       </c>
       <c r="H32" s="2">
         <f>C$20</f>
-        <v>9.9999999990512817E-2</v>
+        <v>9.9996154785638877E-2</v>
       </c>
       <c r="I32" s="2">
         <f>AVERAGE(C$21:C$22)</f>
-        <v>9.9999300808557345E-2</v>
+        <v>9.9999611247921769E-2</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="2"/>
@@ -9674,30 +10548,30 @@
       </c>
       <c r="AE32" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="33" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>2.3803754511435734E-2</v>
+        <v>2.4510193064883369E-2</v>
       </c>
       <c r="E33" s="2">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>2.3947765296666392E-2</v>
+        <v>2.4560951831086825E-2</v>
       </c>
       <c r="F33" s="2">
         <f>STDEV(C$7:C$12,C$17:C$19)/SQRT(COUNT(C$7:C$12,C$17:C$19))</f>
-        <v>1.0466686942143609E-2</v>
+        <v>1.117040559412727E-2</v>
       </c>
       <c r="G33" s="2">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>1.4625933793160245E-2</v>
+        <v>1.5218377435181186E-2</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2">
         <f>STDEV(C$21:C$22)/SQRT(COUNT(C$21:C$22))</f>
-        <v>6.9919142025448567E-7</v>
+        <v>3.2305776623275939E-8</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
@@ -9855,7 +10729,7 @@
       </c>
       <c r="W35" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AD35" t="str">
         <f t="shared" si="1"/>
@@ -9872,27 +10746,27 @@
       </c>
       <c r="E36" s="2">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>632008997.85957575</v>
+        <v>632012098.83339036</v>
       </c>
       <c r="F36" s="2">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>429383170.13780922</v>
+        <v>429395903.73384517</v>
       </c>
       <c r="G36" s="2">
         <f>AVERAGE(D$7:D$12,D$17:D$19)</f>
-        <v>657231049.83675289</v>
+        <v>669616800.65452504</v>
       </c>
       <c r="H36" s="2">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>1115107642.3110452</v>
+        <v>1112545892.7689834</v>
       </c>
       <c r="I36" s="2">
         <f>D$20</f>
-        <v>1442195496.1246281</v>
+        <v>1442195150.8003712</v>
       </c>
       <c r="J36" s="2">
         <f>AVERAGE(D$21:D$22)</f>
-        <v>1568574263.3403835</v>
+        <v>1568575571.1272311</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
@@ -9928,7 +10802,7 @@
       </c>
       <c r="V36" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="0"/>
@@ -9946,24 +10820,24 @@
     <row r="37" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>304779407.73467177</v>
+        <v>304771761.86323607</v>
       </c>
       <c r="F37" s="2">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>337009161.21699256</v>
+        <v>337005855.24468315</v>
       </c>
       <c r="G37" s="2">
         <f>STDEV(D$7:D$12,D$17:D$19)/SQRT(COUNT(D$7:D$12,D$17:D$19))</f>
-        <v>217752834.47134462</v>
+        <v>225598503.03394902</v>
       </c>
       <c r="H37" s="2">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>556079536.85988617</v>
+        <v>553782355.45647335</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2">
         <f>STDEV(D$21:D$22)/SQRT(COUNT(D$21:D$22))</f>
-        <v>498174883.8265568</v>
+        <v>498176214.43746614</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="2"/>
@@ -10003,7 +10877,7 @@
       </c>
       <c r="W37" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AD37" t="str">
         <f t="shared" si="1"/>
@@ -10093,7 +10967,7 @@
       </c>
       <c r="P39" t="str">
         <f t="shared" ref="P39:P44" si="4">_xlfn.IFS(ABS(C17-V$5)&lt;=0.01*V$5,"Lower",ABS(C17-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" ref="Q39:Q44" si="5">_xlfn.IFS(ABS(D17-W$5)&lt;=0.01*W$5,"Lower",ABS(D17-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
@@ -10109,7 +10983,7 @@
       </c>
       <c r="T39" t="str">
         <f t="shared" ref="T39:T44" si="8">_xlfn.IFS(ABS(G17-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G17-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" ref="U39:U44" si="9">_xlfn.IFS(ABS(H17-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H17-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
@@ -10121,7 +10995,7 @@
       </c>
       <c r="W39" t="str">
         <f t="shared" ref="W39:W44" si="11">_xlfn.IFS(ABS(J17-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J17-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AD39" t="str">
         <f t="shared" si="1"/>
@@ -10138,27 +11012,27 @@
       </c>
       <c r="F40" s="2">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>20.569031590712743</v>
+        <v>20.568721823519486</v>
       </c>
       <c r="G40" s="2">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>22.076323769486507</v>
+        <v>22.075998539826269</v>
       </c>
       <c r="H40" s="2">
         <f>AVERAGE(E$7:E$12,E$17:E$19)</f>
-        <v>27.049486754336399</v>
+        <v>27.055312017837505</v>
       </c>
       <c r="I40" s="2">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>30.414474382495143</v>
+        <v>30.41154013392423</v>
       </c>
       <c r="J40" s="2">
         <f>E$20</f>
-        <v>21.071901191010653</v>
+        <v>21.073200082662254</v>
       </c>
       <c r="K40" s="2">
         <f>AVERAGE(E$21:E$22)</f>
-        <v>15.38764891000403</v>
+        <v>15.388213040585466</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
@@ -10202,34 +11076,34 @@
       </c>
       <c r="AD40" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AE40" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="41" spans="4:31" x14ac:dyDescent="0.25">
       <c r="F41" s="2">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.6353604324085522</v>
+        <v>1.6354276925167162</v>
       </c>
       <c r="G41" s="2">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>5.4277614734308957</v>
+        <v>5.4275970119096479</v>
       </c>
       <c r="H41" s="2">
         <f>STDEV(E$7:E$12,E$17:E$19)/SQRT(COUNT(E$7:E$12,E$17:E$19))</f>
-        <v>3.3683323128668317</v>
+        <v>3.3651259367796573</v>
       </c>
       <c r="I41" s="2">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>5.0446973617418731</v>
+        <v>5.0449814913177899</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
         <f>STDEV(E$21:E$22)/SQRT(COUNT(E$21:E$22))</f>
-        <v>0.23556790877395525</v>
+        <v>0.23551113111802913</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
@@ -10273,7 +11147,7 @@
       </c>
       <c r="AD41" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AE41" t="str">
         <f t="shared" si="1"/>
@@ -10319,7 +11193,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" si="11"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AD42" t="str">
         <f t="shared" si="1"/>
@@ -10387,7 +11261,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" si="11"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AD43" t="str">
         <f t="shared" si="1"/>
@@ -10395,7 +11269,7 @@
       </c>
       <c r="AE43" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
     </row>
     <row r="44" spans="4:31" x14ac:dyDescent="0.25">
@@ -10404,27 +11278,27 @@
       </c>
       <c r="G44" s="2">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>62.929200798475335</v>
+        <v>62.934262420288405</v>
       </c>
       <c r="H44" s="2">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>61.049871234843614</v>
+        <v>61.05613251932985</v>
       </c>
       <c r="I44" s="2">
         <f>AVERAGE(F$7:F$12,F$17:F$19)</f>
-        <v>62.565940988884485</v>
+        <v>62.567355798911727</v>
       </c>
       <c r="J44" s="2">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>61.88435213689619</v>
+        <v>61.905327382395875</v>
       </c>
       <c r="K44" s="2">
         <f>F$20</f>
-        <v>66.224947910183658</v>
+        <v>66.226022643653195</v>
       </c>
       <c r="L44" s="2">
         <f>AVERAGE(F$21:F$22)</f>
-        <v>72.176785082741588</v>
+        <v>72.176726960825562</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
@@ -10478,24 +11352,24 @@
     <row r="45" spans="4:31" x14ac:dyDescent="0.25">
       <c r="G45" s="2">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>3.0934409159415974</v>
+        <v>3.0896746143542604</v>
       </c>
       <c r="H45" s="2">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>4.888968988250177</v>
+        <v>4.8859616724569772</v>
       </c>
       <c r="I45" s="2">
         <f>STDEV(F$7:F$12,F$17:F$19)/SQRT(COUNT(F$7:F$12,F$17:F$19))</f>
-        <v>3.824336547084958</v>
+        <v>3.8235767414533695</v>
       </c>
       <c r="J45" s="2">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>2.8813852312930881</v>
+        <v>2.8838666126905528</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2">
         <f>STDEV(F$21:F$22)/SQRT(COUNT(F$21:F$22))</f>
-        <v>2.9472292420093491</v>
+        <v>2.9467814602716373</v>
       </c>
       <c r="N45" t="s">
         <v>6</v>
@@ -10578,50 +11452,50 @@
       </c>
       <c r="H48" s="2">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>0.43030529517923882</v>
+        <v>0.43027206758401876</v>
       </c>
       <c r="I48" s="2">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>0.19506446675691699</v>
+        <v>0.19506970397075354</v>
       </c>
       <c r="J48" s="2">
         <f>AVERAGE(G$7:G$12,G$17:G$19)</f>
-        <v>0.41603336191621143</v>
+        <v>0.42067939442780816</v>
       </c>
       <c r="K48" s="2">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>0.34656142030851494</v>
+        <v>0.34570940853711268</v>
       </c>
       <c r="L48" s="2">
         <f>G$20</f>
-        <v>0.64179913127875132</v>
+        <v>0.64145927673503045</v>
       </c>
       <c r="M48" s="2">
         <f>AVERAGE(G$21:G$22)</f>
-        <v>0.58216172922031317</v>
+        <v>0.58218607565337588</v>
       </c>
     </row>
     <row r="49" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H49" s="2">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>0.21660481975386786</v>
+        <v>0.21659054729123339</v>
       </c>
       <c r="I49" s="2">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.19506444923262076</v>
+        <v>0.19506969397072565</v>
       </c>
       <c r="J49" s="2">
         <f>STDEV(G$7:G$12,G$17:G$19)/SQRT(COUNT(G$7:G$12,G$17:G$19))</f>
-        <v>0.10216020479600753</v>
+        <v>0.10282395991032552</v>
       </c>
       <c r="K49" s="2">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.20068232101892192</v>
+        <v>0.20016564421620908</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2">
         <f>STDEV(G$21:G$22)/SQRT(COUNT(G$21:G$22))</f>
-        <v>3.8283269949590908E-2</v>
+        <v>3.8312545757260785E-2</v>
       </c>
     </row>
     <row r="51" spans="8:26" x14ac:dyDescent="0.25">
@@ -10650,50 +11524,50 @@
       </c>
       <c r="I52" s="2">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>3.6340015217690251E-2</v>
+        <v>3.8181824203370934E-2</v>
       </c>
       <c r="J52" s="2">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>0.20403788869996353</v>
+        <v>0.20297707272718515</v>
       </c>
       <c r="K52" s="2">
         <f>AVERAGE(H$7:H$12,H$17:H$19)</f>
-        <v>1.6742312906554444</v>
+        <v>1.6671523445758363</v>
       </c>
       <c r="L52" s="2">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>0.7445921275636318</v>
+        <v>0.79229808016207393</v>
       </c>
       <c r="M52" s="2">
         <f>H$20</f>
-        <v>0.1195542193137312</v>
+        <v>0.12935499209510501</v>
       </c>
       <c r="N52" s="2">
         <f>AVERAGE(H$21:H$22)</f>
-        <v>0.16373508288464522</v>
+        <v>0.16609778493771393</v>
       </c>
     </row>
     <row r="53" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I53" s="2">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>1.6672231507992838E-2</v>
+        <v>1.6355880294056404E-2</v>
       </c>
       <c r="J53" s="2">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>4.6989865419873371E-2</v>
+        <v>4.5272571974658983E-2</v>
       </c>
       <c r="K53" s="2">
         <f>STDEV(H$7:H$12,H$17:H$19)/SQRT(COUNT(H$7:H$12,H$17:H$19))</f>
-        <v>1.1308765015832429</v>
+        <v>1.1308271732124933</v>
       </c>
       <c r="L53" s="2">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>0.7333214675380374</v>
+        <v>0.77336745514421368</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2">
         <f>STDEV(H$21:H$22)/SQRT(COUNT(H$21:H$22))</f>
-        <v>1.8938160200325939E-2</v>
+        <v>1.6217925920518184E-2</v>
       </c>
     </row>
     <row r="55" spans="8:26" x14ac:dyDescent="0.25">
@@ -10722,50 +11596,50 @@
       </c>
       <c r="J56" s="2">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>3.3334323368655015E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="K56" s="2">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>3.547600000994643E-4</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="L56" s="2">
         <f>AVERAGE(I$7:I$12,I$17:I$19)</f>
-        <v>2.3075847901287152E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="M56" s="2">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>2.5302835043647456E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="N56" s="2">
         <f>I$20</f>
-        <v>1.001442476453742E-9</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="O56" s="2">
         <f>AVERAGE(I$21:I$22)</f>
-        <v>3.9440761052938893E-7</v>
+        <v>5.0000000000050004E-3</v>
       </c>
     </row>
     <row r="57" spans="8:26" x14ac:dyDescent="0.25">
       <c r="J57" s="2">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>3.3332838326588514E-3</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>3.5468109480131071E-4</v>
+        <v>0</v>
       </c>
       <c r="L57" s="2">
         <f>STDEV(I$7:I$12,I$17:I$19)/SQRT(COUNT(I$7:I$12,I$17:I$19))</f>
-        <v>1.1718468534149583E-3</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>2.4900647751280795E-3</v>
+        <v>0</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2">
         <f>STDEV(I$21:I$22)/SQRT(COUNT(I$21:I$22))</f>
-        <v>3.9440757832449011E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="8:26" x14ac:dyDescent="0.25">
@@ -10794,50 +11668,50 @@
       </c>
       <c r="K60" s="2">
         <f>AVERAGE(J$1:J$3)</f>
-        <v>3.2650559954686166E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="L60" s="2">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>6.7002828792823597E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="M60" s="2">
         <f>AVERAGE(J$7:J$12,J$17:J$19)</f>
-        <v>2.3435920833815606E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="N60" s="2">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>5.0000426325554747E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="O60" s="2">
         <f>J$20</f>
-        <v>9.9992167257435018E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
       <c r="P60" s="2">
         <f>AVERAGE(J$21:J$22)</f>
-        <v>5.0002088107608767E-3</v>
+        <v>5.0000000000050004E-3</v>
       </c>
     </row>
     <row r="61" spans="8:26" x14ac:dyDescent="0.25">
       <c r="K61" s="2">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
-        <v>3.2650525106723968E-3</v>
+        <v>0</v>
       </c>
       <c r="L61" s="2">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>3.299717120689041E-3</v>
+        <v>0</v>
       </c>
       <c r="M61" s="2">
         <f>STDEV(J$7:J$12,J$17:J$19)/SQRT(COUNT(J$7:J$12,J$17:J$19))</f>
-        <v>1.4092513298116012E-3</v>
+        <v>0</v>
       </c>
       <c r="N61" s="2">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>2.8867255386663773E-3</v>
+        <v>0</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2">
         <f>STDEV(J$21:J$22)/SQRT(COUNT(J$21:J$22))</f>
-        <v>4.9997905818977978E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="8:26" x14ac:dyDescent="0.25">
@@ -10866,27 +11740,27 @@
       </c>
       <c r="L64" s="3">
         <f>AVERAGE(K$1:K$3)</f>
-        <v>0.9932352089703107</v>
+        <v>0.99323518767684849</v>
       </c>
       <c r="M64" s="3">
         <f>AVERAGE(K$4:K$6)</f>
-        <v>0.99460154687993896</v>
+        <v>0.99460152470338004</v>
       </c>
       <c r="N64" s="3">
         <f>AVERAGE(K$7:K$12,K$17:K$19)</f>
-        <v>0.98980700276706002</v>
+        <v>0.9898081646470942</v>
       </c>
       <c r="O64" s="3">
         <f>AVERAGE(K$13:K$16)</f>
-        <v>0.99704870081823149</v>
+        <v>0.99704846735571739</v>
       </c>
       <c r="P64" s="3">
         <f>K$20</f>
-        <v>0.99428979846547727</v>
+        <v>0.99429033921516119</v>
       </c>
       <c r="Q64" s="3">
         <f>AVERAGE(K$21:K$22)</f>
-        <v>0.99053303382368307</v>
+        <v>0.99053306978619449</v>
       </c>
       <c r="U64" t="str">
         <f>_xlfn.CONCAT(ROUND(L64,2), " ± ", L65)</f>
@@ -10957,27 +11831,27 @@
       </c>
       <c r="M68" s="3">
         <f>AVERAGE(L$1:L$3)</f>
-        <v>0.98300514614760737</v>
+        <v>0.98263029317179151</v>
       </c>
       <c r="N68">
         <f>AVERAGE(L$4:L$6)</f>
-        <v>0.96470484724003958</v>
+        <v>0.96424374674301827</v>
       </c>
       <c r="O68">
         <f>AVERAGE(L$7:L$12,L$17:L$19)</f>
-        <v>0.96747248940537267</v>
+        <v>0.96715093632453075</v>
       </c>
       <c r="P68">
         <f>AVERAGE(L$13:L$16)</f>
-        <v>0.98513044742139777</v>
+        <v>0.98477732736147738</v>
       </c>
       <c r="Q68">
         <f>L$20</f>
-        <v>0.99141974525984633</v>
+        <v>0.99110919057621594</v>
       </c>
       <c r="R68">
         <f>AVERAGE(L$21:L$22)</f>
-        <v>0.95949525542250658</v>
+        <v>0.9593689558297307</v>
       </c>
       <c r="V68" t="str">
         <f>_xlfn.CONCAT(ROUND(M68,2), " ± ", M69)</f>
@@ -10993,7 +11867,7 @@
       </c>
       <c r="Y68" t="str">
         <f t="shared" ref="Y68" si="15">_xlfn.CONCAT(ROUND(P68,2), " ± ", P69)</f>
-        <v>0.99 ± 6.99E-03</v>
+        <v>0.98 ± 6.99E-03</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" ref="Z68" si="16">_xlfn.CONCAT(ROUND(Q68,2), " ± ", Q69)</f>
@@ -11048,27 +11922,27 @@
       </c>
       <c r="N72">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.98559997593529081</v>
+        <v>0.98530636450758013</v>
       </c>
       <c r="O72">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.9693800503323432</v>
+        <v>0.96919058691022419</v>
       </c>
       <c r="P72">
         <f>AVERAGE(M$7:M$12,M$17:M$19)</f>
-        <v>0.98251601658270615</v>
+        <v>0.98255846735418551</v>
       </c>
       <c r="Q72">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.97197594133035303</v>
+        <v>0.97161338595597191</v>
       </c>
       <c r="R72">
         <f>M$20</f>
-        <v>0.99018690753118732</v>
+        <v>0.98947858595712912</v>
       </c>
       <c r="S72">
         <f>AVERAGE(M$21:M$22)</f>
-        <v>0.98683977489400232</v>
+        <v>0.98682147295959011</v>
       </c>
       <c r="W72" t="str">
         <f>_xlfn.CONCAT(ROUND(N72,2), " ± ", N73)</f>
@@ -11139,27 +12013,27 @@
       </c>
       <c r="O76">
         <f>AVERAGE(N$1:N$3)</f>
-        <v>8.0362041918497926E-2</v>
+        <v>8.0362220674373541E-2</v>
       </c>
       <c r="P76">
         <f>AVERAGE(N$4:N$6)</f>
-        <v>7.2878411067648224E-2</v>
+        <v>7.2878491447742999E-2</v>
       </c>
       <c r="Q76">
         <f>AVERAGE(N$7:N$12,N$17:N$19)</f>
-        <v>9.0554912863946804E-2</v>
+        <v>9.0546510734779762E-2</v>
       </c>
       <c r="R76">
         <f>AVERAGE(N$13:N$16)</f>
-        <v>5.1207290162989402E-2</v>
+        <v>5.1210346785538013E-2</v>
       </c>
       <c r="S76">
         <f>N$20</f>
-        <v>7.5187096759866429E-2</v>
+        <v>7.5183536608691551E-2</v>
       </c>
       <c r="T76">
         <f>AVERAGE(N$21:N$22)</f>
-        <v>9.6648036792624958E-2</v>
+        <v>9.6647862860316569E-2</v>
       </c>
       <c r="X76" t="str">
         <f>_xlfn.CONCAT(ROUND(O76,2), " ± ", O77)</f>
@@ -11230,27 +12104,27 @@
       </c>
       <c r="P80">
         <f>AVERAGE(O$1:O$3)</f>
-        <v>0.12957358367758393</v>
+        <v>0.13101615036119504</v>
       </c>
       <c r="Q80">
         <f>AVERAGE(O$4:O$6)</f>
-        <v>0.17825620245069648</v>
+        <v>0.17944891413819461</v>
       </c>
       <c r="R80">
         <f>AVERAGE(O$7:O$12,O$17:O$19)</f>
-        <v>0.16358160762849916</v>
+        <v>0.16477034356947898</v>
       </c>
       <c r="S80">
         <f>AVERAGE(O$13:O$16)</f>
-        <v>0.11256860779181954</v>
+        <v>0.11456741663886996</v>
       </c>
       <c r="T80">
         <f>O$20</f>
-        <v>9.2165352452817859E-2</v>
+        <v>9.3818448769665122E-2</v>
       </c>
       <c r="U80">
         <f>AVERAGE(O$21:O$22)</f>
-        <v>0.19280785775103676</v>
+        <v>0.1932442823935604</v>
       </c>
       <c r="Y80" t="str">
         <f>_xlfn.CONCAT(ROUND(P80,2), " ± ", P81)</f>
@@ -11321,27 +12195,27 @@
       </c>
       <c r="Q84">
         <f>AVERAGE(P$1:P$3)</f>
-        <v>0.11022569489394717</v>
+        <v>0.11142200419504411</v>
       </c>
       <c r="R84">
         <f>AVERAGE(P$4:P$6)</f>
-        <v>0.16197315664774298</v>
+        <v>0.16245718660048794</v>
       </c>
       <c r="S84">
         <f>AVERAGE(P$7:P$12,P$17:P$19)</f>
-        <v>0.11909202014710722</v>
+        <v>0.11893605064820632</v>
       </c>
       <c r="T84">
         <f>AVERAGE(P$13:P$16)</f>
-        <v>0.14164597265955758</v>
+        <v>0.14289996483129169</v>
       </c>
       <c r="U84">
         <f>P$20</f>
-        <v>9.8564504483736548E-2</v>
+        <v>0.10205978592198878</v>
       </c>
       <c r="V84">
         <f>AVERAGE(P$21:P$22)</f>
-        <v>0.11172157128821517</v>
+        <v>0.11176121421762646</v>
       </c>
       <c r="Z84" t="str">
         <f>_xlfn.CONCAT(ROUND(Q84,2), " ± ", Q85)</f>
@@ -11412,50 +12286,50 @@
       </c>
       <c r="R88" s="2">
         <f>AVERAGE(Q$1:Q$3)</f>
-        <v>2.0365681512952261E-2</v>
+        <v>2.037862058825092E-2</v>
       </c>
       <c r="S88" s="2">
         <f>AVERAGE(Q$4:Q$6)</f>
-        <v>1.9902792231451975E-2</v>
+        <v>1.9912909647962457E-2</v>
       </c>
       <c r="T88" s="2">
         <f>AVERAGE(Q$7:Q$12,Q$17:Q$19)</f>
-        <v>2.0561912508965351E-2</v>
+        <v>2.0515103427541762E-2</v>
       </c>
       <c r="U88" s="2">
         <f>AVERAGE(Q$13:Q$16)</f>
-        <v>2.0431830067845134E-2</v>
+        <v>2.0409427432635803E-2</v>
       </c>
       <c r="V88" s="2">
         <f>Q$20</f>
-        <v>2.0784713283118691E-2</v>
+        <v>2.0902529677286813E-2</v>
       </c>
       <c r="W88" s="2">
         <f>AVERAGE(Q$21:Q$22)</f>
-        <v>2.0754795921728013E-2</v>
+        <v>2.068643633958234E-2</v>
       </c>
     </row>
     <row r="89" spans="16:31" x14ac:dyDescent="0.25">
       <c r="R89" s="2">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
-        <v>3.8194997275177109E-4</v>
+        <v>3.8905919800278743E-4</v>
       </c>
       <c r="S89" s="2">
         <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
-        <v>2.9494907968756836E-4</v>
+        <v>3.0506651067963139E-4</v>
       </c>
       <c r="T89" s="2">
         <f>STDEV(Q$7:Q$12,Q$17:Q$19)/SQRT(COUNT(Q$7:Q$12,Q$17:Q$19))</f>
-        <v>2.310682053692697E-4</v>
+        <v>2.1590559082891949E-4</v>
       </c>
       <c r="U89" s="2">
         <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
-        <v>4.7544596282562859E-4</v>
+        <v>4.6278990617203001E-4</v>
       </c>
       <c r="V89" s="2"/>
       <c r="W89" s="2">
         <f>STDEV(Q$21:Q$22)/SQRT(COUNT(Q$21:Q$22))</f>
-        <v>1.7933404971992757E-4</v>
+        <v>9.8987882803977523E-5</v>
       </c>
     </row>
     <row r="91" spans="16:31" x14ac:dyDescent="0.25">
@@ -11484,76 +12358,76 @@
       </c>
       <c r="S92" s="2">
         <f>AVERAGE(R$1:R$3)</f>
-        <v>2.6578997644427605E-2</v>
+        <v>2.6626665084659509E-2</v>
       </c>
       <c r="T92" s="2">
         <f>AVERAGE(R$4:R$6)</f>
-        <v>2.6835872828472173E-2</v>
+        <v>2.678220265577928E-2</v>
       </c>
       <c r="U92" s="2">
         <f>AVERAGE(R$7:R$12,R$17:R$19)</f>
-        <v>2.6886662268571313E-2</v>
+        <v>2.6913361518582011E-2</v>
       </c>
       <c r="V92" s="2">
         <f>AVERAGE(R$13:R$16)</f>
-        <v>2.6657237171290454E-2</v>
+        <v>2.6763462286901768E-2</v>
       </c>
       <c r="W92" s="2">
         <f>R$20</f>
-        <v>2.6593421852223683E-2</v>
+        <v>2.6623766806585347E-2</v>
       </c>
       <c r="X92" s="2">
         <f>AVERAGE(R$21:R$22)</f>
-        <v>2.6777762541119757E-2</v>
+        <v>2.6746041579962625E-2</v>
       </c>
     </row>
     <row r="93" spans="16:31" x14ac:dyDescent="0.25">
       <c r="S93" s="2">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
-        <v>2.1625069528551808E-5</v>
+        <v>6.790444705159948E-5</v>
       </c>
       <c r="T93" s="2">
         <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
-        <v>4.8710360305349656E-5</v>
+        <v>7.4724977136014664E-5</v>
       </c>
       <c r="U93" s="2">
         <f>STDEV(R$7:R$12,R$17:R$19)/SQRT(COUNT(R$7:R$12,R$17:R$19))</f>
-        <v>1.614486351023254E-4</v>
+        <v>1.6268316449898223E-4</v>
       </c>
       <c r="V93" s="2">
         <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
-        <v>1.279616788292203E-4</v>
+        <v>1.9335632166111503E-4</v>
       </c>
       <c r="W93" s="2"/>
       <c r="X93" s="2">
         <f>STDEV(R$21:R$22)/SQRT(COUNT(R$21:R$22))</f>
-        <v>2.9679016567189798E-5</v>
+        <v>2.7860731561090558E-6</v>
       </c>
     </row>
     <row r="99" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S99" s="3">
         <f>1/S92</f>
-        <v>37.623691208297089</v>
+        <v>37.556336733139467</v>
       </c>
       <c r="T99" s="3">
         <f t="shared" ref="T99:X99" si="38">1/T92</f>
-        <v>37.263554138586677</v>
+        <v>37.338228406848827</v>
       </c>
       <c r="U99" s="3">
         <f t="shared" si="38"/>
-        <v>37.193162543233647</v>
+        <v>37.1562652740187</v>
       </c>
       <c r="V99" s="3">
         <f t="shared" si="38"/>
-        <v>37.513264918428561</v>
+        <v>37.364373461105117</v>
       </c>
       <c r="W99" s="3">
         <f t="shared" si="38"/>
-        <v>37.603284209037668</v>
+        <v>37.560425136861234</v>
       </c>
       <c r="X99" s="3">
         <f t="shared" si="38"/>
-        <v>37.344419589366609</v>
+        <v>37.388710288597309</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37428456-F6B8-42BE-A894-A47490364A9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DDD94-C812-4891-8094-118019DEB6B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,16 +831,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.4394371902156326E-4</c:v>
+                    <c:v>1.4110540454517E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1454985630101012E-3</c:v>
+                    <c:v>1.1938388220454957E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0252324897493665E-2</c:v>
+                    <c:v>1.0219978638120604E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2710599724978308E-4</c:v>
+                    <c:v>4.2920729768569356E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -852,16 +852,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.4394371902156326E-4</c:v>
+                    <c:v>1.4110540454517E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1454985630101012E-3</c:v>
+                    <c:v>1.1938388220454957E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0252324897493665E-2</c:v>
+                    <c:v>1.0219978638120604E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2710599724978308E-4</c:v>
+                    <c:v>4.2920729768569356E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -907,16 +907,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3164158690311869E-3</c:v>
+                  <c:v>2.3173268963984188E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3841099779699843E-3</c:v>
+                  <c:v>6.5132119631182801E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7259684965693379E-2</c:v>
+                  <c:v>2.7535106283079838E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9438179583043522E-3</c:v>
+                  <c:v>5.0273961825241173E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,16 +1185,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.0119091447892565E-2</c:v>
+                    <c:v>1.2057455739979463E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.4093217675224937E-2</c:v>
+                    <c:v>5.7309495294150879E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39819613118576136</c:v>
+                    <c:v>0.39928208436858398</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.14503347676822781</c:v>
+                    <c:v>0.13741088889033834</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1206,16 +1206,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.0119091447892565E-2</c:v>
+                    <c:v>1.2057455739979463E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.4093217675224937E-2</c:v>
+                    <c:v>5.7309495294150879E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39819613118576136</c:v>
+                    <c:v>0.39928208436858398</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.14503347676822781</c:v>
+                    <c:v>0.13741088889033834</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1261,16 +1261,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.1562026481064915E-2</c:v>
+                  <c:v>9.2535545750464687E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35224348703388203</c:v>
+                  <c:v>0.3541415185008206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74774420072208381</c:v>
+                  <c:v>0.75444268232926348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17801503044574071</c:v>
+                  <c:v>0.16916415025152015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,19 +1539,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.4510193064883369E-2</c:v>
+                    <c:v>2.3803754511435734E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.4560951831086825E-2</c:v>
+                    <c:v>2.3947765296666392E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.117040559412727E-2</c:v>
+                    <c:v>1.0466686942143609E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.5218377435181186E-2</c:v>
+                    <c:v>1.4625933793160245E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.2305776623275939E-8</c:v>
+                    <c:v>6.9919142025448567E-7</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1563,19 +1563,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.4510193064883369E-2</c:v>
+                    <c:v>2.3803754511435734E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.4560951831086825E-2</c:v>
+                    <c:v>2.3947765296666392E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.117040559412727E-2</c:v>
+                    <c:v>1.0466686942143609E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.5218377435181186E-2</c:v>
+                    <c:v>1.4625933793160245E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.2305776623275939E-8</c:v>
+                    <c:v>6.9919142025448567E-7</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1627,22 +1627,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.5338792243522842E-2</c:v>
+                  <c:v>7.384890314233869E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0878096231398669E-2</c:v>
+                  <c:v>5.0263555960985945E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9605294490649968E-2</c:v>
+                  <c:v>6.3109847044927683E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5438489871608422E-2</c:v>
+                  <c:v>8.0357873156810505E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9996154785638877E-2</c:v>
+                  <c:v>9.9999999990512817E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999611247921769E-2</c:v>
+                  <c:v>9.9999300808557345E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,19 +1911,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>3.8905919800278743E-4</c:v>
+                    <c:v>3.8194997275177109E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0506651067963139E-4</c:v>
+                    <c:v>2.9494907968756836E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1590559082891949E-4</c:v>
+                    <c:v>2.310682053692697E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.6278990617203001E-4</c:v>
+                    <c:v>4.7544596282562859E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.8987882803977523E-5</c:v>
+                    <c:v>1.7933404971992757E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1935,19 +1935,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>3.8905919800278743E-4</c:v>
+                    <c:v>3.8194997275177109E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0506651067963139E-4</c:v>
+                    <c:v>2.9494907968756836E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1590559082891949E-4</c:v>
+                    <c:v>2.310682053692697E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.6278990617203001E-4</c:v>
+                    <c:v>4.7544596282562859E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.8987882803977523E-5</c:v>
+                    <c:v>1.7933404971992757E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1999,22 +1999,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.037862058825092E-2</c:v>
+                  <c:v>2.0365681512952261E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9912909647962457E-2</c:v>
+                  <c:v>1.9902792231451975E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0515103427541762E-2</c:v>
+                  <c:v>2.0561912508965351E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0409427432635803E-2</c:v>
+                  <c:v>2.0431830067845134E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0902529677286813E-2</c:v>
+                  <c:v>2.0784713283118691E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.068643633958234E-2</c:v>
+                  <c:v>2.0754795921728013E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,19 +2283,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>6.790444705159948E-5</c:v>
+                    <c:v>2.1625069528551808E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4724977136014664E-5</c:v>
+                    <c:v>4.8710360305349656E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.6268316449898223E-4</c:v>
+                    <c:v>1.614486351023254E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9335632166111503E-4</c:v>
+                    <c:v>1.279616788292203E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.7860731561090558E-6</c:v>
+                    <c:v>2.9679016567189798E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2307,19 +2307,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>6.790444705159948E-5</c:v>
+                    <c:v>2.1625069528551808E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4724977136014664E-5</c:v>
+                    <c:v>4.8710360305349656E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.6268316449898223E-4</c:v>
+                    <c:v>1.614486351023254E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9335632166111503E-4</c:v>
+                    <c:v>1.279616788292203E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.7860731561090558E-6</c:v>
+                    <c:v>2.9679016567189798E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2371,22 +2371,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.6626665084659509E-2</c:v>
+                  <c:v>2.6578997644427605E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.678220265577928E-2</c:v>
+                  <c:v>2.6835872828472173E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6913361518582011E-2</c:v>
+                  <c:v>2.6886662268571313E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6763462286901768E-2</c:v>
+                  <c:v>2.6657237171290454E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6623766806585347E-2</c:v>
+                  <c:v>2.6593421852223683E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6746041579962625E-2</c:v>
+                  <c:v>2.6777762541119757E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,19 +2655,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.4394371902156326E-4</c:v>
+                    <c:v>1.4110540454517E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1454985630101012E-3</c:v>
+                    <c:v>1.1938388220454957E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0252324897493665E-2</c:v>
+                    <c:v>1.0219978638120604E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2710599724978308E-4</c:v>
+                    <c:v>4.2920729768569356E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.1447888678808326E-4</c:v>
+                    <c:v>4.7600411383151179E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2679,19 +2679,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.4394371902156326E-4</c:v>
+                    <c:v>1.4110540454517E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1454985630101012E-3</c:v>
+                    <c:v>1.1938388220454957E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0252324897493665E-2</c:v>
+                    <c:v>1.0219978638120604E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2710599724978308E-4</c:v>
+                    <c:v>4.2920729768569356E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.1447888678808326E-4</c:v>
+                    <c:v>4.7600411383151179E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2743,22 +2743,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.3164158690311869E-3</c:v>
+                  <c:v>2.3173268963984188E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3841099779699843E-3</c:v>
+                  <c:v>6.5132119631182801E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7259684965693379E-2</c:v>
+                  <c:v>2.7535106283079838E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9438179583043522E-3</c:v>
+                  <c:v>5.0273961825241173E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0575516431258088E-2</c:v>
+                  <c:v>1.0760566128758033E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1513467267411528E-3</c:v>
+                  <c:v>7.218428100833273E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,19 +3027,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.0119091447892565E-2</c:v>
+                    <c:v>1.2057455739979463E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.4093217675224937E-2</c:v>
+                    <c:v>5.7309495294150879E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39819613118576136</c:v>
+                    <c:v>0.39928208436858398</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.14503347676822781</c:v>
+                    <c:v>0.13741088889033834</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.6027079767790373E-2</c:v>
+                    <c:v>1.8308667441519141E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3051,19 +3051,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.0119091447892565E-2</c:v>
+                    <c:v>1.2057455739979463E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.4093217675224937E-2</c:v>
+                    <c:v>5.7309495294150879E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39819613118576136</c:v>
+                    <c:v>0.39928208436858398</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.14503347676822781</c:v>
+                    <c:v>0.13741088889033834</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.6027079767790373E-2</c:v>
+                    <c:v>1.8308667441519141E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3115,22 +3115,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.1562026481064915E-2</c:v>
+                  <c:v>9.2535545750464687E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35224348703388203</c:v>
+                  <c:v>0.3541415185008206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74774420072208381</c:v>
+                  <c:v>0.75444268232926348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17801503044574071</c:v>
+                  <c:v>0.16916415025152015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11351920357952909</c:v>
+                  <c:v>0.10810136923207164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20672336535200575</c:v>
+                  <c:v>0.2047343855353021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3258,301 +3258,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="464000488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$I$51:$N$51</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>HK-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>UMRC6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>UOK262</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>UOK + DIDS</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>siRNA_c</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>siRNA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$52:$N$52</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.8181824203370934E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20297707272718515</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6671523445758363</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79229808016207393</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12935499209510501</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16609778493771393</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E020-4B75-A36C-FAD94D1D1009}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="586836440"/>
-        <c:axId val="586839720"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="586836440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="586839720"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="586839720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="586836440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3888,46 +3593,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6947,509 +6612,6 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8201,42 +7363,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>394447</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>143436</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043A2BEE-3832-43AC-8DB4-516492F6A41F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8545,8 +7671,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:N52"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8558,282 +7684,282 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>2.0557108197518685E-3</v>
+        <v>2.0440913622746353E-3</v>
       </c>
       <c r="B1" s="2">
-        <v>9.9115865834907793E-2</v>
+        <v>0.10465567845805716</v>
       </c>
       <c r="C1" s="2">
-        <v>2.6318593651669588E-2</v>
+        <v>2.6315789473742499E-2</v>
       </c>
       <c r="D1" s="2">
-        <v>818926475.2901206</v>
+        <v>818926518.32173777</v>
       </c>
       <c r="E1" s="2">
-        <v>23.825886019786932</v>
+        <v>23.82609736019262</v>
       </c>
       <c r="F1" s="2">
-        <v>61.845609767826666</v>
+        <v>61.845367692256538</v>
       </c>
       <c r="G1" s="2">
-        <v>0.68881158557416244</v>
+        <v>0.68884824364616704</v>
       </c>
       <c r="H1" s="2">
-        <v>7.047740592792108E-2</v>
+        <v>6.8689081548227338E-2</v>
       </c>
       <c r="I1" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.9999999999777905E-3</v>
       </c>
       <c r="J1" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>3.2257708635855453E-14</v>
       </c>
       <c r="K1" s="2">
-        <v>0.99150334142583507</v>
+        <v>0.99150334140232921</v>
       </c>
       <c r="L1" s="2">
-        <v>0.98386808311956486</v>
+        <v>0.98468620622725533</v>
       </c>
       <c r="M1" s="2">
-        <v>0.9684973582343599</v>
+        <v>0.96903400881054969</v>
       </c>
       <c r="N1" s="2">
-        <v>9.171527674506165E-2</v>
+        <v>9.1715276871926474E-2</v>
       </c>
       <c r="O1" s="2">
-        <v>0.12637483021405344</v>
+        <v>0.12312861501299061</v>
       </c>
       <c r="P1" s="2">
-        <v>0.17660015670430126</v>
+        <v>0.17508949505197574</v>
       </c>
       <c r="Q1" s="2">
-        <v>2.0856355236519776E-2</v>
+        <v>2.0833159094342264E-2</v>
       </c>
       <c r="R1" s="2">
-        <v>2.6761929438158409E-2</v>
+        <v>2.6617079497839362E-2</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2.3410137687248072E-3</v>
+        <v>2.3927976051121252E-3</v>
       </c>
       <c r="B2" s="2">
-        <v>0.10404526265993677</v>
+        <v>0.10453021573169838</v>
       </c>
       <c r="C2" s="2">
-        <v>9.9731461794397874E-2</v>
+        <v>9.5311438438472257E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>36106164.569166452</v>
+        <v>36088455.454467326</v>
       </c>
       <c r="E2" s="2">
-        <v>18.681233832701423</v>
+        <v>18.681938922510028</v>
       </c>
       <c r="F2" s="2">
-        <v>58.210819368549934</v>
+        <v>58.195976647332117</v>
       </c>
       <c r="G2" s="2">
-        <v>1.0000022204460493E-8</v>
+        <v>2.9227470395530482E-6</v>
       </c>
       <c r="H2" s="2">
-        <v>2.6538587856825991E-2</v>
+        <v>2.7168577155675049E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>5.4853470340308853E-14</v>
       </c>
       <c r="J2" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.7951610168121699E-3</v>
       </c>
       <c r="K2" s="2">
-        <v>0.99654307584778179</v>
+        <v>0.99654313831679786</v>
       </c>
       <c r="L2" s="2">
-        <v>0.98053574802914201</v>
+        <v>0.98089961043097618</v>
       </c>
       <c r="M2" s="2">
-        <v>0.99425352788773635</v>
+        <v>0.99419710437208608</v>
       </c>
       <c r="N2" s="2">
-        <v>5.8500896665744137E-2</v>
+        <v>5.8500368087475212E-2</v>
       </c>
       <c r="O2" s="2">
-        <v>0.13881501882415118</v>
+        <v>0.13751140197573994</v>
       </c>
       <c r="P2" s="2">
-        <v>7.5425508888843515E-2</v>
+        <v>7.5794898717755591E-2</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.9607843137277106E-2</v>
+        <v>1.9608725866423513E-2</v>
       </c>
       <c r="R2" s="2">
-        <v>2.6569554684972144E-2</v>
+        <v>2.6577712286619641E-2</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.5525230186168851E-3</v>
+        <v>2.5150917218084955E-3</v>
       </c>
       <c r="B3" s="2">
-        <v>7.1524950948350138E-2</v>
+        <v>6.8420743061638548E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>9.9966321284501045E-2</v>
+        <v>9.9919481514801317E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>1041003656.6408843</v>
+        <v>1041012019.8025222</v>
       </c>
       <c r="E3" s="2">
-        <v>19.199045618070105</v>
+        <v>19.19905848943559</v>
       </c>
       <c r="F3" s="2">
-        <v>68.746358124488609</v>
+        <v>68.746258055837359</v>
       </c>
       <c r="G3" s="2">
-        <v>0.60200460717787152</v>
+        <v>0.60206471914450987</v>
       </c>
       <c r="H3" s="2">
-        <v>1.7529478825365742E-2</v>
+        <v>1.3162386949168365E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>2.9701056386062662E-7</v>
       </c>
       <c r="J3" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>6.9695614230316312E-9</v>
       </c>
       <c r="K3" s="2">
-        <v>0.99165914575692848</v>
+        <v>0.99165914719180515</v>
       </c>
       <c r="L3" s="2">
-        <v>0.98348704836666767</v>
+        <v>0.98342962178459059</v>
       </c>
       <c r="M3" s="2">
-        <v>0.99316820740064393</v>
+        <v>0.99356881462323687</v>
       </c>
       <c r="N3" s="2">
-        <v>9.0870488612314851E-2</v>
+        <v>9.0870480796092098E-2</v>
       </c>
       <c r="O3" s="2">
-        <v>0.12785860204538047</v>
+        <v>0.12808073404402126</v>
       </c>
       <c r="P3" s="2">
-        <v>8.2240346991987581E-2</v>
+        <v>7.9792690912110151E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>2.0671663390955875E-2</v>
+        <v>2.0655159578091005E-2</v>
       </c>
       <c r="R3" s="2">
-        <v>2.6548511130847979E-2</v>
+        <v>2.6542201148823823E-2</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>5.2573198946346388E-3</v>
+        <v>5.3762528274266495E-3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.2859338949845297</v>
+        <v>0.28353888576952746</v>
       </c>
       <c r="C4" s="2">
-        <v>2.6318492905989185E-2</v>
+        <v>2.6315791785633313E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>86629034.117601648</v>
+        <v>86596842.841015711</v>
       </c>
       <c r="E4" s="2">
-        <v>30.913402420885536</v>
+        <v>30.913689726992203</v>
       </c>
       <c r="F4" s="2">
-        <v>58.043429814323368</v>
+        <v>58.032491918073021</v>
       </c>
       <c r="G4" s="2">
-        <v>1.0000033601550099E-8</v>
+        <v>1.0000054897723946E-8</v>
       </c>
       <c r="H4" s="2">
-        <v>0.19701764756584852</v>
+        <v>0.19489217419388372</v>
       </c>
       <c r="I4" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>1.5781641433140845E-7</v>
       </c>
       <c r="J4" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.9999999999661453E-3</v>
       </c>
       <c r="K4" s="2">
-        <v>0.99355644913506469</v>
+        <v>0.99355664494107587</v>
       </c>
       <c r="L4" s="2">
-        <v>0.93529759124292899</v>
+        <v>0.93629390894292164</v>
       </c>
       <c r="M4" s="2">
-        <v>0.9363863404679561</v>
+        <v>0.93686960382096918</v>
       </c>
       <c r="N4" s="2">
-        <v>7.9869364316275268E-2</v>
+        <v>7.9868150775730701E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>0.25309165270609046</v>
+        <v>0.25113548165583355</v>
       </c>
       <c r="P4" s="2">
-        <v>0.25095322858398028</v>
+        <v>0.24999818442788838</v>
       </c>
       <c r="Q4" s="2">
-        <v>1.9607843137288503E-2</v>
+        <v>1.9607843137278452E-2</v>
       </c>
       <c r="R4" s="2">
-        <v>2.6749809655083442E-2</v>
+        <v>2.6896859532853503E-2</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>5.2200042368165719E-3</v>
+        <v>5.2633828822758588E-3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.45942873015341307</v>
+        <v>0.46763865279280215</v>
       </c>
       <c r="C5" s="2">
-        <v>9.9999999868893116E-2</v>
+        <v>9.8159086554318709E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>1103374597.4011326</v>
+        <v>1103368290.1447656</v>
       </c>
       <c r="E5" s="2">
-        <v>12.198208080747904</v>
+        <v>12.198015708622073</v>
       </c>
       <c r="F5" s="2">
-        <v>70.612985794234618</v>
+        <v>70.613225370925008</v>
       </c>
       <c r="G5" s="2">
-        <v>0.58520909191220483</v>
+        <v>0.58519336522215837</v>
       </c>
       <c r="H5" s="2">
-        <v>0.28420115416857</v>
+        <v>0.28961327237140227</v>
       </c>
       <c r="I5" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>1.0641221838503477E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>1.0084863790427543E-4</v>
       </c>
       <c r="K5" s="2">
-        <v>0.99461539023777035</v>
+        <v>0.99461538917933912</v>
       </c>
       <c r="L5" s="2">
-        <v>0.97094393467439111</v>
+        <v>0.97097659833260552</v>
       </c>
       <c r="M5" s="2">
-        <v>0.98152731522893832</v>
+        <v>0.98146415872607196</v>
       </c>
       <c r="N5" s="2">
-        <v>7.3012078895258084E-2</v>
+        <v>7.3012086071104015E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>0.16960396419999402</v>
+        <v>0.16950860642079654</v>
       </c>
       <c r="P5" s="2">
-        <v>0.13523297646414142</v>
+        <v>0.1354639541028857</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.0523042669321721E-2</v>
+        <v>2.0492690390827111E-2</v>
       </c>
       <c r="R5" s="2">
-        <v>2.6924749806119089E-2</v>
+        <v>2.6871171299631819E-2</v>
       </c>
       <c r="T5">
         <f>0.0001</f>
@@ -8883,58 +8009,58 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>8.6750058024587431E-3</v>
+        <v>8.9000001796523294E-3</v>
       </c>
       <c r="B6" s="2">
-        <v>0.31136783596370343</v>
+        <v>0.31124701694013229</v>
       </c>
       <c r="C6" s="2">
-        <v>2.6315795919313722E-2</v>
+        <v>2.631578954300581E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>98184079.682801247</v>
+        <v>98184377.42764622</v>
       </c>
       <c r="E6" s="2">
-        <v>23.116385117845365</v>
+        <v>23.117265872845241</v>
       </c>
       <c r="F6" s="2">
-        <v>54.511981949431565</v>
+        <v>54.503896415532829</v>
       </c>
       <c r="G6" s="2">
-        <v>1.0000022247938887E-8</v>
+        <v>2.5048537685972825E-8</v>
       </c>
       <c r="H6" s="2">
-        <v>0.12771241644713691</v>
+        <v>0.12760821953460458</v>
       </c>
       <c r="I6" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>3.3713746761796656E-14</v>
       </c>
       <c r="J6" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.999999999976656E-3</v>
       </c>
       <c r="K6" s="2">
-        <v>0.99563273473730507</v>
+        <v>0.995632606519402</v>
       </c>
       <c r="L6" s="2">
-        <v>0.98648971431173471</v>
+        <v>0.98684403444459123</v>
       </c>
       <c r="M6" s="2">
-        <v>0.98965810503377805</v>
+        <v>0.98980638844998814</v>
       </c>
       <c r="N6" s="2">
-        <v>6.5754031131695631E-2</v>
+        <v>6.5754996356109957E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>0.11565112550849928</v>
+        <v>0.11412451927545925</v>
       </c>
       <c r="P6" s="2">
-        <v>0.10118535475334206</v>
+        <v>0.1004573314124549</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.9607843137277151E-2</v>
+        <v>1.9607843166250361E-2</v>
       </c>
       <c r="R6" s="2">
-        <v>2.6672048506135308E-2</v>
+        <v>2.673958765293119E-2</v>
       </c>
       <c r="T6">
         <v>0.08</v>
@@ -8980,674 +8106,674 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>7.5914217578140148E-3</v>
+        <v>7.8104063053251026E-3</v>
       </c>
       <c r="B7" s="2">
-        <v>5.927771422376648E-2</v>
+        <v>5.8711767021941051E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>2.6751329841161617E-2</v>
+        <v>3.543964728375152E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>869265109.56504738</v>
+        <v>869498093.87442935</v>
       </c>
       <c r="E7" s="2">
-        <v>39.084775814154654</v>
+        <v>39.085223327586924</v>
       </c>
       <c r="F7" s="2">
-        <v>54.55953109716026</v>
+        <v>54.559074477882291</v>
       </c>
       <c r="G7" s="2">
-        <v>0.80286497743261798</v>
+        <v>0.80289228249175082</v>
       </c>
       <c r="H7" s="2">
-        <v>5.9185138442204535E-2</v>
+        <v>4.7854248498612514E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.9999986481246975E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>2.4603233390046519E-10</v>
       </c>
       <c r="K7" s="2">
-        <v>0.99705611110648651</v>
+        <v>0.99705613162044915</v>
       </c>
       <c r="L7" s="2">
-        <v>0.99608504897129768</v>
+        <v>0.99612595656099368</v>
       </c>
       <c r="M7" s="2">
-        <v>0.99607006071385595</v>
+        <v>0.9962224675360567</v>
       </c>
       <c r="N7" s="2">
-        <v>5.3985646282863058E-2</v>
+        <v>5.3985458187879524E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>6.2255935607902234E-2</v>
+        <v>6.1929823224487417E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>6.2374994134529668E-2</v>
+        <v>6.1153553774935428E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>2.1232063794185255E-2</v>
+        <v>2.1219783761821043E-2</v>
       </c>
       <c r="R7" s="2">
-        <v>2.6553018643162851E-2</v>
+        <v>2.6547519541939579E-2</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1.0292223770819856E-2</v>
+        <v>1.0293977888170207E-2</v>
       </c>
       <c r="B8" s="2">
-        <v>6.2536956357797657E-2</v>
+        <v>6.2547230470345092E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>9.9999470913624322E-2</v>
+        <v>9.9999997394403309E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>1105943154.5792081</v>
+        <v>1105943837.1576962</v>
       </c>
       <c r="E8" s="2">
-        <v>34.224739942760991</v>
+        <v>34.224737105350428</v>
       </c>
       <c r="F8" s="2">
-        <v>62.585366069851858</v>
+        <v>62.585373087947318</v>
       </c>
       <c r="G8" s="2">
-        <v>0.66656970850361874</v>
+        <v>0.66678525636758301</v>
       </c>
       <c r="H8" s="2">
-        <v>7.9010518088754811E-2</v>
+        <v>7.9059354392826436E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>5.0899272976990542E-7</v>
       </c>
       <c r="J8" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>2.0085230956227377E-8</v>
       </c>
       <c r="K8" s="2">
-        <v>0.9974871711289971</v>
+        <v>0.99748717120289465</v>
       </c>
       <c r="L8" s="2">
-        <v>0.99501433922147275</v>
+        <v>0.99501466113717596</v>
       </c>
       <c r="M8" s="2">
-        <v>0.99238741847950507</v>
+        <v>0.99238547744077443</v>
       </c>
       <c r="N8" s="2">
-        <v>4.9879348203746052E-2</v>
+        <v>4.9879347470318032E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>7.0258791624407971E-2</v>
+        <v>7.0256523341985691E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>8.6817103304778445E-2</v>
+        <v>8.6828170813152195E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>2.0827320197030003E-2</v>
+        <v>2.0609537938434234E-2</v>
       </c>
       <c r="R8" s="2">
-        <v>2.6734421910361135E-2</v>
+        <v>2.6714034551213846E-2</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2.5438395272100494E-2</v>
+        <v>2.5521490650557456E-2</v>
       </c>
       <c r="B9" s="2">
-        <v>3.4276101219153241</v>
+        <v>3.417715349211504</v>
       </c>
       <c r="C9" s="2">
-        <v>4.0395763664708331E-2</v>
+        <v>5.2458562678055182E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>488710735.85129702</v>
+        <v>489736763.11978352</v>
       </c>
       <c r="E9" s="2">
-        <v>29.4323485220031</v>
+        <v>29.439042175107609</v>
       </c>
       <c r="F9" s="2">
-        <v>66.759922800315707</v>
+        <v>66.768414906688562</v>
       </c>
       <c r="G9" s="2">
-        <v>5.7356304864502765E-2</v>
+        <v>5.7674886716178216E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>9.993133311341456</v>
+        <v>9.9656548726176819</v>
       </c>
       <c r="I9" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>4.6822527483963297E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.6097395522457985E-3</v>
       </c>
       <c r="K9" s="2">
-        <v>0.99576792369621603</v>
+        <v>0.99576792146742721</v>
       </c>
       <c r="L9" s="2">
-        <v>0.938327355439035</v>
+        <v>0.93833622632773017</v>
       </c>
       <c r="M9" s="2">
-        <v>0.97354796686243017</v>
+        <v>0.97355014251882899</v>
       </c>
       <c r="N9" s="2">
-        <v>6.4728321009787509E-2</v>
+        <v>6.4728338054109727E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>0.2470949576890539</v>
+        <v>0.24707718618995786</v>
       </c>
       <c r="P9" s="2">
-        <v>0.16182556289472361</v>
+        <v>0.1618189077529549</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.9857743757391303E-2</v>
+        <v>1.9839079069671032E-2</v>
       </c>
       <c r="R9" s="2">
-        <v>2.7489220908451125E-2</v>
+        <v>2.7391887592862471E-2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2.8744849719548491E-3</v>
+        <v>3.146457105211109E-3</v>
       </c>
       <c r="B10" s="2">
-        <v>0.32143880300750538</v>
+        <v>0.30767357664672129</v>
       </c>
       <c r="C10" s="2">
-        <v>2.6714907621898286E-2</v>
+        <v>7.9583445150516172E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>61788946.500900015</v>
+        <v>61731100.736689009</v>
       </c>
       <c r="E10" s="2">
-        <v>37.504357344146641</v>
+        <v>37.500782638502137</v>
       </c>
       <c r="F10" s="2">
-        <v>39.890323955715708</v>
+        <v>39.883935665374395</v>
       </c>
       <c r="G10" s="2">
-        <v>2.9917140721475569E-2</v>
+        <v>2.9511046557444614E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>0.29137609880857473</v>
+        <v>0.27047908843108182</v>
       </c>
       <c r="I10" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>4.8746249878534728E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>1.395798534112733E-3</v>
       </c>
       <c r="K10" s="2">
-        <v>0.99451207342539116</v>
+        <v>0.99451203358238027</v>
       </c>
       <c r="L10" s="2">
-        <v>0.98275643506478261</v>
+        <v>0.98442477385521798</v>
       </c>
       <c r="M10" s="2">
-        <v>0.99120152697749986</v>
+        <v>0.99115715378663338</v>
       </c>
       <c r="N10" s="2">
-        <v>7.3709207761735743E-2</v>
+        <v>7.3709475330133459E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>0.13065653173823807</v>
+        <v>0.12417517418282223</v>
       </c>
       <c r="P10" s="2">
-        <v>9.3329996744214799E-2</v>
+        <v>9.356504556314281E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.9665017824744974E-2</v>
+        <v>1.9711737929038364E-2</v>
       </c>
       <c r="R10" s="2">
-        <v>2.6792616772375315E-2</v>
+        <v>2.6756523344968534E-2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8.5968463448288825E-3</v>
+        <v>8.6133116110997613E-3</v>
       </c>
       <c r="B11" s="2">
-        <v>7.5564336395165743E-2</v>
+        <v>7.5490511028491469E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>4.0847045394112963E-2</v>
+        <v>4.1286898867914264E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>110488423.18341053</v>
+        <v>110376839.87821494</v>
       </c>
       <c r="E11" s="2">
-        <v>18.841009981111771</v>
+        <v>18.842232094206679</v>
       </c>
       <c r="F11" s="2">
-        <v>71.952728345955066</v>
+        <v>71.952100802675602</v>
       </c>
       <c r="G11" s="2">
-        <v>0.61733761249913699</v>
+        <v>0.61663893787010804</v>
       </c>
       <c r="H11" s="2">
-        <v>9.8352057278380256E-2</v>
+        <v>9.8010561447073249E-2</v>
       </c>
       <c r="I11" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>1.3985244766235262E-4</v>
       </c>
       <c r="J11" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>3.4615726410125156E-9</v>
       </c>
       <c r="K11" s="2">
-        <v>0.98377987501298503</v>
+        <v>0.98377972734109542</v>
       </c>
       <c r="L11" s="2">
-        <v>0.98268451190627826</v>
+        <v>0.98268498828409034</v>
       </c>
       <c r="M11" s="2">
-        <v>0.98190575803062075</v>
+        <v>0.98190495840619718</v>
       </c>
       <c r="N11" s="2">
-        <v>0.12671986323045345</v>
+        <v>0.12672044007308195</v>
       </c>
       <c r="O11" s="2">
-        <v>0.13092873333529403</v>
+        <v>0.13092693228954302</v>
       </c>
       <c r="P11" s="2">
-        <v>0.13384057512460656</v>
+        <v>0.13384353244690153</v>
       </c>
       <c r="Q11" s="2">
-        <v>2.126960492623493E-2</v>
+        <v>2.1265776496996937E-2</v>
       </c>
       <c r="R11" s="2">
-        <v>2.6709984779518327E-2</v>
+        <v>2.6659677306561914E-2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>7.9997766628592509E-2</v>
+        <v>7.9998621646789378E-2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.0858082647647862</v>
+        <v>2.1312262426398703</v>
       </c>
       <c r="C12" s="2">
-        <v>7.9039145039425426E-2</v>
+        <v>3.3565295393196776E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>1451043694.4494283</v>
+        <v>1451043698.7152901</v>
       </c>
       <c r="E12" s="2">
-        <v>12.000000000916236</v>
+        <v>12.000000000081066</v>
       </c>
       <c r="F12" s="2">
-        <v>77.207633189122404</v>
+        <v>77.207645232726918</v>
       </c>
       <c r="G12" s="2">
-        <v>0.44739495069051716</v>
+        <v>0.44746338058923973</v>
       </c>
       <c r="H12" s="2">
-        <v>4.1276322979465823</v>
+        <v>4.2189544038400131</v>
       </c>
       <c r="I12" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>1.0445275917702612E-3</v>
       </c>
       <c r="J12" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>4.2707190817022586E-14</v>
       </c>
       <c r="K12" s="2">
-        <v>0.96577834188396927</v>
+        <v>0.96577834202883539</v>
       </c>
       <c r="L12" s="2">
-        <v>0.93034998531482005</v>
+        <v>0.93034953850650604</v>
       </c>
       <c r="M12" s="2">
-        <v>0.9871643461549835</v>
+        <v>0.9871713206559789</v>
       </c>
       <c r="N12" s="2">
-        <v>0.1840636888005627</v>
+        <v>0.1840636884109762</v>
       </c>
       <c r="O12" s="2">
-        <v>0.2625900122592788</v>
+        <v>0.26259085452193304</v>
       </c>
       <c r="P12" s="2">
-        <v>0.11272664860877547</v>
+        <v>0.11269601834395418</v>
       </c>
       <c r="Q12" s="2">
-        <v>2.0525713862632945E-2</v>
+        <v>2.0460765142843514E-2</v>
       </c>
       <c r="R12" s="2">
-        <v>2.7966562536942543E-2</v>
+        <v>2.798323054501933E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>5.1519304202631965E-3</v>
+        <v>5.3785052731830461E-3</v>
       </c>
       <c r="B13" s="2">
-        <v>2.8855251976566281E-2</v>
+        <v>2.6738923838399504E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>9.9999947211530743E-2</v>
+        <v>9.9999999999977537E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>216401436.90357524</v>
+        <v>216470048.14877984</v>
       </c>
       <c r="E13" s="2">
-        <v>28.426368858582276</v>
+        <v>28.433727230396499</v>
       </c>
       <c r="F13" s="2">
-        <v>54.929167693269896</v>
+        <v>54.906064887553164</v>
       </c>
       <c r="G13" s="2">
-        <v>2.4016579977139205E-4</v>
+        <v>3.2756574456477034E-4</v>
       </c>
       <c r="H13" s="2">
-        <v>2.7256318248896662E-2</v>
+        <v>1.9699840230101226E-2</v>
       </c>
       <c r="I13" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>3.2218515143462973E-14</v>
       </c>
       <c r="J13" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.9999999999769631E-3</v>
       </c>
       <c r="K13" s="2">
-        <v>0.99860148353106892</v>
+        <v>0.99860127036337543</v>
       </c>
       <c r="L13" s="2">
-        <v>0.99424611287246834</v>
+        <v>0.99478661481358055</v>
       </c>
       <c r="M13" s="2">
-        <v>0.98838609410607781</v>
+        <v>0.98959205188990085</v>
       </c>
       <c r="N13" s="2">
-        <v>3.7209290563537098E-2</v>
+        <v>3.7212126252853521E-2</v>
       </c>
       <c r="O13" s="2">
-        <v>7.5474156214272448E-2</v>
+        <v>7.184184946502474E-2</v>
       </c>
       <c r="P13" s="2">
-        <v>0.10722764025652617</v>
+        <v>0.1015079732286986</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.9609167295389317E-2</v>
+        <v>1.9609087170804188E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>2.6622320963507355E-2</v>
+        <v>2.6532400155956409E-2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>3.696359030175931E-3</v>
+        <v>3.7811522215408897E-3</v>
       </c>
       <c r="B14" s="2">
-        <v>2.5118050812207509E-2</v>
+        <v>2.3975951449874546E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>3.1655629434963514E-2</v>
+        <v>3.7648713267753244E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>2495250970.1058059</v>
+        <v>2505929597.0853271</v>
       </c>
       <c r="E14" s="2">
-        <v>33.02064487764649</v>
+        <v>33.023920788383059</v>
       </c>
       <c r="F14" s="2">
-        <v>59.464149160759526</v>
+        <v>59.464307434542782</v>
       </c>
       <c r="G14" s="2">
-        <v>0.73046171235060575</v>
+        <v>0.73367388393967248</v>
       </c>
       <c r="H14" s="2">
-        <v>2.2592137752089961E-2</v>
+        <v>7.8385779505851828E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.9999866391353946E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>4.7372018157425733E-12</v>
       </c>
       <c r="K14" s="2">
-        <v>0.99716396915544014</v>
+        <v>0.99716413840400764</v>
       </c>
       <c r="L14" s="2">
-        <v>0.99306798344342373</v>
+        <v>0.99336359824611264</v>
       </c>
       <c r="M14" s="2">
-        <v>0.99214948395361646</v>
+        <v>0.99192791876802611</v>
       </c>
       <c r="N14" s="2">
-        <v>5.298745640351344E-2</v>
+        <v>5.2985875287971357E-2</v>
       </c>
       <c r="O14" s="2">
-        <v>8.2841392980867429E-2</v>
+        <v>8.1055769297123478E-2</v>
       </c>
       <c r="P14" s="2">
-        <v>8.8159009102415059E-2</v>
+        <v>8.9394409331088304E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>2.1164592113205351E-2</v>
+        <v>2.1234380756629898E-2</v>
       </c>
       <c r="R14" s="2">
-        <v>2.6562311963215065E-2</v>
+        <v>2.652705700243119E-2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>5.6207319018958448E-3</v>
+        <v>5.733412868772542E-3</v>
       </c>
       <c r="B15" s="2">
-        <v>4.5167341335324525E-2</v>
+        <v>4.4777155572905403E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>9.1142339946662779E-2</v>
+        <v>8.5142842438287111E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>218581353.42297032</v>
+        <v>218002613.50193721</v>
       </c>
       <c r="E15" s="2">
-        <v>17.965343306105765</v>
+        <v>17.966340175817113</v>
       </c>
       <c r="F15" s="2">
-        <v>65.96941977258993</v>
+        <v>65.908559158253198</v>
       </c>
       <c r="G15" s="2">
-        <v>1.0000040928157862E-8</v>
+        <v>1.0000042249550875E-8</v>
       </c>
       <c r="H15" s="2">
-        <v>6.979874171140172E-3</v>
+        <v>6.2919062710599565E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>3.4289203051887389E-11</v>
       </c>
       <c r="J15" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.9999958653245423E-3</v>
       </c>
       <c r="K15" s="2">
-        <v>0.99870352220968939</v>
+        <v>0.99870449586169496</v>
       </c>
       <c r="L15" s="2">
-        <v>0.98710494737937005</v>
+        <v>0.98769404147713824</v>
       </c>
       <c r="M15" s="2">
-        <v>0.99315159156446964</v>
+        <v>0.99309265476941699</v>
       </c>
       <c r="N15" s="2">
-        <v>3.5826149840688437E-2</v>
+        <v>3.5812694633635289E-2</v>
       </c>
       <c r="O15" s="2">
-        <v>0.11298717668135487</v>
+        <v>0.11037617015295072</v>
       </c>
       <c r="P15" s="2">
-        <v>8.2340296035264757E-2</v>
+        <v>8.2693843654029875E-2</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.9607843137295827E-2</v>
+        <v>1.9607843137297149E-2</v>
       </c>
       <c r="R15" s="2">
-        <v>2.6528605712791618E-2</v>
+        <v>2.6528384440147008E-2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>5.3062504808824356E-3</v>
+        <v>5.2165143665999902E-3</v>
       </c>
       <c r="B16" s="2">
-        <v>0.61291947765886456</v>
+        <v>0.58116457014490119</v>
       </c>
       <c r="C16" s="2">
-        <v>7.8956042893276665E-2</v>
+        <v>9.8639936921224136E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>1519949810.6435816</v>
+        <v>1520028310.508136</v>
       </c>
       <c r="E16" s="2">
-        <v>42.233803493362387</v>
+        <v>42.233909335383906</v>
       </c>
       <c r="F16" s="2">
-        <v>67.258572902964147</v>
+        <v>67.258477067235617</v>
       </c>
       <c r="G16" s="2">
-        <v>0.6521357459980327</v>
+        <v>0.65224422154978035</v>
       </c>
       <c r="H16" s="2">
-        <v>3.1123639904761689</v>
+        <v>2.9445381858027808</v>
       </c>
       <c r="I16" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>1.2114734400216535E-4</v>
       </c>
       <c r="J16" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>1.7466018319122646E-7</v>
       </c>
       <c r="K16" s="2">
-        <v>0.99372489452667079</v>
+        <v>0.99372489864384794</v>
       </c>
       <c r="L16" s="2">
-        <v>0.96469026575064731</v>
+        <v>0.96467753514876009</v>
       </c>
       <c r="M16" s="2">
-        <v>0.9127663741997234</v>
+        <v>0.91329113989406796</v>
       </c>
       <c r="N16" s="2">
-        <v>7.8818490334413085E-2</v>
+        <v>7.8818464477497449E-2</v>
       </c>
       <c r="O16" s="2">
-        <v>0.18696694067898509</v>
+        <v>0.18700064225217924</v>
       </c>
       <c r="P16" s="2">
-        <v>0.29387291393096082</v>
+        <v>0.29298766442441349</v>
       </c>
       <c r="Q16" s="2">
-        <v>2.1256107184652727E-2</v>
+        <v>2.1276009206649304E-2</v>
       </c>
       <c r="R16" s="2">
-        <v>2.7340610508093041E-2</v>
+        <v>2.7041107086627207E-2</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>8.3183993151910388E-3</v>
+        <v>8.6066060331552955E-3</v>
       </c>
       <c r="B17" s="2">
-        <v>0.16228696157400924</v>
+        <v>0.16008235012557337</v>
       </c>
       <c r="C17" s="2">
-        <v>9.6384269631279745E-2</v>
+        <v>9.9339087276265128E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>57116386.347033344</v>
+        <v>57131236.229517505</v>
       </c>
       <c r="E17" s="2">
-        <v>32.73420902555101</v>
+        <v>32.736381824141198</v>
       </c>
       <c r="F17" s="2">
-        <v>55.193140966553017</v>
+        <v>55.183442677006219</v>
       </c>
       <c r="G17" s="2">
-        <v>1.0000042766914775E-8</v>
+        <v>9.3204360810517093E-8</v>
       </c>
       <c r="H17" s="2">
-        <v>4.8023719675805085E-2</v>
+        <v>4.6292385710475975E-2</v>
       </c>
       <c r="I17" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>5.5963149063981782E-13</v>
       </c>
       <c r="J17" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.9042611482077596E-3</v>
       </c>
       <c r="K17" s="2">
-        <v>0.996161052117575</v>
+        <v>0.99616058103576866</v>
       </c>
       <c r="L17" s="2">
-        <v>0.98099156214913619</v>
+        <v>0.98170981704693761</v>
       </c>
       <c r="M17" s="2">
-        <v>0.99514615842985477</v>
+        <v>0.9951918161648281</v>
       </c>
       <c r="N17" s="2">
-        <v>6.164866911459483E-2</v>
+        <v>6.1652451488882459E-2</v>
       </c>
       <c r="O17" s="2">
-        <v>0.13718000390856966</v>
+        <v>0.13456329783240231</v>
       </c>
       <c r="P17" s="2">
-        <v>6.9320293958146165E-2</v>
+        <v>6.8993492423707725E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.960784313729767E-2</v>
+        <v>1.9607851016459839E-2</v>
       </c>
       <c r="R17" s="2">
-        <v>2.6573144969216398E-2</v>
+        <v>2.6583396901367802E-2</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2.2227626629960973E-2</v>
+        <v>2.3825085307432405E-2</v>
       </c>
       <c r="B18" s="2">
-        <v>0.4455143893608759</v>
+        <v>0.4868769103206117</v>
       </c>
       <c r="C18" s="2">
-        <v>9.9999928835932686E-2</v>
+        <v>9.9999899886540525E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>1831654156.4629984</v>
+        <v>1719077230.4604545</v>
       </c>
       <c r="E18" s="2">
-        <v>13.76238139991213</v>
+        <v>13.702998564284247</v>
       </c>
       <c r="F18" s="2">
-        <v>72.559335178158378</v>
+        <v>72.555247982805568</v>
       </c>
       <c r="G18" s="2">
-        <v>0.55600349362331136</v>
+        <v>0.51501016025399993</v>
       </c>
       <c r="H18" s="2">
-        <v>0.28033173702274161</v>
+        <v>0.31446067020291762</v>
       </c>
       <c r="I18" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>2.6497694029687907E-5</v>
       </c>
       <c r="J18" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>1.8250572295691101E-4</v>
       </c>
       <c r="K18" s="2">
-        <v>0.99527508878899518</v>
+        <v>0.99526522827522435</v>
       </c>
       <c r="L18" s="2">
-        <v>0.96683225774264592</v>
+        <v>0.96728956190212578</v>
       </c>
       <c r="M18" s="2">
-        <v>0.99058286386747396</v>
+        <v>0.99004082044259878</v>
       </c>
       <c r="N18" s="2">
-        <v>6.8393436080480721E-2</v>
+        <v>6.8464764715347251E-2</v>
       </c>
       <c r="O18" s="2">
-        <v>0.18120724277682862</v>
+        <v>0.17995369881415477</v>
       </c>
       <c r="P18" s="2">
-        <v>9.6555500988813395E-2</v>
+        <v>9.9295456904267068E-2</v>
       </c>
       <c r="Q18" s="2">
-        <v>2.0775048602772368E-2</v>
+        <v>2.1120254939138508E-2</v>
       </c>
       <c r="R18" s="2">
-        <v>2.6843185302714068E-2</v>
+        <v>2.677546499569956E-2</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -9655,223 +8781,223 @@
         <v>7.9999999999977797E-2</v>
       </c>
       <c r="B19" s="2">
-        <v>8.9660258899521852E-2</v>
+        <v>8.9660203498313579E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>2.6315789473706427E-2</v>
+        <v>2.6315789473706417E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>50540598.95140136</v>
+        <v>50540648.358700573</v>
       </c>
       <c r="E19" s="2">
-        <v>25.913986129981062</v>
+        <v>25.91398305976729</v>
       </c>
       <c r="F19" s="2">
-        <v>62.398220587373139</v>
+        <v>62.398234066853576</v>
       </c>
       <c r="G19" s="2">
-        <v>0.60867035151505011</v>
+        <v>0.60832421319523755</v>
       </c>
       <c r="H19" s="2">
-        <v>2.7326222578025389E-2</v>
+        <v>2.7316030758319766E-2</v>
       </c>
       <c r="I19" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>3.2229931290132734E-14</v>
       </c>
       <c r="J19" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>3.220511957324058E-14</v>
       </c>
       <c r="K19" s="2">
-        <v>0.98245584466323166</v>
+        <v>0.98245588834946462</v>
       </c>
       <c r="L19" s="2">
-        <v>0.9313169311113072</v>
+        <v>0.93131688102757759</v>
       </c>
       <c r="M19" s="2">
-        <v>0.93502010667144464</v>
+        <v>0.93501999229245869</v>
       </c>
       <c r="N19" s="2">
-        <v>0.13179041612879369</v>
+        <v>0.13179025204479272</v>
       </c>
       <c r="O19" s="2">
-        <v>0.26076088318573759</v>
+        <v>0.26076097825920619</v>
       </c>
       <c r="P19" s="2">
-        <v>0.25363378007526877</v>
+        <v>0.25363400330094915</v>
       </c>
       <c r="Q19" s="2">
-        <v>2.0875574745586396E-2</v>
+        <v>2.1222426286284703E-2</v>
       </c>
       <c r="R19" s="2">
-        <v>2.6558097844496347E-2</v>
+        <v>2.6568225637508797E-2</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1.0575516431258088E-2</v>
+        <v>1.0760566128758033E-2</v>
       </c>
       <c r="B20" s="2">
-        <v>0.11351920357952909</v>
+        <v>0.10810136923207164</v>
       </c>
       <c r="C20" s="2">
-        <v>9.9996154785638877E-2</v>
+        <v>9.9999999990512817E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>1442195150.8003712</v>
+        <v>1442195496.1246281</v>
       </c>
       <c r="E20" s="2">
-        <v>21.073200082662254</v>
+        <v>21.071901191010653</v>
       </c>
       <c r="F20" s="2">
-        <v>66.226022643653195</v>
+        <v>66.224947910183658</v>
       </c>
       <c r="G20" s="2">
-        <v>0.64145927673503045</v>
+        <v>0.64179913127875132</v>
       </c>
       <c r="H20" s="2">
-        <v>0.12935499209510501</v>
+        <v>0.1195542193137312</v>
       </c>
       <c r="I20" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>1.001442476453742E-9</v>
       </c>
       <c r="J20" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.9992167257435018E-3</v>
       </c>
       <c r="K20" s="2">
-        <v>0.99429033921516119</v>
+        <v>0.99428979846547727</v>
       </c>
       <c r="L20" s="2">
-        <v>0.99110919057621594</v>
+        <v>0.99141974525984633</v>
       </c>
       <c r="M20" s="2">
-        <v>0.98947858595712912</v>
+        <v>0.99018690753118732</v>
       </c>
       <c r="N20" s="2">
-        <v>7.5183536608691551E-2</v>
+        <v>7.5187096759866429E-2</v>
       </c>
       <c r="O20" s="2">
-        <v>9.3818448769665122E-2</v>
+        <v>9.2165352452817859E-2</v>
       </c>
       <c r="P20" s="2">
-        <v>0.10205978592198878</v>
+        <v>9.8564504483736548E-2</v>
       </c>
       <c r="Q20" s="2">
-        <v>2.0902529677286813E-2</v>
+        <v>2.0784713283118691E-2</v>
       </c>
       <c r="R20" s="2">
-        <v>2.6623766806585347E-2</v>
+        <v>2.6593421852223683E-2</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>7.5658256135292361E-3</v>
+        <v>7.6944322146647853E-3</v>
       </c>
       <c r="B21" s="2">
-        <v>0.19069628558421536</v>
+        <v>0.18642571809378297</v>
       </c>
       <c r="C21" s="2">
-        <v>9.9999643553698392E-2</v>
+        <v>9.9999999999977593E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>2066751785.564697</v>
+        <v>2066749147.1669409</v>
       </c>
       <c r="E21" s="2">
-        <v>15.152701909467437</v>
+        <v>15.152081001230075</v>
       </c>
       <c r="F21" s="2">
-        <v>69.229945500553924</v>
+        <v>69.229555840732246</v>
       </c>
       <c r="G21" s="2">
-        <v>0.62049862141063672</v>
+        <v>0.62044499916990414</v>
       </c>
       <c r="H21" s="2">
-        <v>0.14987985901719575</v>
+        <v>0.1447969226843194</v>
       </c>
       <c r="I21" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>3.2204898710353411E-14</v>
       </c>
       <c r="J21" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>9.9999993926586754E-3</v>
       </c>
       <c r="K21" s="2">
-        <v>0.98943808559420809</v>
+        <v>0.9894380131515057</v>
       </c>
       <c r="L21" s="2">
-        <v>0.98032463795454661</v>
+        <v>0.98056065158178418</v>
       </c>
       <c r="M21" s="2">
-        <v>0.98149682656043036</v>
+        <v>0.98156151094688882</v>
       </c>
       <c r="N21" s="2">
-        <v>0.10225602799705244</v>
+        <v>0.10225637867639044</v>
       </c>
       <c r="O21" s="2">
-        <v>0.13956578529495983</v>
+        <v>0.13872618690800109</v>
       </c>
       <c r="P21" s="2">
-        <v>0.13534452964628443</v>
+        <v>0.1351077501943542</v>
       </c>
       <c r="Q21" s="2">
-        <v>2.0785424222386318E-2</v>
+        <v>2.0934129971447942E-2</v>
       </c>
       <c r="R21" s="2">
-        <v>2.6748827653118732E-2</v>
+        <v>2.6807441557686947E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>6.7368678399530695E-3</v>
+        <v>6.7424239870017616E-3</v>
       </c>
       <c r="B22" s="2">
-        <v>0.22275044511979611</v>
+        <v>0.22304305297682125</v>
       </c>
       <c r="C22" s="2">
-        <v>9.9999578942145145E-2</v>
+        <v>9.9998601617137084E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>1070399356.6897655</v>
+        <v>1070399379.5138259</v>
       </c>
       <c r="E22" s="2">
-        <v>15.623724171703495</v>
+        <v>15.623216818777985</v>
       </c>
       <c r="F22" s="2">
-        <v>75.123508421097199</v>
+        <v>75.124014324750945</v>
       </c>
       <c r="G22" s="2">
-        <v>0.54387352989611515</v>
+        <v>0.54387845927072231</v>
       </c>
       <c r="H22" s="2">
-        <v>0.18231571085823212</v>
+        <v>0.18267324308497107</v>
       </c>
       <c r="I22" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>7.888151888538791E-7</v>
       </c>
       <c r="J22" s="2">
-        <v>5.0000000000050004E-3</v>
+        <v>4.182288630781361E-7</v>
       </c>
       <c r="K22" s="2">
-        <v>0.99162805397818088</v>
+        <v>0.99162805449586033</v>
       </c>
       <c r="L22" s="2">
-        <v>0.93841327370491479</v>
+        <v>0.93842985926322897</v>
       </c>
       <c r="M22" s="2">
-        <v>0.99214611935874997</v>
+        <v>0.99211803884111582</v>
       </c>
       <c r="N22" s="2">
-        <v>9.1039697723580698E-2</v>
+        <v>9.1039694908859492E-2</v>
       </c>
       <c r="O22" s="2">
-        <v>0.24692277949216099</v>
+        <v>0.24688952859407243</v>
       </c>
       <c r="P22" s="2">
-        <v>8.8177898788968478E-2</v>
+        <v>8.8335392382076133E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>2.0587448456778363E-2</v>
+        <v>2.0575461872008087E-2</v>
       </c>
       <c r="R22" s="2">
-        <v>2.6743255506806514E-2</v>
+        <v>2.6748083524552567E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -9927,7 +9053,7 @@
       </c>
       <c r="V23" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="0"/>
@@ -9948,27 +9074,27 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>2.3164158690311869E-3</v>
+        <v>2.3173268963984188E-3</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>6.3841099779699843E-3</v>
+        <v>6.5132119631182801E-3</v>
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(A$7:A$12,A$17:A$19)</f>
-        <v>2.7259684965693379E-2</v>
+        <v>2.7535106283079838E-2</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>4.9438179583043522E-3</v>
+        <v>5.0273961825241173E-3</v>
       </c>
       <c r="F24" s="2">
         <f>A$20</f>
-        <v>1.0575516431258088E-2</v>
+        <v>1.0760566128758033E-2</v>
       </c>
       <c r="G24" s="2">
         <f>AVERAGE(A$21:A$22)</f>
-        <v>7.1513467267411528E-3</v>
+        <v>7.218428100833273E-3</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" ref="N24:N44" si="2">_xlfn.IFS(ABS(A2-T$5)&lt;=0.01*T$5,"Lower",ABS(A2-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
@@ -9980,7 +9106,7 @@
       </c>
       <c r="P24" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="0"/>
@@ -9996,7 +9122,7 @@
       </c>
       <c r="T24" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="0"/>
@@ -10022,24 +9148,24 @@
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>1.4394371902156326E-4</v>
+        <v>1.4110540454517E-4</v>
       </c>
       <c r="C25" s="2">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>1.1454985630101012E-3</v>
+        <v>1.1938388220454957E-3</v>
       </c>
       <c r="D25" s="2">
         <f>STDEV(A$7:A$12,A$17:A$19)/SQRT(COUNT(A$7:A$12,A$17:A$19))</f>
-        <v>1.0252324897493665E-2</v>
+        <v>1.0219978638120604E-2</v>
       </c>
       <c r="E25" s="2">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>4.2710599724978308E-4</v>
+        <v>4.2920729768569356E-4</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f>STDEV(A$21:A$22)/SQRT(COUNT(A$21:A$22))</f>
-        <v>4.1447888678808326E-4</v>
+        <v>4.7600411383151179E-4</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
@@ -10129,7 +9255,7 @@
       </c>
       <c r="W26" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD26" t="str">
         <f t="shared" si="1"/>
@@ -10137,7 +9263,7 @@
       </c>
       <c r="AE26" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -10169,7 +9295,7 @@
       </c>
       <c r="P27" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="0"/>
@@ -10214,27 +9340,27 @@
       </c>
       <c r="C28" s="2">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>9.1562026481064915E-2</v>
+        <v>9.2535545750464687E-2</v>
       </c>
       <c r="D28" s="2">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>0.35224348703388203</v>
+        <v>0.3541415185008206</v>
       </c>
       <c r="E28" s="2">
         <f>AVERAGE(B$7:B$12,B$17:B$19)</f>
-        <v>0.74774420072208381</v>
+        <v>0.75444268232926348</v>
       </c>
       <c r="F28" s="2">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>0.17801503044574071</v>
+        <v>0.16916415025152015</v>
       </c>
       <c r="G28" s="2">
         <f>B$20</f>
-        <v>0.11351920357952909</v>
+        <v>0.10810136923207164</v>
       </c>
       <c r="H28" s="2">
         <f>AVERAGE(B$21:B$22)</f>
-        <v>0.20672336535200575</v>
+        <v>0.2047343855353021</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
@@ -10262,7 +9388,7 @@
       </c>
       <c r="T28" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="0"/>
@@ -10274,7 +9400,7 @@
       </c>
       <c r="W28" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD28" t="str">
         <f t="shared" si="1"/>
@@ -10288,24 +9414,24 @@
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>1.0119091447892565E-2</v>
+        <v>1.2057455739979463E-2</v>
       </c>
       <c r="D29" s="2">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>5.4093217675224937E-2</v>
+        <v>5.7309495294150879E-2</v>
       </c>
       <c r="E29" s="2">
         <f>STDEV(B$7:B$12,B$17:B$19)/SQRT(COUNT(B$7:B$12,B$17:B$19))</f>
-        <v>0.39819613118576136</v>
+        <v>0.39928208436858398</v>
       </c>
       <c r="F29" s="2">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>0.14503347676822781</v>
+        <v>0.13741088889033834</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
         <f>STDEV(B$21:B$22)/SQRT(COUNT(B$21:B$22))</f>
-        <v>1.6027079767790373E-2</v>
+        <v>1.8308667441519141E-2</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
@@ -10341,7 +9467,7 @@
       </c>
       <c r="V29" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="0"/>
@@ -10399,7 +9525,7 @@
       </c>
       <c r="AD30" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AE30" t="str">
         <f t="shared" si="1"/>
@@ -10480,27 +9606,27 @@
       </c>
       <c r="D32" s="2">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>7.5338792243522842E-2</v>
+        <v>7.384890314233869E-2</v>
       </c>
       <c r="E32" s="2">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>5.0878096231398669E-2</v>
+        <v>5.0263555960985945E-2</v>
       </c>
       <c r="F32" s="2">
         <f>AVERAGE(C$7:C$12,C$17:C$19)</f>
-        <v>5.9605294490649968E-2</v>
+        <v>6.3109847044927683E-2</v>
       </c>
       <c r="G32" s="2">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>7.5438489871608422E-2</v>
+        <v>8.0357873156810505E-2</v>
       </c>
       <c r="H32" s="2">
         <f>C$20</f>
-        <v>9.9996154785638877E-2</v>
+        <v>9.9999999990512817E-2</v>
       </c>
       <c r="I32" s="2">
         <f>AVERAGE(C$21:C$22)</f>
-        <v>9.9999611247921769E-2</v>
+        <v>9.9999300808557345E-2</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="2"/>
@@ -10548,30 +9674,30 @@
       </c>
       <c r="AE32" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
     </row>
     <row r="33" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>2.4510193064883369E-2</v>
+        <v>2.3803754511435734E-2</v>
       </c>
       <c r="E33" s="2">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>2.4560951831086825E-2</v>
+        <v>2.3947765296666392E-2</v>
       </c>
       <c r="F33" s="2">
         <f>STDEV(C$7:C$12,C$17:C$19)/SQRT(COUNT(C$7:C$12,C$17:C$19))</f>
-        <v>1.117040559412727E-2</v>
+        <v>1.0466686942143609E-2</v>
       </c>
       <c r="G33" s="2">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>1.5218377435181186E-2</v>
+        <v>1.4625933793160245E-2</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2">
         <f>STDEV(C$21:C$22)/SQRT(COUNT(C$21:C$22))</f>
-        <v>3.2305776623275939E-8</v>
+        <v>6.9919142025448567E-7</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
@@ -10729,7 +9855,7 @@
       </c>
       <c r="W35" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD35" t="str">
         <f t="shared" si="1"/>
@@ -10746,27 +9872,27 @@
       </c>
       <c r="E36" s="2">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>632012098.83339036</v>
+        <v>632008997.85957575</v>
       </c>
       <c r="F36" s="2">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>429395903.73384517</v>
+        <v>429383170.13780922</v>
       </c>
       <c r="G36" s="2">
         <f>AVERAGE(D$7:D$12,D$17:D$19)</f>
-        <v>669616800.65452504</v>
+        <v>657231049.83675289</v>
       </c>
       <c r="H36" s="2">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>1112545892.7689834</v>
+        <v>1115107642.3110452</v>
       </c>
       <c r="I36" s="2">
         <f>D$20</f>
-        <v>1442195150.8003712</v>
+        <v>1442195496.1246281</v>
       </c>
       <c r="J36" s="2">
         <f>AVERAGE(D$21:D$22)</f>
-        <v>1568575571.1272311</v>
+        <v>1568574263.3403835</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
@@ -10802,7 +9928,7 @@
       </c>
       <c r="V36" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="0"/>
@@ -10820,24 +9946,24 @@
     <row r="37" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>304771761.86323607</v>
+        <v>304779407.73467177</v>
       </c>
       <c r="F37" s="2">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>337005855.24468315</v>
+        <v>337009161.21699256</v>
       </c>
       <c r="G37" s="2">
         <f>STDEV(D$7:D$12,D$17:D$19)/SQRT(COUNT(D$7:D$12,D$17:D$19))</f>
-        <v>225598503.03394902</v>
+        <v>217752834.47134462</v>
       </c>
       <c r="H37" s="2">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>553782355.45647335</v>
+        <v>556079536.85988617</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2">
         <f>STDEV(D$21:D$22)/SQRT(COUNT(D$21:D$22))</f>
-        <v>498176214.43746614</v>
+        <v>498174883.8265568</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="2"/>
@@ -10877,7 +10003,7 @@
       </c>
       <c r="W37" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD37" t="str">
         <f t="shared" si="1"/>
@@ -10967,7 +10093,7 @@
       </c>
       <c r="P39" t="str">
         <f t="shared" ref="P39:P44" si="4">_xlfn.IFS(ABS(C17-V$5)&lt;=0.01*V$5,"Lower",ABS(C17-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" ref="Q39:Q44" si="5">_xlfn.IFS(ABS(D17-W$5)&lt;=0.01*W$5,"Lower",ABS(D17-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
@@ -10983,7 +10109,7 @@
       </c>
       <c r="T39" t="str">
         <f t="shared" ref="T39:T44" si="8">_xlfn.IFS(ABS(G17-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G17-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" ref="U39:U44" si="9">_xlfn.IFS(ABS(H17-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H17-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
@@ -10995,7 +10121,7 @@
       </c>
       <c r="W39" t="str">
         <f t="shared" ref="W39:W44" si="11">_xlfn.IFS(ABS(J17-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J17-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD39" t="str">
         <f t="shared" si="1"/>
@@ -11012,27 +10138,27 @@
       </c>
       <c r="F40" s="2">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>20.568721823519486</v>
+        <v>20.569031590712743</v>
       </c>
       <c r="G40" s="2">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>22.075998539826269</v>
+        <v>22.076323769486507</v>
       </c>
       <c r="H40" s="2">
         <f>AVERAGE(E$7:E$12,E$17:E$19)</f>
-        <v>27.055312017837505</v>
+        <v>27.049486754336399</v>
       </c>
       <c r="I40" s="2">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>30.41154013392423</v>
+        <v>30.414474382495143</v>
       </c>
       <c r="J40" s="2">
         <f>E$20</f>
-        <v>21.073200082662254</v>
+        <v>21.071901191010653</v>
       </c>
       <c r="K40" s="2">
         <f>AVERAGE(E$21:E$22)</f>
-        <v>15.388213040585466</v>
+        <v>15.38764891000403</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
@@ -11076,34 +10202,34 @@
       </c>
       <c r="AD40" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AE40" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
     </row>
     <row r="41" spans="4:31" x14ac:dyDescent="0.25">
       <c r="F41" s="2">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.6354276925167162</v>
+        <v>1.6353604324085522</v>
       </c>
       <c r="G41" s="2">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>5.4275970119096479</v>
+        <v>5.4277614734308957</v>
       </c>
       <c r="H41" s="2">
         <f>STDEV(E$7:E$12,E$17:E$19)/SQRT(COUNT(E$7:E$12,E$17:E$19))</f>
-        <v>3.3651259367796573</v>
+        <v>3.3683323128668317</v>
       </c>
       <c r="I41" s="2">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>5.0449814913177899</v>
+        <v>5.0446973617418731</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
         <f>STDEV(E$21:E$22)/SQRT(COUNT(E$21:E$22))</f>
-        <v>0.23551113111802913</v>
+        <v>0.23556790877395525</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
@@ -11147,7 +10273,7 @@
       </c>
       <c r="AD41" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AE41" t="str">
         <f t="shared" si="1"/>
@@ -11193,7 +10319,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" si="11"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD42" t="str">
         <f t="shared" si="1"/>
@@ -11261,7 +10387,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" si="11"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD43" t="str">
         <f t="shared" si="1"/>
@@ -11269,7 +10395,7 @@
       </c>
       <c r="AE43" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="44" spans="4:31" x14ac:dyDescent="0.25">
@@ -11278,27 +10404,27 @@
       </c>
       <c r="G44" s="2">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>62.934262420288405</v>
+        <v>62.929200798475335</v>
       </c>
       <c r="H44" s="2">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>61.05613251932985</v>
+        <v>61.049871234843614</v>
       </c>
       <c r="I44" s="2">
         <f>AVERAGE(F$7:F$12,F$17:F$19)</f>
-        <v>62.567355798911727</v>
+        <v>62.565940988884485</v>
       </c>
       <c r="J44" s="2">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>61.905327382395875</v>
+        <v>61.88435213689619</v>
       </c>
       <c r="K44" s="2">
         <f>F$20</f>
-        <v>66.226022643653195</v>
+        <v>66.224947910183658</v>
       </c>
       <c r="L44" s="2">
         <f>AVERAGE(F$21:F$22)</f>
-        <v>72.176726960825562</v>
+        <v>72.176785082741588</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
@@ -11352,24 +10478,24 @@
     <row r="45" spans="4:31" x14ac:dyDescent="0.25">
       <c r="G45" s="2">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>3.0896746143542604</v>
+        <v>3.0934409159415974</v>
       </c>
       <c r="H45" s="2">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>4.8859616724569772</v>
+        <v>4.888968988250177</v>
       </c>
       <c r="I45" s="2">
         <f>STDEV(F$7:F$12,F$17:F$19)/SQRT(COUNT(F$7:F$12,F$17:F$19))</f>
-        <v>3.8235767414533695</v>
+        <v>3.824336547084958</v>
       </c>
       <c r="J45" s="2">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>2.8838666126905528</v>
+        <v>2.8813852312930881</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2">
         <f>STDEV(F$21:F$22)/SQRT(COUNT(F$21:F$22))</f>
-        <v>2.9467814602716373</v>
+        <v>2.9472292420093491</v>
       </c>
       <c r="N45" t="s">
         <v>6</v>
@@ -11452,50 +10578,50 @@
       </c>
       <c r="H48" s="2">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>0.43027206758401876</v>
+        <v>0.43030529517923882</v>
       </c>
       <c r="I48" s="2">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>0.19506970397075354</v>
+        <v>0.19506446675691699</v>
       </c>
       <c r="J48" s="2">
         <f>AVERAGE(G$7:G$12,G$17:G$19)</f>
-        <v>0.42067939442780816</v>
+        <v>0.41603336191621143</v>
       </c>
       <c r="K48" s="2">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>0.34570940853711268</v>
+        <v>0.34656142030851494</v>
       </c>
       <c r="L48" s="2">
         <f>G$20</f>
-        <v>0.64145927673503045</v>
+        <v>0.64179913127875132</v>
       </c>
       <c r="M48" s="2">
         <f>AVERAGE(G$21:G$22)</f>
-        <v>0.58218607565337588</v>
+        <v>0.58216172922031317</v>
       </c>
     </row>
     <row r="49" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H49" s="2">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>0.21659054729123339</v>
+        <v>0.21660481975386786</v>
       </c>
       <c r="I49" s="2">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.19506969397072565</v>
+        <v>0.19506444923262076</v>
       </c>
       <c r="J49" s="2">
         <f>STDEV(G$7:G$12,G$17:G$19)/SQRT(COUNT(G$7:G$12,G$17:G$19))</f>
-        <v>0.10282395991032552</v>
+        <v>0.10216020479600753</v>
       </c>
       <c r="K49" s="2">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.20016564421620908</v>
+        <v>0.20068232101892192</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2">
         <f>STDEV(G$21:G$22)/SQRT(COUNT(G$21:G$22))</f>
-        <v>3.8312545757260785E-2</v>
+        <v>3.8283269949590908E-2</v>
       </c>
     </row>
     <row r="51" spans="8:26" x14ac:dyDescent="0.25">
@@ -11524,50 +10650,50 @@
       </c>
       <c r="I52" s="2">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>3.8181824203370934E-2</v>
+        <v>3.6340015217690251E-2</v>
       </c>
       <c r="J52" s="2">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>0.20297707272718515</v>
+        <v>0.20403788869996353</v>
       </c>
       <c r="K52" s="2">
         <f>AVERAGE(H$7:H$12,H$17:H$19)</f>
-        <v>1.6671523445758363</v>
+        <v>1.6742312906554444</v>
       </c>
       <c r="L52" s="2">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>0.79229808016207393</v>
+        <v>0.7445921275636318</v>
       </c>
       <c r="M52" s="2">
         <f>H$20</f>
-        <v>0.12935499209510501</v>
+        <v>0.1195542193137312</v>
       </c>
       <c r="N52" s="2">
         <f>AVERAGE(H$21:H$22)</f>
-        <v>0.16609778493771393</v>
+        <v>0.16373508288464522</v>
       </c>
     </row>
     <row r="53" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I53" s="2">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>1.6355880294056404E-2</v>
+        <v>1.6672231507992838E-2</v>
       </c>
       <c r="J53" s="2">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>4.5272571974658983E-2</v>
+        <v>4.6989865419873371E-2</v>
       </c>
       <c r="K53" s="2">
         <f>STDEV(H$7:H$12,H$17:H$19)/SQRT(COUNT(H$7:H$12,H$17:H$19))</f>
-        <v>1.1308271732124933</v>
+        <v>1.1308765015832429</v>
       </c>
       <c r="L53" s="2">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>0.77336745514421368</v>
+        <v>0.7333214675380374</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2">
         <f>STDEV(H$21:H$22)/SQRT(COUNT(H$21:H$22))</f>
-        <v>1.6217925920518184E-2</v>
+        <v>1.8938160200325939E-2</v>
       </c>
     </row>
     <row r="55" spans="8:26" x14ac:dyDescent="0.25">
@@ -11596,50 +10722,50 @@
       </c>
       <c r="J56" s="2">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>5.0000000000050004E-3</v>
+        <v>3.3334323368655015E-3</v>
       </c>
       <c r="K56" s="2">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>5.0000000000050004E-3</v>
+        <v>3.547600000994643E-4</v>
       </c>
       <c r="L56" s="2">
         <f>AVERAGE(I$7:I$12,I$17:I$19)</f>
-        <v>5.0000000000050004E-3</v>
+        <v>2.3075847901287152E-3</v>
       </c>
       <c r="M56" s="2">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>5.0000000000050004E-3</v>
+        <v>2.5302835043647456E-3</v>
       </c>
       <c r="N56" s="2">
         <f>I$20</f>
-        <v>5.0000000000050004E-3</v>
+        <v>1.001442476453742E-9</v>
       </c>
       <c r="O56" s="2">
         <f>AVERAGE(I$21:I$22)</f>
-        <v>5.0000000000050004E-3</v>
+        <v>3.9440761052938893E-7</v>
       </c>
     </row>
     <row r="57" spans="8:26" x14ac:dyDescent="0.25">
       <c r="J57" s="2">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>0</v>
+        <v>3.3332838326588514E-3</v>
       </c>
       <c r="K57" s="2">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>0</v>
+        <v>3.5468109480131071E-4</v>
       </c>
       <c r="L57" s="2">
         <f>STDEV(I$7:I$12,I$17:I$19)/SQRT(COUNT(I$7:I$12,I$17:I$19))</f>
-        <v>0</v>
+        <v>1.1718468534149583E-3</v>
       </c>
       <c r="M57" s="2">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>0</v>
+        <v>2.4900647751280795E-3</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2">
         <f>STDEV(I$21:I$22)/SQRT(COUNT(I$21:I$22))</f>
-        <v>0</v>
+        <v>3.9440757832449011E-7</v>
       </c>
     </row>
     <row r="59" spans="8:26" x14ac:dyDescent="0.25">
@@ -11668,50 +10794,50 @@
       </c>
       <c r="K60" s="2">
         <f>AVERAGE(J$1:J$3)</f>
-        <v>5.0000000000050004E-3</v>
+        <v>3.2650559954686166E-3</v>
       </c>
       <c r="L60" s="2">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>5.0000000000050004E-3</v>
+        <v>6.7002828792823597E-3</v>
       </c>
       <c r="M60" s="2">
         <f>AVERAGE(J$7:J$12,J$17:J$19)</f>
-        <v>5.0000000000050004E-3</v>
+        <v>2.3435920833815606E-3</v>
       </c>
       <c r="N60" s="2">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>5.0000000000050004E-3</v>
+        <v>5.0000426325554747E-3</v>
       </c>
       <c r="O60" s="2">
         <f>J$20</f>
-        <v>5.0000000000050004E-3</v>
+        <v>9.9992167257435018E-3</v>
       </c>
       <c r="P60" s="2">
         <f>AVERAGE(J$21:J$22)</f>
-        <v>5.0000000000050004E-3</v>
+        <v>5.0002088107608767E-3</v>
       </c>
     </row>
     <row r="61" spans="8:26" x14ac:dyDescent="0.25">
       <c r="K61" s="2">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
-        <v>0</v>
+        <v>3.2650525106723968E-3</v>
       </c>
       <c r="L61" s="2">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>0</v>
+        <v>3.299717120689041E-3</v>
       </c>
       <c r="M61" s="2">
         <f>STDEV(J$7:J$12,J$17:J$19)/SQRT(COUNT(J$7:J$12,J$17:J$19))</f>
-        <v>0</v>
+        <v>1.4092513298116012E-3</v>
       </c>
       <c r="N61" s="2">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>0</v>
+        <v>2.8867255386663773E-3</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2">
         <f>STDEV(J$21:J$22)/SQRT(COUNT(J$21:J$22))</f>
-        <v>0</v>
+        <v>4.9997905818977978E-3</v>
       </c>
     </row>
     <row r="63" spans="8:26" x14ac:dyDescent="0.25">
@@ -11740,27 +10866,27 @@
       </c>
       <c r="L64" s="3">
         <f>AVERAGE(K$1:K$3)</f>
-        <v>0.99323518767684849</v>
+        <v>0.9932352089703107</v>
       </c>
       <c r="M64" s="3">
         <f>AVERAGE(K$4:K$6)</f>
-        <v>0.99460152470338004</v>
+        <v>0.99460154687993896</v>
       </c>
       <c r="N64" s="3">
         <f>AVERAGE(K$7:K$12,K$17:K$19)</f>
-        <v>0.9898081646470942</v>
+        <v>0.98980700276706002</v>
       </c>
       <c r="O64" s="3">
         <f>AVERAGE(K$13:K$16)</f>
-        <v>0.99704846735571739</v>
+        <v>0.99704870081823149</v>
       </c>
       <c r="P64" s="3">
         <f>K$20</f>
-        <v>0.99429033921516119</v>
+        <v>0.99428979846547727</v>
       </c>
       <c r="Q64" s="3">
         <f>AVERAGE(K$21:K$22)</f>
-        <v>0.99053306978619449</v>
+        <v>0.99053303382368307</v>
       </c>
       <c r="U64" t="str">
         <f>_xlfn.CONCAT(ROUND(L64,2), " ± ", L65)</f>
@@ -11831,27 +10957,27 @@
       </c>
       <c r="M68" s="3">
         <f>AVERAGE(L$1:L$3)</f>
-        <v>0.98263029317179151</v>
+        <v>0.98300514614760737</v>
       </c>
       <c r="N68">
         <f>AVERAGE(L$4:L$6)</f>
-        <v>0.96424374674301827</v>
+        <v>0.96470484724003958</v>
       </c>
       <c r="O68">
         <f>AVERAGE(L$7:L$12,L$17:L$19)</f>
-        <v>0.96715093632453075</v>
+        <v>0.96747248940537267</v>
       </c>
       <c r="P68">
         <f>AVERAGE(L$13:L$16)</f>
-        <v>0.98477732736147738</v>
+        <v>0.98513044742139777</v>
       </c>
       <c r="Q68">
         <f>L$20</f>
-        <v>0.99110919057621594</v>
+        <v>0.99141974525984633</v>
       </c>
       <c r="R68">
         <f>AVERAGE(L$21:L$22)</f>
-        <v>0.9593689558297307</v>
+        <v>0.95949525542250658</v>
       </c>
       <c r="V68" t="str">
         <f>_xlfn.CONCAT(ROUND(M68,2), " ± ", M69)</f>
@@ -11867,7 +10993,7 @@
       </c>
       <c r="Y68" t="str">
         <f t="shared" ref="Y68" si="15">_xlfn.CONCAT(ROUND(P68,2), " ± ", P69)</f>
-        <v>0.98 ± 6.99E-03</v>
+        <v>0.99 ± 6.99E-03</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" ref="Z68" si="16">_xlfn.CONCAT(ROUND(Q68,2), " ± ", Q69)</f>
@@ -11922,27 +11048,27 @@
       </c>
       <c r="N72">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.98530636450758013</v>
+        <v>0.98559997593529081</v>
       </c>
       <c r="O72">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.96919058691022419</v>
+        <v>0.9693800503323432</v>
       </c>
       <c r="P72">
         <f>AVERAGE(M$7:M$12,M$17:M$19)</f>
-        <v>0.98255846735418551</v>
+        <v>0.98251601658270615</v>
       </c>
       <c r="Q72">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.97161338595597191</v>
+        <v>0.97197594133035303</v>
       </c>
       <c r="R72">
         <f>M$20</f>
-        <v>0.98947858595712912</v>
+        <v>0.99018690753118732</v>
       </c>
       <c r="S72">
         <f>AVERAGE(M$21:M$22)</f>
-        <v>0.98682147295959011</v>
+        <v>0.98683977489400232</v>
       </c>
       <c r="W72" t="str">
         <f>_xlfn.CONCAT(ROUND(N72,2), " ± ", N73)</f>
@@ -12013,27 +11139,27 @@
       </c>
       <c r="O76">
         <f>AVERAGE(N$1:N$3)</f>
-        <v>8.0362220674373541E-2</v>
+        <v>8.0362041918497926E-2</v>
       </c>
       <c r="P76">
         <f>AVERAGE(N$4:N$6)</f>
-        <v>7.2878491447742999E-2</v>
+        <v>7.2878411067648224E-2</v>
       </c>
       <c r="Q76">
         <f>AVERAGE(N$7:N$12,N$17:N$19)</f>
-        <v>9.0546510734779762E-2</v>
+        <v>9.0554912863946804E-2</v>
       </c>
       <c r="R76">
         <f>AVERAGE(N$13:N$16)</f>
-        <v>5.1210346785538013E-2</v>
+        <v>5.1207290162989402E-2</v>
       </c>
       <c r="S76">
         <f>N$20</f>
-        <v>7.5183536608691551E-2</v>
+        <v>7.5187096759866429E-2</v>
       </c>
       <c r="T76">
         <f>AVERAGE(N$21:N$22)</f>
-        <v>9.6647862860316569E-2</v>
+        <v>9.6648036792624958E-2</v>
       </c>
       <c r="X76" t="str">
         <f>_xlfn.CONCAT(ROUND(O76,2), " ± ", O77)</f>
@@ -12104,27 +11230,27 @@
       </c>
       <c r="P80">
         <f>AVERAGE(O$1:O$3)</f>
-        <v>0.13101615036119504</v>
+        <v>0.12957358367758393</v>
       </c>
       <c r="Q80">
         <f>AVERAGE(O$4:O$6)</f>
-        <v>0.17944891413819461</v>
+        <v>0.17825620245069648</v>
       </c>
       <c r="R80">
         <f>AVERAGE(O$7:O$12,O$17:O$19)</f>
-        <v>0.16477034356947898</v>
+        <v>0.16358160762849916</v>
       </c>
       <c r="S80">
         <f>AVERAGE(O$13:O$16)</f>
-        <v>0.11456741663886996</v>
+        <v>0.11256860779181954</v>
       </c>
       <c r="T80">
         <f>O$20</f>
-        <v>9.3818448769665122E-2</v>
+        <v>9.2165352452817859E-2</v>
       </c>
       <c r="U80">
         <f>AVERAGE(O$21:O$22)</f>
-        <v>0.1932442823935604</v>
+        <v>0.19280785775103676</v>
       </c>
       <c r="Y80" t="str">
         <f>_xlfn.CONCAT(ROUND(P80,2), " ± ", P81)</f>
@@ -12195,27 +11321,27 @@
       </c>
       <c r="Q84">
         <f>AVERAGE(P$1:P$3)</f>
-        <v>0.11142200419504411</v>
+        <v>0.11022569489394717</v>
       </c>
       <c r="R84">
         <f>AVERAGE(P$4:P$6)</f>
-        <v>0.16245718660048794</v>
+        <v>0.16197315664774298</v>
       </c>
       <c r="S84">
         <f>AVERAGE(P$7:P$12,P$17:P$19)</f>
-        <v>0.11893605064820632</v>
+        <v>0.11909202014710722</v>
       </c>
       <c r="T84">
         <f>AVERAGE(P$13:P$16)</f>
-        <v>0.14289996483129169</v>
+        <v>0.14164597265955758</v>
       </c>
       <c r="U84">
         <f>P$20</f>
-        <v>0.10205978592198878</v>
+        <v>9.8564504483736548E-2</v>
       </c>
       <c r="V84">
         <f>AVERAGE(P$21:P$22)</f>
-        <v>0.11176121421762646</v>
+        <v>0.11172157128821517</v>
       </c>
       <c r="Z84" t="str">
         <f>_xlfn.CONCAT(ROUND(Q84,2), " ± ", Q85)</f>
@@ -12286,50 +11412,50 @@
       </c>
       <c r="R88" s="2">
         <f>AVERAGE(Q$1:Q$3)</f>
-        <v>2.037862058825092E-2</v>
+        <v>2.0365681512952261E-2</v>
       </c>
       <c r="S88" s="2">
         <f>AVERAGE(Q$4:Q$6)</f>
-        <v>1.9912909647962457E-2</v>
+        <v>1.9902792231451975E-2</v>
       </c>
       <c r="T88" s="2">
         <f>AVERAGE(Q$7:Q$12,Q$17:Q$19)</f>
-        <v>2.0515103427541762E-2</v>
+        <v>2.0561912508965351E-2</v>
       </c>
       <c r="U88" s="2">
         <f>AVERAGE(Q$13:Q$16)</f>
-        <v>2.0409427432635803E-2</v>
+        <v>2.0431830067845134E-2</v>
       </c>
       <c r="V88" s="2">
         <f>Q$20</f>
-        <v>2.0902529677286813E-2</v>
+        <v>2.0784713283118691E-2</v>
       </c>
       <c r="W88" s="2">
         <f>AVERAGE(Q$21:Q$22)</f>
-        <v>2.068643633958234E-2</v>
+        <v>2.0754795921728013E-2</v>
       </c>
     </row>
     <row r="89" spans="16:31" x14ac:dyDescent="0.25">
       <c r="R89" s="2">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
-        <v>3.8905919800278743E-4</v>
+        <v>3.8194997275177109E-4</v>
       </c>
       <c r="S89" s="2">
         <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
-        <v>3.0506651067963139E-4</v>
+        <v>2.9494907968756836E-4</v>
       </c>
       <c r="T89" s="2">
         <f>STDEV(Q$7:Q$12,Q$17:Q$19)/SQRT(COUNT(Q$7:Q$12,Q$17:Q$19))</f>
-        <v>2.1590559082891949E-4</v>
+        <v>2.310682053692697E-4</v>
       </c>
       <c r="U89" s="2">
         <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
-        <v>4.6278990617203001E-4</v>
+        <v>4.7544596282562859E-4</v>
       </c>
       <c r="V89" s="2"/>
       <c r="W89" s="2">
         <f>STDEV(Q$21:Q$22)/SQRT(COUNT(Q$21:Q$22))</f>
-        <v>9.8987882803977523E-5</v>
+        <v>1.7933404971992757E-4</v>
       </c>
     </row>
     <row r="91" spans="16:31" x14ac:dyDescent="0.25">
@@ -12358,76 +11484,76 @@
       </c>
       <c r="S92" s="2">
         <f>AVERAGE(R$1:R$3)</f>
-        <v>2.6626665084659509E-2</v>
+        <v>2.6578997644427605E-2</v>
       </c>
       <c r="T92" s="2">
         <f>AVERAGE(R$4:R$6)</f>
-        <v>2.678220265577928E-2</v>
+        <v>2.6835872828472173E-2</v>
       </c>
       <c r="U92" s="2">
         <f>AVERAGE(R$7:R$12,R$17:R$19)</f>
-        <v>2.6913361518582011E-2</v>
+        <v>2.6886662268571313E-2</v>
       </c>
       <c r="V92" s="2">
         <f>AVERAGE(R$13:R$16)</f>
-        <v>2.6763462286901768E-2</v>
+        <v>2.6657237171290454E-2</v>
       </c>
       <c r="W92" s="2">
         <f>R$20</f>
-        <v>2.6623766806585347E-2</v>
+        <v>2.6593421852223683E-2</v>
       </c>
       <c r="X92" s="2">
         <f>AVERAGE(R$21:R$22)</f>
-        <v>2.6746041579962625E-2</v>
+        <v>2.6777762541119757E-2</v>
       </c>
     </row>
     <row r="93" spans="16:31" x14ac:dyDescent="0.25">
       <c r="S93" s="2">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
-        <v>6.790444705159948E-5</v>
+        <v>2.1625069528551808E-5</v>
       </c>
       <c r="T93" s="2">
         <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
-        <v>7.4724977136014664E-5</v>
+        <v>4.8710360305349656E-5</v>
       </c>
       <c r="U93" s="2">
         <f>STDEV(R$7:R$12,R$17:R$19)/SQRT(COUNT(R$7:R$12,R$17:R$19))</f>
-        <v>1.6268316449898223E-4</v>
+        <v>1.614486351023254E-4</v>
       </c>
       <c r="V93" s="2">
         <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
-        <v>1.9335632166111503E-4</v>
+        <v>1.279616788292203E-4</v>
       </c>
       <c r="W93" s="2"/>
       <c r="X93" s="2">
         <f>STDEV(R$21:R$22)/SQRT(COUNT(R$21:R$22))</f>
-        <v>2.7860731561090558E-6</v>
+        <v>2.9679016567189798E-5</v>
       </c>
     </row>
     <row r="99" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S99" s="3">
         <f>1/S92</f>
-        <v>37.556336733139467</v>
+        <v>37.623691208297089</v>
       </c>
       <c r="T99" s="3">
         <f t="shared" ref="T99:X99" si="38">1/T92</f>
-        <v>37.338228406848827</v>
+        <v>37.263554138586677</v>
       </c>
       <c r="U99" s="3">
         <f t="shared" si="38"/>
-        <v>37.1562652740187</v>
+        <v>37.193162543233647</v>
       </c>
       <c r="V99" s="3">
         <f t="shared" si="38"/>
-        <v>37.364373461105117</v>
+        <v>37.513264918428561</v>
       </c>
       <c r="W99" s="3">
         <f t="shared" si="38"/>
-        <v>37.560425136861234</v>
+        <v>37.603284209037668</v>
       </c>
       <c r="X99" s="3">
         <f t="shared" si="38"/>
-        <v>37.388710288597309</v>
+        <v>37.344419589366609</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DDD94-C812-4891-8094-118019DEB6B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFB8210-0E6A-4AAD-B239-3F2ECBD7AC90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
@@ -831,16 +831,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.4110540454517E-4</c:v>
+                    <c:v>2.2725967521505301E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1938388220454957E-3</c:v>
+                    <c:v>1.4738599434207719E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0219978638120604E-2</c:v>
+                    <c:v>8.0834831872766671E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2920729768569356E-4</c:v>
+                    <c:v>6.3360122857742784E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -852,16 +852,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.4110540454517E-4</c:v>
+                    <c:v>2.2725967521505301E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1938388220454957E-3</c:v>
+                    <c:v>1.4738599434207719E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0219978638120604E-2</c:v>
+                    <c:v>8.0834831872766671E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2920729768569356E-4</c:v>
+                    <c:v>6.3360122857742784E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -907,16 +907,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3173268963984188E-3</c:v>
+                  <c:v>2.1001291329547363E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5132119631182801E-3</c:v>
+                  <c:v>6.6344325228484607E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7535106283079838E-2</c:v>
+                  <c:v>1.8632184488774763E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0273961825241173E-3</c:v>
+                  <c:v>4.217832001894262E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,16 +1185,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.2057455739979463E-2</c:v>
+                    <c:v>1.1993739194087553E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7309495294150879E-2</c:v>
+                    <c:v>0.21677497345924515</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39928208436858398</c:v>
+                    <c:v>6.2168745082076066E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.13741088889033834</c:v>
+                    <c:v>4.7271848244390062E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1206,16 +1206,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.2057455739979463E-2</c:v>
+                    <c:v>1.1993739194087553E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7309495294150879E-2</c:v>
+                    <c:v>0.21677497345924515</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39928208436858398</c:v>
+                    <c:v>6.2168745082076066E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.13741088889033834</c:v>
+                    <c:v>4.7271848244390062E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1261,16 +1261,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.2535545750464687E-2</c:v>
+                  <c:v>9.2818145298093388E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3541415185008206</c:v>
+                  <c:v>0.43188845352491184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75444268232926348</c:v>
+                  <c:v>0.2344887167481633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16916415025152015</c:v>
+                  <c:v>7.9975010194079946E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,19 +1539,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.3803754511435734E-2</c:v>
+                    <c:v>2.4552918518606016E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.3947765296666392E-2</c:v>
+                    <c:v>2.4547279159958829E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0466686942143609E-2</c:v>
+                    <c:v>1.1994584780844628E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4625933793160245E-2</c:v>
+                    <c:v>1.573185351950963E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.9919142025448567E-7</c:v>
+                    <c:v>1.0420953683309997E-10</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1563,19 +1563,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.3803754511435734E-2</c:v>
+                    <c:v>2.4552918518606016E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.3947765296666392E-2</c:v>
+                    <c:v>2.4547279159958829E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0466686942143609E-2</c:v>
+                    <c:v>1.1994584780844628E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4625933793160245E-2</c:v>
+                    <c:v>1.573185351950963E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6.9919142025448567E-7</c:v>
+                    <c:v>1.0420953683309997E-10</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1627,22 +1627,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.384890314233869E-2</c:v>
+                  <c:v>5.0868748663837837E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0263555960985945E-2</c:v>
+                  <c:v>5.0864252470759146E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3109847044927683E-2</c:v>
+                  <c:v>6.9876411281357811E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0357873156810505E-2</c:v>
+                  <c:v>7.455669266619476E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9999999990512817E-2</c:v>
+                  <c:v>9.9999999999865849E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999300808557345E-2</c:v>
+                  <c:v>9.9999999895768271E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,19 +1911,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>3.8194997275177109E-4</c:v>
+                    <c:v>4.8852209083045353E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9494907968756836E-4</c:v>
+                    <c:v>3.6735004728254622E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.310682053692697E-4</c:v>
+                    <c:v>2.2890018555720107E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7544596282562859E-4</c:v>
+                    <c:v>4.7794254676021981E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.7933404971992757E-4</c:v>
+                    <c:v>2.7126963587196205E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1935,19 +1935,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>3.8194997275177109E-4</c:v>
+                    <c:v>4.8852209083045353E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9494907968756836E-4</c:v>
+                    <c:v>3.6735004728254622E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.310682053692697E-4</c:v>
+                    <c:v>2.2890018555720107E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7544596282562859E-4</c:v>
+                    <c:v>4.7794254676021981E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.7933404971992757E-4</c:v>
+                    <c:v>2.7126963587196205E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1999,22 +1999,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0365681512952261E-2</c:v>
+                  <c:v>2.0542256242548931E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9902792231451975E-2</c:v>
+                  <c:v>1.9975193205712585E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0561912508965351E-2</c:v>
+                  <c:v>2.0633748084395762E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0431830067845134E-2</c:v>
+                  <c:v>2.0435630269480996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0784713283118691E-2</c:v>
+                  <c:v>2.0973295676043606E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0754795921728013E-2</c:v>
+                  <c:v>2.095401530746497E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,19 +2283,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.1625069528551808E-5</c:v>
+                    <c:v>2.5179500739234562E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.8710360305349656E-5</c:v>
+                    <c:v>2.5671577619167341E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.614486351023254E-4</c:v>
+                    <c:v>2.0299274734285723E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.279616788292203E-4</c:v>
+                    <c:v>3.7006385887008617E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.9679016567189798E-5</c:v>
+                    <c:v>2.0695011051561837E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2307,19 +2307,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.1625069528551808E-5</c:v>
+                    <c:v>2.5179500739234562E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.8710360305349656E-5</c:v>
+                    <c:v>2.5671577619167341E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.614486351023254E-4</c:v>
+                    <c:v>2.0299274734285723E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.279616788292203E-4</c:v>
+                    <c:v>3.7006385887008617E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.9679016567189798E-5</c:v>
+                    <c:v>2.0695011051561837E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2371,22 +2371,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.6578997644427605E-2</c:v>
+                  <c:v>2.6564180849319923E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6835872828472173E-2</c:v>
+                  <c:v>2.6892349117898989E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6886662268571313E-2</c:v>
+                  <c:v>2.6960438882680453E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6657237171290454E-2</c:v>
+                  <c:v>2.690102607904258E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6593421852223683E-2</c:v>
+                  <c:v>2.6672789715633204E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6777762541119757E-2</c:v>
+                  <c:v>2.6699257390410285E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,19 +2655,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.4110540454517E-4</c:v>
+                    <c:v>2.2725967521505301E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1938388220454957E-3</c:v>
+                    <c:v>1.4738599434207719E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0219978638120604E-2</c:v>
+                    <c:v>8.0834831872766671E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2920729768569356E-4</c:v>
+                    <c:v>6.3360122857742784E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.7600411383151179E-4</c:v>
+                    <c:v>4.7730132747802112E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2679,19 +2679,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.4110540454517E-4</c:v>
+                    <c:v>2.2725967521505301E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1938388220454957E-3</c:v>
+                    <c:v>1.4738599434207719E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0219978638120604E-2</c:v>
+                    <c:v>8.0834831872766671E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.2920729768569356E-4</c:v>
+                    <c:v>6.3360122857742784E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.7600411383151179E-4</c:v>
+                    <c:v>4.7730132747802112E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2743,22 +2743,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.3173268963984188E-3</c:v>
+                  <c:v>2.1001291329547363E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5132119631182801E-3</c:v>
+                  <c:v>6.6344325228484607E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7535106283079838E-2</c:v>
+                  <c:v>1.8632184488774763E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0273961825241173E-3</c:v>
+                  <c:v>4.217832001894262E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0760566128758033E-2</c:v>
+                  <c:v>1.0759029324079272E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.218428100833273E-3</c:v>
+                  <c:v>7.2171323769520141E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,19 +3027,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.2057455739979463E-2</c:v>
+                    <c:v>1.1993739194087553E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7309495294150879E-2</c:v>
+                    <c:v>0.21677497345924515</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39928208436858398</c:v>
+                    <c:v>6.2168745082076066E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.13741088889033834</c:v>
+                    <c:v>4.7271848244390062E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8308667441519141E-2</c:v>
+                    <c:v>1.8238538900267456E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3051,19 +3051,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.2057455739979463E-2</c:v>
+                    <c:v>1.1993739194087553E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7309495294150879E-2</c:v>
+                    <c:v>0.21677497345924515</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.39928208436858398</c:v>
+                    <c:v>6.2168745082076066E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.13741088889033834</c:v>
+                    <c:v>4.7271848244390062E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8308667441519141E-2</c:v>
+                    <c:v>1.8238538900267456E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3115,22 +3115,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.2535545750464687E-2</c:v>
+                  <c:v>9.2818145298093388E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3541415185008206</c:v>
+                  <c:v>0.43188845352491184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75444268232926348</c:v>
+                  <c:v>0.2344887167481633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16916415025152015</c:v>
+                  <c:v>7.9975010194079946E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10810136923207164</c:v>
+                  <c:v>0.10806440153231296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2047343855353021</c:v>
+                  <c:v>0.20466432483092473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7155,15 +7155,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>552994</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:colOff>248194</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7671,8 +7671,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7684,282 +7684,282 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>2.0440913622746353E-3</v>
+        <v>2.0441090480123867E-3</v>
       </c>
       <c r="B1" s="2">
-        <v>0.10465567845805716</v>
+        <v>0.1046576942724959</v>
       </c>
       <c r="C1" s="2">
-        <v>2.6315789473742499E-2</v>
+        <v>2.6315870816383365E-2</v>
       </c>
       <c r="D1" s="2">
-        <v>818926518.32173777</v>
+        <v>818923843.82635462</v>
       </c>
       <c r="E1" s="2">
-        <v>23.82609736019262</v>
+        <v>23.826098078463101</v>
       </c>
       <c r="F1" s="2">
-        <v>61.845367692256538</v>
+        <v>61.845370066492791</v>
       </c>
       <c r="G1" s="2">
-        <v>0.68884824364616704</v>
+        <v>0.6884271576465042</v>
       </c>
       <c r="H1" s="2">
-        <v>6.8689081548227338E-2</v>
+        <v>6.8694764167520919E-2</v>
       </c>
       <c r="I1" s="2">
-        <v>9.9999999999777905E-3</v>
+        <v>9.9999999572690911E-3</v>
       </c>
       <c r="J1" s="2">
-        <v>3.2257708635855453E-14</v>
+        <v>5.0746472033720158E-11</v>
       </c>
       <c r="K1" s="2">
-        <v>0.99150334140232921</v>
+        <v>0.99150334061473511</v>
       </c>
       <c r="L1" s="2">
-        <v>0.98468620622725533</v>
+        <v>0.98468599961749703</v>
       </c>
       <c r="M1" s="2">
-        <v>0.96903400881054969</v>
+        <v>0.96903446615868649</v>
       </c>
       <c r="N1" s="2">
-        <v>9.1715276871926474E-2</v>
+        <v>9.1715281122680306E-2</v>
       </c>
       <c r="O1" s="2">
-        <v>0.12312861501299061</v>
+        <v>0.12312944561995699</v>
       </c>
       <c r="P1" s="2">
-        <v>0.17508949505197574</v>
+        <v>0.17508820206655948</v>
       </c>
       <c r="Q1" s="2">
-        <v>2.0833159094342264E-2</v>
+        <v>2.1256678515456123E-2</v>
       </c>
       <c r="R1" s="2">
-        <v>2.6617079497839362E-2</v>
+        <v>2.6613300701501686E-2</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2.3927976051121252E-3</v>
+        <v>1.7375150690284137E-3</v>
       </c>
       <c r="B2" s="2">
-        <v>0.10453021573169838</v>
+        <v>0.10496541676836456</v>
       </c>
       <c r="C2" s="2">
-        <v>9.5311438438472257E-2</v>
+        <v>2.6315789474102722E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>36088455.454467326</v>
+        <v>40932149.670228243</v>
       </c>
       <c r="E2" s="2">
-        <v>18.681938922510028</v>
+        <v>18.766309887571968</v>
       </c>
       <c r="F2" s="2">
-        <v>58.195976647332117</v>
+        <v>59.827350501386753</v>
       </c>
       <c r="G2" s="2">
-        <v>2.9227470395530482E-6</v>
+        <v>1.000000018820988E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>2.7168577155675049E-2</v>
+        <v>2.6610097734376798E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>5.4853470340308853E-14</v>
+        <v>3.3355305486471564E-14</v>
       </c>
       <c r="J2" s="2">
-        <v>9.7951610168121699E-3</v>
+        <v>9.9999999999766283E-3</v>
       </c>
       <c r="K2" s="2">
-        <v>0.99654313831679786</v>
+        <v>0.99651851479241171</v>
       </c>
       <c r="L2" s="2">
-        <v>0.98089961043097618</v>
+        <v>0.97294806800969846</v>
       </c>
       <c r="M2" s="2">
-        <v>0.99419710437208608</v>
+        <v>0.99312022183013082</v>
       </c>
       <c r="N2" s="2">
-        <v>5.8500368087475212E-2</v>
+        <v>5.8708349964144334E-2</v>
       </c>
       <c r="O2" s="2">
-        <v>0.13751140197573994</v>
+        <v>0.16365027549747219</v>
       </c>
       <c r="P2" s="2">
-        <v>7.5794898717755591E-2</v>
+        <v>8.2528664039656183E-2</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.9608725866423513E-2</v>
+        <v>1.9607843138263741E-2</v>
       </c>
       <c r="R2" s="2">
-        <v>2.6577712286619641E-2</v>
+        <v>2.6549236112445213E-2</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.5150917218084955E-3</v>
+        <v>2.5187632818234077E-3</v>
       </c>
       <c r="B3" s="2">
-        <v>6.8420743061638548E-2</v>
+        <v>6.8831324853419681E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>9.9919481514801317E-2</v>
+        <v>9.9974585701027421E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>1041012019.8025222</v>
+        <v>1041012019.7963969</v>
       </c>
       <c r="E3" s="2">
-        <v>19.19905848943559</v>
+        <v>19.199057782624216</v>
       </c>
       <c r="F3" s="2">
-        <v>68.746258055837359</v>
+        <v>68.746266970956583</v>
       </c>
       <c r="G3" s="2">
-        <v>0.60206471914450987</v>
+        <v>0.60195391607972648</v>
       </c>
       <c r="H3" s="2">
-        <v>1.3162386949168365E-2</v>
+        <v>1.3554373795349711E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>2.9701056386062662E-7</v>
+        <v>1.8592919601092178E-4</v>
       </c>
       <c r="J3" s="2">
-        <v>6.9695614230316312E-9</v>
+        <v>2.8977858246021342E-8</v>
       </c>
       <c r="K3" s="2">
-        <v>0.99165914719180515</v>
+        <v>0.99165914719301107</v>
       </c>
       <c r="L3" s="2">
-        <v>0.98342962178459059</v>
+        <v>0.98341885734021683</v>
       </c>
       <c r="M3" s="2">
-        <v>0.99356881462323687</v>
+        <v>0.99354923826659625</v>
       </c>
       <c r="N3" s="2">
-        <v>9.0870480796092098E-2</v>
+        <v>9.0870480789523103E-2</v>
       </c>
       <c r="O3" s="2">
-        <v>0.12808073404402126</v>
+        <v>0.12812232917483732</v>
       </c>
       <c r="P3" s="2">
-        <v>7.9792690912110151E-2</v>
+        <v>7.9914042045623468E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>2.0655159578091005E-2</v>
+        <v>2.0762247073926928E-2</v>
       </c>
       <c r="R3" s="2">
-        <v>2.6542201148823823E-2</v>
+        <v>2.6530005734012874E-2</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>5.3762528274266495E-3</v>
+        <v>3.8069722426232336E-3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.28353888576952746</v>
+        <v>0.18523094004241433</v>
       </c>
       <c r="C4" s="2">
-        <v>2.6315791785633313E-2</v>
+        <v>2.6318056725626454E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>86596842.841015711</v>
+        <v>96657727.729502618</v>
       </c>
       <c r="E4" s="2">
-        <v>30.913689726992203</v>
+        <v>31.026684917817725</v>
       </c>
       <c r="F4" s="2">
-        <v>58.032491918073021</v>
+        <v>59.368951390179589</v>
       </c>
       <c r="G4" s="2">
-        <v>1.0000054897723946E-8</v>
+        <v>1.0000000075770199E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>0.19489217419388372</v>
+        <v>0.10090365131518088</v>
       </c>
       <c r="I4" s="2">
-        <v>1.5781641433140845E-7</v>
+        <v>2.8046324163883419E-13</v>
       </c>
       <c r="J4" s="2">
-        <v>9.9999999999661453E-3</v>
+        <v>9.9999999999640272E-3</v>
       </c>
       <c r="K4" s="2">
-        <v>0.99355664494107587</v>
+        <v>0.99344509117279267</v>
       </c>
       <c r="L4" s="2">
-        <v>0.93629390894292164</v>
+        <v>0.91661952744682262</v>
       </c>
       <c r="M4" s="2">
-        <v>0.93686960382096918</v>
+        <v>0.88432615982790008</v>
       </c>
       <c r="N4" s="2">
-        <v>7.9868150775730701E-2</v>
+        <v>8.0556562357980574E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>0.25113548165583355</v>
+        <v>0.287309359102076</v>
       </c>
       <c r="P4" s="2">
-        <v>0.24999818442788838</v>
+        <v>0.33840375555005137</v>
       </c>
       <c r="Q4" s="2">
-        <v>1.9607843137278452E-2</v>
+        <v>1.9607843137974972E-2</v>
       </c>
       <c r="R4" s="2">
-        <v>2.6896859532853503E-2</v>
+        <v>2.6647497481135117E-2</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>5.2633828822758588E-3</v>
+        <v>8.7698902232442831E-3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.46763865279280215</v>
+        <v>0.86399580511486929</v>
       </c>
       <c r="C5" s="2">
-        <v>9.8159086554318709E-2</v>
+        <v>9.995881077473788E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>1103368290.1447656</v>
+        <v>1082559483.0567219</v>
       </c>
       <c r="E5" s="2">
-        <v>12.198015708622073</v>
+        <v>12.230932328550869</v>
       </c>
       <c r="F5" s="2">
-        <v>70.613225370925008</v>
+        <v>70.551362167693284</v>
       </c>
       <c r="G5" s="2">
-        <v>0.58519336522215837</v>
+        <v>0.56959627414767056</v>
       </c>
       <c r="H5" s="2">
-        <v>0.28961327237140227</v>
+        <v>0.60703740666618455</v>
       </c>
       <c r="I5" s="2">
-        <v>1.0641221838503477E-3</v>
+        <v>2.1880786865386929E-6</v>
       </c>
       <c r="J5" s="2">
-        <v>1.0084863790427543E-4</v>
+        <v>6.7874104622766673E-3</v>
       </c>
       <c r="K5" s="2">
-        <v>0.99461538917933912</v>
+        <v>0.99461185579455313</v>
       </c>
       <c r="L5" s="2">
-        <v>0.97097659833260552</v>
+        <v>0.97388629316479802</v>
       </c>
       <c r="M5" s="2">
-        <v>0.98146415872607196</v>
+        <v>0.97501087959352273</v>
       </c>
       <c r="N5" s="2">
-        <v>7.3012086071104015E-2</v>
+        <v>7.3036037429425077E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>0.16950860642079654</v>
+        <v>0.16078734330428476</v>
       </c>
       <c r="P5" s="2">
-        <v>0.1354639541028857</v>
+        <v>0.15728709165857338</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.0492690390827111E-2</v>
+        <v>2.0709893300277678E-2</v>
       </c>
       <c r="R5" s="2">
-        <v>2.6871171299631819E-2</v>
+        <v>2.7405600634281477E-2</v>
       </c>
       <c r="T5">
         <f>0.0001</f>
@@ -7983,12 +7983,10 @@
         <v>35</v>
       </c>
       <c r="Z5">
-        <f>0.00000001</f>
-        <v>1E-8</v>
+        <v>0.01</v>
       </c>
       <c r="AA5">
-        <f>0.00000001</f>
-        <v>1E-8</v>
+        <v>0.01</v>
       </c>
       <c r="AB5">
         <f>0.00000000000001</f>
@@ -8009,58 +8007,58 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>8.9000001796523294E-3</v>
+        <v>7.3264351026778645E-3</v>
       </c>
       <c r="B6" s="2">
-        <v>0.31124701694013229</v>
+        <v>0.24643861541745188</v>
       </c>
       <c r="C6" s="2">
-        <v>2.631578954300581E-2</v>
+        <v>2.6315889911913106E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>98184377.42764622</v>
+        <v>109078677.38140464</v>
       </c>
       <c r="E6" s="2">
-        <v>23.117265872845241</v>
+        <v>23.19693052034668</v>
       </c>
       <c r="F6" s="2">
-        <v>54.503896415532829</v>
+        <v>55.748231681964143</v>
       </c>
       <c r="G6" s="2">
-        <v>2.5048537685972825E-8</v>
+        <v>1.0000018886960196E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>0.12760821953460458</v>
+        <v>8.3637230584619873E-2</v>
       </c>
       <c r="I6" s="2">
-        <v>3.3713746761796656E-14</v>
+        <v>4.603846508116658E-7</v>
       </c>
       <c r="J6" s="2">
-        <v>9.999999999976656E-3</v>
+        <v>9.9999999990016877E-3</v>
       </c>
       <c r="K6" s="2">
-        <v>0.995632606519402</v>
+        <v>0.99557530586700138</v>
       </c>
       <c r="L6" s="2">
-        <v>0.98684403444459123</v>
+        <v>0.98326944414323225</v>
       </c>
       <c r="M6" s="2">
-        <v>0.98980638844998814</v>
+        <v>0.9832443088179541</v>
       </c>
       <c r="N6" s="2">
-        <v>6.5754996356109957E-2</v>
+        <v>6.6184946866101421E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>0.11412451927545925</v>
+        <v>0.12869829174546227</v>
       </c>
       <c r="P6" s="2">
-        <v>0.1004573314124549</v>
+        <v>0.12879493107349146</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.9607843166250361E-2</v>
+        <v>1.9607843178885108E-2</v>
       </c>
       <c r="R6" s="2">
-        <v>2.673958765293119E-2</v>
+        <v>2.6623949238280369E-2</v>
       </c>
       <c r="T6">
         <v>0.08</v>
@@ -8084,10 +8082,10 @@
         <v>1E+100</v>
       </c>
       <c r="Z6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>0.01</v>
@@ -8106,674 +8104,674 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>7.8104063053251026E-3</v>
+        <v>7.8106083261215891E-3</v>
       </c>
       <c r="B7" s="2">
-        <v>5.8711767021941051E-2</v>
+        <v>5.869961277407737E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>3.543964728375152E-2</v>
+        <v>3.5455462328748362E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>869498093.87442935</v>
+        <v>869498099.03153777</v>
       </c>
       <c r="E7" s="2">
-        <v>39.085223327586924</v>
+        <v>39.085223331083384</v>
       </c>
       <c r="F7" s="2">
-        <v>54.559074477882291</v>
+        <v>54.559074628585712</v>
       </c>
       <c r="G7" s="2">
-        <v>0.80289228249175082</v>
+        <v>0.80285495997640921</v>
       </c>
       <c r="H7" s="2">
-        <v>4.7854248498612514E-2</v>
+        <v>4.7834282713436441E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>9.9999986481246975E-3</v>
+        <v>9.999999998044606E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>2.4603233390046519E-10</v>
+        <v>3.37909909116856E-14</v>
       </c>
       <c r="K7" s="2">
-        <v>0.99705613162044915</v>
+        <v>0.99705613162078521</v>
       </c>
       <c r="L7" s="2">
-        <v>0.99612595656099368</v>
+        <v>0.99612598591023427</v>
       </c>
       <c r="M7" s="2">
-        <v>0.9962224675360567</v>
+        <v>0.99622230889038665</v>
       </c>
       <c r="N7" s="2">
-        <v>5.3985458187879524E-2</v>
+        <v>5.3985458184798663E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>6.1929823224487417E-2</v>
+        <v>6.1929588637969039E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>6.1153553774935428E-2</v>
+        <v>6.1154837899525014E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>2.1219783761821043E-2</v>
+        <v>2.1256907874162789E-2</v>
       </c>
       <c r="R7" s="2">
-        <v>2.6547519541939579E-2</v>
+        <v>2.6538930104340355E-2</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1.0293977888170207E-2</v>
+        <v>1.0293787161300128E-2</v>
       </c>
       <c r="B8" s="2">
-        <v>6.2547230470345092E-2</v>
+        <v>6.2543215632686569E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>9.9999997394403309E-2</v>
+        <v>9.9999999454831554E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>1105943837.1576962</v>
+        <v>1105943839.9999909</v>
       </c>
       <c r="E8" s="2">
-        <v>34.224737105350428</v>
+        <v>34.224737576936299</v>
       </c>
       <c r="F8" s="2">
-        <v>62.585373087947318</v>
+        <v>62.585372843992985</v>
       </c>
       <c r="G8" s="2">
-        <v>0.66678525636758301</v>
+        <v>0.66635472008517105</v>
       </c>
       <c r="H8" s="2">
-        <v>7.9059354392826436E-2</v>
+        <v>7.9144405473099394E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>5.0899272976990542E-7</v>
+        <v>3.4630397152366507E-9</v>
       </c>
       <c r="J8" s="2">
-        <v>2.0085230956227377E-8</v>
+        <v>8.553147623255936E-11</v>
       </c>
       <c r="K8" s="2">
-        <v>0.99748717120289465</v>
+        <v>0.99748717120450758</v>
       </c>
       <c r="L8" s="2">
-        <v>0.99501466113717596</v>
+        <v>0.99501459696272554</v>
       </c>
       <c r="M8" s="2">
-        <v>0.99238547744077443</v>
+        <v>0.99238595144909525</v>
       </c>
       <c r="N8" s="2">
-        <v>4.9879347470318032E-2</v>
+        <v>4.9879347454309449E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>7.0256523341985691E-2</v>
+        <v>7.0256975533841526E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>8.6828170813152195E-2</v>
+        <v>8.6825468219807758E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>2.0609537938434234E-2</v>
+        <v>2.1040263260226788E-2</v>
       </c>
       <c r="R8" s="2">
-        <v>2.6714034551213846E-2</v>
+        <v>2.6618504668151705E-2</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2.5521490650557456E-2</v>
+        <v>3.895568585440214E-3</v>
       </c>
       <c r="B9" s="2">
-        <v>3.417715349211504</v>
+        <v>0.38617223945573631</v>
       </c>
       <c r="C9" s="2">
-        <v>5.2458562678055182E-2</v>
+        <v>9.9999999999977801E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>489736763.11978352</v>
+        <v>489079715.7061702</v>
       </c>
       <c r="E9" s="2">
-        <v>29.439042175107609</v>
+        <v>29.434333457740525</v>
       </c>
       <c r="F9" s="2">
-        <v>66.768414906688562</v>
+        <v>66.762303612276114</v>
       </c>
       <c r="G9" s="2">
-        <v>5.7674886716178216E-2</v>
+        <v>7.9001729104433732E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>9.9656548726176819</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="I9" s="2">
-        <v>4.6822527483963297E-3</v>
+        <v>3.22176319993991E-14</v>
       </c>
       <c r="J9" s="2">
-        <v>9.6097395522457985E-3</v>
+        <v>9.9987983014998855E-3</v>
       </c>
       <c r="K9" s="2">
-        <v>0.99576792146742721</v>
+        <v>0.99576792723484286</v>
       </c>
       <c r="L9" s="2">
-        <v>0.93833622632773017</v>
+        <v>0.9246492770850635</v>
       </c>
       <c r="M9" s="2">
-        <v>0.97355014251882899</v>
+        <v>0.95852967094049868</v>
       </c>
       <c r="N9" s="2">
-        <v>6.4728338054109727E-2</v>
+        <v>6.4728293948671162E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>0.24707718618995786</v>
+        <v>0.27312490857808475</v>
       </c>
       <c r="P9" s="2">
-        <v>0.1618189077529549</v>
+        <v>0.20262187880114618</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.9839079069671032E-2</v>
+        <v>1.9939613420300348E-2</v>
       </c>
       <c r="R9" s="2">
-        <v>2.7391887592862471E-2</v>
+        <v>2.8011204481770458E-2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>3.146457105211109E-3</v>
+        <v>3.0912767097399747E-3</v>
       </c>
       <c r="B10" s="2">
-        <v>0.30767357664672129</v>
+        <v>0.27786428949928771</v>
       </c>
       <c r="C10" s="2">
-        <v>7.9583445150516172E-2</v>
+        <v>9.9970729895002844E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>61731100.736689009</v>
+        <v>61762617.799501352</v>
       </c>
       <c r="E10" s="2">
-        <v>37.500782638502137</v>
+        <v>37.503376682768554</v>
       </c>
       <c r="F10" s="2">
-        <v>39.883935665374395</v>
+        <v>39.887875194800991</v>
       </c>
       <c r="G10" s="2">
-        <v>2.9511046557444614E-2</v>
+        <v>2.96468843504391E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>0.27047908843108182</v>
+        <v>0.24161039050374877</v>
       </c>
       <c r="I10" s="2">
-        <v>4.8746249878534728E-3</v>
+        <v>8.8736851322044502E-5</v>
       </c>
       <c r="J10" s="2">
-        <v>1.395798534112733E-3</v>
+        <v>6.1827917279074843E-5</v>
       </c>
       <c r="K10" s="2">
-        <v>0.99451203358238027</v>
+        <v>0.99451206993489205</v>
       </c>
       <c r="L10" s="2">
-        <v>0.98442477385521798</v>
+        <v>0.98430273911189758</v>
       </c>
       <c r="M10" s="2">
-        <v>0.99115715378663338</v>
+        <v>0.99124092134438857</v>
       </c>
       <c r="N10" s="2">
-        <v>7.3709475330133459E-2</v>
+        <v>7.3709231202454359E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>0.12417517418282223</v>
+        <v>0.12466069259883569</v>
       </c>
       <c r="P10" s="2">
-        <v>9.356504556314281E-2</v>
+        <v>9.3120824035525379E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.9711737929038364E-2</v>
+        <v>1.9675462070291562E-2</v>
       </c>
       <c r="R10" s="2">
-        <v>2.6756523344968534E-2</v>
+        <v>2.6872708758745849E-2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8.6133116110997613E-3</v>
+        <v>8.5966173476283748E-3</v>
       </c>
       <c r="B11" s="2">
-        <v>7.5490511028491469E-2</v>
+        <v>7.5576964837486896E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>4.1286898867914264E-2</v>
+        <v>4.083205714724527E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>110376839.87821494</v>
+        <v>110535997.81545092</v>
       </c>
       <c r="E11" s="2">
-        <v>18.842232094206679</v>
+        <v>18.843475719718683</v>
       </c>
       <c r="F11" s="2">
-        <v>71.952100802675602</v>
+        <v>71.952028245861996</v>
       </c>
       <c r="G11" s="2">
-        <v>0.61663893787010804</v>
+        <v>0.61767771816427552</v>
       </c>
       <c r="H11" s="2">
-        <v>9.8010561447073249E-2</v>
+        <v>9.8468690080231028E-2</v>
       </c>
       <c r="I11" s="2">
-        <v>1.3985244766235262E-4</v>
+        <v>5.3488146179637036E-10</v>
       </c>
       <c r="J11" s="2">
-        <v>3.4615726410125156E-9</v>
+        <v>5.4600006759997276E-11</v>
       </c>
       <c r="K11" s="2">
-        <v>0.98377972734109542</v>
+        <v>0.98377993628833738</v>
       </c>
       <c r="L11" s="2">
-        <v>0.98268498828409034</v>
+        <v>0.98268618915063599</v>
       </c>
       <c r="M11" s="2">
-        <v>0.98190495840619718</v>
+        <v>0.98190427074829167</v>
       </c>
       <c r="N11" s="2">
-        <v>0.12672044007308195</v>
+        <v>0.12671962387312385</v>
       </c>
       <c r="O11" s="2">
-        <v>0.13092693228954302</v>
+        <v>0.13092239205296552</v>
       </c>
       <c r="P11" s="2">
-        <v>0.13384353244690153</v>
+        <v>0.13384607562118209</v>
       </c>
       <c r="Q11" s="2">
-        <v>2.1265776496996937E-2</v>
+        <v>2.1225779808462727E-2</v>
       </c>
       <c r="R11" s="2">
-        <v>2.6659677306561914E-2</v>
+        <v>2.6593503204189375E-2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>7.9998621646789378E-2</v>
+        <v>2.484422966876763E-2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.1312262426398703</v>
+        <v>0.548688174495364</v>
       </c>
       <c r="C12" s="2">
-        <v>3.3565295393196776E-2</v>
+        <v>9.9999999999454886E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>1451043698.7152901</v>
+        <v>1451043699.9426327</v>
       </c>
       <c r="E12" s="2">
-        <v>12.000000000081066</v>
+        <v>12.000000000136014</v>
       </c>
       <c r="F12" s="2">
-        <v>77.207645232726918</v>
+        <v>77.205567009344776</v>
       </c>
       <c r="G12" s="2">
-        <v>0.44746338058923973</v>
+        <v>0.50226857233473965</v>
       </c>
       <c r="H12" s="2">
-        <v>4.2189544038400131</v>
+        <v>0.99999999999997524</v>
       </c>
       <c r="I12" s="2">
-        <v>1.0445275917702612E-3</v>
+        <v>7.1581570957742841E-8</v>
       </c>
       <c r="J12" s="2">
-        <v>4.2707190817022586E-14</v>
+        <v>2.2367537042701757E-10</v>
       </c>
       <c r="K12" s="2">
-        <v>0.96577834202883539</v>
+        <v>0.96577830725755187</v>
       </c>
       <c r="L12" s="2">
-        <v>0.93034953850650604</v>
+        <v>0.92024514422278103</v>
       </c>
       <c r="M12" s="2">
-        <v>0.9871713206559789</v>
+        <v>0.98066981225722893</v>
       </c>
       <c r="N12" s="2">
-        <v>0.1840636884109762</v>
+        <v>0.18406378192089728</v>
       </c>
       <c r="O12" s="2">
-        <v>0.26259085452193304</v>
+        <v>0.28099342913927139</v>
       </c>
       <c r="P12" s="2">
-        <v>0.11269601834395418</v>
+        <v>0.13833613362149241</v>
       </c>
       <c r="Q12" s="2">
-        <v>2.0460765142843514E-2</v>
+        <v>2.0819631505320322E-2</v>
       </c>
       <c r="R12" s="2">
-        <v>2.798323054501933E-2</v>
+        <v>2.801120448177051E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>5.3785052731830461E-3</v>
+        <v>5.3544805483668996E-3</v>
       </c>
       <c r="B13" s="2">
-        <v>2.6738923838399504E-2</v>
+        <v>2.6088655451939755E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>9.9999999999977537E-2</v>
+        <v>9.9999999999976122E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>216470048.14877984</v>
+        <v>245215568.69201437</v>
       </c>
       <c r="E13" s="2">
-        <v>28.433727230396499</v>
+        <v>28.493957329015188</v>
       </c>
       <c r="F13" s="2">
-        <v>54.906064887553164</v>
+        <v>56.471391752168415</v>
       </c>
       <c r="G13" s="2">
-        <v>3.2756574456477034E-4</v>
+        <v>1.0000034065928785E-2</v>
       </c>
       <c r="H13" s="2">
-        <v>1.9699840230101226E-2</v>
+        <v>1.7334773413134628E-2</v>
       </c>
       <c r="I13" s="2">
-        <v>3.2218515143462973E-14</v>
+        <v>3.3331101907621433E-14</v>
       </c>
       <c r="J13" s="2">
-        <v>9.9999999999769631E-3</v>
+        <v>9.9999999999757522E-3</v>
       </c>
       <c r="K13" s="2">
-        <v>0.99860127036337543</v>
+        <v>0.99859935377952802</v>
       </c>
       <c r="L13" s="2">
-        <v>0.99478661481358055</v>
+        <v>0.99482873884190126</v>
       </c>
       <c r="M13" s="2">
-        <v>0.98959205188990085</v>
+        <v>0.99009993549429876</v>
       </c>
       <c r="N13" s="2">
-        <v>3.7212126252853521E-2</v>
+        <v>3.7237612145078626E-2</v>
       </c>
       <c r="O13" s="2">
-        <v>7.184184946502474E-2</v>
+        <v>7.1551020583341687E-2</v>
       </c>
       <c r="P13" s="2">
-        <v>0.1015079732286986</v>
+        <v>9.90003225279808E-2</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.9609087170804188E-2</v>
+        <v>1.9607843278592513E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>2.6532400155956409E-2</v>
+        <v>2.6534500435993966E-2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>3.7811522215408897E-3</v>
+        <v>3.7611854946927692E-3</v>
       </c>
       <c r="B14" s="2">
-        <v>2.3975951449874546E-2</v>
+        <v>2.5565931022230447E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>3.7648713267753244E-2</v>
+        <v>3.5321231229687819E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>2505929597.0853271</v>
+        <v>2505455714.6952477</v>
       </c>
       <c r="E14" s="2">
-        <v>33.023920788383059</v>
+        <v>33.023716670948112</v>
       </c>
       <c r="F14" s="2">
-        <v>59.464307434542782</v>
+        <v>59.464318160760158</v>
       </c>
       <c r="G14" s="2">
-        <v>0.73367388393967248</v>
+        <v>0.73350512826641245</v>
       </c>
       <c r="H14" s="2">
-        <v>7.8385779505851828E-3</v>
+        <v>1.4414486891105648E-2</v>
       </c>
       <c r="I14" s="2">
-        <v>9.9999866391353946E-3</v>
+        <v>9.9327927916984752E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>4.7372018157425733E-12</v>
+        <v>1.3208270856694955E-4</v>
       </c>
       <c r="K14" s="2">
-        <v>0.99716413840400764</v>
+        <v>0.99716412180665903</v>
       </c>
       <c r="L14" s="2">
-        <v>0.99336359824611264</v>
+        <v>0.99332643771301776</v>
       </c>
       <c r="M14" s="2">
-        <v>0.99192791876802611</v>
+        <v>0.99212247336633141</v>
       </c>
       <c r="N14" s="2">
-        <v>5.2985875287971357E-2</v>
+        <v>5.2986030342039983E-2</v>
       </c>
       <c r="O14" s="2">
-        <v>8.1055769297123478E-2</v>
+        <v>8.1282388400639324E-2</v>
       </c>
       <c r="P14" s="2">
-        <v>8.9394409331088304E-2</v>
+        <v>8.831053938988187E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>2.1234380756629898E-2</v>
+        <v>2.1273982818421418E-2</v>
       </c>
       <c r="R14" s="2">
-        <v>2.652705700243119E-2</v>
+        <v>2.6532383197032189E-2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>5.733412868772542E-3</v>
+        <v>5.1199478980145652E-3</v>
       </c>
       <c r="B15" s="2">
-        <v>4.4777155572905403E-2</v>
+        <v>4.7267980561571388E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>8.5142842438287111E-2</v>
+        <v>6.2905539435138727E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>218002613.50193721</v>
+        <v>246228258.5315257</v>
       </c>
       <c r="E15" s="2">
-        <v>17.966340175817113</v>
+        <v>18.180706790665628</v>
       </c>
       <c r="F15" s="2">
-        <v>65.908559158253198</v>
+        <v>67.337308865104603</v>
       </c>
       <c r="G15" s="2">
-        <v>1.0000042249550875E-8</v>
+        <v>1.0000000000039561E-2</v>
       </c>
       <c r="H15" s="2">
-        <v>6.2919062710599565E-3</v>
+        <v>1.0743085172171422E-2</v>
       </c>
       <c r="I15" s="2">
-        <v>3.4289203051887389E-11</v>
+        <v>3.9290826589744681E-14</v>
       </c>
       <c r="J15" s="2">
-        <v>9.9999958653245423E-3</v>
+        <v>9.9999999975049127E-3</v>
       </c>
       <c r="K15" s="2">
-        <v>0.99870449586169496</v>
+        <v>0.99864701909399545</v>
       </c>
       <c r="L15" s="2">
-        <v>0.98769404147713824</v>
+        <v>0.98413426305868923</v>
       </c>
       <c r="M15" s="2">
-        <v>0.99309265476941699</v>
+        <v>0.99348792197162894</v>
       </c>
       <c r="N15" s="2">
-        <v>3.5812694633635289E-2</v>
+        <v>3.6598512223100878E-2</v>
       </c>
       <c r="O15" s="2">
-        <v>0.11037617015295072</v>
+        <v>0.12532788824478638</v>
       </c>
       <c r="P15" s="2">
-        <v>8.2693843654029875E-2</v>
+        <v>8.0292946440439633E-2</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.9607843137297149E-2</v>
+        <v>1.960784313729446E-2</v>
       </c>
       <c r="R15" s="2">
-        <v>2.6528384440147008E-2</v>
+        <v>2.6526016201373685E-2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>5.2165143665999902E-3</v>
+        <v>2.6357140665028162E-3</v>
       </c>
       <c r="B16" s="2">
-        <v>0.58116457014490119</v>
+        <v>0.22097747374057819</v>
       </c>
       <c r="C16" s="2">
-        <v>9.8639936921224136E-2</v>
+        <v>9.9999999999976386E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>1520028310.508136</v>
+        <v>1520030069.0057569</v>
       </c>
       <c r="E16" s="2">
-        <v>42.233909335383906</v>
+        <v>42.233840979344066</v>
       </c>
       <c r="F16" s="2">
-        <v>67.258477067235617</v>
+        <v>67.258455347920034</v>
       </c>
       <c r="G16" s="2">
-        <v>0.65224422154978035</v>
+        <v>0.65485030604715355</v>
       </c>
       <c r="H16" s="2">
-        <v>2.9445381858027808</v>
+        <v>0.99999999999995892</v>
       </c>
       <c r="I16" s="2">
-        <v>1.2114734400216535E-4</v>
+        <v>3.2205104626606272E-14</v>
       </c>
       <c r="J16" s="2">
-        <v>1.7466018319122646E-7</v>
+        <v>3.2469114290095237E-14</v>
       </c>
       <c r="K16" s="2">
-        <v>0.99372489864384794</v>
+        <v>0.99372489872940917</v>
       </c>
       <c r="L16" s="2">
-        <v>0.96467753514876009</v>
+        <v>0.96158848696192278</v>
       </c>
       <c r="M16" s="2">
-        <v>0.91329113989406796</v>
+        <v>0.93221528541603726</v>
       </c>
       <c r="N16" s="2">
-        <v>7.8818464477497449E-2</v>
+        <v>7.881846394015124E-2</v>
       </c>
       <c r="O16" s="2">
-        <v>0.18700064225217924</v>
+        <v>0.19500614838434299</v>
       </c>
       <c r="P16" s="2">
-        <v>0.29298766442441349</v>
+        <v>0.25904993232603452</v>
       </c>
       <c r="Q16" s="2">
-        <v>2.1276009206649304E-2</v>
+        <v>2.1252851843615587E-2</v>
       </c>
       <c r="R16" s="2">
-        <v>2.7041107086627207E-2</v>
+        <v>2.8011204481770476E-2</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>8.6066060331552955E-3</v>
+        <v>6.7948149305836654E-3</v>
       </c>
       <c r="B17" s="2">
-        <v>0.16008235012557337</v>
+        <v>0.168014430025443</v>
       </c>
       <c r="C17" s="2">
-        <v>9.9339087276265128E-2</v>
+        <v>2.6316124966346988E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>57131236.229517505</v>
+        <v>63316808.052846134</v>
       </c>
       <c r="E17" s="2">
-        <v>32.736381824141198</v>
+        <v>32.821068749902935</v>
       </c>
       <c r="F17" s="2">
-        <v>55.183442677006219</v>
+        <v>56.40340088678083</v>
       </c>
       <c r="G17" s="2">
-        <v>9.3204360810517093E-8</v>
+        <v>1.0000012081835695E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>4.6292385710475975E-2</v>
+        <v>5.1687544118648891E-2</v>
       </c>
       <c r="I17" s="2">
-        <v>5.5963149063981782E-13</v>
+        <v>4.4727504173871706E-10</v>
       </c>
       <c r="J17" s="2">
-        <v>9.9042611482077596E-3</v>
+        <v>9.9999875984612494E-3</v>
       </c>
       <c r="K17" s="2">
-        <v>0.99616058103576866</v>
+        <v>0.99612548610314</v>
       </c>
       <c r="L17" s="2">
-        <v>0.98170981704693761</v>
+        <v>0.97570643760554632</v>
       </c>
       <c r="M17" s="2">
-        <v>0.9951918161648281</v>
+        <v>0.99468610933668</v>
       </c>
       <c r="N17" s="2">
-        <v>6.1652451488882459E-2</v>
+        <v>6.193358344138826E-2</v>
       </c>
       <c r="O17" s="2">
-        <v>0.13456329783240231</v>
+        <v>0.15508264496876856</v>
       </c>
       <c r="P17" s="2">
-        <v>6.8993492423707725E-2</v>
+        <v>7.253103995315939E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.9607851016459839E-2</v>
+        <v>1.9607843157620135E-2</v>
       </c>
       <c r="R17" s="2">
-        <v>2.6583396901367802E-2</v>
+        <v>2.6583961549957996E-2</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2.3825085307432405E-2</v>
+        <v>2.2362757669413497E-2</v>
       </c>
       <c r="B18" s="2">
-        <v>0.4868769103206117</v>
+        <v>0.44317941837882197</v>
       </c>
       <c r="C18" s="2">
-        <v>9.9999899886540525E-2</v>
+        <v>9.9997538266905939E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>1719077230.4604545</v>
+        <v>1831633444.395858</v>
       </c>
       <c r="E18" s="2">
-        <v>13.702998564284247</v>
+        <v>13.761915608029204</v>
       </c>
       <c r="F18" s="2">
-        <v>72.555247982805568</v>
+        <v>72.559171492127277</v>
       </c>
       <c r="G18" s="2">
-        <v>0.51501016025399993</v>
+        <v>0.55582267615613101</v>
       </c>
       <c r="H18" s="2">
-        <v>0.31446067020291762</v>
+        <v>0.27845077781799188</v>
       </c>
       <c r="I18" s="2">
-        <v>2.6497694029687907E-5</v>
+        <v>9.5769108440663419E-10</v>
       </c>
       <c r="J18" s="2">
-        <v>1.8250572295691101E-4</v>
+        <v>5.931258553957223E-3</v>
       </c>
       <c r="K18" s="2">
-        <v>0.99526522827522435</v>
+        <v>0.99527498280796078</v>
       </c>
       <c r="L18" s="2">
-        <v>0.96728956190212578</v>
+        <v>0.96689731351638464</v>
       </c>
       <c r="M18" s="2">
-        <v>0.99004082044259878</v>
+        <v>0.99058588898251099</v>
       </c>
       <c r="N18" s="2">
-        <v>6.8464764715347251E-2</v>
+        <v>6.8394203117799895E-2</v>
       </c>
       <c r="O18" s="2">
-        <v>0.17995369881415477</v>
+        <v>0.18102944406581828</v>
       </c>
       <c r="P18" s="2">
-        <v>9.9295456904267068E-2</v>
+        <v>9.6539991233240516E-2</v>
       </c>
       <c r="Q18" s="2">
-        <v>2.1120254939138508E-2</v>
+        <v>2.1036571785094701E-2</v>
       </c>
       <c r="R18" s="2">
-        <v>2.677546499569956E-2</v>
+        <v>2.6867372780509297E-2</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -8781,223 +8779,223 @@
         <v>7.9999999999977797E-2</v>
       </c>
       <c r="B19" s="2">
-        <v>8.9660203498313579E-2</v>
+        <v>8.966010563456564E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>2.6315789473706417E-2</v>
+        <v>2.6315789473706708E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>50540648.358700573</v>
+        <v>50540652.538597472</v>
       </c>
       <c r="E19" s="2">
-        <v>25.91398305976729</v>
+        <v>25.913858634253469</v>
       </c>
       <c r="F19" s="2">
-        <v>62.398234066853576</v>
+        <v>62.398474319054834</v>
       </c>
       <c r="G19" s="2">
-        <v>0.60832421319523755</v>
+        <v>0.60844375324832323</v>
       </c>
       <c r="H19" s="2">
-        <v>2.7316030758319766E-2</v>
+        <v>2.7337576462009381E-2</v>
       </c>
       <c r="I19" s="2">
-        <v>3.2229931290132734E-14</v>
+        <v>3.220446049250329E-14</v>
       </c>
       <c r="J19" s="2">
-        <v>3.220511957324058E-14</v>
+        <v>3.2638565114095641E-14</v>
       </c>
       <c r="K19" s="2">
-        <v>0.98245588834946462</v>
+        <v>0.98245617229471505</v>
       </c>
       <c r="L19" s="2">
-        <v>0.93131688102757759</v>
+        <v>0.9313162494548981</v>
       </c>
       <c r="M19" s="2">
-        <v>0.93501999229245869</v>
+        <v>0.93501958607585667</v>
       </c>
       <c r="N19" s="2">
-        <v>0.13179025204479272</v>
+        <v>0.13178918555113725</v>
       </c>
       <c r="O19" s="2">
-        <v>0.26076097825920619</v>
+        <v>0.26076217716465488</v>
       </c>
       <c r="P19" s="2">
-        <v>0.25363400330094915</v>
+        <v>0.25363479608464984</v>
       </c>
       <c r="Q19" s="2">
-        <v>2.1222426286284703E-2</v>
+        <v>2.110165987808248E-2</v>
       </c>
       <c r="R19" s="2">
-        <v>2.6568225637508797E-2</v>
+        <v>2.6546559914688576E-2</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1.0760566128758033E-2</v>
+        <v>1.0759029324079272E-2</v>
       </c>
       <c r="B20" s="2">
-        <v>0.10810136923207164</v>
+        <v>0.10806440153231296</v>
       </c>
       <c r="C20" s="2">
-        <v>9.9999999990512817E-2</v>
+        <v>9.9999999999865849E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>1442195496.1246281</v>
+        <v>1442195507.9818859</v>
       </c>
       <c r="E20" s="2">
-        <v>21.071901191010653</v>
+        <v>21.071899069677666</v>
       </c>
       <c r="F20" s="2">
-        <v>66.224947910183658</v>
+        <v>66.224948294347939</v>
       </c>
       <c r="G20" s="2">
-        <v>0.64179913127875132</v>
+        <v>0.64161205898035911</v>
       </c>
       <c r="H20" s="2">
-        <v>0.1195542193137312</v>
+        <v>0.11940514825193088</v>
       </c>
       <c r="I20" s="2">
-        <v>1.001442476453742E-9</v>
+        <v>2.843330400548159E-12</v>
       </c>
       <c r="J20" s="2">
-        <v>9.9992167257435018E-3</v>
+        <v>9.9999988405638767E-3</v>
       </c>
       <c r="K20" s="2">
-        <v>0.99428979846547727</v>
+        <v>0.99428979830560293</v>
       </c>
       <c r="L20" s="2">
-        <v>0.99141974525984633</v>
+        <v>0.99141732978265473</v>
       </c>
       <c r="M20" s="2">
-        <v>0.99018690753118732</v>
+        <v>0.99019570580954175</v>
       </c>
       <c r="N20" s="2">
-        <v>7.5187096759866429E-2</v>
+        <v>7.5187097812411327E-2</v>
       </c>
       <c r="O20" s="2">
-        <v>9.2165352452817859E-2</v>
+        <v>9.2178324540923715E-2</v>
       </c>
       <c r="P20" s="2">
-        <v>9.8564504483736548E-2</v>
+        <v>9.8520308812719781E-2</v>
       </c>
       <c r="Q20" s="2">
-        <v>2.0784713283118691E-2</v>
+        <v>2.0973295676043606E-2</v>
       </c>
       <c r="R20" s="2">
-        <v>2.6593421852223683E-2</v>
+        <v>2.6672789715633204E-2</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>7.6944322146647853E-3</v>
+        <v>7.6944337044300348E-3</v>
       </c>
       <c r="B21" s="2">
-        <v>0.18642571809378297</v>
+        <v>0.18642578593065726</v>
       </c>
       <c r="C21" s="2">
-        <v>9.9999999999977593E-2</v>
+        <v>9.9999999999977801E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>2066749147.1669409</v>
+        <v>2066751694.6130178</v>
       </c>
       <c r="E21" s="2">
-        <v>15.152081001230075</v>
+        <v>15.152082157970085</v>
       </c>
       <c r="F21" s="2">
-        <v>69.229555840732246</v>
+        <v>69.229555886375422</v>
       </c>
       <c r="G21" s="2">
-        <v>0.62044499916990414</v>
+        <v>0.62015468114133709</v>
       </c>
       <c r="H21" s="2">
-        <v>0.1447969226843194</v>
+        <v>0.14492588275622542</v>
       </c>
       <c r="I21" s="2">
-        <v>3.2204898710353411E-14</v>
+        <v>3.2204559023339198E-14</v>
       </c>
       <c r="J21" s="2">
-        <v>9.9999993926586754E-3</v>
+        <v>9.999999999789979E-3</v>
       </c>
       <c r="K21" s="2">
-        <v>0.9894380131515057</v>
+        <v>0.98943801322145664</v>
       </c>
       <c r="L21" s="2">
-        <v>0.98056065158178418</v>
+        <v>0.98056065706875795</v>
       </c>
       <c r="M21" s="2">
-        <v>0.98156151094688882</v>
+        <v>0.98156150579240986</v>
       </c>
       <c r="N21" s="2">
-        <v>0.10225637867639044</v>
+        <v>0.10225637833777387</v>
       </c>
       <c r="O21" s="2">
-        <v>0.13872618690800109</v>
+        <v>0.13872616732949003</v>
       </c>
       <c r="P21" s="2">
-        <v>0.1351077501943542</v>
+        <v>0.13510776907903643</v>
       </c>
       <c r="Q21" s="2">
-        <v>2.0934129971447942E-2</v>
+        <v>2.122528494333693E-2</v>
       </c>
       <c r="R21" s="2">
-        <v>2.6807441557686947E-2</v>
+        <v>2.6678562379358721E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>6.7424239870017616E-3</v>
+        <v>6.7398310494739926E-3</v>
       </c>
       <c r="B22" s="2">
-        <v>0.22304305297682125</v>
+        <v>0.22290286373119217</v>
       </c>
       <c r="C22" s="2">
-        <v>9.9998601617137084E-2</v>
+        <v>9.9999999791558727E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>1070399379.5138259</v>
+        <v>1070399379.9948366</v>
       </c>
       <c r="E22" s="2">
-        <v>15.623216818777985</v>
+        <v>15.623289739233876</v>
       </c>
       <c r="F22" s="2">
-        <v>75.124014324750945</v>
+        <v>75.123932398316541</v>
       </c>
       <c r="G22" s="2">
-        <v>0.54387845927072231</v>
+        <v>0.54377409760023998</v>
       </c>
       <c r="H22" s="2">
-        <v>0.18267324308497107</v>
+        <v>0.18253535474546018</v>
       </c>
       <c r="I22" s="2">
-        <v>7.888151888538791E-7</v>
+        <v>8.2559360702717407E-8</v>
       </c>
       <c r="J22" s="2">
-        <v>4.182288630781361E-7</v>
+        <v>2.7534271388347482E-7</v>
       </c>
       <c r="K22" s="2">
-        <v>0.99162805449586033</v>
+        <v>0.99162805440929291</v>
       </c>
       <c r="L22" s="2">
-        <v>0.93842985926322897</v>
+        <v>0.93842197202228206</v>
       </c>
       <c r="M22" s="2">
-        <v>0.99211803884111582</v>
+        <v>0.9921309821534936</v>
       </c>
       <c r="N22" s="2">
-        <v>9.1039694908859492E-2</v>
+        <v>9.1039695379543054E-2</v>
       </c>
       <c r="O22" s="2">
-        <v>0.24688952859407243</v>
+        <v>0.24690534157433841</v>
       </c>
       <c r="P22" s="2">
-        <v>8.8335392382076133E-2</v>
+        <v>8.8262832880218509E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>2.0575461872008087E-2</v>
+        <v>2.0682745671593006E-2</v>
       </c>
       <c r="R22" s="2">
-        <v>2.6748083524552567E-2</v>
+        <v>2.6719952401461845E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -9061,7 +9059,7 @@
       </c>
       <c r="AD23" t="str">
         <f t="shared" ref="AD23:AE44" si="1">_xlfn.IFS(ABS(Q1-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q1-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AE23" t="str">
         <f t="shared" si="1"/>
@@ -9074,27 +9072,27 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>2.3173268963984188E-3</v>
+        <v>2.1001291329547363E-3</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>6.5132119631182801E-3</v>
+        <v>6.6344325228484607E-3</v>
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(A$7:A$12,A$17:A$19)</f>
-        <v>2.7535106283079838E-2</v>
+        <v>1.8632184488774763E-2</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>5.0273961825241173E-3</v>
+        <v>4.217832001894262E-3</v>
       </c>
       <c r="F24" s="2">
         <f>A$20</f>
-        <v>1.0760566128758033E-2</v>
+        <v>1.0759029324079272E-2</v>
       </c>
       <c r="G24" s="2">
         <f>AVERAGE(A$21:A$22)</f>
-        <v>7.218428100833273E-3</v>
+        <v>7.2171323769520141E-3</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" ref="N24:N44" si="2">_xlfn.IFS(ABS(A2-T$5)&lt;=0.01*T$5,"Lower",ABS(A2-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
@@ -9106,7 +9104,7 @@
       </c>
       <c r="P24" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="0"/>
@@ -9122,7 +9120,7 @@
       </c>
       <c r="T24" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="0"/>
@@ -9134,7 +9132,7 @@
       </c>
       <c r="W24" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD24" t="str">
         <f t="shared" si="1"/>
@@ -9148,24 +9146,24 @@
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>1.4110540454517E-4</v>
+        <v>2.2725967521505301E-4</v>
       </c>
       <c r="C25" s="2">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>1.1938388220454957E-3</v>
+        <v>1.4738599434207719E-3</v>
       </c>
       <c r="D25" s="2">
         <f>STDEV(A$7:A$12,A$17:A$19)/SQRT(COUNT(A$7:A$12,A$17:A$19))</f>
-        <v>1.0219978638120604E-2</v>
+        <v>8.0834831872766671E-3</v>
       </c>
       <c r="E25" s="2">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>4.2920729768569356E-4</v>
+        <v>6.3360122857742784E-4</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f>STDEV(A$21:A$22)/SQRT(COUNT(A$21:A$22))</f>
-        <v>4.7600411383151179E-4</v>
+        <v>4.7730132747802112E-4</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
@@ -9263,7 +9261,7 @@
       </c>
       <c r="AE26" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -9295,7 +9293,7 @@
       </c>
       <c r="P27" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="0"/>
@@ -9327,7 +9325,7 @@
       </c>
       <c r="AD27" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AE27" t="str">
         <f t="shared" si="1"/>
@@ -9340,27 +9338,27 @@
       </c>
       <c r="C28" s="2">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>9.2535545750464687E-2</v>
+        <v>9.2818145298093388E-2</v>
       </c>
       <c r="D28" s="2">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>0.3541415185008206</v>
+        <v>0.43188845352491184</v>
       </c>
       <c r="E28" s="2">
         <f>AVERAGE(B$7:B$12,B$17:B$19)</f>
-        <v>0.75444268232926348</v>
+        <v>0.2344887167481633</v>
       </c>
       <c r="F28" s="2">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>0.16916415025152015</v>
+        <v>7.9975010194079946E-2</v>
       </c>
       <c r="G28" s="2">
         <f>B$20</f>
-        <v>0.10810136923207164</v>
+        <v>0.10806440153231296</v>
       </c>
       <c r="H28" s="2">
         <f>AVERAGE(B$21:B$22)</f>
-        <v>0.2047343855353021</v>
+        <v>0.20466432483092473</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
@@ -9388,7 +9386,7 @@
       </c>
       <c r="T28" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="0"/>
@@ -9414,24 +9412,24 @@
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>1.2057455739979463E-2</v>
+        <v>1.1993739194087553E-2</v>
       </c>
       <c r="D29" s="2">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>5.7309495294150879E-2</v>
+        <v>0.21677497345924515</v>
       </c>
       <c r="E29" s="2">
         <f>STDEV(B$7:B$12,B$17:B$19)/SQRT(COUNT(B$7:B$12,B$17:B$19))</f>
-        <v>0.39928208436858398</v>
+        <v>6.2168745082076066E-2</v>
       </c>
       <c r="F29" s="2">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>0.13741088889033834</v>
+        <v>4.7271848244390062E-2</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
         <f>STDEV(B$21:B$22)/SQRT(COUNT(B$21:B$22))</f>
-        <v>1.8308667441519141E-2</v>
+        <v>1.8238538900267456E-2</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
@@ -9525,7 +9523,7 @@
       </c>
       <c r="AD30" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AE30" t="str">
         <f t="shared" si="1"/>
@@ -9561,7 +9559,7 @@
       </c>
       <c r="P31" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="0"/>
@@ -9589,7 +9587,7 @@
       </c>
       <c r="W31" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD31" t="str">
         <f t="shared" si="1"/>
@@ -9597,7 +9595,7 @@
       </c>
       <c r="AE31" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -9606,27 +9604,27 @@
       </c>
       <c r="D32" s="2">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>7.384890314233869E-2</v>
+        <v>5.0868748663837837E-2</v>
       </c>
       <c r="E32" s="2">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>5.0263555960985945E-2</v>
+        <v>5.0864252470759146E-2</v>
       </c>
       <c r="F32" s="2">
         <f>AVERAGE(C$7:C$12,C$17:C$19)</f>
-        <v>6.3109847044927683E-2</v>
+        <v>6.9876411281357811E-2</v>
       </c>
       <c r="G32" s="2">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>8.0357873156810505E-2</v>
+        <v>7.455669266619476E-2</v>
       </c>
       <c r="H32" s="2">
         <f>C$20</f>
-        <v>9.9999999990512817E-2</v>
+        <v>9.9999999999865849E-2</v>
       </c>
       <c r="I32" s="2">
         <f>AVERAGE(C$21:C$22)</f>
-        <v>9.9999300808557345E-2</v>
+        <v>9.9999999895768271E-2</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="2"/>
@@ -9638,7 +9636,7 @@
       </c>
       <c r="P32" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="0"/>
@@ -9674,30 +9672,30 @@
       </c>
       <c r="AE32" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="33" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>2.3803754511435734E-2</v>
+        <v>2.4552918518606016E-2</v>
       </c>
       <c r="E33" s="2">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>2.3947765296666392E-2</v>
+        <v>2.4547279159958829E-2</v>
       </c>
       <c r="F33" s="2">
         <f>STDEV(C$7:C$12,C$17:C$19)/SQRT(COUNT(C$7:C$12,C$17:C$19))</f>
-        <v>1.0466686942143609E-2</v>
+        <v>1.1994584780844628E-2</v>
       </c>
       <c r="G33" s="2">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>1.4625933793160245E-2</v>
+        <v>1.573185351950963E-2</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2">
         <f>STDEV(C$21:C$22)/SQRT(COUNT(C$21:C$22))</f>
-        <v>6.9919142025448567E-7</v>
+        <v>1.0420953683309997E-10</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
@@ -9751,16 +9749,16 @@
     <row r="34" spans="4:31" x14ac:dyDescent="0.25">
       <c r="N34" t="str">
         <f t="shared" si="2"/>
+        <v>Ok</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="0"/>
         <v>Upper</v>
       </c>
-      <c r="O34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
       <c r="Q34" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
@@ -9779,7 +9777,7 @@
       </c>
       <c r="U34" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="0"/>
@@ -9791,7 +9789,7 @@
       </c>
       <c r="AD34" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AE34" t="str">
         <f t="shared" si="1"/>
@@ -9843,7 +9841,7 @@
       </c>
       <c r="T35" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="0"/>
@@ -9872,27 +9870,27 @@
       </c>
       <c r="E36" s="2">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>632008997.85957575</v>
+        <v>633622671.09765995</v>
       </c>
       <c r="F36" s="2">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>429383170.13780922</v>
+        <v>429431962.72254306</v>
       </c>
       <c r="G36" s="2">
         <f>AVERAGE(D$7:D$12,D$17:D$19)</f>
-        <v>657231049.83675289</v>
+        <v>670372763.92028725</v>
       </c>
       <c r="H36" s="2">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>1115107642.3110452</v>
+        <v>1129232402.7311361</v>
       </c>
       <c r="I36" s="2">
         <f>D$20</f>
-        <v>1442195496.1246281</v>
+        <v>1442195507.9818859</v>
       </c>
       <c r="J36" s="2">
         <f>AVERAGE(D$21:D$22)</f>
-        <v>1568574263.3403835</v>
+        <v>1568575537.3039272</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
@@ -9946,24 +9944,24 @@
     <row r="37" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>304779407.73467177</v>
+        <v>303200885.06844538</v>
       </c>
       <c r="F37" s="2">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>337009161.21699256</v>
+        <v>326583444.34512126</v>
       </c>
       <c r="G37" s="2">
         <f>STDEV(D$7:D$12,D$17:D$19)/SQRT(COUNT(D$7:D$12,D$17:D$19))</f>
-        <v>217752834.47134462</v>
+        <v>225362239.38108262</v>
       </c>
       <c r="H37" s="2">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>556079536.85988617</v>
+        <v>548322859.71993709</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2">
         <f>STDEV(D$21:D$22)/SQRT(COUNT(D$21:D$22))</f>
-        <v>498174883.8265568</v>
+        <v>498176157.30909073</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="2"/>
@@ -10025,7 +10023,7 @@
       </c>
       <c r="P38" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="0"/>
@@ -10045,7 +10043,7 @@
       </c>
       <c r="U38" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="0"/>
@@ -10061,7 +10059,7 @@
       </c>
       <c r="AE38" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
     </row>
     <row r="39" spans="4:31" x14ac:dyDescent="0.25">
@@ -10093,7 +10091,7 @@
       </c>
       <c r="P39" t="str">
         <f t="shared" ref="P39:P44" si="4">_xlfn.IFS(ABS(C17-V$5)&lt;=0.01*V$5,"Lower",ABS(C17-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
-        <v>Upper</v>
+        <v>Lower</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" ref="Q39:Q44" si="5">_xlfn.IFS(ABS(D17-W$5)&lt;=0.01*W$5,"Lower",ABS(D17-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
@@ -10109,7 +10107,7 @@
       </c>
       <c r="T39" t="str">
         <f t="shared" ref="T39:T44" si="8">_xlfn.IFS(ABS(G17-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G17-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" ref="U39:U44" si="9">_xlfn.IFS(ABS(H17-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H17-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
@@ -10138,27 +10136,27 @@
       </c>
       <c r="F40" s="2">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>20.569031590712743</v>
+        <v>20.597155249553094</v>
       </c>
       <c r="G40" s="2">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>22.076323769486507</v>
+        <v>22.151515922238428</v>
       </c>
       <c r="H40" s="2">
         <f>AVERAGE(E$7:E$12,E$17:E$19)</f>
-        <v>27.049486754336399</v>
+        <v>27.065332195618783</v>
       </c>
       <c r="I40" s="2">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>30.414474382495143</v>
+        <v>30.483055442493249</v>
       </c>
       <c r="J40" s="2">
         <f>E$20</f>
-        <v>21.071901191010653</v>
+        <v>21.071899069677666</v>
       </c>
       <c r="K40" s="2">
         <f>AVERAGE(E$21:E$22)</f>
-        <v>15.38764891000403</v>
+        <v>15.38768594860198</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
@@ -10202,34 +10200,34 @@
       </c>
       <c r="AD40" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AE40" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="41" spans="4:31" x14ac:dyDescent="0.25">
       <c r="F41" s="2">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.6353604324085522</v>
+        <v>1.6192973300627467</v>
       </c>
       <c r="G41" s="2">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>5.4277614734308957</v>
+        <v>5.4509860762583191</v>
       </c>
       <c r="H41" s="2">
         <f>STDEV(E$7:E$12,E$17:E$19)/SQRT(COUNT(E$7:E$12,E$17:E$19))</f>
-        <v>3.3683323128668317</v>
+        <v>3.3671168297151262</v>
       </c>
       <c r="I41" s="2">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>5.0446973617418731</v>
+        <v>4.9986682715416162</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
         <f>STDEV(E$21:E$22)/SQRT(COUNT(E$21:E$22))</f>
-        <v>0.23556790877395525</v>
+        <v>0.23560379063189529</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
@@ -10391,11 +10389,11 @@
       </c>
       <c r="AD43" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AE43" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
     </row>
     <row r="44" spans="4:31" x14ac:dyDescent="0.25">
@@ -10404,27 +10402,27 @@
       </c>
       <c r="G44" s="2">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>62.929200798475335</v>
+        <v>63.472995846278707</v>
       </c>
       <c r="H44" s="2">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>61.049871234843614</v>
+        <v>61.889515079945674</v>
       </c>
       <c r="I44" s="2">
         <f>AVERAGE(F$7:F$12,F$17:F$19)</f>
-        <v>62.565940988884485</v>
+        <v>62.701474248091728</v>
       </c>
       <c r="J44" s="2">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>61.88435213689619</v>
+        <v>62.632868531488306</v>
       </c>
       <c r="K44" s="2">
         <f>F$20</f>
-        <v>66.224947910183658</v>
+        <v>66.224948294347939</v>
       </c>
       <c r="L44" s="2">
         <f>AVERAGE(F$21:F$22)</f>
-        <v>72.176785082741588</v>
+        <v>72.176744142345981</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
@@ -10468,7 +10466,7 @@
       </c>
       <c r="AD44" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AE44" t="str">
         <f t="shared" si="1"/>
@@ -10478,24 +10476,24 @@
     <row r="45" spans="4:31" x14ac:dyDescent="0.25">
       <c r="G45" s="2">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>3.0934409159415974</v>
+        <v>2.7002248058917107</v>
       </c>
       <c r="H45" s="2">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>4.888968988250177</v>
+        <v>4.455262769280341</v>
       </c>
       <c r="I45" s="2">
         <f>STDEV(F$7:F$12,F$17:F$19)/SQRT(COUNT(F$7:F$12,F$17:F$19))</f>
-        <v>3.824336547084958</v>
+        <v>3.7935178192878136</v>
       </c>
       <c r="J45" s="2">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>2.8813852312930881</v>
+        <v>2.7618128074817472</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2">
         <f>STDEV(F$21:F$22)/SQRT(COUNT(F$21:F$22))</f>
-        <v>2.9472292420093491</v>
+        <v>2.9471882559705587</v>
       </c>
       <c r="N45" t="s">
         <v>6</v>
@@ -10578,50 +10576,50 @@
       </c>
       <c r="H48" s="2">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>0.43030529517923882</v>
+        <v>0.43346035797148019</v>
       </c>
       <c r="I48" s="2">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>0.19506446675691699</v>
+        <v>0.196532097703467</v>
       </c>
       <c r="J48" s="2">
         <f>AVERAGE(G$7:G$12,G$17:G$19)</f>
-        <v>0.41603336191621143</v>
+        <v>0.43023011394463978</v>
       </c>
       <c r="K48" s="2">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>0.34656142030851494</v>
+        <v>0.35208886709488357</v>
       </c>
       <c r="L48" s="2">
         <f>G$20</f>
-        <v>0.64179913127875132</v>
+        <v>0.64161205898035911</v>
       </c>
       <c r="M48" s="2">
         <f>AVERAGE(G$21:G$22)</f>
-        <v>0.58216172922031317</v>
+        <v>0.58196438937078854</v>
       </c>
     </row>
     <row r="49" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H49" s="2">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>0.21660481975386786</v>
+        <v>0.21319663172543957</v>
       </c>
       <c r="I49" s="2">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.19506444923262076</v>
+        <v>0.18653208822210188</v>
       </c>
       <c r="J49" s="2">
         <f>STDEV(G$7:G$12,G$17:G$19)/SQRT(COUNT(G$7:G$12,G$17:G$19))</f>
-        <v>0.10216020479600753</v>
+        <v>0.10157683756220913</v>
       </c>
       <c r="K49" s="2">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.20068232101892192</v>
+        <v>0.19815659125126756</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2">
         <f>STDEV(G$21:G$22)/SQRT(COUNT(G$21:G$22))</f>
-        <v>3.8283269949590908E-2</v>
+        <v>3.8190291770548557E-2</v>
       </c>
     </row>
     <row r="51" spans="8:26" x14ac:dyDescent="0.25">
@@ -10650,50 +10648,50 @@
       </c>
       <c r="I52" s="2">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>3.6340015217690251E-2</v>
+        <v>3.6286411899082473E-2</v>
       </c>
       <c r="J52" s="2">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>0.20403788869996353</v>
+        <v>0.26385942952199509</v>
       </c>
       <c r="K52" s="2">
         <f>AVERAGE(H$7:H$12,H$17:H$19)</f>
-        <v>1.6742312906554444</v>
+        <v>0.31383707412990214</v>
       </c>
       <c r="L52" s="2">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>0.7445921275636318</v>
+        <v>0.26062308636909265</v>
       </c>
       <c r="M52" s="2">
         <f>H$20</f>
-        <v>0.1195542193137312</v>
+        <v>0.11940514825193088</v>
       </c>
       <c r="N52" s="2">
         <f>AVERAGE(H$21:H$22)</f>
-        <v>0.16373508288464522</v>
+        <v>0.1637306187508428</v>
       </c>
     </row>
     <row r="53" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I53" s="2">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>1.6672231507992838E-2</v>
+        <v>1.663669593057689E-2</v>
       </c>
       <c r="J53" s="2">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>4.6989865419873371E-2</v>
+        <v>0.17166136754163663</v>
       </c>
       <c r="K53" s="2">
         <f>STDEV(H$7:H$12,H$17:H$19)/SQRT(COUNT(H$7:H$12,H$17:H$19))</f>
-        <v>1.1308765015832429</v>
+        <v>0.13287076105558546</v>
       </c>
       <c r="L53" s="2">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>0.7333214675380374</v>
+        <v>0.24646265996534966</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2">
         <f>STDEV(H$21:H$22)/SQRT(COUNT(H$21:H$22))</f>
-        <v>1.8938160200325939E-2</v>
+        <v>1.8804735994617402E-2</v>
       </c>
     </row>
     <row r="55" spans="8:26" x14ac:dyDescent="0.25">
@@ -10722,50 +10720,50 @@
       </c>
       <c r="J56" s="2">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>3.3334323368655015E-3</v>
+        <v>3.3953097177711229E-3</v>
       </c>
       <c r="K56" s="2">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>3.547600000994643E-4</v>
+        <v>8.8282120593786674E-7</v>
       </c>
       <c r="L56" s="2">
         <f>AVERAGE(I$7:I$12,I$17:I$19)</f>
-        <v>2.3075847901287152E-3</v>
+        <v>1.1209793148765927E-3</v>
       </c>
       <c r="M56" s="2">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>2.5302835043647456E-3</v>
+        <v>2.4831981979508257E-3</v>
       </c>
       <c r="N56" s="2">
         <f>I$20</f>
-        <v>1.001442476453742E-9</v>
+        <v>2.843330400548159E-12</v>
       </c>
       <c r="O56" s="2">
         <f>AVERAGE(I$21:I$22)</f>
-        <v>3.9440761052938893E-7</v>
+        <v>4.1279696453638215E-8</v>
       </c>
     </row>
     <row r="57" spans="8:26" x14ac:dyDescent="0.25">
       <c r="J57" s="2">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>3.3332838326588514E-3</v>
+        <v>3.3027812666634468E-3</v>
       </c>
       <c r="K57" s="2">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>3.5468109480131071E-4</v>
+        <v>6.6602333795786044E-7</v>
       </c>
       <c r="L57" s="2">
         <f>STDEV(I$7:I$12,I$17:I$19)/SQRT(COUNT(I$7:I$12,I$17:I$19))</f>
-        <v>1.1718468534149583E-3</v>
+        <v>1.1099206839491158E-3</v>
       </c>
       <c r="M57" s="2">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>2.4900647751280795E-3</v>
+        <v>2.4831981979158832E-3</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2">
         <f>STDEV(I$21:I$22)/SQRT(COUNT(I$21:I$22))</f>
-        <v>3.9440757832449011E-7</v>
+        <v>4.1279664249079192E-8</v>
       </c>
     </row>
     <row r="59" spans="8:26" x14ac:dyDescent="0.25">
@@ -10794,50 +10792,50 @@
       </c>
       <c r="K60" s="2">
         <f>AVERAGE(J$1:J$3)</f>
-        <v>3.2650559954686166E-3</v>
+        <v>3.3333430095271155E-3</v>
       </c>
       <c r="L60" s="2">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>6.7002828792823597E-3</v>
+        <v>8.929136820414128E-3</v>
       </c>
       <c r="M60" s="2">
         <f>AVERAGE(J$7:J$12,J$17:J$19)</f>
-        <v>2.3435920833815606E-3</v>
+        <v>2.8879858594523015E-3</v>
       </c>
       <c r="N60" s="2">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>5.0000426325554747E-3</v>
+        <v>5.0330206765200215E-3</v>
       </c>
       <c r="O60" s="2">
         <f>J$20</f>
-        <v>9.9992167257435018E-3</v>
+        <v>9.9999988405638767E-3</v>
       </c>
       <c r="P60" s="2">
         <f>AVERAGE(J$21:J$22)</f>
-        <v>5.0002088107608767E-3</v>
+        <v>5.0001376712519316E-3</v>
       </c>
     </row>
     <row r="61" spans="8:26" x14ac:dyDescent="0.25">
       <c r="K61" s="2">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
-        <v>3.2650525106723968E-3</v>
+        <v>3.3333284952352165E-3</v>
       </c>
       <c r="L61" s="2">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>3.299717120689041E-3</v>
+        <v>1.0708631790687299E-3</v>
       </c>
       <c r="M61" s="2">
         <f>STDEV(J$7:J$12,J$17:J$19)/SQRT(COUNT(J$7:J$12,J$17:J$19))</f>
-        <v>1.4092513298116012E-3</v>
+        <v>1.491155448940396E-3</v>
       </c>
       <c r="N61" s="2">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>2.8867255386663773E-3</v>
+        <v>2.8678135874797761E-3</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2">
         <f>STDEV(J$21:J$22)/SQRT(COUNT(J$21:J$22))</f>
-        <v>4.9997905818977978E-3</v>
+        <v>4.9998623285380465E-3</v>
       </c>
     </row>
     <row r="63" spans="8:26" x14ac:dyDescent="0.25">
@@ -10866,27 +10864,27 @@
       </c>
       <c r="L64" s="3">
         <f>AVERAGE(K$1:K$3)</f>
-        <v>0.9932352089703107</v>
+        <v>0.99322700086671922</v>
       </c>
       <c r="M64" s="3">
         <f>AVERAGE(K$4:K$6)</f>
-        <v>0.99460154687993896</v>
+        <v>0.9945440842781158</v>
       </c>
       <c r="N64" s="3">
         <f>AVERAGE(K$7:K$12,K$17:K$19)</f>
-        <v>0.98980700276706002</v>
+        <v>0.98980424274963696</v>
       </c>
       <c r="O64" s="3">
         <f>AVERAGE(K$13:K$16)</f>
-        <v>0.99704870081823149</v>
+        <v>0.99703384835239794</v>
       </c>
       <c r="P64" s="3">
         <f>K$20</f>
-        <v>0.99428979846547727</v>
+        <v>0.99428979830560293</v>
       </c>
       <c r="Q64" s="3">
         <f>AVERAGE(K$21:K$22)</f>
-        <v>0.99053303382368307</v>
+        <v>0.99053303381537483</v>
       </c>
       <c r="U64" t="str">
         <f>_xlfn.CONCAT(ROUND(L64,2), " ± ", L65)</f>
@@ -10957,27 +10955,27 @@
       </c>
       <c r="M68" s="3">
         <f>AVERAGE(L$1:L$3)</f>
-        <v>0.98300514614760737</v>
+        <v>0.98035097498913748</v>
       </c>
       <c r="N68">
         <f>AVERAGE(L$4:L$6)</f>
-        <v>0.96470484724003958</v>
+        <v>0.9579250882516176</v>
       </c>
       <c r="O68">
         <f>AVERAGE(L$7:L$12,L$17:L$19)</f>
-        <v>0.96747248940537267</v>
+        <v>0.96410488144668505</v>
       </c>
       <c r="P68">
         <f>AVERAGE(L$13:L$16)</f>
-        <v>0.98513044742139777</v>
+        <v>0.9834694816438827</v>
       </c>
       <c r="Q68">
         <f>L$20</f>
-        <v>0.99141974525984633</v>
+        <v>0.99141732978265473</v>
       </c>
       <c r="R68">
         <f>AVERAGE(L$21:L$22)</f>
-        <v>0.95949525542250658</v>
+        <v>0.95949131454551995</v>
       </c>
       <c r="V68" t="str">
         <f>_xlfn.CONCAT(ROUND(M68,2), " ± ", M69)</f>
@@ -10989,11 +10987,11 @@
       </c>
       <c r="X68" t="str">
         <f t="shared" ref="X68" si="14">_xlfn.CONCAT(ROUND(O68,2), " ± ", O69)</f>
-        <v>0.97 ± 9.00E-03</v>
+        <v>0.96 ± 9.00E-03</v>
       </c>
       <c r="Y68" t="str">
         <f t="shared" ref="Y68" si="15">_xlfn.CONCAT(ROUND(P68,2), " ± ", P69)</f>
-        <v>0.99 ± 6.99E-03</v>
+        <v>0.98 ± 6.99E-03</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" ref="Z68" si="16">_xlfn.CONCAT(ROUND(Q68,2), " ± ", Q69)</f>
@@ -11048,27 +11046,27 @@
       </c>
       <c r="N72">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.98559997593529081</v>
+        <v>0.98523464208513778</v>
       </c>
       <c r="O72">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.9693800503323432</v>
+        <v>0.94752711607979234</v>
       </c>
       <c r="P72">
         <f>AVERAGE(M$7:M$12,M$17:M$19)</f>
-        <v>0.98251601658270615</v>
+        <v>0.98013828000277081</v>
       </c>
       <c r="Q72">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.97197594133035303</v>
+        <v>0.97698140406207412</v>
       </c>
       <c r="R72">
         <f>M$20</f>
-        <v>0.99018690753118732</v>
+        <v>0.99019570580954175</v>
       </c>
       <c r="S72">
         <f>AVERAGE(M$21:M$22)</f>
-        <v>0.98683977489400232</v>
+        <v>0.98684624397295173</v>
       </c>
       <c r="W72" t="str">
         <f>_xlfn.CONCAT(ROUND(N72,2), " ± ", N73)</f>
@@ -11076,7 +11074,7 @@
       </c>
       <c r="X72" t="str">
         <f t="shared" ref="X72" si="18">_xlfn.CONCAT(ROUND(O72,2), " ± ", O73)</f>
-        <v>0.97 ± 1.64E-02</v>
+        <v>0.95 ± 1.64E-02</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" ref="Y72" si="19">_xlfn.CONCAT(ROUND(P72,2), " ± ", P73)</f>
@@ -11084,7 +11082,7 @@
       </c>
       <c r="Z72" t="str">
         <f t="shared" ref="Z72" si="20">_xlfn.CONCAT(ROUND(Q72,2), " ± ", Q73)</f>
-        <v>0.97 ± 1.96E-02</v>
+        <v>0.98 ± 1.96E-02</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" ref="AA72" si="21">_xlfn.CONCAT(ROUND(R72,2), " ± ", R73)</f>
@@ -11139,27 +11137,27 @@
       </c>
       <c r="O76">
         <f>AVERAGE(N$1:N$3)</f>
-        <v>8.0362041918497926E-2</v>
+        <v>8.043137062544925E-2</v>
       </c>
       <c r="P76">
         <f>AVERAGE(N$4:N$6)</f>
-        <v>7.2878411067648224E-2</v>
+        <v>7.3259182217835686E-2</v>
       </c>
       <c r="Q76">
         <f>AVERAGE(N$7:N$12,N$17:N$19)</f>
-        <v>9.0554912863946804E-2</v>
+        <v>9.057807874384223E-2</v>
       </c>
       <c r="R76">
         <f>AVERAGE(N$13:N$16)</f>
-        <v>5.1207290162989402E-2</v>
+        <v>5.1410154662592682E-2</v>
       </c>
       <c r="S76">
         <f>N$20</f>
-        <v>7.5187096759866429E-2</v>
+        <v>7.5187097812411327E-2</v>
       </c>
       <c r="T76">
         <f>AVERAGE(N$21:N$22)</f>
-        <v>9.6648036792624958E-2</v>
+        <v>9.664803685865847E-2</v>
       </c>
       <c r="X76" t="str">
         <f>_xlfn.CONCAT(ROUND(O76,2), " ± ", O77)</f>
@@ -11230,43 +11228,43 @@
       </c>
       <c r="P80">
         <f>AVERAGE(O$1:O$3)</f>
-        <v>0.12957358367758393</v>
+        <v>0.13830068343075549</v>
       </c>
       <c r="Q80">
         <f>AVERAGE(O$4:O$6)</f>
-        <v>0.17825620245069648</v>
+        <v>0.1922649980506077</v>
       </c>
       <c r="R80">
         <f>AVERAGE(O$7:O$12,O$17:O$19)</f>
-        <v>0.16358160762849916</v>
+        <v>0.17097358363780107</v>
       </c>
       <c r="S80">
         <f>AVERAGE(O$13:O$16)</f>
-        <v>0.11256860779181954</v>
+        <v>0.11829186140327759</v>
       </c>
       <c r="T80">
         <f>O$20</f>
-        <v>9.2165352452817859E-2</v>
+        <v>9.2178324540923715E-2</v>
       </c>
       <c r="U80">
         <f>AVERAGE(O$21:O$22)</f>
-        <v>0.19280785775103676</v>
+        <v>0.19281575445191423</v>
       </c>
       <c r="Y80" t="str">
         <f>_xlfn.CONCAT(ROUND(P80,2), " ± ", P81)</f>
-        <v>0.13 ± 4.22E-03</v>
+        <v>0.14 ± 4.22E-03</v>
       </c>
       <c r="Z80" t="str">
         <f t="shared" ref="Z80" si="28">_xlfn.CONCAT(ROUND(Q80,2), " ± ", Q81)</f>
-        <v>0.18 ± 3.98E-02</v>
+        <v>0.19 ± 3.98E-02</v>
       </c>
       <c r="AA80" t="str">
         <f t="shared" ref="AA80" si="29">_xlfn.CONCAT(ROUND(R80,2), " ± ", R81)</f>
-        <v>0.16 ± 2.61E-02</v>
+        <v>0.17 ± 2.61E-02</v>
       </c>
       <c r="AB80" t="str">
         <f t="shared" ref="AB80" si="30">_xlfn.CONCAT(ROUND(S80,2), " ± ", S81)</f>
-        <v>0.11 ± 2.61E-02</v>
+        <v>0.12 ± 2.61E-02</v>
       </c>
       <c r="AC80" t="str">
         <f t="shared" ref="AC80" si="31">_xlfn.CONCAT(ROUND(T80,2), " ± ", T81)</f>
@@ -11321,27 +11319,27 @@
       </c>
       <c r="Q84">
         <f>AVERAGE(P$1:P$3)</f>
-        <v>0.11022569489394717</v>
+        <v>0.1125103027172797</v>
       </c>
       <c r="R84">
         <f>AVERAGE(P$4:P$6)</f>
-        <v>0.16197315664774298</v>
+        <v>0.20816192609403875</v>
       </c>
       <c r="S84">
         <f>AVERAGE(P$7:P$12,P$17:P$19)</f>
-        <v>0.11909202014710722</v>
+        <v>0.12651233838552542</v>
       </c>
       <c r="T84">
         <f>AVERAGE(P$13:P$16)</f>
-        <v>0.14164597265955758</v>
+        <v>0.1316634351710842</v>
       </c>
       <c r="U84">
         <f>P$20</f>
-        <v>9.8564504483736548E-2</v>
+        <v>9.8520308812719781E-2</v>
       </c>
       <c r="V84">
         <f>AVERAGE(P$21:P$22)</f>
-        <v>0.11172157128821517</v>
+        <v>0.11168530097962748</v>
       </c>
       <c r="Z84" t="str">
         <f>_xlfn.CONCAT(ROUND(Q84,2), " ± ", Q85)</f>
@@ -11349,15 +11347,15 @@
       </c>
       <c r="AA84" t="str">
         <f t="shared" ref="AA84" si="33">_xlfn.CONCAT(ROUND(R84,2), " ± ", R85)</f>
-        <v>0.16 ± 4.52E-02</v>
+        <v>0.21 ± 4.52E-02</v>
       </c>
       <c r="AB84" t="str">
         <f t="shared" ref="AB84" si="34">_xlfn.CONCAT(ROUND(S84,2), " ± ", S85)</f>
-        <v>0.12 ± 1.98E-02</v>
+        <v>0.13 ± 1.98E-02</v>
       </c>
       <c r="AC84" t="str">
         <f t="shared" ref="AC84" si="35">_xlfn.CONCAT(ROUND(T84,2), " ± ", T85)</f>
-        <v>0.14 ± 5.06E-02</v>
+        <v>0.13 ± 5.06E-02</v>
       </c>
       <c r="AD84" t="str">
         <f t="shared" ref="AD84" si="36">_xlfn.CONCAT(ROUND(U84,2), " ± ", U85)</f>
@@ -11412,50 +11410,50 @@
       </c>
       <c r="R88" s="2">
         <f>AVERAGE(Q$1:Q$3)</f>
-        <v>2.0365681512952261E-2</v>
+        <v>2.0542256242548931E-2</v>
       </c>
       <c r="S88" s="2">
         <f>AVERAGE(Q$4:Q$6)</f>
-        <v>1.9902792231451975E-2</v>
+        <v>1.9975193205712585E-2</v>
       </c>
       <c r="T88" s="2">
         <f>AVERAGE(Q$7:Q$12,Q$17:Q$19)</f>
-        <v>2.0561912508965351E-2</v>
+        <v>2.0633748084395762E-2</v>
       </c>
       <c r="U88" s="2">
         <f>AVERAGE(Q$13:Q$16)</f>
-        <v>2.0431830067845134E-2</v>
+        <v>2.0435630269480996E-2</v>
       </c>
       <c r="V88" s="2">
         <f>Q$20</f>
-        <v>2.0784713283118691E-2</v>
+        <v>2.0973295676043606E-2</v>
       </c>
       <c r="W88" s="2">
         <f>AVERAGE(Q$21:Q$22)</f>
-        <v>2.0754795921728013E-2</v>
+        <v>2.095401530746497E-2</v>
       </c>
     </row>
     <row r="89" spans="16:31" x14ac:dyDescent="0.25">
       <c r="R89" s="2">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
-        <v>3.8194997275177109E-4</v>
+        <v>4.8852209083045353E-4</v>
       </c>
       <c r="S89" s="2">
         <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
-        <v>2.9494907968756836E-4</v>
+        <v>3.6735004728254622E-4</v>
       </c>
       <c r="T89" s="2">
         <f>STDEV(Q$7:Q$12,Q$17:Q$19)/SQRT(COUNT(Q$7:Q$12,Q$17:Q$19))</f>
-        <v>2.310682053692697E-4</v>
+        <v>2.2890018555720107E-4</v>
       </c>
       <c r="U89" s="2">
         <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
-        <v>4.7544596282562859E-4</v>
+        <v>4.7794254676021981E-4</v>
       </c>
       <c r="V89" s="2"/>
       <c r="W89" s="2">
         <f>STDEV(Q$21:Q$22)/SQRT(COUNT(Q$21:Q$22))</f>
-        <v>1.7933404971992757E-4</v>
+        <v>2.7126963587196205E-4</v>
       </c>
     </row>
     <row r="91" spans="16:31" x14ac:dyDescent="0.25">
@@ -11484,76 +11482,76 @@
       </c>
       <c r="S92" s="2">
         <f>AVERAGE(R$1:R$3)</f>
-        <v>2.6578997644427605E-2</v>
+        <v>2.6564180849319923E-2</v>
       </c>
       <c r="T92" s="2">
         <f>AVERAGE(R$4:R$6)</f>
-        <v>2.6835872828472173E-2</v>
+        <v>2.6892349117898989E-2</v>
       </c>
       <c r="U92" s="2">
         <f>AVERAGE(R$7:R$12,R$17:R$19)</f>
-        <v>2.6886662268571313E-2</v>
+        <v>2.6960438882680453E-2</v>
       </c>
       <c r="V92" s="2">
         <f>AVERAGE(R$13:R$16)</f>
-        <v>2.6657237171290454E-2</v>
+        <v>2.690102607904258E-2</v>
       </c>
       <c r="W92" s="2">
         <f>R$20</f>
-        <v>2.6593421852223683E-2</v>
+        <v>2.6672789715633204E-2</v>
       </c>
       <c r="X92" s="2">
         <f>AVERAGE(R$21:R$22)</f>
-        <v>2.6777762541119757E-2</v>
+        <v>2.6699257390410285E-2</v>
       </c>
     </row>
     <row r="93" spans="16:31" x14ac:dyDescent="0.25">
       <c r="S93" s="2">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
-        <v>2.1625069528551808E-5</v>
+        <v>2.5179500739234562E-5</v>
       </c>
       <c r="T93" s="2">
         <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
-        <v>4.8710360305349656E-5</v>
+        <v>2.5671577619167341E-4</v>
       </c>
       <c r="U93" s="2">
         <f>STDEV(R$7:R$12,R$17:R$19)/SQRT(COUNT(R$7:R$12,R$17:R$19))</f>
-        <v>1.614486351023254E-4</v>
+        <v>2.0299274734285723E-4</v>
       </c>
       <c r="V93" s="2">
         <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
-        <v>1.279616788292203E-4</v>
+        <v>3.7006385887008617E-4</v>
       </c>
       <c r="W93" s="2"/>
       <c r="X93" s="2">
         <f>STDEV(R$21:R$22)/SQRT(COUNT(R$21:R$22))</f>
-        <v>2.9679016567189798E-5</v>
+        <v>2.0695011051561837E-5</v>
       </c>
     </row>
     <row r="99" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S99" s="3">
         <f>1/S92</f>
-        <v>37.623691208297089</v>
+        <v>37.644676704781631</v>
       </c>
       <c r="T99" s="3">
         <f t="shared" ref="T99:X99" si="38">1/T92</f>
-        <v>37.263554138586677</v>
+        <v>37.18529740990239</v>
       </c>
       <c r="U99" s="3">
         <f t="shared" si="38"/>
-        <v>37.193162543233647</v>
+        <v>37.091384318762181</v>
       </c>
       <c r="V99" s="3">
         <f t="shared" si="38"/>
-        <v>37.513264918428561</v>
+        <v>37.173303243591015</v>
       </c>
       <c r="W99" s="3">
         <f t="shared" si="38"/>
-        <v>37.603284209037668</v>
+        <v>37.491391439039816</v>
       </c>
       <c r="X99" s="3">
         <f t="shared" si="38"/>
-        <v>37.344419589366609</v>
+        <v>37.454225238458328</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFB8210-0E6A-4AAD-B239-3F2ECBD7AC90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26611F46-756B-4F7A-B2A5-D1E5AC582B35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Old Tableized Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="178">
   <si>
     <t>HK-2</t>
   </si>
@@ -567,96 +568,6 @@
   </si>
   <si>
     <t>1.64E-01 ± 1.89E-02</t>
-  </si>
-  <si>
-    <t>3.94E-07 ± 3.94E-07</t>
-  </si>
-  <si>
-    <t>1.65E-03</t>
-  </si>
-  <si>
-    <t>5.99E-04</t>
-  </si>
-  <si>
-    <t>3.55E-03</t>
-  </si>
-  <si>
-    <t>1.16E-03</t>
-  </si>
-  <si>
-    <t>1.10E-03</t>
-  </si>
-  <si>
-    <t>1.11E-03</t>
-  </si>
-  <si>
-    <t>1.49E-02</t>
-  </si>
-  <si>
-    <t>9.00E-03</t>
-  </si>
-  <si>
-    <t>6.99E-03</t>
-  </si>
-  <si>
-    <t>2.11E-02</t>
-  </si>
-  <si>
-    <t>8.28E-03</t>
-  </si>
-  <si>
-    <t>1.64E-02</t>
-  </si>
-  <si>
-    <t>6.39E-03</t>
-  </si>
-  <si>
-    <t>1.96E-02</t>
-  </si>
-  <si>
-    <t>5.28E-03</t>
-  </si>
-  <si>
-    <t>1.09E-02</t>
-  </si>
-  <si>
-    <t>4.07E-03</t>
-  </si>
-  <si>
-    <t>1.54E-02</t>
-  </si>
-  <si>
-    <t>9.99E-03</t>
-  </si>
-  <si>
-    <t>5.61E-03</t>
-  </si>
-  <si>
-    <t>4.22E-03</t>
-  </si>
-  <si>
-    <t>3.98E-02</t>
-  </si>
-  <si>
-    <t>2.61E-02</t>
-  </si>
-  <si>
-    <t>5.41E-02</t>
-  </si>
-  <si>
-    <t>3.25E-02</t>
-  </si>
-  <si>
-    <t>4.52E-02</t>
-  </si>
-  <si>
-    <t>1.98E-02</t>
-  </si>
-  <si>
-    <t>5.06E-02</t>
-  </si>
-  <si>
-    <t>2.34E-02</t>
   </si>
 </sst>
 </file>
@@ -7334,16 +7245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>676548</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>90896</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>482510</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>502376</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>167096</xdr:rowOff>
+      <xdr:rowOff>40277</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7672,7 +7583,7 @@
   <dimension ref="A1:AK99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="S93" sqref="S93:X93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10888,19 +10799,19 @@
       </c>
       <c r="U64" t="str">
         <f>_xlfn.CONCAT(ROUND(L64,2), " ± ", L65)</f>
-        <v>0.99 ± 1.65E-03</v>
+        <v>0.99 ± 0.00164637145107342</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" ref="V64:Z64" si="12">_xlfn.CONCAT(ROUND(M64,2), " ± ", M65)</f>
-        <v>0.99 ± 5.99E-04</v>
+        <v>0.99 ± 0.000615872929178806</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="12"/>
-        <v>0.99 ± 3.55E-03</v>
+        <v>0.99 ± 0.00354879781997329</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" si="12"/>
-        <v>1 ± 1.16E-03</v>
+        <v>1 ± 0.00115539480497226</v>
       </c>
       <c r="Y64" t="str">
         <f t="shared" si="12"/>
@@ -10908,25 +10819,30 @@
       </c>
       <c r="Z64" t="str">
         <f t="shared" si="12"/>
-        <v>0.99 ± 1.10E-03</v>
+        <v>0.99 ± 0.00109502059391814</v>
       </c>
     </row>
     <row r="65" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="L65" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="4" t="s">
-        <v>183</v>
+      <c r="L65" s="2">
+        <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
+        <v>1.6463714510734249E-3</v>
+      </c>
+      <c r="M65" s="2">
+        <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
+        <v>6.1587292917880557E-4</v>
+      </c>
+      <c r="N65" s="2">
+        <f>STDEV(K$7:K$12,K$17:K$19)/SQRT(COUNT(K$7:K$12,K$17:K$19))</f>
+        <v>3.5487978199732939E-3</v>
+      </c>
+      <c r="O65" s="2">
+        <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
+        <v>1.1553948049722602E-3</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2">
+        <f>STDEV(K$21:K$22)/SQRT(COUNT(K$21:K$22))</f>
+        <v>1.095020593918139E-3</v>
       </c>
     </row>
     <row r="67" spans="12:30" x14ac:dyDescent="0.25">
@@ -10979,19 +10895,19 @@
       </c>
       <c r="V68" t="str">
         <f>_xlfn.CONCAT(ROUND(M68,2), " ± ", M69)</f>
-        <v>0.98 ± 1.11E-03</v>
+        <v>0.98 ± 0.00371948411285703</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" ref="W68" si="13">_xlfn.CONCAT(ROUND(N68,2), " ± ", N69)</f>
-        <v>0.96 ± 1.49E-02</v>
+        <v>0.96 ± 0.0208296495059325</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" ref="X68" si="14">_xlfn.CONCAT(ROUND(O68,2), " ± ", O69)</f>
-        <v>0.96 ± 9.00E-03</v>
+        <v>0.96 ± 0.010159758260436</v>
       </c>
       <c r="Y68" t="str">
         <f t="shared" ref="Y68" si="15">_xlfn.CONCAT(ROUND(P68,2), " ± ", P69)</f>
-        <v>0.98 ± 6.99E-03</v>
+        <v>0.98 ± 0.00766709511288894</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" ref="Z68" si="16">_xlfn.CONCAT(ROUND(Q68,2), " ± ", Q69)</f>
@@ -10999,25 +10915,30 @@
       </c>
       <c r="AA68" t="str">
         <f t="shared" ref="AA68" si="17">_xlfn.CONCAT(ROUND(R68,2), " ± ", R69)</f>
-        <v>0.96 ± 2.11E-02</v>
+        <v>0.96 ± 0.0210693425232379</v>
       </c>
     </row>
     <row r="69" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="M69" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="4" t="s">
-        <v>188</v>
+      <c r="M69" s="2">
+        <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
+        <v>3.7194841128570279E-3</v>
+      </c>
+      <c r="N69" s="2">
+        <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
+        <v>2.0829649505932534E-2</v>
+      </c>
+      <c r="O69" s="2">
+        <f>STDEV(L$7:L$12,L$17:L$19)/SQRT(COUNT(L$7:L$12,L$17:L$19))</f>
+        <v>1.0159758260436006E-2</v>
+      </c>
+      <c r="P69" s="2">
+        <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
+        <v>7.6670951128889392E-3</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2">
+        <f>STDEV(L$21:L$22)/SQRT(COUNT(L$21:L$22))</f>
+        <v>2.106934252323794E-2</v>
       </c>
     </row>
     <row r="71" spans="12:30" x14ac:dyDescent="0.25">
@@ -11070,19 +10991,19 @@
       </c>
       <c r="W72" t="str">
         <f>_xlfn.CONCAT(ROUND(N72,2), " ± ", N73)</f>
-        <v>0.99 ± 8.28E-03</v>
+        <v>0.99 ± 0.0081010346831268</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" ref="X72" si="18">_xlfn.CONCAT(ROUND(O72,2), " ± ", O73)</f>
-        <v>0.95 ± 1.64E-02</v>
+        <v>0.95 ± 0.031689735417869</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" ref="Y72" si="19">_xlfn.CONCAT(ROUND(P72,2), " ± ", P73)</f>
-        <v>0.98 ± 6.39E-03</v>
+        <v>0.98 ± 0.0068300721229364</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" ref="Z72" si="20">_xlfn.CONCAT(ROUND(Q72,2), " ± ", Q73)</f>
-        <v>0.98 ± 1.96E-02</v>
+        <v>0.98 ± 0.0149382572576369</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" ref="AA72" si="21">_xlfn.CONCAT(ROUND(R72,2), " ± ", R73)</f>
@@ -11090,25 +11011,30 @@
       </c>
       <c r="AB72" t="str">
         <f t="shared" ref="AB72" si="22">_xlfn.CONCAT(ROUND(S72,2), " ± ", S73)</f>
-        <v>0.99 ± 5.28E-03</v>
+        <v>0.99 ± 0.00528473818054187</v>
       </c>
     </row>
     <row r="73" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="N73" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="O73" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="P73" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q73" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="R73" s="3"/>
-      <c r="S73" s="4" t="s">
-        <v>193</v>
+      <c r="N73" s="2">
+        <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
+        <v>8.1010346831268017E-3</v>
+      </c>
+      <c r="O73" s="2">
+        <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
+        <v>3.1689735417869021E-2</v>
+      </c>
+      <c r="P73" s="2">
+        <f>STDEV(M$7:M$12,M$17:M$19)/SQRT(COUNT(M$7:M$12,M$17:M$19))</f>
+        <v>6.8300721229363993E-3</v>
+      </c>
+      <c r="Q73" s="2">
+        <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
+        <v>1.4938257257636881E-2</v>
+      </c>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2">
+        <f>STDEV(M$21:M$22)/SQRT(COUNT(M$21:M$22))</f>
+        <v>5.2847381805418703E-3</v>
       </c>
     </row>
     <row r="75" spans="12:30" x14ac:dyDescent="0.25">
@@ -11161,19 +11087,19 @@
       </c>
       <c r="X76" t="str">
         <f>_xlfn.CONCAT(ROUND(O76,2), " ± ", O77)</f>
-        <v>0.08 ± 1.09E-02</v>
+        <v>0.08 ± 0.0108642478170271</v>
       </c>
       <c r="Y76" t="str">
         <f t="shared" ref="Y76" si="23">_xlfn.CONCAT(ROUND(P76,2), " ± ", P77)</f>
-        <v>0.07 ± 4.07E-03</v>
+        <v>0.07 ± 0.00415022803225121</v>
       </c>
       <c r="Z76" t="str">
         <f t="shared" ref="Z76" si="24">_xlfn.CONCAT(ROUND(Q76,2), " ± ", Q77)</f>
-        <v>0.09 ± 1.54E-02</v>
+        <v>0.09 ± 0.0153681447026587</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" ref="AA76" si="25">_xlfn.CONCAT(ROUND(R76,2), " ± ", R77)</f>
-        <v>0.05 ± 9.99E-03</v>
+        <v>0.05 ± 0.00989083967946045</v>
       </c>
       <c r="AB76" t="str">
         <f t="shared" ref="AB76" si="26">_xlfn.CONCAT(ROUND(S76,2), " ± ", S77)</f>
@@ -11181,25 +11107,30 @@
       </c>
       <c r="AC76" t="str">
         <f t="shared" ref="AC76" si="27">_xlfn.CONCAT(ROUND(T76,2), " ± ", T77)</f>
-        <v>0.1 ± 5.61E-03</v>
+        <v>0.1 ± 0.00560834147911541</v>
       </c>
     </row>
     <row r="77" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="O77" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P77" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q77" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R77" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="S77" s="3"/>
-      <c r="T77" s="4" t="s">
-        <v>198</v>
+      <c r="O77" s="2">
+        <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
+        <v>1.0864247817027092E-2</v>
+      </c>
+      <c r="P77" s="2">
+        <f>STDEV(N$4:N$6)/SQRT(COUNT(N$4:N$6))</f>
+        <v>4.1502280322512136E-3</v>
+      </c>
+      <c r="Q77" s="2">
+        <f>STDEV(N$7:N$12,N$17:N$19)/SQRT(COUNT(N$7:N$12,N$17:N$19))</f>
+        <v>1.536814470265868E-2</v>
+      </c>
+      <c r="R77" s="2">
+        <f>STDEV(N$13:N$16)/SQRT(COUNT(N$13:N$16))</f>
+        <v>9.8908396794604517E-3</v>
+      </c>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2">
+        <f>STDEV(N$21:N$22)/SQRT(COUNT(N$21:N$22))</f>
+        <v>5.6083414791154107E-3</v>
       </c>
     </row>
     <row r="79" spans="12:30" x14ac:dyDescent="0.25">
@@ -11252,19 +11183,19 @@
       </c>
       <c r="Y80" t="str">
         <f>_xlfn.CONCAT(ROUND(P80,2), " ± ", P81)</f>
-        <v>0.14 ± 4.22E-03</v>
+        <v>0.14 ± 0.0127564831231008</v>
       </c>
       <c r="Z80" t="str">
         <f t="shared" ref="Z80" si="28">_xlfn.CONCAT(ROUND(Q80,2), " ± ", Q81)</f>
-        <v>0.19 ± 3.98E-02</v>
+        <v>0.19 ± 0.0484165940329263</v>
       </c>
       <c r="AA80" t="str">
         <f t="shared" ref="AA80" si="29">_xlfn.CONCAT(ROUND(R80,2), " ± ", R81)</f>
-        <v>0.17 ± 2.61E-02</v>
+        <v>0.17 ± 0.0280719074671355</v>
       </c>
       <c r="AB80" t="str">
         <f t="shared" ref="AB80" si="30">_xlfn.CONCAT(ROUND(S80,2), " ± ", S81)</f>
-        <v>0.12 ± 2.61E-02</v>
+        <v>0.12 ± 0.0281202696662261</v>
       </c>
       <c r="AC80" t="str">
         <f t="shared" ref="AC80" si="31">_xlfn.CONCAT(ROUND(T80,2), " ± ", T81)</f>
@@ -11272,25 +11203,30 @@
       </c>
       <c r="AD80" t="str">
         <f t="shared" ref="AD80" si="32">_xlfn.CONCAT(ROUND(U80,2), " ± ", U81)</f>
-        <v>0.19 ± 5.41E-02</v>
+        <v>0.19 ± 0.0540895871224242</v>
       </c>
     </row>
     <row r="81" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="P81" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q81" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="R81" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="S81" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="T81" s="3"/>
-      <c r="U81" s="4" t="s">
-        <v>202</v>
+      <c r="P81" s="2">
+        <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
+        <v>1.2756483123100756E-2</v>
+      </c>
+      <c r="Q81" s="2">
+        <f>STDEV(O$4:O$6)/SQRT(COUNT(O$4:O$6))</f>
+        <v>4.8416594032926287E-2</v>
+      </c>
+      <c r="R81" s="2">
+        <f>STDEV(O$7:O$12,O$17:O$19)/SQRT(COUNT(O$7:O$12,O$17:O$19))</f>
+        <v>2.8071907467135549E-2</v>
+      </c>
+      <c r="S81" s="2">
+        <f>STDEV(O$13:O$16)/SQRT(COUNT(O$13:O$16))</f>
+        <v>2.8120269666226067E-2</v>
+      </c>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2">
+        <f>STDEV(O$21:O$22)/SQRT(COUNT(O$21:O$22))</f>
+        <v>5.4089587122424169E-2</v>
       </c>
     </row>
     <row r="83" spans="16:31" x14ac:dyDescent="0.25">
@@ -11343,19 +11279,19 @@
       </c>
       <c r="Z84" t="str">
         <f>_xlfn.CONCAT(ROUND(Q84,2), " ± ", Q85)</f>
-        <v>0.11 ± 3.25E-02</v>
+        <v>0.11 ± 0.031298052001519</v>
       </c>
       <c r="AA84" t="str">
         <f t="shared" ref="AA84" si="33">_xlfn.CONCAT(ROUND(R84,2), " ± ", R85)</f>
-        <v>0.21 ± 4.52E-02</v>
+        <v>0.21 ± 0.0656382800118405</v>
       </c>
       <c r="AB84" t="str">
         <f t="shared" ref="AB84" si="34">_xlfn.CONCAT(ROUND(S84,2), " ± ", S85)</f>
-        <v>0.13 ± 1.98E-02</v>
+        <v>0.13 ± 0.0213828634553278</v>
       </c>
       <c r="AC84" t="str">
         <f t="shared" ref="AC84" si="35">_xlfn.CONCAT(ROUND(T84,2), " ± ", T85)</f>
-        <v>0.13 ± 5.06E-02</v>
+        <v>0.13 ± 0.0426346878237909</v>
       </c>
       <c r="AD84" t="str">
         <f t="shared" ref="AD84" si="36">_xlfn.CONCAT(ROUND(U84,2), " ± ", U85)</f>
@@ -11363,25 +11299,30 @@
       </c>
       <c r="AE84" t="str">
         <f t="shared" ref="AE84" si="37">_xlfn.CONCAT(ROUND(V84,2), " ± ", V85)</f>
-        <v>0.11 ± 2.34E-02</v>
+        <v>0.11 ± 0.023422468099409</v>
       </c>
     </row>
     <row r="85" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="Q85" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="R85" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="S85" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="T85" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="U85" s="3"/>
-      <c r="V85" s="4" t="s">
-        <v>207</v>
+      <c r="Q85" s="2">
+        <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
+        <v>3.1298052001519007E-2</v>
+      </c>
+      <c r="R85" s="2">
+        <f>STDEV(P$4:P$6)/SQRT(COUNT(P$4:P$6))</f>
+        <v>6.563828001184048E-2</v>
+      </c>
+      <c r="S85" s="2">
+        <f>STDEV(P$7:P$12,P$17:P$19)/SQRT(COUNT(P$7:P$12,P$17:P$19))</f>
+        <v>2.1382863455327823E-2</v>
+      </c>
+      <c r="T85" s="2">
+        <f>STDEV(P$13:P$16)/SQRT(COUNT(P$13:P$16))</f>
+        <v>4.263468782379095E-2</v>
+      </c>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2">
+        <f>STDEV(P$21:P$22)/SQRT(COUNT(P$21:P$22))</f>
+        <v>2.3422468099408952E-2</v>
       </c>
     </row>
     <row r="87" spans="16:31" x14ac:dyDescent="0.25">
@@ -11608,12 +11549,756 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B6BAAC-6A3E-4E58-9981-CF1298A0FB5A}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.1001291329547363E-3</v>
+      </c>
+      <c r="B2">
+        <v>9.2818145298093388E-2</v>
+      </c>
+      <c r="C2">
+        <v>5.0868748663837837E-2</v>
+      </c>
+      <c r="D2">
+        <v>633622671.09765995</v>
+      </c>
+      <c r="E2">
+        <v>20.597155249553094</v>
+      </c>
+      <c r="F2">
+        <v>63.472995846278707</v>
+      </c>
+      <c r="G2">
+        <v>0.43346035797148019</v>
+      </c>
+      <c r="H2">
+        <v>3.6286411899082473E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.3953097177711229E-3</v>
+      </c>
+      <c r="J2">
+        <v>3.3333430095271155E-3</v>
+      </c>
+      <c r="K2">
+        <v>0.99322700086671922</v>
+      </c>
+      <c r="L2">
+        <v>0.98035097498913748</v>
+      </c>
+      <c r="M2">
+        <v>0.98523464208513778</v>
+      </c>
+      <c r="N2">
+        <v>8.043137062544925E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.13830068343075549</v>
+      </c>
+      <c r="P2">
+        <v>0.1125103027172797</v>
+      </c>
+      <c r="Q2">
+        <v>2.0542256242548931E-2</v>
+      </c>
+      <c r="R2">
+        <v>2.6564180849319923E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6.6344325228484607E-3</v>
+      </c>
+      <c r="B3">
+        <v>0.43188845352491184</v>
+      </c>
+      <c r="C3">
+        <v>5.0864252470759146E-2</v>
+      </c>
+      <c r="D3">
+        <v>429431962.72254306</v>
+      </c>
+      <c r="E3">
+        <v>22.151515922238428</v>
+      </c>
+      <c r="F3">
+        <v>61.889515079945674</v>
+      </c>
+      <c r="G3">
+        <v>0.196532097703467</v>
+      </c>
+      <c r="H3">
+        <v>0.26385942952199509</v>
+      </c>
+      <c r="I3">
+        <v>8.8282120593786674E-7</v>
+      </c>
+      <c r="J3">
+        <v>8.929136820414128E-3</v>
+      </c>
+      <c r="K3">
+        <v>0.9945440842781158</v>
+      </c>
+      <c r="L3">
+        <v>0.9579250882516176</v>
+      </c>
+      <c r="M3">
+        <v>0.94752711607979234</v>
+      </c>
+      <c r="N3">
+        <v>7.3259182217835686E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.1922649980506077</v>
+      </c>
+      <c r="P3">
+        <v>0.20816192609403875</v>
+      </c>
+      <c r="Q3">
+        <v>1.9975193205712585E-2</v>
+      </c>
+      <c r="R3">
+        <v>2.6892349117898989E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.8632184488774763E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.2344887167481633</v>
+      </c>
+      <c r="C4">
+        <v>6.9876411281357811E-2</v>
+      </c>
+      <c r="D4">
+        <v>670372763.92028725</v>
+      </c>
+      <c r="E4">
+        <v>27.065332195618783</v>
+      </c>
+      <c r="F4">
+        <v>62.701474248091728</v>
+      </c>
+      <c r="G4">
+        <v>0.43023011394463978</v>
+      </c>
+      <c r="H4">
+        <v>0.31383707412990214</v>
+      </c>
+      <c r="I4">
+        <v>1.1209793148765927E-3</v>
+      </c>
+      <c r="J4">
+        <v>2.8879858594523015E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.98980424274963696</v>
+      </c>
+      <c r="L4">
+        <v>0.96410488144668505</v>
+      </c>
+      <c r="M4">
+        <v>0.98013828000277081</v>
+      </c>
+      <c r="N4">
+        <v>9.057807874384223E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.17097358363780107</v>
+      </c>
+      <c r="P4">
+        <v>0.12651233838552542</v>
+      </c>
+      <c r="Q4">
+        <v>2.0633748084395762E-2</v>
+      </c>
+      <c r="R4">
+        <v>2.6960438882680453E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4.217832001894262E-3</v>
+      </c>
+      <c r="B5">
+        <v>7.9975010194079946E-2</v>
+      </c>
+      <c r="C5">
+        <v>7.455669266619476E-2</v>
+      </c>
+      <c r="D5">
+        <v>1129232402.7311361</v>
+      </c>
+      <c r="E5">
+        <v>30.483055442493249</v>
+      </c>
+      <c r="F5">
+        <v>62.632868531488306</v>
+      </c>
+      <c r="G5">
+        <v>0.35208886709488357</v>
+      </c>
+      <c r="H5">
+        <v>0.26062308636909265</v>
+      </c>
+      <c r="I5">
+        <v>2.4831981979508257E-3</v>
+      </c>
+      <c r="J5">
+        <v>5.0330206765200215E-3</v>
+      </c>
+      <c r="K5">
+        <v>0.99703384835239794</v>
+      </c>
+      <c r="L5">
+        <v>0.9834694816438827</v>
+      </c>
+      <c r="M5">
+        <v>0.97698140406207412</v>
+      </c>
+      <c r="N5">
+        <v>5.1410154662592682E-2</v>
+      </c>
+      <c r="O5">
+        <v>0.11829186140327759</v>
+      </c>
+      <c r="P5">
+        <v>0.1316634351710842</v>
+      </c>
+      <c r="Q5">
+        <v>2.0435630269480996E-2</v>
+      </c>
+      <c r="R5">
+        <v>2.690102607904258E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.0759029324079272E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.10806440153231296</v>
+      </c>
+      <c r="C6">
+        <v>9.9999999999865849E-2</v>
+      </c>
+      <c r="D6">
+        <v>1442195507.9818859</v>
+      </c>
+      <c r="E6">
+        <v>21.071899069677666</v>
+      </c>
+      <c r="F6">
+        <v>66.224948294347939</v>
+      </c>
+      <c r="G6">
+        <v>0.64161205898035911</v>
+      </c>
+      <c r="H6">
+        <v>0.11940514825193088</v>
+      </c>
+      <c r="I6">
+        <v>2.843330400548159E-12</v>
+      </c>
+      <c r="J6">
+        <v>9.9999988405638767E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.99428979830560293</v>
+      </c>
+      <c r="L6">
+        <v>0.99141732978265473</v>
+      </c>
+      <c r="M6">
+        <v>0.99019570580954175</v>
+      </c>
+      <c r="N6">
+        <v>7.5187097812411327E-2</v>
+      </c>
+      <c r="O6">
+        <v>9.2178324540923715E-2</v>
+      </c>
+      <c r="P6">
+        <v>9.8520308812719781E-2</v>
+      </c>
+      <c r="Q6">
+        <v>2.0973295676043606E-2</v>
+      </c>
+      <c r="R6">
+        <v>2.6672789715633204E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7.2171323769520141E-3</v>
+      </c>
+      <c r="B7">
+        <v>0.20466432483092473</v>
+      </c>
+      <c r="C7">
+        <v>9.9999999895768271E-2</v>
+      </c>
+      <c r="D7">
+        <v>1568575537.3039272</v>
+      </c>
+      <c r="E7">
+        <v>15.38768594860198</v>
+      </c>
+      <c r="F7">
+        <v>72.176744142345981</v>
+      </c>
+      <c r="G7">
+        <v>0.58196438937078854</v>
+      </c>
+      <c r="H7">
+        <v>0.1637306187508428</v>
+      </c>
+      <c r="I7">
+        <v>4.1279696453638215E-8</v>
+      </c>
+      <c r="J7">
+        <v>5.0001376712519316E-3</v>
+      </c>
+      <c r="K7">
+        <v>0.99053303381537483</v>
+      </c>
+      <c r="L7">
+        <v>0.95949131454551995</v>
+      </c>
+      <c r="M7">
+        <v>0.98684624397295173</v>
+      </c>
+      <c r="N7">
+        <v>9.664803685865847E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.19281575445191423</v>
+      </c>
+      <c r="P7">
+        <v>0.11168530097962748</v>
+      </c>
+      <c r="Q7">
+        <v>2.095401530746497E-2</v>
+      </c>
+      <c r="R7">
+        <v>2.6699257390410285E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.2725967521505301E-4</v>
+      </c>
+      <c r="B10">
+        <v>1.1993739194087553E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.4552918518606016E-2</v>
+      </c>
+      <c r="D10">
+        <v>303200885.06844538</v>
+      </c>
+      <c r="E10">
+        <v>1.6192973300627467</v>
+      </c>
+      <c r="F10">
+        <v>2.7002248058917107</v>
+      </c>
+      <c r="G10">
+        <v>0.21319663172543957</v>
+      </c>
+      <c r="H10">
+        <v>1.663669593057689E-2</v>
+      </c>
+      <c r="I10">
+        <v>3.3027812666634468E-3</v>
+      </c>
+      <c r="J10">
+        <v>3.3333284952352165E-3</v>
+      </c>
+      <c r="K10">
+        <v>1.6463714510734249E-3</v>
+      </c>
+      <c r="L10">
+        <v>3.7194841128570279E-3</v>
+      </c>
+      <c r="M10">
+        <v>8.1010346831268017E-3</v>
+      </c>
+      <c r="N10">
+        <v>1.0864247817027092E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.2756483123100756E-2</v>
+      </c>
+      <c r="P10">
+        <v>3.1298052001519007E-2</v>
+      </c>
+      <c r="Q10">
+        <v>4.8852209083045353E-4</v>
+      </c>
+      <c r="R10">
+        <v>2.5179500739234562E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.4738599434207719E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.21677497345924515</v>
+      </c>
+      <c r="C11">
+        <v>2.4547279159958829E-2</v>
+      </c>
+      <c r="D11">
+        <v>326583444.34512126</v>
+      </c>
+      <c r="E11">
+        <v>5.4509860762583191</v>
+      </c>
+      <c r="F11">
+        <v>4.455262769280341</v>
+      </c>
+      <c r="G11">
+        <v>0.18653208822210188</v>
+      </c>
+      <c r="H11">
+        <v>0.17166136754163663</v>
+      </c>
+      <c r="I11">
+        <v>6.6602333795786044E-7</v>
+      </c>
+      <c r="J11">
+        <v>1.0708631790687299E-3</v>
+      </c>
+      <c r="K11">
+        <v>6.1587292917880557E-4</v>
+      </c>
+      <c r="L11">
+        <v>2.0829649505932534E-2</v>
+      </c>
+      <c r="M11">
+        <v>3.1689735417869021E-2</v>
+      </c>
+      <c r="N11">
+        <v>4.1502280322512136E-3</v>
+      </c>
+      <c r="O11">
+        <v>4.8416594032926287E-2</v>
+      </c>
+      <c r="P11">
+        <v>6.563828001184048E-2</v>
+      </c>
+      <c r="Q11">
+        <v>3.6735004728254622E-4</v>
+      </c>
+      <c r="R11">
+        <v>2.5671577619167341E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8.0834831872766671E-3</v>
+      </c>
+      <c r="B12">
+        <v>6.2168745082076066E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.1994584780844628E-2</v>
+      </c>
+      <c r="D12">
+        <v>225362239.38108262</v>
+      </c>
+      <c r="E12">
+        <v>3.3671168297151262</v>
+      </c>
+      <c r="F12">
+        <v>3.7935178192878136</v>
+      </c>
+      <c r="G12">
+        <v>0.10157683756220913</v>
+      </c>
+      <c r="H12">
+        <v>0.13287076105558546</v>
+      </c>
+      <c r="I12">
+        <v>1.1099206839491158E-3</v>
+      </c>
+      <c r="J12">
+        <v>1.491155448940396E-3</v>
+      </c>
+      <c r="K12">
+        <v>3.5487978199732939E-3</v>
+      </c>
+      <c r="L12">
+        <v>1.0159758260436006E-2</v>
+      </c>
+      <c r="M12">
+        <v>6.8300721229363993E-3</v>
+      </c>
+      <c r="N12">
+        <v>1.536814470265868E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.8071907467135549E-2</v>
+      </c>
+      <c r="P12">
+        <v>2.1382863455327823E-2</v>
+      </c>
+      <c r="Q12">
+        <v>2.2890018555720107E-4</v>
+      </c>
+      <c r="R12">
+        <v>2.0299274734285723E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6.3360122857742784E-4</v>
+      </c>
+      <c r="B13">
+        <v>4.7271848244390062E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.573185351950963E-2</v>
+      </c>
+      <c r="D13">
+        <v>548322859.71993709</v>
+      </c>
+      <c r="E13">
+        <v>4.9986682715416162</v>
+      </c>
+      <c r="F13">
+        <v>2.7618128074817472</v>
+      </c>
+      <c r="G13">
+        <v>0.19815659125126756</v>
+      </c>
+      <c r="H13">
+        <v>0.24646265996534966</v>
+      </c>
+      <c r="I13">
+        <v>2.4831981979158832E-3</v>
+      </c>
+      <c r="J13">
+        <v>2.8678135874797761E-3</v>
+      </c>
+      <c r="K13">
+        <v>1.1553948049722602E-3</v>
+      </c>
+      <c r="L13">
+        <v>7.6670951128889392E-3</v>
+      </c>
+      <c r="M13">
+        <v>1.4938257257636881E-2</v>
+      </c>
+      <c r="N13">
+        <v>9.8908396794604517E-3</v>
+      </c>
+      <c r="O13">
+        <v>2.8120269666226067E-2</v>
+      </c>
+      <c r="P13">
+        <v>4.263468782379095E-2</v>
+      </c>
+      <c r="Q13">
+        <v>4.7794254676021981E-4</v>
+      </c>
+      <c r="R13">
+        <v>3.7006385887008617E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4.7730132747802112E-4</v>
+      </c>
+      <c r="B15">
+        <v>1.8238538900267456E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.0420953683309997E-10</v>
+      </c>
+      <c r="D15">
+        <v>498176157.30909073</v>
+      </c>
+      <c r="E15">
+        <v>0.23560379063189529</v>
+      </c>
+      <c r="F15">
+        <v>2.9471882559705587</v>
+      </c>
+      <c r="G15">
+        <v>3.8190291770548557E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.8804735994617402E-2</v>
+      </c>
+      <c r="I15">
+        <v>4.1279664249079192E-8</v>
+      </c>
+      <c r="J15">
+        <v>4.9998623285380465E-3</v>
+      </c>
+      <c r="K15">
+        <v>1.095020593918139E-3</v>
+      </c>
+      <c r="L15">
+        <v>2.106934252323794E-2</v>
+      </c>
+      <c r="M15">
+        <v>5.2847381805418703E-3</v>
+      </c>
+      <c r="N15">
+        <v>5.6083414791154107E-3</v>
+      </c>
+      <c r="O15">
+        <v>5.4089587122424169E-2</v>
+      </c>
+      <c r="P15">
+        <v>2.3422468099408952E-2</v>
+      </c>
+      <c r="Q15">
+        <v>2.7126963587196205E-4</v>
+      </c>
+      <c r="R15">
+        <v>2.0695011051561837E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619B633D-6CFB-483C-9FB4-8F6342530738}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12667,12 +13352,6 @@
       </c>
       <c r="X23" t="s">
         <v>169</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -13098,7 +13777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C81D8B5-6680-4FFB-85DD-B8A9C238D7F1}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26611F46-756B-4F7A-B2A5-D1E5AC582B35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531FE701-7255-4DD6-8E40-E2AFFAF4417C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="1440" yWindow="1032" windowWidth="21600" windowHeight="11328" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -742,16 +742,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.2725967521505301E-4</c:v>
+                    <c:v>2.3570977158928898E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.4738599434207719E-3</c:v>
+                    <c:v>1.0270739566951275E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.0834831872766671E-3</c:v>
+                    <c:v>1.0410719849336942E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.3360122857742784E-4</c:v>
+                    <c:v>1.8982194464673204E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -763,16 +763,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.2725967521505301E-4</c:v>
+                    <c:v>2.3570977158928898E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.4738599434207719E-3</c:v>
+                    <c:v>1.0270739566951275E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.0834831872766671E-3</c:v>
+                    <c:v>1.0410719849336942E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.3360122857742784E-4</c:v>
+                    <c:v>1.8982194464673204E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -818,16 +818,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.1001291329547363E-3</c:v>
+                  <c:v>2.1100909706491798E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6344325228484607E-3</c:v>
+                  <c:v>5.4412791850417426E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8632184488774763E-2</c:v>
+                  <c:v>2.5688611490794242E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.217832001894262E-3</c:v>
+                  <c:v>6.6211366293548405E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,16 +1096,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.1993739194087553E-2</c:v>
+                    <c:v>1.121356976322461E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21677497345924515</c:v>
+                    <c:v>8.3531808099919128E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.2168745082076066E-2</c:v>
+                    <c:v>0.25388093896624792</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7271848244390062E-2</c:v>
+                    <c:v>0.37711873305331223</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1117,16 +1117,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.1993739194087553E-2</c:v>
+                    <c:v>1.121356976322461E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21677497345924515</c:v>
+                    <c:v>8.3531808099919128E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.2168745082076066E-2</c:v>
+                    <c:v>0.25388093896624792</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7271848244390062E-2</c:v>
+                    <c:v>0.37711873305331223</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1172,16 +1172,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.2818145298093388E-2</c:v>
+                  <c:v>9.359041482280861E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43188845352491184</c:v>
+                  <c:v>0.29639939163562595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2344887167481633</c:v>
+                  <c:v>0.54454027900184387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9975010194079946E-2</c:v>
+                  <c:v>0.40949579850114187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,19 +1450,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.4552918518606016E-2</c:v>
+                    <c:v>2.4535035863670722E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.4547279159958829E-2</c:v>
+                    <c:v>2.4561291627523522E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1994584780844628E-2</c:v>
+                    <c:v>1.1276793838924134E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.573185351950963E-2</c:v>
+                    <c:v>1.3730439000499585E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.0420953683309997E-10</c:v>
+                    <c:v>2.1077457745127812E-7</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1474,19 +1474,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.4552918518606016E-2</c:v>
+                    <c:v>2.4535035863670722E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.4547279159958829E-2</c:v>
+                    <c:v>2.4561291627523522E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1994584780844628E-2</c:v>
+                    <c:v>1.1276793838924134E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.573185351950963E-2</c:v>
+                    <c:v>1.3730439000499585E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.0420953683309997E-10</c:v>
+                    <c:v>2.1077457745127812E-7</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1538,22 +1538,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0868748663837837E-2</c:v>
+                  <c:v>5.0863972259229416E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0864252470759146E-2</c:v>
+                  <c:v>5.0877195536079112E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9876411281357811E-2</c:v>
+                  <c:v>5.5663709748780849E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.455669266619476E-2</c:v>
+                  <c:v>7.199913863913382E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9999999999865849E-2</c:v>
+                  <c:v>9.9999999995847952E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999999895768271E-2</c:v>
+                  <c:v>9.9999789225400093E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,19 +1822,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>4.8852209083045353E-4</c:v>
+                    <c:v>4.7097426444843324E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.6735004728254622E-4</c:v>
+                    <c:v>3.7729861841718658E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.2890018555720107E-4</c:v>
+                    <c:v>2.2230187302876175E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7794254676021981E-4</c:v>
+                    <c:v>4.6184602057602707E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.7126963587196205E-4</c:v>
+                    <c:v>2.95941928944653E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1846,19 +1846,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>4.8852209083045353E-4</c:v>
+                    <c:v>4.7097426444843324E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.6735004728254622E-4</c:v>
+                    <c:v>3.7729861841718658E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.2890018555720107E-4</c:v>
+                    <c:v>2.2230187302876175E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7794254676021981E-4</c:v>
+                    <c:v>4.6184602057602707E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.7126963587196205E-4</c:v>
+                    <c:v>2.95941928944653E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1910,22 +1910,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0542256242548931E-2</c:v>
+                  <c:v>2.0521011514074136E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9975193205712585E-2</c:v>
+                  <c:v>1.9985141756274683E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0633748084395762E-2</c:v>
+                  <c:v>2.0596182848584263E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0435630269480996E-2</c:v>
+                  <c:v>2.0407126527804631E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0973295676043606E-2</c:v>
+                  <c:v>2.0940133766539439E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.095401530746497E-2</c:v>
+                  <c:v>2.0972937427794575E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,19 +2194,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.5179500739234562E-5</c:v>
+                    <c:v>8.0736755881092142E-6</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.5671577619167341E-4</c:v>
+                    <c:v>4.6925517342358808E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0299274734285723E-4</c:v>
+                    <c:v>1.8038270361886392E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7006385887008617E-4</c:v>
+                    <c:v>3.5068132150775839E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.0695011051561837E-5</c:v>
+                    <c:v>2.3245878449046006E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2218,19 +2218,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.5179500739234562E-5</c:v>
+                    <c:v>8.0736755881092142E-6</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.5671577619167341E-4</c:v>
+                    <c:v>4.6925517342358808E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0299274734285723E-4</c:v>
+                    <c:v>1.8038270361886392E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7006385887008617E-4</c:v>
+                    <c:v>3.5068132150775839E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.0695011051561837E-5</c:v>
+                    <c:v>2.3245878449046006E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2282,22 +2282,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.6564180849319923E-2</c:v>
+                  <c:v>2.654902913291941E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6892349117898989E-2</c:v>
+                  <c:v>2.6624463774042862E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6960438882680453E-2</c:v>
+                  <c:v>2.6912661408697438E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.690102607904258E-2</c:v>
+                  <c:v>2.712292679636218E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6672789715633204E-2</c:v>
+                  <c:v>2.6664638680777914E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6699257390410285E-2</c:v>
+                  <c:v>2.6761994514748352E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2566,19 +2566,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.2725967521505301E-4</c:v>
+                    <c:v>2.3570977158928898E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.4738599434207719E-3</c:v>
+                    <c:v>1.0270739566951275E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.0834831872766671E-3</c:v>
+                    <c:v>1.0410719849336942E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.3360122857742784E-4</c:v>
+                    <c:v>1.8982194464673204E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.7730132747802112E-4</c:v>
+                    <c:v>4.7747363007137519E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2590,19 +2590,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.2725967521505301E-4</c:v>
+                    <c:v>2.3570977158928898E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.4738599434207719E-3</c:v>
+                    <c:v>1.0270739566951275E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.0834831872766671E-3</c:v>
+                    <c:v>1.0410719849336942E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.3360122857742784E-4</c:v>
+                    <c:v>1.8982194464673204E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.7730132747802112E-4</c:v>
+                    <c:v>4.7747363007137519E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2654,22 +2654,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.1001291329547363E-3</c:v>
+                  <c:v>2.1100909706491798E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6344325228484607E-3</c:v>
+                  <c:v>5.4412791850417426E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8632184488774763E-2</c:v>
+                  <c:v>2.5688611490794242E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.217832001894262E-3</c:v>
+                  <c:v>6.6211366293548405E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0759029324079272E-2</c:v>
+                  <c:v>1.0758846529378896E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2171323769520141E-3</c:v>
+                  <c:v>7.2169617546775835E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,19 +2938,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.1993739194087553E-2</c:v>
+                    <c:v>1.121356976322461E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21677497345924515</c:v>
+                    <c:v>8.3531808099919128E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.2168745082076066E-2</c:v>
+                    <c:v>0.25388093896624792</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7271848244390062E-2</c:v>
+                    <c:v>0.37711873305331223</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8238538900267456E-2</c:v>
+                    <c:v>1.8230963817246218E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2962,19 +2962,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.1993739194087553E-2</c:v>
+                    <c:v>1.121356976322461E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21677497345924515</c:v>
+                    <c:v>8.3531808099919128E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.2168745082076066E-2</c:v>
+                    <c:v>0.25388093896624792</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7271848244390062E-2</c:v>
+                    <c:v>0.37711873305331223</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8238538900267456E-2</c:v>
+                    <c:v>1.8230963817246218E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3026,22 +3026,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.2818145298093388E-2</c:v>
+                  <c:v>9.359041482280861E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43188845352491184</c:v>
+                  <c:v>0.29639939163562595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2344887167481633</c:v>
+                  <c:v>0.54454027900184387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9975010194079946E-2</c:v>
+                  <c:v>0.40949579850114187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10806440153231296</c:v>
+                  <c:v>0.1080601053497257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20466432483092473</c:v>
+                  <c:v>0.20465675887342155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7583,7 +7583,7 @@
   <dimension ref="A1:AK99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S93" sqref="S93:X93"/>
+      <selection sqref="A1:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7595,282 +7595,282 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>2.0441090480123867E-3</v>
+        <v>2.0464683775653059E-3</v>
       </c>
       <c r="B1" s="2">
-        <v>0.1046576942724959</v>
+        <v>0.10465879488515444</v>
       </c>
       <c r="C1" s="2">
-        <v>2.6315870816383365E-2</v>
+        <v>2.6340445425020995E-2</v>
       </c>
       <c r="D1" s="2">
-        <v>818923843.82635462</v>
+        <v>818856136.83310962</v>
       </c>
       <c r="E1" s="2">
-        <v>23.826098078463101</v>
+        <v>23.826012585143033</v>
       </c>
       <c r="F1" s="2">
-        <v>61.845370066492791</v>
+        <v>61.845362128006862</v>
       </c>
       <c r="G1" s="2">
-        <v>0.6884271576465042</v>
+        <v>0.6884286231318586</v>
       </c>
       <c r="H1" s="2">
-        <v>6.8694764167520919E-2</v>
+        <v>6.8762742194429016E-2</v>
       </c>
       <c r="I1" s="2">
-        <v>9.9999999572690911E-3</v>
+        <v>9.9999999675133618E-3</v>
       </c>
       <c r="J1" s="2">
-        <v>5.0746472033720158E-11</v>
+        <v>8.8664832128748395E-9</v>
       </c>
       <c r="K1" s="2">
-        <v>0.99150334061473511</v>
+        <v>0.99150332211340797</v>
       </c>
       <c r="L1" s="2">
-        <v>0.98468599961749703</v>
+        <v>0.98467306682277045</v>
       </c>
       <c r="M1" s="2">
-        <v>0.96903446615868649</v>
+        <v>0.96905542300022207</v>
       </c>
       <c r="N1" s="2">
-        <v>9.1715281122680306E-2</v>
+        <v>9.1715380976835667E-2</v>
       </c>
       <c r="O1" s="2">
-        <v>0.12312944561995699</v>
+        <v>0.1231814265441719</v>
       </c>
       <c r="P1" s="2">
-        <v>0.17508820206655948</v>
+        <v>0.17502894397721822</v>
       </c>
       <c r="Q1" s="2">
-        <v>2.1256678515456123E-2</v>
+        <v>2.1177703065292708E-2</v>
       </c>
       <c r="R1" s="2">
-        <v>2.6613300701501686E-2</v>
+        <v>2.6560900341510159E-2</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1.7375150690284137E-3</v>
+        <v>1.7373761079566528E-3</v>
       </c>
       <c r="B2" s="2">
-        <v>0.10496541676836456</v>
+        <v>0.10494855034499606</v>
       </c>
       <c r="C2" s="2">
-        <v>2.6315789474102722E-2</v>
+        <v>2.6317429165388016E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>40932149.670228243</v>
+        <v>40932077.496757634</v>
       </c>
       <c r="E2" s="2">
-        <v>18.766309887571968</v>
+        <v>18.766308910143742</v>
       </c>
       <c r="F2" s="2">
-        <v>59.827350501386753</v>
+        <v>59.827327546352187</v>
       </c>
       <c r="G2" s="2">
-        <v>1.000000018820988E-2</v>
+        <v>1.000000103631417E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>2.6610097734376798E-2</v>
+        <v>2.6590060981635018E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>3.3355305486471564E-14</v>
+        <v>3.3403191037782835E-14</v>
       </c>
       <c r="J2" s="2">
-        <v>9.9999999999766283E-3</v>
+        <v>9.9999980623083368E-3</v>
       </c>
       <c r="K2" s="2">
-        <v>0.99651851479241171</v>
+        <v>0.99651851537462599</v>
       </c>
       <c r="L2" s="2">
-        <v>0.97294806800969846</v>
+        <v>0.97294519620254449</v>
       </c>
       <c r="M2" s="2">
-        <v>0.99312022183013082</v>
+        <v>0.99311604180174362</v>
       </c>
       <c r="N2" s="2">
-        <v>5.8708349964144334E-2</v>
+        <v>5.8708345055199083E-2</v>
       </c>
       <c r="O2" s="2">
-        <v>0.16365027549747219</v>
+        <v>0.16365896174509037</v>
       </c>
       <c r="P2" s="2">
-        <v>8.2528664039656183E-2</v>
+        <v>8.2553731691994814E-2</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.9607843138263741E-2</v>
+        <v>1.9607843177138051E-2</v>
       </c>
       <c r="R2" s="2">
-        <v>2.6549236112445213E-2</v>
+        <v>2.6552572901886669E-2</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.5187632818234077E-3</v>
+        <v>2.5464284264255814E-3</v>
       </c>
       <c r="B3" s="2">
-        <v>6.8831324853419681E-2</v>
+        <v>7.1163899238275347E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>9.9974585701027421E-2</v>
+        <v>9.9934042187279221E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>1041012019.7963969</v>
+        <v>1041012019.9998802</v>
       </c>
       <c r="E3" s="2">
-        <v>19.199057782624216</v>
+        <v>19.199058694460337</v>
       </c>
       <c r="F3" s="2">
-        <v>68.746266970956583</v>
+        <v>68.746333244471316</v>
       </c>
       <c r="G3" s="2">
-        <v>0.60195391607972648</v>
+        <v>0.60191068779442625</v>
       </c>
       <c r="H3" s="2">
-        <v>1.3554373795349711E-2</v>
+        <v>1.700826140423033E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>1.8592919601092178E-4</v>
+        <v>2.8622497219208348E-7</v>
       </c>
       <c r="J3" s="2">
-        <v>2.8977858246021342E-8</v>
+        <v>2.5751115501349799E-7</v>
       </c>
       <c r="K3" s="2">
-        <v>0.99165914719301107</v>
+        <v>0.99165914719685599</v>
       </c>
       <c r="L3" s="2">
-        <v>0.98341885734021683</v>
+        <v>0.98347993184480231</v>
       </c>
       <c r="M3" s="2">
-        <v>0.99354923826659625</v>
+        <v>0.99324351754624751</v>
       </c>
       <c r="N3" s="2">
-        <v>9.0870480789523103E-2</v>
+        <v>9.0870480768578163E-2</v>
       </c>
       <c r="O3" s="2">
-        <v>0.12812232917483732</v>
+        <v>0.12788615043719809</v>
       </c>
       <c r="P3" s="2">
-        <v>7.9914042045623468E-2</v>
+        <v>8.1785803347616162E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>2.0762247073926928E-2</v>
+        <v>2.0777488299791647E-2</v>
       </c>
       <c r="R3" s="2">
-        <v>2.6530005734012874E-2</v>
+        <v>2.6533614155361405E-2</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3.8069722426232336E-3</v>
+        <v>3.7829569179376305E-3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.18523094004241433</v>
+        <v>0.1835298235945276</v>
       </c>
       <c r="C4" s="2">
-        <v>2.6318056725626454E-2</v>
+        <v>2.631601834351837E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>96657727.729502618</v>
+        <v>96628899.594241351</v>
       </c>
       <c r="E4" s="2">
-        <v>31.026684917817725</v>
+        <v>31.026371106499322</v>
       </c>
       <c r="F4" s="2">
-        <v>59.368951390179589</v>
+        <v>59.365388031982128</v>
       </c>
       <c r="G4" s="2">
-        <v>1.0000000075770199E-2</v>
+        <v>1.0000000145791728E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>0.10090365131518088</v>
+        <v>9.9337052054374542E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>2.8046324163883419E-13</v>
+        <v>9.5003243518511168E-9</v>
       </c>
       <c r="J4" s="2">
-        <v>9.9999999999640272E-3</v>
+        <v>9.9999999999777368E-3</v>
       </c>
       <c r="K4" s="2">
-        <v>0.99344509117279267</v>
+        <v>0.99344552451329549</v>
       </c>
       <c r="L4" s="2">
-        <v>0.91661952744682262</v>
+        <v>0.91624565621498855</v>
       </c>
       <c r="M4" s="2">
-        <v>0.88432615982790008</v>
+        <v>0.88290925126671316</v>
       </c>
       <c r="N4" s="2">
-        <v>8.0556562357980574E-2</v>
+        <v>8.0553899544574828E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>0.287309359102076</v>
+        <v>0.28795277450853174</v>
       </c>
       <c r="P4" s="2">
-        <v>0.33840375555005137</v>
+        <v>0.3404700298792156</v>
       </c>
       <c r="Q4" s="2">
-        <v>1.9607843137974972E-2</v>
+        <v>1.9607843138437744E-2</v>
       </c>
       <c r="R4" s="2">
-        <v>2.6647497481135117E-2</v>
+        <v>2.6548867092794082E-2</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>8.7698902232442831E-3</v>
+        <v>5.2206221527268904E-3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.86399580511486929</v>
+        <v>0.45950204500298009</v>
       </c>
       <c r="C5" s="2">
-        <v>9.995881077473788E-2</v>
+        <v>9.9999778790948429E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>1082559483.0567219</v>
+        <v>1103374599.9998205</v>
       </c>
       <c r="E5" s="2">
-        <v>12.230932328550869</v>
+        <v>12.198171385961663</v>
       </c>
       <c r="F5" s="2">
-        <v>70.551362167693284</v>
+        <v>70.613026132095598</v>
       </c>
       <c r="G5" s="2">
-        <v>0.56959627414767056</v>
+        <v>0.5849915924119331</v>
       </c>
       <c r="H5" s="2">
-        <v>0.60703740666618455</v>
+        <v>0.28447183695046341</v>
       </c>
       <c r="I5" s="2">
-        <v>2.1880786865386929E-6</v>
+        <v>2.7153391226777004E-7</v>
       </c>
       <c r="J5" s="2">
-        <v>6.7874104622766673E-3</v>
+        <v>5.0539599554957725E-8</v>
       </c>
       <c r="K5" s="2">
-        <v>0.99461185579455313</v>
+        <v>0.99461539025626966</v>
       </c>
       <c r="L5" s="2">
-        <v>0.97388629316479802</v>
+        <v>0.97094490591514371</v>
       </c>
       <c r="M5" s="2">
-        <v>0.97501087959352273</v>
+        <v>0.98152655641424713</v>
       </c>
       <c r="N5" s="2">
-        <v>7.3036037429425077E-2</v>
+        <v>7.3012078769838409E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>0.16078734330428476</v>
+        <v>0.16960112954814804</v>
       </c>
       <c r="P5" s="2">
-        <v>0.15728709165857338</v>
+        <v>0.13523575396283091</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.0709893300277678E-2</v>
+        <v>2.0739738993109057E-2</v>
       </c>
       <c r="R5" s="2">
-        <v>2.7405600634281477E-2</v>
+        <v>2.6710427131761319E-2</v>
       </c>
       <c r="T5">
         <f>0.0001</f>
@@ -7918,58 +7918,58 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>7.3264351026778645E-3</v>
+        <v>7.3202584844607082E-3</v>
       </c>
       <c r="B6" s="2">
-        <v>0.24643861541745188</v>
+        <v>0.24616630630937009</v>
       </c>
       <c r="C6" s="2">
-        <v>2.6315889911913106E-2</v>
+        <v>2.6315789473770525E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>109078677.38140464</v>
+        <v>109070616.64392741</v>
       </c>
       <c r="E6" s="2">
-        <v>23.19693052034668</v>
+        <v>23.196876027655108</v>
       </c>
       <c r="F6" s="2">
-        <v>55.748231681964143</v>
+        <v>55.747356031387397</v>
       </c>
       <c r="G6" s="2">
-        <v>1.0000018886960196E-2</v>
+        <v>1.0000000000074179E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>8.3637230584619873E-2</v>
+        <v>8.3464248076537947E-2</v>
       </c>
       <c r="I6" s="2">
-        <v>4.603846508116658E-7</v>
+        <v>5.9710184863030358E-12</v>
       </c>
       <c r="J6" s="2">
-        <v>9.9999999990016877E-3</v>
+        <v>9.9999999999777611E-3</v>
       </c>
       <c r="K6" s="2">
-        <v>0.99557530586700138</v>
+        <v>0.99557536756102483</v>
       </c>
       <c r="L6" s="2">
-        <v>0.98326944414323225</v>
+        <v>0.98325227630118317</v>
       </c>
       <c r="M6" s="2">
-        <v>0.9832443088179541</v>
+        <v>0.98319540748264689</v>
       </c>
       <c r="N6" s="2">
-        <v>6.6184946866101421E-2</v>
+        <v>6.6184485452298214E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>0.12869829174546227</v>
+        <v>0.12876430585309229</v>
       </c>
       <c r="P6" s="2">
-        <v>0.12879493107349146</v>
+        <v>0.12898273757437315</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.9607843178885108E-2</v>
+        <v>1.9607843137277252E-2</v>
       </c>
       <c r="R6" s="2">
-        <v>2.6623949238280369E-2</v>
+        <v>2.6614097097573182E-2</v>
       </c>
       <c r="T6">
         <v>0.08</v>
@@ -8015,674 +8015,674 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>7.8106083261215891E-3</v>
+        <v>7.8106084762417927E-3</v>
       </c>
       <c r="B7" s="2">
-        <v>5.869961277407737E-2</v>
+        <v>5.8699561287739815E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>3.5455462328748362E-2</v>
+        <v>3.5455515813934399E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>869498099.03153777</v>
+        <v>869498030.8600738</v>
       </c>
       <c r="E7" s="2">
-        <v>39.085223331083384</v>
+        <v>39.0852243382094</v>
       </c>
       <c r="F7" s="2">
-        <v>54.559074628585712</v>
+        <v>54.559072546981291</v>
       </c>
       <c r="G7" s="2">
-        <v>0.80285495997640921</v>
+        <v>0.80284961105903707</v>
       </c>
       <c r="H7" s="2">
-        <v>4.7834282713436441E-2</v>
+        <v>4.7695585359586415E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>9.999999998044606E-3</v>
+        <v>9.9999999999776917E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>3.37909909116856E-14</v>
+        <v>3.2956916309293648E-14</v>
       </c>
       <c r="K7" s="2">
-        <v>0.99705613162078521</v>
+        <v>0.99705613161610873</v>
       </c>
       <c r="L7" s="2">
-        <v>0.99612598591023427</v>
+        <v>0.99612598590514378</v>
       </c>
       <c r="M7" s="2">
-        <v>0.99622230889038665</v>
+        <v>0.99622230675436774</v>
       </c>
       <c r="N7" s="2">
-        <v>5.3985458184798663E-2</v>
+        <v>5.3985458227678189E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>6.1929588637969039E-2</v>
+        <v>6.1929588678657138E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>6.1154837899525014E-2</v>
+        <v>6.1154855188904893E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>2.1256907874162789E-2</v>
+        <v>2.1262204145464318E-2</v>
       </c>
       <c r="R7" s="2">
-        <v>2.6538930104340355E-2</v>
+        <v>2.667750691215277E-2</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1.0293787161300128E-2</v>
+        <v>1.0294003694522123E-2</v>
       </c>
       <c r="B8" s="2">
-        <v>6.2543215632686569E-2</v>
+        <v>6.2547366165638607E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>9.9999999454831554E-2</v>
+        <v>9.9999995160993213E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>1105943839.9999909</v>
+        <v>1105943839.9922271</v>
       </c>
       <c r="E8" s="2">
-        <v>34.224737576936299</v>
+        <v>34.224738225804998</v>
       </c>
       <c r="F8" s="2">
-        <v>62.585372843992985</v>
+        <v>62.585372863165468</v>
       </c>
       <c r="G8" s="2">
-        <v>0.66635472008517105</v>
+        <v>0.66640006842811295</v>
       </c>
       <c r="H8" s="2">
-        <v>7.9144405473099394E-2</v>
+        <v>7.9173594595556979E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>3.4630397152366507E-9</v>
+        <v>6.0460790529486602E-8</v>
       </c>
       <c r="J8" s="2">
-        <v>8.553147623255936E-11</v>
+        <v>1.2355077424407881E-7</v>
       </c>
       <c r="K8" s="2">
-        <v>0.99748717120450758</v>
+        <v>0.99748717119409669</v>
       </c>
       <c r="L8" s="2">
-        <v>0.99501459696272554</v>
+        <v>0.99501467593052695</v>
       </c>
       <c r="M8" s="2">
-        <v>0.99238595144909525</v>
+        <v>0.99238544904074011</v>
       </c>
       <c r="N8" s="2">
-        <v>4.9879347454309449E-2</v>
+        <v>4.987934755763674E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>7.0256975533841526E-2</v>
+        <v>7.0256419103316065E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>8.6825468219807758E-2</v>
+        <v>8.6828332735368496E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>2.1040263260226788E-2</v>
+        <v>2.0994704229650121E-2</v>
       </c>
       <c r="R8" s="2">
-        <v>2.6618504668151705E-2</v>
+        <v>2.6601069510027726E-2</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>3.895568585440214E-3</v>
+        <v>1.19485265693039E-2</v>
       </c>
       <c r="B9" s="2">
-        <v>0.38617223945573631</v>
+        <v>1.5727561306084521</v>
       </c>
       <c r="C9" s="2">
-        <v>9.9999999999977801E-2</v>
+        <v>2.7424762329529114E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>489079715.7061702</v>
+        <v>512378336.99416101</v>
       </c>
       <c r="E9" s="2">
-        <v>29.434333457740525</v>
+        <v>29.592087075417982</v>
       </c>
       <c r="F9" s="2">
-        <v>66.762303612276114</v>
+        <v>66.96290621978271</v>
       </c>
       <c r="G9" s="2">
-        <v>7.9001729104433732E-2</v>
+        <v>7.8050209682807209E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.9999999999999778</v>
+        <v>4.5403421223037146</v>
       </c>
       <c r="I9" s="2">
-        <v>3.22176319993991E-14</v>
+        <v>1.2047336658951029E-5</v>
       </c>
       <c r="J9" s="2">
-        <v>9.9987983014998855E-3</v>
+        <v>9.2822501809682618E-3</v>
       </c>
       <c r="K9" s="2">
-        <v>0.99576792723484286</v>
+        <v>0.99576683788163556</v>
       </c>
       <c r="L9" s="2">
-        <v>0.9246492770850635</v>
+        <v>0.93596450356751903</v>
       </c>
       <c r="M9" s="2">
-        <v>0.95852967094049868</v>
+        <v>0.97231110623204975</v>
       </c>
       <c r="N9" s="2">
-        <v>6.4728293948671162E-2</v>
+        <v>6.4736624079270597E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>0.27312490857808475</v>
+        <v>0.25178391820796686</v>
       </c>
       <c r="P9" s="2">
-        <v>0.20262187880114618</v>
+        <v>0.16556571151742358</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.9939613420300348E-2</v>
+        <v>1.9944853560420871E-2</v>
       </c>
       <c r="R9" s="2">
-        <v>2.8011204481770458E-2</v>
+        <v>2.8008695698807682E-2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>3.0912767097399747E-3</v>
+        <v>3.3425313436329647E-3</v>
       </c>
       <c r="B10" s="2">
-        <v>0.27786428949928771</v>
+        <v>0.31150531958498895</v>
       </c>
       <c r="C10" s="2">
-        <v>9.9970729895002844E-2</v>
+        <v>9.9897983490968345E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>61762617.799501352</v>
+        <v>61751256.57878799</v>
       </c>
       <c r="E10" s="2">
-        <v>37.503376682768554</v>
+        <v>37.500794701918387</v>
       </c>
       <c r="F10" s="2">
-        <v>39.887875194800991</v>
+        <v>39.891217829731097</v>
       </c>
       <c r="G10" s="2">
-        <v>2.96468843504391E-2</v>
+        <v>2.9380084079757025E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>0.24161039050374877</v>
+        <v>0.2807063187925814</v>
       </c>
       <c r="I10" s="2">
-        <v>8.8736851322044502E-5</v>
+        <v>4.3776289538671251E-6</v>
       </c>
       <c r="J10" s="2">
-        <v>6.1827917279074843E-5</v>
+        <v>5.8995678650725482E-4</v>
       </c>
       <c r="K10" s="2">
-        <v>0.99451206993489205</v>
+        <v>0.99451203050231851</v>
       </c>
       <c r="L10" s="2">
-        <v>0.98430273911189758</v>
+        <v>0.98573432157033036</v>
       </c>
       <c r="M10" s="2">
-        <v>0.99124092134438857</v>
+        <v>0.9909974456683579</v>
       </c>
       <c r="N10" s="2">
-        <v>7.3709231202454359E-2</v>
+        <v>7.3709496014452841E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>0.12466069259883569</v>
+        <v>0.11884031994812579</v>
       </c>
       <c r="P10" s="2">
-        <v>9.3120824035525379E-2</v>
+        <v>9.4406190413159438E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.9675462070291562E-2</v>
+        <v>1.9675564152335179E-2</v>
       </c>
       <c r="R10" s="2">
-        <v>2.6872708758745849E-2</v>
+        <v>2.6627339835673225E-2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8.5966173476283748E-3</v>
+        <v>8.5966929016965572E-3</v>
       </c>
       <c r="B11" s="2">
-        <v>7.5576964837486896E-2</v>
+        <v>7.5576946949317644E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>4.083205714724527E-2</v>
+        <v>4.0833537186040117E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>110535997.81545092</v>
+        <v>110535996.39307971</v>
       </c>
       <c r="E11" s="2">
-        <v>18.843475719718683</v>
+        <v>18.843516114098314</v>
       </c>
       <c r="F11" s="2">
-        <v>71.952028245861996</v>
+        <v>71.951954051593944</v>
       </c>
       <c r="G11" s="2">
-        <v>0.61767771816427552</v>
+        <v>0.61763926893213805</v>
       </c>
       <c r="H11" s="2">
-        <v>9.8468690080231028E-2</v>
+        <v>9.8426590064455019E-2</v>
       </c>
       <c r="I11" s="2">
-        <v>5.3488146179637036E-10</v>
+        <v>3.2760744300542597E-14</v>
       </c>
       <c r="J11" s="2">
-        <v>5.4600006759997276E-11</v>
+        <v>2.6067860633659614E-13</v>
       </c>
       <c r="K11" s="2">
-        <v>0.98377993628833738</v>
+        <v>0.98377993617905313</v>
       </c>
       <c r="L11" s="2">
-        <v>0.98268618915063599</v>
+        <v>0.98268624739338395</v>
       </c>
       <c r="M11" s="2">
-        <v>0.98190427074829167</v>
+        <v>0.98190417543507735</v>
       </c>
       <c r="N11" s="2">
-        <v>0.12671962387312385</v>
+        <v>0.12671962430001657</v>
       </c>
       <c r="O11" s="2">
-        <v>0.13092239205296552</v>
+        <v>0.13092217184476393</v>
       </c>
       <c r="P11" s="2">
-        <v>0.13384607562118209</v>
+        <v>0.13384642811548414</v>
       </c>
       <c r="Q11" s="2">
-        <v>2.1225779808462727E-2</v>
+        <v>2.1264528668600985E-2</v>
       </c>
       <c r="R11" s="2">
-        <v>2.6593503204189375E-2</v>
+        <v>2.6636006187698149E-2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2.484422966876763E-2</v>
+        <v>7.9995800810594611E-2</v>
       </c>
       <c r="B12" s="2">
-        <v>0.548688174495364</v>
+        <v>2.1199179747176009</v>
       </c>
       <c r="C12" s="2">
-        <v>9.9999999999454886E-2</v>
+        <v>4.4729815531932497E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>1451043699.9426327</v>
+        <v>1451043651.324115</v>
       </c>
       <c r="E12" s="2">
-        <v>12.000000000136014</v>
+        <v>12.00000000563757</v>
       </c>
       <c r="F12" s="2">
-        <v>77.205567009344776</v>
+        <v>77.207623827469604</v>
       </c>
       <c r="G12" s="2">
-        <v>0.50226857233473965</v>
+        <v>0.44720101043122329</v>
       </c>
       <c r="H12" s="2">
-        <v>0.99999999999997524</v>
+        <v>4.1964422710924367</v>
       </c>
       <c r="I12" s="2">
-        <v>7.1581570957742841E-8</v>
+        <v>5.5868051800358044E-5</v>
       </c>
       <c r="J12" s="2">
-        <v>2.2367537042701757E-10</v>
+        <v>1.266338994320016E-11</v>
       </c>
       <c r="K12" s="2">
-        <v>0.96577830725755187</v>
+        <v>0.96577834152813924</v>
       </c>
       <c r="L12" s="2">
-        <v>0.92024514422278103</v>
+        <v>0.93035008364770988</v>
       </c>
       <c r="M12" s="2">
-        <v>0.98066981225722893</v>
+        <v>0.9871697809218527</v>
       </c>
       <c r="N12" s="2">
-        <v>0.18406378192089728</v>
+        <v>0.18406368975749171</v>
       </c>
       <c r="O12" s="2">
-        <v>0.28099342913927139</v>
+        <v>0.26258982689504035</v>
       </c>
       <c r="P12" s="2">
-        <v>0.13833613362149241</v>
+        <v>0.11270278118735946</v>
       </c>
       <c r="Q12" s="2">
-        <v>2.0819631505320322E-2</v>
+        <v>2.0725832825291536E-2</v>
       </c>
       <c r="R12" s="2">
-        <v>2.801120448177051E-2</v>
+        <v>2.7676341921565935E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>5.3544805483668996E-3</v>
+        <v>5.3544894210739253E-3</v>
       </c>
       <c r="B13" s="2">
-        <v>2.6088655451939755E-2</v>
+        <v>2.6088969487372056E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>9.9999999999976122E-2</v>
+        <v>9.9999969838394084E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>245215568.69201437</v>
+        <v>245215496.51567894</v>
       </c>
       <c r="E13" s="2">
-        <v>28.493957329015188</v>
+        <v>28.493965854906087</v>
       </c>
       <c r="F13" s="2">
-        <v>56.471391752168415</v>
+        <v>56.47135185715171</v>
       </c>
       <c r="G13" s="2">
-        <v>1.0000034065928785E-2</v>
+        <v>1.0000000000022205E-2</v>
       </c>
       <c r="H13" s="2">
-        <v>1.7334773413134628E-2</v>
+        <v>1.7333222231336976E-2</v>
       </c>
       <c r="I13" s="2">
-        <v>3.3331101907621433E-14</v>
+        <v>4.2621710900428588E-14</v>
       </c>
       <c r="J13" s="2">
-        <v>9.9999999999757522E-3</v>
+        <v>9.9997428505359202E-3</v>
       </c>
       <c r="K13" s="2">
-        <v>0.99859935377952802</v>
+        <v>0.99859935376604192</v>
       </c>
       <c r="L13" s="2">
-        <v>0.99482873884190126</v>
+        <v>0.99482877877996601</v>
       </c>
       <c r="M13" s="2">
-        <v>0.99009993549429876</v>
+        <v>0.99009969433602396</v>
       </c>
       <c r="N13" s="2">
-        <v>3.7237612145078626E-2</v>
+        <v>3.7237612324349509E-2</v>
       </c>
       <c r="O13" s="2">
-        <v>7.1551020583341687E-2</v>
+        <v>7.1550744285672124E-2</v>
       </c>
       <c r="P13" s="2">
-        <v>9.90003225279808E-2</v>
+        <v>9.9001528308083647E-2</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.9607843278592513E-2</v>
+        <v>1.9607843137277106E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>2.6534500435993966E-2</v>
+        <v>2.6537179287347015E-2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>3.7611854946927692E-3</v>
+        <v>3.7820117060234351E-3</v>
       </c>
       <c r="B14" s="2">
-        <v>2.5565931022230447E-2</v>
+        <v>2.3924947231329378E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>3.5321231229687819E-2</v>
+        <v>3.772495262467563E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>2505455714.6952477</v>
+        <v>2505929592.9238524</v>
       </c>
       <c r="E14" s="2">
-        <v>33.023716670948112</v>
+        <v>33.023921667142325</v>
       </c>
       <c r="F14" s="2">
-        <v>59.464318160760158</v>
+        <v>59.464306543436585</v>
       </c>
       <c r="G14" s="2">
-        <v>0.73350512826641245</v>
+        <v>0.73374685375860693</v>
       </c>
       <c r="H14" s="2">
-        <v>1.4414486891105648E-2</v>
+        <v>6.700343673501627E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>9.9327927916984752E-3</v>
+        <v>9.9999999999777923E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>1.3208270856694955E-4</v>
+        <v>3.2204616226998562E-14</v>
       </c>
       <c r="K14" s="2">
-        <v>0.99716412180665903</v>
+        <v>0.99716413840497387</v>
       </c>
       <c r="L14" s="2">
-        <v>0.99332643771301776</v>
+        <v>0.99336476366033988</v>
       </c>
       <c r="M14" s="2">
-        <v>0.99212247336633141</v>
+        <v>0.99190939104231102</v>
       </c>
       <c r="N14" s="2">
-        <v>5.2986030342039983E-2</v>
+        <v>5.2985875278944446E-2</v>
       </c>
       <c r="O14" s="2">
-        <v>8.1282388400639324E-2</v>
+        <v>8.1048651908983471E-2</v>
       </c>
       <c r="P14" s="2">
-        <v>8.831053938988187E-2</v>
+        <v>8.9496943345078156E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>2.1273982818421418E-2</v>
+        <v>2.1160555762616579E-2</v>
       </c>
       <c r="R14" s="2">
-        <v>2.6532383197032189E-2</v>
+        <v>2.7455985721792114E-2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>5.1199478980145652E-3</v>
+        <v>5.1282409108099935E-3</v>
       </c>
       <c r="B15" s="2">
-        <v>4.7267980561571388E-2</v>
+        <v>4.7227164101719371E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>6.2905539435138727E-2</v>
+        <v>6.3222470659406588E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>246228258.5315257</v>
+        <v>246253277.70429674</v>
       </c>
       <c r="E15" s="2">
-        <v>18.180706790665628</v>
+        <v>18.180903852836924</v>
       </c>
       <c r="F15" s="2">
-        <v>67.337308865104603</v>
+        <v>67.338447797047237</v>
       </c>
       <c r="G15" s="2">
-        <v>1.0000000000039561E-2</v>
+        <v>1.0000000000029064E-2</v>
       </c>
       <c r="H15" s="2">
-        <v>1.0743085172171422E-2</v>
+        <v>1.0649080931625041E-2</v>
       </c>
       <c r="I15" s="2">
-        <v>3.9290826589744681E-14</v>
+        <v>4.1842391003980447E-14</v>
       </c>
       <c r="J15" s="2">
-        <v>9.9999999975049127E-3</v>
+        <v>9.9999999999705672E-3</v>
       </c>
       <c r="K15" s="2">
-        <v>0.99864701909399545</v>
+        <v>0.99864696188183077</v>
       </c>
       <c r="L15" s="2">
-        <v>0.98413426305868923</v>
+        <v>0.98419644067698142</v>
       </c>
       <c r="M15" s="2">
-        <v>0.99348792197162894</v>
+        <v>0.9934837874540966</v>
       </c>
       <c r="N15" s="2">
-        <v>3.6598512223100878E-2</v>
+        <v>3.6599286017455046E-2</v>
       </c>
       <c r="O15" s="2">
-        <v>0.12532788824478638</v>
+        <v>0.12508206797854104</v>
       </c>
       <c r="P15" s="2">
-        <v>8.0292946440439633E-2</v>
+        <v>8.031843138685156E-2</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.960784313729446E-2</v>
+        <v>1.9607843137283962E-2</v>
       </c>
       <c r="R15" s="2">
-        <v>2.6526016201373685E-2</v>
+        <v>2.6545788850003051E-2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2.6357140665028162E-3</v>
+        <v>1.2219804479512007E-2</v>
       </c>
       <c r="B16" s="2">
-        <v>0.22097747374057819</v>
+        <v>1.5407421131841468</v>
       </c>
       <c r="C16" s="2">
-        <v>9.9999999999976386E-2</v>
+        <v>8.7049161434058941E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>1520030069.0057569</v>
+        <v>1518592169.7783759</v>
       </c>
       <c r="E16" s="2">
-        <v>42.233840979344066</v>
+        <v>42.232091465523169</v>
       </c>
       <c r="F16" s="2">
-        <v>67.258455347920034</v>
+        <v>67.259433080697818</v>
       </c>
       <c r="G16" s="2">
-        <v>0.65485030604715355</v>
+        <v>0.64458672748588641</v>
       </c>
       <c r="H16" s="2">
-        <v>0.99999999999995892</v>
+        <v>7.968935280125657</v>
       </c>
       <c r="I16" s="2">
-        <v>3.2205104626606272E-14</v>
+        <v>9.9471407296149519E-3</v>
       </c>
       <c r="J16" s="2">
-        <v>3.2469114290095237E-14</v>
+        <v>1.6078669381512219E-5</v>
       </c>
       <c r="K16" s="2">
-        <v>0.99372489872940917</v>
+        <v>0.99372482295721143</v>
       </c>
       <c r="L16" s="2">
-        <v>0.96158848696192278</v>
+        <v>0.96432830090977673</v>
       </c>
       <c r="M16" s="2">
-        <v>0.93221528541603726</v>
+        <v>0.90034848736082906</v>
       </c>
       <c r="N16" s="2">
-        <v>7.881846394015124E-2</v>
+        <v>7.8818939807387953E-2</v>
       </c>
       <c r="O16" s="2">
-        <v>0.19500614838434299</v>
+        <v>0.18792280888524682</v>
       </c>
       <c r="P16" s="2">
-        <v>0.25904993232603452</v>
+        <v>0.31409393103461786</v>
       </c>
       <c r="Q16" s="2">
-        <v>2.1252851843615587E-2</v>
+        <v>2.1252264074040884E-2</v>
       </c>
       <c r="R16" s="2">
-        <v>2.8011204481770476E-2</v>
+        <v>2.7952753326306534E-2</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>6.7948149305836654E-3</v>
+        <v>6.7947656284661614E-3</v>
       </c>
       <c r="B17" s="2">
-        <v>0.168014430025443</v>
+        <v>0.16801266034993198</v>
       </c>
       <c r="C17" s="2">
-        <v>2.6316124966346988E-2</v>
+        <v>2.6316046898588817E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>63316808.052846134</v>
+        <v>63316737.042172998</v>
       </c>
       <c r="E17" s="2">
-        <v>32.821068749902935</v>
+        <v>32.82115792559263</v>
       </c>
       <c r="F17" s="2">
-        <v>56.40340088678083</v>
+        <v>56.403312736865651</v>
       </c>
       <c r="G17" s="2">
-        <v>1.0000012081835695E-2</v>
+        <v>1.0000017535083231E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>5.1687544118648891E-2</v>
+        <v>5.1704050724821357E-2</v>
       </c>
       <c r="I17" s="2">
-        <v>4.4727504173871706E-10</v>
+        <v>4.5453042865373226E-10</v>
       </c>
       <c r="J17" s="2">
-        <v>9.9999875984612494E-3</v>
+        <v>9.999929812362824E-3</v>
       </c>
       <c r="K17" s="2">
-        <v>0.99612548610314</v>
+        <v>0.99612548679244484</v>
       </c>
       <c r="L17" s="2">
-        <v>0.97570643760554632</v>
+        <v>0.97570578787865492</v>
       </c>
       <c r="M17" s="2">
-        <v>0.99468610933668</v>
+        <v>0.99468587017240684</v>
       </c>
       <c r="N17" s="2">
-        <v>6.193358344138826E-2</v>
+        <v>6.1933577932165869E-2</v>
       </c>
       <c r="O17" s="2">
-        <v>0.15508264496876856</v>
+        <v>0.15508471878341726</v>
       </c>
       <c r="P17" s="2">
-        <v>7.253103995315939E-2</v>
+        <v>7.2532672150674174E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.9607843157620135E-2</v>
+        <v>1.9607844274001546E-2</v>
       </c>
       <c r="R17" s="2">
-        <v>2.6583961549957996E-2</v>
+        <v>2.6566314837746543E-2</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2.2362757669413497E-2</v>
+        <v>2.2414573992712281E-2</v>
       </c>
       <c r="B18" s="2">
-        <v>0.44317941837882197</v>
+        <v>0.44218634014065578</v>
       </c>
       <c r="C18" s="2">
-        <v>9.9997538266905939E-2</v>
+        <v>9.9999941853334787E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>1831633444.395858</v>
+        <v>1831653779.7679343</v>
       </c>
       <c r="E18" s="2">
-        <v>13.761915608029204</v>
+        <v>13.761755721424375</v>
       </c>
       <c r="F18" s="2">
-        <v>72.559171492127277</v>
+        <v>72.559119124865234</v>
       </c>
       <c r="G18" s="2">
-        <v>0.55582267615613101</v>
+        <v>0.55596834314550359</v>
       </c>
       <c r="H18" s="2">
-        <v>0.27845077781799188</v>
+        <v>0.27766501636427904</v>
       </c>
       <c r="I18" s="2">
-        <v>9.5769108440663419E-10</v>
+        <v>6.5481606623579643E-14</v>
       </c>
       <c r="J18" s="2">
-        <v>5.931258553957223E-3</v>
+        <v>8.2999886118840654E-3</v>
       </c>
       <c r="K18" s="2">
-        <v>0.99527498280796078</v>
+        <v>0.99527494338634492</v>
       </c>
       <c r="L18" s="2">
-        <v>0.96689731351638464</v>
+        <v>0.96692189937028938</v>
       </c>
       <c r="M18" s="2">
-        <v>0.99058588898251099</v>
+        <v>0.99058789577472661</v>
       </c>
       <c r="N18" s="2">
-        <v>6.8394203117799895E-2</v>
+        <v>6.8394488429394287E-2</v>
       </c>
       <c r="O18" s="2">
-        <v>0.18102944406581828</v>
+        <v>0.18096220495842089</v>
       </c>
       <c r="P18" s="2">
-        <v>9.6539991233240516E-2</v>
+        <v>9.652970104077134E-2</v>
       </c>
       <c r="Q18" s="2">
-        <v>2.1036571785094701E-2</v>
+        <v>2.0935107785469052E-2</v>
       </c>
       <c r="R18" s="2">
-        <v>2.6867372780509297E-2</v>
+        <v>2.6862116223883185E-2</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -8690,223 +8690,223 @@
         <v>7.9999999999977797E-2</v>
       </c>
       <c r="B19" s="2">
-        <v>8.966010563456564E-2</v>
+        <v>8.966021121226822E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>2.6315789473706708E-2</v>
+        <v>2.6315789473706414E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>50540652.538597472</v>
+        <v>50540652.261695243</v>
       </c>
       <c r="E19" s="2">
-        <v>25.913858634253469</v>
+        <v>25.913617603077387</v>
       </c>
       <c r="F19" s="2">
-        <v>62.398474319054834</v>
+        <v>62.39890241089919</v>
       </c>
       <c r="G19" s="2">
-        <v>0.60844375324832323</v>
+        <v>0.60858773968870994</v>
       </c>
       <c r="H19" s="2">
-        <v>2.7337576462009381E-2</v>
+        <v>2.7325693300188445E-2</v>
       </c>
       <c r="I19" s="2">
-        <v>3.220446049250329E-14</v>
+        <v>3.367492100237162E-14</v>
       </c>
       <c r="J19" s="2">
-        <v>3.2638565114095641E-14</v>
+        <v>3.2236804747761496E-14</v>
       </c>
       <c r="K19" s="2">
-        <v>0.98245617229471505</v>
+        <v>0.98245650608072943</v>
       </c>
       <c r="L19" s="2">
-        <v>0.9313162494548981</v>
+        <v>0.93131529299122373</v>
       </c>
       <c r="M19" s="2">
-        <v>0.93501958607585667</v>
+        <v>0.93501944918516644</v>
       </c>
       <c r="N19" s="2">
-        <v>0.13178918555113725</v>
+        <v>0.13178793184536233</v>
       </c>
       <c r="O19" s="2">
-        <v>0.26076217716465488</v>
+        <v>0.26076399279557083</v>
       </c>
       <c r="P19" s="2">
-        <v>0.25363479608464984</v>
+        <v>0.2536350632437977</v>
       </c>
       <c r="Q19" s="2">
-        <v>2.110165987808248E-2</v>
+        <v>2.0955005996024744E-2</v>
       </c>
       <c r="R19" s="2">
-        <v>2.6546559914688576E-2</v>
+        <v>2.655856155072174E-2</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1.0759029324079272E-2</v>
+        <v>1.0758846529378896E-2</v>
       </c>
       <c r="B20" s="2">
-        <v>0.10806440153231296</v>
+        <v>0.1080601053497257</v>
       </c>
       <c r="C20" s="2">
-        <v>9.9999999999865849E-2</v>
+        <v>9.9999999995847952E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>1442195507.9818859</v>
+        <v>1442195534.1025643</v>
       </c>
       <c r="E20" s="2">
-        <v>21.071899069677666</v>
+        <v>21.071898735718264</v>
       </c>
       <c r="F20" s="2">
-        <v>66.224948294347939</v>
+        <v>66.224948081172158</v>
       </c>
       <c r="G20" s="2">
-        <v>0.64161205898035911</v>
+        <v>0.64164541586563473</v>
       </c>
       <c r="H20" s="2">
-        <v>0.11940514825193088</v>
+        <v>0.11940460893833431</v>
       </c>
       <c r="I20" s="2">
-        <v>2.843330400548159E-12</v>
+        <v>3.2885677157007031E-14</v>
       </c>
       <c r="J20" s="2">
-        <v>9.9999988405638767E-3</v>
+        <v>9.9999941587952078E-3</v>
       </c>
       <c r="K20" s="2">
-        <v>0.99428979830560293</v>
+        <v>0.99428979829162678</v>
       </c>
       <c r="L20" s="2">
-        <v>0.99141732978265473</v>
+        <v>0.99141704400154507</v>
       </c>
       <c r="M20" s="2">
-        <v>0.99019570580954175</v>
+        <v>0.99019673287381416</v>
       </c>
       <c r="N20" s="2">
-        <v>7.5187097812411327E-2</v>
+        <v>7.5187097904424266E-2</v>
       </c>
       <c r="O20" s="2">
-        <v>9.2178324540923715E-2</v>
+        <v>9.2179859180139809E-2</v>
       </c>
       <c r="P20" s="2">
-        <v>9.8520308812719781E-2</v>
+        <v>9.8515148352545268E-2</v>
       </c>
       <c r="Q20" s="2">
-        <v>2.0973295676043606E-2</v>
+        <v>2.0940133766539439E-2</v>
       </c>
       <c r="R20" s="2">
-        <v>2.6672789715633204E-2</v>
+        <v>2.6664638680777914E-2</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>7.6944337044300348E-3</v>
+        <v>7.6944353847489587E-3</v>
       </c>
       <c r="B21" s="2">
-        <v>0.18642578593065726</v>
+        <v>0.18642579505617535</v>
       </c>
       <c r="C21" s="2">
-        <v>9.9999999999977801E-2</v>
+        <v>9.9999999999977537E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>2066751694.6130178</v>
+        <v>2066742181.6547418</v>
       </c>
       <c r="E21" s="2">
-        <v>15.152082157970085</v>
+        <v>15.152078376938222</v>
       </c>
       <c r="F21" s="2">
-        <v>69.229555886375422</v>
+        <v>69.229554733903569</v>
       </c>
       <c r="G21" s="2">
-        <v>0.62015468114133709</v>
+        <v>0.62010803220882349</v>
       </c>
       <c r="H21" s="2">
-        <v>0.14492588275622542</v>
+        <v>0.14486571494817149</v>
       </c>
       <c r="I21" s="2">
-        <v>3.2204559023339198E-14</v>
+        <v>3.2219969761073942E-14</v>
       </c>
       <c r="J21" s="2">
-        <v>9.999999999789979E-3</v>
+        <v>9.9999998031914273E-3</v>
       </c>
       <c r="K21" s="2">
-        <v>0.98943801322145664</v>
+        <v>0.98943801295788181</v>
       </c>
       <c r="L21" s="2">
-        <v>0.98056065706875795</v>
+        <v>0.98056065071422172</v>
       </c>
       <c r="M21" s="2">
-        <v>0.98156150579240986</v>
+        <v>0.98156151121044488</v>
       </c>
       <c r="N21" s="2">
-        <v>0.10225637833777387</v>
+        <v>0.10225637961367993</v>
       </c>
       <c r="O21" s="2">
-        <v>0.13872616732949003</v>
+        <v>0.13872619000362005</v>
       </c>
       <c r="P21" s="2">
-        <v>0.13510776907903643</v>
+        <v>0.13510774922875274</v>
       </c>
       <c r="Q21" s="2">
-        <v>2.122528494333693E-2</v>
+        <v>2.1268879356739229E-2</v>
       </c>
       <c r="R21" s="2">
-        <v>2.6678562379358721E-2</v>
+        <v>2.6738748636299305E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>6.7398310494739926E-3</v>
+        <v>6.7394881246062082E-3</v>
       </c>
       <c r="B22" s="2">
-        <v>0.22290286373119217</v>
+        <v>0.22288772269066778</v>
       </c>
       <c r="C22" s="2">
-        <v>9.9999999791558727E-2</v>
+        <v>9.9999578450822635E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>1070399379.9948366</v>
+        <v>1070399379.9953802</v>
       </c>
       <c r="E22" s="2">
-        <v>15.623289739233876</v>
+        <v>15.623301977201482</v>
       </c>
       <c r="F22" s="2">
-        <v>75.123932398316541</v>
+        <v>75.123920270112976</v>
       </c>
       <c r="G22" s="2">
-        <v>0.54377409760023998</v>
+        <v>0.54378021977986613</v>
       </c>
       <c r="H22" s="2">
-        <v>0.18253535474546018</v>
+        <v>0.18244862759337888</v>
       </c>
       <c r="I22" s="2">
-        <v>8.2559360702717407E-8</v>
+        <v>1.213006043327594E-10</v>
       </c>
       <c r="J22" s="2">
-        <v>2.7534271388347482E-7</v>
+        <v>8.1399851267505377E-7</v>
       </c>
       <c r="K22" s="2">
-        <v>0.99162805440929291</v>
+        <v>0.99162805438562696</v>
       </c>
       <c r="L22" s="2">
-        <v>0.93842197202228206</v>
+        <v>0.93842103228033036</v>
       </c>
       <c r="M22" s="2">
-        <v>0.9921309821534936</v>
+        <v>0.99213252240181304</v>
       </c>
       <c r="N22" s="2">
-        <v>9.1039695379543054E-2</v>
+        <v>9.1039695508219567E-2</v>
       </c>
       <c r="O22" s="2">
-        <v>0.24690534157433841</v>
+        <v>0.24690722557769137</v>
       </c>
       <c r="P22" s="2">
-        <v>8.8262832880218509E-2</v>
+        <v>8.8254194360410654E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>2.0682745671593006E-2</v>
+        <v>2.0676995498849923E-2</v>
       </c>
       <c r="R22" s="2">
-        <v>2.6719952401461845E-2</v>
+        <v>2.6785240393197397E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -8983,27 +8983,27 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>2.1001291329547363E-3</v>
+        <v>2.1100909706491798E-3</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>6.6344325228484607E-3</v>
+        <v>5.4412791850417426E-3</v>
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(A$7:A$12,A$17:A$19)</f>
-        <v>1.8632184488774763E-2</v>
+        <v>2.5688611490794242E-2</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>4.217832001894262E-3</v>
+        <v>6.6211366293548405E-3</v>
       </c>
       <c r="F24" s="2">
         <f>A$20</f>
-        <v>1.0759029324079272E-2</v>
+        <v>1.0758846529378896E-2</v>
       </c>
       <c r="G24" s="2">
         <f>AVERAGE(A$21:A$22)</f>
-        <v>7.2171323769520141E-3</v>
+        <v>7.2169617546775835E-3</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" ref="N24:N44" si="2">_xlfn.IFS(ABS(A2-T$5)&lt;=0.01*T$5,"Lower",ABS(A2-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
@@ -9057,24 +9057,24 @@
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>2.2725967521505301E-4</v>
+        <v>2.3570977158928898E-4</v>
       </c>
       <c r="C25" s="2">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>1.4738599434207719E-3</v>
+        <v>1.0270739566951275E-3</v>
       </c>
       <c r="D25" s="2">
         <f>STDEV(A$7:A$12,A$17:A$19)/SQRT(COUNT(A$7:A$12,A$17:A$19))</f>
-        <v>8.0834831872766671E-3</v>
+        <v>1.0410719849336942E-2</v>
       </c>
       <c r="E25" s="2">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>6.3360122857742784E-4</v>
+        <v>1.8982194464673204E-3</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f>STDEV(A$21:A$22)/SQRT(COUNT(A$21:A$22))</f>
-        <v>4.7730132747802112E-4</v>
+        <v>4.7747363007137519E-4</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="AE27" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -9249,27 +9249,27 @@
       </c>
       <c r="C28" s="2">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>9.2818145298093388E-2</v>
+        <v>9.359041482280861E-2</v>
       </c>
       <c r="D28" s="2">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>0.43188845352491184</v>
+        <v>0.29639939163562595</v>
       </c>
       <c r="E28" s="2">
         <f>AVERAGE(B$7:B$12,B$17:B$19)</f>
-        <v>0.2344887167481633</v>
+        <v>0.54454027900184387</v>
       </c>
       <c r="F28" s="2">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>7.9975010194079946E-2</v>
+        <v>0.40949579850114187</v>
       </c>
       <c r="G28" s="2">
         <f>B$20</f>
-        <v>0.10806440153231296</v>
+        <v>0.1080601053497257</v>
       </c>
       <c r="H28" s="2">
         <f>AVERAGE(B$21:B$22)</f>
-        <v>0.20466432483092473</v>
+        <v>0.20465675887342155</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
@@ -9323,24 +9323,24 @@
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>1.1993739194087553E-2</v>
+        <v>1.121356976322461E-2</v>
       </c>
       <c r="D29" s="2">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>0.21677497345924515</v>
+        <v>8.3531808099919128E-2</v>
       </c>
       <c r="E29" s="2">
         <f>STDEV(B$7:B$12,B$17:B$19)/SQRT(COUNT(B$7:B$12,B$17:B$19))</f>
-        <v>6.2168745082076066E-2</v>
+        <v>0.25388093896624792</v>
       </c>
       <c r="F29" s="2">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>4.7271848244390062E-2</v>
+        <v>0.37711873305331223</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
         <f>STDEV(B$21:B$22)/SQRT(COUNT(B$21:B$22))</f>
-        <v>1.8238538900267456E-2</v>
+        <v>1.8230963817246218E-2</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="P31" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="0"/>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="0"/>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="W31" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AD31" t="str">
         <f t="shared" si="1"/>
@@ -9515,27 +9515,27 @@
       </c>
       <c r="D32" s="2">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>5.0868748663837837E-2</v>
+        <v>5.0863972259229416E-2</v>
       </c>
       <c r="E32" s="2">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>5.0864252470759146E-2</v>
+        <v>5.0877195536079112E-2</v>
       </c>
       <c r="F32" s="2">
         <f>AVERAGE(C$7:C$12,C$17:C$19)</f>
-        <v>6.9876411281357811E-2</v>
+        <v>5.5663709748780849E-2</v>
       </c>
       <c r="G32" s="2">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>7.455669266619476E-2</v>
+        <v>7.199913863913382E-2</v>
       </c>
       <c r="H32" s="2">
         <f>C$20</f>
-        <v>9.9999999999865849E-2</v>
+        <v>9.9999999995847952E-2</v>
       </c>
       <c r="I32" s="2">
         <f>AVERAGE(C$21:C$22)</f>
-        <v>9.9999999895768271E-2</v>
+        <v>9.9999789225400093E-2</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="2"/>
@@ -9583,30 +9583,30 @@
       </c>
       <c r="AE32" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
     </row>
     <row r="33" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>2.4552918518606016E-2</v>
+        <v>2.4535035863670722E-2</v>
       </c>
       <c r="E33" s="2">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>2.4547279159958829E-2</v>
+        <v>2.4561291627523522E-2</v>
       </c>
       <c r="F33" s="2">
         <f>STDEV(C$7:C$12,C$17:C$19)/SQRT(COUNT(C$7:C$12,C$17:C$19))</f>
-        <v>1.1994584780844628E-2</v>
+        <v>1.1276793838924134E-2</v>
       </c>
       <c r="G33" s="2">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>1.573185351950963E-2</v>
+        <v>1.3730439000499585E-2</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2">
         <f>STDEV(C$21:C$22)/SQRT(COUNT(C$21:C$22))</f>
-        <v>1.0420953683309997E-10</v>
+        <v>2.1077457745127812E-7</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
@@ -9660,7 +9660,7 @@
     <row r="34" spans="4:31" x14ac:dyDescent="0.25">
       <c r="N34" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="0"/>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="P34" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="0"/>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="U34" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="0"/>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="AE34" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="35" spans="4:31" x14ac:dyDescent="0.25">
@@ -9781,27 +9781,27 @@
       </c>
       <c r="E36" s="2">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>633622671.09765995</v>
+        <v>633600078.10991585</v>
       </c>
       <c r="F36" s="2">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>429431962.72254306</v>
+        <v>436358038.74599642</v>
       </c>
       <c r="G36" s="2">
         <f>AVERAGE(D$7:D$12,D$17:D$19)</f>
-        <v>670372763.92028725</v>
+        <v>672962475.69047189</v>
       </c>
       <c r="H36" s="2">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>1129232402.7311361</v>
+        <v>1128997634.230551</v>
       </c>
       <c r="I36" s="2">
         <f>D$20</f>
-        <v>1442195507.9818859</v>
+        <v>1442195534.1025643</v>
       </c>
       <c r="J36" s="2">
         <f>AVERAGE(D$21:D$22)</f>
-        <v>1568575537.3039272</v>
+        <v>1568570780.8250608</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
@@ -9849,30 +9849,30 @@
       </c>
       <c r="AE36" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="37" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>303200885.06844538</v>
+        <v>303194012.86937314</v>
       </c>
       <c r="F37" s="2">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>326583444.34512126</v>
+        <v>333527619.45649195</v>
       </c>
       <c r="G37" s="2">
         <f>STDEV(D$7:D$12,D$17:D$19)/SQRT(COUNT(D$7:D$12,D$17:D$19))</f>
-        <v>225362239.38108262</v>
+        <v>225118541.54517484</v>
       </c>
       <c r="H37" s="2">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>548322859.71993709</v>
+        <v>548333382.99816275</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2">
         <f>STDEV(D$21:D$22)/SQRT(COUNT(D$21:D$22))</f>
-        <v>498176157.30909073</v>
+        <v>498171400.82968128</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="2"/>
@@ -9934,31 +9934,31 @@
       </c>
       <c r="P38" t="str">
         <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="0"/>
         <v>Upper</v>
-      </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U38" t="str">
-        <f t="shared" si="0"/>
-        <v>Upper</v>
-      </c>
-      <c r="V38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="0"/>
@@ -10047,27 +10047,27 @@
       </c>
       <c r="F40" s="2">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>20.597155249553094</v>
+        <v>20.597126729915704</v>
       </c>
       <c r="G40" s="2">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>22.151515922238428</v>
+        <v>22.140472840038697</v>
       </c>
       <c r="H40" s="2">
         <f>AVERAGE(E$7:E$12,E$17:E$19)</f>
-        <v>27.065332195618783</v>
+        <v>27.082543523464565</v>
       </c>
       <c r="I40" s="2">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>30.483055442493249</v>
+        <v>30.482720710102125</v>
       </c>
       <c r="J40" s="2">
         <f>E$20</f>
-        <v>21.071899069677666</v>
+        <v>21.071898735718264</v>
       </c>
       <c r="K40" s="2">
         <f>AVERAGE(E$21:E$22)</f>
-        <v>15.38768594860198</v>
+        <v>15.387690177069853</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
@@ -10121,24 +10121,24 @@
     <row r="41" spans="4:31" x14ac:dyDescent="0.25">
       <c r="F41" s="2">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.6192973300627467</v>
+        <v>1.6192689701962997</v>
       </c>
       <c r="G41" s="2">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>5.4509860762583191</v>
+        <v>5.4608383651297343</v>
       </c>
       <c r="H41" s="2">
         <f>STDEV(E$7:E$12,E$17:E$19)/SQRT(COUNT(E$7:E$12,E$17:E$19))</f>
-        <v>3.3671168297151262</v>
+        <v>3.3686034460254519</v>
       </c>
       <c r="I41" s="2">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>4.9986682715416162</v>
+        <v>4.9982935364329251</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
         <f>STDEV(E$21:E$22)/SQRT(COUNT(E$21:E$22))</f>
-        <v>0.23560379063189529</v>
+        <v>0.23561180013162986</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="AD41" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AE41" t="str">
         <f t="shared" si="1"/>
@@ -10313,27 +10313,27 @@
       </c>
       <c r="G44" s="2">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>63.472995846278707</v>
+        <v>63.473007639610124</v>
       </c>
       <c r="H44" s="2">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>61.889515079945674</v>
+        <v>61.908590065155039</v>
       </c>
       <c r="I44" s="2">
         <f>AVERAGE(F$7:F$12,F$17:F$19)</f>
-        <v>62.701474248091728</v>
+        <v>62.724386845706022</v>
       </c>
       <c r="J44" s="2">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>62.632868531488306</v>
+        <v>62.633384819583341</v>
       </c>
       <c r="K44" s="2">
         <f>F$20</f>
-        <v>66.224948294347939</v>
+        <v>66.224948081172158</v>
       </c>
       <c r="L44" s="2">
         <f>AVERAGE(F$21:F$22)</f>
-        <v>72.176744142345981</v>
+        <v>72.17673750200828</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
@@ -10387,24 +10387,24 @@
     <row r="45" spans="4:31" x14ac:dyDescent="0.25">
       <c r="G45" s="2">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>2.7002248058917107</v>
+        <v>2.7002523397114855</v>
       </c>
       <c r="H45" s="2">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>4.455262769280341</v>
+        <v>4.4757846359390419</v>
       </c>
       <c r="I45" s="2">
         <f>STDEV(F$7:F$12,F$17:F$19)/SQRT(COUNT(F$7:F$12,F$17:F$19))</f>
-        <v>3.7935178192878136</v>
+        <v>3.7963914944534074</v>
       </c>
       <c r="J45" s="2">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>2.7618128074817472</v>
+        <v>2.7621194683084243</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2">
         <f>STDEV(F$21:F$22)/SQRT(COUNT(F$21:F$22))</f>
-        <v>2.9471882559705587</v>
+        <v>2.9471827681047031</v>
       </c>
       <c r="N45" t="s">
         <v>6</v>
@@ -10487,50 +10487,50 @@
       </c>
       <c r="H48" s="2">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>0.43346035797148019</v>
+        <v>0.43344643732086635</v>
       </c>
       <c r="I48" s="2">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>0.196532097703467</v>
+        <v>0.20166386418593299</v>
       </c>
       <c r="J48" s="2">
         <f>AVERAGE(G$7:G$12,G$17:G$19)</f>
-        <v>0.43023011394463978</v>
+        <v>0.42400848366470806</v>
       </c>
       <c r="K48" s="2">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>0.35208886709488357</v>
+        <v>0.34958339531113614</v>
       </c>
       <c r="L48" s="2">
         <f>G$20</f>
-        <v>0.64161205898035911</v>
+        <v>0.64164541586563473</v>
       </c>
       <c r="M48" s="2">
         <f>AVERAGE(G$21:G$22)</f>
-        <v>0.58196438937078854</v>
+        <v>0.58194412599434475</v>
       </c>
     </row>
     <row r="49" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H49" s="2">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>0.21319663172543957</v>
+        <v>0.21319122995199133</v>
       </c>
       <c r="I49" s="2">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.18653208822210188</v>
+        <v>0.19166386411300004</v>
       </c>
       <c r="J49" s="2">
         <f>STDEV(G$7:G$12,G$17:G$19)/SQRT(COUNT(G$7:G$12,G$17:G$19))</f>
-        <v>0.10157683756220913</v>
+        <v>0.10128409383879527</v>
       </c>
       <c r="K49" s="2">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.19815659125126756</v>
+        <v>0.19690147568910607</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2">
         <f>STDEV(G$21:G$22)/SQRT(COUNT(G$21:G$22))</f>
-        <v>3.8190291770548557E-2</v>
+        <v>3.8163906214478682E-2</v>
       </c>
     </row>
     <row r="51" spans="8:26" x14ac:dyDescent="0.25">
@@ -10559,50 +10559,50 @@
       </c>
       <c r="I52" s="2">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>3.6286411899082473E-2</v>
+        <v>3.7453688193431457E-2</v>
       </c>
       <c r="J52" s="2">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>0.26385942952199509</v>
+        <v>0.15575771236045863</v>
       </c>
       <c r="K52" s="2">
         <f>AVERAGE(H$7:H$12,H$17:H$19)</f>
-        <v>0.31383707412990214</v>
+        <v>1.066609026955291</v>
       </c>
       <c r="L52" s="2">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>0.26062308636909265</v>
+        <v>2.0009044817405304</v>
       </c>
       <c r="M52" s="2">
         <f>H$20</f>
-        <v>0.11940514825193088</v>
+        <v>0.11940460893833431</v>
       </c>
       <c r="N52" s="2">
         <f>AVERAGE(H$21:H$22)</f>
-        <v>0.1637306187508428</v>
+        <v>0.16365717127077517</v>
       </c>
     </row>
     <row r="53" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I53" s="2">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>1.663669593057689E-2</v>
+        <v>1.5897016152027023E-2</v>
       </c>
       <c r="J53" s="2">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>0.17166136754163663</v>
+        <v>6.4519973337094499E-2</v>
       </c>
       <c r="K53" s="2">
         <f>STDEV(H$7:H$12,H$17:H$19)/SQRT(COUNT(H$7:H$12,H$17:H$19))</f>
-        <v>0.13287076105558546</v>
+        <v>0.62542747599373405</v>
       </c>
       <c r="L53" s="2">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>0.24646265996534966</v>
+        <v>1.9893448095783732</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2">
         <f>STDEV(H$21:H$22)/SQRT(COUNT(H$21:H$22))</f>
-        <v>1.8804735994617402E-2</v>
+        <v>1.8791456322603688E-2</v>
       </c>
     </row>
     <row r="55" spans="8:26" x14ac:dyDescent="0.25">
@@ -10631,50 +10631,50 @@
       </c>
       <c r="J56" s="2">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>3.3953097177711229E-3</v>
+        <v>3.3334287308396525E-3</v>
       </c>
       <c r="K56" s="2">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>8.8282120593786674E-7</v>
+        <v>9.3680069212702481E-8</v>
       </c>
       <c r="L56" s="2">
         <f>AVERAGE(I$7:I$12,I$17:I$19)</f>
-        <v>1.1209793148765927E-3</v>
+        <v>1.119150436982638E-3</v>
       </c>
       <c r="M56" s="2">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>2.4831981979508257E-3</v>
+        <v>4.9867851824193024E-3</v>
       </c>
       <c r="N56" s="2">
         <f>I$20</f>
-        <v>2.843330400548159E-12</v>
+        <v>3.2885677157007031E-14</v>
       </c>
       <c r="O56" s="2">
         <f>AVERAGE(I$21:I$22)</f>
-        <v>4.1279696453638215E-8</v>
+        <v>6.0666412151260243E-11</v>
       </c>
     </row>
     <row r="57" spans="8:26" x14ac:dyDescent="0.25">
       <c r="J57" s="2">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>3.3027812666634468E-3</v>
+        <v>3.3332856193609281E-3</v>
       </c>
       <c r="K57" s="2">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>6.6602333795786044E-7</v>
+        <v>8.8969147842378764E-8</v>
       </c>
       <c r="L57" s="2">
         <f>STDEV(I$7:I$12,I$17:I$19)/SQRT(COUNT(I$7:I$12,I$17:I$19))</f>
-        <v>1.1099206839491158E-3</v>
+        <v>1.1101226548786767E-3</v>
       </c>
       <c r="M57" s="2">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>2.4831981979158832E-3</v>
+        <v>2.8791419854986553E-3</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2">
         <f>STDEV(I$21:I$22)/SQRT(COUNT(I$21:I$22))</f>
-        <v>4.1279664249079192E-8</v>
+        <v>6.063419218149916E-11</v>
       </c>
     </row>
     <row r="59" spans="8:26" x14ac:dyDescent="0.25">
@@ -10703,50 +10703,50 @@
       </c>
       <c r="K60" s="2">
         <f>AVERAGE(J$1:J$3)</f>
-        <v>3.3333430095271155E-3</v>
+        <v>3.3334214799821877E-3</v>
       </c>
       <c r="L60" s="2">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>8.929136820414128E-3</v>
+        <v>6.6666835131850176E-3</v>
       </c>
       <c r="M60" s="2">
         <f>AVERAGE(J$7:J$12,J$17:J$19)</f>
-        <v>2.8879858594523015E-3</v>
+        <v>3.1302498839428793E-3</v>
       </c>
       <c r="N60" s="2">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>5.0330206765200215E-3</v>
+        <v>5.0039553799800509E-3</v>
       </c>
       <c r="O60" s="2">
         <f>J$20</f>
-        <v>9.9999988405638767E-3</v>
+        <v>9.9999941587952078E-3</v>
       </c>
       <c r="P60" s="2">
         <f>AVERAGE(J$21:J$22)</f>
-        <v>5.0001376712519316E-3</v>
+        <v>5.0004069008520516E-3</v>
       </c>
     </row>
     <row r="61" spans="8:26" x14ac:dyDescent="0.25">
       <c r="K61" s="2">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
-        <v>3.3333284952352165E-3</v>
+        <v>3.3332882919358871E-3</v>
       </c>
       <c r="L61" s="2">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>1.0708631790687299E-3</v>
+        <v>3.3333164867927318E-3</v>
       </c>
       <c r="M61" s="2">
         <f>STDEV(J$7:J$12,J$17:J$19)/SQRT(COUNT(J$7:J$12,J$17:J$19))</f>
-        <v>1.491155448940396E-3</v>
+        <v>1.5239315274861176E-3</v>
       </c>
       <c r="N61" s="2">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>2.8678135874797761E-3</v>
+        <v>2.884395341322849E-3</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2">
         <f>STDEV(J$21:J$22)/SQRT(COUNT(J$21:J$22))</f>
-        <v>4.9998623285380465E-3</v>
+        <v>4.9995929023393757E-3</v>
       </c>
     </row>
     <row r="63" spans="8:26" x14ac:dyDescent="0.25">
@@ -10775,43 +10775,43 @@
       </c>
       <c r="L64" s="3">
         <f>AVERAGE(K$1:K$3)</f>
-        <v>0.99322700086671922</v>
+        <v>0.99322699489496324</v>
       </c>
       <c r="M64" s="3">
         <f>AVERAGE(K$4:K$6)</f>
-        <v>0.9945440842781158</v>
+        <v>0.99454542744352992</v>
       </c>
       <c r="N64" s="3">
         <f>AVERAGE(K$7:K$12,K$17:K$19)</f>
-        <v>0.98980424274963696</v>
+        <v>0.98980415390676357</v>
       </c>
       <c r="O64" s="3">
         <f>AVERAGE(K$13:K$16)</f>
-        <v>0.99703384835239794</v>
+        <v>0.99703381925251444</v>
       </c>
       <c r="P64" s="3">
         <f>K$20</f>
-        <v>0.99428979830560293</v>
+        <v>0.99428979829162678</v>
       </c>
       <c r="Q64" s="3">
         <f>AVERAGE(K$21:K$22)</f>
-        <v>0.99053303381537483</v>
+        <v>0.99053303367175438</v>
       </c>
       <c r="U64" t="str">
         <f>_xlfn.CONCAT(ROUND(L64,2), " ± ", L65)</f>
-        <v>0.99 ± 0.00164637145107342</v>
+        <v>0.99 ± 0.00164637487278232</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" ref="V64:Z64" si="12">_xlfn.CONCAT(ROUND(M64,2), " ± ", M65)</f>
-        <v>0.99 ± 0.000615872929178806</v>
+        <v>0.99 ± 0.000615827072146363</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="12"/>
-        <v>0.99 ± 0.00354879781997329</v>
+        <v>0.99 ± 0.00354875802374363</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" si="12"/>
-        <v>1 ± 0.00115539480497226</v>
+        <v>1 ± 0.00115540638663741</v>
       </c>
       <c r="Y64" t="str">
         <f t="shared" si="12"/>
@@ -10819,30 +10819,30 @@
       </c>
       <c r="Z64" t="str">
         <f t="shared" si="12"/>
-        <v>0.99 ± 0.00109502059391814</v>
+        <v>0.99 ± 0.00109502071387257</v>
       </c>
     </row>
     <row r="65" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L65" s="2">
         <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
-        <v>1.6463714510734249E-3</v>
+        <v>1.6463748727823188E-3</v>
       </c>
       <c r="M65" s="2">
         <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
-        <v>6.1587292917880557E-4</v>
+        <v>6.1582707214636321E-4</v>
       </c>
       <c r="N65" s="2">
         <f>STDEV(K$7:K$12,K$17:K$19)/SQRT(COUNT(K$7:K$12,K$17:K$19))</f>
-        <v>3.5487978199732939E-3</v>
+        <v>3.548758023743629E-3</v>
       </c>
       <c r="O65" s="2">
         <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
-        <v>1.1553948049722602E-3</v>
+        <v>1.155406386637408E-3</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2">
         <f>STDEV(K$21:K$22)/SQRT(COUNT(K$21:K$22))</f>
-        <v>1.095020593918139E-3</v>
+        <v>1.0950207138725741E-3</v>
       </c>
     </row>
     <row r="67" spans="12:30" x14ac:dyDescent="0.25">
@@ -10871,43 +10871,43 @@
       </c>
       <c r="M68" s="3">
         <f>AVERAGE(L$1:L$3)</f>
-        <v>0.98035097498913748</v>
+        <v>0.98036606495670575</v>
       </c>
       <c r="N68">
         <f>AVERAGE(L$4:L$6)</f>
-        <v>0.9579250882516176</v>
+        <v>0.95681427947710507</v>
       </c>
       <c r="O68">
         <f>AVERAGE(L$7:L$12,L$17:L$19)</f>
-        <v>0.96410488144668505</v>
+        <v>0.96664653313942017</v>
       </c>
       <c r="P68">
         <f>AVERAGE(L$13:L$16)</f>
-        <v>0.9834694816438827</v>
+        <v>0.98417957100676601</v>
       </c>
       <c r="Q68">
         <f>L$20</f>
-        <v>0.99141732978265473</v>
+        <v>0.99141704400154507</v>
       </c>
       <c r="R68">
         <f>AVERAGE(L$21:L$22)</f>
-        <v>0.95949131454551995</v>
+        <v>0.95949084149727604</v>
       </c>
       <c r="V68" t="str">
         <f>_xlfn.CONCAT(ROUND(M68,2), " ± ", M69)</f>
-        <v>0.98 ± 0.00371948411285703</v>
+        <v>0.98 ± 0.00372638621047157</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" ref="W68" si="13">_xlfn.CONCAT(ROUND(N68,2), " ± ", N69)</f>
-        <v>0.96 ± 0.0208296495059325</v>
+        <v>0.96 ± 0.0205931035097712</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" ref="X68" si="14">_xlfn.CONCAT(ROUND(O68,2), " ± ", O69)</f>
-        <v>0.96 ± 0.010159758260436</v>
+        <v>0.97 ± 0.00904054708818939</v>
       </c>
       <c r="Y68" t="str">
         <f t="shared" ref="Y68" si="15">_xlfn.CONCAT(ROUND(P68,2), " ± ", P69)</f>
-        <v>0.98 ± 0.00766709511288894</v>
+        <v>0.98 ± 0.00702285910040351</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" ref="Z68" si="16">_xlfn.CONCAT(ROUND(Q68,2), " ± ", Q69)</f>
@@ -10915,30 +10915,30 @@
       </c>
       <c r="AA68" t="str">
         <f t="shared" ref="AA68" si="17">_xlfn.CONCAT(ROUND(R68,2), " ± ", R69)</f>
-        <v>0.96 ± 0.0210693425232379</v>
+        <v>0.96 ± 0.0210698092169457</v>
       </c>
     </row>
     <row r="69" spans="12:30" x14ac:dyDescent="0.25">
       <c r="M69" s="2">
         <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
-        <v>3.7194841128570279E-3</v>
+        <v>3.7263862104715659E-3</v>
       </c>
       <c r="N69" s="2">
         <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
-        <v>2.0829649505932534E-2</v>
+        <v>2.0593103509771189E-2</v>
       </c>
       <c r="O69" s="2">
         <f>STDEV(L$7:L$12,L$17:L$19)/SQRT(COUNT(L$7:L$12,L$17:L$19))</f>
-        <v>1.0159758260436006E-2</v>
+        <v>9.0405470881893945E-3</v>
       </c>
       <c r="P69" s="2">
         <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
-        <v>7.6670951128889392E-3</v>
+        <v>7.0228591004035095E-3</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2">
         <f>STDEV(L$21:L$22)/SQRT(COUNT(L$21:L$22))</f>
-        <v>2.106934252323794E-2</v>
+        <v>2.1069809216945679E-2</v>
       </c>
     </row>
     <row r="71" spans="12:30" x14ac:dyDescent="0.25">
@@ -10967,43 +10967,43 @@
       </c>
       <c r="N72">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.98523464208513778</v>
+        <v>0.98513832744940444</v>
       </c>
       <c r="O72">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.94752711607979234</v>
+        <v>0.94921040505453569</v>
       </c>
       <c r="P72">
         <f>AVERAGE(M$7:M$12,M$17:M$19)</f>
-        <v>0.98013828000277081</v>
+        <v>0.9823648310205273</v>
       </c>
       <c r="Q72">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.97698140406207412</v>
+        <v>0.96896034004831522</v>
       </c>
       <c r="R72">
         <f>M$20</f>
-        <v>0.99019570580954175</v>
+        <v>0.99019673287381416</v>
       </c>
       <c r="S72">
         <f>AVERAGE(M$21:M$22)</f>
-        <v>0.98684624397295173</v>
+        <v>0.98684701680612896</v>
       </c>
       <c r="W72" t="str">
         <f>_xlfn.CONCAT(ROUND(N72,2), " ± ", N73)</f>
-        <v>0.99 ± 0.0081010346831268</v>
+        <v>0.99 ± 0.00804153642362589</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" ref="X72" si="18">_xlfn.CONCAT(ROUND(O72,2), " ± ", O73)</f>
-        <v>0.95 ± 0.031689735417869</v>
+        <v>0.95 ± 0.0331540772312622</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" ref="Y72" si="19">_xlfn.CONCAT(ROUND(P72,2), " ± ", P73)</f>
-        <v>0.98 ± 0.0068300721229364</v>
+        <v>0.98 ± 0.00640350768133508</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" ref="Z72" si="20">_xlfn.CONCAT(ROUND(Q72,2), " ± ", Q73)</f>
-        <v>0.98 ± 0.0149382572576369</v>
+        <v>0.97 ± 0.0228810639377844</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" ref="AA72" si="21">_xlfn.CONCAT(ROUND(R72,2), " ± ", R73)</f>
@@ -11011,30 +11011,30 @@
       </c>
       <c r="AB72" t="str">
         <f t="shared" ref="AB72" si="22">_xlfn.CONCAT(ROUND(S72,2), " ± ", S73)</f>
-        <v>0.99 ± 0.00528473818054187</v>
+        <v>0.99 ± 0.00528550559568408</v>
       </c>
     </row>
     <row r="73" spans="12:30" x14ac:dyDescent="0.25">
       <c r="N73" s="2">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
-        <v>8.1010346831268017E-3</v>
+        <v>8.0415364236258949E-3</v>
       </c>
       <c r="O73" s="2">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>3.1689735417869021E-2</v>
+        <v>3.3154077231262215E-2</v>
       </c>
       <c r="P73" s="2">
         <f>STDEV(M$7:M$12,M$17:M$19)/SQRT(COUNT(M$7:M$12,M$17:M$19))</f>
-        <v>6.8300721229363993E-3</v>
+        <v>6.4035076813350814E-3</v>
       </c>
       <c r="Q73" s="2">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>1.4938257257636881E-2</v>
+        <v>2.2881063937784368E-2</v>
       </c>
       <c r="R73" s="2"/>
       <c r="S73" s="2">
         <f>STDEV(M$21:M$22)/SQRT(COUNT(M$21:M$22))</f>
-        <v>5.2847381805418703E-3</v>
+        <v>5.2855055956840813E-3</v>
       </c>
     </row>
     <row r="75" spans="12:30" x14ac:dyDescent="0.25">
@@ -11063,43 +11063,43 @@
       </c>
       <c r="O76">
         <f>AVERAGE(N$1:N$3)</f>
-        <v>8.043137062544925E-2</v>
+        <v>8.0431402266870969E-2</v>
       </c>
       <c r="P76">
         <f>AVERAGE(N$4:N$6)</f>
-        <v>7.3259182217835686E-2</v>
+        <v>7.3250154588903812E-2</v>
       </c>
       <c r="Q76">
         <f>AVERAGE(N$7:N$12,N$17:N$19)</f>
-        <v>9.057807874384223E-2</v>
+        <v>9.0578915349274355E-2</v>
       </c>
       <c r="R76">
         <f>AVERAGE(N$13:N$16)</f>
-        <v>5.1410154662592682E-2</v>
+        <v>5.1410428357034244E-2</v>
       </c>
       <c r="S76">
         <f>N$20</f>
-        <v>7.5187097812411327E-2</v>
+        <v>7.5187097904424266E-2</v>
       </c>
       <c r="T76">
         <f>AVERAGE(N$21:N$22)</f>
-        <v>9.664803685865847E-2</v>
+        <v>9.6648037560949751E-2</v>
       </c>
       <c r="X76" t="str">
         <f>_xlfn.CONCAT(ROUND(O76,2), " ± ", O77)</f>
-        <v>0.08 ± 0.0108642478170271</v>
+        <v>0.08 ± 0.0108642667348308</v>
       </c>
       <c r="Y76" t="str">
         <f t="shared" ref="Y76" si="23">_xlfn.CONCAT(ROUND(P76,2), " ± ", P77)</f>
-        <v>0.07 ± 0.00415022803225121</v>
+        <v>0.07 ± 0.00414980021248201</v>
       </c>
       <c r="Z76" t="str">
         <f t="shared" ref="Z76" si="24">_xlfn.CONCAT(ROUND(Q76,2), " ± ", Q77)</f>
-        <v>0.09 ± 0.0153681447026587</v>
+        <v>0.09 ± 0.0153678860384831</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" ref="AA76" si="25">_xlfn.CONCAT(ROUND(R76,2), " ± ", R77)</f>
-        <v>0.05 ± 0.00989083967946045</v>
+        <v>0.05 ± 0.00989085092660353</v>
       </c>
       <c r="AB76" t="str">
         <f t="shared" ref="AB76" si="26">_xlfn.CONCAT(ROUND(S76,2), " ± ", S77)</f>
@@ -11107,30 +11107,30 @@
       </c>
       <c r="AC76" t="str">
         <f t="shared" ref="AC76" si="27">_xlfn.CONCAT(ROUND(T76,2), " ± ", T77)</f>
-        <v>0.1 ± 0.00560834147911541</v>
+        <v>0.1 ± 0.00560834205273018</v>
       </c>
     </row>
     <row r="77" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O77" s="2">
         <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
-        <v>1.0864247817027092E-2</v>
+        <v>1.0864266734830836E-2</v>
       </c>
       <c r="P77" s="2">
         <f>STDEV(N$4:N$6)/SQRT(COUNT(N$4:N$6))</f>
-        <v>4.1502280322512136E-3</v>
+        <v>4.1498002124820098E-3</v>
       </c>
       <c r="Q77" s="2">
         <f>STDEV(N$7:N$12,N$17:N$19)/SQRT(COUNT(N$7:N$12,N$17:N$19))</f>
-        <v>1.536814470265868E-2</v>
+        <v>1.5367886038483094E-2</v>
       </c>
       <c r="R77" s="2">
         <f>STDEV(N$13:N$16)/SQRT(COUNT(N$13:N$16))</f>
-        <v>9.8908396794604517E-3</v>
+        <v>9.8908509266035297E-3</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2">
         <f>STDEV(N$21:N$22)/SQRT(COUNT(N$21:N$22))</f>
-        <v>5.6083414791154107E-3</v>
+        <v>5.6083420527301836E-3</v>
       </c>
     </row>
     <row r="79" spans="12:30" x14ac:dyDescent="0.25">
@@ -11159,43 +11159,43 @@
       </c>
       <c r="P80">
         <f>AVERAGE(O$1:O$3)</f>
-        <v>0.13830068343075549</v>
+        <v>0.13824217957548679</v>
       </c>
       <c r="Q80">
         <f>AVERAGE(O$4:O$6)</f>
-        <v>0.1922649980506077</v>
+        <v>0.19543940330325738</v>
       </c>
       <c r="R80">
         <f>AVERAGE(O$7:O$12,O$17:O$19)</f>
-        <v>0.17097358363780107</v>
+        <v>0.16590368457947546</v>
       </c>
       <c r="S80">
         <f>AVERAGE(O$13:O$16)</f>
-        <v>0.11829186140327759</v>
+        <v>0.11640106826461086</v>
       </c>
       <c r="T80">
         <f>O$20</f>
-        <v>9.2178324540923715E-2</v>
+        <v>9.2179859180139809E-2</v>
       </c>
       <c r="U80">
         <f>AVERAGE(O$21:O$22)</f>
-        <v>0.19281575445191423</v>
+        <v>0.19281670779065571</v>
       </c>
       <c r="Y80" t="str">
         <f>_xlfn.CONCAT(ROUND(P80,2), " ± ", P81)</f>
-        <v>0.14 ± 0.0127564831231008</v>
+        <v>0.14 ± 0.0127807566106264</v>
       </c>
       <c r="Z80" t="str">
         <f t="shared" ref="Z80" si="28">_xlfn.CONCAT(ROUND(Q80,2), " ± ", Q81)</f>
-        <v>0.19 ± 0.0484165940329263</v>
+        <v>0.2 ± 0.0477352226041349</v>
       </c>
       <c r="AA80" t="str">
         <f t="shared" ref="AA80" si="29">_xlfn.CONCAT(ROUND(R80,2), " ± ", R81)</f>
-        <v>0.17 ± 0.0280719074671355</v>
+        <v>0.17 ± 0.0262105762979781</v>
       </c>
       <c r="AB80" t="str">
         <f t="shared" ref="AB80" si="30">_xlfn.CONCAT(ROUND(S80,2), " ± ", S81)</f>
-        <v>0.12 ± 0.0281202696662261</v>
+        <v>0.12 ± 0.0265393796094222</v>
       </c>
       <c r="AC80" t="str">
         <f t="shared" ref="AC80" si="31">_xlfn.CONCAT(ROUND(T80,2), " ± ", T81)</f>
@@ -11203,30 +11203,30 @@
       </c>
       <c r="AD80" t="str">
         <f t="shared" ref="AD80" si="32">_xlfn.CONCAT(ROUND(U80,2), " ± ", U81)</f>
-        <v>0.19 ± 0.0540895871224242</v>
+        <v>0.19 ± 0.0540905177870357</v>
       </c>
     </row>
     <row r="81" spans="16:31" x14ac:dyDescent="0.25">
       <c r="P81" s="2">
         <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
-        <v>1.2756483123100756E-2</v>
+        <v>1.2780756610626401E-2</v>
       </c>
       <c r="Q81" s="2">
         <f>STDEV(O$4:O$6)/SQRT(COUNT(O$4:O$6))</f>
-        <v>4.8416594032926287E-2</v>
+        <v>4.7735222604134854E-2</v>
       </c>
       <c r="R81" s="2">
         <f>STDEV(O$7:O$12,O$17:O$19)/SQRT(COUNT(O$7:O$12,O$17:O$19))</f>
-        <v>2.8071907467135549E-2</v>
+        <v>2.6210576297978117E-2</v>
       </c>
       <c r="S81" s="2">
         <f>STDEV(O$13:O$16)/SQRT(COUNT(O$13:O$16))</f>
-        <v>2.8120269666226067E-2</v>
+        <v>2.6539379609422199E-2</v>
       </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2">
         <f>STDEV(O$21:O$22)/SQRT(COUNT(O$21:O$22))</f>
-        <v>5.4089587122424169E-2</v>
+        <v>5.4090517787035663E-2</v>
       </c>
     </row>
     <row r="83" spans="16:31" x14ac:dyDescent="0.25">
@@ -11255,43 +11255,43 @@
       </c>
       <c r="Q84">
         <f>AVERAGE(P$1:P$3)</f>
-        <v>0.1125103027172797</v>
+        <v>0.11312282633894305</v>
       </c>
       <c r="R84">
         <f>AVERAGE(P$4:P$6)</f>
-        <v>0.20816192609403875</v>
+        <v>0.2015628404721399</v>
       </c>
       <c r="S84">
         <f>AVERAGE(P$7:P$12,P$17:P$19)</f>
-        <v>0.12651233838552542</v>
+        <v>0.11968908173254923</v>
       </c>
       <c r="T84">
         <f>AVERAGE(P$13:P$16)</f>
-        <v>0.1316634351710842</v>
+        <v>0.14572770851865779</v>
       </c>
       <c r="U84">
         <f>P$20</f>
-        <v>9.8520308812719781E-2</v>
+        <v>9.8515148352545268E-2</v>
       </c>
       <c r="V84">
         <f>AVERAGE(P$21:P$22)</f>
-        <v>0.11168530097962748</v>
+        <v>0.1116809717945817</v>
       </c>
       <c r="Z84" t="str">
         <f>_xlfn.CONCAT(ROUND(Q84,2), " ± ", Q85)</f>
-        <v>0.11 ± 0.031298052001519</v>
+        <v>0.11 ± 0.0309538526372647</v>
       </c>
       <c r="AA84" t="str">
         <f t="shared" ref="AA84" si="33">_xlfn.CONCAT(ROUND(R84,2), " ± ", R85)</f>
-        <v>0.21 ± 0.0656382800118405</v>
+        <v>0.2 ± 0.069477047781308</v>
       </c>
       <c r="AB84" t="str">
         <f t="shared" ref="AB84" si="34">_xlfn.CONCAT(ROUND(S84,2), " ± ", S85)</f>
-        <v>0.13 ± 0.0213828634553278</v>
+        <v>0.12 ± 0.0197908589130644</v>
       </c>
       <c r="AC84" t="str">
         <f t="shared" ref="AC84" si="35">_xlfn.CONCAT(ROUND(T84,2), " ± ", T85)</f>
-        <v>0.13 ± 0.0426346878237909</v>
+        <v>0.15 ± 0.0562515135265092</v>
       </c>
       <c r="AD84" t="str">
         <f t="shared" ref="AD84" si="36">_xlfn.CONCAT(ROUND(U84,2), " ± ", U85)</f>
@@ -11299,30 +11299,30 @@
       </c>
       <c r="AE84" t="str">
         <f t="shared" ref="AE84" si="37">_xlfn.CONCAT(ROUND(V84,2), " ± ", V85)</f>
-        <v>0.11 ± 0.023422468099409</v>
+        <v>0.11 ± 0.023426777434171</v>
       </c>
     </row>
     <row r="85" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Q85" s="2">
         <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
-        <v>3.1298052001519007E-2</v>
+        <v>3.095385263726471E-2</v>
       </c>
       <c r="R85" s="2">
         <f>STDEV(P$4:P$6)/SQRT(COUNT(P$4:P$6))</f>
-        <v>6.563828001184048E-2</v>
+        <v>6.9477047781308046E-2</v>
       </c>
       <c r="S85" s="2">
         <f>STDEV(P$7:P$12,P$17:P$19)/SQRT(COUNT(P$7:P$12,P$17:P$19))</f>
-        <v>2.1382863455327823E-2</v>
+        <v>1.9790858913064372E-2</v>
       </c>
       <c r="T85" s="2">
         <f>STDEV(P$13:P$16)/SQRT(COUNT(P$13:P$16))</f>
-        <v>4.263468782379095E-2</v>
+        <v>5.6251513526509159E-2</v>
       </c>
       <c r="U85" s="2"/>
       <c r="V85" s="2">
         <f>STDEV(P$21:P$22)/SQRT(COUNT(P$21:P$22))</f>
-        <v>2.3422468099408952E-2</v>
+        <v>2.3426777434171018E-2</v>
       </c>
     </row>
     <row r="87" spans="16:31" x14ac:dyDescent="0.25">
@@ -11351,50 +11351,50 @@
       </c>
       <c r="R88" s="2">
         <f>AVERAGE(Q$1:Q$3)</f>
-        <v>2.0542256242548931E-2</v>
+        <v>2.0521011514074136E-2</v>
       </c>
       <c r="S88" s="2">
         <f>AVERAGE(Q$4:Q$6)</f>
-        <v>1.9975193205712585E-2</v>
+        <v>1.9985141756274683E-2</v>
       </c>
       <c r="T88" s="2">
         <f>AVERAGE(Q$7:Q$12,Q$17:Q$19)</f>
-        <v>2.0633748084395762E-2</v>
+        <v>2.0596182848584263E-2</v>
       </c>
       <c r="U88" s="2">
         <f>AVERAGE(Q$13:Q$16)</f>
-        <v>2.0435630269480996E-2</v>
+        <v>2.0407126527804631E-2</v>
       </c>
       <c r="V88" s="2">
         <f>Q$20</f>
-        <v>2.0973295676043606E-2</v>
+        <v>2.0940133766539439E-2</v>
       </c>
       <c r="W88" s="2">
         <f>AVERAGE(Q$21:Q$22)</f>
-        <v>2.095401530746497E-2</v>
+        <v>2.0972937427794575E-2</v>
       </c>
     </row>
     <row r="89" spans="16:31" x14ac:dyDescent="0.25">
       <c r="R89" s="2">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
-        <v>4.8852209083045353E-4</v>
+        <v>4.7097426444843324E-4</v>
       </c>
       <c r="S89" s="2">
         <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
-        <v>3.6735004728254622E-4</v>
+        <v>3.7729861841718658E-4</v>
       </c>
       <c r="T89" s="2">
         <f>STDEV(Q$7:Q$12,Q$17:Q$19)/SQRT(COUNT(Q$7:Q$12,Q$17:Q$19))</f>
-        <v>2.2890018555720107E-4</v>
+        <v>2.2230187302876175E-4</v>
       </c>
       <c r="U89" s="2">
         <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
-        <v>4.7794254676021981E-4</v>
+        <v>4.6184602057602707E-4</v>
       </c>
       <c r="V89" s="2"/>
       <c r="W89" s="2">
         <f>STDEV(Q$21:Q$22)/SQRT(COUNT(Q$21:Q$22))</f>
-        <v>2.7126963587196205E-4</v>
+        <v>2.95941928944653E-4</v>
       </c>
     </row>
     <row r="91" spans="16:31" x14ac:dyDescent="0.25">
@@ -11423,76 +11423,76 @@
       </c>
       <c r="S92" s="2">
         <f>AVERAGE(R$1:R$3)</f>
-        <v>2.6564180849319923E-2</v>
+        <v>2.654902913291941E-2</v>
       </c>
       <c r="T92" s="2">
         <f>AVERAGE(R$4:R$6)</f>
-        <v>2.6892349117898989E-2</v>
+        <v>2.6624463774042862E-2</v>
       </c>
       <c r="U92" s="2">
         <f>AVERAGE(R$7:R$12,R$17:R$19)</f>
-        <v>2.6960438882680453E-2</v>
+        <v>2.6912661408697438E-2</v>
       </c>
       <c r="V92" s="2">
         <f>AVERAGE(R$13:R$16)</f>
-        <v>2.690102607904258E-2</v>
+        <v>2.712292679636218E-2</v>
       </c>
       <c r="W92" s="2">
         <f>R$20</f>
-        <v>2.6672789715633204E-2</v>
+        <v>2.6664638680777914E-2</v>
       </c>
       <c r="X92" s="2">
         <f>AVERAGE(R$21:R$22)</f>
-        <v>2.6699257390410285E-2</v>
+        <v>2.6761994514748352E-2</v>
       </c>
     </row>
     <row r="93" spans="16:31" x14ac:dyDescent="0.25">
       <c r="S93" s="2">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
-        <v>2.5179500739234562E-5</v>
+        <v>8.0736755881092142E-6</v>
       </c>
       <c r="T93" s="2">
         <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
-        <v>2.5671577619167341E-4</v>
+        <v>4.6925517342358808E-5</v>
       </c>
       <c r="U93" s="2">
         <f>STDEV(R$7:R$12,R$17:R$19)/SQRT(COUNT(R$7:R$12,R$17:R$19))</f>
-        <v>2.0299274734285723E-4</v>
+        <v>1.8038270361886392E-4</v>
       </c>
       <c r="V93" s="2">
         <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
-        <v>3.7006385887008617E-4</v>
+        <v>3.5068132150775839E-4</v>
       </c>
       <c r="W93" s="2"/>
       <c r="X93" s="2">
         <f>STDEV(R$21:R$22)/SQRT(COUNT(R$21:R$22))</f>
-        <v>2.0695011051561837E-5</v>
+        <v>2.3245878449046006E-5</v>
       </c>
     </row>
     <row r="99" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S99" s="3">
         <f>1/S92</f>
-        <v>37.644676704781631</v>
+        <v>37.666160784766788</v>
       </c>
       <c r="T99" s="3">
         <f t="shared" ref="T99:X99" si="38">1/T92</f>
-        <v>37.18529740990239</v>
+        <v>37.559441890992588</v>
       </c>
       <c r="U99" s="3">
         <f t="shared" si="38"/>
-        <v>37.091384318762181</v>
+        <v>37.157231862502726</v>
       </c>
       <c r="V99" s="3">
         <f t="shared" si="38"/>
-        <v>37.173303243591015</v>
+        <v>36.869177412451059</v>
       </c>
       <c r="W99" s="3">
         <f t="shared" si="38"/>
-        <v>37.491391439039816</v>
+        <v>37.50285207205463</v>
       </c>
       <c r="X99" s="3">
         <f t="shared" si="38"/>
-        <v>37.454225238458328</v>
+        <v>37.366422724917115</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531FE701-7255-4DD6-8E40-E2AFFAF4417C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F5E13-038F-485D-9AB0-822E44F54962}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1032" windowWidth="21600" windowHeight="11328" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -742,16 +742,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.3570977158928898E-4</c:v>
+                    <c:v>2.2613308326460048E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0270739566951275E-3</c:v>
+                    <c:v>1.0260147015750561E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0410719849336942E-2</c:v>
+                    <c:v>8.2211607784294354E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8982194464673204E-3</c:v>
+                    <c:v>5.0822875266572293E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -763,16 +763,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.3570977158928898E-4</c:v>
+                    <c:v>2.2613308326460048E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0270739566951275E-3</c:v>
+                    <c:v>1.0260147015750561E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0410719849336942E-2</c:v>
+                    <c:v>8.2211607784294354E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8982194464673204E-3</c:v>
+                    <c:v>5.0822875266572293E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -818,16 +818,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.1100909706491798E-3</c:v>
+                  <c:v>2.0989887421269736E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4412791850417426E-3</c:v>
+                  <c:v>5.4905275101386035E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5688611490794242E-2</c:v>
+                  <c:v>2.0122558635566279E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6211366293548405E-3</c:v>
+                  <c:v>4.3787675577390993E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,16 +1096,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.121356976322461E-2</c:v>
+                    <c:v>1.2082144538991844E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3531808099919128E-2</c:v>
+                    <c:v>9.0494776565675436E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.25388093896624792</c:v>
+                    <c:v>9.0525560847418696E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.37711873305331223</c:v>
+                    <c:v>7.9904034107640146E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1117,16 +1117,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.121356976322461E-2</c:v>
+                    <c:v>1.2082144538991844E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3531808099919128E-2</c:v>
+                    <c:v>9.0494776565675436E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.25388093896624792</c:v>
+                    <c:v>9.0525560847418696E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.37711873305331223</c:v>
+                    <c:v>7.9904034107640146E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1172,16 +1172,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.359041482280861E-2</c:v>
+                  <c:v>9.2737916178800714E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29639939163562595</c:v>
+                  <c:v>0.30405467555768179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54454027900184387</c:v>
+                  <c:v>0.29366042697146461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40949579850114187</c:v>
+                  <c:v>0.11235913483510832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,19 +1450,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.4535035863670722E-2</c:v>
+                    <c:v>2.4485807721474094E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.4561291627523522E-2</c:v>
+                    <c:v>2.1599228973644392E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1276793838924134E-2</c:v>
+                    <c:v>1.1833182975400191E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.3730439000499585E-2</c:v>
+                    <c:v>1.3098674818414105E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.1077457745127812E-7</c:v>
+                    <c:v>1.4019468225212604E-9</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1474,19 +1474,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.4535035863670722E-2</c:v>
+                    <c:v>2.4485807721474094E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.4561291627523522E-2</c:v>
+                    <c:v>2.1599228973644392E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1276793838924134E-2</c:v>
+                    <c:v>1.1833182975400191E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.3730439000499585E-2</c:v>
+                    <c:v>1.3098674818414105E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.1077457745127812E-7</c:v>
+                    <c:v>1.4019468225212604E-9</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1538,22 +1538,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0863972259229416E-2</c:v>
+                  <c:v>5.0801746335472332E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0877195536079112E-2</c:v>
+                  <c:v>4.7915018896477111E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5663709748780849E-2</c:v>
+                  <c:v>6.9319782636390728E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.199913863913382E-2</c:v>
+                  <c:v>6.4561494068184955E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9999999995847952E-2</c:v>
+                  <c:v>9.9999999999977801E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999789225400093E-2</c:v>
+                  <c:v>9.9999998598030979E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,19 +1822,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>4.7097426444843324E-4</c:v>
+                    <c:v>4.3525616777254653E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.7729861841718658E-4</c:v>
+                    <c:v>3.7329400085799221E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.2230187302876175E-4</c:v>
+                    <c:v>2.2461196003430609E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.6184602057602707E-4</c:v>
+                    <c:v>4.65717636453566E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.95941928944653E-4</c:v>
+                    <c:v>2.7271702085015885E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1846,19 +1846,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>4.7097426444843324E-4</c:v>
+                    <c:v>4.3525616777254653E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.7729861841718658E-4</c:v>
+                    <c:v>3.7329400085799221E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.2230187302876175E-4</c:v>
+                    <c:v>2.2461196003430609E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.6184602057602707E-4</c:v>
+                    <c:v>4.65717636453566E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.95941928944653E-4</c:v>
+                    <c:v>2.7271702085015885E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1910,22 +1910,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0521011514074136E-2</c:v>
+                  <c:v>2.0466729792031898E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9985141756274683E-2</c:v>
+                  <c:v>1.9981137139889443E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0596182848584263E-2</c:v>
+                  <c:v>2.0609153143468825E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0407126527804631E-2</c:v>
+                  <c:v>2.0413471945172304E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0940133766539439E-2</c:v>
+                  <c:v>2.1002913688138121E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0972937427794575E-2</c:v>
+                  <c:v>2.0959588827013494E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,19 +2194,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>8.0736755881092142E-6</c:v>
+                    <c:v>1.6280651198105862E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.6925517342358808E-5</c:v>
+                    <c:v>6.907339621446485E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.8038270361886392E-4</c:v>
+                    <c:v>2.0151812080671937E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.5068132150775839E-4</c:v>
+                    <c:v>3.7078799198592361E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.3245878449046006E-5</c:v>
+                    <c:v>1.9250918472624515E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2218,19 +2218,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>8.0736755881092142E-6</c:v>
+                    <c:v>1.6280651198105862E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.6925517342358808E-5</c:v>
+                    <c:v>6.907339621446485E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.8038270361886392E-4</c:v>
+                    <c:v>2.0151812080671937E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.5068132150775839E-4</c:v>
+                    <c:v>3.7078799198592361E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.3245878449046006E-5</c:v>
+                    <c:v>1.9250918472624515E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2282,22 +2282,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.654902913291941E-2</c:v>
+                  <c:v>2.6552626534998083E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6624463774042862E-2</c:v>
+                  <c:v>2.6687135625720629E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6912661408697438E-2</c:v>
+                  <c:v>2.6965655692125064E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.712292679636218E-2</c:v>
+                  <c:v>2.6898823140173243E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6664638680777914E-2</c:v>
+                  <c:v>2.6648638344491903E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6761994514748352E-2</c:v>
+                  <c:v>2.6726911492065207E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2566,19 +2566,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.3570977158928898E-4</c:v>
+                    <c:v>2.2613308326460048E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0270739566951275E-3</c:v>
+                    <c:v>1.0260147015750561E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0410719849336942E-2</c:v>
+                    <c:v>8.2211607784294354E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8982194464673204E-3</c:v>
+                    <c:v>5.0822875266572293E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.7747363007137519E-4</c:v>
+                    <c:v>4.7764135839484419E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2590,19 +2590,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.3570977158928898E-4</c:v>
+                    <c:v>2.2613308326460048E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0270739566951275E-3</c:v>
+                    <c:v>1.0260147015750561E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0410719849336942E-2</c:v>
+                    <c:v>8.2211607784294354E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8982194464673204E-3</c:v>
+                    <c:v>5.0822875266572293E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.7747363007137519E-4</c:v>
+                    <c:v>4.7764135839484419E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2654,22 +2654,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.1100909706491798E-3</c:v>
+                  <c:v>2.0989887421269736E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4412791850417426E-3</c:v>
+                  <c:v>5.4905275101386035E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5688611490794242E-2</c:v>
+                  <c:v>2.0122558635566279E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6211366293548405E-3</c:v>
+                  <c:v>4.3787675577390993E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0758846529378896E-2</c:v>
+                  <c:v>1.0757077112977333E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2169617546775835E-3</c:v>
+                  <c:v>7.216813137757818E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,19 +2938,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.121356976322461E-2</c:v>
+                    <c:v>1.2082144538991844E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3531808099919128E-2</c:v>
+                    <c:v>9.0494776565675436E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.25388093896624792</c:v>
+                    <c:v>9.0525560847418696E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.37711873305331223</c:v>
+                    <c:v>7.9904034107640146E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8230963817246218E-2</c:v>
+                    <c:v>1.8221532084586919E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2962,19 +2962,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.121356976322461E-2</c:v>
+                    <c:v>1.2082144538991844E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3531808099919128E-2</c:v>
+                    <c:v>9.0494776565675436E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.25388093896624792</c:v>
+                    <c:v>9.0525560847418696E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.37711873305331223</c:v>
+                    <c:v>7.9904034107640146E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8230963817246218E-2</c:v>
+                    <c:v>1.8221532084586919E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3026,22 +3026,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.359041482280861E-2</c:v>
+                  <c:v>9.2737916178800714E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29639939163562595</c:v>
+                  <c:v>0.30405467555768179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54454027900184387</c:v>
+                  <c:v>0.29366042697146461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40949579850114187</c:v>
+                  <c:v>0.11235913483510832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1080601053497257</c:v>
+                  <c:v>0.10801772603992492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20465675887342155</c:v>
+                  <c:v>0.20464826929841312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7582,295 +7582,300 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:R22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="20" width="9.140625" customWidth="1"/>
+    <col min="1" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="9.109375" customWidth="1"/>
     <col min="21" max="22" width="14" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>2.0464683775653059E-3</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.10465879488515444</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2.6340445425020995E-2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>818856136.83310962</v>
-      </c>
-      <c r="E1" s="2">
-        <v>23.826012585143033</v>
-      </c>
-      <c r="F1" s="2">
-        <v>61.845362128006862</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0.6884286231318586</v>
-      </c>
-      <c r="H1" s="2">
-        <v>6.8762742194429016E-2</v>
-      </c>
-      <c r="I1" s="2">
-        <v>9.9999999675133618E-3</v>
-      </c>
-      <c r="J1" s="2">
-        <v>8.8664832128748395E-9</v>
-      </c>
-      <c r="K1" s="2">
-        <v>0.99150332211340797</v>
-      </c>
-      <c r="L1" s="2">
-        <v>0.98467306682277045</v>
-      </c>
-      <c r="M1" s="2">
-        <v>0.96905542300022207</v>
-      </c>
-      <c r="N1" s="2">
-        <v>9.1715380976835667E-2</v>
-      </c>
-      <c r="O1" s="2">
-        <v>0.1231814265441719</v>
-      </c>
-      <c r="P1" s="2">
-        <v>0.17502894397721822</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>2.1177703065292708E-2</v>
-      </c>
-      <c r="R1" s="2">
-        <v>2.6560900341510159E-2</v>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>2.0441587104883972E-3</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0.10466205679939801</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2.631608775428641E-2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>818926539.96013904</v>
+      </c>
+      <c r="E1" s="3">
+        <v>23.826097077008303</v>
+      </c>
+      <c r="F1" s="3">
+        <v>61.845368118478177</v>
+      </c>
+      <c r="G1" s="3">
+        <v>0.68866238335426699</v>
+      </c>
+      <c r="H1" s="3">
+        <v>6.8730342432083716E-2</v>
+      </c>
+      <c r="I1" s="3">
+        <v>9.9999993357036254E-3</v>
+      </c>
+      <c r="J1" s="3">
+        <v>3.381977069015339E-12</v>
+      </c>
+      <c r="K1" s="3">
+        <v>0.99150334140825302</v>
+      </c>
+      <c r="L1" s="3">
+        <v>0.98468536356608927</v>
+      </c>
+      <c r="M1" s="3">
+        <v>0.96903595337105375</v>
+      </c>
+      <c r="N1" s="3">
+        <v>9.1715276839954576E-2</v>
+      </c>
+      <c r="O1" s="3">
+        <v>0.12313200262146161</v>
+      </c>
+      <c r="P1" s="3">
+        <v>0.17508399744881528</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2.1018970026807408E-2</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2.6583771264872207E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1.7373761079566528E-3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.10494855034499606</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.6317429165388016E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>40932077.496757634</v>
-      </c>
-      <c r="E2" s="2">
-        <v>18.766308910143742</v>
-      </c>
-      <c r="F2" s="2">
-        <v>59.827327546352187</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.000000103631417E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2.6590060981635018E-2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3.3403191037782835E-14</v>
-      </c>
-      <c r="J2" s="2">
-        <v>9.9999980623083368E-3</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.99651851537462599</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.97294519620254449</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.99311604180174362</v>
-      </c>
-      <c r="N2" s="2">
-        <v>5.8708345055199083E-2</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.16365896174509037</v>
-      </c>
-      <c r="P2" s="2">
-        <v>8.2553731691994814E-2</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1.9607843177138051E-2</v>
-      </c>
-      <c r="R2" s="2">
-        <v>2.6552572901886669E-2</v>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1.7376187726868655E-3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1049773788486781</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.6315789474012887E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>40932203.631755799</v>
+      </c>
+      <c r="E2" s="3">
+        <v>18.766310482510441</v>
+      </c>
+      <c r="F2" s="3">
+        <v>59.82736688572237</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.0000000000023336E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2.6625861679109953E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3.3637677706391106E-14</v>
+      </c>
+      <c r="J2" s="3">
+        <v>9.9999999999766578E-3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.99651851435283645</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.97295016188801986</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.99312318384140763</v>
+      </c>
+      <c r="N2" s="3">
+        <v>5.8708353670426941E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.1636439419314395</v>
+      </c>
+      <c r="P2" s="3">
+        <v>8.2510896231991634E-2</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1.9607843137278237E-2</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2.6545281147701934E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2.5464284264255814E-3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>7.1163899238275347E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.9934042187279221E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1041012019.9998802</v>
-      </c>
-      <c r="E3" s="2">
-        <v>19.199058694460337</v>
-      </c>
-      <c r="F3" s="2">
-        <v>68.746333244471316</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.60191068779442625</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1.700826140423033E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2.8622497219208348E-7</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2.5751115501349799E-7</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.99165914719685599</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.98347993184480231</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.99324351754624751</v>
-      </c>
-      <c r="N3" s="2">
-        <v>9.0870480768578163E-2</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.12788615043719809</v>
-      </c>
-      <c r="P3" s="2">
-        <v>8.1785803347616162E-2</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>2.0777488299791647E-2</v>
-      </c>
-      <c r="R3" s="2">
-        <v>2.6533614155361405E-2</v>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2.5151887432056574E-3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6.857431288832605E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.9773361778117714E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1041010536.3149308</v>
+      </c>
+      <c r="E3" s="3">
+        <v>19.199008042348368</v>
+      </c>
+      <c r="F3" s="3">
+        <v>68.746322199298405</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.60194710045712285</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.3384705997310242E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.0742104918706906E-7</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.0137972090940259E-10</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.99165914693736745</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.98342965026147489</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.9935623825465898</v>
+      </c>
+      <c r="N3" s="3">
+        <v>9.0870482182094051E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.12808062398793921</v>
+      </c>
+      <c r="P3" s="3">
+        <v>7.9832582814764005E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2.0773376212010045E-2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2.6528827192420109E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3.7829569179376305E-3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.1835298235945276</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.631601834351837E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>96628899.594241351</v>
-      </c>
-      <c r="E4" s="2">
-        <v>31.026371106499322</v>
-      </c>
-      <c r="F4" s="2">
-        <v>59.365388031982128</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.0000000145791728E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>9.9337052054374542E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>9.5003243518511168E-9</v>
-      </c>
-      <c r="J4" s="2">
-        <v>9.9999999999777368E-3</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.99344552451329549</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.91624565621498855</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.88290925126671316</v>
-      </c>
-      <c r="N4" s="2">
-        <v>8.0553899544574828E-2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.28795277450853174</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.3404700298792156</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1.9607843138437744E-2</v>
-      </c>
-      <c r="R4" s="2">
-        <v>2.6548867092794082E-2</v>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3.7893559753786441E-3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.18398123624800231</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.6315789869784088E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>96636578.864385635</v>
+      </c>
+      <c r="E4" s="3">
+        <v>31.026452128733311</v>
+      </c>
+      <c r="F4" s="3">
+        <v>59.366339444002868</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.0000000000023716E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>9.9703318074892092E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8.8002530222318527E-9</v>
+      </c>
+      <c r="J4" s="3">
+        <v>9.9998485328482694E-3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.9934454090889735</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.91634701598464008</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.88328917361766357</v>
+      </c>
+      <c r="N4" s="3">
+        <v>8.0554608818590792E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.2877784810843339</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.33991722245057404</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1.9607843137278619E-2</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2.6623903850148418E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>5.2206221527268904E-3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.45950204500298009</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.9999778790948429E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1103374599.9998205</v>
-      </c>
-      <c r="E5" s="2">
-        <v>12.198171385961663</v>
-      </c>
-      <c r="F5" s="2">
-        <v>70.613026132095598</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.5849915924119331</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.28447183695046341</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2.7153391226777004E-7</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5.0539599554957725E-8</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.99461539025626966</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.97094490591514371</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.98152655641424713</v>
-      </c>
-      <c r="N5" s="2">
-        <v>7.3012078769838409E-2</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.16960112954814804</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.13523575396283091</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>2.0739738993109057E-2</v>
-      </c>
-      <c r="R5" s="2">
-        <v>2.6710427131761319E-2</v>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>5.3473174933977774E-3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.48137178844290374</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.1113476843765903E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1103061107.2238734</v>
+      </c>
+      <c r="E5" s="3">
+        <v>12.19783163625498</v>
+      </c>
+      <c r="F5" s="3">
+        <v>70.613199485374267</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.58469934829851133</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.30209611792004759</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.9125366065219247E-6</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.3912124645167586E-4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.99461534995538625</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.97112792079632426</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.98132760598234692</v>
+      </c>
+      <c r="N5" s="3">
+        <v>7.3012351997231259E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.169066136206039</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.13596201703960006</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2.0727725141605428E-2</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2.6825122134978504E-2</v>
       </c>
       <c r="T5">
         <f>0.0001</f>
@@ -7916,60 +7921,60 @@
         <v>2.652519893899204E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>7.3202584844607082E-3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.24616630630937009</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.6315789473770525E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>109070616.64392741</v>
-      </c>
-      <c r="E6" s="2">
-        <v>23.196876027655108</v>
-      </c>
-      <c r="F6" s="2">
-        <v>55.747356031387397</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.0000000000074179E-2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>8.3464248076537947E-2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5.9710184863030358E-12</v>
-      </c>
-      <c r="J6" s="2">
-        <v>9.9999999999777611E-3</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.99557536756102483</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.98325227630118317</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.98319540748264689</v>
-      </c>
-      <c r="N6" s="2">
-        <v>6.6184485452298214E-2</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.12876430585309229</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.12898273757437315</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>1.9607843137277252E-2</v>
-      </c>
-      <c r="R6" s="2">
-        <v>2.6614097097573182E-2</v>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>7.3349090616393886E-3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.24681100198213934</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.631578997588133E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>109089677.2928165</v>
+      </c>
+      <c r="E6" s="3">
+        <v>23.197005338695082</v>
+      </c>
+      <c r="F6" s="3">
+        <v>55.749426279886158</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.0000001730431828E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8.3899660116348709E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.3859393109031969E-10</v>
+      </c>
+      <c r="J6" s="3">
+        <v>9.9999999913199644E-3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.99557522164891377</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.98329304425550912</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.98331095483187858</v>
+      </c>
+      <c r="N6" s="3">
+        <v>6.6185576733721857E-2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.12860748884511355</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.12853853397499201</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1.9607843140784283E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2.6612380892034965E-2</v>
       </c>
       <c r="T6">
         <v>0.08</v>
@@ -7996,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB6">
         <v>0.01</v>
@@ -8013,903 +8018,903 @@
         <v>2.8011204481792715E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>7.8106084762417927E-3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5.8699561287739815E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.5455515813934399E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>869498030.8600738</v>
-      </c>
-      <c r="E7" s="2">
-        <v>39.0852243382094</v>
-      </c>
-      <c r="F7" s="2">
-        <v>54.559072546981291</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.80284961105903707</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4.7695585359586415E-2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>9.9999999999776917E-3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.2956916309293648E-14</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.99705613161610873</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.99612598590514378</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.99622230675436774</v>
-      </c>
-      <c r="N7" s="2">
-        <v>5.3985458227678189E-2</v>
-      </c>
-      <c r="O7" s="2">
-        <v>6.1929588678657138E-2</v>
-      </c>
-      <c r="P7" s="2">
-        <v>6.1154855188904893E-2</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>2.1262204145464318E-2</v>
-      </c>
-      <c r="R7" s="2">
-        <v>2.667750691215277E-2</v>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>7.8104566963782948E-3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5.8716359597491365E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.5436651189326408E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>869497972.64836705</v>
+      </c>
+      <c r="E7" s="3">
+        <v>39.085223712812407</v>
+      </c>
+      <c r="F7" s="3">
+        <v>54.559074008143277</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.80288349468300557</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4.7824973181847148E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>9.9984073463189188E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.2269765205987078E-14</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.99705613161007767</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.99612593846243325</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.99622251105207393</v>
+      </c>
+      <c r="N7" s="3">
+        <v>5.3985458282977586E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6.1929967884627936E-2</v>
+      </c>
+      <c r="P7" s="3">
+        <v>6.1153201538813873E-2</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>2.1228400235710432E-2</v>
+      </c>
+      <c r="R7" s="3">
+        <v>2.6586147566996961E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1.0294003694522123E-2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6.2547366165638607E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9.9999995160993213E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1105943839.9922271</v>
-      </c>
-      <c r="E8" s="2">
-        <v>34.224738225804998</v>
-      </c>
-      <c r="F8" s="2">
-        <v>62.585372863165468</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.66640006842811295</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7.9173594595556979E-2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6.0460790529486602E-8</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1.2355077424407881E-7</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.99748717119409669</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.99501467593052695</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.99238544904074011</v>
-      </c>
-      <c r="N8" s="2">
-        <v>4.987934755763674E-2</v>
-      </c>
-      <c r="O8" s="2">
-        <v>7.0256419103316065E-2</v>
-      </c>
-      <c r="P8" s="2">
-        <v>8.6828332735368496E-2</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>2.0994704229650121E-2</v>
-      </c>
-      <c r="R8" s="2">
-        <v>2.6601069510027726E-2</v>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1.0293981838136198E-2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6.2548250081209095E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.9998894415242651E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1105943839.677655</v>
+      </c>
+      <c r="E8" s="3">
+        <v>34.224738437438369</v>
+      </c>
+      <c r="F8" s="3">
+        <v>62.585372846739183</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.66636597819946519</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7.915511135195627E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.3764715032424114E-7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3.4074335137562544E-7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.99748717117570118</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.99501467226958318</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.99238537709294128</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4.9879347740211112E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>7.0256444899508358E-2</v>
+      </c>
+      <c r="P8" s="3">
+        <v>8.6828742942923171E-2</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2.1028790258526938E-2</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2.662136983033506E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1.19485265693039E-2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1.5727561306084521</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.7424762329529114E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>512378336.99416101</v>
-      </c>
-      <c r="E9" s="2">
-        <v>29.592087075417982</v>
-      </c>
-      <c r="F9" s="2">
-        <v>66.96290621978271</v>
-      </c>
-      <c r="G9" s="2">
-        <v>7.8050209682807209E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4.5403421223037146</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1.2047336658951029E-5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>9.2822501809682618E-3</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.99576683788163556</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.93596450356751903</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.97231110623204975</v>
-      </c>
-      <c r="N9" s="2">
-        <v>6.4736624079270597E-2</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0.25178391820796686</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.16556571151742358</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1.9944853560420871E-2</v>
-      </c>
-      <c r="R9" s="2">
-        <v>2.8008695698807682E-2</v>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>5.1414657591985916E-3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.55807307055279665</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.9999999999975317E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>489082956.68067968</v>
+      </c>
+      <c r="E9" s="3">
+        <v>29.434452534378156</v>
+      </c>
+      <c r="F9" s="3">
+        <v>66.762501377180413</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7.7759085894293714E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.4999999999999771</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.85759547364943E-13</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9.9955400340966376E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.99576792500736677</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.92924411844621335</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.96500697100830446</v>
+      </c>
+      <c r="N9" s="3">
+        <v>6.4728310982960863E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.26466643674302337</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.18612656635144437</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1.9937537723279136E-2</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2.8011204481770417E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>3.3425313436329647E-3</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.31150531958498895</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.9897983490968345E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>61751256.57878799</v>
-      </c>
-      <c r="E10" s="2">
-        <v>37.500794701918387</v>
-      </c>
-      <c r="F10" s="2">
-        <v>39.891217829731097</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2.9380084079757025E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.2807063187925814</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4.3776289538671251E-6</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5.8995678650725482E-4</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.99451203050231851</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.98573432157033036</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.9909974456683579</v>
-      </c>
-      <c r="N10" s="2">
-        <v>7.3709496014452841E-2</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.11884031994812579</v>
-      </c>
-      <c r="P10" s="2">
-        <v>9.4406190413159438E-2</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1.9675564152335179E-2</v>
-      </c>
-      <c r="R10" s="2">
-        <v>2.6627339835673225E-2</v>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>3.2950457985331766E-3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.30860876214509031</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.4981442893556103E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>61744981.062773213</v>
+      </c>
+      <c r="E10" s="3">
+        <v>37.50712437085329</v>
+      </c>
+      <c r="F10" s="3">
+        <v>39.881407123680219</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.9423334278144538E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.27770918651243953</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4.5312567925727565E-7</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4.4495615447132475E-6</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.99451207800321861</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.98550591798136877</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.9910277781608986</v>
+      </c>
+      <c r="N10" s="3">
+        <v>7.3709177018968355E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.119787900885043</v>
+      </c>
+      <c r="P10" s="3">
+        <v>9.4247013855667264E-2</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1.9668161062964182E-2</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2.6793196251233223E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8.5966929016965572E-3</v>
-      </c>
-      <c r="B11" s="2">
-        <v>7.5576946949317644E-2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4.0833537186040117E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>110535996.39307971</v>
-      </c>
-      <c r="E11" s="2">
-        <v>18.843516114098314</v>
-      </c>
-      <c r="F11" s="2">
-        <v>71.951954051593944</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.61763926893213805</v>
-      </c>
-      <c r="H11" s="2">
-        <v>9.8426590064455019E-2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3.2760744300542597E-14</v>
-      </c>
-      <c r="J11" s="2">
-        <v>2.6067860633659614E-13</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.98377993617905313</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.98268624739338395</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.98190417543507735</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.12671962430001657</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.13092217184476393</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0.13384642811548414</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>2.1264528668600985E-2</v>
-      </c>
-      <c r="R11" s="2">
-        <v>2.6636006187698149E-2</v>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>8.5966106660538347E-3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7.5577357772021236E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.0831535197723735E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>110535997.79186587</v>
+      </c>
+      <c r="E11" s="3">
+        <v>18.843474477244339</v>
+      </c>
+      <c r="F11" s="3">
+        <v>71.952030636267565</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.61767788613733232</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9.8431340974782344E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7.3730649547634975E-10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>8.439412468588274E-11</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.98377993629163452</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.9826861872960152</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.98190427389354429</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.12671962386024457</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.13092239906503758</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.13384606398916329</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2.1225605225485892E-2</v>
+      </c>
+      <c r="R11" s="3">
+        <v>2.6631702235503582E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>7.9995800810594611E-2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2.1199179747176009</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4.4729815531932497E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1451043651.324115</v>
-      </c>
-      <c r="E12" s="2">
-        <v>12.00000000563757</v>
-      </c>
-      <c r="F12" s="2">
-        <v>77.207623827469604</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.44720101043122329</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4.1964422710924367</v>
-      </c>
-      <c r="I12" s="2">
-        <v>5.5868051800358044E-5</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1.266338994320016E-11</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.96577834152813924</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.93035008364770988</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.9871697809218527</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.18406368975749171</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0.26258982689504035</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.11270278118735946</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>2.0725832825291536E-2</v>
-      </c>
-      <c r="R12" s="2">
-        <v>2.7676341921565935E-2</v>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>3.3806700759044885E-2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.79620505197767688</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.9999965711554492E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1451043699.9195745</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12.00000000016527</v>
+      </c>
+      <c r="F12" s="3">
+        <v>77.206418122577801</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.49325989052404046</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.4999990795012847</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9.358558577786673E-8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.0865984001237017E-10</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.9657783219417706</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.92465899532540019</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.98410424865474433</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.18406374243084128</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.27310729508355103</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.12544637831281999</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.0862347432982233E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2.801120373996922E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>5.3544894210739253E-3</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2.6088969487372056E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.9999969838394084E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>245215496.51567894</v>
-      </c>
-      <c r="E13" s="2">
-        <v>28.493965854906087</v>
-      </c>
-      <c r="F13" s="2">
-        <v>56.47135185715171</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.0000000000022205E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1.7333222231336976E-2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>4.2621710900428588E-14</v>
-      </c>
-      <c r="J13" s="2">
-        <v>9.9997428505359202E-3</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.99859935376604192</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.99482877877996601</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.99009969433602396</v>
-      </c>
-      <c r="N13" s="2">
-        <v>3.7237612324349509E-2</v>
-      </c>
-      <c r="O13" s="2">
-        <v>7.1550744285672124E-2</v>
-      </c>
-      <c r="P13" s="2">
-        <v>9.9001528308083647E-2</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1.9607843137277106E-2</v>
-      </c>
-      <c r="R13" s="2">
-        <v>2.6537179287347015E-2</v>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>5.3544871632402059E-3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.6088866336092167E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.9999999999976691E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>245215594.18733451</v>
+      </c>
+      <c r="E13" s="3">
+        <v>28.49395501756343</v>
+      </c>
+      <c r="F13" s="3">
+        <v>56.471394977546531</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.0000034168362659E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.7337393830800824E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.3317141088133832E-14</v>
+      </c>
+      <c r="J13" s="3">
+        <v>9.9999999999766734E-3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.99859935377581333</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.99482875360167022</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.9900997936090683</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3.7237612194458064E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>7.155091847311601E-2</v>
+      </c>
+      <c r="P13" s="3">
+        <v>9.900103194928013E-2</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9607843274686895E-2</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2.6532677166207667E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>3.7820117060234351E-3</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.3924947231329378E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3.772495262467563E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2505929592.9238524</v>
-      </c>
-      <c r="E14" s="2">
-        <v>33.023921667142325</v>
-      </c>
-      <c r="F14" s="2">
-        <v>59.464306543436585</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.73374685375860693</v>
-      </c>
-      <c r="H14" s="2">
-        <v>6.700343673501627E-3</v>
-      </c>
-      <c r="I14" s="2">
-        <v>9.9999999999777923E-3</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3.2204616226998562E-14</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.99716413840497387</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.99336476366033988</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.99190939104231102</v>
-      </c>
-      <c r="N14" s="2">
-        <v>5.2985875278944446E-2</v>
-      </c>
-      <c r="O14" s="2">
-        <v>8.1048651908983471E-2</v>
-      </c>
-      <c r="P14" s="2">
-        <v>8.9496943345078156E-2</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>2.1160555762616579E-2</v>
-      </c>
-      <c r="R14" s="2">
-        <v>2.7455985721792114E-2</v>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>3.7750212557226309E-3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.450371200140421E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.694216216652061E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2505929599.9584312</v>
+      </c>
+      <c r="E14" s="3">
+        <v>33.023915613744613</v>
+      </c>
+      <c r="F14" s="3">
+        <v>59.464314209681646</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.73375254137520529</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.0000000000022217E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>9.9999999934737745E-3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3.2224720971477077E-14</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.99716413839715412</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.99335146238222038</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.99207449603054909</v>
+      </c>
+      <c r="N14" s="3">
+        <v>5.2985875351997079E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>8.1129848031422966E-2</v>
+      </c>
+      <c r="P14" s="3">
+        <v>8.8579054689900502E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2.1161810395685359E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2.6525198939014259E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>5.1282409108099935E-3</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4.7227164101719371E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>6.3222470659406588E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>246253277.70429674</v>
-      </c>
-      <c r="E15" s="2">
-        <v>18.180903852836924</v>
-      </c>
-      <c r="F15" s="2">
-        <v>67.338447797047237</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.0000000000029064E-2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1.0649080931625041E-2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>4.1842391003980447E-14</v>
-      </c>
-      <c r="J15" s="2">
-        <v>9.9999999999705672E-3</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.99864696188183077</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.98419644067698142</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.9934837874540966</v>
-      </c>
-      <c r="N15" s="2">
-        <v>3.6599286017455046E-2</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0.12508206797854104</v>
-      </c>
-      <c r="P15" s="2">
-        <v>8.031843138685156E-2</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1.9607843137283962E-2</v>
-      </c>
-      <c r="R15" s="2">
-        <v>2.6545788850003051E-2</v>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>5.1184798758091713E-3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4.7279213238497854E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.2844901051520338E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>246223875.92630652</v>
+      </c>
+      <c r="E15" s="3">
+        <v>18.180655604492525</v>
+      </c>
+      <c r="F15" s="3">
+        <v>67.337114468802213</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.0000001022941449E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.076246518779151E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4.8900449546519351E-14</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9.9999999999611337E-3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.99864702915438675</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.98412328432707596</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.99348864194286901</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3.6598376154647588E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.12537124277997255</v>
+      </c>
+      <c r="P15" s="3">
+        <v>8.0288507748990476E-2</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1.9607843141215903E-2</v>
+      </c>
+      <c r="R15" s="3">
+        <v>2.6526240401474138E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1.2219804479512007E-2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1.5407421131841468</v>
-      </c>
-      <c r="C16" s="2">
-        <v>8.7049161434058941E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1518592169.7783759</v>
-      </c>
-      <c r="E16" s="2">
-        <v>42.232091465523169</v>
-      </c>
-      <c r="F16" s="2">
-        <v>67.259433080697818</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.64458672748588641</v>
-      </c>
-      <c r="H16" s="2">
-        <v>7.968935280125657</v>
-      </c>
-      <c r="I16" s="2">
-        <v>9.9471407296149519E-3</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1.6078669381512219E-5</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.99372482295721143</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.96432830090977673</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.90034848736082906</v>
-      </c>
-      <c r="N16" s="2">
-        <v>7.8818939807387953E-2</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0.18792280888524682</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0.31409393103461786</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>2.1252264074040884E-2</v>
-      </c>
-      <c r="R16" s="2">
-        <v>2.7952753326306534E-2</v>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>3.2670819361843881E-3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.35156474776443902</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5.8458913054722186E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1519329725.0761521</v>
+      </c>
+      <c r="E16" s="3">
+        <v>42.232785902311427</v>
+      </c>
+      <c r="F16" s="3">
+        <v>67.259363948896592</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.65384626034757143</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.4999664403733088</v>
+      </c>
+      <c r="I16" s="3">
+        <v>6.0023894200089949E-3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>6.8249091649626311E-4</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.99372485828730683</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.96333403802422679</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.89755461090179434</v>
+      </c>
+      <c r="N16" s="3">
+        <v>7.8818717926430665E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.1905237579831332</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.31846653702896882</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2.1276390969101062E-2</v>
+      </c>
+      <c r="R16" s="3">
+        <v>2.801117605399692E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>6.7947656284661614E-3</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.16801266034993198</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2.6316046898588817E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>63316737.042172998</v>
-      </c>
-      <c r="E17" s="2">
-        <v>32.82115792559263</v>
-      </c>
-      <c r="F17" s="2">
-        <v>56.403312736865651</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1.0000017535083231E-2</v>
-      </c>
-      <c r="H17" s="2">
-        <v>5.1704050724821357E-2</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4.5453042865373226E-10</v>
-      </c>
-      <c r="J17" s="2">
-        <v>9.999929812362824E-3</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.99612548679244484</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.97570578787865492</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.99468587017240684</v>
-      </c>
-      <c r="N17" s="2">
-        <v>6.1933577932165869E-2</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0.15508471878341726</v>
-      </c>
-      <c r="P17" s="2">
-        <v>7.2532672150674174E-2</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>1.9607844274001546E-2</v>
-      </c>
-      <c r="R17" s="2">
-        <v>2.6566314837746543E-2</v>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>6.7948250680328285E-3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.16801490001711331</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.6315921732587965E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>63316733.555342428</v>
+      </c>
+      <c r="E17" s="3">
+        <v>32.821233105994835</v>
+      </c>
+      <c r="F17" s="3">
+        <v>56.403239997597915</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.0000003196263223E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5.1700833331102217E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.2123650134157543E-11</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9.9999976961844764E-3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.99612548687833624</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.97570574734402848</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.99468591104081372</v>
+      </c>
+      <c r="N17" s="3">
+        <v>6.1933577245684421E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.15508484816193951</v>
+      </c>
+      <c r="P17" s="3">
+        <v>7.2532393243256707E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.9607843796449507E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2.6571089565101586E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2.2414573992712281E-2</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.44218634014065578</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9.9999941853334787E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1831653779.7679343</v>
-      </c>
-      <c r="E18" s="2">
-        <v>13.761755721424375</v>
-      </c>
-      <c r="F18" s="2">
-        <v>72.559119124865234</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.55596834314550359</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.27766501636427904</v>
-      </c>
-      <c r="I18" s="2">
-        <v>6.5481606623579643E-14</v>
-      </c>
-      <c r="J18" s="2">
-        <v>8.2999886118840654E-3</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.99527494338634492</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.96692189937028938</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.99058789577472661</v>
-      </c>
-      <c r="N18" s="2">
-        <v>6.8394488429394287E-2</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0.18096220495842089</v>
-      </c>
-      <c r="P18" s="2">
-        <v>9.652970104077134E-2</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>2.0935107785469052E-2</v>
-      </c>
-      <c r="R18" s="2">
-        <v>2.6862116223883185E-2</v>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2.5363941134740886E-2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.52553966370134619</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9.9997843113843493E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1535910198.1699622</v>
+      </c>
+      <c r="E18" s="3">
+        <v>13.56782824069276</v>
+      </c>
+      <c r="F18" s="3">
+        <v>72.527143797822632</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.45013393346571706</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.34545277887515491</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2.1556860457008289E-5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9.3592676522218489E-4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.99524425949058504</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.96762561494625809</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.98947516586234474</v>
+      </c>
+      <c r="N18" s="3">
+        <v>6.8616201471087254E-2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.1790269287096343</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.10207637237029307</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>2.0818988151678094E-2</v>
+      </c>
+      <c r="R18" s="3">
+        <v>2.6918648418485035E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>7.9999999999977797E-2</v>
       </c>
-      <c r="B19" s="2">
-        <v>8.966021121226822E-2</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="3">
+        <v>8.9660426898436396E-2</v>
+      </c>
+      <c r="C19" s="3">
         <v>2.6315789473706414E-2</v>
       </c>
-      <c r="D19" s="2">
-        <v>50540652.261695243</v>
-      </c>
-      <c r="E19" s="2">
-        <v>25.913617603077387</v>
-      </c>
-      <c r="F19" s="2">
-        <v>62.39890241089919</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.60858773968870994</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2.7325693300188445E-2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>3.367492100237162E-14</v>
-      </c>
-      <c r="J19" s="2">
-        <v>3.2236804747761496E-14</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.98245650608072943</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.93131529299122373</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.93501944918516644</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.13178793184536233</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0.26076399279557083</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0.2536350632437977</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>2.0955005996024744E-2</v>
-      </c>
-      <c r="R19" s="2">
-        <v>2.655856155072174E-2</v>
+      <c r="D19" s="3">
+        <v>50540652.599967733</v>
+      </c>
+      <c r="E19" s="3">
+        <v>25.913893068469662</v>
+      </c>
+      <c r="F19" s="3">
+        <v>62.398376488121556</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.60844088124363238</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2.733817589428162E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3.2221818820861523E-14</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3.2205101163824758E-14</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.9824559069649661</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.9313166324368769</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.93502030011935444</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.13179018212554194</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.26076145015606106</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.25363340253570527</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2.1104704404143009E-2</v>
+      </c>
+      <c r="R19" s="3">
+        <v>2.6546339139730465E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1.0758846529378896E-2</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.1080601053497257</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9.9999999995847952E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1442195534.1025643</v>
-      </c>
-      <c r="E20" s="2">
-        <v>21.071898735718264</v>
-      </c>
-      <c r="F20" s="2">
-        <v>66.224948081172158</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.64164541586563473</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.11940460893833431</v>
-      </c>
-      <c r="I20" s="2">
-        <v>3.2885677157007031E-14</v>
-      </c>
-      <c r="J20" s="2">
-        <v>9.9999941587952078E-3</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.99428979829162678</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.99141704400154507</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.99019673287381416</v>
-      </c>
-      <c r="N20" s="2">
-        <v>7.5187097904424266E-2</v>
-      </c>
-      <c r="O20" s="2">
-        <v>9.2179859180139809E-2</v>
-      </c>
-      <c r="P20" s="2">
-        <v>9.8515148352545268E-2</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>2.0940133766539439E-2</v>
-      </c>
-      <c r="R20" s="2">
-        <v>2.6664638680777914E-2</v>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1.0757077112977333E-2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.10801772603992492</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.9999999999977801E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1442195538.1931746</v>
+      </c>
+      <c r="E20" s="3">
+        <v>21.071896503666935</v>
+      </c>
+      <c r="F20" s="3">
+        <v>66.224947436526264</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.6415844085418928</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.1193377341396344</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.1037986174641514E-13</v>
+      </c>
+      <c r="J20" s="3">
+        <v>9.999999999965821E-3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.99428979814573171</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.99141423378021776</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.99020680723225096</v>
+      </c>
+      <c r="N20" s="3">
+        <v>7.5187098864935978E-2</v>
+      </c>
+      <c r="O20" s="3">
+        <v>9.2194948655468095E-2</v>
+      </c>
+      <c r="P20" s="3">
+        <v>9.8464515639247116E-2</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2.1002913688138121E-2</v>
+      </c>
+      <c r="R20" s="3">
+        <v>2.6648638344491903E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>7.6944353847489587E-3</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.18642579505617535</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9.9999999999977537E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2066742181.6547418</v>
-      </c>
-      <c r="E21" s="2">
-        <v>15.152078376938222</v>
-      </c>
-      <c r="F21" s="2">
-        <v>69.229554733903569</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.62010803220882349</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.14486571494817149</v>
-      </c>
-      <c r="I21" s="2">
-        <v>3.2219969761073942E-14</v>
-      </c>
-      <c r="J21" s="2">
-        <v>9.9999998031914273E-3</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.98943801295788181</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.98056065071422172</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.98156151121044488</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0.10225637961367993</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0.13872619000362005</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0.13510774922875274</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>2.1268879356739229E-2</v>
-      </c>
-      <c r="R21" s="2">
-        <v>2.6738748636299305E-2</v>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>7.6944544961526622E-3</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.18642673721382619</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9.9999999999977801E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2066751869.5248075</v>
+      </c>
+      <c r="E21" s="3">
+        <v>15.152082330947671</v>
+      </c>
+      <c r="F21" s="3">
+        <v>69.229555700063358</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.62014769749369358</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.1448978906748426</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.2204502153902813E-14</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9.9999999999716115E-3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.989438013226002</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.98056069556542547</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.98156145208089374</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.10225637831577079</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.13872602996636482</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.1351079658640276</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2.1232305847863651E-2</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2.6707660573592581E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>6.7394881246062082E-3</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.22288772269066778</v>
-      </c>
-      <c r="C22" s="2">
-        <v>9.9999578450822635E-2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1070399379.9953802</v>
-      </c>
-      <c r="E22" s="2">
-        <v>15.623301977201482</v>
-      </c>
-      <c r="F22" s="2">
-        <v>75.123920270112976</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.54378021977986613</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.18244862759337888</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1.213006043327594E-10</v>
-      </c>
-      <c r="J22" s="2">
-        <v>8.1399851267505377E-7</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0.99162805438562696</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.93842103228033036</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.99213252240181304</v>
-      </c>
-      <c r="N22" s="2">
-        <v>9.1039695508219567E-2</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0.24690722557769137</v>
-      </c>
-      <c r="P22" s="2">
-        <v>8.8254194360410654E-2</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>2.0676995498849923E-2</v>
-      </c>
-      <c r="R22" s="2">
-        <v>2.6785240393197397E-2</v>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>6.7391717793629739E-3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.22286980138300003</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9.9999997196084156E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1070399379.9980725</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15.623301495781359</v>
+      </c>
+      <c r="F22" s="3">
+        <v>75.123920770063421</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.54377067329878437</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.18246565661728437</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.1657682732553549E-8</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4.7896383633013246E-8</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.99162805440397339</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.93841999256393727</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.99213412448282778</v>
+      </c>
+      <c r="N22" s="3">
+        <v>9.1039695408466528E-2</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.24690930999397762</v>
+      </c>
+      <c r="P22" s="3">
+        <v>8.8245208153194019E-2</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2.0686871806163333E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2.674616241053783E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -8970,40 +8975,40 @@
       </c>
       <c r="AD23" t="str">
         <f t="shared" ref="AD23:AE44" si="1">_xlfn.IFS(ABS(Q1-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q1-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AE23" t="str">
         <f t="shared" si="1"/>
         <v>Lower</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>2.1100909706491798E-3</v>
+        <v>2.0989887421269736E-3</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>5.4412791850417426E-3</v>
+        <v>5.4905275101386035E-3</v>
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(A$7:A$12,A$17:A$19)</f>
-        <v>2.5688611490794242E-2</v>
+        <v>2.0122558635566279E-2</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>6.6211366293548405E-3</v>
+        <v>4.3787675577390993E-3</v>
       </c>
       <c r="F24" s="2">
         <f>A$20</f>
-        <v>1.0758846529378896E-2</v>
+        <v>1.0757077112977333E-2</v>
       </c>
       <c r="G24" s="2">
         <f>AVERAGE(A$21:A$22)</f>
-        <v>7.2169617546775835E-3</v>
+        <v>7.216813137757818E-3</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" ref="N24:N44" si="2">_xlfn.IFS(ABS(A2-T$5)&lt;=0.01*T$5,"Lower",ABS(A2-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
@@ -9054,27 +9059,27 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>2.3570977158928898E-4</v>
+        <v>2.2613308326460048E-4</v>
       </c>
       <c r="C25" s="2">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>1.0270739566951275E-3</v>
+        <v>1.0260147015750561E-3</v>
       </c>
       <c r="D25" s="2">
         <f>STDEV(A$7:A$12,A$17:A$19)/SQRT(COUNT(A$7:A$12,A$17:A$19))</f>
-        <v>1.0410719849336942E-2</v>
+        <v>8.2211607784294354E-3</v>
       </c>
       <c r="E25" s="2">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>1.8982194464673204E-3</v>
+        <v>5.0822875266572293E-4</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f>STDEV(A$21:A$22)/SQRT(COUNT(A$21:A$22))</f>
-        <v>4.7747363007137519E-4</v>
+        <v>4.7764135839484419E-4</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
@@ -9125,7 +9130,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N26" t="str">
         <f t="shared" si="2"/>
         <v>Ok</v>
@@ -9175,7 +9180,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -9204,7 +9209,7 @@
       </c>
       <c r="P27" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="0"/>
@@ -9240,36 +9245,36 @@
       </c>
       <c r="AE27" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>9.359041482280861E-2</v>
+        <v>9.2737916178800714E-2</v>
       </c>
       <c r="D28" s="2">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>0.29639939163562595</v>
+        <v>0.30405467555768179</v>
       </c>
       <c r="E28" s="2">
         <f>AVERAGE(B$7:B$12,B$17:B$19)</f>
-        <v>0.54454027900184387</v>
+        <v>0.29366042697146461</v>
       </c>
       <c r="F28" s="2">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>0.40949579850114187</v>
+        <v>0.11235913483510832</v>
       </c>
       <c r="G28" s="2">
         <f>B$20</f>
-        <v>0.1080601053497257</v>
+        <v>0.10801772603992492</v>
       </c>
       <c r="H28" s="2">
         <f>AVERAGE(B$21:B$22)</f>
-        <v>0.20465675887342155</v>
+        <v>0.20464826929841312</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
@@ -9320,27 +9325,27 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C29" s="2">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>1.121356976322461E-2</v>
+        <v>1.2082144538991844E-2</v>
       </c>
       <c r="D29" s="2">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>8.3531808099919128E-2</v>
+        <v>9.0494776565675436E-2</v>
       </c>
       <c r="E29" s="2">
         <f>STDEV(B$7:B$12,B$17:B$19)/SQRT(COUNT(B$7:B$12,B$17:B$19))</f>
-        <v>0.25388093896624792</v>
+        <v>9.0525560847418696E-2</v>
       </c>
       <c r="F29" s="2">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>0.37711873305331223</v>
+        <v>7.9904034107640146E-2</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
         <f>STDEV(B$21:B$22)/SQRT(COUNT(B$21:B$22))</f>
-        <v>1.8230963817246218E-2</v>
+        <v>1.8221532084586919E-2</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
@@ -9391,7 +9396,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N30" t="str">
         <f t="shared" si="2"/>
         <v>Ok</v>
@@ -9441,7 +9446,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>0</v>
       </c>
@@ -9470,7 +9475,7 @@
       </c>
       <c r="P31" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="0"/>
@@ -9490,7 +9495,7 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="0"/>
@@ -9498,7 +9503,7 @@
       </c>
       <c r="W31" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AD31" t="str">
         <f t="shared" si="1"/>
@@ -9509,33 +9514,33 @@
         <v>Upper</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="2">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>5.0863972259229416E-2</v>
+        <v>5.0801746335472332E-2</v>
       </c>
       <c r="E32" s="2">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>5.0877195536079112E-2</v>
+        <v>4.7915018896477111E-2</v>
       </c>
       <c r="F32" s="2">
         <f>AVERAGE(C$7:C$12,C$17:C$19)</f>
-        <v>5.5663709748780849E-2</v>
+        <v>6.9319782636390728E-2</v>
       </c>
       <c r="G32" s="2">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>7.199913863913382E-2</v>
+        <v>6.4561494068184955E-2</v>
       </c>
       <c r="H32" s="2">
         <f>C$20</f>
-        <v>9.9999999995847952E-2</v>
+        <v>9.9999999999977801E-2</v>
       </c>
       <c r="I32" s="2">
         <f>AVERAGE(C$21:C$22)</f>
-        <v>9.9999789225400093E-2</v>
+        <v>9.9999998598030979E-2</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="2"/>
@@ -9547,7 +9552,7 @@
       </c>
       <c r="P32" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="0"/>
@@ -9583,30 +9588,30 @@
       </c>
       <c r="AE32" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
     </row>
-    <row r="33" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D33" s="2">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>2.4535035863670722E-2</v>
+        <v>2.4485807721474094E-2</v>
       </c>
       <c r="E33" s="2">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>2.4561291627523522E-2</v>
+        <v>2.1599228973644392E-2</v>
       </c>
       <c r="F33" s="2">
         <f>STDEV(C$7:C$12,C$17:C$19)/SQRT(COUNT(C$7:C$12,C$17:C$19))</f>
-        <v>1.1276793838924134E-2</v>
+        <v>1.1833182975400191E-2</v>
       </c>
       <c r="G33" s="2">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>1.3730439000499585E-2</v>
+        <v>1.3098674818414105E-2</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2">
         <f>STDEV(C$21:C$22)/SQRT(COUNT(C$21:C$22))</f>
-        <v>2.1077457745127812E-7</v>
+        <v>1.4019468225212604E-9</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
@@ -9657,19 +9662,19 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="34" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:31" x14ac:dyDescent="0.3">
       <c r="N34" t="str">
         <f t="shared" si="2"/>
+        <v>Ok</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="0"/>
         <v>Upper</v>
       </c>
-      <c r="O34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
       <c r="Q34" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
@@ -9688,7 +9693,7 @@
       </c>
       <c r="U34" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="0"/>
@@ -9704,10 +9709,10 @@
       </c>
       <c r="AE34" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
     </row>
-    <row r="35" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:31" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>0</v>
       </c>
@@ -9775,33 +9780,33 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="36" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="2">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>633600078.10991585</v>
+        <v>633623093.30227518</v>
       </c>
       <c r="F36" s="2">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>436358038.74599642</v>
+        <v>436262454.46035844</v>
       </c>
       <c r="G36" s="2">
         <f>AVERAGE(D$7:D$12,D$17:D$19)</f>
-        <v>672962475.69047189</v>
+        <v>637513003.5673542</v>
       </c>
       <c r="H36" s="2">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>1128997634.230551</v>
+        <v>1129174698.7870562</v>
       </c>
       <c r="I36" s="2">
         <f>D$20</f>
-        <v>1442195534.1025643</v>
+        <v>1442195538.1931746</v>
       </c>
       <c r="J36" s="2">
         <f>AVERAGE(D$21:D$22)</f>
-        <v>1568570780.8250608</v>
+        <v>1568575624.76144</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
@@ -9833,7 +9838,7 @@
       </c>
       <c r="U36" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="0"/>
@@ -9849,30 +9854,30 @@
       </c>
       <c r="AE36" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
     </row>
-    <row r="37" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:31" x14ac:dyDescent="0.3">
       <c r="E37" s="2">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>303194012.86937314</v>
+        <v>303200809.90604931</v>
       </c>
       <c r="F37" s="2">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>333527619.45649195</v>
+        <v>333418706.93896079</v>
       </c>
       <c r="G37" s="2">
         <f>STDEV(D$7:D$12,D$17:D$19)/SQRT(COUNT(D$7:D$12,D$17:D$19))</f>
-        <v>225118541.54517484</v>
+        <v>205739760.9084945</v>
       </c>
       <c r="H37" s="2">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>548333382.99816275</v>
+        <v>548381015.40149236</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2">
         <f>STDEV(D$21:D$22)/SQRT(COUNT(D$21:D$22))</f>
-        <v>498171400.82968128</v>
+        <v>498176244.76336735</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="2"/>
@@ -9923,7 +9928,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="38" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:31" x14ac:dyDescent="0.3">
       <c r="N38" t="str">
         <f t="shared" si="2"/>
         <v>Ok</v>
@@ -9954,11 +9959,11 @@
       </c>
       <c r="U38" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="0"/>
@@ -9973,7 +9978,7 @@
         <v>Upper</v>
       </c>
     </row>
-    <row r="39" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:31" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
         <v>0</v>
       </c>
@@ -10041,33 +10046,33 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="40" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:31" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="2">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>20.597126729915704</v>
+        <v>20.597138533955704</v>
       </c>
       <c r="G40" s="2">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>22.140472840038697</v>
+        <v>22.140429701227792</v>
       </c>
       <c r="H40" s="2">
         <f>AVERAGE(E$7:E$12,E$17:E$19)</f>
-        <v>27.082543523464565</v>
+        <v>27.044218660894344</v>
       </c>
       <c r="I40" s="2">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>30.482720710102125</v>
+        <v>30.482828034527998</v>
       </c>
       <c r="J40" s="2">
         <f>E$20</f>
-        <v>21.071898735718264</v>
+        <v>21.071896503666935</v>
       </c>
       <c r="K40" s="2">
         <f>AVERAGE(E$21:E$22)</f>
-        <v>15.387690177069853</v>
+        <v>15.387691913364515</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
@@ -10118,27 +10123,27 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="41" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:31" x14ac:dyDescent="0.3">
       <c r="F41" s="2">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.6192689701962997</v>
+        <v>1.6193040428052825</v>
       </c>
       <c r="G41" s="2">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>5.4608383651297343</v>
+        <v>5.4609676026235103</v>
       </c>
       <c r="H41" s="2">
         <f>STDEV(E$7:E$12,E$17:E$19)/SQRT(COUNT(E$7:E$12,E$17:E$19))</f>
-        <v>3.3686034460254519</v>
+        <v>3.3779855758895501</v>
       </c>
       <c r="I41" s="2">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>4.9982935364329251</v>
+        <v>4.9984805887711952</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
         <f>STDEV(E$21:E$22)/SQRT(COUNT(E$21:E$22))</f>
-        <v>0.23561180013162986</v>
+        <v>0.23560958241684379</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
@@ -10182,14 +10187,14 @@
       </c>
       <c r="AD41" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AE41" t="str">
         <f t="shared" si="1"/>
         <v>Lower</v>
       </c>
     </row>
-    <row r="42" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:31" x14ac:dyDescent="0.3">
       <c r="N42" t="str">
         <f t="shared" si="2"/>
         <v>Ok</v>
@@ -10239,7 +10244,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="43" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:31" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
         <v>0</v>
       </c>
@@ -10307,33 +10312,33 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="44" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:31" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="2">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>63.473007639610124</v>
+        <v>63.473019067832979</v>
       </c>
       <c r="H44" s="2">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>61.908590065155039</v>
+        <v>61.909655069754429</v>
       </c>
       <c r="I44" s="2">
         <f>AVERAGE(F$7:F$12,F$17:F$19)</f>
-        <v>62.724386845706022</v>
+        <v>62.697284933125616</v>
       </c>
       <c r="J44" s="2">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>62.633384819583341</v>
+        <v>62.633046901231751</v>
       </c>
       <c r="K44" s="2">
         <f>F$20</f>
-        <v>66.224948081172158</v>
+        <v>66.224947436526264</v>
       </c>
       <c r="L44" s="2">
         <f>AVERAGE(F$21:F$22)</f>
-        <v>72.17673750200828</v>
+        <v>72.176738235063397</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
@@ -10384,27 +10389,27 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="45" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:31" x14ac:dyDescent="0.3">
       <c r="G45" s="2">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>2.7002523397114855</v>
+        <v>2.7002392906983421</v>
       </c>
       <c r="H45" s="2">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>4.4757846359390419</v>
+        <v>4.4752757551980107</v>
       </c>
       <c r="I45" s="2">
         <f>STDEV(F$7:F$12,F$17:F$19)/SQRT(COUNT(F$7:F$12,F$17:F$19))</f>
-        <v>3.7963914944534074</v>
+        <v>3.7929558311629488</v>
       </c>
       <c r="J45" s="2">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>2.7621194683084243</v>
+        <v>2.7619118137764458</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2">
         <f>STDEV(F$21:F$22)/SQRT(COUNT(F$21:F$22))</f>
-        <v>2.9471827681047031</v>
+        <v>2.9471825350000316</v>
       </c>
       <c r="N45" t="s">
         <v>6</v>
@@ -10461,7 +10466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:31" x14ac:dyDescent="0.3">
       <c r="H47" t="s">
         <v>0</v>
       </c>
@@ -10481,59 +10486,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:31" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="2">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>0.43344643732086635</v>
+        <v>0.43353649460380445</v>
       </c>
       <c r="I48" s="2">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>0.20166386418593299</v>
+        <v>0.20156645000965565</v>
       </c>
       <c r="J48" s="2">
         <f>AVERAGE(G$7:G$12,G$17:G$19)</f>
-        <v>0.42400848366470806</v>
+        <v>0.41732716529132158</v>
       </c>
       <c r="K48" s="2">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>0.34958339531113614</v>
+        <v>0.35189970922852021</v>
       </c>
       <c r="L48" s="2">
         <f>G$20</f>
-        <v>0.64164541586563473</v>
+        <v>0.6415844085418928</v>
       </c>
       <c r="M48" s="2">
         <f>AVERAGE(G$21:G$22)</f>
-        <v>0.58194412599434475</v>
+        <v>0.58195918539623892</v>
       </c>
     </row>
-    <row r="49" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H49" s="2">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>0.21319122995199133</v>
+        <v>0.21324262923403078</v>
       </c>
       <c r="I49" s="2">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.19166386411300004</v>
+        <v>0.19156644914442786</v>
       </c>
       <c r="J49" s="2">
         <f>STDEV(G$7:G$12,G$17:G$19)/SQRT(COUNT(G$7:G$12,G$17:G$19))</f>
-        <v>0.10128409383879527</v>
+        <v>0.10040696493085849</v>
       </c>
       <c r="K49" s="2">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.19690147568910607</v>
+        <v>0.19806861257075276</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2">
         <f>STDEV(G$21:G$22)/SQRT(COUNT(G$21:G$22))</f>
-        <v>3.8163906214478682E-2</v>
+        <v>3.8188512097454608E-2</v>
       </c>
     </row>
-    <row r="51" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:26" x14ac:dyDescent="0.3">
       <c r="I51" t="s">
         <v>0</v>
       </c>
@@ -10553,59 +10558,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H52" t="s">
         <v>13</v>
       </c>
       <c r="I52" s="2">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>3.7453688193431457E-2</v>
+        <v>3.6246970036167968E-2</v>
       </c>
       <c r="J52" s="2">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>0.15575771236045863</v>
+        <v>0.16189969870376278</v>
       </c>
       <c r="K52" s="2">
         <f>AVERAGE(H$7:H$12,H$17:H$19)</f>
-        <v>1.066609026955291</v>
+        <v>0.43640127551364732</v>
       </c>
       <c r="L52" s="2">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>2.0009044817405304</v>
+        <v>0.38451657484798085</v>
       </c>
       <c r="M52" s="2">
         <f>H$20</f>
-        <v>0.11940460893833431</v>
+        <v>0.1193377341396344</v>
       </c>
       <c r="N52" s="2">
         <f>AVERAGE(H$21:H$22)</f>
-        <v>0.16365717127077517</v>
+        <v>0.16368177364606348</v>
       </c>
     </row>
-    <row r="53" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:26" x14ac:dyDescent="0.3">
       <c r="I53" s="2">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>1.5897016152027023E-2</v>
+        <v>1.6685414415053442E-2</v>
       </c>
       <c r="J53" s="2">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>6.4519973337094499E-2</v>
+        <v>7.0246508506399255E-2</v>
       </c>
       <c r="K53" s="2">
         <f>STDEV(H$7:H$12,H$17:H$19)/SQRT(COUNT(H$7:H$12,H$17:H$19))</f>
-        <v>0.62542747599373405</v>
+        <v>0.20426373319833194</v>
       </c>
       <c r="L53" s="2">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>1.9893448095783732</v>
+        <v>0.37182026939511231</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2">
         <f>STDEV(H$21:H$22)/SQRT(COUNT(H$21:H$22))</f>
-        <v>1.8791456322603688E-2</v>
+        <v>1.8783882971220828E-2</v>
       </c>
     </row>
-    <row r="55" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:26" x14ac:dyDescent="0.3">
       <c r="J55" t="s">
         <v>0</v>
       </c>
@@ -10625,59 +10630,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:26" x14ac:dyDescent="0.3">
       <c r="I56" t="s">
         <v>14</v>
       </c>
       <c r="J56" s="2">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>3.3334287308396525E-3</v>
+        <v>3.3334355855954832E-3</v>
       </c>
       <c r="K56" s="2">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>9.3680069212702481E-8</v>
+        <v>6.4055848449174891E-7</v>
       </c>
       <c r="L56" s="2">
         <f>AVERAGE(I$7:I$12,I$17:I$19)</f>
-        <v>1.119150436982638E-3</v>
+        <v>1.1134054816488237E-3</v>
       </c>
       <c r="M56" s="2">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>4.9867851824193024E-3</v>
+        <v>4.0005973533912467E-3</v>
       </c>
       <c r="N56" s="2">
         <f>I$20</f>
-        <v>3.2885677157007031E-14</v>
+        <v>1.1037986174641514E-13</v>
       </c>
       <c r="O56" s="2">
         <f>AVERAGE(I$21:I$22)</f>
-        <v>6.0666412151260243E-11</v>
+        <v>1.5828857468527851E-8</v>
       </c>
     </row>
-    <row r="57" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:26" x14ac:dyDescent="0.3">
       <c r="J57" s="2">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>3.3332856193609281E-3</v>
+        <v>3.3332818762354358E-3</v>
       </c>
       <c r="K57" s="2">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>8.8969147842378764E-8</v>
+        <v>6.359937518328314E-7</v>
       </c>
       <c r="L57" s="2">
         <f>STDEV(I$7:I$12,I$17:I$19)/SQRT(COUNT(I$7:I$12,I$17:I$19))</f>
-        <v>1.1101226548786767E-3</v>
+        <v>1.1106277535143413E-3</v>
       </c>
       <c r="M57" s="2">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>2.8791419854986553E-3</v>
+        <v>2.4496523883173575E-3</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2">
         <f>STDEV(I$21:I$22)/SQRT(COUNT(I$21:I$22))</f>
-        <v>6.063419218149916E-11</v>
+        <v>1.5828825264025698E-8</v>
       </c>
     </row>
-    <row r="59" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:26" x14ac:dyDescent="0.3">
       <c r="K59" t="s">
         <v>0</v>
       </c>
@@ -10697,59 +10702,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:26" x14ac:dyDescent="0.3">
       <c r="J60" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="2">
         <f>AVERAGE(J$1:J$3)</f>
-        <v>3.3334214799821877E-3</v>
+        <v>3.3333333682461184E-3</v>
       </c>
       <c r="L60" s="2">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>6.6666835131850176E-3</v>
+        <v>6.7796565902066364E-3</v>
       </c>
       <c r="M60" s="2">
         <f>AVERAGE(J$7:J$12,J$17:J$19)</f>
-        <v>3.1302498839428793E-3</v>
+        <v>2.3262505659464253E-3</v>
       </c>
       <c r="N60" s="2">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>5.0039553799800509E-3</v>
+        <v>5.1706227291165733E-3</v>
       </c>
       <c r="O60" s="2">
         <f>J$20</f>
-        <v>9.9999941587952078E-3</v>
+        <v>9.999999999965821E-3</v>
       </c>
       <c r="P60" s="2">
         <f>AVERAGE(J$21:J$22)</f>
-        <v>5.0004069008520516E-3</v>
+        <v>5.0000239481776225E-3</v>
       </c>
     </row>
-    <row r="61" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:26" x14ac:dyDescent="0.3">
       <c r="K61" s="2">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
-        <v>3.3332882919358871E-3</v>
+        <v>3.3333333158652705E-3</v>
       </c>
       <c r="L61" s="2">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>3.3333164867927318E-3</v>
+        <v>3.2202676721742943E-3</v>
       </c>
       <c r="M61" s="2">
         <f>STDEV(J$7:J$12,J$17:J$19)/SQRT(COUNT(J$7:J$12,J$17:J$19))</f>
-        <v>1.5239315274861176E-3</v>
+        <v>1.4533666761341109E-3</v>
       </c>
       <c r="N61" s="2">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>2.884395341322849E-3</v>
+        <v>2.7917204406128662E-3</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2">
         <f>STDEV(J$21:J$22)/SQRT(COUNT(J$21:J$22))</f>
-        <v>4.9995929023393757E-3</v>
+        <v>4.999976051793989E-3</v>
       </c>
     </row>
-    <row r="63" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:26" x14ac:dyDescent="0.3">
       <c r="L63" t="s">
         <v>0</v>
       </c>
@@ -10769,49 +10774,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:26" x14ac:dyDescent="0.3">
       <c r="K64" t="s">
         <v>16</v>
       </c>
       <c r="L64" s="3">
         <f>AVERAGE(K$1:K$3)</f>
-        <v>0.99322699489496324</v>
+        <v>0.99322700089948557</v>
       </c>
       <c r="M64" s="3">
         <f>AVERAGE(K$4:K$6)</f>
-        <v>0.99454542744352992</v>
+        <v>0.99454532689775788</v>
       </c>
       <c r="N64" s="3">
         <f>AVERAGE(K$7:K$12,K$17:K$19)</f>
-        <v>0.98980415390676357</v>
+        <v>0.9898008019292952</v>
       </c>
       <c r="O64" s="3">
         <f>AVERAGE(K$13:K$16)</f>
-        <v>0.99703381925251444</v>
+        <v>0.9970338449036652</v>
       </c>
       <c r="P64" s="3">
         <f>K$20</f>
-        <v>0.99428979829162678</v>
+        <v>0.99428979814573171</v>
       </c>
       <c r="Q64" s="3">
         <f>AVERAGE(K$21:K$22)</f>
-        <v>0.99053303367175438</v>
+        <v>0.9905330338149877</v>
       </c>
       <c r="U64" t="str">
         <f>_xlfn.CONCAT(ROUND(L64,2), " ± ", L65)</f>
-        <v>0.99 ± 0.00164637487278232</v>
+        <v>0.99 ± 0.00164637120671673</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" ref="V64:Z64" si="12">_xlfn.CONCAT(ROUND(M64,2), " ± ", M65)</f>
-        <v>0.99 ± 0.000615827072146363</v>
+        <v>0.99 ± 0.000615819997122957</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="12"/>
-        <v>0.99 ± 0.00354875802374363</v>
+        <v>0.99 ± 0.00354814795347813</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" si="12"/>
-        <v>1 ± 0.00115540638663741</v>
+        <v>1 ± 0.00115540578287583</v>
       </c>
       <c r="Y64" t="str">
         <f t="shared" si="12"/>
@@ -10819,33 +10824,33 @@
       </c>
       <c r="Z64" t="str">
         <f t="shared" si="12"/>
-        <v>0.99 ± 0.00109502071387257</v>
+        <v>0.99 ± 0.0010950205889857</v>
       </c>
     </row>
-    <row r="65" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:30" x14ac:dyDescent="0.3">
       <c r="L65" s="2">
         <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
-        <v>1.6463748727823188E-3</v>
+        <v>1.6463712067167266E-3</v>
       </c>
       <c r="M65" s="2">
         <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
-        <v>6.1582707214636321E-4</v>
+        <v>6.1581999712295667E-4</v>
       </c>
       <c r="N65" s="2">
         <f>STDEV(K$7:K$12,K$17:K$19)/SQRT(COUNT(K$7:K$12,K$17:K$19))</f>
-        <v>3.548758023743629E-3</v>
+        <v>3.5481479534781317E-3</v>
       </c>
       <c r="O65" s="2">
         <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
-        <v>1.155406386637408E-3</v>
+        <v>1.1554057828758282E-3</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2">
         <f>STDEV(K$21:K$22)/SQRT(COUNT(K$21:K$22))</f>
-        <v>1.0950207138725741E-3</v>
+        <v>1.0950205889856957E-3</v>
       </c>
     </row>
-    <row r="67" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:30" x14ac:dyDescent="0.3">
       <c r="M67" t="s">
         <v>0</v>
       </c>
@@ -10865,49 +10870,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:30" x14ac:dyDescent="0.3">
       <c r="L68" t="s">
         <v>17</v>
       </c>
       <c r="M68" s="3">
         <f>AVERAGE(L$1:L$3)</f>
-        <v>0.98036606495670575</v>
+        <v>0.98035505857186134</v>
       </c>
       <c r="N68">
         <f>AVERAGE(L$4:L$6)</f>
-        <v>0.95681427947710507</v>
+        <v>0.95692266034549123</v>
       </c>
       <c r="O68">
         <f>AVERAGE(L$7:L$12,L$17:L$19)</f>
-        <v>0.96664653313942017</v>
+        <v>0.96532042494535297</v>
       </c>
       <c r="P68">
         <f>AVERAGE(L$13:L$16)</f>
-        <v>0.98417957100676601</v>
+        <v>0.98390938458379829</v>
       </c>
       <c r="Q68">
         <f>L$20</f>
-        <v>0.99141704400154507</v>
+        <v>0.99141423378021776</v>
       </c>
       <c r="R68">
         <f>AVERAGE(L$21:L$22)</f>
-        <v>0.95949084149727604</v>
+        <v>0.95949034406468137</v>
       </c>
       <c r="V68" t="str">
         <f>_xlfn.CONCAT(ROUND(M68,2), " ± ", M69)</f>
-        <v>0.98 ± 0.00372638621047157</v>
+        <v>0.98 ± 0.00372015121330757</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" ref="W68" si="13">_xlfn.CONCAT(ROUND(N68,2), " ± ", N69)</f>
-        <v>0.96 ± 0.0205931035097712</v>
+        <v>0.96 ± 0.0205895179129899</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" ref="X68" si="14">_xlfn.CONCAT(ROUND(O68,2), " ± ", O69)</f>
-        <v>0.97 ± 0.00904054708818939</v>
+        <v>0.97 ± 0.00969251593793485</v>
       </c>
       <c r="Y68" t="str">
         <f t="shared" ref="Y68" si="15">_xlfn.CONCAT(ROUND(P68,2), " ± ", P69)</f>
-        <v>0.98 ± 0.00702285910040351</v>
+        <v>0.98 ± 0.00725589468436159</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" ref="Z68" si="16">_xlfn.CONCAT(ROUND(Q68,2), " ± ", Q69)</f>
@@ -10915,33 +10920,33 @@
       </c>
       <c r="AA68" t="str">
         <f t="shared" ref="AA68" si="17">_xlfn.CONCAT(ROUND(R68,2), " ± ", R69)</f>
-        <v>0.96 ± 0.0210698092169457</v>
+        <v>0.96 ± 0.0210703515007441</v>
       </c>
     </row>
-    <row r="69" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:30" x14ac:dyDescent="0.3">
       <c r="M69" s="2">
         <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
-        <v>3.7263862104715659E-3</v>
+        <v>3.7201512133075666E-3</v>
       </c>
       <c r="N69" s="2">
         <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
-        <v>2.0593103509771189E-2</v>
+        <v>2.0589517912989949E-2</v>
       </c>
       <c r="O69" s="2">
         <f>STDEV(L$7:L$12,L$17:L$19)/SQRT(COUNT(L$7:L$12,L$17:L$19))</f>
-        <v>9.0405470881893945E-3</v>
+        <v>9.6925159379348536E-3</v>
       </c>
       <c r="P69" s="2">
         <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
-        <v>7.0228591004035095E-3</v>
+        <v>7.2558946843615931E-3</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2">
         <f>STDEV(L$21:L$22)/SQRT(COUNT(L$21:L$22))</f>
-        <v>2.1069809216945679E-2</v>
+        <v>2.1070351500744097E-2</v>
       </c>
     </row>
-    <row r="71" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:30" x14ac:dyDescent="0.3">
       <c r="N71" t="s">
         <v>0</v>
       </c>
@@ -10961,49 +10966,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:30" x14ac:dyDescent="0.3">
       <c r="M72" t="s">
         <v>18</v>
       </c>
       <c r="N72">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.98513832744940444</v>
+        <v>0.98524050658635043</v>
       </c>
       <c r="O72">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.94921040505453569</v>
+        <v>0.94930924481062962</v>
       </c>
       <c r="P72">
         <f>AVERAGE(M$7:M$12,M$17:M$19)</f>
-        <v>0.9823648310205273</v>
+        <v>0.98109250409833548</v>
       </c>
       <c r="Q72">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.96896034004831522</v>
+        <v>0.96830438562107024</v>
       </c>
       <c r="R72">
         <f>M$20</f>
-        <v>0.99019673287381416</v>
+        <v>0.99020680723225096</v>
       </c>
       <c r="S72">
         <f>AVERAGE(M$21:M$22)</f>
-        <v>0.98684701680612896</v>
+        <v>0.9868477882818607</v>
       </c>
       <c r="W72" t="str">
         <f>_xlfn.CONCAT(ROUND(N72,2), " ± ", N73)</f>
-        <v>0.99 ± 0.00804153642362589</v>
+        <v>0.99 ± 0.00810326852893724</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" ref="X72" si="18">_xlfn.CONCAT(ROUND(O72,2), " ± ", O73)</f>
-        <v>0.95 ± 0.0331540772312622</v>
+        <v>0.95 ± 0.0330150004715431</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" ref="Y72" si="19">_xlfn.CONCAT(ROUND(P72,2), " ± ", P73)</f>
-        <v>0.98 ± 0.00640350768133508</v>
+        <v>0.98 ± 0.00656307793422278</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" ref="Z72" si="20">_xlfn.CONCAT(ROUND(Q72,2), " ± ", Q73)</f>
-        <v>0.97 ± 0.0228810639377844</v>
+        <v>0.97 ± 0.0235934937139325</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" ref="AA72" si="21">_xlfn.CONCAT(ROUND(R72,2), " ± ", R73)</f>
@@ -11011,33 +11016,33 @@
       </c>
       <c r="AB72" t="str">
         <f t="shared" ref="AB72" si="22">_xlfn.CONCAT(ROUND(S72,2), " ± ", S73)</f>
-        <v>0.99 ± 0.00528550559568408</v>
+        <v>0.99 ± 0.00528633620096702</v>
       </c>
     </row>
-    <row r="73" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:30" x14ac:dyDescent="0.3">
       <c r="N73" s="2">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
-        <v>8.0415364236258949E-3</v>
+        <v>8.103268528937238E-3</v>
       </c>
       <c r="O73" s="2">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>3.3154077231262215E-2</v>
+        <v>3.3015000471543092E-2</v>
       </c>
       <c r="P73" s="2">
         <f>STDEV(M$7:M$12,M$17:M$19)/SQRT(COUNT(M$7:M$12,M$17:M$19))</f>
-        <v>6.4035076813350814E-3</v>
+        <v>6.5630779342227786E-3</v>
       </c>
       <c r="Q73" s="2">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>2.2881063937784368E-2</v>
+        <v>2.3593493713932483E-2</v>
       </c>
       <c r="R73" s="2"/>
       <c r="S73" s="2">
         <f>STDEV(M$21:M$22)/SQRT(COUNT(M$21:M$22))</f>
-        <v>5.2855055956840813E-3</v>
+        <v>5.2863362009670234E-3</v>
       </c>
     </row>
-    <row r="75" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:30" x14ac:dyDescent="0.3">
       <c r="O75" t="s">
         <v>0</v>
       </c>
@@ -11057,49 +11062,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:30" x14ac:dyDescent="0.3">
       <c r="N76" t="s">
         <v>19</v>
       </c>
       <c r="O76">
         <f>AVERAGE(N$1:N$3)</f>
-        <v>8.0431402266870969E-2</v>
+        <v>8.0431370897491861E-2</v>
       </c>
       <c r="P76">
         <f>AVERAGE(N$4:N$6)</f>
-        <v>7.3250154588903812E-2</v>
+        <v>7.3250845849847965E-2</v>
       </c>
       <c r="Q76">
         <f>AVERAGE(N$7:N$12,N$17:N$19)</f>
-        <v>9.0578915349274355E-2</v>
+        <v>9.0602846795390823E-2</v>
       </c>
       <c r="R76">
         <f>AVERAGE(N$13:N$16)</f>
-        <v>5.1410428357034244E-2</v>
+        <v>5.1410145406883351E-2</v>
       </c>
       <c r="S76">
         <f>N$20</f>
-        <v>7.5187097904424266E-2</v>
+        <v>7.5187098864935978E-2</v>
       </c>
       <c r="T76">
         <f>AVERAGE(N$21:N$22)</f>
-        <v>9.6648037560949751E-2</v>
+        <v>9.6648036862118661E-2</v>
       </c>
       <c r="X76" t="str">
         <f>_xlfn.CONCAT(ROUND(O76,2), " ± ", O77)</f>
-        <v>0.08 ± 0.0108642667348308</v>
+        <v>0.08 ± 0.0108642460635641</v>
       </c>
       <c r="Y76" t="str">
         <f t="shared" ref="Y76" si="23">_xlfn.CONCAT(ROUND(P76,2), " ± ", P77)</f>
-        <v>0.07 ± 0.00414980021248201</v>
+        <v>0.07 ± 0.00414969598293257</v>
       </c>
       <c r="Z76" t="str">
         <f t="shared" ref="Z76" si="24">_xlfn.CONCAT(ROUND(Q76,2), " ± ", Q77)</f>
-        <v>0.09 ± 0.0153678860384831</v>
+        <v>0.09 ± 0.0153637474532182</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" ref="AA76" si="25">_xlfn.CONCAT(ROUND(R76,2), " ± ", R77)</f>
-        <v>0.05 ± 0.00989085092660353</v>
+        <v>0.05 ± 0.00989091324759746</v>
       </c>
       <c r="AB76" t="str">
         <f t="shared" ref="AB76" si="26">_xlfn.CONCAT(ROUND(S76,2), " ± ", S77)</f>
@@ -11107,33 +11112,33 @@
       </c>
       <c r="AC76" t="str">
         <f t="shared" ref="AC76" si="27">_xlfn.CONCAT(ROUND(T76,2), " ± ", T77)</f>
-        <v>0.1 ± 0.00560834205273018</v>
+        <v>0.1 ± 0.00560834145365213</v>
       </c>
     </row>
-    <row r="77" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:30" x14ac:dyDescent="0.3">
       <c r="O77" s="2">
         <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
-        <v>1.0864266734830836E-2</v>
+        <v>1.0864246063564101E-2</v>
       </c>
       <c r="P77" s="2">
         <f>STDEV(N$4:N$6)/SQRT(COUNT(N$4:N$6))</f>
-        <v>4.1498002124820098E-3</v>
+        <v>4.1496959829325731E-3</v>
       </c>
       <c r="Q77" s="2">
         <f>STDEV(N$7:N$12,N$17:N$19)/SQRT(COUNT(N$7:N$12,N$17:N$19))</f>
-        <v>1.5367886038483094E-2</v>
+        <v>1.5363747453218233E-2</v>
       </c>
       <c r="R77" s="2">
         <f>STDEV(N$13:N$16)/SQRT(COUNT(N$13:N$16))</f>
-        <v>9.8908509266035297E-3</v>
+        <v>9.8909132475974611E-3</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2">
         <f>STDEV(N$21:N$22)/SQRT(COUNT(N$21:N$22))</f>
-        <v>5.6083420527301836E-3</v>
+        <v>5.6083414536521317E-3</v>
       </c>
     </row>
-    <row r="79" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:30" x14ac:dyDescent="0.3">
       <c r="P79" t="s">
         <v>0</v>
       </c>
@@ -11153,49 +11158,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:30" x14ac:dyDescent="0.3">
       <c r="O80" t="s">
         <v>20</v>
       </c>
       <c r="P80">
         <f>AVERAGE(O$1:O$3)</f>
-        <v>0.13824217957548679</v>
+        <v>0.13828552284694676</v>
       </c>
       <c r="Q80">
         <f>AVERAGE(O$4:O$6)</f>
-        <v>0.19543940330325738</v>
+        <v>0.19515070204516216</v>
       </c>
       <c r="R80">
         <f>AVERAGE(O$7:O$12,O$17:O$19)</f>
-        <v>0.16590368457947546</v>
+        <v>0.1683937412876029</v>
       </c>
       <c r="S80">
         <f>AVERAGE(O$13:O$16)</f>
-        <v>0.11640106826461086</v>
+        <v>0.11714394181691119</v>
       </c>
       <c r="T80">
         <f>O$20</f>
-        <v>9.2179859180139809E-2</v>
+        <v>9.2194948655468095E-2</v>
       </c>
       <c r="U80">
         <f>AVERAGE(O$21:O$22)</f>
-        <v>0.19281670779065571</v>
+        <v>0.19281766998017122</v>
       </c>
       <c r="Y80" t="str">
         <f>_xlfn.CONCAT(ROUND(P80,2), " ± ", P81)</f>
-        <v>0.14 ± 0.0127807566106264</v>
+        <v>0.14 ± 0.0127594315077875</v>
       </c>
       <c r="Z80" t="str">
         <f t="shared" ref="Z80" si="28">_xlfn.CONCAT(ROUND(Q80,2), " ± ", Q81)</f>
-        <v>0.2 ± 0.0477352226041349</v>
+        <v>0.2 ± 0.0477638448475628</v>
       </c>
       <c r="AA80" t="str">
         <f t="shared" ref="AA80" si="29">_xlfn.CONCAT(ROUND(R80,2), " ± ", R81)</f>
-        <v>0.17 ± 0.0262105762979781</v>
+        <v>0.17 ± 0.0273321743631791</v>
       </c>
       <c r="AB80" t="str">
         <f t="shared" ref="AB80" si="30">_xlfn.CONCAT(ROUND(S80,2), " ± ", S81)</f>
-        <v>0.12 ± 0.0265393796094222</v>
+        <v>0.12 ± 0.0271232136593717</v>
       </c>
       <c r="AC80" t="str">
         <f t="shared" ref="AC80" si="31">_xlfn.CONCAT(ROUND(T80,2), " ± ", T81)</f>
@@ -11203,33 +11208,33 @@
       </c>
       <c r="AD80" t="str">
         <f t="shared" ref="AD80" si="32">_xlfn.CONCAT(ROUND(U80,2), " ± ", U81)</f>
-        <v>0.19 ± 0.0540905177870357</v>
+        <v>0.19 ± 0.0540916400138064</v>
       </c>
     </row>
-    <row r="81" spans="16:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="16:31" x14ac:dyDescent="0.3">
       <c r="P81" s="2">
         <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
-        <v>1.2780756610626401E-2</v>
+        <v>1.2759431507787536E-2</v>
       </c>
       <c r="Q81" s="2">
         <f>STDEV(O$4:O$6)/SQRT(COUNT(O$4:O$6))</f>
-        <v>4.7735222604134854E-2</v>
+        <v>4.7763844847562791E-2</v>
       </c>
       <c r="R81" s="2">
         <f>STDEV(O$7:O$12,O$17:O$19)/SQRT(COUNT(O$7:O$12,O$17:O$19))</f>
-        <v>2.6210576297978117E-2</v>
+        <v>2.7332174363179099E-2</v>
       </c>
       <c r="S81" s="2">
         <f>STDEV(O$13:O$16)/SQRT(COUNT(O$13:O$16))</f>
-        <v>2.6539379609422199E-2</v>
+        <v>2.7123213659371675E-2</v>
       </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2">
         <f>STDEV(O$21:O$22)/SQRT(COUNT(O$21:O$22))</f>
-        <v>5.4090517787035663E-2</v>
+        <v>5.4091640013806411E-2</v>
       </c>
     </row>
-    <row r="83" spans="16:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="16:31" x14ac:dyDescent="0.3">
       <c r="Q83" t="s">
         <v>0</v>
       </c>
@@ -11249,49 +11254,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="16:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="16:31" x14ac:dyDescent="0.3">
       <c r="P84" t="s">
         <v>21</v>
       </c>
       <c r="Q84">
         <f>AVERAGE(P$1:P$3)</f>
-        <v>0.11312282633894305</v>
+        <v>0.11247582549852364</v>
       </c>
       <c r="R84">
         <f>AVERAGE(P$4:P$6)</f>
-        <v>0.2015628404721399</v>
+        <v>0.20147259115505536</v>
       </c>
       <c r="S84">
         <f>AVERAGE(P$7:P$12,P$17:P$19)</f>
-        <v>0.11968908173254923</v>
+        <v>0.12398779279334299</v>
       </c>
       <c r="T84">
         <f>AVERAGE(P$13:P$16)</f>
-        <v>0.14572770851865779</v>
+        <v>0.14658378285428497</v>
       </c>
       <c r="U84">
         <f>P$20</f>
-        <v>9.8515148352545268E-2</v>
+        <v>9.8464515639247116E-2</v>
       </c>
       <c r="V84">
         <f>AVERAGE(P$21:P$22)</f>
-        <v>0.1116809717945817</v>
+        <v>0.1116765870086108</v>
       </c>
       <c r="Z84" t="str">
         <f>_xlfn.CONCAT(ROUND(Q84,2), " ± ", Q85)</f>
-        <v>0.11 ± 0.0309538526372647</v>
+        <v>0.11 ± 0.0313136324780342</v>
       </c>
       <c r="AA84" t="str">
         <f t="shared" ref="AA84" si="33">_xlfn.CONCAT(ROUND(R84,2), " ± ", R85)</f>
-        <v>0.2 ± 0.069477047781308</v>
+        <v>0.2 ± 0.0692554786668335</v>
       </c>
       <c r="AB84" t="str">
         <f t="shared" ref="AB84" si="34">_xlfn.CONCAT(ROUND(S84,2), " ± ", S85)</f>
-        <v>0.12 ± 0.0197908589130644</v>
+        <v>0.12 ± 0.020449730897104</v>
       </c>
       <c r="AC84" t="str">
         <f t="shared" ref="AC84" si="35">_xlfn.CONCAT(ROUND(T84,2), " ± ", T85)</f>
-        <v>0.15 ± 0.0562515135265092</v>
+        <v>0.15 ± 0.0574219842896091</v>
       </c>
       <c r="AD84" t="str">
         <f t="shared" ref="AD84" si="36">_xlfn.CONCAT(ROUND(U84,2), " ± ", U85)</f>
@@ -11299,33 +11304,33 @@
       </c>
       <c r="AE84" t="str">
         <f t="shared" ref="AE84" si="37">_xlfn.CONCAT(ROUND(V84,2), " ± ", V85)</f>
-        <v>0.11 ± 0.023426777434171</v>
+        <v>0.11 ± 0.0234313788554168</v>
       </c>
     </row>
-    <row r="85" spans="16:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="16:31" x14ac:dyDescent="0.3">
       <c r="Q85" s="2">
         <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
-        <v>3.095385263726471E-2</v>
+        <v>3.1313632478034169E-2</v>
       </c>
       <c r="R85" s="2">
         <f>STDEV(P$4:P$6)/SQRT(COUNT(P$4:P$6))</f>
-        <v>6.9477047781308046E-2</v>
+        <v>6.9255478666833542E-2</v>
       </c>
       <c r="S85" s="2">
         <f>STDEV(P$7:P$12,P$17:P$19)/SQRT(COUNT(P$7:P$12,P$17:P$19))</f>
-        <v>1.9790858913064372E-2</v>
+        <v>2.0449730897104043E-2</v>
       </c>
       <c r="T85" s="2">
         <f>STDEV(P$13:P$16)/SQRT(COUNT(P$13:P$16))</f>
-        <v>5.6251513526509159E-2</v>
+        <v>5.742198428960911E-2</v>
       </c>
       <c r="U85" s="2"/>
       <c r="V85" s="2">
         <f>STDEV(P$21:P$22)/SQRT(COUNT(P$21:P$22))</f>
-        <v>2.3426777434171018E-2</v>
+        <v>2.3431378855416816E-2</v>
       </c>
     </row>
-    <row r="87" spans="16:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="16:31" x14ac:dyDescent="0.3">
       <c r="R87" t="s">
         <v>0</v>
       </c>
@@ -11345,59 +11350,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="16:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="16:31" x14ac:dyDescent="0.3">
       <c r="Q88" t="s">
         <v>22</v>
       </c>
       <c r="R88" s="2">
         <f>AVERAGE(Q$1:Q$3)</f>
-        <v>2.0521011514074136E-2</v>
+        <v>2.0466729792031898E-2</v>
       </c>
       <c r="S88" s="2">
         <f>AVERAGE(Q$4:Q$6)</f>
-        <v>1.9985141756274683E-2</v>
+        <v>1.9981137139889443E-2</v>
       </c>
       <c r="T88" s="2">
         <f>AVERAGE(Q$7:Q$12,Q$17:Q$19)</f>
-        <v>2.0596182848584263E-2</v>
+        <v>2.0609153143468825E-2</v>
       </c>
       <c r="U88" s="2">
         <f>AVERAGE(Q$13:Q$16)</f>
-        <v>2.0407126527804631E-2</v>
+        <v>2.0413471945172304E-2</v>
       </c>
       <c r="V88" s="2">
         <f>Q$20</f>
-        <v>2.0940133766539439E-2</v>
+        <v>2.1002913688138121E-2</v>
       </c>
       <c r="W88" s="2">
         <f>AVERAGE(Q$21:Q$22)</f>
-        <v>2.0972937427794575E-2</v>
+        <v>2.0959588827013494E-2</v>
       </c>
     </row>
-    <row r="89" spans="16:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="16:31" x14ac:dyDescent="0.3">
       <c r="R89" s="2">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
-        <v>4.7097426444843324E-4</v>
+        <v>4.3525616777254653E-4</v>
       </c>
       <c r="S89" s="2">
         <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
-        <v>3.7729861841718658E-4</v>
+        <v>3.7329400085799221E-4</v>
       </c>
       <c r="T89" s="2">
         <f>STDEV(Q$7:Q$12,Q$17:Q$19)/SQRT(COUNT(Q$7:Q$12,Q$17:Q$19))</f>
-        <v>2.2230187302876175E-4</v>
+        <v>2.2461196003430609E-4</v>
       </c>
       <c r="U89" s="2">
         <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
-        <v>4.6184602057602707E-4</v>
+        <v>4.65717636453566E-4</v>
       </c>
       <c r="V89" s="2"/>
       <c r="W89" s="2">
         <f>STDEV(Q$21:Q$22)/SQRT(COUNT(Q$21:Q$22))</f>
-        <v>2.95941928944653E-4</v>
+        <v>2.7271702085015885E-4</v>
       </c>
     </row>
-    <row r="91" spans="16:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="16:31" x14ac:dyDescent="0.3">
       <c r="S91" t="s">
         <v>0</v>
       </c>
@@ -11417,82 +11422,82 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="16:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="16:31" x14ac:dyDescent="0.3">
       <c r="R92" t="s">
         <v>23</v>
       </c>
       <c r="S92" s="2">
         <f>AVERAGE(R$1:R$3)</f>
-        <v>2.654902913291941E-2</v>
+        <v>2.6552626534998083E-2</v>
       </c>
       <c r="T92" s="2">
         <f>AVERAGE(R$4:R$6)</f>
-        <v>2.6624463774042862E-2</v>
+        <v>2.6687135625720629E-2</v>
       </c>
       <c r="U92" s="2">
         <f>AVERAGE(R$7:R$12,R$17:R$19)</f>
-        <v>2.6912661408697438E-2</v>
+        <v>2.6965655692125064E-2</v>
       </c>
       <c r="V92" s="2">
         <f>AVERAGE(R$13:R$16)</f>
-        <v>2.712292679636218E-2</v>
+        <v>2.6898823140173243E-2</v>
       </c>
       <c r="W92" s="2">
         <f>R$20</f>
-        <v>2.6664638680777914E-2</v>
+        <v>2.6648638344491903E-2</v>
       </c>
       <c r="X92" s="2">
         <f>AVERAGE(R$21:R$22)</f>
-        <v>2.6761994514748352E-2</v>
+        <v>2.6726911492065207E-2</v>
       </c>
     </row>
-    <row r="93" spans="16:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="16:31" x14ac:dyDescent="0.3">
       <c r="S93" s="2">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
-        <v>8.0736755881092142E-6</v>
+        <v>1.6280651198105862E-5</v>
       </c>
       <c r="T93" s="2">
         <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
-        <v>4.6925517342358808E-5</v>
+        <v>6.907339621446485E-5</v>
       </c>
       <c r="U93" s="2">
         <f>STDEV(R$7:R$12,R$17:R$19)/SQRT(COUNT(R$7:R$12,R$17:R$19))</f>
-        <v>1.8038270361886392E-4</v>
+        <v>2.0151812080671937E-4</v>
       </c>
       <c r="V93" s="2">
         <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
-        <v>3.5068132150775839E-4</v>
+        <v>3.7078799198592361E-4</v>
       </c>
       <c r="W93" s="2"/>
       <c r="X93" s="2">
         <f>STDEV(R$21:R$22)/SQRT(COUNT(R$21:R$22))</f>
-        <v>2.3245878449046006E-5</v>
+        <v>1.9250918472624515E-5</v>
       </c>
     </row>
-    <row r="99" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S99" s="3">
         <f>1/S92</f>
-        <v>37.666160784766788</v>
+        <v>37.661057699204832</v>
       </c>
       <c r="T99" s="3">
         <f t="shared" ref="T99:X99" si="38">1/T92</f>
-        <v>37.559441890992588</v>
+        <v>37.471237603941887</v>
       </c>
       <c r="U99" s="3">
         <f t="shared" si="38"/>
-        <v>37.157231862502726</v>
+        <v>37.084208573205053</v>
       </c>
       <c r="V99" s="3">
         <f t="shared" si="38"/>
-        <v>36.869177412451059</v>
+        <v>37.176347633830325</v>
       </c>
       <c r="W99" s="3">
         <f t="shared" si="38"/>
-        <v>37.50285207205463</v>
+        <v>37.525369479401313</v>
       </c>
       <c r="X99" s="3">
         <f t="shared" si="38"/>
-        <v>37.366422724917115</v>
+        <v>37.415471679055919</v>
       </c>
     </row>
   </sheetData>
@@ -11557,9 +11562,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -11615,7 +11620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.1001291329547363E-3</v>
       </c>
@@ -11671,7 +11676,7 @@
         <v>2.6564180849319923E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6.6344325228484607E-3</v>
       </c>
@@ -11727,7 +11732,7 @@
         <v>2.6892349117898989E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.8632184488774763E-2</v>
       </c>
@@ -11783,7 +11788,7 @@
         <v>2.6960438882680453E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.217832001894262E-3</v>
       </c>
@@ -11839,7 +11844,7 @@
         <v>2.690102607904258E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.0759029324079272E-2</v>
       </c>
@@ -11895,7 +11900,7 @@
         <v>2.6672789715633204E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7.2171323769520141E-3</v>
       </c>
@@ -11951,7 +11956,7 @@
         <v>2.6699257390410285E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -12007,7 +12012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.2725967521505301E-4</v>
       </c>
@@ -12063,7 +12068,7 @@
         <v>2.5179500739234562E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.4738599434207719E-3</v>
       </c>
@@ -12119,7 +12124,7 @@
         <v>2.5671577619167341E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8.0834831872766671E-3</v>
       </c>
@@ -12175,7 +12180,7 @@
         <v>2.0299274734285723E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6.3360122857742784E-4</v>
       </c>
@@ -12231,7 +12236,7 @@
         <v>3.7006385887008617E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.7730132747802112E-4</v>
       </c>
@@ -12301,14 +12306,14 @@
       <selection activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -12350,7 +12355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12397,7 +12402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12444,7 +12449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12491,7 +12496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12538,7 +12543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -12585,7 +12590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -12632,7 +12637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -12676,7 +12681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -12723,7 +12728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -12770,7 +12775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -12802,7 +12807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -12834,7 +12839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -12866,7 +12871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -12916,7 +12921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -12966,7 +12971,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -13019,7 +13024,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -13072,7 +13077,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -13125,7 +13130,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -13178,7 +13183,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -13204,7 +13209,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -13257,7 +13262,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -13307,7 +13312,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -13354,7 +13359,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -13386,7 +13391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -13418,7 +13423,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -13450,7 +13455,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -13464,7 +13469,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -13496,7 +13501,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -13525,7 +13530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -13566,7 +13571,7 @@
         <v>3.33E-03 ± 3.33E-03</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -13607,7 +13612,7 @@
         <v>3.55E-04 ± 3.55E-04</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -13648,7 +13653,7 @@
         <v>2.31E-03 ± 1.17E-03</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -13689,7 +13694,7 @@
         <v>2.53E-03 ± 2.49E-03</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -13730,7 +13735,7 @@
         <v>1.94E-07</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -13784,7 +13789,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F5E13-038F-485D-9AB0-822E44F54962}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0415BB9-6EFA-4E05-8BA4-E58F6BBF8461}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
@@ -742,16 +742,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.2613308326460048E-4</c:v>
+                    <c:v>1.4110540454517E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0260147015750561E-3</c:v>
+                    <c:v>1.1938388220454957E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2211607784294354E-3</c:v>
+                    <c:v>1.0219978638120604E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.0822875266572293E-4</c:v>
+                    <c:v>4.2920729768569356E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -763,16 +763,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.2613308326460048E-4</c:v>
+                    <c:v>1.4110540454517E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0260147015750561E-3</c:v>
+                    <c:v>1.1938388220454957E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2211607784294354E-3</c:v>
+                    <c:v>1.0219978638120604E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.0822875266572293E-4</c:v>
+                    <c:v>4.2920729768569356E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -818,16 +818,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0989887421269736E-3</c:v>
+                  <c:v>2.3173268963984188E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4905275101386035E-3</c:v>
+                  <c:v>6.5132119631182801E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0122558635566279E-2</c:v>
+                  <c:v>2.7535106283079838E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3787675577390993E-3</c:v>
+                  <c:v>5.0273961825241173E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,16 +1096,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.2082144538991844E-2</c:v>
+                    <c:v>1.2057455739979463E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.0494776565675436E-2</c:v>
+                    <c:v>5.7309495294150879E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.0525560847418696E-2</c:v>
+                    <c:v>0.39928208436858398</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.9904034107640146E-2</c:v>
+                    <c:v>0.13741088889033834</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1117,16 +1117,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.2082144538991844E-2</c:v>
+                    <c:v>1.2057455739979463E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.0494776565675436E-2</c:v>
+                    <c:v>5.7309495294150879E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.0525560847418696E-2</c:v>
+                    <c:v>0.39928208436858398</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.9904034107640146E-2</c:v>
+                    <c:v>0.13741088889033834</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1172,16 +1172,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.2737916178800714E-2</c:v>
+                  <c:v>9.2535545750464687E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30405467555768179</c:v>
+                  <c:v>0.3541415185008206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29366042697146461</c:v>
+                  <c:v>0.75444268232926348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11235913483510832</c:v>
+                  <c:v>0.16916415025152015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,19 +1450,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.4485807721474094E-2</c:v>
+                    <c:v>2.3803754511435734E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.1599228973644392E-2</c:v>
+                    <c:v>2.3947765296666392E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1833182975400191E-2</c:v>
+                    <c:v>1.0466686942143609E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.3098674818414105E-2</c:v>
+                    <c:v>1.4625933793160245E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.4019468225212604E-9</c:v>
+                    <c:v>6.9919142025448567E-7</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1474,19 +1474,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.4485807721474094E-2</c:v>
+                    <c:v>2.3803754511435734E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.1599228973644392E-2</c:v>
+                    <c:v>2.3947765296666392E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1833182975400191E-2</c:v>
+                    <c:v>1.0466686942143609E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.3098674818414105E-2</c:v>
+                    <c:v>1.4625933793160245E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.4019468225212604E-9</c:v>
+                    <c:v>6.9919142025448567E-7</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1538,22 +1538,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0801746335472332E-2</c:v>
+                  <c:v>7.384890314233869E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7915018896477111E-2</c:v>
+                  <c:v>5.0263555960985945E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9319782636390728E-2</c:v>
+                  <c:v>6.3109847044927683E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4561494068184955E-2</c:v>
+                  <c:v>8.0357873156810505E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9999999999977801E-2</c:v>
+                  <c:v>9.9999999990512817E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999998598030979E-2</c:v>
+                  <c:v>9.9999300808557345E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,19 +1822,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>4.3525616777254653E-4</c:v>
+                    <c:v>3.8194997275177109E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.7329400085799221E-4</c:v>
+                    <c:v>2.9494907968756836E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.2461196003430609E-4</c:v>
+                    <c:v>2.310682053692697E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.65717636453566E-4</c:v>
+                    <c:v>4.7544596282562859E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.7271702085015885E-4</c:v>
+                    <c:v>1.7933404971992757E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1846,19 +1846,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>4.3525616777254653E-4</c:v>
+                    <c:v>3.8194997275177109E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.7329400085799221E-4</c:v>
+                    <c:v>2.9494907968756836E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.2461196003430609E-4</c:v>
+                    <c:v>2.310682053692697E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.65717636453566E-4</c:v>
+                    <c:v>4.7544596282562859E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.7271702085015885E-4</c:v>
+                    <c:v>1.7933404971992757E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1910,22 +1910,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0466729792031898E-2</c:v>
+                  <c:v>2.0365681512952261E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9981137139889443E-2</c:v>
+                  <c:v>1.9902792231451975E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0609153143468825E-2</c:v>
+                  <c:v>2.0561912508965351E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0413471945172304E-2</c:v>
+                  <c:v>2.0431830067845134E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1002913688138121E-2</c:v>
+                  <c:v>2.0784713283118691E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0959588827013494E-2</c:v>
+                  <c:v>2.0754795921728013E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,19 +2194,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.6280651198105862E-5</c:v>
+                    <c:v>2.1625069528551808E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.907339621446485E-5</c:v>
+                    <c:v>4.8710360305349656E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0151812080671937E-4</c:v>
+                    <c:v>1.614486351023254E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7078799198592361E-4</c:v>
+                    <c:v>1.279616788292203E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.9250918472624515E-5</c:v>
+                    <c:v>2.9679016567189798E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2218,19 +2218,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.6280651198105862E-5</c:v>
+                    <c:v>2.1625069528551808E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.907339621446485E-5</c:v>
+                    <c:v>4.8710360305349656E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0151812080671937E-4</c:v>
+                    <c:v>1.614486351023254E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7078799198592361E-4</c:v>
+                    <c:v>1.279616788292203E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.9250918472624515E-5</c:v>
+                    <c:v>2.9679016567189798E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2282,22 +2282,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.6552626534998083E-2</c:v>
+                  <c:v>2.6578997644427605E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6687135625720629E-2</c:v>
+                  <c:v>2.6835872828472173E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6965655692125064E-2</c:v>
+                  <c:v>2.6886662268571313E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6898823140173243E-2</c:v>
+                  <c:v>2.6657237171290454E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6648638344491903E-2</c:v>
+                  <c:v>2.6593421852223683E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6726911492065207E-2</c:v>
+                  <c:v>2.6777762541119757E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2566,19 +2566,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.2613308326460048E-4</c:v>
+                    <c:v>1.4110540454517E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0260147015750561E-3</c:v>
+                    <c:v>1.1938388220454957E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2211607784294354E-3</c:v>
+                    <c:v>1.0219978638120604E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.0822875266572293E-4</c:v>
+                    <c:v>4.2920729768569356E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.7764135839484419E-4</c:v>
+                    <c:v>4.7600411383151179E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2590,19 +2590,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.2613308326460048E-4</c:v>
+                    <c:v>1.4110540454517E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.0260147015750561E-3</c:v>
+                    <c:v>1.1938388220454957E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2211607784294354E-3</c:v>
+                    <c:v>1.0219978638120604E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.0822875266572293E-4</c:v>
+                    <c:v>4.2920729768569356E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.7764135839484419E-4</c:v>
+                    <c:v>4.7600411383151179E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2654,22 +2654,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0989887421269736E-3</c:v>
+                  <c:v>2.3173268963984188E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4905275101386035E-3</c:v>
+                  <c:v>6.5132119631182801E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0122558635566279E-2</c:v>
+                  <c:v>2.7535106283079838E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3787675577390993E-3</c:v>
+                  <c:v>5.0273961825241173E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0757077112977333E-2</c:v>
+                  <c:v>1.0760566128758033E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.216813137757818E-3</c:v>
+                  <c:v>7.218428100833273E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,19 +2938,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.2082144538991844E-2</c:v>
+                    <c:v>1.2057455739979463E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.0494776565675436E-2</c:v>
+                    <c:v>5.7309495294150879E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.0525560847418696E-2</c:v>
+                    <c:v>0.39928208436858398</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.9904034107640146E-2</c:v>
+                    <c:v>0.13741088889033834</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8221532084586919E-2</c:v>
+                    <c:v>1.8308667441519141E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2962,19 +2962,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.2082144538991844E-2</c:v>
+                    <c:v>1.2057455739979463E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.0494776565675436E-2</c:v>
+                    <c:v>5.7309495294150879E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.0525560847418696E-2</c:v>
+                    <c:v>0.39928208436858398</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.9904034107640146E-2</c:v>
+                    <c:v>0.13741088889033834</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.8221532084586919E-2</c:v>
+                    <c:v>1.8308667441519141E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3026,22 +3026,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.2737916178800714E-2</c:v>
+                  <c:v>9.2535545750464687E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30405467555768179</c:v>
+                  <c:v>0.3541415185008206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29366042697146461</c:v>
+                  <c:v>0.75444268232926348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11235913483510832</c:v>
+                  <c:v>0.16916415025152015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10801772603992492</c:v>
+                  <c:v>0.10810136923207164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20464826929841312</c:v>
+                  <c:v>0.2047343855353021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7583,7 +7583,7 @@
   <dimension ref="A1:AK99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7596,286 +7596,287 @@
     <col min="12" max="20" width="9.109375" customWidth="1"/>
     <col min="21" max="22" width="14" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="3">
-        <v>2.0441587104883972E-3</v>
+        <v>2.0440913622746353E-3</v>
       </c>
       <c r="B1" s="3">
-        <v>0.10466205679939801</v>
+        <v>0.10465567845805716</v>
       </c>
       <c r="C1" s="3">
-        <v>2.631608775428641E-2</v>
+        <v>2.6315789473742499E-2</v>
       </c>
       <c r="D1" s="3">
-        <v>818926539.96013904</v>
+        <v>818926518.32173777</v>
       </c>
       <c r="E1" s="3">
-        <v>23.826097077008303</v>
+        <v>23.82609736019262</v>
       </c>
       <c r="F1" s="3">
-        <v>61.845368118478177</v>
+        <v>61.845367692256538</v>
       </c>
       <c r="G1" s="3">
-        <v>0.68866238335426699</v>
+        <v>0.68884824364616704</v>
       </c>
       <c r="H1" s="3">
-        <v>6.8730342432083716E-2</v>
+        <v>6.8689081548227338E-2</v>
       </c>
       <c r="I1" s="3">
-        <v>9.9999993357036254E-3</v>
+        <v>9.9999999999777905E-3</v>
       </c>
       <c r="J1" s="3">
-        <v>3.381977069015339E-12</v>
+        <v>3.2257708635855453E-14</v>
       </c>
       <c r="K1" s="3">
-        <v>0.99150334140825302</v>
+        <v>0.99150334140232921</v>
       </c>
       <c r="L1" s="3">
-        <v>0.98468536356608927</v>
+        <v>0.98468620622725533</v>
       </c>
       <c r="M1" s="3">
-        <v>0.96903595337105375</v>
+        <v>0.96903400881054969</v>
       </c>
       <c r="N1" s="3">
-        <v>9.1715276839954576E-2</v>
+        <v>9.1715276871926474E-2</v>
       </c>
       <c r="O1" s="3">
-        <v>0.12313200262146161</v>
+        <v>0.12312861501299061</v>
       </c>
       <c r="P1" s="3">
-        <v>0.17508399744881528</v>
+        <v>0.17508949505197574</v>
       </c>
       <c r="Q1" s="3">
-        <v>2.1018970026807408E-2</v>
+        <v>2.0833159094342264E-2</v>
       </c>
       <c r="R1" s="3">
-        <v>2.6583771264872207E-2</v>
+        <v>2.6617079497839362E-2</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1.7376187726868655E-3</v>
+        <v>2.3927976051121252E-3</v>
       </c>
       <c r="B2" s="3">
-        <v>0.1049773788486781</v>
+        <v>0.10453021573169838</v>
       </c>
       <c r="C2" s="3">
-        <v>2.6315789474012887E-2</v>
+        <v>9.5311438438472257E-2</v>
       </c>
       <c r="D2" s="3">
-        <v>40932203.631755799</v>
+        <v>36088455.454467326</v>
       </c>
       <c r="E2" s="3">
-        <v>18.766310482510441</v>
+        <v>18.681938922510028</v>
       </c>
       <c r="F2" s="3">
-        <v>59.82736688572237</v>
+        <v>58.195976647332117</v>
       </c>
       <c r="G2" s="3">
-        <v>1.0000000000023336E-2</v>
+        <v>2.9227470395530482E-6</v>
       </c>
       <c r="H2" s="3">
-        <v>2.6625861679109953E-2</v>
+        <v>2.7168577155675049E-2</v>
       </c>
       <c r="I2" s="3">
-        <v>3.3637677706391106E-14</v>
+        <v>5.4853470340308853E-14</v>
       </c>
       <c r="J2" s="3">
-        <v>9.9999999999766578E-3</v>
+        <v>9.7951610168121699E-3</v>
       </c>
       <c r="K2" s="3">
-        <v>0.99651851435283645</v>
+        <v>0.99654313831679786</v>
       </c>
       <c r="L2" s="3">
-        <v>0.97295016188801986</v>
+        <v>0.98089961043097618</v>
       </c>
       <c r="M2" s="3">
-        <v>0.99312318384140763</v>
+        <v>0.99419710437208608</v>
       </c>
       <c r="N2" s="3">
-        <v>5.8708353670426941E-2</v>
+        <v>5.8500368087475212E-2</v>
       </c>
       <c r="O2" s="3">
-        <v>0.1636439419314395</v>
+        <v>0.13751140197573994</v>
       </c>
       <c r="P2" s="3">
-        <v>8.2510896231991634E-2</v>
+        <v>7.5794898717755591E-2</v>
       </c>
       <c r="Q2" s="3">
-        <v>1.9607843137278237E-2</v>
+        <v>1.9608725866423513E-2</v>
       </c>
       <c r="R2" s="3">
-        <v>2.6545281147701934E-2</v>
+        <v>2.6577712286619641E-2</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2.5151887432056574E-3</v>
+        <v>2.5150917218084955E-3</v>
       </c>
       <c r="B3" s="3">
-        <v>6.857431288832605E-2</v>
+        <v>6.8420743061638548E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>9.9773361778117714E-2</v>
+        <v>9.9919481514801317E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>1041010536.3149308</v>
+        <v>1041012019.8025222</v>
       </c>
       <c r="E3" s="3">
-        <v>19.199008042348368</v>
+        <v>19.19905848943559</v>
       </c>
       <c r="F3" s="3">
-        <v>68.746322199298405</v>
+        <v>68.746258055837359</v>
       </c>
       <c r="G3" s="3">
-        <v>0.60194710045712285</v>
+        <v>0.60206471914450987</v>
       </c>
       <c r="H3" s="3">
-        <v>1.3384705997310242E-2</v>
+        <v>1.3162386949168365E-2</v>
       </c>
       <c r="I3" s="3">
-        <v>3.0742104918706906E-7</v>
+        <v>2.9701056386062662E-7</v>
       </c>
       <c r="J3" s="3">
-        <v>1.0137972090940259E-10</v>
+        <v>6.9695614230316312E-9</v>
       </c>
       <c r="K3" s="3">
-        <v>0.99165914693736745</v>
+        <v>0.99165914719180515</v>
       </c>
       <c r="L3" s="3">
-        <v>0.98342965026147489</v>
+        <v>0.98342962178459059</v>
       </c>
       <c r="M3" s="3">
-        <v>0.9935623825465898</v>
+        <v>0.99356881462323687</v>
       </c>
       <c r="N3" s="3">
-        <v>9.0870482182094051E-2</v>
+        <v>9.0870480796092098E-2</v>
       </c>
       <c r="O3" s="3">
-        <v>0.12808062398793921</v>
+        <v>0.12808073404402126</v>
       </c>
       <c r="P3" s="3">
-        <v>7.9832582814764005E-2</v>
+        <v>7.9792690912110151E-2</v>
       </c>
       <c r="Q3" s="3">
-        <v>2.0773376212010045E-2</v>
+        <v>2.0655159578091005E-2</v>
       </c>
       <c r="R3" s="3">
-        <v>2.6528827192420109E-2</v>
+        <v>2.6542201148823823E-2</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3.7893559753786441E-3</v>
+        <v>5.3762528274266495E-3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.18398123624800231</v>
+        <v>0.28353888576952746</v>
       </c>
       <c r="C4" s="3">
-        <v>2.6315789869784088E-2</v>
+        <v>2.6315791785633313E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>96636578.864385635</v>
+        <v>86596842.841015711</v>
       </c>
       <c r="E4" s="3">
-        <v>31.026452128733311</v>
+        <v>30.913689726992203</v>
       </c>
       <c r="F4" s="3">
-        <v>59.366339444002868</v>
+        <v>58.032491918073021</v>
       </c>
       <c r="G4" s="3">
-        <v>1.0000000000023716E-2</v>
+        <v>1.0000054897723946E-8</v>
       </c>
       <c r="H4" s="3">
-        <v>9.9703318074892092E-2</v>
+        <v>0.19489217419388372</v>
       </c>
       <c r="I4" s="3">
-        <v>8.8002530222318527E-9</v>
+        <v>1.5781641433140845E-7</v>
       </c>
       <c r="J4" s="3">
-        <v>9.9998485328482694E-3</v>
+        <v>9.9999999999661453E-3</v>
       </c>
       <c r="K4" s="3">
-        <v>0.9934454090889735</v>
+        <v>0.99355664494107587</v>
       </c>
       <c r="L4" s="3">
-        <v>0.91634701598464008</v>
+        <v>0.93629390894292164</v>
       </c>
       <c r="M4" s="3">
-        <v>0.88328917361766357</v>
+        <v>0.93686960382096918</v>
       </c>
       <c r="N4" s="3">
-        <v>8.0554608818590792E-2</v>
+        <v>7.9868150775730701E-2</v>
       </c>
       <c r="O4" s="3">
-        <v>0.2877784810843339</v>
+        <v>0.25113548165583355</v>
       </c>
       <c r="P4" s="3">
-        <v>0.33991722245057404</v>
+        <v>0.24999818442788838</v>
       </c>
       <c r="Q4" s="3">
-        <v>1.9607843137278619E-2</v>
+        <v>1.9607843137278452E-2</v>
       </c>
       <c r="R4" s="3">
-        <v>2.6623903850148418E-2</v>
+        <v>2.6896859532853503E-2</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>5.3473174933977774E-3</v>
+        <v>5.2633828822758588E-3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.48137178844290374</v>
+        <v>0.46763865279280215</v>
       </c>
       <c r="C5" s="3">
-        <v>9.1113476843765903E-2</v>
+        <v>9.8159086554318709E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>1103061107.2238734</v>
+        <v>1103368290.1447656</v>
       </c>
       <c r="E5" s="3">
-        <v>12.19783163625498</v>
+        <v>12.198015708622073</v>
       </c>
       <c r="F5" s="3">
-        <v>70.613199485374267</v>
+        <v>70.613225370925008</v>
       </c>
       <c r="G5" s="3">
-        <v>0.58469934829851133</v>
+        <v>0.58519336522215837</v>
       </c>
       <c r="H5" s="3">
-        <v>0.30209611792004759</v>
+        <v>0.28961327237140227</v>
       </c>
       <c r="I5" s="3">
-        <v>1.9125366065219247E-6</v>
+        <v>1.0641221838503477E-3</v>
       </c>
       <c r="J5" s="3">
-        <v>3.3912124645167586E-4</v>
+        <v>1.0084863790427543E-4</v>
       </c>
       <c r="K5" s="3">
-        <v>0.99461534995538625</v>
+        <v>0.99461538917933912</v>
       </c>
       <c r="L5" s="3">
-        <v>0.97112792079632426</v>
+        <v>0.97097659833260552</v>
       </c>
       <c r="M5" s="3">
-        <v>0.98132760598234692</v>
+        <v>0.98146415872607196</v>
       </c>
       <c r="N5" s="3">
-        <v>7.3012351997231259E-2</v>
+        <v>7.3012086071104015E-2</v>
       </c>
       <c r="O5" s="3">
-        <v>0.169066136206039</v>
+        <v>0.16950860642079654</v>
       </c>
       <c r="P5" s="3">
-        <v>0.13596201703960006</v>
+        <v>0.1354639541028857</v>
       </c>
       <c r="Q5" s="3">
-        <v>2.0727725141605428E-2</v>
+        <v>2.0492690390827111E-2</v>
       </c>
       <c r="R5" s="3">
-        <v>2.6825122134978504E-2</v>
+        <v>2.6871171299631819E-2</v>
       </c>
       <c r="T5">
         <f>0.0001</f>
@@ -7899,10 +7900,12 @@
         <v>35</v>
       </c>
       <c r="Z5">
-        <v>0.01</v>
+        <f>0.00000001</f>
+        <v>1E-8</v>
       </c>
       <c r="AA5">
-        <v>0.01</v>
+        <f>0.00000001</f>
+        <v>1E-8</v>
       </c>
       <c r="AB5">
         <f>0.00000000000001</f>
@@ -7923,58 +7926,58 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>7.3349090616393886E-3</v>
+        <v>8.9000001796523294E-3</v>
       </c>
       <c r="B6" s="3">
-        <v>0.24681100198213934</v>
+        <v>0.31124701694013229</v>
       </c>
       <c r="C6" s="3">
-        <v>2.631578997588133E-2</v>
+        <v>2.631578954300581E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>109089677.2928165</v>
+        <v>98184377.42764622</v>
       </c>
       <c r="E6" s="3">
-        <v>23.197005338695082</v>
+        <v>23.117265872845241</v>
       </c>
       <c r="F6" s="3">
-        <v>55.749426279886158</v>
+        <v>54.503896415532829</v>
       </c>
       <c r="G6" s="3">
-        <v>1.0000001730431828E-2</v>
+        <v>2.5048537685972825E-8</v>
       </c>
       <c r="H6" s="3">
-        <v>8.3899660116348709E-2</v>
+        <v>0.12760821953460458</v>
       </c>
       <c r="I6" s="3">
-        <v>3.3859393109031969E-10</v>
+        <v>3.3713746761796656E-14</v>
       </c>
       <c r="J6" s="3">
-        <v>9.9999999913199644E-3</v>
+        <v>9.999999999976656E-3</v>
       </c>
       <c r="K6" s="3">
-        <v>0.99557522164891377</v>
+        <v>0.995632606519402</v>
       </c>
       <c r="L6" s="3">
-        <v>0.98329304425550912</v>
+        <v>0.98684403444459123</v>
       </c>
       <c r="M6" s="3">
-        <v>0.98331095483187858</v>
+        <v>0.98980638844998814</v>
       </c>
       <c r="N6" s="3">
-        <v>6.6185576733721857E-2</v>
+        <v>6.5754996356109957E-2</v>
       </c>
       <c r="O6" s="3">
-        <v>0.12860748884511355</v>
+        <v>0.11412451927545925</v>
       </c>
       <c r="P6" s="3">
-        <v>0.12853853397499201</v>
+        <v>0.1004573314124549</v>
       </c>
       <c r="Q6" s="3">
-        <v>1.9607843140784283E-2</v>
+        <v>1.9607843166250361E-2</v>
       </c>
       <c r="R6" s="3">
-        <v>2.6612380892034965E-2</v>
+        <v>2.673958765293119E-2</v>
       </c>
       <c r="T6">
         <v>0.08</v>
@@ -7998,10 +8001,10 @@
         <v>1E+100</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA6">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AB6">
         <v>0.01</v>
@@ -8020,674 +8023,674 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>7.8104566963782948E-3</v>
+        <v>7.8104063053251026E-3</v>
       </c>
       <c r="B7" s="3">
-        <v>5.8716359597491365E-2</v>
+        <v>5.8711767021941051E-2</v>
       </c>
       <c r="C7" s="3">
-        <v>3.5436651189326408E-2</v>
+        <v>3.543964728375152E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>869497972.64836705</v>
+        <v>869498093.87442935</v>
       </c>
       <c r="E7" s="3">
-        <v>39.085223712812407</v>
+        <v>39.085223327586924</v>
       </c>
       <c r="F7" s="3">
-        <v>54.559074008143277</v>
+        <v>54.559074477882291</v>
       </c>
       <c r="G7" s="3">
-        <v>0.80288349468300557</v>
+        <v>0.80289228249175082</v>
       </c>
       <c r="H7" s="3">
-        <v>4.7824973181847148E-2</v>
+        <v>4.7854248498612514E-2</v>
       </c>
       <c r="I7" s="3">
-        <v>9.9984073463189188E-3</v>
+        <v>9.9999986481246975E-3</v>
       </c>
       <c r="J7" s="3">
-        <v>3.2269765205987078E-14</v>
+        <v>2.4603233390046519E-10</v>
       </c>
       <c r="K7" s="3">
-        <v>0.99705613161007767</v>
+        <v>0.99705613162044915</v>
       </c>
       <c r="L7" s="3">
-        <v>0.99612593846243325</v>
+        <v>0.99612595656099368</v>
       </c>
       <c r="M7" s="3">
-        <v>0.99622251105207393</v>
+        <v>0.9962224675360567</v>
       </c>
       <c r="N7" s="3">
-        <v>5.3985458282977586E-2</v>
+        <v>5.3985458187879524E-2</v>
       </c>
       <c r="O7" s="3">
-        <v>6.1929967884627936E-2</v>
+        <v>6.1929823224487417E-2</v>
       </c>
       <c r="P7" s="3">
-        <v>6.1153201538813873E-2</v>
+        <v>6.1153553774935428E-2</v>
       </c>
       <c r="Q7" s="3">
-        <v>2.1228400235710432E-2</v>
+        <v>2.1219783761821043E-2</v>
       </c>
       <c r="R7" s="3">
-        <v>2.6586147566996961E-2</v>
+        <v>2.6547519541939579E-2</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>1.0293981838136198E-2</v>
+        <v>1.0293977888170207E-2</v>
       </c>
       <c r="B8" s="3">
-        <v>6.2548250081209095E-2</v>
+        <v>6.2547230470345092E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>9.9998894415242651E-2</v>
+        <v>9.9999997394403309E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>1105943839.677655</v>
+        <v>1105943837.1576962</v>
       </c>
       <c r="E8" s="3">
-        <v>34.224738437438369</v>
+        <v>34.224737105350428</v>
       </c>
       <c r="F8" s="3">
-        <v>62.585372846739183</v>
+        <v>62.585373087947318</v>
       </c>
       <c r="G8" s="3">
-        <v>0.66636597819946519</v>
+        <v>0.66678525636758301</v>
       </c>
       <c r="H8" s="3">
-        <v>7.915511135195627E-2</v>
+        <v>7.9059354392826436E-2</v>
       </c>
       <c r="I8" s="3">
-        <v>1.3764715032424114E-7</v>
+        <v>5.0899272976990542E-7</v>
       </c>
       <c r="J8" s="3">
-        <v>3.4074335137562544E-7</v>
+        <v>2.0085230956227377E-8</v>
       </c>
       <c r="K8" s="3">
-        <v>0.99748717117570118</v>
+        <v>0.99748717120289465</v>
       </c>
       <c r="L8" s="3">
-        <v>0.99501467226958318</v>
+        <v>0.99501466113717596</v>
       </c>
       <c r="M8" s="3">
-        <v>0.99238537709294128</v>
+        <v>0.99238547744077443</v>
       </c>
       <c r="N8" s="3">
-        <v>4.9879347740211112E-2</v>
+        <v>4.9879347470318032E-2</v>
       </c>
       <c r="O8" s="3">
-        <v>7.0256444899508358E-2</v>
+        <v>7.0256523341985691E-2</v>
       </c>
       <c r="P8" s="3">
-        <v>8.6828742942923171E-2</v>
+        <v>8.6828170813152195E-2</v>
       </c>
       <c r="Q8" s="3">
-        <v>2.1028790258526938E-2</v>
+        <v>2.0609537938434234E-2</v>
       </c>
       <c r="R8" s="3">
-        <v>2.662136983033506E-2</v>
+        <v>2.6714034551213846E-2</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>5.1414657591985916E-3</v>
+        <v>2.5521490650557456E-2</v>
       </c>
       <c r="B9" s="3">
-        <v>0.55807307055279665</v>
+        <v>3.417715349211504</v>
       </c>
       <c r="C9" s="3">
-        <v>9.9999999999975317E-2</v>
+        <v>5.2458562678055182E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>489082956.68067968</v>
+        <v>489736763.11978352</v>
       </c>
       <c r="E9" s="3">
-        <v>29.434452534378156</v>
+        <v>29.439042175107609</v>
       </c>
       <c r="F9" s="3">
-        <v>66.762501377180413</v>
+        <v>66.768414906688562</v>
       </c>
       <c r="G9" s="3">
-        <v>7.7759085894293714E-2</v>
+        <v>5.7674886716178216E-2</v>
       </c>
       <c r="H9" s="3">
-        <v>1.4999999999999771</v>
+        <v>9.9656548726176819</v>
       </c>
       <c r="I9" s="3">
-        <v>1.85759547364943E-13</v>
+        <v>4.6822527483963297E-3</v>
       </c>
       <c r="J9" s="3">
-        <v>9.9955400340966376E-3</v>
+        <v>9.6097395522457985E-3</v>
       </c>
       <c r="K9" s="3">
-        <v>0.99576792500736677</v>
+        <v>0.99576792146742721</v>
       </c>
       <c r="L9" s="3">
-        <v>0.92924411844621335</v>
+        <v>0.93833622632773017</v>
       </c>
       <c r="M9" s="3">
-        <v>0.96500697100830446</v>
+        <v>0.97355014251882899</v>
       </c>
       <c r="N9" s="3">
-        <v>6.4728310982960863E-2</v>
+        <v>6.4728338054109727E-2</v>
       </c>
       <c r="O9" s="3">
-        <v>0.26466643674302337</v>
+        <v>0.24707718618995786</v>
       </c>
       <c r="P9" s="3">
-        <v>0.18612656635144437</v>
+        <v>0.1618189077529549</v>
       </c>
       <c r="Q9" s="3">
-        <v>1.9937537723279136E-2</v>
+        <v>1.9839079069671032E-2</v>
       </c>
       <c r="R9" s="3">
-        <v>2.8011204481770417E-2</v>
+        <v>2.7391887592862471E-2</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>3.2950457985331766E-3</v>
+        <v>3.146457105211109E-3</v>
       </c>
       <c r="B10" s="3">
-        <v>0.30860876214509031</v>
+        <v>0.30767357664672129</v>
       </c>
       <c r="C10" s="3">
-        <v>9.4981442893556103E-2</v>
+        <v>7.9583445150516172E-2</v>
       </c>
       <c r="D10" s="3">
-        <v>61744981.062773213</v>
+        <v>61731100.736689009</v>
       </c>
       <c r="E10" s="3">
-        <v>37.50712437085329</v>
+        <v>37.500782638502137</v>
       </c>
       <c r="F10" s="3">
-        <v>39.881407123680219</v>
+        <v>39.883935665374395</v>
       </c>
       <c r="G10" s="3">
-        <v>2.9423334278144538E-2</v>
+        <v>2.9511046557444614E-2</v>
       </c>
       <c r="H10" s="3">
-        <v>0.27770918651243953</v>
+        <v>0.27047908843108182</v>
       </c>
       <c r="I10" s="3">
-        <v>4.5312567925727565E-7</v>
+        <v>4.8746249878534728E-3</v>
       </c>
       <c r="J10" s="3">
-        <v>4.4495615447132475E-6</v>
+        <v>1.395798534112733E-3</v>
       </c>
       <c r="K10" s="3">
-        <v>0.99451207800321861</v>
+        <v>0.99451203358238027</v>
       </c>
       <c r="L10" s="3">
-        <v>0.98550591798136877</v>
+        <v>0.98442477385521798</v>
       </c>
       <c r="M10" s="3">
-        <v>0.9910277781608986</v>
+        <v>0.99115715378663338</v>
       </c>
       <c r="N10" s="3">
-        <v>7.3709177018968355E-2</v>
+        <v>7.3709475330133459E-2</v>
       </c>
       <c r="O10" s="3">
-        <v>0.119787900885043</v>
+        <v>0.12417517418282223</v>
       </c>
       <c r="P10" s="3">
-        <v>9.4247013855667264E-2</v>
+        <v>9.356504556314281E-2</v>
       </c>
       <c r="Q10" s="3">
-        <v>1.9668161062964182E-2</v>
+        <v>1.9711737929038364E-2</v>
       </c>
       <c r="R10" s="3">
-        <v>2.6793196251233223E-2</v>
+        <v>2.6756523344968534E-2</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>8.5966106660538347E-3</v>
+        <v>8.6133116110997613E-3</v>
       </c>
       <c r="B11" s="3">
-        <v>7.5577357772021236E-2</v>
+        <v>7.5490511028491469E-2</v>
       </c>
       <c r="C11" s="3">
-        <v>4.0831535197723735E-2</v>
+        <v>4.1286898867914264E-2</v>
       </c>
       <c r="D11" s="3">
-        <v>110535997.79186587</v>
+        <v>110376839.87821494</v>
       </c>
       <c r="E11" s="3">
-        <v>18.843474477244339</v>
+        <v>18.842232094206679</v>
       </c>
       <c r="F11" s="3">
-        <v>71.952030636267565</v>
+        <v>71.952100802675602</v>
       </c>
       <c r="G11" s="3">
-        <v>0.61767788613733232</v>
+        <v>0.61663893787010804</v>
       </c>
       <c r="H11" s="3">
-        <v>9.8431340974782344E-2</v>
+        <v>9.8010561447073249E-2</v>
       </c>
       <c r="I11" s="3">
-        <v>7.3730649547634975E-10</v>
+        <v>1.3985244766235262E-4</v>
       </c>
       <c r="J11" s="3">
-        <v>8.439412468588274E-11</v>
+        <v>3.4615726410125156E-9</v>
       </c>
       <c r="K11" s="3">
-        <v>0.98377993629163452</v>
+        <v>0.98377972734109542</v>
       </c>
       <c r="L11" s="3">
-        <v>0.9826861872960152</v>
+        <v>0.98268498828409034</v>
       </c>
       <c r="M11" s="3">
-        <v>0.98190427389354429</v>
+        <v>0.98190495840619718</v>
       </c>
       <c r="N11" s="3">
-        <v>0.12671962386024457</v>
+        <v>0.12672044007308195</v>
       </c>
       <c r="O11" s="3">
-        <v>0.13092239906503758</v>
+        <v>0.13092693228954302</v>
       </c>
       <c r="P11" s="3">
-        <v>0.13384606398916329</v>
+        <v>0.13384353244690153</v>
       </c>
       <c r="Q11" s="3">
-        <v>2.1225605225485892E-2</v>
+        <v>2.1265776496996937E-2</v>
       </c>
       <c r="R11" s="3">
-        <v>2.6631702235503582E-2</v>
+        <v>2.6659677306561914E-2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>3.3806700759044885E-2</v>
+        <v>7.9998621646789378E-2</v>
       </c>
       <c r="B12" s="3">
-        <v>0.79620505197767688</v>
+        <v>2.1312262426398703</v>
       </c>
       <c r="C12" s="3">
-        <v>9.9999965711554492E-2</v>
+        <v>3.3565295393196776E-2</v>
       </c>
       <c r="D12" s="3">
-        <v>1451043699.9195745</v>
+        <v>1451043698.7152901</v>
       </c>
       <c r="E12" s="3">
-        <v>12.00000000016527</v>
+        <v>12.000000000081066</v>
       </c>
       <c r="F12" s="3">
-        <v>77.206418122577801</v>
+        <v>77.207645232726918</v>
       </c>
       <c r="G12" s="3">
-        <v>0.49325989052404046</v>
+        <v>0.44746338058923973</v>
       </c>
       <c r="H12" s="3">
-        <v>1.4999990795012847</v>
+        <v>4.2189544038400131</v>
       </c>
       <c r="I12" s="3">
-        <v>9.358558577786673E-8</v>
+        <v>1.0445275917702612E-3</v>
       </c>
       <c r="J12" s="3">
-        <v>2.0865984001237017E-10</v>
+        <v>4.2707190817022586E-14</v>
       </c>
       <c r="K12" s="3">
-        <v>0.9657783219417706</v>
+        <v>0.96577834202883539</v>
       </c>
       <c r="L12" s="3">
-        <v>0.92465899532540019</v>
+        <v>0.93034953850650604</v>
       </c>
       <c r="M12" s="3">
-        <v>0.98410424865474433</v>
+        <v>0.9871713206559789</v>
       </c>
       <c r="N12" s="3">
-        <v>0.18406374243084128</v>
+        <v>0.1840636884109762</v>
       </c>
       <c r="O12" s="3">
-        <v>0.27310729508355103</v>
+        <v>0.26259085452193304</v>
       </c>
       <c r="P12" s="3">
-        <v>0.12544637831281999</v>
+        <v>0.11269601834395418</v>
       </c>
       <c r="Q12" s="3">
-        <v>2.0862347432982233E-2</v>
+        <v>2.0460765142843514E-2</v>
       </c>
       <c r="R12" s="3">
-        <v>2.801120373996922E-2</v>
+        <v>2.798323054501933E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>5.3544871632402059E-3</v>
+        <v>5.3785052731830461E-3</v>
       </c>
       <c r="B13" s="3">
-        <v>2.6088866336092167E-2</v>
+        <v>2.6738923838399504E-2</v>
       </c>
       <c r="C13" s="3">
-        <v>9.9999999999976691E-2</v>
+        <v>9.9999999999977537E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>245215594.18733451</v>
+        <v>216470048.14877984</v>
       </c>
       <c r="E13" s="3">
-        <v>28.49395501756343</v>
+        <v>28.433727230396499</v>
       </c>
       <c r="F13" s="3">
-        <v>56.471394977546531</v>
+        <v>54.906064887553164</v>
       </c>
       <c r="G13" s="3">
-        <v>1.0000034168362659E-2</v>
+        <v>3.2756574456477034E-4</v>
       </c>
       <c r="H13" s="3">
-        <v>1.7337393830800824E-2</v>
+        <v>1.9699840230101226E-2</v>
       </c>
       <c r="I13" s="3">
-        <v>3.3317141088133832E-14</v>
+        <v>3.2218515143462973E-14</v>
       </c>
       <c r="J13" s="3">
-        <v>9.9999999999766734E-3</v>
+        <v>9.9999999999769631E-3</v>
       </c>
       <c r="K13" s="3">
-        <v>0.99859935377581333</v>
+        <v>0.99860127036337543</v>
       </c>
       <c r="L13" s="3">
-        <v>0.99482875360167022</v>
+        <v>0.99478661481358055</v>
       </c>
       <c r="M13" s="3">
-        <v>0.9900997936090683</v>
+        <v>0.98959205188990085</v>
       </c>
       <c r="N13" s="3">
-        <v>3.7237612194458064E-2</v>
+        <v>3.7212126252853521E-2</v>
       </c>
       <c r="O13" s="3">
-        <v>7.155091847311601E-2</v>
+        <v>7.184184946502474E-2</v>
       </c>
       <c r="P13" s="3">
-        <v>9.900103194928013E-2</v>
+        <v>0.1015079732286986</v>
       </c>
       <c r="Q13" s="3">
-        <v>1.9607843274686895E-2</v>
+        <v>1.9609087170804188E-2</v>
       </c>
       <c r="R13" s="3">
-        <v>2.6532677166207667E-2</v>
+        <v>2.6532400155956409E-2</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>3.7750212557226309E-3</v>
+        <v>3.7811522215408897E-3</v>
       </c>
       <c r="B14" s="3">
-        <v>2.450371200140421E-2</v>
+        <v>2.3975951449874546E-2</v>
       </c>
       <c r="C14" s="3">
-        <v>3.694216216652061E-2</v>
+        <v>3.7648713267753244E-2</v>
       </c>
       <c r="D14" s="3">
-        <v>2505929599.9584312</v>
+        <v>2505929597.0853271</v>
       </c>
       <c r="E14" s="3">
-        <v>33.023915613744613</v>
+        <v>33.023920788383059</v>
       </c>
       <c r="F14" s="3">
-        <v>59.464314209681646</v>
+        <v>59.464307434542782</v>
       </c>
       <c r="G14" s="3">
-        <v>0.73375254137520529</v>
+        <v>0.73367388393967248</v>
       </c>
       <c r="H14" s="3">
-        <v>1.0000000000022217E-2</v>
+        <v>7.8385779505851828E-3</v>
       </c>
       <c r="I14" s="3">
-        <v>9.9999999934737745E-3</v>
+        <v>9.9999866391353946E-3</v>
       </c>
       <c r="J14" s="3">
-        <v>3.2224720971477077E-14</v>
+        <v>4.7372018157425733E-12</v>
       </c>
       <c r="K14" s="3">
-        <v>0.99716413839715412</v>
+        <v>0.99716413840400764</v>
       </c>
       <c r="L14" s="3">
-        <v>0.99335146238222038</v>
+        <v>0.99336359824611264</v>
       </c>
       <c r="M14" s="3">
-        <v>0.99207449603054909</v>
+        <v>0.99192791876802611</v>
       </c>
       <c r="N14" s="3">
-        <v>5.2985875351997079E-2</v>
+        <v>5.2985875287971357E-2</v>
       </c>
       <c r="O14" s="3">
-        <v>8.1129848031422966E-2</v>
+        <v>8.1055769297123478E-2</v>
       </c>
       <c r="P14" s="3">
-        <v>8.8579054689900502E-2</v>
+        <v>8.9394409331088304E-2</v>
       </c>
       <c r="Q14" s="3">
-        <v>2.1161810395685359E-2</v>
+        <v>2.1234380756629898E-2</v>
       </c>
       <c r="R14" s="3">
-        <v>2.6525198939014259E-2</v>
+        <v>2.652705700243119E-2</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>5.1184798758091713E-3</v>
+        <v>5.733412868772542E-3</v>
       </c>
       <c r="B15" s="3">
-        <v>4.7279213238497854E-2</v>
+        <v>4.4777155572905403E-2</v>
       </c>
       <c r="C15" s="3">
-        <v>6.2844901051520338E-2</v>
+        <v>8.5142842438287111E-2</v>
       </c>
       <c r="D15" s="3">
-        <v>246223875.92630652</v>
+        <v>218002613.50193721</v>
       </c>
       <c r="E15" s="3">
-        <v>18.180655604492525</v>
+        <v>17.966340175817113</v>
       </c>
       <c r="F15" s="3">
-        <v>67.337114468802213</v>
+        <v>65.908559158253198</v>
       </c>
       <c r="G15" s="3">
-        <v>1.0000001022941449E-2</v>
+        <v>1.0000042249550875E-8</v>
       </c>
       <c r="H15" s="3">
-        <v>1.076246518779151E-2</v>
+        <v>6.2919062710599565E-3</v>
       </c>
       <c r="I15" s="3">
-        <v>4.8900449546519351E-14</v>
+        <v>3.4289203051887389E-11</v>
       </c>
       <c r="J15" s="3">
-        <v>9.9999999999611337E-3</v>
+        <v>9.9999958653245423E-3</v>
       </c>
       <c r="K15" s="3">
-        <v>0.99864702915438675</v>
+        <v>0.99870449586169496</v>
       </c>
       <c r="L15" s="3">
-        <v>0.98412328432707596</v>
+        <v>0.98769404147713824</v>
       </c>
       <c r="M15" s="3">
-        <v>0.99348864194286901</v>
+        <v>0.99309265476941699</v>
       </c>
       <c r="N15" s="3">
-        <v>3.6598376154647588E-2</v>
+        <v>3.5812694633635289E-2</v>
       </c>
       <c r="O15" s="3">
-        <v>0.12537124277997255</v>
+        <v>0.11037617015295072</v>
       </c>
       <c r="P15" s="3">
-        <v>8.0288507748990476E-2</v>
+        <v>8.2693843654029875E-2</v>
       </c>
       <c r="Q15" s="3">
-        <v>1.9607843141215903E-2</v>
+        <v>1.9607843137297149E-2</v>
       </c>
       <c r="R15" s="3">
-        <v>2.6526240401474138E-2</v>
+        <v>2.6528384440147008E-2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>3.2670819361843881E-3</v>
+        <v>5.2165143665999902E-3</v>
       </c>
       <c r="B16" s="3">
-        <v>0.35156474776443902</v>
+        <v>0.58116457014490119</v>
       </c>
       <c r="C16" s="3">
-        <v>5.8458913054722186E-2</v>
+        <v>9.8639936921224136E-2</v>
       </c>
       <c r="D16" s="3">
-        <v>1519329725.0761521</v>
+        <v>1520028310.508136</v>
       </c>
       <c r="E16" s="3">
-        <v>42.232785902311427</v>
+        <v>42.233909335383906</v>
       </c>
       <c r="F16" s="3">
-        <v>67.259363948896592</v>
+        <v>67.258477067235617</v>
       </c>
       <c r="G16" s="3">
-        <v>0.65384626034757143</v>
+        <v>0.65224422154978035</v>
       </c>
       <c r="H16" s="3">
-        <v>1.4999664403733088</v>
+        <v>2.9445381858027808</v>
       </c>
       <c r="I16" s="3">
-        <v>6.0023894200089949E-3</v>
+        <v>1.2114734400216535E-4</v>
       </c>
       <c r="J16" s="3">
-        <v>6.8249091649626311E-4</v>
+        <v>1.7466018319122646E-7</v>
       </c>
       <c r="K16" s="3">
-        <v>0.99372485828730683</v>
+        <v>0.99372489864384794</v>
       </c>
       <c r="L16" s="3">
-        <v>0.96333403802422679</v>
+        <v>0.96467753514876009</v>
       </c>
       <c r="M16" s="3">
-        <v>0.89755461090179434</v>
+        <v>0.91329113989406796</v>
       </c>
       <c r="N16" s="3">
-        <v>7.8818717926430665E-2</v>
+        <v>7.8818464477497449E-2</v>
       </c>
       <c r="O16" s="3">
-        <v>0.1905237579831332</v>
+        <v>0.18700064225217924</v>
       </c>
       <c r="P16" s="3">
-        <v>0.31846653702896882</v>
+        <v>0.29298766442441349</v>
       </c>
       <c r="Q16" s="3">
-        <v>2.1276390969101062E-2</v>
+        <v>2.1276009206649304E-2</v>
       </c>
       <c r="R16" s="3">
-        <v>2.801117605399692E-2</v>
+        <v>2.7041107086627207E-2</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>6.7948250680328285E-3</v>
+        <v>8.6066060331552955E-3</v>
       </c>
       <c r="B17" s="3">
-        <v>0.16801490001711331</v>
+        <v>0.16008235012557337</v>
       </c>
       <c r="C17" s="3">
-        <v>2.6315921732587965E-2</v>
+        <v>9.9339087276265128E-2</v>
       </c>
       <c r="D17" s="3">
-        <v>63316733.555342428</v>
+        <v>57131236.229517505</v>
       </c>
       <c r="E17" s="3">
-        <v>32.821233105994835</v>
+        <v>32.736381824141198</v>
       </c>
       <c r="F17" s="3">
-        <v>56.403239997597915</v>
+        <v>55.183442677006219</v>
       </c>
       <c r="G17" s="3">
-        <v>1.0000003196263223E-2</v>
+        <v>9.3204360810517093E-8</v>
       </c>
       <c r="H17" s="3">
-        <v>5.1700833331102217E-2</v>
+        <v>4.6292385710475975E-2</v>
       </c>
       <c r="I17" s="3">
-        <v>3.2123650134157543E-11</v>
+        <v>5.5963149063981782E-13</v>
       </c>
       <c r="J17" s="3">
-        <v>9.9999976961844764E-3</v>
+        <v>9.9042611482077596E-3</v>
       </c>
       <c r="K17" s="3">
-        <v>0.99612548687833624</v>
+        <v>0.99616058103576866</v>
       </c>
       <c r="L17" s="3">
-        <v>0.97570574734402848</v>
+        <v>0.98170981704693761</v>
       </c>
       <c r="M17" s="3">
-        <v>0.99468591104081372</v>
+        <v>0.9951918161648281</v>
       </c>
       <c r="N17" s="3">
-        <v>6.1933577245684421E-2</v>
+        <v>6.1652451488882459E-2</v>
       </c>
       <c r="O17" s="3">
-        <v>0.15508484816193951</v>
+        <v>0.13456329783240231</v>
       </c>
       <c r="P17" s="3">
-        <v>7.2532393243256707E-2</v>
+        <v>6.8993492423707725E-2</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.9607843796449507E-2</v>
+        <v>1.9607851016459839E-2</v>
       </c>
       <c r="R17" s="3">
-        <v>2.6571089565101586E-2</v>
+        <v>2.6583396901367802E-2</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>2.5363941134740886E-2</v>
+        <v>2.3825085307432405E-2</v>
       </c>
       <c r="B18" s="3">
-        <v>0.52553966370134619</v>
+        <v>0.4868769103206117</v>
       </c>
       <c r="C18" s="3">
-        <v>9.9997843113843493E-2</v>
+        <v>9.9999899886540525E-2</v>
       </c>
       <c r="D18" s="3">
-        <v>1535910198.1699622</v>
+        <v>1719077230.4604545</v>
       </c>
       <c r="E18" s="3">
-        <v>13.56782824069276</v>
+        <v>13.702998564284247</v>
       </c>
       <c r="F18" s="3">
-        <v>72.527143797822632</v>
+        <v>72.555247982805568</v>
       </c>
       <c r="G18" s="3">
-        <v>0.45013393346571706</v>
+        <v>0.51501016025399993</v>
       </c>
       <c r="H18" s="3">
-        <v>0.34545277887515491</v>
+        <v>0.31446067020291762</v>
       </c>
       <c r="I18" s="3">
-        <v>2.1556860457008289E-5</v>
+        <v>2.6497694029687907E-5</v>
       </c>
       <c r="J18" s="3">
-        <v>9.3592676522218489E-4</v>
+        <v>1.8250572295691101E-4</v>
       </c>
       <c r="K18" s="3">
-        <v>0.99524425949058504</v>
+        <v>0.99526522827522435</v>
       </c>
       <c r="L18" s="3">
-        <v>0.96762561494625809</v>
+        <v>0.96728956190212578</v>
       </c>
       <c r="M18" s="3">
-        <v>0.98947516586234474</v>
+        <v>0.99004082044259878</v>
       </c>
       <c r="N18" s="3">
-        <v>6.8616201471087254E-2</v>
+        <v>6.8464764715347251E-2</v>
       </c>
       <c r="O18" s="3">
-        <v>0.1790269287096343</v>
+        <v>0.17995369881415477</v>
       </c>
       <c r="P18" s="3">
-        <v>0.10207637237029307</v>
+        <v>9.9295456904267068E-2</v>
       </c>
       <c r="Q18" s="3">
-        <v>2.0818988151678094E-2</v>
+        <v>2.1120254939138508E-2</v>
       </c>
       <c r="R18" s="3">
-        <v>2.6918648418485035E-2</v>
+        <v>2.677546499569956E-2</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
@@ -8695,223 +8698,223 @@
         <v>7.9999999999977797E-2</v>
       </c>
       <c r="B19" s="3">
-        <v>8.9660426898436396E-2</v>
+        <v>8.9660203498313579E-2</v>
       </c>
       <c r="C19" s="3">
-        <v>2.6315789473706414E-2</v>
+        <v>2.6315789473706417E-2</v>
       </c>
       <c r="D19" s="3">
-        <v>50540652.599967733</v>
+        <v>50540648.358700573</v>
       </c>
       <c r="E19" s="3">
-        <v>25.913893068469662</v>
+        <v>25.91398305976729</v>
       </c>
       <c r="F19" s="3">
-        <v>62.398376488121556</v>
+        <v>62.398234066853576</v>
       </c>
       <c r="G19" s="3">
-        <v>0.60844088124363238</v>
+        <v>0.60832421319523755</v>
       </c>
       <c r="H19" s="3">
-        <v>2.733817589428162E-2</v>
+        <v>2.7316030758319766E-2</v>
       </c>
       <c r="I19" s="3">
-        <v>3.2221818820861523E-14</v>
+        <v>3.2229931290132734E-14</v>
       </c>
       <c r="J19" s="3">
-        <v>3.2205101163824758E-14</v>
+        <v>3.220511957324058E-14</v>
       </c>
       <c r="K19" s="3">
-        <v>0.9824559069649661</v>
+        <v>0.98245588834946462</v>
       </c>
       <c r="L19" s="3">
-        <v>0.9313166324368769</v>
+        <v>0.93131688102757759</v>
       </c>
       <c r="M19" s="3">
-        <v>0.93502030011935444</v>
+        <v>0.93501999229245869</v>
       </c>
       <c r="N19" s="3">
-        <v>0.13179018212554194</v>
+        <v>0.13179025204479272</v>
       </c>
       <c r="O19" s="3">
-        <v>0.26076145015606106</v>
+        <v>0.26076097825920619</v>
       </c>
       <c r="P19" s="3">
-        <v>0.25363340253570527</v>
+        <v>0.25363400330094915</v>
       </c>
       <c r="Q19" s="3">
-        <v>2.1104704404143009E-2</v>
+        <v>2.1222426286284703E-2</v>
       </c>
       <c r="R19" s="3">
-        <v>2.6546339139730465E-2</v>
+        <v>2.6568225637508797E-2</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>1.0757077112977333E-2</v>
+        <v>1.0760566128758033E-2</v>
       </c>
       <c r="B20" s="3">
-        <v>0.10801772603992492</v>
+        <v>0.10810136923207164</v>
       </c>
       <c r="C20" s="3">
-        <v>9.9999999999977801E-2</v>
+        <v>9.9999999990512817E-2</v>
       </c>
       <c r="D20" s="3">
-        <v>1442195538.1931746</v>
+        <v>1442195496.1246281</v>
       </c>
       <c r="E20" s="3">
-        <v>21.071896503666935</v>
+        <v>21.071901191010653</v>
       </c>
       <c r="F20" s="3">
-        <v>66.224947436526264</v>
+        <v>66.224947910183658</v>
       </c>
       <c r="G20" s="3">
-        <v>0.6415844085418928</v>
+        <v>0.64179913127875132</v>
       </c>
       <c r="H20" s="3">
-        <v>0.1193377341396344</v>
+        <v>0.1195542193137312</v>
       </c>
       <c r="I20" s="3">
-        <v>1.1037986174641514E-13</v>
+        <v>1.001442476453742E-9</v>
       </c>
       <c r="J20" s="3">
-        <v>9.999999999965821E-3</v>
+        <v>9.9992167257435018E-3</v>
       </c>
       <c r="K20" s="3">
-        <v>0.99428979814573171</v>
+        <v>0.99428979846547727</v>
       </c>
       <c r="L20" s="3">
-        <v>0.99141423378021776</v>
+        <v>0.99141974525984633</v>
       </c>
       <c r="M20" s="3">
-        <v>0.99020680723225096</v>
+        <v>0.99018690753118732</v>
       </c>
       <c r="N20" s="3">
-        <v>7.5187098864935978E-2</v>
+        <v>7.5187096759866429E-2</v>
       </c>
       <c r="O20" s="3">
-        <v>9.2194948655468095E-2</v>
+        <v>9.2165352452817859E-2</v>
       </c>
       <c r="P20" s="3">
-        <v>9.8464515639247116E-2</v>
+        <v>9.8564504483736548E-2</v>
       </c>
       <c r="Q20" s="3">
-        <v>2.1002913688138121E-2</v>
+        <v>2.0784713283118691E-2</v>
       </c>
       <c r="R20" s="3">
-        <v>2.6648638344491903E-2</v>
+        <v>2.6593421852223683E-2</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>7.6944544961526622E-3</v>
+        <v>7.6944322146647853E-3</v>
       </c>
       <c r="B21" s="3">
-        <v>0.18642673721382619</v>
+        <v>0.18642571809378297</v>
       </c>
       <c r="C21" s="3">
-        <v>9.9999999999977801E-2</v>
+        <v>9.9999999999977593E-2</v>
       </c>
       <c r="D21" s="3">
-        <v>2066751869.5248075</v>
+        <v>2066749147.1669409</v>
       </c>
       <c r="E21" s="3">
-        <v>15.152082330947671</v>
+        <v>15.152081001230075</v>
       </c>
       <c r="F21" s="3">
-        <v>69.229555700063358</v>
+        <v>69.229555840732246</v>
       </c>
       <c r="G21" s="3">
-        <v>0.62014769749369358</v>
+        <v>0.62044499916990414</v>
       </c>
       <c r="H21" s="3">
-        <v>0.1448978906748426</v>
+        <v>0.1447969226843194</v>
       </c>
       <c r="I21" s="3">
-        <v>3.2204502153902813E-14</v>
+        <v>3.2204898710353411E-14</v>
       </c>
       <c r="J21" s="3">
-        <v>9.9999999999716115E-3</v>
+        <v>9.9999993926586754E-3</v>
       </c>
       <c r="K21" s="3">
-        <v>0.989438013226002</v>
+        <v>0.9894380131515057</v>
       </c>
       <c r="L21" s="3">
-        <v>0.98056069556542547</v>
+        <v>0.98056065158178418</v>
       </c>
       <c r="M21" s="3">
-        <v>0.98156145208089374</v>
+        <v>0.98156151094688882</v>
       </c>
       <c r="N21" s="3">
-        <v>0.10225637831577079</v>
+        <v>0.10225637867639044</v>
       </c>
       <c r="O21" s="3">
-        <v>0.13872602996636482</v>
+        <v>0.13872618690800109</v>
       </c>
       <c r="P21" s="3">
-        <v>0.1351079658640276</v>
+        <v>0.1351077501943542</v>
       </c>
       <c r="Q21" s="3">
-        <v>2.1232305847863651E-2</v>
+        <v>2.0934129971447942E-2</v>
       </c>
       <c r="R21" s="3">
-        <v>2.6707660573592581E-2</v>
+        <v>2.6807441557686947E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>6.7391717793629739E-3</v>
+        <v>6.7424239870017616E-3</v>
       </c>
       <c r="B22" s="3">
-        <v>0.22286980138300003</v>
+        <v>0.22304305297682125</v>
       </c>
       <c r="C22" s="3">
-        <v>9.9999997196084156E-2</v>
+        <v>9.9998601617137084E-2</v>
       </c>
       <c r="D22" s="3">
-        <v>1070399379.9980725</v>
+        <v>1070399379.5138259</v>
       </c>
       <c r="E22" s="3">
-        <v>15.623301495781359</v>
+        <v>15.623216818777985</v>
       </c>
       <c r="F22" s="3">
-        <v>75.123920770063421</v>
+        <v>75.124014324750945</v>
       </c>
       <c r="G22" s="3">
-        <v>0.54377067329878437</v>
+        <v>0.54387845927072231</v>
       </c>
       <c r="H22" s="3">
-        <v>0.18246565661728437</v>
+        <v>0.18267324308497107</v>
       </c>
       <c r="I22" s="3">
-        <v>3.1657682732553549E-8</v>
+        <v>7.888151888538791E-7</v>
       </c>
       <c r="J22" s="3">
-        <v>4.7896383633013246E-8</v>
+        <v>4.182288630781361E-7</v>
       </c>
       <c r="K22" s="3">
-        <v>0.99162805440397339</v>
+        <v>0.99162805449586033</v>
       </c>
       <c r="L22" s="3">
-        <v>0.93841999256393727</v>
+        <v>0.93842985926322897</v>
       </c>
       <c r="M22" s="3">
-        <v>0.99213412448282778</v>
+        <v>0.99211803884111582</v>
       </c>
       <c r="N22" s="3">
-        <v>9.1039695408466528E-2</v>
+        <v>9.1039694908859492E-2</v>
       </c>
       <c r="O22" s="3">
-        <v>0.24690930999397762</v>
+        <v>0.24688952859407243</v>
       </c>
       <c r="P22" s="3">
-        <v>8.8245208153194019E-2</v>
+        <v>8.8335392382076133E-2</v>
       </c>
       <c r="Q22" s="3">
-        <v>2.0686871806163333E-2</v>
+        <v>2.0575461872008087E-2</v>
       </c>
       <c r="R22" s="3">
-        <v>2.674616241053783E-2</v>
+        <v>2.6748083524552567E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
@@ -8988,27 +8991,27 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>2.0989887421269736E-3</v>
+        <v>2.3173268963984188E-3</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>5.4905275101386035E-3</v>
+        <v>6.5132119631182801E-3</v>
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(A$7:A$12,A$17:A$19)</f>
-        <v>2.0122558635566279E-2</v>
+        <v>2.7535106283079838E-2</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>4.3787675577390993E-3</v>
+        <v>5.0273961825241173E-3</v>
       </c>
       <c r="F24" s="2">
         <f>A$20</f>
-        <v>1.0757077112977333E-2</v>
+        <v>1.0760566128758033E-2</v>
       </c>
       <c r="G24" s="2">
         <f>AVERAGE(A$21:A$22)</f>
-        <v>7.216813137757818E-3</v>
+        <v>7.218428100833273E-3</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" ref="N24:N44" si="2">_xlfn.IFS(ABS(A2-T$5)&lt;=0.01*T$5,"Lower",ABS(A2-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
@@ -9020,7 +9023,7 @@
       </c>
       <c r="P24" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="0"/>
@@ -9036,7 +9039,7 @@
       </c>
       <c r="T24" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="0"/>
@@ -9048,7 +9051,7 @@
       </c>
       <c r="W24" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AD24" t="str">
         <f t="shared" si="1"/>
@@ -9062,24 +9065,24 @@
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>2.2613308326460048E-4</v>
+        <v>1.4110540454517E-4</v>
       </c>
       <c r="C25" s="2">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>1.0260147015750561E-3</v>
+        <v>1.1938388220454957E-3</v>
       </c>
       <c r="D25" s="2">
         <f>STDEV(A$7:A$12,A$17:A$19)/SQRT(COUNT(A$7:A$12,A$17:A$19))</f>
-        <v>8.2211607784294354E-3</v>
+        <v>1.0219978638120604E-2</v>
       </c>
       <c r="E25" s="2">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>5.0822875266572293E-4</v>
+        <v>4.2920729768569356E-4</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f>STDEV(A$21:A$22)/SQRT(COUNT(A$21:A$22))</f>
-        <v>4.7764135839484419E-4</v>
+        <v>4.7600411383151179E-4</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
@@ -9177,7 +9180,7 @@
       </c>
       <c r="AE26" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
@@ -9241,7 +9244,7 @@
       </c>
       <c r="AD27" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AE27" t="str">
         <f t="shared" si="1"/>
@@ -9254,27 +9257,27 @@
       </c>
       <c r="C28" s="2">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>9.2737916178800714E-2</v>
+        <v>9.2535545750464687E-2</v>
       </c>
       <c r="D28" s="2">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>0.30405467555768179</v>
+        <v>0.3541415185008206</v>
       </c>
       <c r="E28" s="2">
         <f>AVERAGE(B$7:B$12,B$17:B$19)</f>
-        <v>0.29366042697146461</v>
+        <v>0.75444268232926348</v>
       </c>
       <c r="F28" s="2">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>0.11235913483510832</v>
+        <v>0.16916415025152015</v>
       </c>
       <c r="G28" s="2">
         <f>B$20</f>
-        <v>0.10801772603992492</v>
+        <v>0.10810136923207164</v>
       </c>
       <c r="H28" s="2">
         <f>AVERAGE(B$21:B$22)</f>
-        <v>0.20464826929841312</v>
+        <v>0.2047343855353021</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
@@ -9302,7 +9305,7 @@
       </c>
       <c r="T28" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="0"/>
@@ -9328,24 +9331,24 @@
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C29" s="2">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>1.2082144538991844E-2</v>
+        <v>1.2057455739979463E-2</v>
       </c>
       <c r="D29" s="2">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>9.0494776565675436E-2</v>
+        <v>5.7309495294150879E-2</v>
       </c>
       <c r="E29" s="2">
         <f>STDEV(B$7:B$12,B$17:B$19)/SQRT(COUNT(B$7:B$12,B$17:B$19))</f>
-        <v>9.0525560847418696E-2</v>
+        <v>0.39928208436858398</v>
       </c>
       <c r="F29" s="2">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>7.9904034107640146E-2</v>
+        <v>0.13741088889033834</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
         <f>STDEV(B$21:B$22)/SQRT(COUNT(B$21:B$22))</f>
-        <v>1.8221532084586919E-2</v>
+        <v>1.8308667441519141E-2</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
@@ -9439,7 +9442,7 @@
       </c>
       <c r="AD30" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AE30" t="str">
         <f t="shared" si="1"/>
@@ -9475,35 +9478,35 @@
       </c>
       <c r="P31" t="str">
         <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="0"/>
         <v>Upper</v>
       </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" si="0"/>
-        <v>Upper</v>
-      </c>
       <c r="V31" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AD31" t="str">
         <f t="shared" si="1"/>
@@ -9511,7 +9514,7 @@
       </c>
       <c r="AE31" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
@@ -9520,27 +9523,27 @@
       </c>
       <c r="D32" s="2">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>5.0801746335472332E-2</v>
+        <v>7.384890314233869E-2</v>
       </c>
       <c r="E32" s="2">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>4.7915018896477111E-2</v>
+        <v>5.0263555960985945E-2</v>
       </c>
       <c r="F32" s="2">
         <f>AVERAGE(C$7:C$12,C$17:C$19)</f>
-        <v>6.9319782636390728E-2</v>
+        <v>6.3109847044927683E-2</v>
       </c>
       <c r="G32" s="2">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>6.4561494068184955E-2</v>
+        <v>8.0357873156810505E-2</v>
       </c>
       <c r="H32" s="2">
         <f>C$20</f>
-        <v>9.9999999999977801E-2</v>
+        <v>9.9999999990512817E-2</v>
       </c>
       <c r="I32" s="2">
         <f>AVERAGE(C$21:C$22)</f>
-        <v>9.9999998598030979E-2</v>
+        <v>9.9999300808557345E-2</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="2"/>
@@ -9588,30 +9591,30 @@
       </c>
       <c r="AE32" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
     </row>
     <row r="33" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D33" s="2">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>2.4485807721474094E-2</v>
+        <v>2.3803754511435734E-2</v>
       </c>
       <c r="E33" s="2">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>2.1599228973644392E-2</v>
+        <v>2.3947765296666392E-2</v>
       </c>
       <c r="F33" s="2">
         <f>STDEV(C$7:C$12,C$17:C$19)/SQRT(COUNT(C$7:C$12,C$17:C$19))</f>
-        <v>1.1833182975400191E-2</v>
+        <v>1.0466686942143609E-2</v>
       </c>
       <c r="G33" s="2">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>1.3098674818414105E-2</v>
+        <v>1.4625933793160245E-2</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2">
         <f>STDEV(C$21:C$22)/SQRT(COUNT(C$21:C$22))</f>
-        <v>1.4019468225212604E-9</v>
+        <v>6.9919142025448567E-7</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
@@ -9665,7 +9668,7 @@
     <row r="34" spans="4:31" x14ac:dyDescent="0.3">
       <c r="N34" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="0"/>
@@ -9673,7 +9676,7 @@
       </c>
       <c r="P34" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="0"/>
@@ -9693,7 +9696,7 @@
       </c>
       <c r="U34" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="0"/>
@@ -9705,7 +9708,7 @@
       </c>
       <c r="AD34" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AE34" t="str">
         <f t="shared" si="1"/>
@@ -9757,7 +9760,7 @@
       </c>
       <c r="T35" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="0"/>
@@ -9786,27 +9789,27 @@
       </c>
       <c r="E36" s="2">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>633623093.30227518</v>
+        <v>632008997.85957575</v>
       </c>
       <c r="F36" s="2">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>436262454.46035844</v>
+        <v>429383170.13780922</v>
       </c>
       <c r="G36" s="2">
         <f>AVERAGE(D$7:D$12,D$17:D$19)</f>
-        <v>637513003.5673542</v>
+        <v>657231049.83675289</v>
       </c>
       <c r="H36" s="2">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>1129174698.7870562</v>
+        <v>1115107642.3110452</v>
       </c>
       <c r="I36" s="2">
         <f>D$20</f>
-        <v>1442195538.1931746</v>
+        <v>1442195496.1246281</v>
       </c>
       <c r="J36" s="2">
         <f>AVERAGE(D$21:D$22)</f>
-        <v>1568575624.76144</v>
+        <v>1568574263.3403835</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
@@ -9838,7 +9841,7 @@
       </c>
       <c r="U36" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="0"/>
@@ -9860,24 +9863,24 @@
     <row r="37" spans="4:31" x14ac:dyDescent="0.3">
       <c r="E37" s="2">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>303200809.90604931</v>
+        <v>304779407.73467177</v>
       </c>
       <c r="F37" s="2">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>333418706.93896079</v>
+        <v>337009161.21699256</v>
       </c>
       <c r="G37" s="2">
         <f>STDEV(D$7:D$12,D$17:D$19)/SQRT(COUNT(D$7:D$12,D$17:D$19))</f>
-        <v>205739760.9084945</v>
+        <v>217752834.47134462</v>
       </c>
       <c r="H37" s="2">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>548381015.40149236</v>
+        <v>556079536.85988617</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2">
         <f>STDEV(D$21:D$22)/SQRT(COUNT(D$21:D$22))</f>
-        <v>498176244.76336735</v>
+        <v>498174883.8265568</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="2"/>
@@ -9959,7 +9962,7 @@
       </c>
       <c r="U38" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="0"/>
@@ -9975,7 +9978,7 @@
       </c>
       <c r="AE38" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="39" spans="4:31" x14ac:dyDescent="0.3">
@@ -10007,7 +10010,7 @@
       </c>
       <c r="P39" t="str">
         <f t="shared" ref="P39:P44" si="4">_xlfn.IFS(ABS(C17-V$5)&lt;=0.01*V$5,"Lower",ABS(C17-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
-        <v>Lower</v>
+        <v>Upper</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" ref="Q39:Q44" si="5">_xlfn.IFS(ABS(D17-W$5)&lt;=0.01*W$5,"Lower",ABS(D17-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
@@ -10023,7 +10026,7 @@
       </c>
       <c r="T39" t="str">
         <f t="shared" ref="T39:T44" si="8">_xlfn.IFS(ABS(G17-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G17-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" ref="U39:U44" si="9">_xlfn.IFS(ABS(H17-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H17-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
@@ -10052,27 +10055,27 @@
       </c>
       <c r="F40" s="2">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>20.597138533955704</v>
+        <v>20.569031590712743</v>
       </c>
       <c r="G40" s="2">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>22.140429701227792</v>
+        <v>22.076323769486507</v>
       </c>
       <c r="H40" s="2">
         <f>AVERAGE(E$7:E$12,E$17:E$19)</f>
-        <v>27.044218660894344</v>
+        <v>27.049486754336399</v>
       </c>
       <c r="I40" s="2">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>30.482828034527998</v>
+        <v>30.414474382495143</v>
       </c>
       <c r="J40" s="2">
         <f>E$20</f>
-        <v>21.071896503666935</v>
+        <v>21.071901191010653</v>
       </c>
       <c r="K40" s="2">
         <f>AVERAGE(E$21:E$22)</f>
-        <v>15.387691913364515</v>
+        <v>15.38764891000403</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
@@ -10116,34 +10119,34 @@
       </c>
       <c r="AD40" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AE40" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
     </row>
     <row r="41" spans="4:31" x14ac:dyDescent="0.3">
       <c r="F41" s="2">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.6193040428052825</v>
+        <v>1.6353604324085522</v>
       </c>
       <c r="G41" s="2">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>5.4609676026235103</v>
+        <v>5.4277614734308957</v>
       </c>
       <c r="H41" s="2">
         <f>STDEV(E$7:E$12,E$17:E$19)/SQRT(COUNT(E$7:E$12,E$17:E$19))</f>
-        <v>3.3779855758895501</v>
+        <v>3.3683323128668317</v>
       </c>
       <c r="I41" s="2">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>4.9984805887711952</v>
+        <v>5.0446973617418731</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
         <f>STDEV(E$21:E$22)/SQRT(COUNT(E$21:E$22))</f>
-        <v>0.23560958241684379</v>
+        <v>0.23556790877395525</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
@@ -10305,11 +10308,11 @@
       </c>
       <c r="AD43" t="str">
         <f t="shared" si="1"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="AE43" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="44" spans="4:31" x14ac:dyDescent="0.3">
@@ -10318,27 +10321,27 @@
       </c>
       <c r="G44" s="2">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>63.473019067832979</v>
+        <v>62.929200798475335</v>
       </c>
       <c r="H44" s="2">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>61.909655069754429</v>
+        <v>61.049871234843614</v>
       </c>
       <c r="I44" s="2">
         <f>AVERAGE(F$7:F$12,F$17:F$19)</f>
-        <v>62.697284933125616</v>
+        <v>62.565940988884485</v>
       </c>
       <c r="J44" s="2">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>62.633046901231751</v>
+        <v>61.88435213689619</v>
       </c>
       <c r="K44" s="2">
         <f>F$20</f>
-        <v>66.224947436526264</v>
+        <v>66.224947910183658</v>
       </c>
       <c r="L44" s="2">
         <f>AVERAGE(F$21:F$22)</f>
-        <v>72.176738235063397</v>
+        <v>72.176785082741588</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
@@ -10382,7 +10385,7 @@
       </c>
       <c r="AD44" t="str">
         <f t="shared" si="1"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="AE44" t="str">
         <f t="shared" si="1"/>
@@ -10392,24 +10395,24 @@
     <row r="45" spans="4:31" x14ac:dyDescent="0.3">
       <c r="G45" s="2">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>2.7002392906983421</v>
+        <v>3.0934409159415974</v>
       </c>
       <c r="H45" s="2">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>4.4752757551980107</v>
+        <v>4.888968988250177</v>
       </c>
       <c r="I45" s="2">
         <f>STDEV(F$7:F$12,F$17:F$19)/SQRT(COUNT(F$7:F$12,F$17:F$19))</f>
-        <v>3.7929558311629488</v>
+        <v>3.824336547084958</v>
       </c>
       <c r="J45" s="2">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>2.7619118137764458</v>
+        <v>2.8813852312930881</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2">
         <f>STDEV(F$21:F$22)/SQRT(COUNT(F$21:F$22))</f>
-        <v>2.9471825350000316</v>
+        <v>2.9472292420093491</v>
       </c>
       <c r="N45" t="s">
         <v>6</v>
@@ -10492,50 +10495,50 @@
       </c>
       <c r="H48" s="2">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>0.43353649460380445</v>
+        <v>0.43030529517923882</v>
       </c>
       <c r="I48" s="2">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>0.20156645000965565</v>
+        <v>0.19506446675691699</v>
       </c>
       <c r="J48" s="2">
         <f>AVERAGE(G$7:G$12,G$17:G$19)</f>
-        <v>0.41732716529132158</v>
+        <v>0.41603336191621143</v>
       </c>
       <c r="K48" s="2">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>0.35189970922852021</v>
+        <v>0.34656142030851494</v>
       </c>
       <c r="L48" s="2">
         <f>G$20</f>
-        <v>0.6415844085418928</v>
+        <v>0.64179913127875132</v>
       </c>
       <c r="M48" s="2">
         <f>AVERAGE(G$21:G$22)</f>
-        <v>0.58195918539623892</v>
+        <v>0.58216172922031317</v>
       </c>
     </row>
     <row r="49" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H49" s="2">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>0.21324262923403078</v>
+        <v>0.21660481975386786</v>
       </c>
       <c r="I49" s="2">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.19156644914442786</v>
+        <v>0.19506444923262076</v>
       </c>
       <c r="J49" s="2">
         <f>STDEV(G$7:G$12,G$17:G$19)/SQRT(COUNT(G$7:G$12,G$17:G$19))</f>
-        <v>0.10040696493085849</v>
+        <v>0.10216020479600753</v>
       </c>
       <c r="K49" s="2">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.19806861257075276</v>
+        <v>0.20068232101892192</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2">
         <f>STDEV(G$21:G$22)/SQRT(COUNT(G$21:G$22))</f>
-        <v>3.8188512097454608E-2</v>
+        <v>3.8283269949590908E-2</v>
       </c>
     </row>
     <row r="51" spans="8:26" x14ac:dyDescent="0.3">
@@ -10564,50 +10567,50 @@
       </c>
       <c r="I52" s="2">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>3.6246970036167968E-2</v>
+        <v>3.6340015217690251E-2</v>
       </c>
       <c r="J52" s="2">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>0.16189969870376278</v>
+        <v>0.20403788869996353</v>
       </c>
       <c r="K52" s="2">
         <f>AVERAGE(H$7:H$12,H$17:H$19)</f>
-        <v>0.43640127551364732</v>
+        <v>1.6742312906554444</v>
       </c>
       <c r="L52" s="2">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>0.38451657484798085</v>
+        <v>0.7445921275636318</v>
       </c>
       <c r="M52" s="2">
         <f>H$20</f>
-        <v>0.1193377341396344</v>
+        <v>0.1195542193137312</v>
       </c>
       <c r="N52" s="2">
         <f>AVERAGE(H$21:H$22)</f>
-        <v>0.16368177364606348</v>
+        <v>0.16373508288464522</v>
       </c>
     </row>
     <row r="53" spans="8:26" x14ac:dyDescent="0.3">
       <c r="I53" s="2">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>1.6685414415053442E-2</v>
+        <v>1.6672231507992838E-2</v>
       </c>
       <c r="J53" s="2">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>7.0246508506399255E-2</v>
+        <v>4.6989865419873371E-2</v>
       </c>
       <c r="K53" s="2">
         <f>STDEV(H$7:H$12,H$17:H$19)/SQRT(COUNT(H$7:H$12,H$17:H$19))</f>
-        <v>0.20426373319833194</v>
+        <v>1.1308765015832429</v>
       </c>
       <c r="L53" s="2">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>0.37182026939511231</v>
+        <v>0.7333214675380374</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2">
         <f>STDEV(H$21:H$22)/SQRT(COUNT(H$21:H$22))</f>
-        <v>1.8783882971220828E-2</v>
+        <v>1.8938160200325939E-2</v>
       </c>
     </row>
     <row r="55" spans="8:26" x14ac:dyDescent="0.3">
@@ -10636,50 +10639,50 @@
       </c>
       <c r="J56" s="2">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>3.3334355855954832E-3</v>
+        <v>3.3334323368655015E-3</v>
       </c>
       <c r="K56" s="2">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>6.4055848449174891E-7</v>
+        <v>3.547600000994643E-4</v>
       </c>
       <c r="L56" s="2">
         <f>AVERAGE(I$7:I$12,I$17:I$19)</f>
-        <v>1.1134054816488237E-3</v>
+        <v>2.3075847901287152E-3</v>
       </c>
       <c r="M56" s="2">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>4.0005973533912467E-3</v>
+        <v>2.5302835043647456E-3</v>
       </c>
       <c r="N56" s="2">
         <f>I$20</f>
-        <v>1.1037986174641514E-13</v>
+        <v>1.001442476453742E-9</v>
       </c>
       <c r="O56" s="2">
         <f>AVERAGE(I$21:I$22)</f>
-        <v>1.5828857468527851E-8</v>
+        <v>3.9440761052938893E-7</v>
       </c>
     </row>
     <row r="57" spans="8:26" x14ac:dyDescent="0.3">
       <c r="J57" s="2">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>3.3332818762354358E-3</v>
+        <v>3.3332838326588514E-3</v>
       </c>
       <c r="K57" s="2">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>6.359937518328314E-7</v>
+        <v>3.5468109480131071E-4</v>
       </c>
       <c r="L57" s="2">
         <f>STDEV(I$7:I$12,I$17:I$19)/SQRT(COUNT(I$7:I$12,I$17:I$19))</f>
-        <v>1.1106277535143413E-3</v>
+        <v>1.1718468534149583E-3</v>
       </c>
       <c r="M57" s="2">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>2.4496523883173575E-3</v>
+        <v>2.4900647751280795E-3</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2">
         <f>STDEV(I$21:I$22)/SQRT(COUNT(I$21:I$22))</f>
-        <v>1.5828825264025698E-8</v>
+        <v>3.9440757832449011E-7</v>
       </c>
     </row>
     <row r="59" spans="8:26" x14ac:dyDescent="0.3">
@@ -10708,50 +10711,50 @@
       </c>
       <c r="K60" s="2">
         <f>AVERAGE(J$1:J$3)</f>
-        <v>3.3333333682461184E-3</v>
+        <v>3.2650559954686166E-3</v>
       </c>
       <c r="L60" s="2">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>6.7796565902066364E-3</v>
+        <v>6.7002828792823597E-3</v>
       </c>
       <c r="M60" s="2">
         <f>AVERAGE(J$7:J$12,J$17:J$19)</f>
-        <v>2.3262505659464253E-3</v>
+        <v>2.3435920833815606E-3</v>
       </c>
       <c r="N60" s="2">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>5.1706227291165733E-3</v>
+        <v>5.0000426325554747E-3</v>
       </c>
       <c r="O60" s="2">
         <f>J$20</f>
-        <v>9.999999999965821E-3</v>
+        <v>9.9992167257435018E-3</v>
       </c>
       <c r="P60" s="2">
         <f>AVERAGE(J$21:J$22)</f>
-        <v>5.0000239481776225E-3</v>
+        <v>5.0002088107608767E-3</v>
       </c>
     </row>
     <row r="61" spans="8:26" x14ac:dyDescent="0.3">
       <c r="K61" s="2">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
-        <v>3.3333333158652705E-3</v>
+        <v>3.2650525106723968E-3</v>
       </c>
       <c r="L61" s="2">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>3.2202676721742943E-3</v>
+        <v>3.299717120689041E-3</v>
       </c>
       <c r="M61" s="2">
         <f>STDEV(J$7:J$12,J$17:J$19)/SQRT(COUNT(J$7:J$12,J$17:J$19))</f>
-        <v>1.4533666761341109E-3</v>
+        <v>1.4092513298116012E-3</v>
       </c>
       <c r="N61" s="2">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>2.7917204406128662E-3</v>
+        <v>2.8867255386663773E-3</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2">
         <f>STDEV(J$21:J$22)/SQRT(COUNT(J$21:J$22))</f>
-        <v>4.999976051793989E-3</v>
+        <v>4.9997905818977978E-3</v>
       </c>
     </row>
     <row r="63" spans="8:26" x14ac:dyDescent="0.3">
@@ -10780,43 +10783,43 @@
       </c>
       <c r="L64" s="3">
         <f>AVERAGE(K$1:K$3)</f>
-        <v>0.99322700089948557</v>
+        <v>0.9932352089703107</v>
       </c>
       <c r="M64" s="3">
         <f>AVERAGE(K$4:K$6)</f>
-        <v>0.99454532689775788</v>
+        <v>0.99460154687993896</v>
       </c>
       <c r="N64" s="3">
         <f>AVERAGE(K$7:K$12,K$17:K$19)</f>
-        <v>0.9898008019292952</v>
+        <v>0.98980700276706002</v>
       </c>
       <c r="O64" s="3">
         <f>AVERAGE(K$13:K$16)</f>
-        <v>0.9970338449036652</v>
+        <v>0.99704870081823149</v>
       </c>
       <c r="P64" s="3">
         <f>K$20</f>
-        <v>0.99428979814573171</v>
+        <v>0.99428979846547727</v>
       </c>
       <c r="Q64" s="3">
         <f>AVERAGE(K$21:K$22)</f>
-        <v>0.9905330338149877</v>
+        <v>0.99053303382368307</v>
       </c>
       <c r="U64" t="str">
         <f>_xlfn.CONCAT(ROUND(L64,2), " ± ", L65)</f>
-        <v>0.99 ± 0.00164637120671673</v>
+        <v>0.99 ± 0.00165457610704591</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" ref="V64:Z64" si="12">_xlfn.CONCAT(ROUND(M64,2), " ± ", M65)</f>
-        <v>0.99 ± 0.000615819997122957</v>
+        <v>0.99 ± 0.000599318453359338</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="12"/>
-        <v>0.99 ± 0.00354814795347813</v>
+        <v>0.99 ± 0.00354946861181287</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" si="12"/>
-        <v>1 ± 0.00115540578287583</v>
+        <v>1 ± 0.00116236526635396</v>
       </c>
       <c r="Y64" t="str">
         <f t="shared" si="12"/>
@@ -10824,30 +10827,30 @@
       </c>
       <c r="Z64" t="str">
         <f t="shared" si="12"/>
-        <v>0.99 ± 0.0010950205889857</v>
+        <v>0.99 ± 0.00109502067217732</v>
       </c>
     </row>
     <row r="65" spans="12:30" x14ac:dyDescent="0.3">
       <c r="L65" s="2">
         <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
-        <v>1.6463712067167266E-3</v>
+        <v>1.6545761070459102E-3</v>
       </c>
       <c r="M65" s="2">
         <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
-        <v>6.1581999712295667E-4</v>
+        <v>5.9931845335933754E-4</v>
       </c>
       <c r="N65" s="2">
         <f>STDEV(K$7:K$12,K$17:K$19)/SQRT(COUNT(K$7:K$12,K$17:K$19))</f>
-        <v>3.5481479534781317E-3</v>
+        <v>3.5494686118128726E-3</v>
       </c>
       <c r="O65" s="2">
         <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
-        <v>1.1554057828758282E-3</v>
+        <v>1.1623652663539574E-3</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2">
         <f>STDEV(K$21:K$22)/SQRT(COUNT(K$21:K$22))</f>
-        <v>1.0950205889856957E-3</v>
+        <v>1.0950206721773159E-3</v>
       </c>
     </row>
     <row r="67" spans="12:30" x14ac:dyDescent="0.3">
@@ -10876,43 +10879,43 @@
       </c>
       <c r="M68" s="3">
         <f>AVERAGE(L$1:L$3)</f>
-        <v>0.98035505857186134</v>
+        <v>0.98300514614760737</v>
       </c>
       <c r="N68">
         <f>AVERAGE(L$4:L$6)</f>
-        <v>0.95692266034549123</v>
+        <v>0.96470484724003958</v>
       </c>
       <c r="O68">
         <f>AVERAGE(L$7:L$12,L$17:L$19)</f>
-        <v>0.96532042494535297</v>
+        <v>0.96747248940537267</v>
       </c>
       <c r="P68">
         <f>AVERAGE(L$13:L$16)</f>
-        <v>0.98390938458379829</v>
+        <v>0.98513044742139777</v>
       </c>
       <c r="Q68">
         <f>L$20</f>
-        <v>0.99141423378021776</v>
+        <v>0.99141974525984633</v>
       </c>
       <c r="R68">
         <f>AVERAGE(L$21:L$22)</f>
-        <v>0.95949034406468137</v>
+        <v>0.95949525542250658</v>
       </c>
       <c r="V68" t="str">
         <f>_xlfn.CONCAT(ROUND(M68,2), " ± ", M69)</f>
-        <v>0.98 ± 0.00372015121330757</v>
+        <v>0.98 ± 0.00111350970747063</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" ref="W68" si="13">_xlfn.CONCAT(ROUND(N68,2), " ± ", N69)</f>
-        <v>0.96 ± 0.0205895179129899</v>
+        <v>0.96 ± 0.0149257042646119</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" ref="X68" si="14">_xlfn.CONCAT(ROUND(O68,2), " ± ", O69)</f>
-        <v>0.97 ± 0.00969251593793485</v>
+        <v>0.97 ± 0.00900261594816281</v>
       </c>
       <c r="Y68" t="str">
         <f t="shared" ref="Y68" si="15">_xlfn.CONCAT(ROUND(P68,2), " ± ", P69)</f>
-        <v>0.98 ± 0.00725589468436159</v>
+        <v>0.99 ± 0.00698760793669287</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" ref="Z68" si="16">_xlfn.CONCAT(ROUND(Q68,2), " ± ", Q69)</f>
@@ -10920,30 +10923,30 @@
       </c>
       <c r="AA68" t="str">
         <f t="shared" ref="AA68" si="17">_xlfn.CONCAT(ROUND(R68,2), " ± ", R69)</f>
-        <v>0.96 ± 0.0210703515007441</v>
+        <v>0.96 ± 0.0210653961592776</v>
       </c>
     </row>
     <row r="69" spans="12:30" x14ac:dyDescent="0.3">
       <c r="M69" s="2">
         <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
-        <v>3.7201512133075666E-3</v>
+        <v>1.1135097074706298E-3</v>
       </c>
       <c r="N69" s="2">
         <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
-        <v>2.0589517912989949E-2</v>
+        <v>1.4925704264611933E-2</v>
       </c>
       <c r="O69" s="2">
         <f>STDEV(L$7:L$12,L$17:L$19)/SQRT(COUNT(L$7:L$12,L$17:L$19))</f>
-        <v>9.6925159379348536E-3</v>
+        <v>9.002615948162809E-3</v>
       </c>
       <c r="P69" s="2">
         <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
-        <v>7.2558946843615931E-3</v>
+        <v>6.9876079366928689E-3</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2">
         <f>STDEV(L$21:L$22)/SQRT(COUNT(L$21:L$22))</f>
-        <v>2.1070351500744097E-2</v>
+        <v>2.1065396159277605E-2</v>
       </c>
     </row>
     <row r="71" spans="12:30" x14ac:dyDescent="0.3">
@@ -10972,43 +10975,43 @@
       </c>
       <c r="N72">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.98524050658635043</v>
+        <v>0.98559997593529081</v>
       </c>
       <c r="O72">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.94930924481062962</v>
+        <v>0.9693800503323432</v>
       </c>
       <c r="P72">
         <f>AVERAGE(M$7:M$12,M$17:M$19)</f>
-        <v>0.98109250409833548</v>
+        <v>0.98251601658270615</v>
       </c>
       <c r="Q72">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.96830438562107024</v>
+        <v>0.97197594133035303</v>
       </c>
       <c r="R72">
         <f>M$20</f>
-        <v>0.99020680723225096</v>
+        <v>0.99018690753118732</v>
       </c>
       <c r="S72">
         <f>AVERAGE(M$21:M$22)</f>
-        <v>0.9868477882818607</v>
+        <v>0.98683977489400232</v>
       </c>
       <c r="W72" t="str">
         <f>_xlfn.CONCAT(ROUND(N72,2), " ± ", N73)</f>
-        <v>0.99 ± 0.00810326852893724</v>
+        <v>0.99 ± 0.00828496906221606</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" ref="X72" si="18">_xlfn.CONCAT(ROUND(O72,2), " ± ", O73)</f>
-        <v>0.95 ± 0.0330150004715431</v>
+        <v>0.97 ± 0.01643264077447</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" ref="Y72" si="19">_xlfn.CONCAT(ROUND(P72,2), " ± ", P73)</f>
-        <v>0.98 ± 0.00656307793422278</v>
+        <v>0.98 ± 0.00638525356772389</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" ref="Z72" si="20">_xlfn.CONCAT(ROUND(Q72,2), " ± ", Q73)</f>
-        <v>0.97 ± 0.0235934937139325</v>
+        <v>0.97 ± 0.0195751335904411</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" ref="AA72" si="21">_xlfn.CONCAT(ROUND(R72,2), " ± ", R73)</f>
@@ -11016,30 +11019,30 @@
       </c>
       <c r="AB72" t="str">
         <f t="shared" ref="AB72" si="22">_xlfn.CONCAT(ROUND(S72,2), " ± ", S73)</f>
-        <v>0.99 ± 0.00528633620096702</v>
+        <v>0.99 ± 0.0052782639471135</v>
       </c>
     </row>
     <row r="73" spans="12:30" x14ac:dyDescent="0.3">
       <c r="N73" s="2">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
-        <v>8.103268528937238E-3</v>
+        <v>8.2849690622160601E-3</v>
       </c>
       <c r="O73" s="2">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>3.3015000471543092E-2</v>
+        <v>1.6432640774470039E-2</v>
       </c>
       <c r="P73" s="2">
         <f>STDEV(M$7:M$12,M$17:M$19)/SQRT(COUNT(M$7:M$12,M$17:M$19))</f>
-        <v>6.5630779342227786E-3</v>
+        <v>6.3852535677238918E-3</v>
       </c>
       <c r="Q73" s="2">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>2.3593493713932483E-2</v>
+        <v>1.9575133590441086E-2</v>
       </c>
       <c r="R73" s="2"/>
       <c r="S73" s="2">
         <f>STDEV(M$21:M$22)/SQRT(COUNT(M$21:M$22))</f>
-        <v>5.2863362009670234E-3</v>
+        <v>5.278263947113504E-3</v>
       </c>
     </row>
     <row r="75" spans="12:30" x14ac:dyDescent="0.3">
@@ -11068,43 +11071,43 @@
       </c>
       <c r="O76">
         <f>AVERAGE(N$1:N$3)</f>
-        <v>8.0431370897491861E-2</v>
+        <v>8.0362041918497926E-2</v>
       </c>
       <c r="P76">
         <f>AVERAGE(N$4:N$6)</f>
-        <v>7.3250845849847965E-2</v>
+        <v>7.2878411067648224E-2</v>
       </c>
       <c r="Q76">
         <f>AVERAGE(N$7:N$12,N$17:N$19)</f>
-        <v>9.0602846795390823E-2</v>
+        <v>9.0554912863946804E-2</v>
       </c>
       <c r="R76">
         <f>AVERAGE(N$13:N$16)</f>
-        <v>5.1410145406883351E-2</v>
+        <v>5.1207290162989402E-2</v>
       </c>
       <c r="S76">
         <f>N$20</f>
-        <v>7.5187098864935978E-2</v>
+        <v>7.5187096759866429E-2</v>
       </c>
       <c r="T76">
         <f>AVERAGE(N$21:N$22)</f>
-        <v>9.6648036862118661E-2</v>
+        <v>9.6648036792624958E-2</v>
       </c>
       <c r="X76" t="str">
         <f>_xlfn.CONCAT(ROUND(O76,2), " ± ", O77)</f>
-        <v>0.08 ± 0.0108642460635641</v>
+        <v>0.08 ± 0.0109335570168626</v>
       </c>
       <c r="Y76" t="str">
         <f t="shared" ref="Y76" si="23">_xlfn.CONCAT(ROUND(P76,2), " ± ", P77)</f>
-        <v>0.07 ± 0.00414969598293257</v>
+        <v>0.07 ± 0.00407466496262481</v>
       </c>
       <c r="Z76" t="str">
         <f t="shared" ref="Z76" si="24">_xlfn.CONCAT(ROUND(Q76,2), " ± ", Q77)</f>
-        <v>0.09 ± 0.0153637474532182</v>
+        <v>0.09 ± 0.0153740961551191</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" ref="AA76" si="25">_xlfn.CONCAT(ROUND(R76,2), " ± ", R77)</f>
-        <v>0.05 ± 0.00989091324759746</v>
+        <v>0.05 ± 0.00999332484068297</v>
       </c>
       <c r="AB76" t="str">
         <f t="shared" ref="AB76" si="26">_xlfn.CONCAT(ROUND(S76,2), " ± ", S77)</f>
@@ -11112,30 +11115,30 @@
       </c>
       <c r="AC76" t="str">
         <f t="shared" ref="AC76" si="27">_xlfn.CONCAT(ROUND(T76,2), " ± ", T77)</f>
-        <v>0.1 ± 0.00560834145365213</v>
+        <v>0.1 ± 0.00560834188376547</v>
       </c>
     </row>
     <row r="77" spans="12:30" x14ac:dyDescent="0.3">
       <c r="O77" s="2">
         <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
-        <v>1.0864246063564101E-2</v>
+        <v>1.0933557016862603E-2</v>
       </c>
       <c r="P77" s="2">
         <f>STDEV(N$4:N$6)/SQRT(COUNT(N$4:N$6))</f>
-        <v>4.1496959829325731E-3</v>
+        <v>4.0746649626248136E-3</v>
       </c>
       <c r="Q77" s="2">
         <f>STDEV(N$7:N$12,N$17:N$19)/SQRT(COUNT(N$7:N$12,N$17:N$19))</f>
-        <v>1.5363747453218233E-2</v>
+        <v>1.5374096155119097E-2</v>
       </c>
       <c r="R77" s="2">
         <f>STDEV(N$13:N$16)/SQRT(COUNT(N$13:N$16))</f>
-        <v>9.8909132475974611E-3</v>
+        <v>9.9933248406829725E-3</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2">
         <f>STDEV(N$21:N$22)/SQRT(COUNT(N$21:N$22))</f>
-        <v>5.6083414536521317E-3</v>
+        <v>5.6083418837654725E-3</v>
       </c>
     </row>
     <row r="79" spans="12:30" x14ac:dyDescent="0.3">
@@ -11164,43 +11167,43 @@
       </c>
       <c r="P80">
         <f>AVERAGE(O$1:O$3)</f>
-        <v>0.13828552284694676</v>
+        <v>0.12957358367758393</v>
       </c>
       <c r="Q80">
         <f>AVERAGE(O$4:O$6)</f>
-        <v>0.19515070204516216</v>
+        <v>0.17825620245069648</v>
       </c>
       <c r="R80">
         <f>AVERAGE(O$7:O$12,O$17:O$19)</f>
-        <v>0.1683937412876029</v>
+        <v>0.16358160762849916</v>
       </c>
       <c r="S80">
         <f>AVERAGE(O$13:O$16)</f>
-        <v>0.11714394181691119</v>
+        <v>0.11256860779181954</v>
       </c>
       <c r="T80">
         <f>O$20</f>
-        <v>9.2194948655468095E-2</v>
+        <v>9.2165352452817859E-2</v>
       </c>
       <c r="U80">
         <f>AVERAGE(O$21:O$22)</f>
-        <v>0.19281766998017122</v>
+        <v>0.19280785775103676</v>
       </c>
       <c r="Y80" t="str">
         <f>_xlfn.CONCAT(ROUND(P80,2), " ± ", P81)</f>
-        <v>0.14 ± 0.0127594315077875</v>
+        <v>0.13 ± 0.00421851436034375</v>
       </c>
       <c r="Z80" t="str">
         <f t="shared" ref="Z80" si="28">_xlfn.CONCAT(ROUND(Q80,2), " ± ", Q81)</f>
-        <v>0.2 ± 0.0477638448475628</v>
+        <v>0.18 ± 0.0397927601468986</v>
       </c>
       <c r="AA80" t="str">
         <f t="shared" ref="AA80" si="29">_xlfn.CONCAT(ROUND(R80,2), " ± ", R81)</f>
-        <v>0.17 ± 0.0273321743631791</v>
+        <v>0.16 ± 0.0260848327064038</v>
       </c>
       <c r="AB80" t="str">
         <f t="shared" ref="AB80" si="30">_xlfn.CONCAT(ROUND(S80,2), " ± ", S81)</f>
-        <v>0.12 ± 0.0271232136593717</v>
+        <v>0.11 ± 0.0261353247070423</v>
       </c>
       <c r="AC80" t="str">
         <f t="shared" ref="AC80" si="31">_xlfn.CONCAT(ROUND(T80,2), " ± ", T81)</f>
@@ -11208,30 +11211,30 @@
       </c>
       <c r="AD80" t="str">
         <f t="shared" ref="AD80" si="32">_xlfn.CONCAT(ROUND(U80,2), " ± ", U81)</f>
-        <v>0.19 ± 0.0540916400138064</v>
+        <v>0.19 ± 0.0540816708430357</v>
       </c>
     </row>
     <row r="81" spans="16:31" x14ac:dyDescent="0.3">
       <c r="P81" s="2">
         <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
-        <v>1.2759431507787536E-2</v>
+        <v>4.2185143603437458E-3</v>
       </c>
       <c r="Q81" s="2">
         <f>STDEV(O$4:O$6)/SQRT(COUNT(O$4:O$6))</f>
-        <v>4.7763844847562791E-2</v>
+        <v>3.9792760146898629E-2</v>
       </c>
       <c r="R81" s="2">
         <f>STDEV(O$7:O$12,O$17:O$19)/SQRT(COUNT(O$7:O$12,O$17:O$19))</f>
-        <v>2.7332174363179099E-2</v>
+        <v>2.6084832706403823E-2</v>
       </c>
       <c r="S81" s="2">
         <f>STDEV(O$13:O$16)/SQRT(COUNT(O$13:O$16))</f>
-        <v>2.7123213659371675E-2</v>
+        <v>2.6135324707042343E-2</v>
       </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2">
         <f>STDEV(O$21:O$22)/SQRT(COUNT(O$21:O$22))</f>
-        <v>5.4091640013806411E-2</v>
+        <v>5.4081670843035695E-2</v>
       </c>
     </row>
     <row r="83" spans="16:31" x14ac:dyDescent="0.3">
@@ -11260,43 +11263,43 @@
       </c>
       <c r="Q84">
         <f>AVERAGE(P$1:P$3)</f>
-        <v>0.11247582549852364</v>
+        <v>0.11022569489394717</v>
       </c>
       <c r="R84">
         <f>AVERAGE(P$4:P$6)</f>
-        <v>0.20147259115505536</v>
+        <v>0.16197315664774298</v>
       </c>
       <c r="S84">
         <f>AVERAGE(P$7:P$12,P$17:P$19)</f>
-        <v>0.12398779279334299</v>
+        <v>0.11909202014710722</v>
       </c>
       <c r="T84">
         <f>AVERAGE(P$13:P$16)</f>
-        <v>0.14658378285428497</v>
+        <v>0.14164597265955758</v>
       </c>
       <c r="U84">
         <f>P$20</f>
-        <v>9.8464515639247116E-2</v>
+        <v>9.8564504483736548E-2</v>
       </c>
       <c r="V84">
         <f>AVERAGE(P$21:P$22)</f>
-        <v>0.1116765870086108</v>
+        <v>0.11172157128821517</v>
       </c>
       <c r="Z84" t="str">
         <f>_xlfn.CONCAT(ROUND(Q84,2), " ± ", Q85)</f>
-        <v>0.11 ± 0.0313136324780342</v>
+        <v>0.11 ± 0.0324524267906773</v>
       </c>
       <c r="AA84" t="str">
         <f t="shared" ref="AA84" si="33">_xlfn.CONCAT(ROUND(R84,2), " ± ", R85)</f>
-        <v>0.2 ± 0.0692554786668335</v>
+        <v>0.16 ± 0.0451577606649513</v>
       </c>
       <c r="AB84" t="str">
         <f t="shared" ref="AB84" si="34">_xlfn.CONCAT(ROUND(S84,2), " ± ", S85)</f>
-        <v>0.12 ± 0.020449730897104</v>
+        <v>0.12 ± 0.0197684030985273</v>
       </c>
       <c r="AC84" t="str">
         <f t="shared" ref="AC84" si="35">_xlfn.CONCAT(ROUND(T84,2), " ± ", T85)</f>
-        <v>0.15 ± 0.0574219842896091</v>
+        <v>0.14 ± 0.0505972216374194</v>
       </c>
       <c r="AD84" t="str">
         <f t="shared" ref="AD84" si="36">_xlfn.CONCAT(ROUND(U84,2), " ± ", U85)</f>
@@ -11304,30 +11307,30 @@
       </c>
       <c r="AE84" t="str">
         <f t="shared" ref="AE84" si="37">_xlfn.CONCAT(ROUND(V84,2), " ± ", V85)</f>
-        <v>0.11 ± 0.0234313788554168</v>
+        <v>0.11 ± 0.023386178906139</v>
       </c>
     </row>
     <row r="85" spans="16:31" x14ac:dyDescent="0.3">
       <c r="Q85" s="2">
         <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
-        <v>3.1313632478034169E-2</v>
+        <v>3.2452426790677315E-2</v>
       </c>
       <c r="R85" s="2">
         <f>STDEV(P$4:P$6)/SQRT(COUNT(P$4:P$6))</f>
-        <v>6.9255478666833542E-2</v>
+        <v>4.5157760664951335E-2</v>
       </c>
       <c r="S85" s="2">
         <f>STDEV(P$7:P$12,P$17:P$19)/SQRT(COUNT(P$7:P$12,P$17:P$19))</f>
-        <v>2.0449730897104043E-2</v>
+        <v>1.9768403098527287E-2</v>
       </c>
       <c r="T85" s="2">
         <f>STDEV(P$13:P$16)/SQRT(COUNT(P$13:P$16))</f>
-        <v>5.742198428960911E-2</v>
+        <v>5.0597221637419386E-2</v>
       </c>
       <c r="U85" s="2"/>
       <c r="V85" s="2">
         <f>STDEV(P$21:P$22)/SQRT(COUNT(P$21:P$22))</f>
-        <v>2.3431378855416816E-2</v>
+        <v>2.3386178906139012E-2</v>
       </c>
     </row>
     <row r="87" spans="16:31" x14ac:dyDescent="0.3">
@@ -11356,50 +11359,50 @@
       </c>
       <c r="R88" s="2">
         <f>AVERAGE(Q$1:Q$3)</f>
-        <v>2.0466729792031898E-2</v>
+        <v>2.0365681512952261E-2</v>
       </c>
       <c r="S88" s="2">
         <f>AVERAGE(Q$4:Q$6)</f>
-        <v>1.9981137139889443E-2</v>
+        <v>1.9902792231451975E-2</v>
       </c>
       <c r="T88" s="2">
         <f>AVERAGE(Q$7:Q$12,Q$17:Q$19)</f>
-        <v>2.0609153143468825E-2</v>
+        <v>2.0561912508965351E-2</v>
       </c>
       <c r="U88" s="2">
         <f>AVERAGE(Q$13:Q$16)</f>
-        <v>2.0413471945172304E-2</v>
+        <v>2.0431830067845134E-2</v>
       </c>
       <c r="V88" s="2">
         <f>Q$20</f>
-        <v>2.1002913688138121E-2</v>
+        <v>2.0784713283118691E-2</v>
       </c>
       <c r="W88" s="2">
         <f>AVERAGE(Q$21:Q$22)</f>
-        <v>2.0959588827013494E-2</v>
+        <v>2.0754795921728013E-2</v>
       </c>
     </row>
     <row r="89" spans="16:31" x14ac:dyDescent="0.3">
       <c r="R89" s="2">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
-        <v>4.3525616777254653E-4</v>
+        <v>3.8194997275177109E-4</v>
       </c>
       <c r="S89" s="2">
         <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
-        <v>3.7329400085799221E-4</v>
+        <v>2.9494907968756836E-4</v>
       </c>
       <c r="T89" s="2">
         <f>STDEV(Q$7:Q$12,Q$17:Q$19)/SQRT(COUNT(Q$7:Q$12,Q$17:Q$19))</f>
-        <v>2.2461196003430609E-4</v>
+        <v>2.310682053692697E-4</v>
       </c>
       <c r="U89" s="2">
         <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
-        <v>4.65717636453566E-4</v>
+        <v>4.7544596282562859E-4</v>
       </c>
       <c r="V89" s="2"/>
       <c r="W89" s="2">
         <f>STDEV(Q$21:Q$22)/SQRT(COUNT(Q$21:Q$22))</f>
-        <v>2.7271702085015885E-4</v>
+        <v>1.7933404971992757E-4</v>
       </c>
     </row>
     <row r="91" spans="16:31" x14ac:dyDescent="0.3">
@@ -11428,76 +11431,76 @@
       </c>
       <c r="S92" s="2">
         <f>AVERAGE(R$1:R$3)</f>
-        <v>2.6552626534998083E-2</v>
+        <v>2.6578997644427605E-2</v>
       </c>
       <c r="T92" s="2">
         <f>AVERAGE(R$4:R$6)</f>
-        <v>2.6687135625720629E-2</v>
+        <v>2.6835872828472173E-2</v>
       </c>
       <c r="U92" s="2">
         <f>AVERAGE(R$7:R$12,R$17:R$19)</f>
-        <v>2.6965655692125064E-2</v>
+        <v>2.6886662268571313E-2</v>
       </c>
       <c r="V92" s="2">
         <f>AVERAGE(R$13:R$16)</f>
-        <v>2.6898823140173243E-2</v>
+        <v>2.6657237171290454E-2</v>
       </c>
       <c r="W92" s="2">
         <f>R$20</f>
-        <v>2.6648638344491903E-2</v>
+        <v>2.6593421852223683E-2</v>
       </c>
       <c r="X92" s="2">
         <f>AVERAGE(R$21:R$22)</f>
-        <v>2.6726911492065207E-2</v>
+        <v>2.6777762541119757E-2</v>
       </c>
     </row>
     <row r="93" spans="16:31" x14ac:dyDescent="0.3">
       <c r="S93" s="2">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
-        <v>1.6280651198105862E-5</v>
+        <v>2.1625069528551808E-5</v>
       </c>
       <c r="T93" s="2">
         <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
-        <v>6.907339621446485E-5</v>
+        <v>4.8710360305349656E-5</v>
       </c>
       <c r="U93" s="2">
         <f>STDEV(R$7:R$12,R$17:R$19)/SQRT(COUNT(R$7:R$12,R$17:R$19))</f>
-        <v>2.0151812080671937E-4</v>
+        <v>1.614486351023254E-4</v>
       </c>
       <c r="V93" s="2">
         <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
-        <v>3.7078799198592361E-4</v>
+        <v>1.279616788292203E-4</v>
       </c>
       <c r="W93" s="2"/>
       <c r="X93" s="2">
         <f>STDEV(R$21:R$22)/SQRT(COUNT(R$21:R$22))</f>
-        <v>1.9250918472624515E-5</v>
+        <v>2.9679016567189798E-5</v>
       </c>
     </row>
     <row r="99" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S99" s="3">
         <f>1/S92</f>
-        <v>37.661057699204832</v>
+        <v>37.623691208297089</v>
       </c>
       <c r="T99" s="3">
         <f t="shared" ref="T99:X99" si="38">1/T92</f>
-        <v>37.471237603941887</v>
+        <v>37.263554138586677</v>
       </c>
       <c r="U99" s="3">
         <f t="shared" si="38"/>
-        <v>37.084208573205053</v>
+        <v>37.193162543233647</v>
       </c>
       <c r="V99" s="3">
         <f t="shared" si="38"/>
-        <v>37.176347633830325</v>
+        <v>37.513264918428561</v>
       </c>
       <c r="W99" s="3">
         <f t="shared" si="38"/>
-        <v>37.525369479401313</v>
+        <v>37.603284209037668</v>
       </c>
       <c r="X99" s="3">
         <f t="shared" si="38"/>
-        <v>37.415471679055919</v>
+        <v>37.344419589366609</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0415BB9-6EFA-4E05-8BA4-E58F6BBF8461}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCCF43D-C424-4C35-9F60-5CDEB0A862CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="1908" yWindow="1908" windowWidth="17280" windowHeight="9060" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="178">
   <si>
     <t>HK-2</t>
   </si>
@@ -792,24 +792,25 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$23:$E$23</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>HK-2</c:v>
+                  <c:v>0.10926067481322362</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>UMRC6</c:v>
+                  <c:v>2.6315789473707985E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>UOK262</c:v>
+                  <c:v>112797371.83809905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>UOK + DIDS</c:v>
+                  <c:v>22.239315151225469</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2622,30 +2623,31 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$23:$G$23</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>HK-2</c:v>
+                  <c:v>0.10926067481322362</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>UMRC6</c:v>
+                  <c:v>2.6315789473707985E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>UOK262</c:v>
+                  <c:v>112797371.83809905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>UOK + DIDS</c:v>
+                  <c:v>22.239315151225469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>siRNA_c</c:v>
+                  <c:v>61.38643673717295</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>siRNA</c:v>
+                  <c:v>8.5707067999132317E-8</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7583,7 +7585,7 @@
   <dimension ref="A1:AK99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection sqref="A1:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8918,46 +8920,62 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" t="str">
-        <f>_xlfn.IFS(ABS(A1-T$5)&lt;=0.01*T$5,"Lower",ABS(A1-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" ref="O23:W38" si="0">_xlfn.IFS(ABS(B1-U$5)&lt;=0.01*U$5,"Lower",ABS(B1-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" si="0"/>
-        <v>Lower</v>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R23" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
+      <c r="A23">
+        <v>1.5725023665830802E-3</v>
+      </c>
+      <c r="B23">
+        <v>0.10926067481322362</v>
+      </c>
+      <c r="C23">
+        <v>2.6315789473707985E-2</v>
+      </c>
+      <c r="D23">
+        <v>112797371.83809905</v>
+      </c>
+      <c r="E23">
+        <v>22.239315151225469</v>
+      </c>
+      <c r="F23">
+        <v>61.38643673717295</v>
+      </c>
+      <c r="G23">
+        <v>8.5707067999132317E-8</v>
+      </c>
+      <c r="H23">
+        <v>6.9272906861042843E-2</v>
+      </c>
+      <c r="I23">
+        <v>9.9999999999765936E-3</v>
+      </c>
+      <c r="J23">
+        <v>3.3600427266893084E-14</v>
+      </c>
+      <c r="K23">
+        <v>0.99469335285235061</v>
+      </c>
+      <c r="L23">
+        <v>0.9854591873615467</v>
+      </c>
+      <c r="M23">
+        <v>0.92016090585306898</v>
+      </c>
+      <c r="N23">
+        <v>7.2481588532350066E-2</v>
+      </c>
+      <c r="O23">
+        <v>0.11998085060570594</v>
+      </c>
+      <c r="P23">
+        <v>0.28114178487991015</v>
+      </c>
+      <c r="Q23">
+        <v>1.9607843302994483E-2</v>
+      </c>
+      <c r="R23">
+        <v>2.7804566014053952E-2</v>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O23:W38" si="0">_xlfn.IFS(ABS(F1-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F1-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T23" t="str">

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCCF43D-C424-4C35-9F60-5CDEB0A862CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9E68E6-E632-4174-B4AC-5FB1DF5B2903}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1908" yWindow="1908" windowWidth="17280" windowHeight="9060" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="194">
   <si>
     <t>HK-2</t>
   </si>
@@ -174,108 +174,36 @@
     <t>0.74 ± 0.73</t>
   </si>
   <si>
-    <t>2.04E-02</t>
-  </si>
-  <si>
     <t>2.32E-03</t>
   </si>
   <si>
-    <t>4.30E-01</t>
-  </si>
-  <si>
-    <t>7.38E-02</t>
-  </si>
-  <si>
     <t>3.27E-03</t>
   </si>
   <si>
-    <t>9.25E-02</t>
-  </si>
-  <si>
     <t>2.66E-02</t>
   </si>
   <si>
-    <t>3.63E-02</t>
-  </si>
-  <si>
     <t>3.33E-03</t>
   </si>
   <si>
-    <t>1.99E-02</t>
-  </si>
-  <si>
-    <t>6.51E-03</t>
-  </si>
-  <si>
     <t>1.95E-01</t>
   </si>
   <si>
-    <t>5.03E-02</t>
-  </si>
-  <si>
     <t>6.70E-03</t>
   </si>
   <si>
-    <t>3.54E-01</t>
-  </si>
-  <si>
-    <t>2.68E-02</t>
-  </si>
-  <si>
-    <t>2.04E-01</t>
-  </si>
-  <si>
     <t>3.55E-04</t>
   </si>
   <si>
-    <t>2.06E-02</t>
-  </si>
-  <si>
-    <t>2.75E-02</t>
-  </si>
-  <si>
-    <t>4.16E-01</t>
-  </si>
-  <si>
-    <t>6.31E-02</t>
-  </si>
-  <si>
     <t>2.34E-03</t>
   </si>
   <si>
-    <t>7.54E-01</t>
-  </si>
-  <si>
-    <t>2.69E-02</t>
-  </si>
-  <si>
-    <t>1.67E+00</t>
-  </si>
-  <si>
     <t>2.31E-03</t>
   </si>
   <si>
-    <t>5.03E-03</t>
-  </si>
-  <si>
-    <t>3.47E-01</t>
-  </si>
-  <si>
-    <t>8.04E-02</t>
-  </si>
-  <si>
     <t>5.00E-03</t>
   </si>
   <si>
-    <t>1.69E-01</t>
-  </si>
-  <si>
-    <t>2.67E-02</t>
-  </si>
-  <si>
-    <t>7.45E-01</t>
-  </si>
-  <si>
     <t>2.53E-03</t>
   </si>
   <si>
@@ -303,21 +231,6 @@
     <t>1.94E-07</t>
   </si>
   <si>
-    <t>2.08E-02</t>
-  </si>
-  <si>
-    <t>7.22E-03</t>
-  </si>
-  <si>
-    <t>5.82E-01</t>
-  </si>
-  <si>
-    <t>2.05E-01</t>
-  </si>
-  <si>
-    <t>1.64E-01</t>
-  </si>
-  <si>
     <t>3.94E-07</t>
   </si>
   <si>
@@ -568,6 +481,141 @@
   </si>
   <si>
     <t>1.64E-01 ± 1.89E-02</t>
+  </si>
+  <si>
+    <t>0.02 ± 3.82E-04</t>
+  </si>
+  <si>
+    <t>0.02 ± 2.95E-04</t>
+  </si>
+  <si>
+    <t>0.02 ± 2.31E-04</t>
+  </si>
+  <si>
+    <t>0.02 ± 4.75E-04</t>
+  </si>
+  <si>
+    <t>0.02 ± 1.79E-04</t>
+  </si>
+  <si>
+    <t>0.01 ± 1.19E-03</t>
+  </si>
+  <si>
+    <t>0.03 ± 1.02E-02</t>
+  </si>
+  <si>
+    <t>0.01 ± 4.29E-04</t>
+  </si>
+  <si>
+    <t>0.01 ± 4.76E-04</t>
+  </si>
+  <si>
+    <t>0.58 ± 3.83E-02</t>
+  </si>
+  <si>
+    <t>0.1 ± 6.99E-07</t>
+  </si>
+  <si>
+    <t>0.2 ± 0.02</t>
+  </si>
+  <si>
+    <t>0.03 ± 2.16E-05</t>
+  </si>
+  <si>
+    <t>0.03 ± 4.87E-05</t>
+  </si>
+  <si>
+    <t>0.03 ± 1.61E-04</t>
+  </si>
+  <si>
+    <t>0.03 ± 1.28E-04</t>
+  </si>
+  <si>
+    <t>0.03 ± 2.97E-05</t>
+  </si>
+  <si>
+    <t>0.16 ± 0.02</t>
+  </si>
+  <si>
+    <t>3.94E-07 ± 3.94E-07</t>
+  </si>
+  <si>
+    <t>6.32E+08</t>
+  </si>
+  <si>
+    <t>4.29E+08</t>
+  </si>
+  <si>
+    <t>6.57E+08</t>
+  </si>
+  <si>
+    <t>1.12E+09</t>
+  </si>
+  <si>
+    <t>1.44E+09</t>
+  </si>
+  <si>
+    <t>1.57E+09</t>
+  </si>
+  <si>
+    <t>3.05E+08</t>
+  </si>
+  <si>
+    <t>3.37E+08</t>
+  </si>
+  <si>
+    <t>2.18E+08</t>
+  </si>
+  <si>
+    <t>5.56E+08</t>
+  </si>
+  <si>
+    <t>4.98E+08</t>
+  </si>
+  <si>
+    <t>6.32E+08 ± 3.05E+08</t>
+  </si>
+  <si>
+    <t>4.29E+08 ± 3.37E+08</t>
+  </si>
+  <si>
+    <t>6.57E+08 ± 2.18E+08</t>
+  </si>
+  <si>
+    <t>1.12E+09 ± 5.56E+08</t>
+  </si>
+  <si>
+    <t>1.57E+09 ± 4.98E+08</t>
+  </si>
+  <si>
+    <t>20.57 ± 1.64</t>
+  </si>
+  <si>
+    <t>22.08 ± 5.43</t>
+  </si>
+  <si>
+    <t>27.05 ± 3.37</t>
+  </si>
+  <si>
+    <t>30.41 ± 5.04</t>
+  </si>
+  <si>
+    <t>15.39 ± 0.24</t>
+  </si>
+  <si>
+    <t>62.93 ± 3.09</t>
+  </si>
+  <si>
+    <t>61.05 ± 4.89</t>
+  </si>
+  <si>
+    <t>62.57 ± 3.82</t>
+  </si>
+  <si>
+    <t>61.88 ± 2.88</t>
+  </si>
+  <si>
+    <t>72.18 ± 2.95</t>
   </si>
 </sst>
 </file>
@@ -7584,24 +7632,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:R23"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="9.109375" customWidth="1"/>
+    <col min="12" max="20" width="9.140625" customWidth="1"/>
     <col min="21" max="22" width="14" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>2.0440913622746353E-3</v>
       </c>
@@ -7657,7 +7705,7 @@
         <v>2.6617079497839362E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2.3927976051121252E-3</v>
       </c>
@@ -7713,7 +7761,7 @@
         <v>2.6577712286619641E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2.5150917218084955E-3</v>
       </c>
@@ -7769,7 +7817,7 @@
         <v>2.6542201148823823E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5.3762528274266495E-3</v>
       </c>
@@ -7825,7 +7873,7 @@
         <v>2.6896859532853503E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5.2633828822758588E-3</v>
       </c>
@@ -7926,7 +7974,7 @@
         <v>2.652519893899204E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>8.9000001796523294E-3</v>
       </c>
@@ -8023,7 +8071,7 @@
         <v>2.8011204481792715E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>7.8104063053251026E-3</v>
       </c>
@@ -8079,7 +8127,7 @@
         <v>2.6547519541939579E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1.0293977888170207E-2</v>
       </c>
@@ -8135,7 +8183,7 @@
         <v>2.6714034551213846E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2.5521490650557456E-2</v>
       </c>
@@ -8191,7 +8239,7 @@
         <v>2.7391887592862471E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3.146457105211109E-3</v>
       </c>
@@ -8247,7 +8295,7 @@
         <v>2.6756523344968534E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8.6133116110997613E-3</v>
       </c>
@@ -8303,7 +8351,7 @@
         <v>2.6659677306561914E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7.9998621646789378E-2</v>
       </c>
@@ -8359,7 +8407,7 @@
         <v>2.798323054501933E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>5.3785052731830461E-3</v>
       </c>
@@ -8415,7 +8463,7 @@
         <v>2.6532400155956409E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3.7811522215408897E-3</v>
       </c>
@@ -8471,7 +8519,7 @@
         <v>2.652705700243119E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>5.733412868772542E-3</v>
       </c>
@@ -8527,7 +8575,7 @@
         <v>2.6528384440147008E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>5.2165143665999902E-3</v>
       </c>
@@ -8583,7 +8631,7 @@
         <v>2.7041107086627207E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>8.6066060331552955E-3</v>
       </c>
@@ -8639,7 +8687,7 @@
         <v>2.6583396901367802E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2.3825085307432405E-2</v>
       </c>
@@ -8695,7 +8743,7 @@
         <v>2.677546499569956E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>7.9999999999977797E-2</v>
       </c>
@@ -8751,7 +8799,7 @@
         <v>2.6568225637508797E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1.0760566128758033E-2</v>
       </c>
@@ -8807,7 +8855,7 @@
         <v>2.6593421852223683E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>7.6944322146647853E-3</v>
       </c>
@@ -8863,7 +8911,7 @@
         <v>2.6807441557686947E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>6.7424239870017616E-3</v>
       </c>
@@ -8919,7 +8967,7 @@
         <v>2.6748083524552567E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.5725023665830802E-3</v>
       </c>
@@ -9003,7 +9051,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -9080,7 +9128,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
         <v>1.4110540454517E-4</v>
@@ -9151,7 +9199,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N26" t="str">
         <f t="shared" si="2"/>
         <v>Ok</v>
@@ -9201,7 +9249,7 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -9269,7 +9317,7 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>7</v>
       </c>
@@ -9346,7 +9394,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
         <v>1.2057455739979463E-2</v>
@@ -9417,7 +9465,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N30" t="str">
         <f t="shared" si="2"/>
         <v>Ok</v>
@@ -9467,7 +9515,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>0</v>
       </c>
@@ -9535,7 +9583,7 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>24</v>
       </c>
@@ -9612,7 +9660,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="33" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
         <v>2.3803754511435734E-2</v>
@@ -9683,7 +9731,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="34" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:31" x14ac:dyDescent="0.25">
       <c r="N34" t="str">
         <f t="shared" si="2"/>
         <v>Upper</v>
@@ -9733,7 +9781,7 @@
         <v>Upper</v>
       </c>
     </row>
-    <row r="35" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>0</v>
       </c>
@@ -9801,7 +9849,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="36" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>9</v>
       </c>
@@ -9878,7 +9926,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="37" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
         <v>304779407.73467177</v>
@@ -9949,7 +9997,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="38" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:31" x14ac:dyDescent="0.25">
       <c r="N38" t="str">
         <f t="shared" si="2"/>
         <v>Ok</v>
@@ -9999,7 +10047,7 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="39" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:31" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>0</v>
       </c>
@@ -10067,7 +10115,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="40" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:31" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>10</v>
       </c>
@@ -10144,7 +10192,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="41" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:31" x14ac:dyDescent="0.25">
       <c r="F41" s="2">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
         <v>1.6353604324085522</v>
@@ -10215,7 +10263,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="42" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:31" x14ac:dyDescent="0.25">
       <c r="N42" t="str">
         <f t="shared" si="2"/>
         <v>Ok</v>
@@ -10265,7 +10313,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="43" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:31" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>0</v>
       </c>
@@ -10333,7 +10381,7 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="44" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:31" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>11</v>
       </c>
@@ -10410,7 +10458,7 @@
         <v>Lower</v>
       </c>
     </row>
-    <row r="45" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:31" x14ac:dyDescent="0.25">
       <c r="G45" s="2">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
         <v>3.0934409159415974</v>
@@ -10487,7 +10535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:31" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
         <v>0</v>
       </c>
@@ -10507,7 +10555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:31" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>12</v>
       </c>
@@ -10536,7 +10584,7 @@
         <v>0.58216172922031317</v>
       </c>
     </row>
-    <row r="49" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H49" s="2">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
         <v>0.21660481975386786</v>
@@ -10559,7 +10607,7 @@
         <v>3.8283269949590908E-2</v>
       </c>
     </row>
-    <row r="51" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
         <v>0</v>
       </c>
@@ -10579,7 +10627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>13</v>
       </c>
@@ -10608,7 +10656,7 @@
         <v>0.16373508288464522</v>
       </c>
     </row>
-    <row r="53" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I53" s="2">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
         <v>1.6672231507992838E-2</v>
@@ -10631,7 +10679,7 @@
         <v>1.8938160200325939E-2</v>
       </c>
     </row>
-    <row r="55" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:26" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
         <v>0</v>
       </c>
@@ -10651,7 +10699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
         <v>14</v>
       </c>
@@ -10680,7 +10728,7 @@
         <v>3.9440761052938893E-7</v>
       </c>
     </row>
-    <row r="57" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:26" x14ac:dyDescent="0.25">
       <c r="J57" s="2">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
         <v>3.3332838326588514E-3</v>
@@ -10703,7 +10751,7 @@
         <v>3.9440757832449011E-7</v>
       </c>
     </row>
-    <row r="59" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:26" x14ac:dyDescent="0.25">
       <c r="K59" t="s">
         <v>0</v>
       </c>
@@ -10723,7 +10771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:26" x14ac:dyDescent="0.25">
       <c r="J60" t="s">
         <v>15</v>
       </c>
@@ -10752,7 +10800,7 @@
         <v>5.0002088107608767E-3</v>
       </c>
     </row>
-    <row r="61" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:26" x14ac:dyDescent="0.25">
       <c r="K61" s="2">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
         <v>3.2650525106723968E-3</v>
@@ -10775,7 +10823,7 @@
         <v>4.9997905818977978E-3</v>
       </c>
     </row>
-    <row r="63" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
         <v>0</v>
       </c>
@@ -10795,7 +10843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:26" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
         <v>16</v>
       </c>
@@ -10848,7 +10896,7 @@
         <v>0.99 ± 0.00109502067217732</v>
       </c>
     </row>
-    <row r="65" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L65" s="2">
         <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
         <v>1.6545761070459102E-3</v>
@@ -10871,7 +10919,7 @@
         <v>1.0950206721773159E-3</v>
       </c>
     </row>
-    <row r="67" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="12:30" x14ac:dyDescent="0.25">
       <c r="M67" t="s">
         <v>0</v>
       </c>
@@ -10891,7 +10939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L68" t="s">
         <v>17</v>
       </c>
@@ -10944,7 +10992,7 @@
         <v>0.96 ± 0.0210653961592776</v>
       </c>
     </row>
-    <row r="69" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="12:30" x14ac:dyDescent="0.25">
       <c r="M69" s="2">
         <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
         <v>1.1135097074706298E-3</v>
@@ -10967,7 +11015,7 @@
         <v>2.1065396159277605E-2</v>
       </c>
     </row>
-    <row r="71" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="12:30" x14ac:dyDescent="0.25">
       <c r="N71" t="s">
         <v>0</v>
       </c>
@@ -10987,7 +11035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="12:30" x14ac:dyDescent="0.25">
       <c r="M72" t="s">
         <v>18</v>
       </c>
@@ -11040,7 +11088,7 @@
         <v>0.99 ± 0.0052782639471135</v>
       </c>
     </row>
-    <row r="73" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="12:30" x14ac:dyDescent="0.25">
       <c r="N73" s="2">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
         <v>8.2849690622160601E-3</v>
@@ -11063,7 +11111,7 @@
         <v>5.278263947113504E-3</v>
       </c>
     </row>
-    <row r="75" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O75" t="s">
         <v>0</v>
       </c>
@@ -11083,7 +11131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="12:30" x14ac:dyDescent="0.25">
       <c r="N76" t="s">
         <v>19</v>
       </c>
@@ -11136,7 +11184,7 @@
         <v>0.1 ± 0.00560834188376547</v>
       </c>
     </row>
-    <row r="77" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O77" s="2">
         <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
         <v>1.0933557016862603E-2</v>
@@ -11159,7 +11207,7 @@
         <v>5.6083418837654725E-3</v>
       </c>
     </row>
-    <row r="79" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="12:30" x14ac:dyDescent="0.25">
       <c r="P79" t="s">
         <v>0</v>
       </c>
@@ -11179,7 +11227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="12:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O80" t="s">
         <v>20</v>
       </c>
@@ -11232,7 +11280,7 @@
         <v>0.19 ± 0.0540816708430357</v>
       </c>
     </row>
-    <row r="81" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="16:31" x14ac:dyDescent="0.25">
       <c r="P81" s="2">
         <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
         <v>4.2185143603437458E-3</v>
@@ -11255,7 +11303,7 @@
         <v>5.4081670843035695E-2</v>
       </c>
     </row>
-    <row r="83" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Q83" t="s">
         <v>0</v>
       </c>
@@ -11275,7 +11323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="16:31" x14ac:dyDescent="0.25">
       <c r="P84" t="s">
         <v>21</v>
       </c>
@@ -11328,7 +11376,7 @@
         <v>0.11 ± 0.023386178906139</v>
       </c>
     </row>
-    <row r="85" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Q85" s="2">
         <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
         <v>3.2452426790677315E-2</v>
@@ -11351,7 +11399,7 @@
         <v>2.3386178906139012E-2</v>
       </c>
     </row>
-    <row r="87" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="16:31" x14ac:dyDescent="0.25">
       <c r="R87" t="s">
         <v>0</v>
       </c>
@@ -11371,7 +11419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Q88" t="s">
         <v>22</v>
       </c>
@@ -11400,7 +11448,7 @@
         <v>2.0754795921728013E-2</v>
       </c>
     </row>
-    <row r="89" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="16:31" x14ac:dyDescent="0.25">
       <c r="R89" s="2">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
         <v>3.8194997275177109E-4</v>
@@ -11423,7 +11471,7 @@
         <v>1.7933404971992757E-4</v>
       </c>
     </row>
-    <row r="91" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="16:31" x14ac:dyDescent="0.25">
       <c r="S91" t="s">
         <v>0</v>
       </c>
@@ -11443,7 +11491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="16:31" x14ac:dyDescent="0.25">
       <c r="R92" t="s">
         <v>23</v>
       </c>
@@ -11472,7 +11520,7 @@
         <v>2.6777762541119757E-2</v>
       </c>
     </row>
-    <row r="93" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="16:31" x14ac:dyDescent="0.25">
       <c r="S93" s="2">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
         <v>2.1625069528551808E-5</v>
@@ -11495,7 +11543,7 @@
         <v>2.9679016567189798E-5</v>
       </c>
     </row>
-    <row r="99" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S99" s="3">
         <f>1/S92</f>
         <v>37.623691208297089</v>
@@ -11583,9 +11631,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -11641,7 +11689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.1001291329547363E-3</v>
       </c>
@@ -11697,7 +11745,7 @@
         <v>2.6564180849319923E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6.6344325228484607E-3</v>
       </c>
@@ -11753,7 +11801,7 @@
         <v>2.6892349117898989E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.8632184488774763E-2</v>
       </c>
@@ -11809,7 +11857,7 @@
         <v>2.6960438882680453E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.217832001894262E-3</v>
       </c>
@@ -11865,7 +11913,7 @@
         <v>2.690102607904258E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.0759029324079272E-2</v>
       </c>
@@ -11921,7 +11969,7 @@
         <v>2.6672789715633204E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7.2171323769520141E-3</v>
       </c>
@@ -11977,7 +12025,7 @@
         <v>2.6699257390410285E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -12033,7 +12081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.2725967521505301E-4</v>
       </c>
@@ -12089,7 +12137,7 @@
         <v>2.5179500739234562E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.4738599434207719E-3</v>
       </c>
@@ -12145,7 +12193,7 @@
         <v>2.5671577619167341E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8.0834831872766671E-3</v>
       </c>
@@ -12201,7 +12249,7 @@
         <v>2.0299274734285723E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6.3360122857742784E-4</v>
       </c>
@@ -12257,7 +12305,7 @@
         <v>3.7006385887008617E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.7730132747802112E-4</v>
       </c>
@@ -12321,20 +12369,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619B633D-6CFB-483C-9FB4-8F6342530738}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AQ23" sqref="AQ23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -12376,7 +12429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12423,7 +12476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12470,7 +12523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12517,7 +12570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12564,7 +12617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -12611,7 +12664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -12658,7 +12711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -12686,6 +12739,15 @@
       <c r="J8" t="s">
         <v>14</v>
       </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
       <c r="T8" s="1" t="s">
         <v>23</v>
       </c>
@@ -12702,36 +12764,45 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9">
+        <v>2.0365681512952261E-2</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9">
+        <v>0.43030529517923882</v>
+      </c>
+      <c r="E9">
+        <v>7.384890314233869E-2</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9">
+        <v>9.2535545750464687E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.6578997644427605E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.6340015217690251E-2</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>54</v>
+      <c r="K9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L9">
+        <v>20.569031590712743</v>
+      </c>
+      <c r="M9">
+        <v>62.929200798475335</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>13</v>
@@ -12749,36 +12820,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>58</v>
+      <c r="B10">
+        <v>1.9902792231451975E-2</v>
+      </c>
+      <c r="C10">
+        <v>6.5132119631182801E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.19506446675691699</v>
+      </c>
+      <c r="E10">
+        <v>5.0263555960985945E-2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>0.3541415185008206</v>
+      </c>
+      <c r="H10">
+        <v>2.6835872828472173E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.20403788869996353</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10">
+        <v>22.076323769486507</v>
+      </c>
+      <c r="M10">
+        <v>61.049871234843614</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>14</v>
@@ -12796,132 +12876,168 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>67</v>
+      <c r="B11">
+        <v>2.0561912508965351E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.7535106283079838E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.41603336191621143</v>
+      </c>
+      <c r="E11">
+        <v>6.3109847044927683E-2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <v>0.75444268232926348</v>
+      </c>
+      <c r="H11">
+        <v>2.6886662268571313E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.6742312906554444</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11">
+        <v>27.049486754336399</v>
+      </c>
+      <c r="M11">
+        <v>62.565940988884485</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>75</v>
+      <c r="B12">
+        <v>2.0431830067845134E-2</v>
+      </c>
+      <c r="C12">
+        <v>5.0273961825241173E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.34656142030851494</v>
+      </c>
+      <c r="E12">
+        <v>8.0357873156810505E-2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <v>0.16916415025152015</v>
+      </c>
+      <c r="H12">
+        <v>2.6657237171290454E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.7445921275636318</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12">
+        <v>30.414474382495143</v>
+      </c>
+      <c r="M12">
+        <v>61.88435213689619</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>84</v>
+      <c r="B13">
+        <v>2.0724037579474039E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.0781372792696553E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.65534649688981772</v>
+      </c>
+      <c r="E13">
+        <v>9.9999997840221358E-2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
+      </c>
+      <c r="G13">
+        <v>0.10861417866800493</v>
+      </c>
+      <c r="H13">
+        <v>2.659566477285033E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.12058263481323089</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13">
+        <v>21.071901191010653</v>
+      </c>
+      <c r="M13">
+        <v>66.224947910183658</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>84</v>
+      <c r="B14">
+        <v>2.0754795921728013E-2</v>
+      </c>
+      <c r="C14">
+        <v>7.218428100833273E-3</v>
+      </c>
+      <c r="D14">
+        <v>0.58216172922031317</v>
+      </c>
+      <c r="E14">
+        <v>9.9999300808557345E-2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>93</v>
+        <v>55</v>
+      </c>
+      <c r="G14">
+        <v>0.2047343855353021</v>
+      </c>
+      <c r="H14">
+        <v>2.6777762541119757E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.16373508288464522</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14">
+        <v>15.38764891000403</v>
+      </c>
+      <c r="M14">
+        <v>72.176785082741588</v>
       </c>
       <c r="U14" t="s">
         <v>0</v>
@@ -12942,7 +13058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -12974,25 +13090,25 @@
         <v>22</v>
       </c>
       <c r="U15" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="V15" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="W15" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="Y15" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="Z15" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -13027,25 +13143,25 @@
         <v>6</v>
       </c>
       <c r="U16" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="V16" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="W16" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="Y16" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="Z16" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -13080,25 +13196,25 @@
         <v>12</v>
       </c>
       <c r="U17" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="V17" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="W17" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="Y17" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="Z17" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -13133,25 +13249,25 @@
         <v>24</v>
       </c>
       <c r="U18" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="V18" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="W18" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="X18" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="Y18" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="Z18" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -13186,25 +13302,25 @@
         <v>15</v>
       </c>
       <c r="U19" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="V19" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="W19" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="X19" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="Y19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="Z19" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -13212,25 +13328,25 @@
         <v>7</v>
       </c>
       <c r="U20" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="V20" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="W20" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="X20" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="Y20" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="Z20" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -13265,25 +13381,25 @@
         <v>23</v>
       </c>
       <c r="U21" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="V21" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="W21" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="X21" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="Y21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Z21" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -13311,172 +13427,217 @@
       <c r="J22" t="s">
         <v>14</v>
       </c>
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
+        <v>11</v>
+      </c>
       <c r="T22" t="s">
         <v>13</v>
       </c>
       <c r="U22" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="V22" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="W22" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="X22" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="Y22" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="Z22" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23">
+        <v>1.6353604324085522</v>
+      </c>
+      <c r="M23">
+        <v>3.0934409159415974</v>
       </c>
       <c r="T23" t="s">
         <v>14</v>
       </c>
       <c r="U23" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="V23" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="W23" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="X23" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24">
+        <v>5.4277614734308957</v>
+      </c>
+      <c r="M24">
+        <v>4.888968988250177</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>117</v>
+        <v>88</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25">
+        <v>3.3683323128668317</v>
+      </c>
+      <c r="M25">
+        <v>3.824336547084958</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>126</v>
+        <v>97</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L26">
+        <v>5.0446973617418731</v>
+      </c>
+      <c r="M26">
+        <v>2.8813852312930881</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -13489,40 +13650,50 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28">
+        <v>0.23556790877395525</v>
+      </c>
+      <c r="M28">
+        <v>2.9472292420093491</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -13550,251 +13721,628 @@
       <c r="J29" t="s">
         <v>14</v>
       </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f>IF(NOT(ISNUMBER(FIND("E",B9))),_xlfn.CONCAT(ROUND(B9,2), " ± ", ROUND(B23,2)),_xlfn.CONCAT(LEFT(B9,4),RIGHT(B9,4), " ± ",LEFT(B23,4),RIGHT(B23,4)))</f>
-        <v>2.04E-02 ± 3.82E-04</v>
+        <f>_xlfn.CONCAT(ROUND(B9,2)," ± ",B23)</f>
+        <v>0.02 ± 3.82E-04</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30:J30" si="0">IF(NOT(ISNUMBER(FIND("E",C9))),_xlfn.CONCAT(ROUND(C9,2), " ± ", ROUND(C23,2)),_xlfn.CONCAT(LEFT(C9,4),RIGHT(C9,4), " ± ",LEFT(C23,4),RIGHT(C23,4)))</f>
+        <f>_xlfn.CONCAT(C9," ± ",C23)</f>
         <v>2.32E-03 ± 1.41E-04</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>4.30E-01 ± 2.17E-01</v>
+        <f t="shared" ref="C30:J30" si="0">IF(NOT(ISNUMBER(FIND("E",D9))),_xlfn.CONCAT(ROUND(D9,2), " ± ", ROUND(D23,2)),_xlfn.CONCAT(LEFT(D9,4),RIGHT(D9,4), " ± ",LEFT(D23,4),RIGHT(D23,4)))</f>
+        <v>0.43 ± 0.22</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>7.38E-02 ± 2.38E-02</v>
+        <v>0.07 ± 0.02</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F30:F33" si="1">_xlfn.CONCAT(F9," ± ",F23)</f>
         <v>3.27E-03 ± 3.27E-03</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>9.25E-02 ± 1.21E-02</v>
+        <v>0.09 ± 0.01</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>2.66E-02 ± 2.16E-05</v>
+        <f>_xlfn.CONCAT(ROUND(H9,2)," ± ",H23)</f>
+        <v>0.03 ± 2.16E-05</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>3.63E-02 ± 1.67E-02</v>
+        <v>0.04 ± 0.02</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J30:K33" si="2">_xlfn.CONCAT(J9," ± ",J23)</f>
         <v>3.33E-03 ± 3.33E-03</v>
       </c>
+      <c r="K30" t="str">
+        <f>_xlfn.CONCAT(K9," ± ",K23)</f>
+        <v>6.32E+08 ± 3.05E+08</v>
+      </c>
+      <c r="L30" t="str">
+        <f>_xlfn.CONCAT(ROUND(L9,2), " ± ", ROUND(L23,2))</f>
+        <v>20.57 ± 1.64</v>
+      </c>
+      <c r="M30" t="str">
+        <f>_xlfn.CONCAT(ROUND(M9,2), " ± ", ROUND(M23,2))</f>
+        <v>62.93 ± 3.09</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" ref="B31:J35" si="1">IF(NOT(ISNUMBER(FIND("E",B10))),_xlfn.CONCAT(ROUND(B10,2), " ± ", ROUND(B24,2)),_xlfn.CONCAT(LEFT(B10,4),RIGHT(B10,4), " ± ",LEFT(B24,4),RIGHT(B24,4)))</f>
-        <v>1.99E-02 ± 2.95E-04</v>
+        <f t="shared" ref="B31:J33" si="3">_xlfn.CONCAT(ROUND(B10,2)," ± ",B24)</f>
+        <v>0.02 ± 2.95E-04</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>6.51E-03 ± 1.19E-03</v>
+        <f t="shared" ref="C31" si="4">_xlfn.CONCAT(ROUND(C10,2)," ± ",C24)</f>
+        <v>0.01 ± 1.19E-03</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v>1.95E-01 ± 1.95E-01</v>
+        <f t="shared" ref="B31:J35" si="5">IF(NOT(ISNUMBER(FIND("E",D10))),_xlfn.CONCAT(ROUND(D10,2), " ± ", ROUND(D24,2)),_xlfn.CONCAT(LEFT(D10,4),RIGHT(D10,4), " ± ",LEFT(D24,4),RIGHT(D24,4)))</f>
+        <v>0.2 ± 0.2</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>5.03E-02 ± 2.39E-02</v>
+        <f t="shared" si="5"/>
+        <v>0.05 ± 0.02</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
         <v>6.70E-03 ± 3.30E-03</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>3.54E-01 ± 5.73E-02</v>
+        <f t="shared" si="5"/>
+        <v>0.35 ± 0.06</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="1"/>
-        <v>2.68E-02 ± 4.87E-05</v>
+        <f t="shared" ref="H31:H35" si="6">_xlfn.CONCAT(ROUND(H10,2)," ± ",H24)</f>
+        <v>0.03 ± 4.87E-05</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v>2.04E-01 ± 4.70E-02</v>
+        <f t="shared" si="5"/>
+        <v>0.2 ± 0.05</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.55E-04 ± 3.55E-04</v>
       </c>
+      <c r="K31" t="str">
+        <f t="shared" si="2"/>
+        <v>4.29E+08 ± 3.37E+08</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" ref="L31:M35" si="7">_xlfn.CONCAT(ROUND(L10,2), " ± ", ROUND(L24,2))</f>
+        <v>22.08 ± 5.43</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="7"/>
+        <v>61.05 ± 4.89</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="1"/>
-        <v>2.06E-02 ± 2.31E-04</v>
+        <f t="shared" si="3"/>
+        <v>0.02 ± 2.31E-04</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>2.75E-02 ± 1.02E-02</v>
+        <f t="shared" ref="C32" si="8">_xlfn.CONCAT(ROUND(C11,2)," ± ",C25)</f>
+        <v>0.03 ± 1.02E-02</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>4.16E-01 ± 1.02E-01</v>
+        <f t="shared" si="5"/>
+        <v>0.42 ± 0.1</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v>6.31E-02 ± 1.05E-02</v>
+        <f t="shared" si="5"/>
+        <v>0.06 ± 0.01</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
         <v>2.34E-03 ± 1.41E-03</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>7.54E-01 ± 3.99E-01</v>
+        <f t="shared" si="5"/>
+        <v>0.75 ± 0.4</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
-        <v>2.69E-02 ± 1.61E-04</v>
+        <f t="shared" si="6"/>
+        <v>0.03 ± 1.61E-04</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="1"/>
-        <v>1.67E+00 ± 1.13E+00</v>
+        <f t="shared" si="5"/>
+        <v>1.67 ± 1.13</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.31E-03 ± 1.17E-03</v>
       </c>
+      <c r="K32" t="str">
+        <f t="shared" si="2"/>
+        <v>6.57E+08 ± 2.18E+08</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="7"/>
+        <v>27.05 ± 3.37</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="7"/>
+        <v>62.57 ± 3.82</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="1"/>
-        <v>2.04E-02 ± 4.75E-04</v>
+        <f t="shared" si="3"/>
+        <v>0.02 ± 4.75E-04</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>5.03E-03 ± 4.29E-04</v>
+        <f t="shared" ref="C33" si="9">_xlfn.CONCAT(ROUND(C12,2)," ± ",C26)</f>
+        <v>0.01 ± 4.29E-04</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>3.47E-01 ± 2.01E-01</v>
+        <f t="shared" si="5"/>
+        <v>0.35 ± 0.2</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>8.04E-02 ± 1.46E-02</v>
+        <f t="shared" si="5"/>
+        <v>0.08 ± 0.01</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
         <v>5.00E-03 ± 2.89E-03</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>1.69E-01 ± 1.37E-01</v>
+        <f t="shared" si="5"/>
+        <v>0.17 ± 0.14</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
-        <v>2.67E-02 ± 1.28E-04</v>
+        <f t="shared" si="6"/>
+        <v>0.03 ± 1.28E-04</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="1"/>
-        <v>7.45E-01 ± 7.33E-01</v>
+        <f t="shared" si="5"/>
+        <v>0.74 ± 0.73</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.53E-03 ± 2.49E-03</v>
       </c>
+      <c r="K33" t="str">
+        <f t="shared" si="2"/>
+        <v>1.12E+09 ± 5.56E+08</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="7"/>
+        <v>30.41 ± 5.04</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="7"/>
+        <v>61.88 ± 2.88</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="4" t="str">
-        <f>B13</f>
-        <v>2.07E-02</v>
-      </c>
-      <c r="C34" s="4" t="str">
-        <f t="shared" ref="C34:J34" si="2">C13</f>
-        <v>1.08E-02</v>
-      </c>
-      <c r="D34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>6.55E-01</v>
-      </c>
-      <c r="E34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1.00E-01</v>
-      </c>
-      <c r="F34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1.00E-02</v>
-      </c>
-      <c r="G34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1.09E-01</v>
-      </c>
-      <c r="H34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>2.66E-02</v>
-      </c>
-      <c r="I34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>1.21E-01</v>
+      <c r="B34" s="3">
+        <f>ROUND(B13,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" ref="C34:J34" si="10">ROUND(C13,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="10"/>
+        <v>0.66</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="10"/>
+        <v>0.11</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="10"/>
+        <v>0.12</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>J13</f>
         <v>1.94E-07</v>
       </c>
+      <c r="K34" s="4" t="str">
+        <f>K13</f>
+        <v>1.44E+09</v>
+      </c>
+      <c r="L34">
+        <f>ROUND(L13,2)</f>
+        <v>21.07</v>
+      </c>
+      <c r="M34">
+        <f>ROUND(M13,2)</f>
+        <v>66.22</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
-        <v>2.08E-02 ± 1.79E-04</v>
+        <f t="shared" ref="B35:D35" si="11">_xlfn.CONCAT(ROUND(B14,2)," ± ",B28)</f>
+        <v>0.02 ± 1.79E-04</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v>7.22E-03 ± 4.76E-04</v>
+        <f t="shared" si="11"/>
+        <v>0.01 ± 4.76E-04</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>5.82E-01 ± 3.83E-02</v>
+        <f t="shared" si="11"/>
+        <v>0.58 ± 3.83E-02</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
-        <v>1.00E-01 ± 6.99E-07</v>
+        <f>_xlfn.CONCAT(ROUND(E14,2)," ± ",E28)</f>
+        <v>0.1 ± 6.99E-07</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.00E-03 ± 5.00E-03</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>2.05E-01 ± 1.83E-02</v>
+        <f t="shared" si="5"/>
+        <v>0.2 ± 0.02</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="1"/>
-        <v>2.68E-02 ± 2.97E-05</v>
+        <f t="shared" si="6"/>
+        <v>0.03 ± 2.97E-05</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="1"/>
-        <v>1.64E-01 ± 1.89E-02</v>
+        <f t="shared" si="5"/>
+        <v>0.16 ± 0.02</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.94E-07 ± 3.94E-07</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" ref="K34:K35" si="12">_xlfn.CONCAT(K14," ± ",K28)</f>
+        <v>1.57E+09 ± 4.98E+08</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="7"/>
+        <v>15.39 ± 0.24</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="7"/>
+        <v>72.18 ± 2.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" t="s">
+        <v>151</v>
+      </c>
+      <c r="J42" t="s">
+        <v>152</v>
+      </c>
+      <c r="K42">
+        <v>0.02</v>
+      </c>
+      <c r="L42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" t="s">
+        <v>154</v>
+      </c>
+      <c r="I43" t="s">
+        <v>155</v>
+      </c>
+      <c r="J43" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43">
+        <v>0.01</v>
+      </c>
+      <c r="L43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44">
+        <v>0.66</v>
+      </c>
+      <c r="L44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45">
+        <v>0.1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" t="s">
+        <v>127</v>
+      </c>
+      <c r="J46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K46">
+        <v>0.01</v>
+      </c>
+      <c r="L46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K47">
+        <v>0.11</v>
+      </c>
+      <c r="L47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" t="s">
+        <v>162</v>
+      </c>
+      <c r="I48" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" t="s">
+        <v>164</v>
+      </c>
+      <c r="K48">
+        <v>0.03</v>
+      </c>
+      <c r="L48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49">
+        <v>0.12</v>
+      </c>
+      <c r="L49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" t="s">
+        <v>140</v>
+      </c>
+      <c r="K50" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" t="s">
+        <v>180</v>
+      </c>
+      <c r="I51" t="s">
+        <v>181</v>
+      </c>
+      <c r="J51" t="s">
+        <v>182</v>
+      </c>
+      <c r="K51" t="s">
+        <v>172</v>
+      </c>
+      <c r="L51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>184</v>
+      </c>
+      <c r="H52" t="s">
+        <v>185</v>
+      </c>
+      <c r="I52" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52" t="s">
+        <v>187</v>
+      </c>
+      <c r="K52">
+        <v>21.07</v>
+      </c>
+      <c r="L52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53" t="s">
+        <v>191</v>
+      </c>
+      <c r="J53" t="s">
+        <v>192</v>
+      </c>
+      <c r="K53">
+        <v>66.22</v>
+      </c>
+      <c r="L53" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -13810,7 +14358,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9E68E6-E632-4174-B4AC-5FB1DF5B2903}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9073EC3-A2A9-4E5C-A666-78D505025073}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7632,8 +7632,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK99"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:L45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12371,7 +12371,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
@@ -13744,7 +13744,7 @@
         <v>2.32E-03 ± 1.41E-04</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" ref="C30:J30" si="0">IF(NOT(ISNUMBER(FIND("E",D9))),_xlfn.CONCAT(ROUND(D9,2), " ± ", ROUND(D23,2)),_xlfn.CONCAT(LEFT(D9,4),RIGHT(D9,4), " ± ",LEFT(D23,4),RIGHT(D23,4)))</f>
+        <f t="shared" ref="D30:I30" si="0">IF(NOT(ISNUMBER(FIND("E",D9))),_xlfn.CONCAT(ROUND(D9,2), " ± ", ROUND(D23,2)),_xlfn.CONCAT(LEFT(D9,4),RIGHT(D9,4), " ± ",LEFT(D23,4),RIGHT(D23,4)))</f>
         <v>0.43 ± 0.22</v>
       </c>
       <c r="E30" t="str">
@@ -13789,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" ref="B31:J33" si="3">_xlfn.CONCAT(ROUND(B10,2)," ± ",B24)</f>
+        <f t="shared" ref="B31:B33" si="3">_xlfn.CONCAT(ROUND(B10,2)," ± ",B24)</f>
         <v>0.02 ± 2.95E-04</v>
       </c>
       <c r="C31" t="str">
@@ -13797,7 +13797,7 @@
         <v>0.01 ± 1.19E-03</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ref="B31:J35" si="5">IF(NOT(ISNUMBER(FIND("E",D10))),_xlfn.CONCAT(ROUND(D10,2), " ± ", ROUND(D24,2)),_xlfn.CONCAT(LEFT(D10,4),RIGHT(D10,4), " ± ",LEFT(D24,4),RIGHT(D24,4)))</f>
+        <f t="shared" ref="D31:J35" si="5">IF(NOT(ISNUMBER(FIND("E",D10))),_xlfn.CONCAT(ROUND(D10,2), " ± ", ROUND(D24,2)),_xlfn.CONCAT(LEFT(D10,4),RIGHT(D10,4), " ± ",LEFT(D24,4),RIGHT(D24,4)))</f>
         <v>0.2 ± 0.2</v>
       </c>
       <c r="E31" t="str">
@@ -13952,7 +13952,7 @@
         <v>0.02</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:J34" si="10">ROUND(C13,2)</f>
+        <f t="shared" ref="C34:I34" si="10">ROUND(C13,2)</f>
         <v>0.01</v>
       </c>
       <c r="D34" s="3">
@@ -14037,7 +14037,7 @@
         <v>3.94E-07 ± 3.94E-07</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" ref="K34:K35" si="12">_xlfn.CONCAT(K14," ± ",K28)</f>
+        <f t="shared" ref="K35" si="12">_xlfn.CONCAT(K14," ± ",K28)</f>
         <v>1.57E+09 ± 4.98E+08</v>
       </c>
       <c r="L35" t="str">

--- a/Lacex_summary_hptoolbox_moredata.xlsx
+++ b/Lacex_summary_hptoolbox_moredata.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9073EC3-A2A9-4E5C-A666-78D505025073}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09C545C-F811-449E-95C8-DEED75D2B0B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A183822-7954-4BE4-BDAB-B5FAE4C8B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Old Tableized Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="kmct4 anova results" sheetId="9" r:id="rId2"/>
+    <sheet name="kmct4 dids ttest" sheetId="10" r:id="rId3"/>
+    <sheet name="kmct4 anova data" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="Old Tableized Data" sheetId="3" r:id="rId6"/>
+    <sheet name="kpl anova results" sheetId="7" r:id="rId7"/>
+    <sheet name="kpl dids ttest" sheetId="11" r:id="rId8"/>
+    <sheet name="kpl anova data" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="222">
   <si>
     <t>HK-2</t>
   </si>
@@ -616,14 +621,106 @@
   </si>
   <si>
     <t>72.18 ± 2.95</t>
+  </si>
+  <si>
+    <t>UOK+DIDS</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -639,7 +736,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -662,16 +759,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,362 +883,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kPL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$B$25:$E$25</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>1.4110540454517E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.1938388220454957E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.0219978638120604E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.2920729768569356E-4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$B$25:$E$25</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>1.4110540454517E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.1938388220454957E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.0219978638120604E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.2920729768569356E-4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$23:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.10926067481322362</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6315789473707985E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>112797371.83809905</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.239315151225469</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$24:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.3173268963984188E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5132119631182801E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7535106283079838E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0273961825241173E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6ED8-45B5-AE65-A211A979E3BB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="351104152"/>
-        <c:axId val="351102840"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="351104152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="351102840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="351102840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="351104152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$28</c:f>
+              <c:f>Sheet1!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1140,7 +908,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$C$29:$F$29</c:f>
+                <c:f>Sheet1!$C$30:$F$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -1161,7 +929,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$C$29:$F$29</c:f>
+                <c:f>Sheet1!$C$30:$F$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -1196,7 +964,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$27:$F$27</c:f>
+              <c:f>Sheet1!$C$28:$F$28</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1216,7 +984,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$F$28</c:f>
+              <c:f>Sheet1!$C$29:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1413,7 +1181,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1469,7 +1237,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$32</c:f>
+              <c:f>Sheet1!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1494,7 +1262,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$33:$I$33</c:f>
+                <c:f>Sheet1!$D$34:$I$34</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1518,7 +1286,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$D$33:$I$33</c:f>
+                <c:f>Sheet1!$D$34:$I$34</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1556,7 +1324,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$31:$I$31</c:f>
+              <c:f>Sheet1!$D$32:$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1582,7 +1350,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$32:$I$32</c:f>
+              <c:f>Sheet1!$D$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1785,7 +1553,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1841,7 +1609,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$88</c:f>
+              <c:f>Sheet1!$Q$89</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1866,7 +1634,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$R$89:$W$89</c:f>
+                <c:f>Sheet1!$R$90:$W$90</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1890,7 +1658,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$R$89:$W$89</c:f>
+                <c:f>Sheet1!$R$90:$W$90</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1928,7 +1696,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$87:$W$87</c:f>
+              <c:f>Sheet1!$R$88:$W$88</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1954,7 +1722,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$88:$W$88</c:f>
+              <c:f>Sheet1!$R$89:$W$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2157,7 +1925,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2213,7 +1981,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$92</c:f>
+              <c:f>Sheet1!$R$93</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2238,7 +2006,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$S$93:$X$93</c:f>
+                <c:f>Sheet1!$S$94:$X$94</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -2262,7 +2030,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$S$93:$X$93</c:f>
+                <c:f>Sheet1!$S$94:$X$94</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -2300,7 +2068,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$S$91:$X$91</c:f>
+              <c:f>Sheet1!$S$92:$X$92</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2326,7 +2094,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$92:$X$92</c:f>
+              <c:f>Sheet1!$S$93:$X$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2529,7 +2297,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2585,7 +2353,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$24</c:f>
+              <c:f>Sheet1!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2610,7 +2378,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$25:$G$25</c:f>
+                <c:f>Sheet1!$B$26:$G$26</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -2634,7 +2402,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$25:$G$25</c:f>
+                <c:f>Sheet1!$B$26:$G$26</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -2699,7 +2467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$G$24</c:f>
+              <c:f>Sheet1!$B$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2902,7 +2670,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2958,7 +2726,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$28</c:f>
+              <c:f>Sheet1!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2983,7 +2751,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$C$29:$H$29</c:f>
+                <c:f>Sheet1!$C$30:$H$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -3007,7 +2775,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$C$29:$H$29</c:f>
+                <c:f>Sheet1!$C$30:$H$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -3045,7 +2813,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$27:$H$27</c:f>
+              <c:f>Sheet1!$C$28:$H$28</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3071,7 +2839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$H$28</c:f>
+              <c:f>Sheet1!$C$29:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3514,46 +3282,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6572,530 +6300,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552994</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>248194</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89B8D49-F3D8-418C-92D8-2239E8728EA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539A2C9C-56E6-4AFF-AD08-CA9D41EB9B10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7115,23 +6340,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552994</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>248194</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539A2C9C-56E6-4AFF-AD08-CA9D41EB9B10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC1E7B5-23F1-4952-A150-86FEC589077E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7151,23 +6376,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>182336</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>87085</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>62593</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC1E7B5-23F1-4952-A150-86FEC589077E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093833D7-7F30-4276-82B9-6AEA1E0C27D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7187,23 +6412,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>196215</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093833D7-7F30-4276-82B9-6AEA1E0C27D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5806F0D-6C73-4B21-B4BB-3E7EBDA0E34F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7223,23 +6448,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>815340</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>700815</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>196215</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209998</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5806F0D-6C73-4B21-B4BB-3E7EBDA0E34F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A586C5-5883-407E-A504-09925476B2EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7259,52 +6484,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>118110</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>516128</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A586C5-5883-407E-A504-09925476B2EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>482510</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>502376</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>40277</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>827347</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17865</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7323,7 +6512,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7630,10 +6819,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C412B43B-2314-4052-A08E-119606CE711A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK99"/>
+  <dimension ref="A1:AK100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:R23"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8047,8 +7236,7 @@
         <v>60</v>
       </c>
       <c r="Y6">
-        <f>10^100</f>
-        <v>1E+100</v>
+        <v>150</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -8063,8 +7251,8 @@
         <v>0.01</v>
       </c>
       <c r="AJ6">
-        <f>1/48</f>
-        <v>2.0833333333333332E-2</v>
+        <f>1/47</f>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="AK6">
         <f>1/35.7</f>
@@ -9007,121 +8195,66 @@
       <c r="M23">
         <v>0.92016090585306898</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="5">
         <v>7.2481588532350066E-2</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="5">
         <v>0.11998085060570594</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="5">
         <v>0.28114178487991015</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="5">
         <v>1.9607843302994483E-2</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="5">
         <v>2.7804566014053952E-2</v>
       </c>
-      <c r="S23" t="str">
-        <f t="shared" ref="O23:W38" si="0">_xlfn.IFS(ABS(F1-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F1-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
-      </c>
-      <c r="T23" t="str">
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N24" t="str">
+        <f>_xlfn.IFS(ABS(A1-T$5)&lt;=0.01*T$5,"Lower",ABS(A1-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" ref="O24:W24" si="0">_xlfn.IFS(ABS(B1-U$5)&lt;=0.01*U$5,"Lower",ABS(B1-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U23" t="str">
+        <v>Lower</v>
+      </c>
+      <c r="Q24" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
-      <c r="V23" t="str">
+      <c r="R24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V24" t="str">
         <f t="shared" si="0"/>
         <v>Upper</v>
       </c>
-      <c r="W23" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD23" t="str">
-        <f t="shared" ref="AD23:AE44" si="1">_xlfn.IFS(ABS(Q1-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q1-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
-        <v>Upper</v>
-      </c>
-      <c r="AE23" t="str">
-        <f t="shared" si="1"/>
-        <v>Lower</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2">
-        <f>AVERAGE(A$1:A$3)</f>
-        <v>2.3173268963984188E-3</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(A$4:A$6)</f>
-        <v>6.5132119631182801E-3</v>
-      </c>
-      <c r="D24" s="2">
-        <f>AVERAGE(A$7:A$12,A$17:A$19)</f>
-        <v>2.7535106283079838E-2</v>
-      </c>
-      <c r="E24" s="2">
-        <f>AVERAGE(A$13:A$16)</f>
-        <v>5.0273961825241173E-3</v>
-      </c>
-      <c r="F24" s="2">
-        <f>A$20</f>
-        <v>1.0760566128758033E-2</v>
-      </c>
-      <c r="G24" s="2">
-        <f>AVERAGE(A$21:A$22)</f>
-        <v>7.218428100833273E-3</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" ref="N24:N44" si="2">_xlfn.IFS(ABS(A2-T$5)&lt;=0.01*T$5,"Lower",ABS(A2-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
       <c r="W24" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="AD24" t="str">
-        <f t="shared" si="1"/>
-        <v>Lower</v>
+        <f t="shared" ref="AD24:AE24" si="1">_xlfn.IFS(ABS(Q1-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q1-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
       </c>
       <c r="AE24" t="str">
         <f t="shared" si="1"/>
@@ -9129,2458 +8262,2578 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
       <c r="B25" s="2">
+        <f>AVERAGE(A$1:A$3)</f>
+        <v>2.3173268963984188E-3</v>
+      </c>
+      <c r="C25" s="2">
+        <f>AVERAGE(A$4:A$6)</f>
+        <v>6.5132119631182801E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <f>AVERAGE(A$7:A$12,A$17:A$19)</f>
+        <v>2.7535106283079838E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f>AVERAGE(A$13:A$16)</f>
+        <v>5.0273961825241173E-3</v>
+      </c>
+      <c r="F25" s="2">
+        <f>A$20</f>
+        <v>1.0760566128758033E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <f>AVERAGE(A$21:A$22)</f>
+        <v>7.218428100833273E-3</v>
+      </c>
+      <c r="N25" t="str">
+        <f>_xlfn.IFS(ABS(A2-T$5)&lt;=0.01*T$5,"Lower",ABS(A2-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O25" t="str">
+        <f>_xlfn.IFS(ABS(B2-U$5)&lt;=0.01*U$5,"Lower",ABS(B2-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P25" t="str">
+        <f>_xlfn.IFS(ABS(C2-V$5)&lt;=0.01*V$5,"Lower",ABS(C2-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>_xlfn.IFS(ABS(D2-W$5)&lt;=0.01*W$5,"Lower",ABS(D2-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R25" t="str">
+        <f>_xlfn.IFS(ABS(E2-X$5)&lt;=0.01*X$5,"Lower",ABS(E2-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S25" t="str">
+        <f>_xlfn.IFS(ABS(F2-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F2-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T25" t="str">
+        <f>_xlfn.IFS(ABS(G2-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G2-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U25" t="str">
+        <f>_xlfn.IFS(ABS(H2-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H2-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V25" t="str">
+        <f>_xlfn.IFS(ABS(I2-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I2-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W25" t="str">
+        <f>_xlfn.IFS(ABS(J2-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J2-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD25" t="str">
+        <f>_xlfn.IFS(ABS(Q2-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q2-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Lower</v>
+      </c>
+      <c r="AE25" t="str">
+        <f>_xlfn.IFS(ABS(R2-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R2-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
+        <v>Lower</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
         <v>1.4110540454517E-4</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
         <v>1.1938388220454957E-3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <f>STDEV(A$7:A$12,A$17:A$19)/SQRT(COUNT(A$7:A$12,A$17:A$19))</f>
         <v>1.0219978638120604E-2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
         <v>4.2920729768569356E-4</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
         <f>STDEV(A$21:A$22)/SQRT(COUNT(A$21:A$22))</f>
         <v>4.7600411383151179E-4</v>
       </c>
-      <c r="N25" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" si="0"/>
+      <c r="N26" t="str">
+        <f>_xlfn.IFS(ABS(A3-T$5)&lt;=0.01*T$5,"Lower",ABS(A3-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O26" t="str">
+        <f>_xlfn.IFS(ABS(B3-U$5)&lt;=0.01*U$5,"Lower",ABS(B3-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P26" t="str">
+        <f>_xlfn.IFS(ABS(C3-V$5)&lt;=0.01*V$5,"Lower",ABS(C3-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD25" t="str">
-        <f t="shared" si="1"/>
+      <c r="Q26" t="str">
+        <f>_xlfn.IFS(ABS(D3-W$5)&lt;=0.01*W$5,"Lower",ABS(D3-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R26" t="str">
+        <f>_xlfn.IFS(ABS(E3-X$5)&lt;=0.01*X$5,"Lower",ABS(E3-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S26" t="str">
+        <f>_xlfn.IFS(ABS(F3-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F3-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T26" t="str">
+        <f>_xlfn.IFS(ABS(G3-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G3-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U26" t="str">
+        <f>_xlfn.IFS(ABS(H3-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H3-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V26" t="str">
+        <f>_xlfn.IFS(ABS(I3-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I3-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W26" t="str">
+        <f>_xlfn.IFS(ABS(J3-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J3-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD26" t="str">
+        <f>_xlfn.IFS(ABS(Q3-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q3-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AE26" t="str">
+        <f>_xlfn.IFS(ABS(R3-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R3-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
+        <v>Lower</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N27" t="str">
+        <f>_xlfn.IFS(ABS(A4-T$5)&lt;=0.01*T$5,"Lower",ABS(A4-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O27" t="str">
+        <f>_xlfn.IFS(ABS(B4-U$5)&lt;=0.01*U$5,"Lower",ABS(B4-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P27" t="str">
+        <f>_xlfn.IFS(ABS(C4-V$5)&lt;=0.01*V$5,"Lower",ABS(C4-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <v>Lower</v>
+      </c>
+      <c r="Q27" t="str">
+        <f>_xlfn.IFS(ABS(D4-W$5)&lt;=0.01*W$5,"Lower",ABS(D4-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R27" t="str">
+        <f>_xlfn.IFS(ABS(E4-X$5)&lt;=0.01*X$5,"Lower",ABS(E4-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S27" t="str">
+        <f>_xlfn.IFS(ABS(F4-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F4-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T27" t="str">
+        <f>_xlfn.IFS(ABS(G4-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G4-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Lower</v>
+      </c>
+      <c r="U27" t="str">
+        <f>_xlfn.IFS(ABS(H4-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H4-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V27" t="str">
+        <f>_xlfn.IFS(ABS(I4-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I4-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W27" t="str">
+        <f>_xlfn.IFS(ABS(J4-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J4-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="AE25" t="str">
-        <f t="shared" si="1"/>
+      <c r="AD27" t="str">
+        <f>_xlfn.IFS(ABS(Q4-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q4-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N26" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="0"/>
-        <v>Lower</v>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R26" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S26" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="0"/>
-        <v>Lower</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V26" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W26" t="str">
-        <f t="shared" si="0"/>
-        <v>Upper</v>
-      </c>
-      <c r="AD26" t="str">
-        <f t="shared" si="1"/>
-        <v>Lower</v>
-      </c>
-      <c r="AE26" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="AE27" t="str">
+        <f>_xlfn.IFS(ABS(R4-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R4-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>3</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>4</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" t="s">
         <v>5</v>
       </c>
-      <c r="N27" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD27" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-      <c r="AE27" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="N28" t="str">
+        <f>_xlfn.IFS(ABS(A5-T$5)&lt;=0.01*T$5,"Lower",ABS(A5-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O28" t="str">
+        <f>_xlfn.IFS(ABS(B5-U$5)&lt;=0.01*U$5,"Lower",ABS(B5-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P28" t="str">
+        <f>_xlfn.IFS(ABS(C5-V$5)&lt;=0.01*V$5,"Lower",ABS(C5-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="Q28" t="str">
+        <f>_xlfn.IFS(ABS(D5-W$5)&lt;=0.01*W$5,"Lower",ABS(D5-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R28" t="str">
+        <f>_xlfn.IFS(ABS(E5-X$5)&lt;=0.01*X$5,"Lower",ABS(E5-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S28" t="str">
+        <f>_xlfn.IFS(ABS(F5-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F5-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T28" t="str">
+        <f>_xlfn.IFS(ABS(G5-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G5-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U28" t="str">
+        <f>_xlfn.IFS(ABS(H5-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H5-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V28" t="str">
+        <f>_xlfn.IFS(ABS(I5-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I5-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W28" t="str">
+        <f>_xlfn.IFS(ABS(J5-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J5-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD28" t="str">
+        <f>_xlfn.IFS(ABS(Q5-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q5-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AE28" t="str">
+        <f>_xlfn.IFS(ABS(R5-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R5-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <f>AVERAGE(B$1:B$3)</f>
         <v>9.2535545750464687E-2</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="2">
         <f>AVERAGE(B$4:B$6)</f>
         <v>0.3541415185008206</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <f>AVERAGE(B$7:B$12,B$17:B$19)</f>
         <v>0.75444268232926348</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="2">
         <f>AVERAGE(B$13:B$16)</f>
         <v>0.16916415025152015</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <f>B$20</f>
         <v>0.10810136923207164</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H29" s="2">
         <f>AVERAGE(B$21:B$22)</f>
         <v>0.2047343855353021</v>
       </c>
-      <c r="N28" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="0"/>
+      <c r="N29" t="str">
+        <f>_xlfn.IFS(ABS(A6-T$5)&lt;=0.01*T$5,"Lower",ABS(A6-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O29" t="str">
+        <f>_xlfn.IFS(ABS(B6-U$5)&lt;=0.01*U$5,"Lower",ABS(B6-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P29" t="str">
+        <f>_xlfn.IFS(ABS(C6-V$5)&lt;=0.01*V$5,"Lower",ABS(C6-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W28" t="str">
-        <f t="shared" si="0"/>
+      <c r="Q29" t="str">
+        <f>_xlfn.IFS(ABS(D6-W$5)&lt;=0.01*W$5,"Lower",ABS(D6-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R29" t="str">
+        <f>_xlfn.IFS(ABS(E6-X$5)&lt;=0.01*X$5,"Lower",ABS(E6-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S29" t="str">
+        <f>_xlfn.IFS(ABS(F6-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F6-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T29" t="str">
+        <f>_xlfn.IFS(ABS(G6-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G6-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U29" t="str">
+        <f>_xlfn.IFS(ABS(H6-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H6-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V29" t="str">
+        <f>_xlfn.IFS(ABS(I6-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I6-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W29" t="str">
+        <f>_xlfn.IFS(ABS(J6-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J6-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="AD28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AD29" t="str">
+        <f>_xlfn.IFS(ABS(Q6-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q6-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
-      <c r="AE28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AE29" t="str">
+        <f>_xlfn.IFS(ABS(R6-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R6-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C29" s="2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
         <v>1.2057455739979463E-2</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
         <v>5.7309495294150879E-2</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <f>STDEV(B$7:B$12,B$17:B$19)/SQRT(COUNT(B$7:B$12,B$17:B$19))</f>
         <v>0.39928208436858398</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="2">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
         <v>0.13741088889033834</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
         <f>STDEV(B$21:B$22)/SQRT(COUNT(B$21:B$22))</f>
         <v>1.8308667441519141E-2</v>
       </c>
-      <c r="N29" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V29" t="str">
-        <f t="shared" si="0"/>
+      <c r="N30" t="str">
+        <f>_xlfn.IFS(ABS(A7-T$5)&lt;=0.01*T$5,"Lower",ABS(A7-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O30" t="str">
+        <f>_xlfn.IFS(ABS(B7-U$5)&lt;=0.01*U$5,"Lower",ABS(B7-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P30" t="str">
+        <f>_xlfn.IFS(ABS(C7-V$5)&lt;=0.01*V$5,"Lower",ABS(C7-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="Q30" t="str">
+        <f>_xlfn.IFS(ABS(D7-W$5)&lt;=0.01*W$5,"Lower",ABS(D7-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R30" t="str">
+        <f>_xlfn.IFS(ABS(E7-X$5)&lt;=0.01*X$5,"Lower",ABS(E7-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S30" t="str">
+        <f>_xlfn.IFS(ABS(F7-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F7-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T30" t="str">
+        <f>_xlfn.IFS(ABS(G7-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G7-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U30" t="str">
+        <f>_xlfn.IFS(ABS(H7-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H7-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V30" t="str">
+        <f>_xlfn.IFS(ABS(I7-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I7-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="W29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD29" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-      <c r="AE29" t="str">
-        <f t="shared" si="1"/>
+      <c r="W30" t="str">
+        <f>_xlfn.IFS(ABS(J7-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J7-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD30" t="str">
+        <f>_xlfn.IFS(ABS(Q7-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q7-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Upper</v>
+      </c>
+      <c r="AE30" t="str">
+        <f>_xlfn.IFS(ABS(R7-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R7-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N30" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="0"/>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N31" t="str">
+        <f>_xlfn.IFS(ABS(A8-T$5)&lt;=0.01*T$5,"Lower",ABS(A8-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O31" t="str">
+        <f>_xlfn.IFS(ABS(B8-U$5)&lt;=0.01*U$5,"Lower",ABS(B8-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P31" t="str">
+        <f>_xlfn.IFS(ABS(C8-V$5)&lt;=0.01*V$5,"Lower",ABS(C8-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD30" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-      <c r="AE30" t="str">
-        <f t="shared" si="1"/>
+      <c r="Q31" t="str">
+        <f>_xlfn.IFS(ABS(D8-W$5)&lt;=0.01*W$5,"Lower",ABS(D8-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R31" t="str">
+        <f>_xlfn.IFS(ABS(E8-X$5)&lt;=0.01*X$5,"Lower",ABS(E8-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S31" t="str">
+        <f>_xlfn.IFS(ABS(F8-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F8-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T31" t="str">
+        <f>_xlfn.IFS(ABS(G8-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G8-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U31" t="str">
+        <f>_xlfn.IFS(ABS(H8-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H8-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V31" t="str">
+        <f>_xlfn.IFS(ABS(I8-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I8-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W31" t="str">
+        <f>_xlfn.IFS(ABS(J8-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J8-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD31" t="str">
+        <f>_xlfn.IFS(ABS(Q8-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q8-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AE31" t="str">
+        <f>_xlfn.IFS(ABS(R8-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R8-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>2</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>3</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>4</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>5</v>
       </c>
-      <c r="N31" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" si="0"/>
+      <c r="N32" t="str">
+        <f>_xlfn.IFS(ABS(A9-T$5)&lt;=0.01*T$5,"Lower",ABS(A9-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O32" t="str">
+        <f>_xlfn.IFS(ABS(B9-U$5)&lt;=0.01*U$5,"Lower",ABS(B9-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P32" t="str">
+        <f>_xlfn.IFS(ABS(C9-V$5)&lt;=0.01*V$5,"Lower",ABS(C9-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="Q32" t="str">
+        <f>_xlfn.IFS(ABS(D9-W$5)&lt;=0.01*W$5,"Lower",ABS(D9-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R32" t="str">
+        <f>_xlfn.IFS(ABS(E9-X$5)&lt;=0.01*X$5,"Lower",ABS(E9-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S32" t="str">
+        <f>_xlfn.IFS(ABS(F9-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F9-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T32" t="str">
+        <f>_xlfn.IFS(ABS(G9-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G9-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U32" t="str">
+        <f>_xlfn.IFS(ABS(H9-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H9-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="V31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD31" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-      <c r="AE31" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="V32" t="str">
+        <f>_xlfn.IFS(ABS(I9-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I9-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W32" t="str">
+        <f>_xlfn.IFS(ABS(J9-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J9-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD32" t="str">
+        <f>_xlfn.IFS(ABS(Q9-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q9-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AE32" t="str">
+        <f>_xlfn.IFS(ABS(R9-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R9-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="33" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <f>AVERAGE(C$1:C$3)</f>
         <v>7.384890314233869E-2</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <f>AVERAGE(C$4:C$6)</f>
         <v>5.0263555960985945E-2</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <f>AVERAGE(C$7:C$12,C$17:C$19)</f>
         <v>6.3109847044927683E-2</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G33" s="2">
         <f>AVERAGE(C$13:C$16)</f>
         <v>8.0357873156810505E-2</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H33" s="2">
         <f>C$20</f>
         <v>9.9999999990512817E-2</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I33" s="2">
         <f>AVERAGE(C$21:C$22)</f>
         <v>9.9999300808557345E-2</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD32" t="str">
-        <f t="shared" si="1"/>
+      <c r="N33" t="str">
+        <f>_xlfn.IFS(ABS(A10-T$5)&lt;=0.01*T$5,"Lower",ABS(A10-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O33" t="str">
+        <f>_xlfn.IFS(ABS(B10-U$5)&lt;=0.01*U$5,"Lower",ABS(B10-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P33" t="str">
+        <f>_xlfn.IFS(ABS(C10-V$5)&lt;=0.01*V$5,"Lower",ABS(C10-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="Q33" t="str">
+        <f>_xlfn.IFS(ABS(D10-W$5)&lt;=0.01*W$5,"Lower",ABS(D10-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R33" t="str">
+        <f>_xlfn.IFS(ABS(E10-X$5)&lt;=0.01*X$5,"Lower",ABS(E10-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S33" t="str">
+        <f>_xlfn.IFS(ABS(F10-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F10-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T33" t="str">
+        <f>_xlfn.IFS(ABS(G10-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G10-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U33" t="str">
+        <f>_xlfn.IFS(ABS(H10-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H10-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V33" t="str">
+        <f>_xlfn.IFS(ABS(I10-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I10-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W33" t="str">
+        <f>_xlfn.IFS(ABS(J10-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J10-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD33" t="str">
+        <f>_xlfn.IFS(ABS(Q10-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q10-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
-      <c r="AE32" t="str">
-        <f t="shared" si="1"/>
+      <c r="AE33" t="str">
+        <f>_xlfn.IFS(ABS(R10-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R10-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="33" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D33" s="2">
+    <row r="34" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D34" s="2">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
         <v>2.3803754511435734E-2</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
         <v>2.3947765296666392E-2</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="2">
         <f>STDEV(C$7:C$12,C$17:C$19)/SQRT(COUNT(C$7:C$12,C$17:C$19))</f>
         <v>1.0466686942143609E-2</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G34" s="2">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
         <v>1.4625933793160245E-2</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2">
         <f>STDEV(C$21:C$22)/SQRT(COUNT(C$21:C$22))</f>
         <v>6.9919142025448567E-7</v>
       </c>
-      <c r="N33" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD33" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-      <c r="AE33" t="str">
-        <f t="shared" si="1"/>
+      <c r="N34" t="str">
+        <f>_xlfn.IFS(ABS(A11-T$5)&lt;=0.01*T$5,"Lower",ABS(A11-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O34" t="str">
+        <f>_xlfn.IFS(ABS(B11-U$5)&lt;=0.01*U$5,"Lower",ABS(B11-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P34" t="str">
+        <f>_xlfn.IFS(ABS(C11-V$5)&lt;=0.01*V$5,"Lower",ABS(C11-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="Q34" t="str">
+        <f>_xlfn.IFS(ABS(D11-W$5)&lt;=0.01*W$5,"Lower",ABS(D11-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R34" t="str">
+        <f>_xlfn.IFS(ABS(E11-X$5)&lt;=0.01*X$5,"Lower",ABS(E11-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S34" t="str">
+        <f>_xlfn.IFS(ABS(F11-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F11-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T34" t="str">
+        <f>_xlfn.IFS(ABS(G11-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G11-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U34" t="str">
+        <f>_xlfn.IFS(ABS(H11-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H11-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V34" t="str">
+        <f>_xlfn.IFS(ABS(I11-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I11-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W34" t="str">
+        <f>_xlfn.IFS(ABS(J11-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J11-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD34" t="str">
+        <f>_xlfn.IFS(ABS(Q11-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q11-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Upper</v>
+      </c>
+      <c r="AE34" t="str">
+        <f>_xlfn.IFS(ABS(R11-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R11-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="34" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="N34" t="str">
-        <f t="shared" si="2"/>
+    <row r="35" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="N35" t="str">
+        <f>_xlfn.IFS(ABS(A12-T$5)&lt;=0.01*T$5,"Lower",ABS(A12-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="O34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R34" t="str">
-        <f t="shared" si="0"/>
+      <c r="O35" t="str">
+        <f>_xlfn.IFS(ABS(B12-U$5)&lt;=0.01*U$5,"Lower",ABS(B12-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P35" t="str">
+        <f>_xlfn.IFS(ABS(C12-V$5)&lt;=0.01*V$5,"Lower",ABS(C12-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="Q35" t="str">
+        <f>_xlfn.IFS(ABS(D12-W$5)&lt;=0.01*W$5,"Lower",ABS(D12-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R35" t="str">
+        <f>_xlfn.IFS(ABS(E12-X$5)&lt;=0.01*X$5,"Lower",ABS(E12-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
-      <c r="S34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD34" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-      <c r="AE34" t="str">
-        <f t="shared" si="1"/>
+      <c r="S35" t="str">
+        <f>_xlfn.IFS(ABS(F12-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F12-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T35" t="str">
+        <f>_xlfn.IFS(ABS(G12-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G12-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U35" t="str">
+        <f>_xlfn.IFS(ABS(H12-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H12-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V35" t="str">
+        <f>_xlfn.IFS(ABS(I12-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I12-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W35" t="str">
+        <f>_xlfn.IFS(ABS(J12-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J12-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD35" t="str">
+        <f>_xlfn.IFS(ABS(Q12-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q12-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AE35" t="str">
+        <f>_xlfn.IFS(ABS(R12-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R12-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
     </row>
-    <row r="35" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
+    <row r="36" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
         <v>0</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>1</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>2</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>3</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>4</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J36" t="s">
         <v>5</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="0"/>
+      <c r="N36" t="str">
+        <f>_xlfn.IFS(ABS(A13-T$5)&lt;=0.01*T$5,"Lower",ABS(A13-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O36" t="str">
+        <f>_xlfn.IFS(ABS(B13-U$5)&lt;=0.01*U$5,"Lower",ABS(B13-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P36" t="str">
+        <f>_xlfn.IFS(ABS(C13-V$5)&lt;=0.01*V$5,"Lower",ABS(C13-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R35" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S35" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T35" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U35" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V35" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W35" t="str">
-        <f t="shared" si="0"/>
+      <c r="Q36" t="str">
+        <f>_xlfn.IFS(ABS(D13-W$5)&lt;=0.01*W$5,"Lower",ABS(D13-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R36" t="str">
+        <f>_xlfn.IFS(ABS(E13-X$5)&lt;=0.01*X$5,"Lower",ABS(E13-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S36" t="str">
+        <f>_xlfn.IFS(ABS(F13-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F13-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T36" t="str">
+        <f>_xlfn.IFS(ABS(G13-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G13-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U36" t="str">
+        <f>_xlfn.IFS(ABS(H13-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H13-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V36" t="str">
+        <f>_xlfn.IFS(ABS(I13-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I13-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W36" t="str">
+        <f>_xlfn.IFS(ABS(J13-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J13-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="AD35" t="str">
-        <f t="shared" si="1"/>
+      <c r="AD36" t="str">
+        <f>_xlfn.IFS(ABS(Q13-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q13-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
-      <c r="AE35" t="str">
-        <f t="shared" si="1"/>
+      <c r="AE36" t="str">
+        <f>_xlfn.IFS(ABS(R13-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R13-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="36" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+    <row r="37" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E37" s="2">
         <f>AVERAGE(D$1:D$3)</f>
         <v>632008997.85957575</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F37" s="2">
         <f>AVERAGE(D$4:D$6)</f>
         <v>429383170.13780922</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G37" s="2">
         <f>AVERAGE(D$7:D$12,D$17:D$19)</f>
         <v>657231049.83675289</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H37" s="2">
         <f>AVERAGE(D$13:D$16)</f>
         <v>1115107642.3110452</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I37" s="2">
         <f>D$20</f>
         <v>1442195496.1246281</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J37" s="2">
         <f>AVERAGE(D$21:D$22)</f>
         <v>1568574263.3403835</v>
       </c>
-      <c r="N36" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P36" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R36" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S36" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T36" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U36" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V36" t="str">
-        <f t="shared" si="0"/>
+      <c r="N37" t="str">
+        <f>_xlfn.IFS(ABS(A14-T$5)&lt;=0.01*T$5,"Lower",ABS(A14-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O37" t="str">
+        <f>_xlfn.IFS(ABS(B14-U$5)&lt;=0.01*U$5,"Lower",ABS(B14-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P37" t="str">
+        <f>_xlfn.IFS(ABS(C14-V$5)&lt;=0.01*V$5,"Lower",ABS(C14-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="Q37" t="str">
+        <f>_xlfn.IFS(ABS(D14-W$5)&lt;=0.01*W$5,"Lower",ABS(D14-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R37" t="str">
+        <f>_xlfn.IFS(ABS(E14-X$5)&lt;=0.01*X$5,"Lower",ABS(E14-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S37" t="str">
+        <f>_xlfn.IFS(ABS(F14-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F14-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T37" t="str">
+        <f>_xlfn.IFS(ABS(G14-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G14-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U37" t="str">
+        <f>_xlfn.IFS(ABS(H14-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H14-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V37" t="str">
+        <f>_xlfn.IFS(ABS(I14-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I14-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="W36" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD36" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-      <c r="AE36" t="str">
-        <f t="shared" si="1"/>
+      <c r="W37" t="str">
+        <f>_xlfn.IFS(ABS(J14-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J14-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD37" t="str">
+        <f>_xlfn.IFS(ABS(Q14-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q14-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Upper</v>
+      </c>
+      <c r="AE37" t="str">
+        <f>_xlfn.IFS(ABS(R14-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R14-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="37" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="E37" s="2">
+    <row r="38" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
         <v>304779407.73467177</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F38" s="2">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
         <v>337009161.21699256</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G38" s="2">
         <f>STDEV(D$7:D$12,D$17:D$19)/SQRT(COUNT(D$7:D$12,D$17:D$19))</f>
         <v>217752834.47134462</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H38" s="2">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
         <v>556079536.85988617</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
         <f>STDEV(D$21:D$22)/SQRT(COUNT(D$21:D$22))</f>
         <v>498174883.8265568</v>
       </c>
-      <c r="N37" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R37" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S37" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="0"/>
+      <c r="N38" t="str">
+        <f>_xlfn.IFS(ABS(A15-T$5)&lt;=0.01*T$5,"Lower",ABS(A15-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O38" t="str">
+        <f>_xlfn.IFS(ABS(B15-U$5)&lt;=0.01*U$5,"Lower",ABS(B15-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P38" t="str">
+        <f>_xlfn.IFS(ABS(C15-V$5)&lt;=0.01*V$5,"Lower",ABS(C15-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="Q38" t="str">
+        <f>_xlfn.IFS(ABS(D15-W$5)&lt;=0.01*W$5,"Lower",ABS(D15-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R38" t="str">
+        <f>_xlfn.IFS(ABS(E15-X$5)&lt;=0.01*X$5,"Lower",ABS(E15-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S38" t="str">
+        <f>_xlfn.IFS(ABS(F15-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F15-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T38" t="str">
+        <f>_xlfn.IFS(ABS(G15-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G15-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
-      <c r="U37" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V37" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W37" t="str">
-        <f t="shared" si="0"/>
+      <c r="U38" t="str">
+        <f>_xlfn.IFS(ABS(H15-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H15-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V38" t="str">
+        <f>_xlfn.IFS(ABS(I15-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I15-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W38" t="str">
+        <f>_xlfn.IFS(ABS(J15-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J15-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="AD37" t="str">
-        <f t="shared" si="1"/>
+      <c r="AD38" t="str">
+        <f>_xlfn.IFS(ABS(Q15-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q15-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
-      <c r="AE37" t="str">
-        <f t="shared" si="1"/>
+      <c r="AE38" t="str">
+        <f>_xlfn.IFS(ABS(R15-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R15-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="38" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="N38" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="S38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="T38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="U38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="V38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="W38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD38" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-      <c r="AE38" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-    </row>
-    <row r="39" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+    <row r="39" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="N39" t="str">
+        <f>_xlfn.IFS(ABS(A16-T$5)&lt;=0.01*T$5,"Lower",ABS(A16-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O39" t="str">
+        <f>_xlfn.IFS(ABS(B16-U$5)&lt;=0.01*U$5,"Lower",ABS(B16-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P39" t="str">
+        <f>_xlfn.IFS(ABS(C16-V$5)&lt;=0.01*V$5,"Lower",ABS(C16-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="Q39" t="str">
+        <f>_xlfn.IFS(ABS(D16-W$5)&lt;=0.01*W$5,"Lower",ABS(D16-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R39" t="str">
+        <f>_xlfn.IFS(ABS(E16-X$5)&lt;=0.01*X$5,"Lower",ABS(E16-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S39" t="str">
+        <f>_xlfn.IFS(ABS(F16-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F16-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T39" t="str">
+        <f>_xlfn.IFS(ABS(G16-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G16-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U39" t="str">
+        <f>_xlfn.IFS(ABS(H16-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H16-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V39" t="str">
+        <f>_xlfn.IFS(ABS(I16-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I16-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W39" t="str">
+        <f>_xlfn.IFS(ABS(J16-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J16-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD39" t="str">
+        <f>_xlfn.IFS(ABS(Q16-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q16-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Upper</v>
+      </c>
+      <c r="AE39" t="str">
+        <f>_xlfn.IFS(ABS(R16-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R16-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="40" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
         <v>0</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>1</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>2</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>3</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J40" t="s">
         <v>4</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K40" t="s">
         <v>5</v>
       </c>
-      <c r="N39" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" ref="O39:O44" si="3">_xlfn.IFS(ABS(B17-U$5)&lt;=0.01*U$5,"Lower",ABS(B17-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" ref="P39:P44" si="4">_xlfn.IFS(ABS(C17-V$5)&lt;=0.01*V$5,"Lower",ABS(C17-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+      <c r="N40" t="str">
+        <f>_xlfn.IFS(ABS(A17-T$5)&lt;=0.01*T$5,"Lower",ABS(A17-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O40" t="str">
+        <f>_xlfn.IFS(ABS(B17-U$5)&lt;=0.01*U$5,"Lower",ABS(B17-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P40" t="str">
+        <f>_xlfn.IFS(ABS(C17-V$5)&lt;=0.01*V$5,"Lower",ABS(C17-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="Q39" t="str">
-        <f t="shared" ref="Q39:Q44" si="5">_xlfn.IFS(ABS(D17-W$5)&lt;=0.01*W$5,"Lower",ABS(D17-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
-      </c>
-      <c r="R39" t="str">
-        <f t="shared" ref="R39:R44" si="6">_xlfn.IFS(ABS(E17-X$5)&lt;=0.01*X$5,"Lower",ABS(E17-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
-      </c>
-      <c r="S39" t="str">
-        <f t="shared" ref="S39:S44" si="7">_xlfn.IFS(ABS(F17-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F17-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" ref="T39:T44" si="8">_xlfn.IFS(ABS(G17-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G17-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
-      </c>
-      <c r="U39" t="str">
-        <f t="shared" ref="U39:U44" si="9">_xlfn.IFS(ABS(H17-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H17-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
-      </c>
-      <c r="V39" t="str">
-        <f t="shared" ref="V39:V44" si="10">_xlfn.IFS(ABS(I17-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I17-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
-        <v>Ok</v>
-      </c>
-      <c r="W39" t="str">
-        <f t="shared" ref="W39:W44" si="11">_xlfn.IFS(ABS(J17-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J17-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+      <c r="Q40" t="str">
+        <f>_xlfn.IFS(ABS(D17-W$5)&lt;=0.01*W$5,"Lower",ABS(D17-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R40" t="str">
+        <f>_xlfn.IFS(ABS(E17-X$5)&lt;=0.01*X$5,"Lower",ABS(E17-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S40" t="str">
+        <f>_xlfn.IFS(ABS(F17-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F17-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T40" t="str">
+        <f>_xlfn.IFS(ABS(G17-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G17-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U40" t="str">
+        <f>_xlfn.IFS(ABS(H17-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H17-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V40" t="str">
+        <f>_xlfn.IFS(ABS(I17-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I17-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W40" t="str">
+        <f>_xlfn.IFS(ABS(J17-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J17-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="AD39" t="str">
-        <f t="shared" si="1"/>
+      <c r="AD40" t="str">
+        <f>_xlfn.IFS(ABS(Q17-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q17-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
-      <c r="AE39" t="str">
-        <f t="shared" si="1"/>
+      <c r="AE40" t="str">
+        <f>_xlfn.IFS(ABS(R17-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R17-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="40" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
+    <row r="41" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F41" s="2">
         <f>AVERAGE(E$1:E$3)</f>
         <v>20.569031590712743</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G41" s="2">
         <f>AVERAGE(E$4:E$6)</f>
         <v>22.076323769486507</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H41" s="2">
         <f>AVERAGE(E$7:E$12,E$17:E$19)</f>
         <v>27.049486754336399</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I41" s="2">
         <f>AVERAGE(E$13:E$16)</f>
         <v>30.414474382495143</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J41" s="2">
         <f>E$20</f>
         <v>21.071901191010653</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K41" s="2">
         <f>AVERAGE(E$21:E$22)</f>
         <v>15.38764891000403</v>
       </c>
-      <c r="N40" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="3"/>
-        <v>Ok</v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="4"/>
+      <c r="N41" t="str">
+        <f>_xlfn.IFS(ABS(A18-T$5)&lt;=0.01*T$5,"Lower",ABS(A18-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O41" t="str">
+        <f>_xlfn.IFS(ABS(B18-U$5)&lt;=0.01*U$5,"Lower",ABS(B18-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P41" t="str">
+        <f>_xlfn.IFS(ABS(C18-V$5)&lt;=0.01*V$5,"Lower",ABS(C18-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="5"/>
-        <v>Ok</v>
-      </c>
-      <c r="R40" t="str">
-        <f t="shared" si="6"/>
-        <v>Ok</v>
-      </c>
-      <c r="S40" t="str">
-        <f t="shared" si="7"/>
-        <v>Ok</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="8"/>
-        <v>Ok</v>
-      </c>
-      <c r="U40" t="str">
-        <f t="shared" si="9"/>
-        <v>Ok</v>
-      </c>
-      <c r="V40" t="str">
-        <f t="shared" si="10"/>
-        <v>Ok</v>
-      </c>
-      <c r="W40" t="str">
-        <f t="shared" si="11"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD40" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-      <c r="AE40" t="str">
-        <f t="shared" si="1"/>
+      <c r="Q41" t="str">
+        <f>_xlfn.IFS(ABS(D18-W$5)&lt;=0.01*W$5,"Lower",ABS(D18-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R41" t="str">
+        <f>_xlfn.IFS(ABS(E18-X$5)&lt;=0.01*X$5,"Lower",ABS(E18-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S41" t="str">
+        <f>_xlfn.IFS(ABS(F18-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F18-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T41" t="str">
+        <f>_xlfn.IFS(ABS(G18-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G18-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U41" t="str">
+        <f>_xlfn.IFS(ABS(H18-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H18-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V41" t="str">
+        <f>_xlfn.IFS(ABS(I18-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I18-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W41" t="str">
+        <f>_xlfn.IFS(ABS(J18-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J18-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD41" t="str">
+        <f>_xlfn.IFS(ABS(Q18-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q18-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Upper</v>
+      </c>
+      <c r="AE41" t="str">
+        <f>_xlfn.IFS(ABS(R18-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R18-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="41" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="F41" s="2">
+    <row r="42" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="F42" s="2">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
         <v>1.6353604324085522</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G42" s="2">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
         <v>5.4277614734308957</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H42" s="2">
         <f>STDEV(E$7:E$12,E$17:E$19)/SQRT(COUNT(E$7:E$12,E$17:E$19))</f>
         <v>3.3683323128668317</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I42" s="2">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
         <v>5.0446973617418731</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2">
+      <c r="J42" s="2"/>
+      <c r="K42" s="2">
         <f>STDEV(E$21:E$22)/SQRT(COUNT(E$21:E$22))</f>
         <v>0.23556790877395525</v>
       </c>
-      <c r="N41" t="str">
-        <f t="shared" si="2"/>
+      <c r="N42" t="str">
+        <f>_xlfn.IFS(ABS(A19-T$5)&lt;=0.01*T$5,"Lower",ABS(A19-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="O41" t="str">
-        <f t="shared" si="3"/>
-        <v>Ok</v>
-      </c>
-      <c r="P41" t="str">
-        <f t="shared" si="4"/>
+      <c r="O42" t="str">
+        <f>_xlfn.IFS(ABS(B19-U$5)&lt;=0.01*U$5,"Lower",ABS(B19-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P42" t="str">
+        <f>_xlfn.IFS(ABS(C19-V$5)&lt;=0.01*V$5,"Lower",ABS(C19-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="5"/>
-        <v>Ok</v>
-      </c>
-      <c r="R41" t="str">
-        <f t="shared" si="6"/>
-        <v>Ok</v>
-      </c>
-      <c r="S41" t="str">
-        <f t="shared" si="7"/>
-        <v>Ok</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="8"/>
-        <v>Ok</v>
-      </c>
-      <c r="U41" t="str">
-        <f t="shared" si="9"/>
-        <v>Ok</v>
-      </c>
-      <c r="V41" t="str">
-        <f t="shared" si="10"/>
-        <v>Ok</v>
-      </c>
-      <c r="W41" t="str">
-        <f t="shared" si="11"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD41" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-      <c r="AE41" t="str">
-        <f t="shared" si="1"/>
+      <c r="Q42" t="str">
+        <f>_xlfn.IFS(ABS(D19-W$5)&lt;=0.01*W$5,"Lower",ABS(D19-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R42" t="str">
+        <f>_xlfn.IFS(ABS(E19-X$5)&lt;=0.01*X$5,"Lower",ABS(E19-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S42" t="str">
+        <f>_xlfn.IFS(ABS(F19-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F19-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T42" t="str">
+        <f>_xlfn.IFS(ABS(G19-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G19-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U42" t="str">
+        <f>_xlfn.IFS(ABS(H19-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H19-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V42" t="str">
+        <f>_xlfn.IFS(ABS(I19-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I19-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W42" t="str">
+        <f>_xlfn.IFS(ABS(J19-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J19-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD42" t="str">
+        <f>_xlfn.IFS(ABS(Q19-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q19-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Upper</v>
+      </c>
+      <c r="AE42" t="str">
+        <f>_xlfn.IFS(ABS(R19-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R19-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="42" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="N42" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="3"/>
-        <v>Ok</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="4"/>
+    <row r="43" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="N43" t="str">
+        <f>_xlfn.IFS(ABS(A20-T$5)&lt;=0.01*T$5,"Lower",ABS(A20-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O43" t="str">
+        <f>_xlfn.IFS(ABS(B20-U$5)&lt;=0.01*U$5,"Lower",ABS(B20-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P43" t="str">
+        <f>_xlfn.IFS(ABS(C20-V$5)&lt;=0.01*V$5,"Lower",ABS(C20-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="5"/>
-        <v>Ok</v>
-      </c>
-      <c r="R42" t="str">
-        <f t="shared" si="6"/>
-        <v>Ok</v>
-      </c>
-      <c r="S42" t="str">
-        <f t="shared" si="7"/>
-        <v>Ok</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="8"/>
-        <v>Ok</v>
-      </c>
-      <c r="U42" t="str">
-        <f t="shared" si="9"/>
-        <v>Ok</v>
-      </c>
-      <c r="V42" t="str">
-        <f t="shared" si="10"/>
-        <v>Ok</v>
-      </c>
-      <c r="W42" t="str">
-        <f t="shared" si="11"/>
+      <c r="Q43" t="str">
+        <f>_xlfn.IFS(ABS(D20-W$5)&lt;=0.01*W$5,"Lower",ABS(D20-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R43" t="str">
+        <f>_xlfn.IFS(ABS(E20-X$5)&lt;=0.01*X$5,"Lower",ABS(E20-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S43" t="str">
+        <f>_xlfn.IFS(ABS(F20-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F20-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T43" t="str">
+        <f>_xlfn.IFS(ABS(G20-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G20-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U43" t="str">
+        <f>_xlfn.IFS(ABS(H20-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H20-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V43" t="str">
+        <f>_xlfn.IFS(ABS(I20-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I20-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W43" t="str">
+        <f>_xlfn.IFS(ABS(J20-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J20-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="AD42" t="str">
-        <f t="shared" si="1"/>
+      <c r="AD43" t="str">
+        <f>_xlfn.IFS(ABS(Q20-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q20-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AE43" t="str">
+        <f>_xlfn.IFS(ABS(R20-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R20-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
+        <v>Lower</v>
+      </c>
+    </row>
+    <row r="44" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" t="str">
+        <f>_xlfn.IFS(ABS(A21-T$5)&lt;=0.01*T$5,"Lower",ABS(A21-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O44" t="str">
+        <f>_xlfn.IFS(ABS(B21-U$5)&lt;=0.01*U$5,"Lower",ABS(B21-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P44" t="str">
+        <f>_xlfn.IFS(ABS(C21-V$5)&lt;=0.01*V$5,"Lower",ABS(C21-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="AE42" t="str">
-        <f t="shared" si="1"/>
-        <v>Lower</v>
-      </c>
-    </row>
-    <row r="43" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="3"/>
-        <v>Ok</v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="4"/>
+      <c r="Q44" t="str">
+        <f>_xlfn.IFS(ABS(D21-W$5)&lt;=0.01*W$5,"Lower",ABS(D21-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R44" t="str">
+        <f>_xlfn.IFS(ABS(E21-X$5)&lt;=0.01*X$5,"Lower",ABS(E21-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S44" t="str">
+        <f>_xlfn.IFS(ABS(F21-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F21-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T44" t="str">
+        <f>_xlfn.IFS(ABS(G21-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G21-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U44" t="str">
+        <f>_xlfn.IFS(ABS(H21-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H21-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V44" t="str">
+        <f>_xlfn.IFS(ABS(I21-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I21-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W44" t="str">
+        <f>_xlfn.IFS(ABS(J21-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J21-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="Q43" t="str">
-        <f t="shared" si="5"/>
-        <v>Ok</v>
-      </c>
-      <c r="R43" t="str">
-        <f t="shared" si="6"/>
-        <v>Ok</v>
-      </c>
-      <c r="S43" t="str">
-        <f t="shared" si="7"/>
-        <v>Ok</v>
-      </c>
-      <c r="T43" t="str">
-        <f t="shared" si="8"/>
-        <v>Ok</v>
-      </c>
-      <c r="U43" t="str">
-        <f t="shared" si="9"/>
-        <v>Ok</v>
-      </c>
-      <c r="V43" t="str">
-        <f t="shared" si="10"/>
-        <v>Ok</v>
-      </c>
-      <c r="W43" t="str">
-        <f t="shared" si="11"/>
-        <v>Upper</v>
-      </c>
-      <c r="AD43" t="str">
-        <f t="shared" si="1"/>
-        <v>Upper</v>
-      </c>
-      <c r="AE43" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-    </row>
-    <row r="44" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
+      <c r="AD44" t="str">
+        <f>_xlfn.IFS(ABS(Q21-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q21-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AE44" t="str">
+        <f>_xlfn.IFS(ABS(R21-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R21-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="45" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G45" s="2">
         <f>AVERAGE(F$1:F$3)</f>
         <v>62.929200798475335</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H45" s="2">
         <f>AVERAGE(F$4:F$6)</f>
         <v>61.049871234843614</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I45" s="2">
         <f>AVERAGE(F$7:F$12,F$17:F$19)</f>
         <v>62.565940988884485</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J45" s="2">
         <f>AVERAGE(F$13:F$16)</f>
         <v>61.88435213689619</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K45" s="2">
         <f>F$20</f>
         <v>66.224947910183658</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L45" s="2">
         <f>AVERAGE(F$21:F$22)</f>
         <v>72.176785082741588</v>
       </c>
-      <c r="N44" t="str">
-        <f t="shared" si="2"/>
-        <v>Ok</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="3"/>
-        <v>Ok</v>
-      </c>
-      <c r="P44" t="str">
-        <f t="shared" si="4"/>
+      <c r="N45" t="str">
+        <f>_xlfn.IFS(ABS(A22-T$5)&lt;=0.01*T$5,"Lower",ABS(A22-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O45" t="str">
+        <f>_xlfn.IFS(ABS(B22-U$5)&lt;=0.01*U$5,"Lower",ABS(B22-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P45" t="str">
+        <f>_xlfn.IFS(ABS(C22-V$5)&lt;=0.01*V$5,"Lower",ABS(C22-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
-      <c r="Q44" t="str">
-        <f t="shared" si="5"/>
-        <v>Ok</v>
-      </c>
-      <c r="R44" t="str">
-        <f t="shared" si="6"/>
-        <v>Ok</v>
-      </c>
-      <c r="S44" t="str">
-        <f t="shared" si="7"/>
-        <v>Ok</v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="8"/>
-        <v>Ok</v>
-      </c>
-      <c r="U44" t="str">
-        <f t="shared" si="9"/>
-        <v>Ok</v>
-      </c>
-      <c r="V44" t="str">
-        <f t="shared" si="10"/>
-        <v>Ok</v>
-      </c>
-      <c r="W44" t="str">
-        <f t="shared" si="11"/>
-        <v>Ok</v>
-      </c>
-      <c r="AD44" t="str">
-        <f t="shared" si="1"/>
-        <v>Ok</v>
-      </c>
-      <c r="AE44" t="str">
-        <f t="shared" si="1"/>
+      <c r="Q45" t="str">
+        <f>_xlfn.IFS(ABS(D22-W$5)&lt;=0.01*W$5,"Lower",ABS(D22-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="R45" t="str">
+        <f>_xlfn.IFS(ABS(E22-X$5)&lt;=0.01*X$5,"Lower",ABS(E22-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="S45" t="str">
+        <f>_xlfn.IFS(ABS(F22-Y$5)&lt;=0.01*Y$5,"Lower",ABS(F22-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="T45" t="str">
+        <f>_xlfn.IFS(ABS(G22-Z$5)&lt;=0.01*Z$5,"Lower",ABS(G22-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="U45" t="str">
+        <f>_xlfn.IFS(ABS(H22-AA$5)&lt;=0.01*AA$5,"Lower",ABS(H22-AA$6)&lt;=0.01*AA$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="V45" t="str">
+        <f>_xlfn.IFS(ABS(I22-AB$5)&lt;=0.01*AB$5,"Lower",ABS(I22-AB$6)&lt;=0.01*AB$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="W45" t="str">
+        <f>_xlfn.IFS(ABS(J22-AC$5)&lt;=0.01*AC$5,"Lower",ABS(J22-AC$6)&lt;=0.01*AC$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AD45" t="str">
+        <f>_xlfn.IFS(ABS(Q22-AJ$5)&lt;=0.01*AJ$5,"Lower",ABS(Q22-AJ$6)&lt;=0.01*AJ$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="AE45" t="str">
+        <f>_xlfn.IFS(ABS(R22-AK$5)&lt;=0.01*AK$5,"Lower",ABS(R22-AK$6)&lt;=0.01*AK$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
     </row>
-    <row r="45" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="G45" s="2">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="G46" s="2">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
         <v>3.0934409159415974</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H46" s="2">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
         <v>4.888968988250177</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I46" s="2">
         <f>STDEV(F$7:F$12,F$17:F$19)/SQRT(COUNT(F$7:F$12,F$17:F$19))</f>
         <v>3.824336547084958</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J46" s="2">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
         <v>2.8813852312930881</v>
       </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2">
         <f>STDEV(F$21:F$22)/SQRT(COUNT(F$21:F$22))</f>
         <v>2.9472292420093491</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N46" t="s">
         <v>6</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O46" t="s">
         <v>7</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P46" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q46" t="s">
         <v>9</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R46" t="s">
         <v>10</v>
       </c>
-      <c r="S45" t="s">
+      <c r="S46" t="s">
         <v>11</v>
       </c>
-      <c r="T45" t="s">
+      <c r="T46" t="s">
         <v>12</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U46" t="s">
         <v>13</v>
       </c>
-      <c r="V45" t="s">
+      <c r="V46" t="s">
         <v>14</v>
       </c>
-      <c r="W45" t="s">
+      <c r="W46" t="s">
         <v>15</v>
       </c>
-      <c r="X45" t="s">
+      <c r="X46" t="s">
         <v>16</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y46" t="s">
         <v>17</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Z46" t="s">
         <v>18</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AA46" t="s">
         <v>19</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AB46" t="s">
         <v>20</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AC46" t="s">
         <v>21</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AD46" t="s">
         <v>22</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AE46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="H47" t="s">
+    <row r="48" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I48" t="s">
         <v>1</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J48" t="s">
         <v>2</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K48" t="s">
         <v>3</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L48" t="s">
         <v>4</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
+    <row r="49" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H49" s="2">
         <f>AVERAGE(G$1:G$3)</f>
         <v>0.43030529517923882</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I49" s="2">
         <f>AVERAGE(G$4:G$6)</f>
         <v>0.19506446675691699</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J49" s="2">
         <f>AVERAGE(G$7:G$12,G$17:G$19)</f>
         <v>0.41603336191621143</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K49" s="2">
         <f>AVERAGE(G$13:G$16)</f>
         <v>0.34656142030851494</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L49" s="2">
         <f>G$20</f>
         <v>0.64179913127875132</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M49" s="2">
         <f>AVERAGE(G$21:G$22)</f>
         <v>0.58216172922031317</v>
       </c>
     </row>
-    <row r="49" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H49" s="2">
+    <row r="50" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H50" s="2">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
         <v>0.21660481975386786</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I50" s="2">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
         <v>0.19506444923262076</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J50" s="2">
         <f>STDEV(G$7:G$12,G$17:G$19)/SQRT(COUNT(G$7:G$12,G$17:G$19))</f>
         <v>0.10216020479600753</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K50" s="2">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
         <v>0.20068232101892192</v>
       </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2">
+      <c r="L50" s="2"/>
+      <c r="M50" s="2">
         <f>STDEV(G$21:G$22)/SQRT(COUNT(G$21:G$22))</f>
         <v>3.8283269949590908E-2</v>
       </c>
     </row>
-    <row r="51" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I51" t="s">
+    <row r="52" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J52" t="s">
         <v>1</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K52" t="s">
         <v>2</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L52" t="s">
         <v>3</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M52" t="s">
         <v>4</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H52" t="s">
+    <row r="53" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I53" s="2">
         <f>AVERAGE(H$1:H$3)</f>
         <v>3.6340015217690251E-2</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J53" s="2">
         <f>AVERAGE(H$4:H$6)</f>
         <v>0.20403788869996353</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K53" s="2">
         <f>AVERAGE(H$7:H$12,H$17:H$19)</f>
         <v>1.6742312906554444</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L53" s="2">
         <f>AVERAGE(H$13:H$16)</f>
         <v>0.7445921275636318</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M53" s="2">
         <f>H$20</f>
         <v>0.1195542193137312</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N53" s="2">
         <f>AVERAGE(H$21:H$22)</f>
         <v>0.16373508288464522</v>
       </c>
     </row>
-    <row r="53" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I53" s="2">
+    <row r="54" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="I54" s="2">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
         <v>1.6672231507992838E-2</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J54" s="2">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
         <v>4.6989865419873371E-2</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K54" s="2">
         <f>STDEV(H$7:H$12,H$17:H$19)/SQRT(COUNT(H$7:H$12,H$17:H$19))</f>
         <v>1.1308765015832429</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L54" s="2">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
         <v>0.7333214675380374</v>
       </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2">
+      <c r="M54" s="2"/>
+      <c r="N54" s="2">
         <f>STDEV(H$21:H$22)/SQRT(COUNT(H$21:H$22))</f>
         <v>1.8938160200325939E-2</v>
       </c>
     </row>
-    <row r="55" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="J55" t="s">
+    <row r="56" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
         <v>0</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K56" t="s">
         <v>1</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L56" t="s">
         <v>2</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M56" t="s">
         <v>3</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N56" t="s">
         <v>4</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I56" t="s">
+    <row r="57" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
         <v>14</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J57" s="2">
         <f>AVERAGE(I$1:I$3)</f>
         <v>3.3334323368655015E-3</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K57" s="2">
         <f>AVERAGE(I$4:I$6)</f>
         <v>3.547600000994643E-4</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L57" s="2">
         <f>AVERAGE(I$7:I$12,I$17:I$19)</f>
         <v>2.3075847901287152E-3</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M57" s="2">
         <f>AVERAGE(I$13:I$16)</f>
         <v>2.5302835043647456E-3</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N57" s="2">
         <f>I$20</f>
         <v>1.001442476453742E-9</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O57" s="2">
         <f>AVERAGE(I$21:I$22)</f>
         <v>3.9440761052938893E-7</v>
       </c>
     </row>
-    <row r="57" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="J57" s="2">
+    <row r="58" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="J58" s="2">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
         <v>3.3332838326588514E-3</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K58" s="2">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
         <v>3.5468109480131071E-4</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L58" s="2">
         <f>STDEV(I$7:I$12,I$17:I$19)/SQRT(COUNT(I$7:I$12,I$17:I$19))</f>
         <v>1.1718468534149583E-3</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M58" s="2">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
         <v>2.4900647751280795E-3</v>
       </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2">
+      <c r="N58" s="2"/>
+      <c r="O58" s="2">
         <f>STDEV(I$21:I$22)/SQRT(COUNT(I$21:I$22))</f>
         <v>3.9440757832449011E-7</v>
       </c>
     </row>
-    <row r="59" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="K59" t="s">
+    <row r="60" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
         <v>0</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L60" t="s">
         <v>1</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M60" t="s">
         <v>2</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N60" t="s">
         <v>3</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O60" t="s">
         <v>4</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="J60" t="s">
+    <row r="61" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
         <v>15</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K61" s="2">
         <f>AVERAGE(J$1:J$3)</f>
         <v>3.2650559954686166E-3</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L61" s="2">
         <f>AVERAGE(J$4:J$6)</f>
         <v>6.7002828792823597E-3</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M61" s="2">
         <f>AVERAGE(J$7:J$12,J$17:J$19)</f>
         <v>2.3435920833815606E-3</v>
       </c>
-      <c r="N60" s="2">
+      <c r="N61" s="2">
         <f>AVERAGE(J$13:J$16)</f>
         <v>5.0000426325554747E-3</v>
       </c>
-      <c r="O60" s="2">
+      <c r="O61" s="2">
         <f>J$20</f>
         <v>9.9992167257435018E-3</v>
       </c>
-      <c r="P60" s="2">
+      <c r="P61" s="2">
         <f>AVERAGE(J$21:J$22)</f>
         <v>5.0002088107608767E-3</v>
       </c>
     </row>
-    <row r="61" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="K61" s="2">
+    <row r="62" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="K62" s="2">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
         <v>3.2650525106723968E-3</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L62" s="2">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
         <v>3.299717120689041E-3</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M62" s="2">
         <f>STDEV(J$7:J$12,J$17:J$19)/SQRT(COUNT(J$7:J$12,J$17:J$19))</f>
         <v>1.4092513298116012E-3</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N62" s="2">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
         <v>2.8867255386663773E-3</v>
       </c>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2">
+      <c r="O62" s="2"/>
+      <c r="P62" s="2">
         <f>STDEV(J$21:J$22)/SQRT(COUNT(J$21:J$22))</f>
         <v>4.9997905818977978E-3</v>
       </c>
     </row>
-    <row r="63" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="L63" t="s">
+    <row r="64" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
         <v>0</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M64" t="s">
         <v>1</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N64" t="s">
         <v>2</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O64" t="s">
         <v>3</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P64" t="s">
         <v>4</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="Q64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="K64" t="s">
+    <row r="65" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
         <v>16</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L65" s="3">
         <f>AVERAGE(K$1:K$3)</f>
         <v>0.9932352089703107</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M65" s="3">
         <f>AVERAGE(K$4:K$6)</f>
         <v>0.99460154687993896</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N65" s="3">
         <f>AVERAGE(K$7:K$12,K$17:K$19)</f>
         <v>0.98980700276706002</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O65" s="3">
         <f>AVERAGE(K$13:K$16)</f>
         <v>0.99704870081823149</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P65" s="3">
         <f>K$20</f>
         <v>0.99428979846547727</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="Q65" s="3">
         <f>AVERAGE(K$21:K$22)</f>
         <v>0.99053303382368307</v>
       </c>
-      <c r="U64" t="str">
-        <f>_xlfn.CONCAT(ROUND(L64,2), " ± ", L65)</f>
+      <c r="U65" t="str">
+        <f>_xlfn.CONCAT(ROUND(L65,2), " ± ", L66)</f>
         <v>0.99 ± 0.00165457610704591</v>
       </c>
-      <c r="V64" t="str">
-        <f t="shared" ref="V64:Z64" si="12">_xlfn.CONCAT(ROUND(M64,2), " ± ", M65)</f>
+      <c r="V65" t="str">
+        <f t="shared" ref="V65:Z65" si="2">_xlfn.CONCAT(ROUND(M65,2), " ± ", M66)</f>
         <v>0.99 ± 0.000599318453359338</v>
       </c>
-      <c r="W64" t="str">
-        <f t="shared" si="12"/>
+      <c r="W65" t="str">
+        <f t="shared" si="2"/>
         <v>0.99 ± 0.00354946861181287</v>
       </c>
-      <c r="X64" t="str">
-        <f t="shared" si="12"/>
+      <c r="X65" t="str">
+        <f t="shared" si="2"/>
         <v>1 ± 0.00116236526635396</v>
       </c>
-      <c r="Y64" t="str">
-        <f t="shared" si="12"/>
+      <c r="Y65" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">0.99 ± </v>
       </c>
-      <c r="Z64" t="str">
-        <f t="shared" si="12"/>
+      <c r="Z65" t="str">
+        <f t="shared" si="2"/>
         <v>0.99 ± 0.00109502067217732</v>
       </c>
     </row>
-    <row r="65" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="L65" s="2">
+    <row r="66" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="L66" s="2">
         <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
         <v>1.6545761070459102E-3</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M66" s="2">
         <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
         <v>5.9931845335933754E-4</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N66" s="2">
         <f>STDEV(K$7:K$12,K$17:K$19)/SQRT(COUNT(K$7:K$12,K$17:K$19))</f>
         <v>3.5494686118128726E-3</v>
       </c>
-      <c r="O65" s="2">
+      <c r="O66" s="2">
         <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
         <v>1.1623652663539574E-3</v>
       </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2">
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2">
         <f>STDEV(K$21:K$22)/SQRT(COUNT(K$21:K$22))</f>
         <v>1.0950206721773159E-3</v>
       </c>
     </row>
-    <row r="67" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="M67" t="s">
+    <row r="68" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
         <v>0</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N68" t="s">
         <v>1</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O68" t="s">
         <v>2</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P68" t="s">
         <v>3</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="Q68" t="s">
         <v>4</v>
       </c>
-      <c r="R67" t="s">
+      <c r="R68" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="L68" t="s">
+    <row r="69" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
         <v>17</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M69" s="3">
         <f>AVERAGE(L$1:L$3)</f>
         <v>0.98300514614760737</v>
       </c>
-      <c r="N68">
+      <c r="N69">
         <f>AVERAGE(L$4:L$6)</f>
         <v>0.96470484724003958</v>
       </c>
-      <c r="O68">
+      <c r="O69">
         <f>AVERAGE(L$7:L$12,L$17:L$19)</f>
         <v>0.96747248940537267</v>
       </c>
-      <c r="P68">
+      <c r="P69">
         <f>AVERAGE(L$13:L$16)</f>
         <v>0.98513044742139777</v>
       </c>
-      <c r="Q68">
+      <c r="Q69">
         <f>L$20</f>
         <v>0.99141974525984633</v>
       </c>
-      <c r="R68">
+      <c r="R69">
         <f>AVERAGE(L$21:L$22)</f>
         <v>0.95949525542250658</v>
       </c>
-      <c r="V68" t="str">
-        <f>_xlfn.CONCAT(ROUND(M68,2), " ± ", M69)</f>
+      <c r="V69" t="str">
+        <f>_xlfn.CONCAT(ROUND(M69,2), " ± ", M70)</f>
         <v>0.98 ± 0.00111350970747063</v>
       </c>
-      <c r="W68" t="str">
-        <f t="shared" ref="W68" si="13">_xlfn.CONCAT(ROUND(N68,2), " ± ", N69)</f>
+      <c r="W69" t="str">
+        <f t="shared" ref="W69" si="3">_xlfn.CONCAT(ROUND(N69,2), " ± ", N70)</f>
         <v>0.96 ± 0.0149257042646119</v>
       </c>
-      <c r="X68" t="str">
-        <f t="shared" ref="X68" si="14">_xlfn.CONCAT(ROUND(O68,2), " ± ", O69)</f>
+      <c r="X69" t="str">
+        <f t="shared" ref="X69" si="4">_xlfn.CONCAT(ROUND(O69,2), " ± ", O70)</f>
         <v>0.97 ± 0.00900261594816281</v>
       </c>
-      <c r="Y68" t="str">
-        <f t="shared" ref="Y68" si="15">_xlfn.CONCAT(ROUND(P68,2), " ± ", P69)</f>
+      <c r="Y69" t="str">
+        <f t="shared" ref="Y69" si="5">_xlfn.CONCAT(ROUND(P69,2), " ± ", P70)</f>
         <v>0.99 ± 0.00698760793669287</v>
       </c>
-      <c r="Z68" t="str">
-        <f t="shared" ref="Z68" si="16">_xlfn.CONCAT(ROUND(Q68,2), " ± ", Q69)</f>
+      <c r="Z69" t="str">
+        <f t="shared" ref="Z69" si="6">_xlfn.CONCAT(ROUND(Q69,2), " ± ", Q70)</f>
         <v xml:space="preserve">0.99 ± </v>
       </c>
-      <c r="AA68" t="str">
-        <f t="shared" ref="AA68" si="17">_xlfn.CONCAT(ROUND(R68,2), " ± ", R69)</f>
+      <c r="AA69" t="str">
+        <f t="shared" ref="AA69" si="7">_xlfn.CONCAT(ROUND(R69,2), " ± ", R70)</f>
         <v>0.96 ± 0.0210653961592776</v>
       </c>
     </row>
-    <row r="69" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="M69" s="2">
+    <row r="70" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="M70" s="2">
         <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
         <v>1.1135097074706298E-3</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N70" s="2">
         <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
         <v>1.4925704264611933E-2</v>
       </c>
-      <c r="O69" s="2">
+      <c r="O70" s="2">
         <f>STDEV(L$7:L$12,L$17:L$19)/SQRT(COUNT(L$7:L$12,L$17:L$19))</f>
         <v>9.002615948162809E-3</v>
       </c>
-      <c r="P69" s="2">
+      <c r="P70" s="2">
         <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
         <v>6.9876079366928689E-3</v>
       </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2">
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2">
         <f>STDEV(L$21:L$22)/SQRT(COUNT(L$21:L$22))</f>
         <v>2.1065396159277605E-2</v>
       </c>
     </row>
-    <row r="71" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="N71" t="s">
+    <row r="72" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
         <v>0</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O72" t="s">
         <v>1</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P72" t="s">
         <v>2</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="Q72" t="s">
         <v>3</v>
       </c>
-      <c r="R71" t="s">
+      <c r="R72" t="s">
         <v>4</v>
       </c>
-      <c r="S71" t="s">
+      <c r="S72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="M72" t="s">
+    <row r="73" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
         <v>18</v>
       </c>
-      <c r="N72">
+      <c r="N73">
         <f>AVERAGE(M$1:M$3)</f>
         <v>0.98559997593529081</v>
       </c>
-      <c r="O72">
+      <c r="O73">
         <f>AVERAGE(M$4:M$6)</f>
         <v>0.9693800503323432</v>
       </c>
-      <c r="P72">
+      <c r="P73">
         <f>AVERAGE(M$7:M$12,M$17:M$19)</f>
         <v>0.98251601658270615</v>
       </c>
-      <c r="Q72">
+      <c r="Q73">
         <f>AVERAGE(M$13:M$16)</f>
         <v>0.97197594133035303</v>
       </c>
-      <c r="R72">
+      <c r="R73">
         <f>M$20</f>
         <v>0.99018690753118732</v>
       </c>
-      <c r="S72">
+      <c r="S73">
         <f>AVERAGE(M$21:M$22)</f>
         <v>0.98683977489400232</v>
       </c>
-      <c r="W72" t="str">
-        <f>_xlfn.CONCAT(ROUND(N72,2), " ± ", N73)</f>
+      <c r="W73" t="str">
+        <f>_xlfn.CONCAT(ROUND(N73,2), " ± ", N74)</f>
         <v>0.99 ± 0.00828496906221606</v>
       </c>
-      <c r="X72" t="str">
-        <f t="shared" ref="X72" si="18">_xlfn.CONCAT(ROUND(O72,2), " ± ", O73)</f>
+      <c r="X73" t="str">
+        <f t="shared" ref="X73" si="8">_xlfn.CONCAT(ROUND(O73,2), " ± ", O74)</f>
         <v>0.97 ± 0.01643264077447</v>
       </c>
-      <c r="Y72" t="str">
-        <f t="shared" ref="Y72" si="19">_xlfn.CONCAT(ROUND(P72,2), " ± ", P73)</f>
+      <c r="Y73" t="str">
+        <f t="shared" ref="Y73" si="9">_xlfn.CONCAT(ROUND(P73,2), " ± ", P74)</f>
         <v>0.98 ± 0.00638525356772389</v>
       </c>
-      <c r="Z72" t="str">
-        <f t="shared" ref="Z72" si="20">_xlfn.CONCAT(ROUND(Q72,2), " ± ", Q73)</f>
+      <c r="Z73" t="str">
+        <f t="shared" ref="Z73" si="10">_xlfn.CONCAT(ROUND(Q73,2), " ± ", Q74)</f>
         <v>0.97 ± 0.0195751335904411</v>
       </c>
-      <c r="AA72" t="str">
-        <f t="shared" ref="AA72" si="21">_xlfn.CONCAT(ROUND(R72,2), " ± ", R73)</f>
+      <c r="AA73" t="str">
+        <f t="shared" ref="AA73" si="11">_xlfn.CONCAT(ROUND(R73,2), " ± ", R74)</f>
         <v xml:space="preserve">0.99 ± </v>
       </c>
-      <c r="AB72" t="str">
-        <f t="shared" ref="AB72" si="22">_xlfn.CONCAT(ROUND(S72,2), " ± ", S73)</f>
+      <c r="AB73" t="str">
+        <f t="shared" ref="AB73" si="12">_xlfn.CONCAT(ROUND(S73,2), " ± ", S74)</f>
         <v>0.99 ± 0.0052782639471135</v>
       </c>
     </row>
-    <row r="73" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="N73" s="2">
+    <row r="74" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="N74" s="2">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
         <v>8.2849690622160601E-3</v>
       </c>
-      <c r="O73" s="2">
+      <c r="O74" s="2">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
         <v>1.6432640774470039E-2</v>
       </c>
-      <c r="P73" s="2">
+      <c r="P74" s="2">
         <f>STDEV(M$7:M$12,M$17:M$19)/SQRT(COUNT(M$7:M$12,M$17:M$19))</f>
         <v>6.3852535677238918E-3</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="Q74" s="2">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
         <v>1.9575133590441086E-2</v>
       </c>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2">
         <f>STDEV(M$21:M$22)/SQRT(COUNT(M$21:M$22))</f>
         <v>5.278263947113504E-3</v>
       </c>
     </row>
-    <row r="75" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="O75" t="s">
+    <row r="76" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="O76" t="s">
         <v>0</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P76" t="s">
         <v>1</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="Q76" t="s">
         <v>2</v>
       </c>
-      <c r="R75" t="s">
+      <c r="R76" t="s">
         <v>3</v>
       </c>
-      <c r="S75" t="s">
+      <c r="S76" t="s">
         <v>4</v>
       </c>
-      <c r="T75" t="s">
+      <c r="T76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="N76" t="s">
+    <row r="77" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
         <v>19</v>
       </c>
-      <c r="O76">
+      <c r="O77">
         <f>AVERAGE(N$1:N$3)</f>
         <v>8.0362041918497926E-2</v>
       </c>
-      <c r="P76">
+      <c r="P77">
         <f>AVERAGE(N$4:N$6)</f>
         <v>7.2878411067648224E-2</v>
       </c>
-      <c r="Q76">
+      <c r="Q77">
         <f>AVERAGE(N$7:N$12,N$17:N$19)</f>
         <v>9.0554912863946804E-2</v>
       </c>
-      <c r="R76">
+      <c r="R77">
         <f>AVERAGE(N$13:N$16)</f>
         <v>5.1207290162989402E-2</v>
       </c>
-      <c r="S76">
+      <c r="S77">
         <f>N$20</f>
         <v>7.5187096759866429E-2</v>
       </c>
-      <c r="T76">
+      <c r="T77">
         <f>AVERAGE(N$21:N$22)</f>
         <v>9.6648036792624958E-2</v>
       </c>
-      <c r="X76" t="str">
-        <f>_xlfn.CONCAT(ROUND(O76,2), " ± ", O77)</f>
+      <c r="X77" t="str">
+        <f>_xlfn.CONCAT(ROUND(O77,2), " ± ", O78)</f>
         <v>0.08 ± 0.0109335570168626</v>
       </c>
-      <c r="Y76" t="str">
-        <f t="shared" ref="Y76" si="23">_xlfn.CONCAT(ROUND(P76,2), " ± ", P77)</f>
+      <c r="Y77" t="str">
+        <f t="shared" ref="Y77" si="13">_xlfn.CONCAT(ROUND(P77,2), " ± ", P78)</f>
         <v>0.07 ± 0.00407466496262481</v>
       </c>
-      <c r="Z76" t="str">
-        <f t="shared" ref="Z76" si="24">_xlfn.CONCAT(ROUND(Q76,2), " ± ", Q77)</f>
+      <c r="Z77" t="str">
+        <f t="shared" ref="Z77" si="14">_xlfn.CONCAT(ROUND(Q77,2), " ± ", Q78)</f>
         <v>0.09 ± 0.0153740961551191</v>
       </c>
-      <c r="AA76" t="str">
-        <f t="shared" ref="AA76" si="25">_xlfn.CONCAT(ROUND(R76,2), " ± ", R77)</f>
+      <c r="AA77" t="str">
+        <f t="shared" ref="AA77" si="15">_xlfn.CONCAT(ROUND(R77,2), " ± ", R78)</f>
         <v>0.05 ± 0.00999332484068297</v>
       </c>
-      <c r="AB76" t="str">
-        <f t="shared" ref="AB76" si="26">_xlfn.CONCAT(ROUND(S76,2), " ± ", S77)</f>
+      <c r="AB77" t="str">
+        <f t="shared" ref="AB77" si="16">_xlfn.CONCAT(ROUND(S77,2), " ± ", S78)</f>
         <v xml:space="preserve">0.08 ± </v>
       </c>
-      <c r="AC76" t="str">
-        <f t="shared" ref="AC76" si="27">_xlfn.CONCAT(ROUND(T76,2), " ± ", T77)</f>
+      <c r="AC77" t="str">
+        <f t="shared" ref="AC77" si="17">_xlfn.CONCAT(ROUND(T77,2), " ± ", T78)</f>
         <v>0.1 ± 0.00560834188376547</v>
       </c>
     </row>
-    <row r="77" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="O77" s="2">
+    <row r="78" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="O78" s="2">
         <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
         <v>1.0933557016862603E-2</v>
       </c>
-      <c r="P77" s="2">
+      <c r="P78" s="2">
         <f>STDEV(N$4:N$6)/SQRT(COUNT(N$4:N$6))</f>
         <v>4.0746649626248136E-3</v>
       </c>
-      <c r="Q77" s="2">
+      <c r="Q78" s="2">
         <f>STDEV(N$7:N$12,N$17:N$19)/SQRT(COUNT(N$7:N$12,N$17:N$19))</f>
         <v>1.5374096155119097E-2</v>
       </c>
-      <c r="R77" s="2">
+      <c r="R78" s="2">
         <f>STDEV(N$13:N$16)/SQRT(COUNT(N$13:N$16))</f>
         <v>9.9933248406829725E-3</v>
       </c>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2">
+      <c r="S78" s="2"/>
+      <c r="T78" s="2">
         <f>STDEV(N$21:N$22)/SQRT(COUNT(N$21:N$22))</f>
         <v>5.6083418837654725E-3</v>
       </c>
     </row>
-    <row r="79" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="P79" t="s">
+    <row r="80" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="P80" t="s">
         <v>0</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="Q80" t="s">
         <v>1</v>
       </c>
-      <c r="R79" t="s">
+      <c r="R80" t="s">
         <v>2</v>
       </c>
-      <c r="S79" t="s">
+      <c r="S80" t="s">
         <v>3</v>
       </c>
-      <c r="T79" t="s">
+      <c r="T80" t="s">
         <v>4</v>
       </c>
-      <c r="U79" t="s">
+      <c r="U80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="O80" t="s">
+    <row r="81" spans="15:31" x14ac:dyDescent="0.25">
+      <c r="O81" t="s">
         <v>20</v>
       </c>
-      <c r="P80">
+      <c r="P81">
         <f>AVERAGE(O$1:O$3)</f>
         <v>0.12957358367758393</v>
       </c>
-      <c r="Q80">
+      <c r="Q81">
         <f>AVERAGE(O$4:O$6)</f>
         <v>0.17825620245069648</v>
       </c>
-      <c r="R80">
+      <c r="R81">
         <f>AVERAGE(O$7:O$12,O$17:O$19)</f>
         <v>0.16358160762849916</v>
       </c>
-      <c r="S80">
+      <c r="S81">
         <f>AVERAGE(O$13:O$16)</f>
         <v>0.11256860779181954</v>
       </c>
-      <c r="T80">
+      <c r="T81">
         <f>O$20</f>
         <v>9.2165352452817859E-2</v>
       </c>
-      <c r="U80">
+      <c r="U81">
         <f>AVERAGE(O$21:O$22)</f>
         <v>0.19280785775103676</v>
       </c>
-      <c r="Y80" t="str">
-        <f>_xlfn.CONCAT(ROUND(P80,2), " ± ", P81)</f>
+      <c r="Y81" t="str">
+        <f>_xlfn.CONCAT(ROUND(P81,2), " ± ", P82)</f>
         <v>0.13 ± 0.00421851436034375</v>
       </c>
-      <c r="Z80" t="str">
-        <f t="shared" ref="Z80" si="28">_xlfn.CONCAT(ROUND(Q80,2), " ± ", Q81)</f>
+      <c r="Z81" t="str">
+        <f t="shared" ref="Z81" si="18">_xlfn.CONCAT(ROUND(Q81,2), " ± ", Q82)</f>
         <v>0.18 ± 0.0397927601468986</v>
       </c>
-      <c r="AA80" t="str">
-        <f t="shared" ref="AA80" si="29">_xlfn.CONCAT(ROUND(R80,2), " ± ", R81)</f>
+      <c r="AA81" t="str">
+        <f t="shared" ref="AA81" si="19">_xlfn.CONCAT(ROUND(R81,2), " ± ", R82)</f>
         <v>0.16 ± 0.0260848327064038</v>
       </c>
-      <c r="AB80" t="str">
-        <f t="shared" ref="AB80" si="30">_xlfn.CONCAT(ROUND(S80,2), " ± ", S81)</f>
+      <c r="AB81" t="str">
+        <f t="shared" ref="AB81" si="20">_xlfn.CONCAT(ROUND(S81,2), " ± ", S82)</f>
         <v>0.11 ± 0.0261353247070423</v>
       </c>
-      <c r="AC80" t="str">
-        <f t="shared" ref="AC80" si="31">_xlfn.CONCAT(ROUND(T80,2), " ± ", T81)</f>
+      <c r="AC81" t="str">
+        <f t="shared" ref="AC81" si="21">_xlfn.CONCAT(ROUND(T81,2), " ± ", T82)</f>
         <v xml:space="preserve">0.09 ± </v>
       </c>
-      <c r="AD80" t="str">
-        <f t="shared" ref="AD80" si="32">_xlfn.CONCAT(ROUND(U80,2), " ± ", U81)</f>
+      <c r="AD81" t="str">
+        <f t="shared" ref="AD81" si="22">_xlfn.CONCAT(ROUND(U81,2), " ± ", U82)</f>
         <v>0.19 ± 0.0540816708430357</v>
       </c>
     </row>
-    <row r="81" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="P81" s="2">
+    <row r="82" spans="15:31" x14ac:dyDescent="0.25">
+      <c r="P82" s="2">
         <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
         <v>4.2185143603437458E-3</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="Q82" s="2">
         <f>STDEV(O$4:O$6)/SQRT(COUNT(O$4:O$6))</f>
         <v>3.9792760146898629E-2</v>
       </c>
-      <c r="R81" s="2">
+      <c r="R82" s="2">
         <f>STDEV(O$7:O$12,O$17:O$19)/SQRT(COUNT(O$7:O$12,O$17:O$19))</f>
         <v>2.6084832706403823E-2</v>
       </c>
-      <c r="S81" s="2">
+      <c r="S82" s="2">
         <f>STDEV(O$13:O$16)/SQRT(COUNT(O$13:O$16))</f>
         <v>2.6135324707042343E-2</v>
       </c>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2">
+      <c r="T82" s="2"/>
+      <c r="U82" s="2">
         <f>STDEV(O$21:O$22)/SQRT(COUNT(O$21:O$22))</f>
         <v>5.4081670843035695E-2</v>
       </c>
     </row>
-    <row r="83" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="Q83" t="s">
+    <row r="84" spans="15:31" x14ac:dyDescent="0.25">
+      <c r="Q84" t="s">
         <v>0</v>
       </c>
-      <c r="R83" t="s">
+      <c r="R84" t="s">
         <v>1</v>
       </c>
-      <c r="S83" t="s">
+      <c r="S84" t="s">
         <v>2</v>
       </c>
-      <c r="T83" t="s">
+      <c r="T84" t="s">
         <v>3</v>
       </c>
-      <c r="U83" t="s">
+      <c r="U84" t="s">
         <v>4</v>
       </c>
-      <c r="V83" t="s">
+      <c r="V84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="P84" t="s">
+    <row r="85" spans="15:31" x14ac:dyDescent="0.25">
+      <c r="P85" t="s">
         <v>21</v>
       </c>
-      <c r="Q84">
+      <c r="Q85">
         <f>AVERAGE(P$1:P$3)</f>
         <v>0.11022569489394717</v>
       </c>
-      <c r="R84">
+      <c r="R85">
         <f>AVERAGE(P$4:P$6)</f>
         <v>0.16197315664774298</v>
       </c>
-      <c r="S84">
+      <c r="S85">
         <f>AVERAGE(P$7:P$12,P$17:P$19)</f>
         <v>0.11909202014710722</v>
       </c>
-      <c r="T84">
+      <c r="T85">
         <f>AVERAGE(P$13:P$16)</f>
         <v>0.14164597265955758</v>
       </c>
-      <c r="U84">
+      <c r="U85">
         <f>P$20</f>
         <v>9.8564504483736548E-2</v>
       </c>
-      <c r="V84">
+      <c r="V85">
         <f>AVERAGE(P$21:P$22)</f>
         <v>0.11172157128821517</v>
       </c>
-      <c r="Z84" t="str">
-        <f>_xlfn.CONCAT(ROUND(Q84,2), " ± ", Q85)</f>
+      <c r="Z85" t="str">
+        <f>_xlfn.CONCAT(ROUND(Q85,2), " ± ", Q86)</f>
         <v>0.11 ± 0.0324524267906773</v>
       </c>
-      <c r="AA84" t="str">
-        <f t="shared" ref="AA84" si="33">_xlfn.CONCAT(ROUND(R84,2), " ± ", R85)</f>
+      <c r="AA85" t="str">
+        <f t="shared" ref="AA85" si="23">_xlfn.CONCAT(ROUND(R85,2), " ± ", R86)</f>
         <v>0.16 ± 0.0451577606649513</v>
       </c>
-      <c r="AB84" t="str">
-        <f t="shared" ref="AB84" si="34">_xlfn.CONCAT(ROUND(S84,2), " ± ", S85)</f>
+      <c r="AB85" t="str">
+        <f t="shared" ref="AB85" si="24">_xlfn.CONCAT(ROUND(S85,2), " ± ", S86)</f>
         <v>0.12 ± 0.0197684030985273</v>
       </c>
-      <c r="AC84" t="str">
-        <f t="shared" ref="AC84" si="35">_xlfn.CONCAT(ROUND(T84,2), " ± ", T85)</f>
+      <c r="AC85" t="str">
+        <f t="shared" ref="AC85" si="25">_xlfn.CONCAT(ROUND(T85,2), " ± ", T86)</f>
         <v>0.14 ± 0.0505972216374194</v>
       </c>
-      <c r="AD84" t="str">
-        <f t="shared" ref="AD84" si="36">_xlfn.CONCAT(ROUND(U84,2), " ± ", U85)</f>
+      <c r="AD85" t="str">
+        <f t="shared" ref="AD85" si="26">_xlfn.CONCAT(ROUND(U85,2), " ± ", U86)</f>
         <v xml:space="preserve">0.1 ± </v>
       </c>
-      <c r="AE84" t="str">
-        <f t="shared" ref="AE84" si="37">_xlfn.CONCAT(ROUND(V84,2), " ± ", V85)</f>
+      <c r="AE85" t="str">
+        <f t="shared" ref="AE85" si="27">_xlfn.CONCAT(ROUND(V85,2), " ± ", V86)</f>
         <v>0.11 ± 0.023386178906139</v>
       </c>
     </row>
-    <row r="85" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="Q85" s="2">
+    <row r="86" spans="15:31" x14ac:dyDescent="0.25">
+      <c r="Q86" s="2">
         <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
         <v>3.2452426790677315E-2</v>
       </c>
-      <c r="R85" s="2">
+      <c r="R86" s="2">
         <f>STDEV(P$4:P$6)/SQRT(COUNT(P$4:P$6))</f>
         <v>4.5157760664951335E-2</v>
       </c>
-      <c r="S85" s="2">
+      <c r="S86" s="2">
         <f>STDEV(P$7:P$12,P$17:P$19)/SQRT(COUNT(P$7:P$12,P$17:P$19))</f>
         <v>1.9768403098527287E-2</v>
       </c>
-      <c r="T85" s="2">
+      <c r="T86" s="2">
         <f>STDEV(P$13:P$16)/SQRT(COUNT(P$13:P$16))</f>
         <v>5.0597221637419386E-2</v>
       </c>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2">
+      <c r="U86" s="2"/>
+      <c r="V86" s="2">
         <f>STDEV(P$21:P$22)/SQRT(COUNT(P$21:P$22))</f>
         <v>2.3386178906139012E-2</v>
       </c>
     </row>
-    <row r="87" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="R87" t="s">
+    <row r="88" spans="15:31" x14ac:dyDescent="0.25">
+      <c r="R88" t="s">
         <v>0</v>
       </c>
-      <c r="S87" t="s">
+      <c r="S88" t="s">
         <v>1</v>
       </c>
-      <c r="T87" t="s">
+      <c r="T88" t="s">
         <v>2</v>
       </c>
-      <c r="U87" t="s">
+      <c r="U88" t="s">
         <v>3</v>
       </c>
-      <c r="V87" t="s">
+      <c r="V88" t="s">
         <v>4</v>
       </c>
-      <c r="W87" t="s">
+      <c r="W88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="Q88" t="s">
+    <row r="89" spans="15:31" x14ac:dyDescent="0.25">
+      <c r="Q89" t="s">
         <v>22</v>
       </c>
-      <c r="R88" s="2">
+      <c r="R89" s="2">
         <f>AVERAGE(Q$1:Q$3)</f>
         <v>2.0365681512952261E-2</v>
       </c>
-      <c r="S88" s="2">
+      <c r="S89" s="2">
         <f>AVERAGE(Q$4:Q$6)</f>
         <v>1.9902792231451975E-2</v>
       </c>
-      <c r="T88" s="2">
+      <c r="T89" s="2">
         <f>AVERAGE(Q$7:Q$12,Q$17:Q$19)</f>
         <v>2.0561912508965351E-2</v>
       </c>
-      <c r="U88" s="2">
+      <c r="U89" s="2">
         <f>AVERAGE(Q$13:Q$16)</f>
         <v>2.0431830067845134E-2</v>
       </c>
-      <c r="V88" s="2">
+      <c r="V89" s="2">
         <f>Q$20</f>
         <v>2.0784713283118691E-2</v>
       </c>
-      <c r="W88" s="2">
+      <c r="W89" s="2">
         <f>AVERAGE(Q$21:Q$22)</f>
         <v>2.0754795921728013E-2</v>
       </c>
     </row>
-    <row r="89" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="R89" s="2">
+    <row r="90" spans="15:31" x14ac:dyDescent="0.25">
+      <c r="R90" s="2">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
         <v>3.8194997275177109E-4</v>
       </c>
-      <c r="S89" s="2">
+      <c r="S90" s="2">
         <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
         <v>2.9494907968756836E-4</v>
       </c>
-      <c r="T89" s="2">
+      <c r="T90" s="2">
         <f>STDEV(Q$7:Q$12,Q$17:Q$19)/SQRT(COUNT(Q$7:Q$12,Q$17:Q$19))</f>
         <v>2.310682053692697E-4</v>
       </c>
-      <c r="U89" s="2">
+      <c r="U90" s="2">
         <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
         <v>4.7544596282562859E-4</v>
       </c>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2">
+      <c r="V90" s="2"/>
+      <c r="W90" s="2">
         <f>STDEV(Q$21:Q$22)/SQRT(COUNT(Q$21:Q$22))</f>
         <v>1.7933404971992757E-4</v>
       </c>
     </row>
-    <row r="91" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="S91" t="s">
+    <row r="92" spans="15:31" x14ac:dyDescent="0.25">
+      <c r="S92" t="s">
         <v>0</v>
       </c>
-      <c r="T91" t="s">
+      <c r="T92" t="s">
         <v>1</v>
       </c>
-      <c r="U91" t="s">
+      <c r="U92" t="s">
         <v>2</v>
       </c>
-      <c r="V91" t="s">
+      <c r="V92" t="s">
         <v>3</v>
       </c>
-      <c r="W91" t="s">
+      <c r="W92" t="s">
         <v>4</v>
       </c>
-      <c r="X91" t="s">
+      <c r="X92" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="R92" t="s">
+    <row r="93" spans="15:31" x14ac:dyDescent="0.25">
+      <c r="R93" t="s">
         <v>23</v>
       </c>
-      <c r="S92" s="2">
+      <c r="S93" s="2">
         <f>AVERAGE(R$1:R$3)</f>
         <v>2.6578997644427605E-2</v>
       </c>
-      <c r="T92" s="2">
+      <c r="T93" s="2">
         <f>AVERAGE(R$4:R$6)</f>
         <v>2.6835872828472173E-2</v>
       </c>
-      <c r="U92" s="2">
+      <c r="U93" s="2">
         <f>AVERAGE(R$7:R$12,R$17:R$19)</f>
         <v>2.6886662268571313E-2</v>
       </c>
-      <c r="V92" s="2">
+      <c r="V93" s="2">
         <f>AVERAGE(R$13:R$16)</f>
         <v>2.6657237171290454E-2</v>
       </c>
-      <c r="W92" s="2">
+      <c r="W93" s="2">
         <f>R$20</f>
         <v>2.6593421852223683E-2</v>
       </c>
-      <c r="X92" s="2">
+      <c r="X93" s="2">
         <f>AVERAGE(R$21:R$22)</f>
         <v>2.6777762541119757E-2</v>
       </c>
     </row>
-    <row r="93" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="S93" s="2">
+    <row r="94" spans="15:31" x14ac:dyDescent="0.25">
+      <c r="S94" s="2">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
         <v>2.1625069528551808E-5</v>
       </c>
-      <c r="T93" s="2">
+      <c r="T94" s="2">
         <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
         <v>4.8710360305349656E-5</v>
       </c>
-      <c r="U93" s="2">
+      <c r="U94" s="2">
         <f>STDEV(R$7:R$12,R$17:R$19)/SQRT(COUNT(R$7:R$12,R$17:R$19))</f>
         <v>1.614486351023254E-4</v>
       </c>
-      <c r="V93" s="2">
+      <c r="V94" s="2">
         <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
         <v>1.279616788292203E-4</v>
       </c>
-      <c r="W93" s="2"/>
-      <c r="X93" s="2">
+      <c r="W94" s="2"/>
+      <c r="X94" s="2">
         <f>STDEV(R$21:R$22)/SQRT(COUNT(R$21:R$22))</f>
         <v>2.9679016567189798E-5</v>
       </c>
     </row>
-    <row r="99" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S99" s="3">
-        <f>1/S92</f>
+    <row r="100" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S100" s="3">
+        <f>1/S93</f>
         <v>37.623691208297089</v>
       </c>
-      <c r="T99" s="3">
-        <f t="shared" ref="T99:X99" si="38">1/T92</f>
+      <c r="T100" s="3">
+        <f t="shared" ref="T100:X100" si="28">1/T93</f>
         <v>37.263554138586677</v>
       </c>
-      <c r="U99" s="3">
-        <f t="shared" si="38"/>
+      <c r="U100" s="3">
+        <f t="shared" si="28"/>
         <v>37.193162543233647</v>
       </c>
-      <c r="V99" s="3">
-        <f t="shared" si="38"/>
+      <c r="V100" s="3">
+        <f t="shared" si="28"/>
         <v>37.513264918428561</v>
       </c>
-      <c r="W99" s="3">
-        <f t="shared" si="38"/>
+      <c r="W100" s="3">
+        <f t="shared" si="28"/>
         <v>37.603284209037668</v>
       </c>
-      <c r="X99" s="3">
-        <f t="shared" si="38"/>
+      <c r="X100" s="3">
+        <f t="shared" si="28"/>
         <v>37.344419589366609</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N23:W44">
-    <cfRule type="notContainsText" dxfId="1" priority="5" operator="notContains" text="Ok">
-      <formula>ISERROR(SEARCH("Ok",N23))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD23:AE44">
-    <cfRule type="notContainsText" dxfId="0" priority="4" operator="notContains" text="Ok">
-      <formula>ISERROR(SEARCH("Ok",AD23))</formula>
+  <conditionalFormatting sqref="AD25:AE45 N24:W45">
+    <cfRule type="notContainsText" dxfId="1" priority="9" operator="notContains" text="Ok">
+      <formula>ISERROR(SEARCH("Ok",N24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N22">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P22">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11592,7 +10845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O22">
+  <conditionalFormatting sqref="P1:P23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11604,16 +10857,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P22">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+  <conditionalFormatting sqref="AD24:AE24">
+    <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="Ok">
+      <formula>ISERROR(SEARCH("Ok",AD24))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11623,6 +10869,490 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89F52C-BC8F-41D6-92BA-783D0EEC794E}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.27760663725139406</v>
+      </c>
+      <c r="D5" s="6">
+        <v>9.2535545750464687E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.3614671676469111E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.0624245555024618</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.3541415185008206</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9.8531347526109037E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6.7899841409633712</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.75444268232926348</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.4348356460794891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.6766566010060806</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.16916415025152015</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7.5527009542531623E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.10810136923207164</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.10810136923207164</v>
+      </c>
+      <c r="E9" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.4094687710706042</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.2047343855353021</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6.7041460696828621E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1.7826893360028055</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.35653786720056113</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.48647068546532474</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.78145880566205217</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.8524091650819878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="6">
+        <v>11.726515174809229</v>
+      </c>
+      <c r="C16" s="6">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.73290719842557683</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="7">
+        <v>13.509204510812035</v>
+      </c>
+      <c r="C18" s="7">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D8A347-8569-442A-B593-94543D1EC0B1}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.75444268232926348</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.16916415025152015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.4348356460794891</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7.5527009542531623E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.3860447717323272</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9.7929992897640289E-2</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.812461122811676</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.19585998579528058</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.2281388519862744</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC365D94-EFB5-4130-A7F8-9E0BB1910935}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0.10465567845805716</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.28353888576952746</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.8711767021941051E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.6738923838399504E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.10810136923207164</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.18642571809378297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.10453021573169838</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.46763865279280215</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.2547230470345092E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.3975951449874546E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.22304305297682125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>6.8420743061638548E-2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.31124701694013229</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.417715349211504</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.4777155572905403E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>0.30767357664672129</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.58116457014490119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>7.5490511028491469E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>2.1312262426398703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>0.16008235012557337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>0.4868769103206117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>8.9660203498313579E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B6BAAC-6A3E-4E58-9981-CF1298A0FB5A}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R15"/>
@@ -12366,13 +12096,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619B633D-6CFB-483C-9FB4-8F6342530738}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12460,6 +12190,10 @@
       <c r="J2">
         <v>2.6578997644427605E-2</v>
       </c>
+      <c r="L2">
+        <f>1/D2</f>
+        <v>13.541162528474779</v>
+      </c>
       <c r="T2" s="1" t="s">
         <v>22</v>
       </c>
@@ -12507,6 +12241,10 @@
       <c r="J3">
         <v>2.6835872828472173E-2</v>
       </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="0">1/D3</f>
+        <v>19.895130395791927</v>
+      </c>
       <c r="T3" s="1" t="s">
         <v>6</v>
       </c>
@@ -12554,6 +12292,10 @@
       <c r="J4">
         <v>2.6886662268571313E-2</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>15.845387793256787</v>
+      </c>
       <c r="T4" s="1" t="s">
         <v>12</v>
       </c>
@@ -12600,6 +12342,10 @@
       </c>
       <c r="J5">
         <v>2.6657237171290454E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>12.444331348200295</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>24</v>
@@ -13744,19 +13490,19 @@
         <v>2.32E-03 ± 1.41E-04</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" ref="D30:I30" si="0">IF(NOT(ISNUMBER(FIND("E",D9))),_xlfn.CONCAT(ROUND(D9,2), " ± ", ROUND(D23,2)),_xlfn.CONCAT(LEFT(D9,4),RIGHT(D9,4), " ± ",LEFT(D23,4),RIGHT(D23,4)))</f>
+        <f t="shared" ref="D30:I30" si="1">IF(NOT(ISNUMBER(FIND("E",D9))),_xlfn.CONCAT(ROUND(D9,2), " ± ", ROUND(D23,2)),_xlfn.CONCAT(LEFT(D9,4),RIGHT(D9,4), " ± ",LEFT(D23,4),RIGHT(D23,4)))</f>
         <v>0.43 ± 0.22</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.07 ± 0.02</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" ref="F30:F33" si="1">_xlfn.CONCAT(F9," ± ",F23)</f>
+        <f t="shared" ref="F30:F33" si="2">_xlfn.CONCAT(F9," ± ",F23)</f>
         <v>3.27E-03 ± 3.27E-03</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.09 ± 0.01</v>
       </c>
       <c r="H30" t="str">
@@ -13764,11 +13510,11 @@
         <v>0.03 ± 2.16E-05</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.04 ± 0.02</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" ref="J30:K33" si="2">_xlfn.CONCAT(J9," ± ",J23)</f>
+        <f t="shared" ref="J30:K33" si="3">_xlfn.CONCAT(J9," ± ",J23)</f>
         <v>3.33E-03 ± 3.33E-03</v>
       </c>
       <c r="K30" t="str">
@@ -13789,51 +13535,51 @@
         <v>1</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" ref="B31:B33" si="3">_xlfn.CONCAT(ROUND(B10,2)," ± ",B24)</f>
+        <f t="shared" ref="B31:B33" si="4">_xlfn.CONCAT(ROUND(B10,2)," ± ",B24)</f>
         <v>0.02 ± 2.95E-04</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31" si="4">_xlfn.CONCAT(ROUND(C10,2)," ± ",C24)</f>
+        <f t="shared" ref="C31" si="5">_xlfn.CONCAT(ROUND(C10,2)," ± ",C24)</f>
         <v>0.01 ± 1.19E-03</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ref="D31:J35" si="5">IF(NOT(ISNUMBER(FIND("E",D10))),_xlfn.CONCAT(ROUND(D10,2), " ± ", ROUND(D24,2)),_xlfn.CONCAT(LEFT(D10,4),RIGHT(D10,4), " ± ",LEFT(D24,4),RIGHT(D24,4)))</f>
+        <f t="shared" ref="D31:J35" si="6">IF(NOT(ISNUMBER(FIND("E",D10))),_xlfn.CONCAT(ROUND(D10,2), " ± ", ROUND(D24,2)),_xlfn.CONCAT(LEFT(D10,4),RIGHT(D10,4), " ± ",LEFT(D24,4),RIGHT(D24,4)))</f>
         <v>0.2 ± 0.2</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.05 ± 0.02</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.70E-03 ± 3.30E-03</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35 ± 0.06</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" ref="H31:H35" si="6">_xlfn.CONCAT(ROUND(H10,2)," ± ",H24)</f>
+        <f t="shared" ref="H31:H35" si="7">_xlfn.CONCAT(ROUND(H10,2)," ± ",H24)</f>
         <v>0.03 ± 4.87E-05</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2 ± 0.05</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.55E-04 ± 3.55E-04</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.29E+08 ± 3.37E+08</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" ref="L31:M35" si="7">_xlfn.CONCAT(ROUND(L10,2), " ± ", ROUND(L24,2))</f>
+        <f t="shared" ref="L31:M35" si="8">_xlfn.CONCAT(ROUND(L10,2), " ± ", ROUND(L24,2))</f>
         <v>22.08 ± 5.43</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61.05 ± 4.89</v>
       </c>
     </row>
@@ -13842,51 +13588,51 @@
         <v>2</v>
       </c>
       <c r="B32" t="str">
+        <f t="shared" si="4"/>
+        <v>0.02 ± 2.31E-04</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ref="C32" si="9">_xlfn.CONCAT(ROUND(C11,2)," ± ",C25)</f>
+        <v>0.03 ± 1.02E-02</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="6"/>
+        <v>0.42 ± 0.1</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="6"/>
+        <v>0.06 ± 0.01</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>2.34E-03 ± 1.41E-03</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="6"/>
+        <v>0.75 ± 0.4</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="7"/>
+        <v>0.03 ± 1.61E-04</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="6"/>
+        <v>1.67 ± 1.13</v>
+      </c>
+      <c r="J32" t="str">
         <f t="shared" si="3"/>
-        <v>0.02 ± 2.31E-04</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" ref="C32" si="8">_xlfn.CONCAT(ROUND(C11,2)," ± ",C25)</f>
-        <v>0.03 ± 1.02E-02</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="5"/>
-        <v>0.42 ± 0.1</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="5"/>
-        <v>0.06 ± 0.01</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="1"/>
-        <v>2.34E-03 ± 1.41E-03</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="5"/>
-        <v>0.75 ± 0.4</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="6"/>
-        <v>0.03 ± 1.61E-04</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="5"/>
-        <v>1.67 ± 1.13</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="2"/>
         <v>2.31E-03 ± 1.17E-03</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.57E+08 ± 2.18E+08</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.05 ± 3.37</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62.57 ± 3.82</v>
       </c>
     </row>
@@ -13895,51 +13641,51 @@
         <v>3</v>
       </c>
       <c r="B33" t="str">
+        <f t="shared" si="4"/>
+        <v>0.02 ± 4.75E-04</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33" si="10">_xlfn.CONCAT(ROUND(C12,2)," ± ",C26)</f>
+        <v>0.01 ± 4.29E-04</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="6"/>
+        <v>0.35 ± 0.2</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="6"/>
+        <v>0.08 ± 0.01</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>5.00E-03 ± 2.89E-03</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="6"/>
+        <v>0.17 ± 0.14</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="7"/>
+        <v>0.03 ± 1.28E-04</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="6"/>
+        <v>0.74 ± 0.73</v>
+      </c>
+      <c r="J33" t="str">
         <f t="shared" si="3"/>
-        <v>0.02 ± 4.75E-04</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" ref="C33" si="9">_xlfn.CONCAT(ROUND(C12,2)," ± ",C26)</f>
-        <v>0.01 ± 4.29E-04</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="5"/>
-        <v>0.35 ± 0.2</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="5"/>
-        <v>0.08 ± 0.01</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="1"/>
-        <v>5.00E-03 ± 2.89E-03</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="5"/>
-        <v>0.17 ± 0.14</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="6"/>
-        <v>0.03 ± 1.28E-04</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="5"/>
-        <v>0.74 ± 0.73</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="2"/>
         <v>2.53E-03 ± 2.49E-03</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.12E+09 ± 5.56E+08</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30.41 ± 5.04</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61.88 ± 2.88</v>
       </c>
     </row>
@@ -13952,31 +13698,31 @@
         <v>0.02</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:I34" si="10">ROUND(C13,2)</f>
+        <f t="shared" ref="C34:I34" si="11">ROUND(C13,2)</f>
         <v>0.01</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.66</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.03</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
       <c r="J34" s="4" t="str">
@@ -14001,15 +13747,15 @@
         <v>5</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" ref="B35:D35" si="11">_xlfn.CONCAT(ROUND(B14,2)," ± ",B28)</f>
+        <f t="shared" ref="B35:D35" si="12">_xlfn.CONCAT(ROUND(B14,2)," ± ",B28)</f>
         <v>0.02 ± 1.79E-04</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01 ± 4.76E-04</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.58 ± 3.83E-02</v>
       </c>
       <c r="E35" t="str">
@@ -14017,35 +13763,35 @@
         <v>0.1 ± 6.99E-07</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.00E-03 ± 5.00E-03</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2 ± 0.02</v>
       </c>
       <c r="H35" t="str">
+        <f t="shared" si="7"/>
+        <v>0.03 ± 2.97E-05</v>
+      </c>
+      <c r="I35" t="str">
         <f t="shared" si="6"/>
-        <v>0.03 ± 2.97E-05</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="5"/>
         <v>0.16 ± 0.02</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.94E-07 ± 3.94E-07</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" ref="K35" si="12">_xlfn.CONCAT(K14," ± ",K28)</f>
+        <f t="shared" ref="K35" si="13">_xlfn.CONCAT(K14," ± ",K28)</f>
         <v>1.57E+09 ± 4.98E+08</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.39 ± 0.24</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>72.18 ± 2.95</v>
       </c>
     </row>
@@ -14351,15 +14097,487 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEC2AF0-5004-431B-B876-7802B4BE93EC}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6.9519806891952564E-3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.3173268963984188E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5.9732205575568256E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.9539635889354839E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6.5132119631182801E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.2757533990689297E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.24781595654771854</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.7535106283079838E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9.4003167027277318E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2.0109584730096469E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.0273961825241173E-3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7.3687561754662218E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.0760566128758033E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.0760566128758033E-2</v>
+      </c>
+      <c r="E9" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1.4436856201666546E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7.218428100833273E-3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.5315983276904582E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2.644774551658775E-3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5.2895491033175496E-4</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.1237043808526377</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.38724512758252094</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.8524091650819878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="6">
+        <v>7.5315881200768865E-3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4.707242575048054E-4</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1.0176362671735661E-2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF322087-917C-43B5-91CD-EFE57B8CC15C}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.7535106283079838E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5.0273961825241173E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9.4003167027277318E-4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7.3687561754662218E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="6">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2.2003849769091444</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.947925118972813E-2</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.8595480375308981</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5.8958502379456261E-2</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.3060041352041671</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C81D8B5-6680-4FFB-85DD-B8A9C238D7F1}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2.0440913622746353E-3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.3762528274266495E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7.8104063053251026E-3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5.3785052731830461E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.0760566128758033E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7.6944322146647853E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2.3927976051121252E-3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.2633828822758588E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0293977888170207E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.7811522215408897E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6.7424239870017616E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2.5150917218084955E-3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8.9000001796523294E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.5521490650557456E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.733412868772542E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>3.146457105211109E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.2165143665999902E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>8.6133116110997613E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>7.9998621646789378E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>8.6066060331552955E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>2.3825085307432405E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>7.9999999999977797E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>